--- a/日本語/1_語彙.xlsx
+++ b/日本語/1_語彙.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeshafteure/Documents/GitHub/Freshmore/日本語/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{C6815BB1-7E97-344D-80E0-39F66F589DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A12E8E-4C37-7243-9155-6038146D5838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,30 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="1116">
   <si>
     <t>亜〜</t>
   </si>
   <si>
     <t>あ〜</t>
-  </si>
-  <si>
-    <t>日</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ニチ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>英</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">エイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>subtropical region</t>
@@ -2574,6 +2555,2689 @@
   </si>
   <si>
     <t>あらす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらすじ</t>
+  </si>
+  <si>
+    <t>あらすじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an outline, a brief/rough outline, a summary, a synposis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>争い</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アラソイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらそい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>competition, struggle, quarrel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>compete, contend, struggled, race, fight, dispute</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new, newly, renew, fresh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be improved, be formal, be ceremonious, be stiff, change, move</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>once more, some other time, later</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>renew, change, reform, correct, examine, count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rough, violent, coarse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an Arab</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all, every</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hail, a hailstone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>show, express, signify, represent, symbolize, stand for</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an expression, a manifestation, an outcome, a sign</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appear, come out, show up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appreciate, thankful, fortunate, welcome, edifying, merciful, gracious, bountiful</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a state, a condition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plain, unvarnished, frank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>commonplace, ordinary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>have, hold</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a certain, one, some</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>or, either…or, perhaps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alkali</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>walk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alcohol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>part-time job</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an album</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aluminium</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>that (far listener)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>that, those, ah</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this and that</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be rough, be stormy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to adjust</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to fit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>put together, add, adjust, set, tune, adapt oneself, fit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>busy, hurried, rushed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be flurried</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a plan, a proposal, an idea, expectation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>easy, easygoing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unexpectedly, surprisingly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memorise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>encore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>questionnaire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bubble, foam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mental aritmetic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>suggestion, hint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>worry, be anxious, be concerned</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assassination</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feel relieved</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rest, quiet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新た</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アラタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>争う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改まる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アラタマル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらたまる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改めて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらためて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荒っぽい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらっぽい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アラブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらゆる</t>
+  </si>
+  <si>
+    <t>あらゆる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらためる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改める</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>霰</t>
+    <rPh sb="0" eb="1">
+      <t>アラレチャン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あられ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表す</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アラワス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらわす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現れ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アラワレ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらわれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現れる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらわれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有り難い</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アリガタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ありがたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有り様</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アリサマ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ありさま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ありふれる</t>
+  </si>
+  <si>
+    <t>ありふれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ありのまま</t>
+  </si>
+  <si>
+    <t>ありのまま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有る／在る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アル </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">アル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>或る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あるいは</t>
+  </si>
+  <si>
+    <t>あるいは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルカリ</t>
+  </si>
+  <si>
+    <t>アルカリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あるく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルコール</t>
+  </si>
+  <si>
+    <t>アルコール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバム</t>
+  </si>
+  <si>
+    <t>アルバム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルミ</t>
+  </si>
+  <si>
+    <t>アルミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あれこれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荒れる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泡</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アワ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合わす</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アワス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あわす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜合わせ</t>
+    <rPh sb="1" eb="2">
+      <t>アワセ1</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜あわせ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合わせる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あわせる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慌ただしい</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アワタダシイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あわただしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慌てる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あわてる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>哀れ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アワレ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あわれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安易</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アンイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案外</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アンガイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんがい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗記</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アンキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンケート</t>
+  </si>
+  <si>
+    <t>アンケート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンコール</t>
+  </si>
+  <si>
+    <t>アンコール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗殺</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アンサツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんさつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗算</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アンザｎ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんざん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗示</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アンジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案じる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アンジル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんじる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安心(する)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんしん(する)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安静</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アンセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>safety, safe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stability, steadiness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an antenna, an aerial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>like that</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guidance, invitation, guide, notice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guide, show</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>such…as, so, like that</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>just as expected, as anticipated</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>too~, so~, terrible, awful, merciless</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nth place</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the stomach</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feelings, thinking, will, voiltion, meaning, a sense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>odd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>good</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>just right, inaccurate, irresponsible</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bring up, speak out, propose, suggest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order, tell, instruct, tell on</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>explanation, excuse, justification, defense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a committee, commission, committee member, commission member</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doctor's office, clinic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>say, tell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>house</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>run away from home</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>less than</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>except, besides</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unexpected, surprising</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>what, how about</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>medical science</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spare a person's life, revive, make use of, utilise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>how, in what way, however, no matter how</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>just, as if</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>anger, rage, fury, wrath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>breath, breathing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smart, chic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meaning, importance, significance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>objection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>way to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fresh, lively, vivid, bright, alive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>force, energy, vigor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>motivation in life, salt of life</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enthusiasm, determination</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>miss each other</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>suddenly, all of a sudden, abruptly, without (any) warning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a living thing/being, life</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>live</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UK, England</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>some, many, how much</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>go</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>childcare, nursing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rearing, upringing, raising</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>numerous</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>how many</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>somewhat, a little, a part, a portion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>how much</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安全</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アンゼン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんぜん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安定</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アンテイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんてい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンテナ</t>
+  </si>
+  <si>
+    <t>アンテナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんな</t>
+  </si>
+  <si>
+    <t>あんな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案内</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アンナイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案内(する)</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アンナイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんない(する)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんなに</t>
+  </si>
+  <si>
+    <t>あんなに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案の定</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アンノジョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんのじょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんまり</t>
+  </si>
+  <si>
+    <t>あんまり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜位</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>胃</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意</t>
+    <rPh sb="0" eb="1">
+      <t>イ4</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いい</t>
+  </si>
+  <si>
+    <t>いい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いい加減</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいえ／いえ</t>
+  </si>
+  <si>
+    <t>いいえ／いえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいかげん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言い出す</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イイダス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいだす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言い付ける</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イイツケル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいつける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言い訳</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イイワケ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいわけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>委員</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イイン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医院</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イイン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言う</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イエ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家出</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イエデ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いえで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以外</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イガイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いがい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意外</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イガイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いがが</t>
+  </si>
+  <si>
+    <t>いがが</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医学</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イガク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いがく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いかす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いかに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生かす</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イカス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いかにも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怒り</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イカリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いかり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>息</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>粋</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意義</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イギ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異議</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イギ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行き</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生き生き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いきいき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勢い</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イキオイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いきおい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生き甲斐</t>
+    <rPh sb="0" eb="1">
+      <t>カス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いきがい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意気込み</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">イキゴム </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いきごみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行き違い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いきちがい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いきなり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生き物</t>
+    <rPh sb="0" eb="2">
+      <t>カス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いきもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イギリス</t>
+  </si>
+  <si>
+    <t>イギリス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生きる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いきる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幾〜</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イクツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いく〜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>育児</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イクジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いくじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>育成</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イクセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幾多</t>
+    <rPh sb="0" eb="1">
+      <t>〜</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幾つ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イクツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幾分</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イクブｎ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幾ら</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イクラ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いくら〜でも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>池</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イケ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いくせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いくた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いくつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いくぶん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いくら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>even though ~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pond</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生け花</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いけばな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flower arrangement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>well, not bad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opinion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>different view, objection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>after, since, from, after this, from now on, hereafter, in (the) future</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>after, since, from</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intention</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a switchover, a shift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an equal sign</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜さらば goodbye, 〜という時に in a pinch, となれば私も働きます When the time comes, I will work, too</t>
+    <rPh sb="18" eb="19">
+      <t xml:space="preserve">トキニ </t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t xml:space="preserve">ハタラキマス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brave, courageous, gallant, valiant, daring, bold, stirring</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doctor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a mind (to do), intention, wish, will to do, volition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maintenance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one's nature, wilpower, pride</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>consciousness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>torment, bully</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>move, emigration, immigration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothes, clothing, costumes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>more than</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unusual, extraordinary, abnormal, peculiar, singular, uncommon, remarkable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>since…,once…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>food, clothing and shelter, creature comforts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>play with, tamper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ill-natured, spiteful, mean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chair(s)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a spring, a fountain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>anyway, in any case, at any rate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the opposite sex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remains, ruins</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>before</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>as before, as~as ever</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>busy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hurry, make haste</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dependence (on)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a board, a plank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>painful</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>great, grand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>charge, consignment, trust</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hold, embrace, hug, have, bear, entertain, harbour</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>do (humble)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mischief, practical joke, prank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the top, the summit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Let's eat, shall we begin?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>receive (humble)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>extremely, very</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pain, ache, sorrow, distress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hurt, prickle, feel prickly, sting, smart, painful</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>damage, spoil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lead to, come, extend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be considerate, care for</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>place, position, location</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the top of ~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a market, a fair</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one by one, everything, in detail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>just in case, for the present time being</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>generalise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>at one time, in a moment, instantly, once, for a time, for the time being</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remarkable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>further, much</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>once</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all (of us)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>at once, at a time, at the same time, simultaneously, at a stretch/sitting, all together</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a market (place)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number one, the first, the most</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a part, a portion, partly, some</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>part, fraction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one side, one aspect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜瞭然(りょうぜん) it's quite obvious, 〜置く admit one's inferiority (to a person)</t>
+    <rPh sb="1" eb="3">
+      <t>イチモク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t xml:space="preserve">イチモクオク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uniformity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uniformity, even</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>first-class, first-rate, the first rank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a series of, a chain of</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>when</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a home, a household, one's family</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the 5th day, 5 days</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sometime, someday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bulk bloc, bundle, lump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>burst, at a breath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>at a blow, at a sweep</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a look, a glance, seemingly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all, everything</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the day before yesterday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the year before last, two years ago</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a kind, a sort, a variety</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an instant, a moment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a lifetime, one's whole life</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>very hard, with all of one's might</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>together</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いける</t>
+  </si>
+  <si>
+    <t>いける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意見</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イケン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いけん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異見</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イケン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いけん</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">イゴ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以後</t>
+  </si>
+  <si>
+    <t>いご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以降</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意向</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移行</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イコール</t>
+  </si>
+  <si>
+    <t>イコール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いざ</t>
+  </si>
+  <si>
+    <t>いざ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勇ましい</t>
+    <rPh sb="0" eb="1">
+      <t>イサマシイ1</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いざましい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医師</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意思／意志</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イシ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">イシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>維持</t>
+    <rPh sb="0" eb="2">
+      <t>イジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意地</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意識</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イシキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いしき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虐める</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イジメル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いじめる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医者</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イシャ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いしゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移住</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イジュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いじゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衣装</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いしょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以上</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イジョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いじょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イジョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜以上</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">イジョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜いじょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衣食住</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">イショクジュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いしょくじゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いじる</t>
+  </si>
+  <si>
+    <t>弄る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イジル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意地悪</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">イジワル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いじわる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>椅子</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泉</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イズミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いずみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いずれ</t>
+  </si>
+  <si>
+    <t>いずれ</t>
+    <rPh sb="0" eb="1">
+      <t>イズレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異性</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遺跡</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イセキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いせき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イゼン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いぜん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>依然</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イゼン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>忙しい</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イソガシイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いそがしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>急ぐ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イソグ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いそぐ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>依存</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イゾン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いぞん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>板</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>痛い</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偉大</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いだい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>委託</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イタク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いたく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抱く</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イダク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いだく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いたす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>致す</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イタス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いたずら</t>
+  </si>
+  <si>
+    <t>いたずら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いただき</t>
+  </si>
+  <si>
+    <t>いただき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いただきます</t>
+  </si>
+  <si>
+    <t>いただきます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頂く</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イタダク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いただく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いたって</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>痛み</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イタミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いたみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>痛む</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イタム </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いたむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傷める</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イタメル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いためる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炒める</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イタメル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>至る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イタル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いたる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いたわる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜一</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">イチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜いち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちいち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一応</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イチオウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちおう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一概に</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イチガイニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちがいに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一時</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イチジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>著しい</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イチジルシイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちじるしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一段と</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イチダント </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちだんと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一度</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イチド </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一同</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イチドウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちどう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一度に</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イチドニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちどに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市場</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イチバ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一番</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イチバン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちばん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一部</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イチブ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一部分</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">イチブブン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちぶぶん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一面</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イチメン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちめん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一目</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イチモク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちもく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一様</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イチヨウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちよう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一律</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イチリツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちりつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一流</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イチリュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちりゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一連</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イチレン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちれん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一家</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>五日</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イツカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何時か</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イツカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一括</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッカツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっかつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一気</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一挙に</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッキョニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっきょに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一見</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッケン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっけん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一切</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっさい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一昨年</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">イッサクネン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっさくねん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一昨日</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッサクネン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっさくじつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一種</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッシュ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっしゅ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一瞬</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッシュン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっしゅん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一生</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっしょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一生懸命</t>
+    <rPh sb="0" eb="4">
+      <t>イッショウケｎ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっしょうけんめい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっしょ(に)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一緒(に)</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッショニ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2581,7 +5245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2594,14 +5258,6 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -2628,11 +5284,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2969,10 +5622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD98CDC-2E6D-F340-BEA4-C5F884B9AAD8}">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView tabSelected="1" topLeftCell="A386" zoomScale="210" workbookViewId="0">
+      <selection activeCell="C391" sqref="C391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2982,36 +5635,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3019,7 +5672,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3041,40 +5694,40 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -3082,10 +5735,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -3148,10 +5801,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -3159,18 +5812,18 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -3181,24 +5834,24 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3206,32 +5859,32 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
         <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3239,7 +5892,7 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
         <v>65</v>
@@ -3247,10 +5900,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
         <v>67</v>
-      </c>
-      <c r="B25" t="s">
-        <v>66</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -3275,40 +5928,40 @@
         <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
         <v>75</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>76</v>
-      </c>
-      <c r="C28" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
         <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3327,32 +5980,32 @@
         <v>83</v>
       </c>
       <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
         <v>84</v>
-      </c>
-      <c r="C32" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" t="s">
         <v>86</v>
       </c>
-      <c r="B33" t="s">
-        <v>84</v>
-      </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
         <v>88</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>89</v>
-      </c>
-      <c r="C34" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3379,10 +6032,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" t="s">
         <v>96</v>
-      </c>
-      <c r="B37" t="s">
-        <v>97</v>
       </c>
       <c r="C37" t="s">
         <v>98</v>
@@ -3390,10 +6043,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" t="s">
         <v>100</v>
-      </c>
-      <c r="B38" t="s">
-        <v>99</v>
       </c>
       <c r="C38" t="s">
         <v>101</v>
@@ -3434,24 +6087,24 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" t="s">
         <v>111</v>
-      </c>
-      <c r="B42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3462,18 +6115,18 @@
         <v>118</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" t="s">
         <v>120</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>121</v>
-      </c>
-      <c r="C45" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3481,18 +6134,18 @@
         <v>122</v>
       </c>
       <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" t="s">
         <v>123</v>
-      </c>
-      <c r="C46" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" t="s">
         <v>125</v>
-      </c>
-      <c r="B47" t="s">
-        <v>123</v>
       </c>
       <c r="C47" t="s">
         <v>126</v>
@@ -3558,29 +6211,29 @@
         <v>142</v>
       </c>
       <c r="B53" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" t="s">
         <v>143</v>
-      </c>
-      <c r="C53" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" t="s">
         <v>145</v>
-      </c>
-      <c r="B54" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" t="s">
         <v>147</v>
-      </c>
-      <c r="B55" t="s">
-        <v>143</v>
       </c>
       <c r="C55" t="s">
         <v>148</v>
@@ -3591,21 +6244,21 @@
         <v>149</v>
       </c>
       <c r="B56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" t="s">
         <v>150</v>
-      </c>
-      <c r="C56" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" t="s">
         <v>152</v>
-      </c>
-      <c r="B57" t="s">
-        <v>152</v>
-      </c>
-      <c r="C57" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3613,7 +6266,7 @@
         <v>154</v>
       </c>
       <c r="B58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C58" t="s">
         <v>155</v>
@@ -3643,10 +6296,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" t="s">
         <v>163</v>
-      </c>
-      <c r="B61" t="s">
-        <v>162</v>
       </c>
       <c r="C61" t="s">
         <v>164</v>
@@ -3654,35 +6307,35 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62" t="s">
         <v>165</v>
       </c>
-      <c r="B62" t="s">
-        <v>166</v>
-      </c>
       <c r="C62" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B63" t="s">
         <v>168</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3693,73 +6346,73 @@
         <v>175</v>
       </c>
       <c r="C65" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="B66" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B67" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="C67" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B68" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C68" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B69" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C69" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B70" t="s">
         <v>215</v>
       </c>
       <c r="C70" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>216</v>
+      </c>
+      <c r="B71" t="s">
         <v>217</v>
       </c>
-      <c r="B71" t="s">
-        <v>218</v>
-      </c>
       <c r="C71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3767,109 +6420,109 @@
         <v>219</v>
       </c>
       <c r="B72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C72" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B73" t="s">
         <v>221</v>
       </c>
       <c r="C73" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B74" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C75" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C76" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>226</v>
+      </c>
+      <c r="B77" t="s">
         <v>227</v>
       </c>
-      <c r="B77" t="s">
-        <v>228</v>
-      </c>
       <c r="C77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B78" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C78" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B79" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C79" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80" t="s">
         <v>232</v>
       </c>
-      <c r="B80" t="s">
-        <v>233</v>
-      </c>
       <c r="C80" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>233</v>
+      </c>
+      <c r="B81" t="s">
         <v>234</v>
       </c>
-      <c r="B81" t="s">
-        <v>235</v>
-      </c>
       <c r="C81" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3877,32 +6530,32 @@
         <v>236</v>
       </c>
       <c r="B82" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C82" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B83" t="s">
         <v>238</v>
       </c>
       <c r="C83" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>239</v>
+      </c>
+      <c r="B84" t="s">
         <v>240</v>
       </c>
-      <c r="B84" t="s">
-        <v>241</v>
-      </c>
       <c r="C84" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3910,21 +6563,21 @@
         <v>242</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C85" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B86" t="s">
         <v>244</v>
       </c>
       <c r="C86" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3932,54 +6585,54 @@
         <v>246</v>
       </c>
       <c r="B87" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C87" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B88" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C88" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B89" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C89" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
+        <v>249</v>
+      </c>
+      <c r="B90" t="s">
         <v>250</v>
       </c>
-      <c r="B90" t="s">
-        <v>251</v>
-      </c>
       <c r="C90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>251</v>
+      </c>
+      <c r="B91" t="s">
         <v>252</v>
       </c>
-      <c r="B91" t="s">
-        <v>253</v>
-      </c>
       <c r="C91" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3987,131 +6640,131 @@
         <v>254</v>
       </c>
       <c r="B92" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C92" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>256</v>
+      </c>
+      <c r="B93" t="s">
         <v>257</v>
       </c>
-      <c r="B93" t="s">
-        <v>256</v>
-      </c>
       <c r="C93" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>258</v>
+      </c>
+      <c r="B94" t="s">
         <v>259</v>
       </c>
-      <c r="B94" t="s">
-        <v>260</v>
-      </c>
       <c r="C94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
+        <v>260</v>
+      </c>
+      <c r="B95" t="s">
         <v>261</v>
       </c>
-      <c r="B95" t="s">
-        <v>262</v>
-      </c>
       <c r="C95" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>262</v>
+      </c>
+      <c r="B96" t="s">
         <v>263</v>
       </c>
-      <c r="B96" t="s">
-        <v>264</v>
-      </c>
       <c r="C96" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B97" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C97" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B98" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C98" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B99" t="s">
         <v>268</v>
       </c>
       <c r="C99" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B100" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C100" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B101" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C101" t="s">
-        <v>212</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
+        <v>272</v>
+      </c>
+      <c r="B102" t="s">
         <v>273</v>
       </c>
-      <c r="B102" t="s">
-        <v>274</v>
-      </c>
       <c r="C102" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
+        <v>274</v>
+      </c>
+      <c r="B103" t="s">
         <v>275</v>
       </c>
-      <c r="B103" t="s">
-        <v>276</v>
-      </c>
       <c r="C103" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4119,43 +6772,43 @@
         <v>277</v>
       </c>
       <c r="B104" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C104" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B105" t="s">
         <v>279</v>
       </c>
       <c r="C105" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B106" t="s">
         <v>282</v>
       </c>
       <c r="C106" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>281</v>
+      </c>
+      <c r="B107" t="s">
         <v>283</v>
       </c>
-      <c r="B107" t="s">
-        <v>285</v>
-      </c>
       <c r="C107" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4163,109 +6816,109 @@
         <v>284</v>
       </c>
       <c r="B108" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C108" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
+        <v>286</v>
+      </c>
+      <c r="B109" t="s">
         <v>287</v>
       </c>
-      <c r="B109" t="s">
-        <v>288</v>
-      </c>
       <c r="C109" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>288</v>
+      </c>
+      <c r="B110" t="s">
         <v>289</v>
       </c>
-      <c r="B110" t="s">
-        <v>290</v>
-      </c>
       <c r="C110" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B111" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C111" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B112" t="s">
         <v>292</v>
       </c>
       <c r="C112" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
+        <v>293</v>
+      </c>
+      <c r="B113" t="s">
         <v>294</v>
       </c>
-      <c r="B113" t="s">
-        <v>295</v>
-      </c>
       <c r="C113" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B114" t="s">
         <v>297</v>
       </c>
       <c r="C114" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B115" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C115" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B116" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="C116" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B117" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C117" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4273,76 +6926,76 @@
         <v>319</v>
       </c>
       <c r="B118" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C118" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B119" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C119" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
+        <v>321</v>
+      </c>
+      <c r="B120" t="s">
         <v>323</v>
       </c>
-      <c r="B120" t="s">
-        <v>326</v>
-      </c>
       <c r="C120" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B121" t="s">
+        <v>405</v>
+      </c>
+      <c r="C121" t="s">
         <v>326</v>
-      </c>
-      <c r="C121" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>325</v>
+        <v>406</v>
       </c>
       <c r="B122" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C122" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
+        <v>408</v>
+      </c>
+      <c r="B123" t="s">
         <v>409</v>
       </c>
-      <c r="B123" t="s">
-        <v>410</v>
-      </c>
       <c r="C123" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
+        <v>410</v>
+      </c>
+      <c r="B124" t="s">
         <v>411</v>
       </c>
-      <c r="B124" t="s">
-        <v>412</v>
-      </c>
       <c r="C124" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4350,109 +7003,109 @@
         <v>413</v>
       </c>
       <c r="B125" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C125" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B126" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C126" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B127" t="s">
         <v>417</v>
       </c>
       <c r="C127" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
+        <v>418</v>
+      </c>
+      <c r="B128" t="s">
         <v>419</v>
       </c>
-      <c r="B128" t="s">
-        <v>420</v>
-      </c>
       <c r="C128" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
+        <v>420</v>
+      </c>
+      <c r="B129" t="s">
         <v>421</v>
       </c>
-      <c r="B129" t="s">
-        <v>422</v>
-      </c>
       <c r="C129" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
+        <v>422</v>
+      </c>
+      <c r="B130" t="s">
         <v>423</v>
       </c>
-      <c r="B130" t="s">
-        <v>424</v>
-      </c>
       <c r="C130" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B131" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C131" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B132" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C132" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
+        <v>427</v>
+      </c>
+      <c r="B133" t="s">
         <v>428</v>
       </c>
-      <c r="B133" t="s">
-        <v>429</v>
-      </c>
       <c r="C133" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
+        <v>429</v>
+      </c>
+      <c r="B134" t="s">
         <v>430</v>
       </c>
-      <c r="B134" t="s">
-        <v>431</v>
-      </c>
       <c r="C134" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4460,65 +7113,65 @@
         <v>432</v>
       </c>
       <c r="B135" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C135" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B136" t="s">
         <v>434</v>
       </c>
       <c r="C136" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
+        <v>542</v>
+      </c>
+      <c r="B137" t="s">
         <v>436</v>
       </c>
-      <c r="B137" t="s">
-        <v>437</v>
-      </c>
       <c r="C137" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>545</v>
+        <v>437</v>
       </c>
       <c r="B138" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C138" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B139" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C139" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
+        <v>440</v>
+      </c>
+      <c r="B140" t="s">
         <v>441</v>
       </c>
-      <c r="B140" t="s">
-        <v>442</v>
-      </c>
       <c r="C140" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4526,65 +7179,65 @@
         <v>443</v>
       </c>
       <c r="B141" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C141" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B142" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C142" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B143" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C143" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B144" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C144" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B145" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C145" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B146" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C146" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4592,43 +7245,43 @@
         <v>450</v>
       </c>
       <c r="B147" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C147" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B148" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C148" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
+        <v>453</v>
+      </c>
+      <c r="B149" t="s">
         <v>454</v>
       </c>
-      <c r="B149" t="s">
-        <v>455</v>
-      </c>
       <c r="C149" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
+        <v>455</v>
+      </c>
+      <c r="B150" t="s">
         <v>456</v>
       </c>
-      <c r="B150" t="s">
-        <v>457</v>
-      </c>
       <c r="C150" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4636,43 +7289,43 @@
         <v>458</v>
       </c>
       <c r="B151" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C151" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B152" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C152" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B153" t="s">
         <v>462</v>
       </c>
       <c r="C153" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
+        <v>461</v>
+      </c>
+      <c r="B154" t="s">
         <v>463</v>
       </c>
-      <c r="B154" t="s">
-        <v>465</v>
-      </c>
       <c r="C154" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4680,87 +7333,87 @@
         <v>464</v>
       </c>
       <c r="B155" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C155" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B156" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C156" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B157" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C157" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B158" t="s">
         <v>468</v>
       </c>
       <c r="C158" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
+        <v>469</v>
+      </c>
+      <c r="B159" t="s">
         <v>470</v>
       </c>
-      <c r="B159" t="s">
-        <v>471</v>
-      </c>
       <c r="C159" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
+        <v>471</v>
+      </c>
+      <c r="B160" t="s">
         <v>472</v>
       </c>
-      <c r="B160" t="s">
-        <v>473</v>
-      </c>
       <c r="C160" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
+        <v>473</v>
+      </c>
+      <c r="B161" t="s">
         <v>474</v>
       </c>
-      <c r="B161" t="s">
-        <v>475</v>
-      </c>
       <c r="C161" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
+        <v>475</v>
+      </c>
+      <c r="B162" t="s">
         <v>476</v>
       </c>
-      <c r="B162" t="s">
-        <v>477</v>
-      </c>
       <c r="C162" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4768,98 +7421,98 @@
         <v>478</v>
       </c>
       <c r="B163" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C163" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B164" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C164" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B165" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C165" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B166" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C166" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B167" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C167" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B168" t="s">
         <v>487</v>
       </c>
       <c r="C168" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
+        <v>488</v>
+      </c>
+      <c r="B169" t="s">
         <v>489</v>
       </c>
-      <c r="B169" t="s">
-        <v>490</v>
-      </c>
       <c r="C169" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
+        <v>490</v>
+      </c>
+      <c r="B170" t="s">
         <v>491</v>
       </c>
-      <c r="B170" t="s">
-        <v>492</v>
-      </c>
       <c r="C170" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
+        <v>492</v>
+      </c>
+      <c r="B171" t="s">
         <v>493</v>
       </c>
-      <c r="B171" t="s">
-        <v>494</v>
-      </c>
       <c r="C171" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4867,32 +7520,32 @@
         <v>495</v>
       </c>
       <c r="B172" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C172" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B173" t="s">
         <v>497</v>
       </c>
       <c r="C173" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
+        <v>498</v>
+      </c>
+      <c r="B174" t="s">
         <v>499</v>
       </c>
-      <c r="B174" t="s">
-        <v>500</v>
-      </c>
       <c r="C174" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4900,109 +7553,109 @@
         <v>501</v>
       </c>
       <c r="B175" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C175" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B176" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C176" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B177" t="s">
         <v>504</v>
       </c>
       <c r="C177" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
+        <v>505</v>
+      </c>
+      <c r="B178" t="s">
         <v>506</v>
       </c>
-      <c r="B178" t="s">
-        <v>507</v>
-      </c>
       <c r="C178" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
+        <v>507</v>
+      </c>
+      <c r="B179" t="s">
         <v>508</v>
       </c>
-      <c r="B179" t="s">
-        <v>509</v>
-      </c>
       <c r="C179" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
+        <v>509</v>
+      </c>
+      <c r="B180" t="s">
         <v>510</v>
       </c>
-      <c r="B180" t="s">
-        <v>511</v>
-      </c>
       <c r="C180" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
+        <v>511</v>
+      </c>
+      <c r="B181" t="s">
         <v>512</v>
       </c>
-      <c r="B181" t="s">
-        <v>513</v>
-      </c>
       <c r="C181" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B182" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C182" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B183" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C183" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B184" t="s">
         <v>517</v>
       </c>
       <c r="C184" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -5013,29 +7666,29 @@
         <v>520</v>
       </c>
       <c r="C185" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B186" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C186" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B187" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C187" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -5043,109 +7696,109 @@
         <v>525</v>
       </c>
       <c r="B188" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C188" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B189" t="s">
         <v>527</v>
       </c>
       <c r="C189" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B190" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C190" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B191" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C191" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B192" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C192" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B193" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C193" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B194" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C194" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B195" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C195" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B196" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C196" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
+        <v>540</v>
+      </c>
+      <c r="B197" t="s">
         <v>541</v>
       </c>
-      <c r="B197" t="s">
-        <v>542</v>
-      </c>
       <c r="C197" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -5156,29 +7809,29 @@
         <v>544</v>
       </c>
       <c r="C198" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
+        <v>545</v>
+      </c>
+      <c r="B199" t="s">
         <v>546</v>
       </c>
-      <c r="B199" t="s">
-        <v>547</v>
-      </c>
       <c r="C199" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
+        <v>547</v>
+      </c>
+      <c r="B200" t="s">
         <v>548</v>
       </c>
-      <c r="B200" t="s">
-        <v>549</v>
-      </c>
       <c r="C200" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -5186,10 +7839,2199 @@
         <v>550</v>
       </c>
       <c r="B201" t="s">
+        <v>549</v>
+      </c>
+      <c r="C201" t="s">
         <v>551</v>
       </c>
-      <c r="C201" t="s">
-        <v>407</v>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>552</v>
+      </c>
+      <c r="B202" t="s">
+        <v>553</v>
+      </c>
+      <c r="C202" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>605</v>
+      </c>
+      <c r="B203" t="s">
+        <v>606</v>
+      </c>
+      <c r="C203" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>603</v>
+      </c>
+      <c r="B204" t="s">
+        <v>604</v>
+      </c>
+      <c r="C204" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>607</v>
+      </c>
+      <c r="B205" t="s">
+        <v>608</v>
+      </c>
+      <c r="C205" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>609</v>
+      </c>
+      <c r="B206" t="s">
+        <v>610</v>
+      </c>
+      <c r="C206" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>617</v>
+      </c>
+      <c r="B207" t="s">
+        <v>616</v>
+      </c>
+      <c r="C207" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>611</v>
+      </c>
+      <c r="B208" t="s">
+        <v>612</v>
+      </c>
+      <c r="C208" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>613</v>
+      </c>
+      <c r="B209" t="s">
+        <v>613</v>
+      </c>
+      <c r="C209" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>615</v>
+      </c>
+      <c r="B210" t="s">
+        <v>614</v>
+      </c>
+      <c r="C210" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>618</v>
+      </c>
+      <c r="B211" t="s">
+        <v>619</v>
+      </c>
+      <c r="C211" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>620</v>
+      </c>
+      <c r="B212" t="s">
+        <v>621</v>
+      </c>
+      <c r="C212" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>622</v>
+      </c>
+      <c r="B213" t="s">
+        <v>623</v>
+      </c>
+      <c r="C213" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>624</v>
+      </c>
+      <c r="B214" t="s">
+        <v>625</v>
+      </c>
+      <c r="C214" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>626</v>
+      </c>
+      <c r="B215" t="s">
+        <v>627</v>
+      </c>
+      <c r="C215" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>628</v>
+      </c>
+      <c r="B216" t="s">
+        <v>629</v>
+      </c>
+      <c r="C216" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>633</v>
+      </c>
+      <c r="B217" t="s">
+        <v>632</v>
+      </c>
+      <c r="C217" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>631</v>
+      </c>
+      <c r="B218" t="s">
+        <v>630</v>
+      </c>
+      <c r="C218" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>634</v>
+      </c>
+      <c r="B219" t="s">
+        <v>635</v>
+      </c>
+      <c r="C219" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>636</v>
+      </c>
+      <c r="B220" t="s">
+        <v>635</v>
+      </c>
+      <c r="C220" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>638</v>
+      </c>
+      <c r="B221" t="s">
+        <v>637</v>
+      </c>
+      <c r="C221" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>640</v>
+      </c>
+      <c r="B222" t="s">
+        <v>639</v>
+      </c>
+      <c r="C222" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>641</v>
+      </c>
+      <c r="B223" t="s">
+        <v>642</v>
+      </c>
+      <c r="C223" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>644</v>
+      </c>
+      <c r="B224" t="s">
+        <v>643</v>
+      </c>
+      <c r="C224" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>646</v>
+      </c>
+      <c r="B225" t="s">
+        <v>645</v>
+      </c>
+      <c r="C225" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>648</v>
+      </c>
+      <c r="B226" t="s">
+        <v>647</v>
+      </c>
+      <c r="C226" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>650</v>
+      </c>
+      <c r="B227" t="s">
+        <v>649</v>
+      </c>
+      <c r="C227" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>651</v>
+      </c>
+      <c r="B228" t="s">
+        <v>651</v>
+      </c>
+      <c r="C228" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>651</v>
+      </c>
+      <c r="B229" t="s">
+        <v>651</v>
+      </c>
+      <c r="C229" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>652</v>
+      </c>
+      <c r="B230" t="s">
+        <v>652</v>
+      </c>
+      <c r="C230" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>653</v>
+      </c>
+      <c r="B231" t="s">
+        <v>654</v>
+      </c>
+      <c r="C231" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>655</v>
+      </c>
+      <c r="B232" t="s">
+        <v>656</v>
+      </c>
+      <c r="C232" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>657</v>
+      </c>
+      <c r="B233" t="s">
+        <v>658</v>
+      </c>
+      <c r="C233" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>659</v>
+      </c>
+      <c r="B234" t="s">
+        <v>660</v>
+      </c>
+      <c r="C234" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>661</v>
+      </c>
+      <c r="B235" t="s">
+        <v>662</v>
+      </c>
+      <c r="C235" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>663</v>
+      </c>
+      <c r="B236" t="s">
+        <v>664</v>
+      </c>
+      <c r="C236" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>665</v>
+      </c>
+      <c r="B237" t="s">
+        <v>666</v>
+      </c>
+      <c r="C237" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>667</v>
+      </c>
+      <c r="B238" t="s">
+        <v>668</v>
+      </c>
+      <c r="C238" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>669</v>
+      </c>
+      <c r="B239" t="s">
+        <v>670</v>
+      </c>
+      <c r="C239" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>671</v>
+      </c>
+      <c r="B240" t="s">
+        <v>672</v>
+      </c>
+      <c r="C240" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>673</v>
+      </c>
+      <c r="B241" t="s">
+        <v>674</v>
+      </c>
+      <c r="C241" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>675</v>
+      </c>
+      <c r="B242" t="s">
+        <v>676</v>
+      </c>
+      <c r="C242" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>678</v>
+      </c>
+      <c r="B243" t="s">
+        <v>677</v>
+      </c>
+      <c r="C243" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>680</v>
+      </c>
+      <c r="B244" t="s">
+        <v>679</v>
+      </c>
+      <c r="C244" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>681</v>
+      </c>
+      <c r="B245" t="s">
+        <v>682</v>
+      </c>
+      <c r="C245" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>683</v>
+      </c>
+      <c r="B246" t="s">
+        <v>684</v>
+      </c>
+      <c r="C246" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>685</v>
+      </c>
+      <c r="B247" t="s">
+        <v>686</v>
+      </c>
+      <c r="C247" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>687</v>
+      </c>
+      <c r="B248" t="s">
+        <v>688</v>
+      </c>
+      <c r="C248" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>689</v>
+      </c>
+      <c r="B249" t="s">
+        <v>690</v>
+      </c>
+      <c r="C249" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>691</v>
+      </c>
+      <c r="B250" t="s">
+        <v>692</v>
+      </c>
+      <c r="C250" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>748</v>
+      </c>
+      <c r="B251" t="s">
+        <v>749</v>
+      </c>
+      <c r="C251" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>750</v>
+      </c>
+      <c r="B252" t="s">
+        <v>751</v>
+      </c>
+      <c r="C252" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>753</v>
+      </c>
+      <c r="B253" t="s">
+        <v>752</v>
+      </c>
+      <c r="C253" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>755</v>
+      </c>
+      <c r="B254" t="s">
+        <v>754</v>
+      </c>
+      <c r="C254" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>756</v>
+      </c>
+      <c r="B255" t="s">
+        <v>757</v>
+      </c>
+      <c r="C255" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>758</v>
+      </c>
+      <c r="B256" t="s">
+        <v>759</v>
+      </c>
+      <c r="C256" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>761</v>
+      </c>
+      <c r="B257" t="s">
+        <v>760</v>
+      </c>
+      <c r="C257" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>762</v>
+      </c>
+      <c r="B258" t="s">
+        <v>763</v>
+      </c>
+      <c r="C258" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>765</v>
+      </c>
+      <c r="B259" t="s">
+        <v>764</v>
+      </c>
+      <c r="C259" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>766</v>
+      </c>
+      <c r="B260" t="s">
+        <v>767</v>
+      </c>
+      <c r="C260" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>768</v>
+      </c>
+      <c r="B261" t="s">
+        <v>769</v>
+      </c>
+      <c r="C261" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>770</v>
+      </c>
+      <c r="B262" t="s">
+        <v>769</v>
+      </c>
+      <c r="C262" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>771</v>
+      </c>
+      <c r="B263" t="s">
+        <v>769</v>
+      </c>
+      <c r="C263" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>773</v>
+      </c>
+      <c r="B264" t="s">
+        <v>772</v>
+      </c>
+      <c r="C264" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>776</v>
+      </c>
+      <c r="B265" t="s">
+        <v>775</v>
+      </c>
+      <c r="C265" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>774</v>
+      </c>
+      <c r="B266" t="s">
+        <v>777</v>
+      </c>
+      <c r="C266" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>778</v>
+      </c>
+      <c r="B267" t="s">
+        <v>779</v>
+      </c>
+      <c r="C267" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>780</v>
+      </c>
+      <c r="B268" t="s">
+        <v>781</v>
+      </c>
+      <c r="C268" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>782</v>
+      </c>
+      <c r="B269" t="s">
+        <v>783</v>
+      </c>
+      <c r="C269" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>784</v>
+      </c>
+      <c r="B270" t="s">
+        <v>785</v>
+      </c>
+      <c r="C270" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>786</v>
+      </c>
+      <c r="B271" t="s">
+        <v>785</v>
+      </c>
+      <c r="C271" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>787</v>
+      </c>
+      <c r="B272" t="s">
+        <v>788</v>
+      </c>
+      <c r="C272" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>789</v>
+      </c>
+      <c r="B273" t="s">
+        <v>790</v>
+      </c>
+      <c r="C273" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>791</v>
+      </c>
+      <c r="B274" t="s">
+        <v>792</v>
+      </c>
+      <c r="C274" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>793</v>
+      </c>
+      <c r="B275" t="s">
+        <v>794</v>
+      </c>
+      <c r="C275" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>795</v>
+      </c>
+      <c r="B276" t="s">
+        <v>796</v>
+      </c>
+      <c r="C276" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>797</v>
+      </c>
+      <c r="B277" t="s">
+        <v>796</v>
+      </c>
+      <c r="C277" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>799</v>
+      </c>
+      <c r="B278" t="s">
+        <v>798</v>
+      </c>
+      <c r="C278" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>800</v>
+      </c>
+      <c r="B279" t="s">
+        <v>801</v>
+      </c>
+      <c r="C279" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>804</v>
+      </c>
+      <c r="B280" t="s">
+        <v>802</v>
+      </c>
+      <c r="C280" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>803</v>
+      </c>
+      <c r="B281" t="s">
+        <v>803</v>
+      </c>
+      <c r="C281" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>805</v>
+      </c>
+      <c r="B282" t="s">
+        <v>805</v>
+      </c>
+      <c r="C282" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>806</v>
+      </c>
+      <c r="B283" t="s">
+        <v>807</v>
+      </c>
+      <c r="C283" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>808</v>
+      </c>
+      <c r="B284" t="s">
+        <v>811</v>
+      </c>
+      <c r="C284" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>809</v>
+      </c>
+      <c r="B285" t="s">
+        <v>811</v>
+      </c>
+      <c r="C285" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>810</v>
+      </c>
+      <c r="B286" t="s">
+        <v>812</v>
+      </c>
+      <c r="C286" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>813</v>
+      </c>
+      <c r="B287" t="s">
+        <v>812</v>
+      </c>
+      <c r="C287" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>814</v>
+      </c>
+      <c r="B288" t="s">
+        <v>811</v>
+      </c>
+      <c r="C288" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>815</v>
+      </c>
+      <c r="B289" t="s">
+        <v>816</v>
+      </c>
+      <c r="C289" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>817</v>
+      </c>
+      <c r="B290" t="s">
+        <v>818</v>
+      </c>
+      <c r="C290" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>819</v>
+      </c>
+      <c r="B291" t="s">
+        <v>820</v>
+      </c>
+      <c r="C291" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>821</v>
+      </c>
+      <c r="B292" t="s">
+        <v>822</v>
+      </c>
+      <c r="C292" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>823</v>
+      </c>
+      <c r="B293" t="s">
+        <v>824</v>
+      </c>
+      <c r="C293" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>825</v>
+      </c>
+      <c r="B294" t="s">
+        <v>825</v>
+      </c>
+      <c r="C294" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>826</v>
+      </c>
+      <c r="B295" t="s">
+        <v>827</v>
+      </c>
+      <c r="C295" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>829</v>
+      </c>
+      <c r="B296" t="s">
+        <v>828</v>
+      </c>
+      <c r="C296" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>830</v>
+      </c>
+      <c r="B297" t="s">
+        <v>831</v>
+      </c>
+      <c r="C297" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>832</v>
+      </c>
+      <c r="B298" t="s">
+        <v>833</v>
+      </c>
+      <c r="C298" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>834</v>
+      </c>
+      <c r="B299" t="s">
+        <v>837</v>
+      </c>
+      <c r="C299" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>835</v>
+      </c>
+      <c r="B300" t="s">
+        <v>836</v>
+      </c>
+      <c r="C300" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>838</v>
+      </c>
+      <c r="B301" t="s">
+        <v>846</v>
+      </c>
+      <c r="C301" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>839</v>
+      </c>
+      <c r="B302" t="s">
+        <v>847</v>
+      </c>
+      <c r="C302" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>840</v>
+      </c>
+      <c r="B303" t="s">
+        <v>848</v>
+      </c>
+      <c r="C303" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>841</v>
+      </c>
+      <c r="B304" t="s">
+        <v>849</v>
+      </c>
+      <c r="C304" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>842</v>
+      </c>
+      <c r="B305" t="s">
+        <v>850</v>
+      </c>
+      <c r="C305" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>843</v>
+      </c>
+      <c r="B306" t="s">
+        <v>843</v>
+      </c>
+      <c r="C306" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>844</v>
+      </c>
+      <c r="B307" t="s">
+        <v>845</v>
+      </c>
+      <c r="C307" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>853</v>
+      </c>
+      <c r="B308" t="s">
+        <v>854</v>
+      </c>
+      <c r="C308" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>948</v>
+      </c>
+      <c r="B309" t="s">
+        <v>947</v>
+      </c>
+      <c r="C309" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
+        <v>949</v>
+      </c>
+      <c r="B310" t="s">
+        <v>950</v>
+      </c>
+      <c r="C310" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>951</v>
+      </c>
+      <c r="B311" t="s">
+        <v>952</v>
+      </c>
+      <c r="C311" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>953</v>
+      </c>
+      <c r="B312" t="s">
+        <v>954</v>
+      </c>
+      <c r="C312" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>955</v>
+      </c>
+      <c r="B313" t="s">
+        <v>956</v>
+      </c>
+      <c r="C313" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>957</v>
+      </c>
+      <c r="B314" t="s">
+        <v>956</v>
+      </c>
+      <c r="C314" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>958</v>
+      </c>
+      <c r="B315" t="s">
+        <v>956</v>
+      </c>
+      <c r="C315" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>960</v>
+      </c>
+      <c r="B316" t="s">
+        <v>959</v>
+      </c>
+      <c r="C316" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>962</v>
+      </c>
+      <c r="B317" t="s">
+        <v>961</v>
+      </c>
+      <c r="C317" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>963</v>
+      </c>
+      <c r="B318" t="s">
+        <v>964</v>
+      </c>
+      <c r="C318" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>965</v>
+      </c>
+      <c r="B319" t="s">
+        <v>966</v>
+      </c>
+      <c r="C319" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>967</v>
+      </c>
+      <c r="B320" t="s">
+        <v>966</v>
+      </c>
+      <c r="C320" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>968</v>
+      </c>
+      <c r="B321" t="s">
+        <v>966</v>
+      </c>
+      <c r="C321" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>969</v>
+      </c>
+      <c r="B322" t="s">
+        <v>970</v>
+      </c>
+      <c r="C322" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>971</v>
+      </c>
+      <c r="B323" t="s">
+        <v>970</v>
+      </c>
+      <c r="C323" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>972</v>
+      </c>
+      <c r="B324" t="s">
+        <v>973</v>
+      </c>
+      <c r="C324" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>974</v>
+      </c>
+      <c r="B325" t="s">
+        <v>975</v>
+      </c>
+      <c r="C325" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>976</v>
+      </c>
+      <c r="B326" t="s">
+        <v>977</v>
+      </c>
+      <c r="C326" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>978</v>
+      </c>
+      <c r="B327" t="s">
+        <v>979</v>
+      </c>
+      <c r="C327" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>980</v>
+      </c>
+      <c r="B328" t="s">
+        <v>981</v>
+      </c>
+      <c r="C328" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>982</v>
+      </c>
+      <c r="B329" t="s">
+        <v>983</v>
+      </c>
+      <c r="C329" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>984</v>
+      </c>
+      <c r="B330" t="s">
+        <v>983</v>
+      </c>
+      <c r="C330" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>985</v>
+      </c>
+      <c r="B331" t="s">
+        <v>986</v>
+      </c>
+      <c r="C331" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>987</v>
+      </c>
+      <c r="B332" t="s">
+        <v>988</v>
+      </c>
+      <c r="C332" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>990</v>
+      </c>
+      <c r="B333" t="s">
+        <v>989</v>
+      </c>
+      <c r="C333" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>991</v>
+      </c>
+      <c r="B334" t="s">
+        <v>992</v>
+      </c>
+      <c r="C334" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>993</v>
+      </c>
+      <c r="B335" t="s">
+        <v>994</v>
+      </c>
+      <c r="C335" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>995</v>
+      </c>
+      <c r="B336" t="s">
+        <v>996</v>
+      </c>
+      <c r="C336" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>998</v>
+      </c>
+      <c r="B337" t="s">
+        <v>997</v>
+      </c>
+      <c r="C337" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>999</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C338" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C339" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C340" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C341" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C342" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C343" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C344" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C345" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C346" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C347" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C348" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C349" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C350" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C351" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C352" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C353" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C354" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C355" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C356" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C357" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C358" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C359" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C360" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C361" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C362" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C363" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C364" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C365" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C366" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C367" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C368" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C369" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C370" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C371" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C372" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C373" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C374" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C375" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C376" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C377" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C378" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C379" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C380" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C381" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C382" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C383" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C384" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C385" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C386" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C387" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C388" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C389" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C390" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C391" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C392" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C393" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C394" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C395" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C396" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C397" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C398" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C399" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C400" t="s">
+        <v>946</v>
       </c>
     </row>
   </sheetData>

--- a/日本語/1_語彙.xlsx
+++ b/日本語/1_語彙.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11104"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11105"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeshafteure/Documents/GitHub/Freshmore/日本語/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A12E8E-4C37-7243-9155-6038146D5838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5FB2F2-1C1B-5146-94EF-D20E66B16861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="1688">
   <si>
     <t>亜〜</t>
   </si>
@@ -4357,7 +4357,7 @@
   </si>
   <si>
     <t>いけん</t>
-    <rPh sb="3" eb="5">
+    <rPh sb="0" eb="3">
       <t xml:space="preserve">イゴ </t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -5238,6 +5238,2757 @@
     <rPh sb="0" eb="2">
       <t xml:space="preserve">イッショニ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一心</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッシン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっしん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一斉に</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッセイニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっせいに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっそ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一層</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッソウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一体</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いったい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一帯</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一旦</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッタン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いったん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一致</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>五つ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">5ツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッテイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いってい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>with one's whole heart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all together, all in one body, all at once, simultaneously, in unison, unanimously</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>would rather, prefer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>still, even, all the more</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whatever, on earth, in the world</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a whole (wheat fields, neighbourhood)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>agreement, accord, harmony, coincidence, correspondence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>five (counter)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fixed, definite, set, uniform, regular</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>So long (lit. I'm going out and coming back)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>any time/moment, always, at all times</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>So long. (lit. go and come back)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all too soon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>full, much</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enough, fill, a lot of</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>change</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one side/party, the other side/party, just goes on</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>forever</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>always</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a move, transfer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thread</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intention, purpose</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a well</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>move, transfer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(personnel) changes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a (first) cousin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cary on a business/lead a busy life</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>challenge, defy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>within (distance or time)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>countryside, rural area, hometown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lightning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dog</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rice, a rice plant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a doze</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>life</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prayer, grace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to pray</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boast, brag, to be proud, domineer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>violation, breah</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a snore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothes, dress, garments, apparel, clothing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>living room</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>too late to ~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>still, yet, so far</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soon, before long, one of those days</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>any minute now</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meaning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emigration, immmigration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an image, an impression</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one's younger sister</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>younger sister</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dislike</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shake one's head, unwillingly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dislike, hate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>greedy, vulgar, mean, shabbily, low</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>suspiciously</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disgusting, improper, vulgar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>more and more, at last, really, assuredly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>will (eagerness)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>since (then), ever since</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a request, dependence, reliance, commission</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nervousness, jitter, be/get irritated, become impatient</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Welcome!, May I help you?, What can I do for you?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be, go, come (honorific)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>entrance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>medical treatment/care, healthcare</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothing, clothes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>power, teeth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>required</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be, exist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roast, parch, toast</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a receptacle, a container, a case</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pour (a cup of coffee)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>various</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>differen opinion, objection, controversial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a rock, a crag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>celebration, a festival, congratulations</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>congratulate, celebrate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>like, a kind of, as it were, so to speak, in a manner</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>what is called, what they call, so-called</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a member of ~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one's seal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gloom, somberness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retirement, retired person, the old gentleman/lady</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ink</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>printing, typography, print</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>impression</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>interchange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>international</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intercom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retirement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an interview</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intellectual person, intelligentsia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>information</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inflation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>quotation, citation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attactive force, attraction, affinity, gravitation, magnetism, attractiveness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whisky</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>virus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a woman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>above, up, on the ~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a waitress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a garden plant, potted plant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>first doing something, then…, in the process of…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>starve, be famished, be hungry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a fish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gargling</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ask, hear, visit (used when a speaker shows modesty)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float, surface, appear, flash</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float, launch, visualise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(in an examination) success/pass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float, suspend, lose touch with, save (money)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>acceptance, reception</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>receive, grant, comply with, accept, take in, admit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hear, comply with</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>take over, inherit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reception, receptionist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accept, listen to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>catch, stop, take</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accept, a receipt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>receive, get, accept, tak, interpret, view, think</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>passive voice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>in one's charge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be in charge, take charge, handle, manage, cover</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>catch (a ball), receive (education, kindness, permission)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>move, shift, budge, transfer, put in action, operate, run, change, affect, manage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movement, trend, sign</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>move</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a rabbit, a hare</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a cow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lose, miss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>back, behind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whirlpool, eddy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dim, dusky</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thin, dilute, weaken</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lay low, bury</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lie, untrue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>liar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>song(s)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sing (a song)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doubt, wonder, suspect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doze, nap, snooze</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>between, among</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>in, of</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confide, confess, tell the truth, bare</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arrangements</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>knock together, arrange/discuss beforehand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cut off, break off</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>denial, negation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deny, drown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beat in, dedicate oneself to, drive in, type in</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>while…, in the course of…, within…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the universe, the cosmos, space</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a (round) fan, a round/flat paper fan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>breakdown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type, hit, beat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carelessly, absentmindedly, by mistake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beautiful, pretty, lovely</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>copy, duplicate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>take (a picture), copy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>copy, reflect, project</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appeal, suit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sue, bring an action, complain, file/lodge a complaint, resort to, touch, move</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>annoying, gloomy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>droop one's head, downcast</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>move (from, to), change</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>come out, take, photograph, be reflected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hollow, vacant, blank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>container, receptacle, vessel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arm(s)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>performance, skill</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rainy (wet) weather</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>udon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>urge, press, stimulate, hasten, accelerate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nod</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>growl, groan, moan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>conceit, vanity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>take (a thing) by force, rob, deprive, plunder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>horse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delicious, tasty, good at, bright, good, witty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be buried</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>birth, one's birthplace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>by nature, by birth, naturally, by constitution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be born</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the sea, the ocean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>have or not</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>have a baby, bear, deliver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Japanese apricot, plum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いってまいります／いってきます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつでも</t>
+  </si>
+  <si>
+    <t>いつでも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いってらっしゃい</t>
+  </si>
+  <si>
+    <t>いってらっしゃい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつのまにか</t>
+  </si>
+  <si>
+    <t>いつのまにか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっぱい</t>
+  </si>
+  <si>
+    <t>いっぱい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一杯</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッパイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般に</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッパンニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっぱんに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一変</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッペン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一方</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イッポウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっぺん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっぽう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつまでも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつも</t>
+  </si>
+  <si>
+    <t>いつも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移転</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イテン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いてん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意図</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井戸</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イド </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緯度</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イド </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イドウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異動</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イドウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いどう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いとこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従兄弟／従姉妹</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">イトコ </t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">イトコ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営む</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イトナム </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いとなむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挑む</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イドム </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いどむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以内</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イナイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田舎</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イナカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いなか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稲光</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イナビカリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いなびかり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>犬</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イヌ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いぬ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稲</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イネ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>居眠り</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イネムリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いねむり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イノチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いのち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祈り</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イノリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いのり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いのる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祈る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イノリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>威張る</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イバル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いばる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>違反</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イハン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いはん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いびき</t>
+  </si>
+  <si>
+    <t>いびき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衣服</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イフク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いふく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イマ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>居間</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イマ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今更</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イマサラ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いまさら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未だ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イマダ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いまだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今に</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イマニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いまに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今にも</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イマニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いまにも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意味</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移民</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イミン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いみん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妹</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イモウト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いもうと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妹(さん)</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イモウト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いもうと(さん)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嫌</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イヤ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いや</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嫌／否</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イヤ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いやいや</t>
+  </si>
+  <si>
+    <t>いやいや</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嫌がる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イヤガル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いやがる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卑しい</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イヤシイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いやしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いやに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いやらしい</t>
+  </si>
+  <si>
+    <t>いやらしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いよいよ</t>
+  </si>
+  <si>
+    <t>いよいよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意欲</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イヨク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以来</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イライ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>依頼</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イライ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いよく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いらい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いらいら</t>
+  </si>
+  <si>
+    <t>いらいら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いらっしゃい(ませ)</t>
+  </si>
+  <si>
+    <t>いらっしゃい(ませ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いらっしゃる(います)</t>
+  </si>
+  <si>
+    <t>いらっしゃる(います)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入口</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イリグチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いりぐち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イリョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いりょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衣料</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イリョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>威力</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イリョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いりょく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>居る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>煎る／炒る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イル </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">イル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衣類</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イルイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いるい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入れ物</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イレモノ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いれもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入れる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イレル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いろいろ</t>
+  </si>
+  <si>
+    <t>色々</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イロイロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異論</t>
+    <rPh sb="0" eb="2">
+      <t>イロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いろん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イワ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祝</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イワイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いわい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祝う</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イワウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いわう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言わば</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イワバ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いわば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いわゆる</t>
+  </si>
+  <si>
+    <t>いわゆる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜員</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">イン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜いん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>印鑑</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">インカン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いんかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陰気</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">インキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いんき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠居</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">インキョ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いんきょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インク／インキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>印刷</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">インサツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いんさつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>印象</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">インショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いんしょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インタチェンジ</t>
+  </si>
+  <si>
+    <t>インタチェンジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターナショナル</t>
+  </si>
+  <si>
+    <t>インターナショナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターフォン</t>
+  </si>
+  <si>
+    <t>インターフォン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引退</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">インタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いんたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インタビュー</t>
+  </si>
+  <si>
+    <t>インタビュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インテリ</t>
+  </si>
+  <si>
+    <t>インテリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インフォメーション</t>
+  </si>
+  <si>
+    <t>インフォメーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インフレ</t>
+  </si>
+  <si>
+    <t>インフレ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引用</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イニョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いんよう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引力</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">インリョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いんりょく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウイスキー</t>
+  </si>
+  <si>
+    <t>ウイスキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウイルス</t>
+  </si>
+  <si>
+    <t>ウイルス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウーマン</t>
+  </si>
+  <si>
+    <t>ウーマン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウール</t>
+  </si>
+  <si>
+    <t>ウール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウエ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウエートレス／ウエイトレス</t>
+  </si>
+  <si>
+    <t>ウエートレス／ウエイトレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>植木</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ウエキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うえき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜上で</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ウエデ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜うえで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>植える</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウエル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飢える</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウエル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魚</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウオ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うお</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うがい</t>
+  </si>
+  <si>
+    <t>うがい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伺う</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウカガウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うかがう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うかぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浮[か]ぶ</t>
+    <rPh sb="0" eb="1">
+      <t>ウカブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浮[か]べる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウカベル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うかべる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受かる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウカル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うかる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浮く</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うけいれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受[け]入[れ]</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウケイレ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うけいれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受[け]入れる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウケイレ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承る</t>
+    <rPh sb="0" eb="1">
+      <t>ウケタマワル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うけたまわる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受[け]継ぐ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウケイレ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うけつぐ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受[け]付[け]</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウケイレ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ツケ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うけつけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受[け]付ける</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウケイレ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ツケル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うけつける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受[け]止める</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウケイレ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">トメル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うけとめる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受[け]取る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウケイレ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受[け]取[り]</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウケイレ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">トル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うけとる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うけとり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受[け]身</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウケイレ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うけみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受[け]持ち</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウケイレ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">モチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うけもち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受[け]持つ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウケイレ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">モツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うけもつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受[け]る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウケイレ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動かす</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴカス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動き</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動く</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うごかす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うごき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うごく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兎</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウサギ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うさぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牛</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失う</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウシナウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うしなう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後ろ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウシロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うしろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渦</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウズ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うず</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薄い</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウスイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うすい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薄暗い</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ウスグライ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うすぐらい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薄める</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウスメル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うすめる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埋める</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウズメル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うずめる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嘘</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウソ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うそ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嘘つき</t>
+    <rPh sb="0" eb="1">
+      <t>ウソツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うそつき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歌</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歌う</t>
+    <rPh sb="0" eb="1">
+      <t>ウタウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うたう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>疑う</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウタガウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うたがう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転寝</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ウタタネ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うたたね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うち</t>
+  </si>
+  <si>
+    <t>うち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打ち明ける</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウチアケル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うちあける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打ち合わせ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウチアワセ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うちあわせ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打ち合わせる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウチアワセ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うちあわせる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打ち切る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウチキル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うちきる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打ち消し</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウチケシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うちけし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打ち消す</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウチケシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うちけす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打ち込む</t>
+    <rPh sb="0" eb="1">
+      <t>ウチコム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うちこむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜うちに</t>
+  </si>
+  <si>
+    <t>〜うちに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇宙</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ウチュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うちゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団扇</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ウチワ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うちわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内訳</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ウチワケ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うちわけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打つ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うっかり</t>
+  </si>
+  <si>
+    <t>うっかり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>美しい</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウツクシイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うつくしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写し</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウツシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うつし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写す</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウツス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写す／映す</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウツス </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ウツス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うつす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移す</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウツス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>訴え</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウッタエ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うったえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>訴える</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウッタエ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うったえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うっとうしい</t>
+  </si>
+  <si>
+    <t>うっとうしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うつむく</t>
+  </si>
+  <si>
+    <t>うつむく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウツル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うつる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写る／映る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウツル </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ウツル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空ろ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウツロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うつろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>器</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウツワ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うつわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>腕</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウデ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>腕前</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ウデマエ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うでまえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雨天</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ウテン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うてん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うどん</t>
+  </si>
+  <si>
+    <t>うどん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>促す</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウナガス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うながす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うなずく</t>
+  </si>
+  <si>
+    <t>うなずく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うなる</t>
+  </si>
+  <si>
+    <t>うなる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うぬぼれ</t>
+  </si>
+  <si>
+    <t>うぬぼれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奪う</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウバウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うばう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>馬</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウマ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うまい</t>
+  </si>
+  <si>
+    <t>うまい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埋まる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウマル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うまる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生まれ</t>
+    <rPh sb="0" eb="1">
+      <t>ウマレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うまれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うまれつき</t>
+  </si>
+  <si>
+    <t>うまれつき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生まれる</t>
+    <rPh sb="0" eb="1">
+      <t>ウマレル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うまれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有無</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ウム </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>産む</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウム </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梅</t>
+    <rPh sb="0" eb="1">
+      <t>ウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うめ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5622,10 +8373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD98CDC-2E6D-F340-BEA4-C5F884B9AAD8}">
-  <dimension ref="A1:C400"/>
+  <dimension ref="A1:C600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" zoomScale="210" workbookViewId="0">
-      <selection activeCell="C391" sqref="C391"/>
+    <sheetView tabSelected="1" topLeftCell="A583" zoomScale="94" workbookViewId="0">
+      <selection activeCell="C600" sqref="A1:C600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10034,6 +12785,2206 @@
         <v>946</v>
       </c>
     </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C407" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C457" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C525" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C526" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C535" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C544" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C546" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C547" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C548" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C549" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C550" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C551" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C552" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C554" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C556" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C557" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C558" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C559" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C560" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C562" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C563" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C564" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C565" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C566" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C567" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C568" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C570" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C575" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C576" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C578" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C579" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C580" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C582" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C584" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C585" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C586" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C587" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C588" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C589" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C590" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C591" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C592" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C593" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C594" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C595" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C596" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C599" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C600" t="s">
+        <v>1329</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日本語/1_語彙.xlsx
+++ b/日本語/1_語彙.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeshafteure/Documents/GitHub/Freshmore/日本語/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB58F2F7-F592-8B43-8B97-5268D790A5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38978E8A-BF74-9648-8372-0DA99E109064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15000" windowHeight="18900" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="12940" windowHeight="18900" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="2276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="3358">
   <si>
     <t>亜〜</t>
   </si>
@@ -10777,6 +10778,5325 @@
   </si>
   <si>
     <t>intervals of ~, every ~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沖</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the offing, the open sea</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補う</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オギナウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おぎなう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>supplement, make up for, offset, compensate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気の毒に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おきのどくに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I'm (so) sorry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起きる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オキル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おきる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wake up, get up/happen, occur, take place, be caused, originate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>置く</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>億</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hundred million</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the inner part, deep, at the end, behind, bosom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>屋外</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オクガイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奥さん</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オクサン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おくがい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おくさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>outdoors, in the open, out of doors</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wife</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(your/his) wife, housewife</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奥さん／さま</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オクサン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おくさん／さま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>屋上</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オクジョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おくじょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roof</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>臆病</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オクビョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おくびょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cowardice, timidity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遅らす</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オクラス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おくらす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delay, postpone, wait</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送り仮名</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オクリガナ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おくりがな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>conjugational kana added after a Chinese character</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>贈り物</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オクリモノ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おくりもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>present</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オクル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おくる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>send off</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>贈る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オクル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>give, present, confer, award</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遅れ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オクレ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おくれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遅れる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オクレル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おくれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be late for</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おげんきで</t>
+  </si>
+  <si>
+    <t>おげんきで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Good luck!, Take care of yourself</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お元気ですか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おげんきですか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>How are you?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お子さん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おこさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one's child</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起こす</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オコス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おこす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wake someone up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>厳か</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オゴソカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>solemn, stately</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おごそか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怠る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オコタル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おこたる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>neglect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行い</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オコナイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おこない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>act, conduct</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行う</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オコナウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おこなう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>do, conduct</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起こる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オコル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おこる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>happen, occur</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おごる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>treat, proud, arrogant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怒る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オコル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get angry (scold)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押さえる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オサエル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おさえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hold, steady, stop, press, cover, catch, arrest, grasp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おさきに</t>
+  </si>
+  <si>
+    <t>おさきに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excuse me, but I must be going</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(お)酒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(お)さけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>liquor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幼い</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オサナイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おさない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>young, immature</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おさまる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pack, go, stay in, be settled</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おさめる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>put, keep, obtain, gain / suppress, rule, reign /accept, supply, pay, finish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収／治／納まる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オサマル </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">オサマル </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">オサマル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収／治／納める</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オサメル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(お)皿</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(お)さら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お産</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>give birth to a baby</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>惜しい</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オシイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ui-serif"/>
+      </rPr>
+      <t> 貴重で失いたくない。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Hiragino Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Hiragino Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>あと一息のところで物事が成就せず残念だ。③</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Hiragino Sans"/>
+        <charset val="128"/>
+      </rPr>
+      <t>心残りだ。いつまでも未練が残る。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おじいさん</t>
+  </si>
+  <si>
+    <t>おじいさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>old man, grandfather</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押入れ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オシイレ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おしいれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>closet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教え</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オシエ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おしえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>teaching, lesson</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教える</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オシエル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おしえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to teach</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御辞儀</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">オジギ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おじぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a bow, curtsy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押し切る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オシキル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おしきる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>break down</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押し込む</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オシコム </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おしおむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plunge, push into</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伯父／叔父(さん)</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オジサン </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">オジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uncle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おじ(さん)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おじさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伯父／叔父／小父さん</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オジサン </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">オジ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オジサン8</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uncle, mister</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>惜しむ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オシム </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おしむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spare, grudge, be reluctant to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おしゃべり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat, prattle, talkative</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お邪魔します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おじゃまします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hello! May I come in?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おしゃれ</t>
+  </si>
+  <si>
+    <t>おしゃれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fashionable, smart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お嬢さん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おじょうさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one's daughter, young lady</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押し寄せる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オシヨセル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おしよせる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crowd into, surge ahead</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押す</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>push, thrust, shove, press, stamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>male, bull</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お世辞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おせじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>compliment, flattery</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お世話になりました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おせわになりました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thank you for your (kind) help/assistance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>汚染</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オセン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おせん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pollution, contamination</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遅い</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オソイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おそい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>late, slow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>襲う</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オソウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遅くとも</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オソクトモ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おそくとも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>at the latest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恐らく</t>
+    <rPh sb="0" eb="1">
+      <t>オソラク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おそらく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>probably, perhaps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恐れ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オソレ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おそれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fear, dread, terror, fright</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恐れ入る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オソレイル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おそれいる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be sorry, be greatly impressed, be dumbfounded, be amazed, be fed up with</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恐れる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オソレル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おそれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fear, scare, dread, be afraid of, reverence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恐ろしい</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オソロシイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おそろしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>terrible, horrible, dreadful, fierce, ferocious, formidable, trememdous, awful</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教わる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オソワル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おそわる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>learn, be taught</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お大事に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おだいじに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Take (good) care of yourself</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お互い(に)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おたがい(に)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>each other, one another</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お宅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おたく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one's home</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おだてる</t>
+  </si>
+  <si>
+    <t>おだてる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flatter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>穏やか</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オダヤカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おだやか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calm, quiet, moderate, peaceful, gentle, mild-mannered</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落ち込む</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オチコム </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おちこむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fall into, fall in, sink, in low spirits, be depressed/despondent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落ち着き</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オチツキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おちつき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>composure, balance, calmness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落ち着く</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オチツク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おちつく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>become composed, settle, calm, conclusion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落ち葉</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オチバ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おちば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fallen leaves</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お茶</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おちゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>japanese tea</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落ちる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オチル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おちる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乙</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the second best</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お使い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おつかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>run on errands</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おっかない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おっしゃる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>say (honorific)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夫</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オット </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おっと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one's husband</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お釣り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おつり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(お)釣[り]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(お)つり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お手上げ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おてあげ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be done for, hopeless</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お手洗い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おてあらい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>restroom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お出掛け</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おでかけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>go out</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お手伝いさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おてつだいさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a maid, a domestic helper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sound</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お父さん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おとうさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>father</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お父さん／さま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おとうさん／さま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弟</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オトウト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おとうと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>younger brother</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弟(さん)</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オトウト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おとうと(さん)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おどおど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tremble with fear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おどかす</t>
+  </si>
+  <si>
+    <t>おどかす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>threaten, menace, scare, startle, frighten</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オトコ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おとこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>male</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男の子</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オトコノコ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おとこのこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男の人</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オトコノヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おとこのひと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落とし物</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オトシモノ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おとしもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a lost article</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落とす</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オトス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おとす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drop, lose</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おどす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>threaten</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>訪れる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オトズレル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おどずれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>visit, come</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おととい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おととし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the year before last</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オトナ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おとな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adult</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人しい</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オトナシイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おとなしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>well-behaved, gentle, quiet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お供／伴</t>
+    <rPh sb="3" eb="4">
+      <t>トモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おとも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>go along with, accompany</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>踊り</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オドリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おどり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>劣る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オトル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おとる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be inferior, behind, below, beneath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>踊る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オドル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おどる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to dance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衰える</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オトロエル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おとろえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>become weaker, decine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>驚かす</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オドロカス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おどろかす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>surprise, take a person by surprise, astonish, amaze, shock, frighten, terrify</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>驚き</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オドロキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おどろき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>surprise, amazement, wonder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>驚く</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オドロク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おどろく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be surprised</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同い年</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オナイドシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おないどし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>same age</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お腹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おなか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stomach</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オナジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おなじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the same (as)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鬼</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an ogre, a devil, a demon, a fiend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お兄さん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おにいさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>elder brother</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お姉さん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おねえさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>elder sister</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お願いします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おねがいします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please do…, I would like you to…, Could I ask you to…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各々</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オノオノ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おのおの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>each person, everyone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自ずから</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オノズカラ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おのずから</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>naturally, by itself</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おばあさん</t>
+  </si>
+  <si>
+    <t>おばあさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>old woman, grandmother</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おばさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伯母／叔母(さん)</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オバサン </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">オバサン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おば(さん)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aunt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伯母／叔母／小母</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オバサン </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">オバサン </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オバサン6</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an aunt, a lady, Madam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Good morning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おはよう(ございます)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帯</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オビ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おび</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an obi, a broad sash (tied over a kimono), a belt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怯える</t>
+    <rPh sb="0" eb="1">
+      <t>オビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おびえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be frightened</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夥しい</t>
+    <rPh sb="0" eb="1">
+      <t>オビタダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おびただしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a large quantity of, tremendous</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脅かす</t>
+    <rPh sb="0" eb="1">
+      <t>オビヤカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おびやかす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intimidate, terrify</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お昼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おひる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>noon, daytime, lunch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帯びる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オビル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おびる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wear, carry, be charged, take on</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オフィス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>office</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お袋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おふくろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mother, mom, homemade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御風呂</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">オフロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おふろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bath, bathroom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お弁当</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おべんとう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lunch box</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>覚え</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オボエ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おぼえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>learning, memorising, memory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>覚える</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オボエル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おぼえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>learn, remember, memorise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>溺れる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オボレル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おぼれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お参り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おまいり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>visit (a person's grave)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おまえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>you (from superior to subordinate)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おまけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>addition, something extra</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おまたせしました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thank you for waiting.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おまちください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おまちどおさま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please wait</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お祭り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おまつり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>festival</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おまわりさん</t>
+  </si>
+  <si>
+    <t>おまわりさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>policeman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お見舞い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おみまい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inquiry, expression of one's sympathy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お宮</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おみや</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Japanese shrine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お土産</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おみやげ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>souvenir</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おむつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diaper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おめでたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>happy, joyous, auspicious, simple, naïve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おめでとう(ございます)</t>
+  </si>
+  <si>
+    <t>おめでとう(ございます)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Congratulations!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お目にかかる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おめにかかる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meet, see (senior, superior)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重い</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オモイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>heavy (weight), serious (illness)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思い掛けない</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オモイガケナイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもいがけない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unexpected, unforseen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思い込む</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オモイコム </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもいこむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>imagine, assume, take… for…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思い出す</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オモイダス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもいだす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remember, recall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思い付き</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オモイツキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもいつき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idea, plan, casual idea</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思いっ切り</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オモイッキリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもいっきり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to one's heart's content, to the best of one's ability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思い付く</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オモイツク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもいつく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>think of, hit on, fall on, strike on, occur to one, remember, guess, conceive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思い出</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オモイデ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもいで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a memory, recollections</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>think</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思う</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オモウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面白い</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オモシロイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもしろい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>interesting, funny</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重たい</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オモタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>heavy, depressing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもちゃ</t>
+  </si>
+  <si>
+    <t>おもちゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>toy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オモテ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>front, right side, face</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主(な/に)</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オモ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おも(な/に)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main, principal, mainly, chiefly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>趣</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オモムキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもむき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flavor, appearance, charm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赴く</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オモムク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもむく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>go, proceed, get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思わず</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オモワズ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもわず</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unconciously, in spite of oneself, instinctively</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重んじる／ずる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オモンジル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもんじる／ずる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>value, treasure, prize, make much of, think much of</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おや</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oh!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オヤ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親父</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オヤジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おやじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parents, father, mother</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one's father</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お休み(なさい)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おやすみ(なさい)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Good night.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おやつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a snack, refreshments</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親指</t>
+    <rPh sb="0" eb="2">
+      <t>オヤユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泳ぎ</t>
+    <rPh sb="0" eb="1">
+      <t>オヨギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泳ぐ</t>
+    <rPh sb="0" eb="1">
+      <t>オヨグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>およそ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>及び</t>
+    <rPh sb="0" eb="1">
+      <t>オヨビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>及ぶ</t>
+    <rPh sb="0" eb="1">
+      <t>オヨブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>及ぼす</t>
+    <rPh sb="0" eb="1">
+      <t>オヨボス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>檻</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>折</t>
+    <rPh sb="0" eb="1">
+      <t>オリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オリエンテーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>折り返す</t>
+    <rPh sb="0" eb="1">
+      <t>オリカエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>織物</t>
+    <rPh sb="0" eb="2">
+      <t>オリモノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>降りる</t>
+    <rPh sb="0" eb="1">
+      <t>オリル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下りる</t>
+    <rPh sb="0" eb="1">
+      <t>オリル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おりる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おりもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おりかえす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おやゆび</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>およぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>およぐ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>および</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>およぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>およぼす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the thumb, the big toe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>swimming</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>swim (in the pool)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>and, as well as</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be equal to, reach, extend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exert, influence, affect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>on occasion, at a time of</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orientation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fold back, turn down, return</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get off</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get down (a mountain, descend)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>textiles, (textile) fabrics, cloth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オリンピック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the Olympic Games, the Olympics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>居る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to be (humble form of いる)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>折る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>織る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bend, break</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weave</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オルガン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>俺</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オレ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>organ, pipe organ, harmonium, reed organ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I (make speaker's term for I)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お礼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おれい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thanks, appreciation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>折れる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オレル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be folded</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オレンジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愚か</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オロカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おろか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foolish, silly, stupid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>take down, lower, pull down, withdraw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wholesale</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>negligent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an apology</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end, be over, finish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>finished (something)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a favor, kindness, an obligaiton, moral indebtness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sound, noise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>music</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a favor, a benefit, a blessing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hot spring</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>greenhouse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>temperate zone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>warm, mild</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便物で，会社・団体など個人名以外のあて名の下に添える語。「○○株式会社人事課―」</t>
+  </si>
+  <si>
+    <t>temperature, heat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>female</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>girl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>woman, lady, female</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carry a person on one's back</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>online</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mild, gentle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a person that does ~ (occupation)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>under</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~ise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>department, family subject</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>song</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>days</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>may, will, fair, passable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mosquito</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>section, department, lesson</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>painting of ~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>something related to pictures</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>car</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curtain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>card</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carpet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meeting, gathering party, society</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shellfish, shell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sea of</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>world, society, circle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>out of ~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>harm, damage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>outside</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>street, district</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~ storey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>member of society, member of association, membership</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shipping, marine transportation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>picture, painting, drawing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foreign currency</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the opening of a meeting, the opening of a session</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>overseas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reform</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shell, seashell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hall, assembly hall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seashore, beach</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>outward appearance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>conference</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>conference room</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class, rank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strait, channel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account, bill</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>settlement, solution, resolution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>interview</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nursing, care</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gathering, meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diplomacy, foreign policy, diplomatic relations</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foreign country</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foreigner</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hold, open a meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wicket, ticket gate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>break up, disperse, dissolve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an opening, a beginning, commencement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>interpretation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>collection, withdrawal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>repair</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>monster</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cancellation, release</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meeting place, grounds, hall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Foreign Minister</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sea bathing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the number of times</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coupon ticket, book of coupon tickets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下ろす／降ろす</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オロス </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">オロス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おろす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卸す</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オロス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おろそか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お詫び</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おわび</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終わり</t>
+    <rPh sb="0" eb="1">
+      <t>オワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おわり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終わる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オワル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おわる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜終わる</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">オワル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜おわる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恩</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音楽</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オンガク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おんがく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恩恵</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オンケイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おんけい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温室</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オンシツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おんしつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温泉</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オンセン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おんせん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温帯</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オンタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おんたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温暖</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オンダン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おんだん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御中</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オンチュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おんちゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オンド </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おんど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おんな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女の子</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オンナノコ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おんなのこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女の人</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オンナノヒト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おんなのひと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おんぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温和</t>
+    <rPh sb="0" eb="2">
+      <t>オンワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おんわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">キョカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蚊</t>
+    <rPh sb="0" eb="1">
+      <t>🦟</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課</t>
+    <rPh sb="0" eb="1">
+      <t>🦟</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーテン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーペット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貝</t>
+    <rPh sb="0" eb="1">
+      <t>🦪</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>害</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ガイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜かい／がい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜階</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜街</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ガイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外〜</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ガイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜外</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ガイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜界</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜海</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜会</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜回</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜がい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がい〜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜かい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>か</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜家</t>
+    <rPh sb="0" eb="1">
+      <t>カ゚4</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜下</t>
+    <rPh sb="0" eb="1">
+      <t>🦟</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜化</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜か</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜科</t>
+    <rPh sb="0" eb="1">
+      <t>🦟</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜日</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヒ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜歌</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ウタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜が</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>が〜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画〜</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ガ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜画</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ガ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改悪</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイアク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいあく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイイン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいいん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海運</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイウン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいうん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絵画</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイガ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいが</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がいか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外貨</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガイカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開会</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイカイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海外</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイガイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいがい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改革</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイカク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいかく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貝殻</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイガラ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいがら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会館</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイカン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海岸</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイガン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいがん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外観</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガイカン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がいかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会議</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイギ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会議室</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">カイギシツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいぎしつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>階級</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイキュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいきゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海峡</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイキョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいきょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会計</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイケイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいけい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解決</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイケツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいけつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会見</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイケン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいけん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>介護</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイゴ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会合</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイゴウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいごう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外交</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガイコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がいこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外国</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガイコク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がいこく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外国人</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ガイコクジン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がいこくじん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開催</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいさい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改札</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイサツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいさつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解散</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイサン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイシャ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいしゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解釈</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイシャク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいしゃく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回収</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイシュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいしゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改修</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイシュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怪獣</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイジュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいじゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガイシュツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がいしゅつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解除</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイジョ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいじょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会場</t>
+    <rPh sb="0" eb="2">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいじょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外相</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガイショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいしょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海水浴</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">カイスイヨク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいすいよく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回数</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイスウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいすう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回数券</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">カイスウケン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいすうけん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>harm, spoil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fine/fair weather</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>revision, reform, amendment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>explanation, commentary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>outline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>improvement, betterment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>story, level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>forward, deadhead, drive without passengers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remodelling</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reclamation, cultivation, development, explore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stairs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>conference, meeting, talk, summit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be opened to/for traffic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>revision (of rules)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>revision (e.g. revised edition)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comfortable, pleasant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>revolution, rotation, a roll, circulation, turnover</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guide</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer, solution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>highway, thoroughfare, trunk road</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the street</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>applicable, relevant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guidebook</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intervention</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>general idea, notion, concept</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>development, exploitation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sea level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the outside, the outside world</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>restoration, rehabilitation, recovery</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>liberation, emancipation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>open (a country, an economy)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dissection, autopsy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shopping</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shop, purchase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the ocean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>outline, summary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foreign, something from outside</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>circulation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ocean current</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>improvement, reform</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sea route</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>circuit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an outline, an introduction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>conversation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buy (something)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>raise, keep</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>return (something) to (someone)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>let (a person) go back</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>on the contrary, instead, rather, all the more</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reflect on, search one's soul</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>return, come back</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exchange, change</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subsitute, instead of, in place of</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>return, be returned, regain, come back</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>face</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a house</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>features, looks, expression</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fragrance, scent, smell, perfume, aroma, bouquet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a painter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>extracurricular</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hold, have, with, hire, employ, keep</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price, cost, value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>science</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chemistry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>put up, display</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>heel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mirror</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shine, twinkle, glitter, sparkle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a person in charge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hang</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fall (lit. be taken) (ill)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>have to do with, be involved in</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registered mail, registered post, a registered leter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dictation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>write down, take a dictation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a fence, a hedge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stir up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>limit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>limit, restrict</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>write, spell, compose, draw, paint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scratch, shovel away</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sweat, perspire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>each, every</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be disgraced, be humiliated</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>核</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原子核。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>break, chip, lack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status, rank, rule</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>angle, square</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stroke, plan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smell (at)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>furniture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>learning, studies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a sum, a picture frame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aerial, overhead, imaginary, ficticious</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>liberal arts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>害する</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ガイスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がいする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>快晴</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改正</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解説</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイセツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概説</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガイセツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいせつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がいせつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改善</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいぜん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>階層</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイソウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回送</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイソウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改造</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイゾウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいぞう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開拓</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイタク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいたく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>階段</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイダン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいだん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会談</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイダン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開通</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイツウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいつう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改定</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイテイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいてい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイテイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>快適</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイテキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいてき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイテン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいてん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガイド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解答／回答</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイトウ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">カイトウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいとう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街道</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイドウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいどう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街頭</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガイトウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がいとう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガイトウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガイドブック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>介入</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイニュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいにゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概念</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガイネン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がいねん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイハツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいはつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海抜</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイバツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいばつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガイブ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がいぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイフク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいふく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解放</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイホウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいほう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開放</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイホウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>介抱</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイホウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解剖</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイボウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいぼう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買い物</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カイモノ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買い物(する)</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カイモノ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいもの(する)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海洋</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイヨウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいよう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガイヨウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がいよう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外来</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガイライ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がいらい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回覧</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイラン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいらん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概略</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガイリャク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がいりゃく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海流</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイリュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいりゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改良</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイリョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいりょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回路</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海路</t>
+    <rPh sb="0" eb="2">
+      <t>カイロ3</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概論</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガイロン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいろん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会話</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイワ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買う</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飼う</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返す</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カエス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かえす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帰す</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カエス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>却って</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カエッテ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かえって</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帰り</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カエリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かえり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧みる／省みる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カエリミル </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">カエリミル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かえりみる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帰る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カエル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>換える</t>
+    <rPh sb="0" eb="1">
+      <t>🐸</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変える</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カエル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代える／替える</t>
+    <rPh sb="0" eb="1">
+      <t>🐸</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">カエル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返る</t>
+    <rPh sb="0" eb="1">
+      <t>🐸</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顔</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カオ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かお</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家屋</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カオク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かおく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顔付き</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カオツキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かおつき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香り</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カオリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かおり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画家</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課外</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カガイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かがい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抱える</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カカエル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かかえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カカク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かかく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>科学</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カガク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かがく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>化学</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カガク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲げる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カカゲル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かかげる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かかと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鏡</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カガミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かがみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輝く</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カガヤク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かがやく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>係</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カカリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かかり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掛かる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カカル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かかる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掛かる／罹る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カカル </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">カカル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>係[わ]る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カカワル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かかわる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鍵</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カギ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書留</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カキトメ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かきとめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書き取り</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カキトリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かきとり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書き取る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カキトル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かきとる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垣根</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カキネ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かきね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掻き回す</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カキマワス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かきまわす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>限り</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カギリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かぎり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>限る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カギル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かぎる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書く／描く</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カク </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">カク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掻く</t>
+    <rPh sb="0" eb="1">
+      <t>⊥</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(汗を)かく</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">アセヲ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各〜</t>
+    <rPh sb="0" eb="1">
+      <t>∠</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(恥を)かく</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ハズカシイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠く</t>
+    <rPh sb="0" eb="1">
+      <t>⊥</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>格</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜画</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嗅ぐ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カグ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家具</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カグ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ガク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>額</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ガク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>架空</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カクウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学芸</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガクゲイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がくげい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かくう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かぐ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜かく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かく</t>
+  </si>
+  <si>
+    <t>かく〜</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10784,7 +16104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10799,6 +16119,23 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Ui-serif"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Hiragino Sans"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -10823,8 +16160,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11161,16 +16504,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD98CDC-2E6D-F340-BEA4-C5F884B9AAD8}">
-  <dimension ref="A1:C806"/>
+  <dimension ref="A1:C1200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A794" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A807" sqref="A807"/>
+    <sheetView tabSelected="1" topLeftCell="A1174" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B1185" sqref="B1185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -20039,6 +25383,4340 @@
         <v>2275</v>
       </c>
     </row>
+    <row r="807" spans="1:3">
+      <c r="A807" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B807" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C807" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3">
+      <c r="A808" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B808" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C808" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3">
+      <c r="A809" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B809" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C809" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3">
+      <c r="A810" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B810" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C810" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3">
+      <c r="A811" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B811" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C811" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3">
+      <c r="A812" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B812" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C812" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3">
+      <c r="A813" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B813" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C813" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3">
+      <c r="A814" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B814" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C814" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3">
+      <c r="A815" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B815" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C815" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3">
+      <c r="A816" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B816" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C816" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3">
+      <c r="A817" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B817" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C817" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3">
+      <c r="A818" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B818" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C818" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3">
+      <c r="A819" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B819" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C819" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3">
+      <c r="A820" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B820" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C820" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3">
+      <c r="A821" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B821" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C821" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3">
+      <c r="A822" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B822" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C822" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3">
+      <c r="A823" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B823" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C823" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3">
+      <c r="A824" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B824" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C824" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3">
+      <c r="A825" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B825" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C825" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3">
+      <c r="A826" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B826" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C826" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3">
+      <c r="A827" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B827" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C827" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3">
+      <c r="A828" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B828" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C828" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3">
+      <c r="A829" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B829" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C829" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3">
+      <c r="A830" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B830" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C830" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3">
+      <c r="A831" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B831" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C831" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3">
+      <c r="A832" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B832" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C832" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3">
+      <c r="A833" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B833" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C833" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3">
+      <c r="A834" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B834" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C834" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3">
+      <c r="A835" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B835" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C835" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3">
+      <c r="A836" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B836" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C836" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3">
+      <c r="A837" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B837" t="s">
+        <v>2362</v>
+      </c>
+      <c r="C837" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3">
+      <c r="A838" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B838" t="s">
+        <v>2364</v>
+      </c>
+      <c r="C838" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3">
+      <c r="A839" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B839" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C839" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3">
+      <c r="A840" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B840" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C840" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3">
+      <c r="A841" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B841" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C841" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3">
+      <c r="A842" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B842" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C842" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3">
+      <c r="A843" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B843" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C843" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3">
+      <c r="A844" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B844" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C844" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" ht="23">
+      <c r="A845" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B845" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C845" s="1" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3">
+      <c r="A846" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B846" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C846" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3">
+      <c r="A847" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B847" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C847" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3">
+      <c r="A848" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B848" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C848" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3">
+      <c r="A849" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B849" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C849" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3">
+      <c r="A850" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B850" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C850" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3">
+      <c r="A851" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B851" t="s">
+        <v>2404</v>
+      </c>
+      <c r="C851" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3">
+      <c r="A852" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B852" t="s">
+        <v>2407</v>
+      </c>
+      <c r="C852" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3">
+      <c r="A853" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B853" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C853" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3">
+      <c r="A854" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B854" t="s">
+        <v>2412</v>
+      </c>
+      <c r="C854" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3">
+      <c r="A855" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B855" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C855" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3">
+      <c r="A856" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B856" t="s">
+        <v>2418</v>
+      </c>
+      <c r="C856" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3">
+      <c r="A857" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B857" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C857" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3">
+      <c r="A858" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B858" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C858" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3">
+      <c r="A859" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B859" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C859" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3">
+      <c r="A860" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B860" t="s">
+        <v>2430</v>
+      </c>
+      <c r="C860" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3">
+      <c r="A861" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B861" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C861" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3">
+      <c r="A862" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B862" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C862" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3">
+      <c r="A863" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B863" t="s">
+        <v>2438</v>
+      </c>
+      <c r="C863" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3">
+      <c r="A864" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B864" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C864" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3">
+      <c r="A865" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B865" t="s">
+        <v>2444</v>
+      </c>
+      <c r="C865" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3">
+      <c r="A866" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B866" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C866" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3">
+      <c r="A867" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B867" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C867" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3">
+      <c r="A868" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B868" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C868" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3">
+      <c r="A869" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B869" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C869" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3">
+      <c r="A870" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B870" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C870" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3">
+      <c r="A871" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B871" t="s">
+        <v>2462</v>
+      </c>
+      <c r="C871" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3">
+      <c r="A872" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B872" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C872" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3">
+      <c r="A873" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B873" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C873" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3">
+      <c r="A874" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B874" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C874" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3">
+      <c r="A875" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B875" t="s">
+        <v>2474</v>
+      </c>
+      <c r="C875" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3">
+      <c r="A876" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B876" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C876" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3">
+      <c r="A877" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B877" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C877" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3">
+      <c r="A878" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B878" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C878" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3">
+      <c r="A879" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B879" t="s">
+        <v>2486</v>
+      </c>
+      <c r="C879" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3">
+      <c r="A880" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B880" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C880" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3">
+      <c r="A881" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B881" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C881" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3">
+      <c r="A882" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B882" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C882" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3">
+      <c r="A883" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B883" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C883" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3">
+      <c r="A884" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B884" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C884" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3">
+      <c r="A885" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B885" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C885" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3">
+      <c r="A886" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B886" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C886" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3">
+      <c r="A887" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B887" t="s">
+        <v>2510</v>
+      </c>
+      <c r="C887" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3">
+      <c r="A888" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B888" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C888" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3">
+      <c r="A889" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B889" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C889" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3">
+      <c r="A890" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B890" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C890" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3">
+      <c r="A891" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B891" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C891" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3">
+      <c r="A892" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B892" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C892" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3">
+      <c r="A893" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B893" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C893" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3">
+      <c r="A894" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B894" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C894" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3">
+      <c r="A895" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B895" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C895" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3">
+      <c r="A896" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B896" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C896" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3">
+      <c r="A897" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B897" t="s">
+        <v>2517</v>
+      </c>
+      <c r="C897" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3">
+      <c r="A898" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B898" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C898" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3">
+      <c r="A899" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B899" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C899" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3">
+      <c r="A900" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B900" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C900" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3">
+      <c r="A901" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B901" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C901" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3">
+      <c r="A902" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B902" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C902" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3">
+      <c r="A903" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B903" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C903" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3">
+      <c r="A904" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B904" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C904" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3">
+      <c r="A905" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B905" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C905" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3">
+      <c r="A906" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B906" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C906" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3">
+      <c r="A907" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B907" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C907" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3">
+      <c r="A908" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B908" t="s">
+        <v>2565</v>
+      </c>
+      <c r="C908" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3">
+      <c r="A909" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B909" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C909" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3">
+      <c r="A910" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B910" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C910" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3">
+      <c r="A911" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B911" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C911" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3">
+      <c r="A912" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B912" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C912" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3">
+      <c r="A913" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B913" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C913" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3">
+      <c r="A914" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B914" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C914" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3">
+      <c r="A915" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B915" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C915" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3">
+      <c r="A916" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B916" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C916" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3">
+      <c r="A917" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B917" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C917" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3">
+      <c r="A918" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B918" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C918" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3">
+      <c r="A919" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B919" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C919" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3">
+      <c r="A920" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B920" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C920" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3">
+      <c r="A921" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B921" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C921" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3">
+      <c r="A922" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B922" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C922" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3">
+      <c r="A923" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B923" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C923" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3">
+      <c r="A924" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B924" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C924" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3">
+      <c r="A925" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B925" t="s">
+        <v>2612</v>
+      </c>
+      <c r="C925" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3">
+      <c r="A926" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B926" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C926" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3">
+      <c r="A927" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B927" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C927" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3">
+      <c r="A928" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B928" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C928" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3">
+      <c r="A929" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B929" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C929" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3">
+      <c r="A930" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B930" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C930" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3">
+      <c r="A931" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B931" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C931" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3">
+      <c r="A932" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B932" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C932" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3">
+      <c r="A933" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B933" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C933" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3">
+      <c r="A934" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B934" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C934" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3">
+      <c r="A935" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B935" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C935" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3">
+      <c r="A936" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B936" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C936" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3">
+      <c r="A937" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B937" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C937" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3">
+      <c r="A938" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B938" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C938" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3">
+      <c r="A939" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B939" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C939" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3">
+      <c r="A940" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B940" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C940" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3">
+      <c r="A941" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B941" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C941" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3">
+      <c r="A942" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B942" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C942" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3">
+      <c r="A943" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B943" t="s">
+        <v>2664</v>
+      </c>
+      <c r="C943" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3">
+      <c r="A944" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B944" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C944" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3">
+      <c r="A945" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B945" t="s">
+        <v>2670</v>
+      </c>
+      <c r="C945" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3">
+      <c r="A946" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B946" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C946" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3">
+      <c r="A947" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B947" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C947" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3">
+      <c r="A948" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B948" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C948" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3">
+      <c r="A949" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B949" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C949" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3">
+      <c r="A950" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B950" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C950" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3">
+      <c r="A951" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B951" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C951" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3">
+      <c r="A952" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B952" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C952" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3">
+      <c r="A953" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B953" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C953" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3">
+      <c r="A954" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B954" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C954" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3">
+      <c r="A955" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B955" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C955" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3">
+      <c r="A956" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B956" t="s">
+        <v>2696</v>
+      </c>
+      <c r="C956" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3">
+      <c r="A957" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B957" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C957" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3">
+      <c r="A958" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B958" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C958" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3">
+      <c r="A959" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B959" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C959" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3">
+      <c r="A960" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B960" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C960" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3">
+      <c r="A961" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B961" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C961" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3">
+      <c r="A962" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B962" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C962" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3">
+      <c r="A963" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B963" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C963" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3">
+      <c r="A964" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B964" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C964" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3">
+      <c r="A965" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B965" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C965" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3">
+      <c r="A966" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B966" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C966" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3">
+      <c r="A967" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B967" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C967" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3">
+      <c r="A968" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B968" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C968" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3">
+      <c r="A969" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B969" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C969" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3">
+      <c r="A970" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B970" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C970" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3">
+      <c r="A971" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B971" t="s">
+        <v>2740</v>
+      </c>
+      <c r="C971" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3">
+      <c r="A972" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B972" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C972" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3">
+      <c r="A973" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B973" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C973" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3">
+      <c r="A974" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B974" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C974" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3">
+      <c r="A975" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B975" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C975" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3">
+      <c r="A976" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B976" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C976" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3">
+      <c r="A977" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B977" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C977" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3">
+      <c r="A978" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B978" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C978" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3">
+      <c r="A979" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B979" t="s">
+        <v>2764</v>
+      </c>
+      <c r="C979" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3">
+      <c r="A980" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B980" t="s">
+        <v>2767</v>
+      </c>
+      <c r="C980" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3">
+      <c r="A981" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B981" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C981" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="982" spans="1:3">
+      <c r="A982" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B982" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C982" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3">
+      <c r="A983" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B983" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C983" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3">
+      <c r="A984" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B984" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C984" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3">
+      <c r="A985" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B985" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C985" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3">
+      <c r="A986" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B986" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C986" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="987" spans="1:3">
+      <c r="A987" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B987" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C987" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="988" spans="1:3">
+      <c r="A988" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B988" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C988" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="989" spans="1:3">
+      <c r="A989" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B989" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C989" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="990" spans="1:3">
+      <c r="A990" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B990" t="s">
+        <v>2787</v>
+      </c>
+      <c r="C990" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="991" spans="1:3">
+      <c r="A991" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B991" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C991" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="992" spans="1:3">
+      <c r="A992" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B992" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C992" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="993" spans="1:3">
+      <c r="A993" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B993" t="s">
+        <v>2807</v>
+      </c>
+      <c r="C993" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="994" spans="1:3">
+      <c r="A994" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B994" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C994" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="995" spans="1:3">
+      <c r="A995" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B995" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C995" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="996" spans="1:3">
+      <c r="A996" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B996" t="s">
+        <v>2793</v>
+      </c>
+      <c r="C996" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="997" spans="1:3">
+      <c r="A997" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B997" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C997" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="998" spans="1:3">
+      <c r="A998" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B998" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C998" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="999" spans="1:3">
+      <c r="A999" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B999" t="s">
+        <v>2798</v>
+      </c>
+      <c r="C999" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:3">
+      <c r="A1000" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:3">
+      <c r="A1001" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:3">
+      <c r="A1002" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>2824</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:3">
+      <c r="A1003" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>2824</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:3">
+      <c r="A1004" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>2824</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:3">
+      <c r="A1005" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>2830</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:3">
+      <c r="A1006" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:3">
+      <c r="A1007" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:3">
+      <c r="A1008" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>2839</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:3">
+      <c r="A1009" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>2841</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:3">
+      <c r="A1010" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>2844</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:3">
+      <c r="A1011" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:3">
+      <c r="A1012" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:3">
+      <c r="A1013" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>2936</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:3">
+      <c r="A1014" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:3">
+      <c r="A1015" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:3">
+      <c r="A1016" t="s">
+        <v>2941</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:3">
+      <c r="A1017" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:3">
+      <c r="A1018" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:3">
+      <c r="A1019" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:3">
+      <c r="A1020" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:3">
+      <c r="A1021" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:3">
+      <c r="A1022" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:3">
+      <c r="A1023" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:3">
+      <c r="A1024" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>2957</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:3">
+      <c r="A1025" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:3">
+      <c r="A1026" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>2961</v>
+      </c>
+      <c r="C1026" s="2" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:3">
+      <c r="A1027" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>2963</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:3">
+      <c r="A1028" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>2965</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:3">
+      <c r="A1029" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:3">
+      <c r="A1030" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:3">
+      <c r="A1031" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:3">
+      <c r="A1032" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:3">
+      <c r="A1033" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:3">
+      <c r="A1034" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:3">
+      <c r="A1035" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:3">
+      <c r="A1036" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:3">
+      <c r="A1037" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:3">
+      <c r="A1038" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:3">
+      <c r="A1039" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:3">
+      <c r="A1040" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:3">
+      <c r="A1041" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:3">
+      <c r="A1042" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:3">
+      <c r="A1043" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:3">
+      <c r="A1044" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:3">
+      <c r="A1045" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:3">
+      <c r="A1046" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:3">
+      <c r="A1047" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:3">
+      <c r="A1048" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:3">
+      <c r="A1049" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>2980</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:3">
+      <c r="A1050" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:3">
+      <c r="A1051" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:3">
+      <c r="A1052" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:3">
+      <c r="A1053" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:3">
+      <c r="A1054" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:3">
+      <c r="A1055" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:3">
+      <c r="A1056" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>2993</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:3">
+      <c r="A1057" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:3">
+      <c r="A1058" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:3">
+      <c r="A1059" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>2993</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:3">
+      <c r="A1060" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:3">
+      <c r="A1061" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>3011</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:3">
+      <c r="A1062" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:3">
+      <c r="A1063" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:3">
+      <c r="A1064" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:3">
+      <c r="A1065" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:3">
+      <c r="A1066" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:3">
+      <c r="A1067" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>3023</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:3">
+      <c r="A1068" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:3">
+      <c r="A1069" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:3">
+      <c r="A1070" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>3029</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:3">
+      <c r="A1071" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:3">
+      <c r="A1072" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:3">
+      <c r="A1073" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:3">
+      <c r="A1074" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>3037</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:3">
+      <c r="A1075" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:3">
+      <c r="A1076" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>3041</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:3">
+      <c r="A1077" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:3">
+      <c r="A1078" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>3045</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:3">
+      <c r="A1079" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>3047</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:3">
+      <c r="A1080" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>3049</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:3">
+      <c r="A1081" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:3">
+      <c r="A1082" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:3">
+      <c r="A1083" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>3055</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:3">
+      <c r="A1084" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>3057</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:3">
+      <c r="A1085" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>3059</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:3">
+      <c r="A1086" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:3">
+      <c r="A1087" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>3063</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:3">
+      <c r="A1088" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:3">
+      <c r="A1089" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:3">
+      <c r="A1090" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:3">
+      <c r="A1091" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:3">
+      <c r="A1092" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:3">
+      <c r="A1093" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:3">
+      <c r="A1094" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>3076</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:3">
+      <c r="A1095" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:3">
+      <c r="A1096" t="s">
+        <v>3079</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>3080</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:3">
+      <c r="A1097" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:3">
+      <c r="A1098" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:3">
+      <c r="A1099" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:3">
+      <c r="A1100" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:3">
+      <c r="A1101" t="s">
+        <v>3187</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>3188</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:3">
+      <c r="A1102" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:3">
+      <c r="A1103" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:3">
+      <c r="A1104" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>3194</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3">
+      <c r="A1105" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>3195</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3">
+      <c r="A1106" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3">
+      <c r="A1107" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3">
+      <c r="A1108" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:3">
+      <c r="A1109" t="s">
+        <v>3201</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:3">
+      <c r="A1110" t="s">
+        <v>3203</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3">
+      <c r="A1111" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:3">
+      <c r="A1112" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:3">
+      <c r="A1113" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>3209</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:3">
+      <c r="A1114" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:3">
+      <c r="A1115" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:3">
+      <c r="A1116" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:3">
+      <c r="A1117" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:3">
+      <c r="A1118" t="s">
+        <v>3217</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:3">
+      <c r="A1119" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:3">
+      <c r="A1120" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:3">
+      <c r="A1121" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3">
+      <c r="A1122" t="s">
+        <v>3224</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3">
+      <c r="A1123" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>3225</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3">
+      <c r="A1124" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3">
+      <c r="A1125" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3">
+      <c r="A1126" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3">
+      <c r="A1127" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3">
+      <c r="A1128" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>3235</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:3">
+      <c r="A1129" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:3">
+      <c r="A1130" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>3239</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:3">
+      <c r="A1131" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>3239</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:3">
+      <c r="A1132" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>3239</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:3">
+      <c r="A1133" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>3243</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:3">
+      <c r="A1134" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>3245</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:3">
+      <c r="A1135" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>3247</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:3">
+      <c r="A1136" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>3249</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:3">
+      <c r="A1137" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>3251</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:3">
+      <c r="A1138" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:3">
+      <c r="A1139" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>3255</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:3">
+      <c r="A1140" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>3257</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:3">
+      <c r="A1141" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>3259</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:3">
+      <c r="A1142" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:3">
+      <c r="A1143" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:3">
+      <c r="A1144" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:3">
+      <c r="A1145" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>3266</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:3">
+      <c r="A1146" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>3268</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:3">
+      <c r="A1147" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>3270</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:3">
+      <c r="A1148" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>3270</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:3">
+      <c r="A1149" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:3">
+      <c r="A1150" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:3">
+      <c r="A1151" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>3276</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:3">
+      <c r="A1152" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>3278</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:3">
+      <c r="A1153" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>3280</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:3">
+      <c r="A1154" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>3288</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:3">
+      <c r="A1155" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>3288</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:3">
+      <c r="A1156" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>3288</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:3">
+      <c r="A1157" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>3288</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:3">
+      <c r="A1158" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>3288</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:3">
+      <c r="A1159" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:3">
+      <c r="A1160" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:3">
+      <c r="A1161" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>3292</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:3">
+      <c r="A1162" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:3">
+      <c r="A1163" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:3">
+      <c r="A1164" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>3298</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:3">
+      <c r="A1165" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>3300</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:3">
+      <c r="A1166" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>3302</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:3">
+      <c r="A1167" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:3">
+      <c r="A1168" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3">
+      <c r="A1169" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>3307</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:3">
+      <c r="A1170" t="s">
+        <v>3308</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>3308</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:3">
+      <c r="A1171" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>3310</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:3">
+      <c r="A1172" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>3312</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:3">
+      <c r="A1173" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>3314</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:3">
+      <c r="A1174" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>3316</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:3">
+      <c r="A1175" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>3316</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:3">
+      <c r="A1176" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>3319</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3">
+      <c r="A1177" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>3321</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3">
+      <c r="A1178" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>3323</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:3">
+      <c r="A1179" t="s">
+        <v>3324</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>3325</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:3">
+      <c r="A1180" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>3327</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:3">
+      <c r="A1181" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:3">
+      <c r="A1182" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>3331</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:3">
+      <c r="A1183" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>3333</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:3">
+      <c r="A1184" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>3335</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:3">
+      <c r="A1185" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:3">
+      <c r="A1186" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:3">
+      <c r="A1187" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:3">
+      <c r="A1188" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>3357</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:3">
+      <c r="A1189" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:3">
+      <c r="A1190" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:3">
+      <c r="A1191" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:3">
+      <c r="A1192" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:3">
+      <c r="A1193" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:3">
+      <c r="A1194" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>3355</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:3">
+      <c r="A1195" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>3354</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:3">
+      <c r="A1196" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>3354</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:3">
+      <c r="A1197" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>3353</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:3">
+      <c r="A1198" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>3353</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:3">
+      <c r="A1199" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>3352</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:3">
+      <c r="A1200" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>3351</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>3186</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日本語/1_語彙.xlsx
+++ b/日本語/1_語彙.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11204"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeshafteure/Documents/GitHub/Freshmore/日本語/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B455131D-6D6F-D448-BAB8-F6E87073074F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44006F24-C2C1-014A-A79A-BD65BC5CBFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="3357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4500" uniqueCount="4141">
   <si>
     <t>亜〜</t>
   </si>
@@ -16040,12 +16040,2642 @@
     <t>おお〜</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>覚悟</t>
+  </si>
+  <si>
+    <t>格差</t>
+  </si>
+  <si>
+    <t>拡散</t>
+  </si>
+  <si>
+    <t>各自</t>
+  </si>
+  <si>
+    <t>学士</t>
+  </si>
+  <si>
+    <t>確実</t>
+  </si>
+  <si>
+    <t>学者</t>
+  </si>
+  <si>
+    <t>各種</t>
+  </si>
+  <si>
+    <t>隔週</t>
+  </si>
+  <si>
+    <t>拡充</t>
+  </si>
+  <si>
+    <t>学習</t>
+  </si>
+  <si>
+    <t>学術</t>
+  </si>
+  <si>
+    <t>革新</t>
+  </si>
+  <si>
+    <t>確信</t>
+  </si>
+  <si>
+    <t>隠す</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>学説</t>
+  </si>
+  <si>
+    <t>拡大</t>
+  </si>
+  <si>
+    <t>各地</t>
+  </si>
+  <si>
+    <t>拡張</t>
+  </si>
+  <si>
+    <t>確定</t>
+  </si>
+  <si>
+    <t>カクテル</t>
+  </si>
+  <si>
+    <t>角度</t>
+  </si>
+  <si>
+    <t>獲得</t>
+  </si>
+  <si>
+    <t>確認</t>
+  </si>
+  <si>
+    <t>学年</t>
+  </si>
+  <si>
+    <t>楽譜</t>
+  </si>
+  <si>
+    <t>学部</t>
+  </si>
+  <si>
+    <t>格別</t>
+  </si>
+  <si>
+    <t>確保</t>
+  </si>
+  <si>
+    <t>革命</t>
+  </si>
+  <si>
+    <t>学問</t>
+  </si>
+  <si>
+    <t>確率</t>
+  </si>
+  <si>
+    <t>確立</t>
+  </si>
+  <si>
+    <t>学力</t>
+  </si>
+  <si>
+    <t>学歴</t>
+  </si>
+  <si>
+    <t>隠れる</t>
+  </si>
+  <si>
+    <t>加減</t>
+  </si>
+  <si>
+    <t>過去</t>
+  </si>
+  <si>
+    <t>籠</t>
+  </si>
+  <si>
+    <t>下降</t>
+  </si>
+  <si>
+    <t>火口</t>
+  </si>
+  <si>
+    <t>加工</t>
+  </si>
+  <si>
+    <t>化合</t>
+  </si>
+  <si>
+    <t>囲む</t>
+  </si>
+  <si>
+    <t>傘</t>
+  </si>
+  <si>
+    <t>火災</t>
+  </si>
+  <si>
+    <t>重なる</t>
+  </si>
+  <si>
+    <t>重ねる</t>
+  </si>
+  <si>
+    <t>飾り</t>
+  </si>
+  <si>
+    <t>飾る</t>
+  </si>
+  <si>
+    <t>火山</t>
+  </si>
+  <si>
+    <t>菓子</t>
+  </si>
+  <si>
+    <t>貸し</t>
+  </si>
+  <si>
+    <t>火事</t>
+  </si>
+  <si>
+    <t>家事</t>
+  </si>
+  <si>
+    <t>賢い</t>
+  </si>
+  <si>
+    <t>貸し出し</t>
+  </si>
+  <si>
+    <t>過失</t>
+  </si>
+  <si>
+    <t>果実</t>
+  </si>
+  <si>
+    <t>貸し間</t>
+  </si>
+  <si>
+    <t>貸家</t>
+  </si>
+  <si>
+    <t>歌手</t>
+  </si>
+  <si>
+    <t>箇所</t>
+  </si>
+  <si>
+    <t>過剰</t>
+  </si>
+  <si>
+    <t>箇条書き</t>
+  </si>
+  <si>
+    <t>頭</t>
+  </si>
+  <si>
+    <t>齧る</t>
+  </si>
+  <si>
+    <t>貸す</t>
+  </si>
+  <si>
+    <t>数</t>
+  </si>
+  <si>
+    <t>ガス</t>
+  </si>
+  <si>
+    <t>微か</t>
+  </si>
+  <si>
+    <t>霞む</t>
+  </si>
+  <si>
+    <t>preparedness, readiness, resolution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かくご</t>
+  </si>
+  <si>
+    <t>difference, gap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diffusion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bachelor's degree</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かくさ</t>
+  </si>
+  <si>
+    <t>かくさん</t>
+  </si>
+  <si>
+    <t>かくじ</t>
+  </si>
+  <si>
+    <t>がくし</t>
+  </si>
+  <si>
+    <t>certain, sure, reliable, sound (business)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かくじつ</t>
+  </si>
+  <si>
+    <t>がくしゃ</t>
+  </si>
+  <si>
+    <t>かくしゅ</t>
+  </si>
+  <si>
+    <t>かくしゅう</t>
+  </si>
+  <si>
+    <t>かくじゅう</t>
+  </si>
+  <si>
+    <t>がくしゅう</t>
+  </si>
+  <si>
+    <t>がくじゅつ</t>
+  </si>
+  <si>
+    <t>かくしん</t>
+  </si>
+  <si>
+    <t>かくす</t>
+  </si>
+  <si>
+    <t>がくせい</t>
+  </si>
+  <si>
+    <t>がくせつ</t>
+  </si>
+  <si>
+    <t>かくだい</t>
+  </si>
+  <si>
+    <t>かくち</t>
+  </si>
+  <si>
+    <t>かくちょう</t>
+  </si>
+  <si>
+    <t>かくてい</t>
+  </si>
+  <si>
+    <t>かくど</t>
+  </si>
+  <si>
+    <t>かくとく</t>
+  </si>
+  <si>
+    <t>かくにん</t>
+  </si>
+  <si>
+    <t>がくねん</t>
+  </si>
+  <si>
+    <t>がくふ</t>
+  </si>
+  <si>
+    <t>がくぶ</t>
+  </si>
+  <si>
+    <t>かくべつ</t>
+  </si>
+  <si>
+    <t>かくほ</t>
+  </si>
+  <si>
+    <t>かくめい</t>
+  </si>
+  <si>
+    <t>がくもん</t>
+  </si>
+  <si>
+    <t>かくりつ</t>
+  </si>
+  <si>
+    <t>がくりょく</t>
+  </si>
+  <si>
+    <t>がくれき</t>
+  </si>
+  <si>
+    <t>かくれる</t>
+  </si>
+  <si>
+    <t>かげん</t>
+  </si>
+  <si>
+    <t>かこ</t>
+  </si>
+  <si>
+    <t>かご</t>
+  </si>
+  <si>
+    <t>かこう</t>
+  </si>
+  <si>
+    <t>かごう</t>
+  </si>
+  <si>
+    <t>かこむ</t>
+  </si>
+  <si>
+    <t>かさ</t>
+  </si>
+  <si>
+    <t>かさい</t>
+  </si>
+  <si>
+    <t>かさなる</t>
+  </si>
+  <si>
+    <t>かさねる</t>
+  </si>
+  <si>
+    <t>かざり</t>
+  </si>
+  <si>
+    <t>かざる</t>
+  </si>
+  <si>
+    <t>かざん</t>
+  </si>
+  <si>
+    <t>かし</t>
+  </si>
+  <si>
+    <t>かじ</t>
+  </si>
+  <si>
+    <t>かしこい</t>
+  </si>
+  <si>
+    <t>かしだし</t>
+  </si>
+  <si>
+    <t>かしつ</t>
+  </si>
+  <si>
+    <t>かじつ</t>
+  </si>
+  <si>
+    <t>かしま</t>
+  </si>
+  <si>
+    <t>かしや</t>
+  </si>
+  <si>
+    <t>かしゅ</t>
+  </si>
+  <si>
+    <t>かしょ</t>
+  </si>
+  <si>
+    <t>かじょう</t>
+  </si>
+  <si>
+    <t>かじょうがき</t>
+  </si>
+  <si>
+    <t>かしら</t>
+  </si>
+  <si>
+    <t>かじる</t>
+  </si>
+  <si>
+    <t>かす</t>
+  </si>
+  <si>
+    <t>かず</t>
+  </si>
+  <si>
+    <t>かすか</t>
+  </si>
+  <si>
+    <t>かすむ</t>
+  </si>
+  <si>
+    <t>scholar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>biweekly, fortnightly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arts and sciences, learning, scholarship, one's studies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>various kinds</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>expansion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>study</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reform, innovation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>conviction, confidence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>conceal, hide, cover</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>student</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>theory, doctrine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>magnification, expansion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>various places</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>extension, expansion, enlargement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(made a) decision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cocktail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>angle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>acquisition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confirmation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>school year, grade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sheet music</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>academic department, faculty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>particularly, especially</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>secure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>revolution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>learning, study, education</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>probability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Housework</t>
+  </si>
+  <si>
+    <t>Wise</t>
+  </si>
+  <si>
+    <t>Mistake</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Singer</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Excess</t>
+  </si>
+  <si>
+    <t>Itemization</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>establishment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scholastic/academic ability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one's school/academic background</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be hidden, to hide</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>half-done, hanger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>賭け</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カケ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bet, wager, gamble</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掛け〜</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カケ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かけ〜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>credit, installment, premium</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>影／陰</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カゲ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">カゲ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かげ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shade, shadow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>崖</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ガケ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cliff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駆け足</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カケアシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かけあし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カケイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かけい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掛け算</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カケザン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かけざん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可決</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カケツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かけつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜かげつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜か月／〜箇月</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">カゲツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かけっこ</t>
+  </si>
+  <si>
+    <t>かけっこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駆ける</t>
+    <rPh sb="0" eb="1">
+      <t>✖</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>賭ける</t>
+    <rPh sb="0" eb="1">
+      <t>×</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>run, gallop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>family budget</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>multiplication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>approval, adoption</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>race</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>run, gallop (verb)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bet, stake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掛ける</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カケル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠ける</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カケル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hung</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>make (a phone call)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wear (spectacles)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lock (a door)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sit (on a chair)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cause someone worry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spend, cost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>声を〜</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">コエヲ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音楽を〜</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オンガクヲ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振り〜</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">フリカケル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>break off, chip off, wane, lack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adjustment, moderation, degree</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the past</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>basket, cage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>descent, fall, decline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crater</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>processing, manufacturing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chemical compound</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>encircle, surround, wall in, fence, besiege</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fire (disaster)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>umbrella</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to overlap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to stack, to pile up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decoration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to decorate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>volcano</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sweets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fire (incident)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かさばる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かさむ</t>
+  </si>
+  <si>
+    <t>かさむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be bulky</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mount, run up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かしこまりました</t>
+  </si>
+  <si>
+    <t>かしこまりました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yes sir, certainly, with pleasure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a loan, lending</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Room for rent, room to let</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>House for rent, house to let</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to gnaw, crunch on, bite off, nibble</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>To lend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be hazy (misty), mist over</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faint, dim, slight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>擦る</t>
+  </si>
+  <si>
+    <t>かする</t>
+  </si>
+  <si>
+    <t>To rub</t>
+  </si>
+  <si>
+    <t>風邪</t>
+  </si>
+  <si>
+    <t>かぜ</t>
+  </si>
+  <si>
+    <t>Cold (illness)</t>
+  </si>
+  <si>
+    <t>風</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>火星</t>
+  </si>
+  <si>
+    <t>かせい</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>課税</t>
+  </si>
+  <si>
+    <t>かぜい</t>
+  </si>
+  <si>
+    <t>Taxation</t>
+  </si>
+  <si>
+    <t>化石</t>
+  </si>
+  <si>
+    <t>かせき</t>
+  </si>
+  <si>
+    <t>Fossil</t>
+  </si>
+  <si>
+    <t>稼ぐ</t>
+  </si>
+  <si>
+    <t>かせぐ</t>
+  </si>
+  <si>
+    <t>To earn</t>
+  </si>
+  <si>
+    <t>カセット (テープ)</t>
+  </si>
+  <si>
+    <t>Cassette (Tape)</t>
+  </si>
+  <si>
+    <t>河川</t>
+  </si>
+  <si>
+    <t>かせん</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>下線</t>
+  </si>
+  <si>
+    <t>Underline</t>
+  </si>
+  <si>
+    <t>化繊</t>
+  </si>
+  <si>
+    <t>Synthetic fiber</t>
+  </si>
+  <si>
+    <t>過疎</t>
+  </si>
+  <si>
+    <t>かそ</t>
+  </si>
+  <si>
+    <t>Depopulation</t>
+  </si>
+  <si>
+    <t>数える</t>
+  </si>
+  <si>
+    <t>かぞえる</t>
+  </si>
+  <si>
+    <t>To count</t>
+  </si>
+  <si>
+    <t>加速</t>
+  </si>
+  <si>
+    <t>かそく</t>
+  </si>
+  <si>
+    <t>Acceleration</t>
+  </si>
+  <si>
+    <t>家族</t>
+  </si>
+  <si>
+    <t>かぞく</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>加速度</t>
+  </si>
+  <si>
+    <t>かそくど</t>
+  </si>
+  <si>
+    <t>Acceleration rate</t>
+  </si>
+  <si>
+    <t>型</t>
+  </si>
+  <si>
+    <t>かた</t>
+  </si>
+  <si>
+    <t>Model / Type</t>
+  </si>
+  <si>
+    <t>肩</t>
+  </si>
+  <si>
+    <t>Shoulder</t>
+  </si>
+  <si>
+    <t>片思い</t>
+  </si>
+  <si>
+    <t>かたおもい</t>
+  </si>
+  <si>
+    <t>Unrequited love</t>
+  </si>
+  <si>
+    <t>方々</t>
+  </si>
+  <si>
+    <t>かたがた</t>
+  </si>
+  <si>
+    <t>Various people</t>
+  </si>
+  <si>
+    <t>片仮名</t>
+  </si>
+  <si>
+    <t>かたかな</t>
+  </si>
+  <si>
+    <t>Katakana</t>
+  </si>
+  <si>
+    <t>片付く</t>
+  </si>
+  <si>
+    <t>かたづく</t>
+  </si>
+  <si>
+    <t>To be tidied up</t>
+  </si>
+  <si>
+    <t>片付ける</t>
+  </si>
+  <si>
+    <t>かたづける</t>
+  </si>
+  <si>
+    <t>To tidy up</t>
+  </si>
+  <si>
+    <t>刀</t>
+  </si>
+  <si>
+    <t>かたな</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>塊</t>
+  </si>
+  <si>
+    <t>かたまり</t>
+  </si>
+  <si>
+    <t>Lump / Mass</t>
+  </si>
+  <si>
+    <t>傾く</t>
+  </si>
+  <si>
+    <t>かたむく</t>
+  </si>
+  <si>
+    <t>To tilt</t>
+  </si>
+  <si>
+    <t>傾ける</t>
+  </si>
+  <si>
+    <t>かたむける</t>
+  </si>
+  <si>
+    <t>To lean</t>
+  </si>
+  <si>
+    <t>固める</t>
+  </si>
+  <si>
+    <t>かためる</t>
+  </si>
+  <si>
+    <t>To solidify</t>
+  </si>
+  <si>
+    <t>勝つ</t>
+  </si>
+  <si>
+    <t>かつ</t>
+  </si>
+  <si>
+    <t>To win</t>
+  </si>
+  <si>
+    <t>活動</t>
+  </si>
+  <si>
+    <t>かつどう</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>学科</t>
+  </si>
+  <si>
+    <t>がっか</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>活用</t>
+  </si>
+  <si>
+    <t>かつよう</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>必ず</t>
+  </si>
+  <si>
+    <t>かならず</t>
+  </si>
+  <si>
+    <t>必ずしも</t>
+  </si>
+  <si>
+    <t>かならずしも</t>
+  </si>
+  <si>
+    <t>Not necessarily</t>
+  </si>
+  <si>
+    <t>悲しい</t>
+  </si>
+  <si>
+    <t>かなしい</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t>悲しむ</t>
+  </si>
+  <si>
+    <t>かなしむ</t>
+  </si>
+  <si>
+    <t>To grieve</t>
+  </si>
+  <si>
+    <t>仮名遣い</t>
+  </si>
+  <si>
+    <t>かなづかい</t>
+  </si>
+  <si>
+    <t>Kana usage</t>
+  </si>
+  <si>
+    <t>金槌</t>
+  </si>
+  <si>
+    <t>かなづち</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>合唱</t>
+  </si>
+  <si>
+    <t>がっしょう</t>
+  </si>
+  <si>
+    <t>Chorus</t>
+  </si>
+  <si>
+    <t>活気</t>
+  </si>
+  <si>
+    <t>かっき</t>
+  </si>
+  <si>
+    <t>Vigor</t>
+  </si>
+  <si>
+    <t>学期</t>
+  </si>
+  <si>
+    <t>がっき</t>
+  </si>
+  <si>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t>楽器</t>
+  </si>
+  <si>
+    <t>Musical instrument</t>
+  </si>
+  <si>
+    <t>学級</t>
+  </si>
+  <si>
+    <t>がっきゅう</t>
+  </si>
+  <si>
+    <t>Class (in school)</t>
+  </si>
+  <si>
+    <t>担ぐ</t>
+  </si>
+  <si>
+    <t>かつぐ</t>
+  </si>
+  <si>
+    <t>To carry</t>
+  </si>
+  <si>
+    <t>括弧</t>
+  </si>
+  <si>
+    <t>かっこ</t>
+  </si>
+  <si>
+    <t>Parentheses</t>
+  </si>
+  <si>
+    <t>格好</t>
+  </si>
+  <si>
+    <t>かっこう</t>
+  </si>
+  <si>
+    <t>Appearance</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>がっこう</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>活字</t>
+  </si>
+  <si>
+    <t>かつじ</t>
+  </si>
+  <si>
+    <t>Printed type</t>
+  </si>
+  <si>
+    <t>合致</t>
+  </si>
+  <si>
+    <t>がっち</t>
+  </si>
+  <si>
+    <t>Agreement</t>
+  </si>
+  <si>
+    <t>勝手</t>
+  </si>
+  <si>
+    <t>かって</t>
+  </si>
+  <si>
+    <t>One's own way</t>
+  </si>
+  <si>
+    <t>活発</t>
+  </si>
+  <si>
+    <t>かっぱつ</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>活躍</t>
+  </si>
+  <si>
+    <t>かつやく</t>
+  </si>
+  <si>
+    <t>Active participation</t>
+  </si>
+  <si>
+    <t>活力</t>
+  </si>
+  <si>
+    <t>かつりょく</t>
+  </si>
+  <si>
+    <t>Vitality</t>
+  </si>
+  <si>
+    <t>家庭</t>
+  </si>
+  <si>
+    <t>かてい</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>課程</t>
+  </si>
+  <si>
+    <t>Curriculum</t>
+  </si>
+  <si>
+    <t>過程</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>仮定</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t>叶う</t>
+  </si>
+  <si>
+    <t>かなう</t>
+  </si>
+  <si>
+    <t>叶える</t>
+  </si>
+  <si>
+    <t>かなえる</t>
+  </si>
+  <si>
+    <t>仮名</t>
+  </si>
+  <si>
+    <t>かな</t>
+  </si>
+  <si>
+    <t>Kana (Japanese syllabary)</t>
+  </si>
+  <si>
+    <t>角</t>
+  </si>
+  <si>
+    <t>かど</t>
+  </si>
+  <si>
+    <t>Corner</t>
+  </si>
+  <si>
+    <t>片道</t>
+  </si>
+  <si>
+    <t>かたみち</t>
+  </si>
+  <si>
+    <t>One-way trip</t>
+  </si>
+  <si>
+    <t>家畜</t>
+  </si>
+  <si>
+    <t>かちく</t>
+  </si>
+  <si>
+    <t>Livestock</t>
+  </si>
+  <si>
+    <t>課長</t>
+  </si>
+  <si>
+    <t>かちょう</t>
+  </si>
+  <si>
+    <t>Section manager</t>
+  </si>
+  <si>
+    <t>価値</t>
+  </si>
+  <si>
+    <t>かち</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>花壇</t>
+  </si>
+  <si>
+    <t>かだん</t>
+  </si>
+  <si>
+    <t>Flower bed</t>
+  </si>
+  <si>
+    <t>合併</t>
+  </si>
+  <si>
+    <t>がっぺい</t>
+  </si>
+  <si>
+    <t>Merger</t>
+  </si>
+  <si>
+    <t>勝手に</t>
+  </si>
+  <si>
+    <t>かってに</t>
+  </si>
+  <si>
+    <t>Arbitrarily</t>
+  </si>
+  <si>
+    <t>カテゴリー</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Lively</t>
+  </si>
+  <si>
+    <t>学会</t>
+  </si>
+  <si>
+    <t>がっかい</t>
+  </si>
+  <si>
+    <t>Academic meeting</t>
+  </si>
+  <si>
+    <t>がっしり</t>
+  </si>
+  <si>
+    <t>Solidly</t>
+  </si>
+  <si>
+    <t>がっちり</t>
+  </si>
+  <si>
+    <t>Firmly</t>
+  </si>
+  <si>
+    <t>カップ</t>
+  </si>
+  <si>
+    <t>Cup</t>
+  </si>
+  <si>
+    <t>Course / Process</t>
+  </si>
+  <si>
+    <t>Hypothesis</t>
+  </si>
+  <si>
+    <t>To be fulfilled</t>
+  </si>
+  <si>
+    <t>To fulfill</t>
+  </si>
+  <si>
+    <t>Certainly, surely, without fail</t>
+  </si>
+  <si>
+    <t>かなり</t>
+  </si>
+  <si>
+    <t>Pretty, fairly, rather</t>
+  </si>
+  <si>
+    <t>ガソリン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガソリンスタンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜方</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">カタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜かた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gasoline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gas station</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>polite form of person</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the way to (do)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片〜</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かた〜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固い／硬い／堅い</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カタイ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">カタイ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">カタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜難い</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ガタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かだい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one side</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject, homework, assignment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>difficult/hard to do</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片言</t>
+  </si>
+  <si>
+    <t>かたこと</t>
+  </si>
+  <si>
+    <t>Prattle</t>
+  </si>
+  <si>
+    <t>形</t>
+  </si>
+  <si>
+    <t>かたち</t>
+  </si>
+  <si>
+    <t>Shape, figure</t>
+  </si>
+  <si>
+    <t>片付け</t>
+  </si>
+  <si>
+    <t>かたづけ</t>
+  </si>
+  <si>
+    <t>Put in order, put away, tidy</t>
+  </si>
+  <si>
+    <t>固まる</t>
+  </si>
+  <si>
+    <t>かたまる</t>
+  </si>
+  <si>
+    <t>Harden, become solid/stiff</t>
+  </si>
+  <si>
+    <t>かたよる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lean, be prejudiced</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片寄る</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カタヨル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>語る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カタル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かたる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>talk, tell, narrate, recite, show</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傍ら</t>
+    <rPh sb="0" eb="1">
+      <t>カタワラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かたわら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the side, beside</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝ち</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>victory, win</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜がち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tend to do</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>且つ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moreover</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜月</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ガツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜がつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>months of a year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がっかり</t>
+  </si>
+  <si>
+    <t>がっかり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be discouraged</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画期</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カッキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かっき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>epoch-making</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がっくり</t>
+  </si>
+  <si>
+    <t>がっくり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be heartbroken</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かつて</t>
+  </si>
+  <si>
+    <t>かつて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>once, at once</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かなわない</t>
+  </si>
+  <si>
+    <t>Impossible</t>
+  </si>
+  <si>
+    <t>かにゅう</t>
+  </si>
+  <si>
+    <t>Entry</t>
+  </si>
+  <si>
+    <t>かね</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>かねつ</t>
+  </si>
+  <si>
+    <t>加熱</t>
+  </si>
+  <si>
+    <t>Heating</t>
+  </si>
+  <si>
+    <t>予て</t>
+  </si>
+  <si>
+    <t>かねて</t>
+  </si>
+  <si>
+    <t>Previously</t>
+  </si>
+  <si>
+    <t>金持ち</t>
+  </si>
+  <si>
+    <t>かねもち</t>
+  </si>
+  <si>
+    <t>Wealthy</t>
+  </si>
+  <si>
+    <t>兼ねる</t>
+  </si>
+  <si>
+    <t>かねる</t>
+  </si>
+  <si>
+    <t>Combine</t>
+  </si>
+  <si>
+    <t>可能</t>
+  </si>
+  <si>
+    <t>かのう</t>
+  </si>
+  <si>
+    <t>Possible</t>
+  </si>
+  <si>
+    <t>彼女</t>
+  </si>
+  <si>
+    <t>かのじょ</t>
+  </si>
+  <si>
+    <t>She</t>
+  </si>
+  <si>
+    <t>カバー</t>
+  </si>
+  <si>
+    <t>Cover</t>
+  </si>
+  <si>
+    <t>庇う</t>
+  </si>
+  <si>
+    <t>かばう</t>
+  </si>
+  <si>
+    <t>Protect</t>
+  </si>
+  <si>
+    <t>かばん</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>過半数</t>
+  </si>
+  <si>
+    <t>かはんすう</t>
+  </si>
+  <si>
+    <t>Majority</t>
+  </si>
+  <si>
+    <t>かび</t>
+  </si>
+  <si>
+    <t>Mold</t>
+  </si>
+  <si>
+    <t>株</t>
+  </si>
+  <si>
+    <t>かぶ</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>株式</t>
+  </si>
+  <si>
+    <t>かぶしき</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>被せる</t>
+  </si>
+  <si>
+    <t>かぶせる</t>
+  </si>
+  <si>
+    <t>かぶる</t>
+  </si>
+  <si>
+    <t>Wear</t>
+  </si>
+  <si>
+    <t>かぶれる</t>
+  </si>
+  <si>
+    <t>花粉</t>
+  </si>
+  <si>
+    <t>かふん</t>
+  </si>
+  <si>
+    <t>Pollen</t>
+  </si>
+  <si>
+    <t>かべ</t>
+  </si>
+  <si>
+    <t>Wall</t>
+  </si>
+  <si>
+    <t>貨幣</t>
+  </si>
+  <si>
+    <t>かへい</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>釜</t>
+  </si>
+  <si>
+    <t>かま</t>
+  </si>
+  <si>
+    <t>Kettle</t>
+  </si>
+  <si>
+    <t>構う</t>
+  </si>
+  <si>
+    <t>かまう</t>
+  </si>
+  <si>
+    <t>Mind</t>
+  </si>
+  <si>
+    <t>構え</t>
+  </si>
+  <si>
+    <t>かまえ</t>
+  </si>
+  <si>
+    <t>構える</t>
+  </si>
+  <si>
+    <t>かまえる</t>
+  </si>
+  <si>
+    <t>Prepare</t>
+  </si>
+  <si>
+    <t>我慢</t>
+  </si>
+  <si>
+    <t>がまん</t>
+  </si>
+  <si>
+    <t>Patience</t>
+  </si>
+  <si>
+    <t>紙</t>
+  </si>
+  <si>
+    <t>かみ</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>髪</t>
+  </si>
+  <si>
+    <t>Hair</t>
+  </si>
+  <si>
+    <t>神</t>
+  </si>
+  <si>
+    <t>God</t>
+  </si>
+  <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>加味</t>
+  </si>
+  <si>
+    <t>Consideration</t>
+  </si>
+  <si>
+    <t>噛み切る</t>
+  </si>
+  <si>
+    <t>かみきる</t>
+  </si>
+  <si>
+    <t>Bite off</t>
+  </si>
+  <si>
+    <t>紙屑</t>
+  </si>
+  <si>
+    <t>かみくず</t>
+  </si>
+  <si>
+    <t>Waste paper</t>
+  </si>
+  <si>
+    <t>神様</t>
+  </si>
+  <si>
+    <t>かみさま</t>
+  </si>
+  <si>
+    <t>Deity</t>
+  </si>
+  <si>
+    <t>剃刀</t>
+  </si>
+  <si>
+    <t>かみそり</t>
+  </si>
+  <si>
+    <t>Razor</t>
+  </si>
+  <si>
+    <t>過密</t>
+  </si>
+  <si>
+    <t>かみつ</t>
+  </si>
+  <si>
+    <t>Overcrowded</t>
+  </si>
+  <si>
+    <t>雷</t>
+  </si>
+  <si>
+    <t>かみなり</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>髪の毛</t>
+  </si>
+  <si>
+    <t>かみのけ</t>
+  </si>
+  <si>
+    <t>Hair strand</t>
+  </si>
+  <si>
+    <t>噛む</t>
+  </si>
+  <si>
+    <t>Chew</t>
+  </si>
+  <si>
+    <t>ガム</t>
+  </si>
+  <si>
+    <t>Gum</t>
+  </si>
+  <si>
+    <t>カムバック</t>
+  </si>
+  <si>
+    <t>Comeback</t>
+  </si>
+  <si>
+    <t>カメラ</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>カメラマン</t>
+  </si>
+  <si>
+    <t>Cameraman</t>
+  </si>
+  <si>
+    <t>科目</t>
+  </si>
+  <si>
+    <t>かもく</t>
+  </si>
+  <si>
+    <t>かもしれない</t>
+  </si>
+  <si>
+    <t>Might be</t>
+  </si>
+  <si>
+    <t>貨物</t>
+  </si>
+  <si>
+    <t>かもつ</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>粥</t>
+  </si>
+  <si>
+    <t>かゆ</t>
+  </si>
+  <si>
+    <t>Porridge</t>
+  </si>
+  <si>
+    <t>かゆい</t>
+  </si>
+  <si>
+    <t>Itchy</t>
+  </si>
+  <si>
+    <t>通う</t>
+  </si>
+  <si>
+    <t>かよう</t>
+  </si>
+  <si>
+    <t>Commute</t>
+  </si>
+  <si>
+    <t>歌謡</t>
+  </si>
+  <si>
+    <t>Song</t>
+  </si>
+  <si>
+    <t>火曜</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>殻</t>
+  </si>
+  <si>
+    <t>から</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>柄</t>
+  </si>
+  <si>
+    <t>がら</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>カラー</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>辛い</t>
+  </si>
+  <si>
+    <t>からい</t>
+  </si>
+  <si>
+    <t>Spicy</t>
+  </si>
+  <si>
+    <t>からかう</t>
+  </si>
+  <si>
+    <t>Tease</t>
+  </si>
+  <si>
+    <t>ガラス</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>体</t>
+  </si>
+  <si>
+    <t>からだ</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>体付き</t>
+  </si>
+  <si>
+    <t>からだつき</t>
+  </si>
+  <si>
+    <t>Physique</t>
+  </si>
+  <si>
+    <t>空っぽ</t>
+  </si>
+  <si>
+    <t>からっぽ</t>
+  </si>
+  <si>
+    <t>絡む</t>
+  </si>
+  <si>
+    <t>からむ</t>
+  </si>
+  <si>
+    <t>Entangle</t>
+  </si>
+  <si>
+    <t>借り</t>
+  </si>
+  <si>
+    <t>かり</t>
+  </si>
+  <si>
+    <t>Borrow</t>
+  </si>
+  <si>
+    <t>狩り</t>
+  </si>
+  <si>
+    <t>Hunt</t>
+  </si>
+  <si>
+    <t>仮</t>
+  </si>
+  <si>
+    <t>Temporary</t>
+  </si>
+  <si>
+    <t>借りる</t>
+  </si>
+  <si>
+    <t>かりる</t>
+  </si>
+  <si>
+    <t>To borrow</t>
+  </si>
+  <si>
+    <t>刈る</t>
+  </si>
+  <si>
+    <t>かる</t>
+  </si>
+  <si>
+    <t>To cut</t>
+  </si>
+  <si>
+    <t>軽い</t>
+  </si>
+  <si>
+    <t>かるい</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>かるた</t>
+  </si>
+  <si>
+    <t>Card game</t>
+  </si>
+  <si>
+    <t>カルテ</t>
+  </si>
+  <si>
+    <t>Medical record</t>
+  </si>
+  <si>
+    <t>彼</t>
+  </si>
+  <si>
+    <t>かれ</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>カレー</t>
+  </si>
+  <si>
+    <t>Curry</t>
+  </si>
+  <si>
+    <t>ガレージ</t>
+  </si>
+  <si>
+    <t>Garage</t>
+  </si>
+  <si>
+    <t>彼ら</t>
+  </si>
+  <si>
+    <t>かれら</t>
+  </si>
+  <si>
+    <t>They</t>
+  </si>
+  <si>
+    <t>枯れる</t>
+  </si>
+  <si>
+    <t>かれる</t>
+  </si>
+  <si>
+    <t>Wither</t>
+  </si>
+  <si>
+    <t>涸れる</t>
+  </si>
+  <si>
+    <t>Dry up</t>
+  </si>
+  <si>
+    <t>カレンダー</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>過労</t>
+  </si>
+  <si>
+    <t>かろう</t>
+  </si>
+  <si>
+    <t>Overwork</t>
+  </si>
+  <si>
+    <t>かろうじて</t>
+  </si>
+  <si>
+    <t>Barely</t>
+  </si>
+  <si>
+    <t>カロリー</t>
+  </si>
+  <si>
+    <t>Calorie</t>
+  </si>
+  <si>
+    <t>かわ</t>
+  </si>
+  <si>
+    <t>かわいい</t>
+  </si>
+  <si>
+    <t>Cute</t>
+  </si>
+  <si>
+    <t>かわいがる</t>
+  </si>
+  <si>
+    <t>Adore</t>
+  </si>
+  <si>
+    <t>かわいそう</t>
+  </si>
+  <si>
+    <t>Pitiful</t>
+  </si>
+  <si>
+    <t>かわいらしい</t>
+  </si>
+  <si>
+    <t>Lovely</t>
+  </si>
+  <si>
+    <t>乾かす</t>
+  </si>
+  <si>
+    <t>かわかす</t>
+  </si>
+  <si>
+    <t>Dry</t>
+  </si>
+  <si>
+    <t>乾く/渇く</t>
+  </si>
+  <si>
+    <t>かわく</t>
+  </si>
+  <si>
+    <t>Dry/thirsty</t>
+  </si>
+  <si>
+    <t>かわず</t>
+  </si>
+  <si>
+    <t>Frog</t>
+  </si>
+  <si>
+    <t>交わす</t>
+  </si>
+  <si>
+    <t>かわせ</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>為替</t>
+  </si>
+  <si>
+    <t>Foreign exchange</t>
+  </si>
+  <si>
+    <t>瓦</t>
+  </si>
+  <si>
+    <t>かわら</t>
+  </si>
+  <si>
+    <t>Tile</t>
+  </si>
+  <si>
+    <t>鐘</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>metal, money</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花瓶</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カビン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かびん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get a rash</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かまいません</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>care about, mind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I don't mind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structure, stance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かよう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火曜日</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ヒ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かようび</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skin/Leather</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>皮/革</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -16083,10 +18713,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Hiragino Kaku Gothic ProN"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Hiragino Kaku Gothic ProN"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -16111,7 +18755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -16124,7 +18768,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16461,10 +19111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD98CDC-2E6D-F340-BEA4-C5F884B9AAD8}">
-  <dimension ref="A1:C1768"/>
+  <dimension ref="A1:C1780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1193" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A1201" sqref="A1201"/>
+    <sheetView tabSelected="1" topLeftCell="A1483" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A1501" sqref="A1501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -29675,1518 +32325,3319 @@
       </c>
     </row>
     <row r="1201" spans="1:3">
-      <c r="A1201" s="1"/>
-      <c r="B1201" s="1"/>
-      <c r="C1201" s="1"/>
+      <c r="A1201" s="6" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B1201" s="6" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C1201" s="1" t="s">
+        <v>3430</v>
+      </c>
     </row>
     <row r="1202" spans="1:3">
-      <c r="A1202" s="1"/>
-      <c r="B1202" s="1"/>
-      <c r="C1202" s="1"/>
+      <c r="A1202" s="6" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B1202" s="6" t="s">
+        <v>3435</v>
+      </c>
+      <c r="C1202" s="1" t="s">
+        <v>3432</v>
+      </c>
     </row>
     <row r="1203" spans="1:3">
-      <c r="A1203" s="1"/>
-      <c r="B1203" s="1"/>
-      <c r="C1203" s="1"/>
+      <c r="A1203" s="6" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B1203" s="6" t="s">
+        <v>3436</v>
+      </c>
+      <c r="C1203" s="1" t="s">
+        <v>3433</v>
+      </c>
     </row>
     <row r="1204" spans="1:3">
-      <c r="A1204" s="1"/>
-      <c r="B1204" s="1"/>
-      <c r="C1204" s="1"/>
+      <c r="A1204" s="6" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B1204" s="6" t="s">
+        <v>3437</v>
+      </c>
+      <c r="C1204" s="1" t="s">
+        <v>2626</v>
+      </c>
     </row>
     <row r="1205" spans="1:3">
-      <c r="A1205" s="1"/>
-      <c r="B1205" s="1"/>
-      <c r="C1205" s="1"/>
+      <c r="A1205" s="6" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B1205" s="6" t="s">
+        <v>3438</v>
+      </c>
+      <c r="C1205" s="1" t="s">
+        <v>3434</v>
+      </c>
     </row>
     <row r="1206" spans="1:3">
-      <c r="A1206" s="3"/>
-      <c r="B1206" s="3"/>
-      <c r="C1206" s="3"/>
+      <c r="A1206" s="6" t="s">
+        <v>3362</v>
+      </c>
+      <c r="B1206" s="6" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C1206" s="3" t="s">
+        <v>3439</v>
+      </c>
     </row>
     <row r="1207" spans="1:3">
-      <c r="A1207" s="3"/>
-      <c r="B1207" s="3"/>
-      <c r="C1207" s="3"/>
+      <c r="A1207" s="6" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B1207" s="6" t="s">
+        <v>3441</v>
+      </c>
+      <c r="C1207" s="6" t="s">
+        <v>3500</v>
+      </c>
     </row>
     <row r="1208" spans="1:3">
-      <c r="A1208" s="3"/>
-      <c r="B1208" s="3"/>
-      <c r="C1208" s="3"/>
+      <c r="A1208" s="6" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B1208" s="6" t="s">
+        <v>3442</v>
+      </c>
+      <c r="C1208" s="6" t="s">
+        <v>3503</v>
+      </c>
     </row>
     <row r="1209" spans="1:3">
-      <c r="A1209" s="3"/>
-      <c r="B1209" s="3"/>
-      <c r="C1209" s="3"/>
+      <c r="A1209" s="6" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B1209" s="6" t="s">
+        <v>3443</v>
+      </c>
+      <c r="C1209" s="6" t="s">
+        <v>3501</v>
+      </c>
     </row>
     <row r="1210" spans="1:3">
-      <c r="A1210" s="3"/>
-      <c r="B1210" s="3"/>
-      <c r="C1210" s="3"/>
+      <c r="A1210" s="6" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B1210" s="6" t="s">
+        <v>3444</v>
+      </c>
+      <c r="C1210" s="6" t="s">
+        <v>3504</v>
+      </c>
     </row>
     <row r="1211" spans="1:3">
-      <c r="A1211" s="3"/>
-      <c r="B1211" s="3"/>
-      <c r="C1211" s="3"/>
+      <c r="A1211" s="6" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B1211" s="6" t="s">
+        <v>3445</v>
+      </c>
+      <c r="C1211" s="6" t="s">
+        <v>3505</v>
+      </c>
     </row>
     <row r="1212" spans="1:3">
-      <c r="A1212" s="3"/>
-      <c r="B1212" s="3"/>
-      <c r="C1212" s="3"/>
+      <c r="A1212" s="6" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B1212" s="6" t="s">
+        <v>3446</v>
+      </c>
+      <c r="C1212" s="6" t="s">
+        <v>3502</v>
+      </c>
     </row>
     <row r="1213" spans="1:3">
-      <c r="A1213" s="3"/>
-      <c r="B1213" s="3"/>
-      <c r="C1213" s="3"/>
+      <c r="A1213" s="6" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B1213" s="6" t="s">
+        <v>3447</v>
+      </c>
+      <c r="C1213" s="6" t="s">
+        <v>3506</v>
+      </c>
     </row>
     <row r="1214" spans="1:3">
-      <c r="A1214" s="3"/>
-      <c r="B1214" s="3"/>
-      <c r="C1214" s="3"/>
+      <c r="A1214" s="6" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B1214" s="6" t="s">
+        <v>3447</v>
+      </c>
+      <c r="C1214" s="6" t="s">
+        <v>3507</v>
+      </c>
     </row>
     <row r="1215" spans="1:3">
-      <c r="A1215" s="3"/>
-      <c r="B1215" s="3"/>
-      <c r="C1215" s="3"/>
+      <c r="A1215" s="6" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B1215" s="6" t="s">
+        <v>3448</v>
+      </c>
+      <c r="C1215" s="6" t="s">
+        <v>3508</v>
+      </c>
     </row>
     <row r="1216" spans="1:3">
-      <c r="A1216" s="3"/>
-      <c r="B1216" s="3"/>
-      <c r="C1216" s="3"/>
+      <c r="A1216" s="6" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B1216" s="6" t="s">
+        <v>3449</v>
+      </c>
+      <c r="C1216" s="6" t="s">
+        <v>3509</v>
+      </c>
     </row>
     <row r="1217" spans="1:3">
-      <c r="A1217" s="3"/>
-      <c r="B1217" s="3"/>
-      <c r="C1217" s="3"/>
+      <c r="A1217" s="6" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B1217" s="6" t="s">
+        <v>3450</v>
+      </c>
+      <c r="C1217" s="6" t="s">
+        <v>3510</v>
+      </c>
     </row>
     <row r="1218" spans="1:3">
-      <c r="A1218" s="3"/>
-      <c r="B1218" s="3"/>
-      <c r="C1218" s="3"/>
+      <c r="A1218" s="6" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B1218" s="6" t="s">
+        <v>3451</v>
+      </c>
+      <c r="C1218" s="6" t="s">
+        <v>3511</v>
+      </c>
     </row>
     <row r="1219" spans="1:3">
-      <c r="A1219" s="3"/>
-      <c r="B1219" s="3"/>
-      <c r="C1219" s="3"/>
+      <c r="A1219" s="6" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B1219" s="6" t="s">
+        <v>3452</v>
+      </c>
+      <c r="C1219" s="6" t="s">
+        <v>3512</v>
+      </c>
     </row>
     <row r="1220" spans="1:3">
-      <c r="A1220" s="3"/>
-      <c r="B1220" s="3"/>
-      <c r="C1220" s="3"/>
+      <c r="A1220" s="6" t="s">
+        <v>3376</v>
+      </c>
+      <c r="B1220" s="6" t="s">
+        <v>3453</v>
+      </c>
+      <c r="C1220" s="6" t="s">
+        <v>3513</v>
+      </c>
     </row>
     <row r="1221" spans="1:3">
-      <c r="A1221" s="3"/>
-      <c r="B1221" s="3"/>
-      <c r="C1221" s="3"/>
+      <c r="A1221" s="6" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B1221" s="6" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C1221" s="6" t="s">
+        <v>3514</v>
+      </c>
     </row>
     <row r="1222" spans="1:3">
-      <c r="A1222" s="3"/>
-      <c r="B1222" s="3"/>
-      <c r="C1222" s="3"/>
+      <c r="A1222" s="6" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B1222" s="6" t="s">
+        <v>3378</v>
+      </c>
+      <c r="C1222" s="6" t="s">
+        <v>3515</v>
+      </c>
     </row>
     <row r="1223" spans="1:3">
-      <c r="A1223" s="3"/>
-      <c r="B1223" s="3"/>
-      <c r="C1223" s="3"/>
+      <c r="A1223" s="6" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B1223" s="6" t="s">
+        <v>3455</v>
+      </c>
+      <c r="C1223" s="6" t="s">
+        <v>3516</v>
+      </c>
     </row>
     <row r="1224" spans="1:3">
-      <c r="A1224" s="3"/>
-      <c r="B1224" s="3"/>
-      <c r="C1224" s="3"/>
+      <c r="A1224" s="6" t="s">
+        <v>3380</v>
+      </c>
+      <c r="B1224" s="6" t="s">
+        <v>3456</v>
+      </c>
+      <c r="C1224" s="6" t="s">
+        <v>3517</v>
+      </c>
     </row>
     <row r="1225" spans="1:3">
-      <c r="A1225" s="3"/>
-      <c r="B1225" s="3"/>
-      <c r="C1225" s="3"/>
+      <c r="A1225" s="6" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B1225" s="6" t="s">
+        <v>3457</v>
+      </c>
+      <c r="C1225" s="6" t="s">
+        <v>3518</v>
+      </c>
     </row>
     <row r="1226" spans="1:3">
-      <c r="A1226" s="3"/>
-      <c r="B1226" s="3"/>
-      <c r="C1226" s="3"/>
+      <c r="A1226" s="6" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B1226" s="6" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C1226" s="6" t="s">
+        <v>3519</v>
+      </c>
     </row>
     <row r="1227" spans="1:3">
-      <c r="A1227" s="3"/>
-      <c r="B1227" s="3"/>
-      <c r="C1227" s="3"/>
+      <c r="A1227" s="6" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B1227" s="6" t="s">
+        <v>3459</v>
+      </c>
+      <c r="C1227" s="6" t="s">
+        <v>3520</v>
+      </c>
     </row>
     <row r="1228" spans="1:3">
-      <c r="A1228" s="3"/>
-      <c r="B1228" s="3"/>
-      <c r="C1228" s="3"/>
+      <c r="A1228" s="6" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B1228" s="6" t="s">
+        <v>3460</v>
+      </c>
+      <c r="C1228" s="6" t="s">
+        <v>3521</v>
+      </c>
     </row>
     <row r="1229" spans="1:3">
-      <c r="A1229" s="3"/>
-      <c r="B1229" s="3"/>
-      <c r="C1229" s="3"/>
+      <c r="A1229" s="6" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B1229" s="6" t="s">
+        <v>3461</v>
+      </c>
+      <c r="C1229" s="6" t="s">
+        <v>3522</v>
+      </c>
     </row>
     <row r="1230" spans="1:3">
-      <c r="A1230" s="3"/>
-      <c r="B1230" s="3"/>
-      <c r="C1230" s="3"/>
+      <c r="A1230" s="6" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B1230" s="6" t="s">
+        <v>3462</v>
+      </c>
+      <c r="C1230" s="6" t="s">
+        <v>3523</v>
+      </c>
     </row>
     <row r="1231" spans="1:3">
-      <c r="A1231" s="3"/>
-      <c r="B1231" s="3"/>
-      <c r="C1231" s="3"/>
+      <c r="A1231" s="6" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B1231" s="6" t="s">
+        <v>3463</v>
+      </c>
+      <c r="C1231" s="6" t="s">
+        <v>3524</v>
+      </c>
     </row>
     <row r="1232" spans="1:3">
-      <c r="A1232" s="3"/>
-      <c r="B1232" s="3"/>
-      <c r="C1232" s="3"/>
+      <c r="A1232" s="6" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B1232" s="6" t="s">
+        <v>3464</v>
+      </c>
+      <c r="C1232" s="6" t="s">
+        <v>3525</v>
+      </c>
     </row>
     <row r="1233" spans="1:3">
-      <c r="A1233" s="3"/>
-      <c r="B1233" s="3"/>
-      <c r="C1233" s="3"/>
+      <c r="A1233" s="6" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B1233" s="6" t="s">
+        <v>3465</v>
+      </c>
+      <c r="C1233" s="6" t="s">
+        <v>3526</v>
+      </c>
     </row>
     <row r="1234" spans="1:3">
-      <c r="A1234" s="3"/>
-      <c r="B1234" s="3"/>
-      <c r="C1234" s="3"/>
+      <c r="A1234" s="6" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B1234" s="6" t="s">
+        <v>3465</v>
+      </c>
+      <c r="C1234" s="6" t="s">
+        <v>3538</v>
+      </c>
     </row>
     <row r="1235" spans="1:3">
-      <c r="A1235" s="3"/>
-      <c r="B1235" s="3"/>
-      <c r="C1235" s="3"/>
+      <c r="A1235" s="6" t="s">
+        <v>3391</v>
+      </c>
+      <c r="B1235" s="6" t="s">
+        <v>3466</v>
+      </c>
+      <c r="C1235" s="6" t="s">
+        <v>3539</v>
+      </c>
     </row>
     <row r="1236" spans="1:3">
-      <c r="A1236" s="3"/>
-      <c r="B1236" s="3"/>
-      <c r="C1236" s="3"/>
+      <c r="A1236" s="6" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B1236" s="6" t="s">
+        <v>3467</v>
+      </c>
+      <c r="C1236" s="6" t="s">
+        <v>3540</v>
+      </c>
     </row>
     <row r="1237" spans="1:3">
-      <c r="A1237" s="3"/>
-      <c r="B1237" s="3"/>
-      <c r="C1237" s="3"/>
+      <c r="A1237" s="6" t="s">
+        <v>3393</v>
+      </c>
+      <c r="B1237" s="6" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C1237" s="6" t="s">
+        <v>3541</v>
+      </c>
     </row>
     <row r="1238" spans="1:3">
-      <c r="A1238" s="3"/>
-      <c r="B1238" s="3"/>
-      <c r="C1238" s="3"/>
+      <c r="A1238" s="6" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B1238" s="6" t="s">
+        <v>3351</v>
+      </c>
+      <c r="C1238" s="6" t="s">
+        <v>3542</v>
+      </c>
     </row>
     <row r="1239" spans="1:3">
-      <c r="A1239" s="3"/>
-      <c r="B1239" s="3"/>
-      <c r="C1239" s="3"/>
+      <c r="A1239" s="6" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B1239" s="6" t="s">
+        <v>3543</v>
+      </c>
+      <c r="C1239" s="6" t="s">
+        <v>3545</v>
+      </c>
     </row>
     <row r="1240" spans="1:3">
-      <c r="A1240" s="3"/>
-      <c r="B1240" s="3"/>
-      <c r="C1240" s="3"/>
+      <c r="A1240" s="6" t="s">
+        <v>3546</v>
+      </c>
+      <c r="B1240" s="6" t="s">
+        <v>3547</v>
+      </c>
+      <c r="C1240" s="6" t="s">
+        <v>3548</v>
+      </c>
     </row>
     <row r="1241" spans="1:3">
-      <c r="A1241" s="3"/>
-      <c r="B1241" s="3"/>
-      <c r="C1241" s="3"/>
+      <c r="A1241" s="6" t="s">
+        <v>3549</v>
+      </c>
+      <c r="B1241" s="6" t="s">
+        <v>3550</v>
+      </c>
+      <c r="C1241" s="6" t="s">
+        <v>3551</v>
+      </c>
     </row>
     <row r="1242" spans="1:3">
-      <c r="A1242" s="3"/>
-      <c r="B1242" s="3"/>
-      <c r="C1242" s="3"/>
+      <c r="A1242" s="6" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B1242" s="6" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C1242" s="6" t="s">
+        <v>3554</v>
+      </c>
     </row>
     <row r="1243" spans="1:3">
-      <c r="A1243" s="3"/>
-      <c r="B1243" s="3"/>
-      <c r="C1243" s="3"/>
+      <c r="A1243" s="6" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B1243" s="6" t="s">
+        <v>3556</v>
+      </c>
+      <c r="C1243" s="6" t="s">
+        <v>3570</v>
+      </c>
     </row>
     <row r="1244" spans="1:3">
-      <c r="A1244" s="3"/>
-      <c r="B1244" s="3"/>
-      <c r="C1244" s="3"/>
+      <c r="A1244" s="6" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B1244" s="6" t="s">
+        <v>3558</v>
+      </c>
+      <c r="C1244" s="6" t="s">
+        <v>3571</v>
+      </c>
     </row>
     <row r="1245" spans="1:3">
-      <c r="A1245" s="3"/>
-      <c r="B1245" s="3"/>
-      <c r="C1245" s="3"/>
+      <c r="A1245" s="6" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B1245" s="6" t="s">
+        <v>3560</v>
+      </c>
+      <c r="C1245" s="6" t="s">
+        <v>3572</v>
+      </c>
     </row>
     <row r="1246" spans="1:3">
-      <c r="A1246" s="3"/>
-      <c r="B1246" s="3"/>
-      <c r="C1246" s="3"/>
+      <c r="A1246" s="6" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B1246" s="6" t="s">
+        <v>3562</v>
+      </c>
+      <c r="C1246" s="6" t="s">
+        <v>3573</v>
+      </c>
     </row>
     <row r="1247" spans="1:3">
-      <c r="A1247" s="3"/>
-      <c r="B1247" s="3"/>
-      <c r="C1247" s="3"/>
+      <c r="A1247" s="6" t="s">
+        <v>3564</v>
+      </c>
+      <c r="B1247" s="6" t="s">
+        <v>3563</v>
+      </c>
+      <c r="C1247" s="6" t="s">
+        <v>3355</v>
+      </c>
     </row>
     <row r="1248" spans="1:3">
-      <c r="A1248" s="3"/>
-      <c r="B1248" s="3"/>
-      <c r="C1248" s="3"/>
+      <c r="A1248" s="6" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>3565</v>
+      </c>
+      <c r="C1248" s="6" t="s">
+        <v>3574</v>
+      </c>
     </row>
     <row r="1249" spans="1:3">
-      <c r="A1249" s="3"/>
-      <c r="B1249" s="3"/>
-      <c r="C1249" s="3"/>
+      <c r="A1249" s="6" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B1249" s="6" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1249" s="6" t="s">
+        <v>3575</v>
+      </c>
     </row>
     <row r="1250" spans="1:3">
-      <c r="A1250" s="3"/>
-      <c r="B1250" s="3"/>
-      <c r="C1250" s="3"/>
+      <c r="A1250" s="6" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B1250" s="6" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1250" s="6" t="s">
+        <v>3576</v>
+      </c>
     </row>
     <row r="1251" spans="1:3">
-      <c r="A1251" s="3"/>
-      <c r="B1251" s="3"/>
-      <c r="C1251" s="3"/>
+      <c r="A1251" s="6" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B1251" s="6" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1251" s="6" t="s">
+        <v>3579</v>
+      </c>
     </row>
     <row r="1252" spans="1:3">
-      <c r="A1252" s="3"/>
-      <c r="B1252" s="3"/>
-      <c r="C1252" s="3"/>
+      <c r="A1252" s="6" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B1252" s="6" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1252" s="6" t="s">
+        <v>3580</v>
+      </c>
     </row>
     <row r="1253" spans="1:3">
-      <c r="A1253" s="3"/>
-      <c r="B1253" s="3"/>
-      <c r="C1253" s="3"/>
+      <c r="A1253" s="6" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B1253" s="6" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1253" s="6" t="s">
+        <v>3581</v>
+      </c>
     </row>
     <row r="1254" spans="1:3">
-      <c r="A1254" s="3"/>
-      <c r="B1254" s="3"/>
-      <c r="C1254" s="3"/>
+      <c r="A1254" s="6" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B1254" s="6" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1254" s="6" t="s">
+        <v>3582</v>
+      </c>
     </row>
     <row r="1255" spans="1:3">
-      <c r="A1255" s="4"/>
-      <c r="B1255" s="3"/>
-      <c r="C1255" s="3"/>
+      <c r="A1255" s="6" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B1255" s="6" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1255" s="6" t="s">
+        <v>3583</v>
+      </c>
     </row>
     <row r="1256" spans="1:3">
-      <c r="A1256" s="4"/>
-      <c r="B1256" s="3"/>
+      <c r="A1256" s="6" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B1256" s="6" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1256" s="6" t="s">
+        <v>3584</v>
+      </c>
     </row>
     <row r="1257" spans="1:3">
-      <c r="A1257" s="3"/>
-      <c r="B1257" s="3"/>
-      <c r="C1257" s="3"/>
+      <c r="A1257" s="6" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B1257" s="6" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1257" s="6" t="s">
+        <v>3585</v>
+      </c>
     </row>
     <row r="1258" spans="1:3">
-      <c r="A1258" s="3"/>
-      <c r="B1258" s="3"/>
-      <c r="C1258" s="3"/>
+      <c r="A1258" s="6" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B1258" s="6" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1258" s="6" t="s">
+        <v>3586</v>
+      </c>
     </row>
     <row r="1259" spans="1:3">
-      <c r="A1259" s="3"/>
-      <c r="B1259" s="3"/>
-      <c r="C1259" s="3"/>
+      <c r="A1259" s="6" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B1259" s="6" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1259" s="6" t="s">
+        <v>3587</v>
+      </c>
     </row>
     <row r="1260" spans="1:3">
-      <c r="A1260" s="3"/>
-      <c r="B1260" s="3"/>
-      <c r="C1260" s="3"/>
+      <c r="A1260" s="6" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B1260" s="6" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1260" s="6" t="s">
+        <v>3588</v>
+      </c>
     </row>
     <row r="1261" spans="1:3">
-      <c r="A1261" s="3"/>
-      <c r="B1261" s="3"/>
-      <c r="C1261" s="3"/>
+      <c r="A1261" s="6" t="s">
+        <v>3578</v>
+      </c>
+      <c r="B1261" s="6" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1261" s="6" t="s">
+        <v>3589</v>
+      </c>
     </row>
     <row r="1262" spans="1:3">
-      <c r="A1262" s="3"/>
-      <c r="B1262" s="3"/>
-      <c r="C1262" s="3"/>
+      <c r="A1262" s="6" t="s">
+        <v>3394</v>
+      </c>
+      <c r="B1262" s="6" t="s">
+        <v>3469</v>
+      </c>
+      <c r="C1262" s="6" t="s">
+        <v>3590</v>
+      </c>
     </row>
     <row r="1263" spans="1:3">
-      <c r="A1263" s="3"/>
-      <c r="B1263" s="3"/>
-      <c r="C1263" s="3"/>
+      <c r="A1263" s="6" t="s">
+        <v>3395</v>
+      </c>
+      <c r="B1263" s="6" t="s">
+        <v>3470</v>
+      </c>
+      <c r="C1263" s="6" t="s">
+        <v>3591</v>
+      </c>
     </row>
     <row r="1264" spans="1:3">
-      <c r="A1264" s="3"/>
-      <c r="B1264" s="3"/>
-      <c r="C1264" s="3"/>
+      <c r="A1264" s="6" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B1264" s="6" t="s">
+        <v>3471</v>
+      </c>
+      <c r="C1264" s="6" t="s">
+        <v>3592</v>
+      </c>
     </row>
     <row r="1265" spans="1:3">
-      <c r="A1265" s="3"/>
-      <c r="B1265" s="3"/>
-      <c r="C1265" s="3"/>
+      <c r="A1265" s="6" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B1265" s="6" t="s">
+        <v>3472</v>
+      </c>
+      <c r="C1265" s="6" t="s">
+        <v>3593</v>
+      </c>
     </row>
     <row r="1266" spans="1:3">
-      <c r="A1266" s="3"/>
-      <c r="B1266" s="3"/>
-      <c r="C1266" s="3"/>
+      <c r="A1266" s="6" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B1266" s="6" t="s">
+        <v>3472</v>
+      </c>
+      <c r="C1266" s="6" t="s">
+        <v>3594</v>
+      </c>
     </row>
     <row r="1267" spans="1:3">
-      <c r="A1267" s="3"/>
-      <c r="B1267" s="3"/>
-      <c r="C1267" s="3"/>
+      <c r="A1267" s="6" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B1267" s="6" t="s">
+        <v>3472</v>
+      </c>
+      <c r="C1267" s="6" t="s">
+        <v>3595</v>
+      </c>
     </row>
     <row r="1268" spans="1:3">
-      <c r="A1268" s="3"/>
-      <c r="B1268" s="3"/>
-      <c r="C1268" s="3"/>
+      <c r="A1268" s="6" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B1268" s="6" t="s">
+        <v>3473</v>
+      </c>
+      <c r="C1268" s="6" t="s">
+        <v>3596</v>
+      </c>
     </row>
     <row r="1269" spans="1:3">
-      <c r="A1269" s="3"/>
-      <c r="B1269" s="3"/>
-      <c r="C1269" s="3"/>
+      <c r="A1269" s="6" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1269" s="6" t="s">
+        <v>3474</v>
+      </c>
+      <c r="C1269" s="6" t="s">
+        <v>3597</v>
+      </c>
     </row>
     <row r="1270" spans="1:3">
-      <c r="A1270" s="3"/>
-      <c r="B1270" s="3"/>
-      <c r="C1270" s="3"/>
+      <c r="A1270" s="6" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B1270" s="6" t="s">
+        <v>3475</v>
+      </c>
+      <c r="C1270" s="6" t="s">
+        <v>3599</v>
+      </c>
     </row>
     <row r="1271" spans="1:3">
-      <c r="A1271" s="3"/>
-      <c r="B1271" s="3"/>
-      <c r="C1271" s="3"/>
+      <c r="A1271" s="6" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B1271" s="6" t="s">
+        <v>3476</v>
+      </c>
+      <c r="C1271" s="6" t="s">
+        <v>3598</v>
+      </c>
     </row>
     <row r="1272" spans="1:3">
-      <c r="A1272" s="3"/>
-      <c r="B1272" s="3"/>
-      <c r="C1272" s="3"/>
+      <c r="A1272" s="6" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B1272" s="6" t="s">
+        <v>3477</v>
+      </c>
+      <c r="C1272" s="6" t="s">
+        <v>3600</v>
+      </c>
     </row>
     <row r="1273" spans="1:3">
-      <c r="A1273" s="3"/>
-      <c r="B1273" s="3"/>
-      <c r="C1273" s="3"/>
+      <c r="A1273" s="6" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B1273" s="6" t="s">
+        <v>3478</v>
+      </c>
+      <c r="C1273" s="6" t="s">
+        <v>3601</v>
+      </c>
     </row>
     <row r="1274" spans="1:3">
-      <c r="A1274" s="3"/>
-      <c r="B1274" s="3"/>
-      <c r="C1274" s="3"/>
+      <c r="A1274" s="6" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B1274" s="6" t="s">
+        <v>3607</v>
+      </c>
+      <c r="C1274" s="6" t="s">
+        <v>3610</v>
+      </c>
     </row>
     <row r="1275" spans="1:3">
-      <c r="A1275" s="3"/>
-      <c r="B1275" s="3"/>
-      <c r="C1275" s="3"/>
+      <c r="A1275" s="6" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B1275" s="6" t="s">
+        <v>3608</v>
+      </c>
+      <c r="C1275" s="6" t="s">
+        <v>3611</v>
+      </c>
     </row>
     <row r="1276" spans="1:3">
-      <c r="A1276" s="3"/>
-      <c r="B1276" s="3"/>
-      <c r="C1276" s="3"/>
+      <c r="A1276" s="6" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B1276" s="6" t="s">
+        <v>3479</v>
+      </c>
+      <c r="C1276" s="6" t="s">
+        <v>3602</v>
+      </c>
     </row>
     <row r="1277" spans="1:3">
-      <c r="A1277" s="3"/>
-      <c r="B1277" s="3"/>
-      <c r="C1277" s="3"/>
+      <c r="A1277" s="6" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B1277" s="6" t="s">
+        <v>3480</v>
+      </c>
+      <c r="C1277" s="6" t="s">
+        <v>3603</v>
+      </c>
     </row>
     <row r="1278" spans="1:3">
-      <c r="A1278" s="3"/>
-      <c r="B1278" s="3"/>
-      <c r="C1278" s="3"/>
+      <c r="A1278" s="6" t="s">
+        <v>3408</v>
+      </c>
+      <c r="B1278" s="6" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1278" s="6" t="s">
+        <v>3604</v>
+      </c>
     </row>
     <row r="1279" spans="1:3">
-      <c r="A1279" s="3"/>
-      <c r="B1279" s="3"/>
-      <c r="C1279" s="3"/>
+      <c r="A1279" s="6" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B1279" s="6" t="s">
+        <v>3482</v>
+      </c>
+      <c r="C1279" s="6" t="s">
+        <v>3605</v>
+      </c>
     </row>
     <row r="1280" spans="1:3">
-      <c r="A1280" s="3"/>
-      <c r="B1280" s="3"/>
-      <c r="C1280" s="3"/>
+      <c r="A1280" s="6" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B1280" s="6" t="s">
+        <v>3482</v>
+      </c>
+      <c r="C1280" s="6" t="s">
+        <v>3527</v>
+      </c>
     </row>
     <row r="1281" spans="1:3">
-      <c r="A1281" s="3"/>
-      <c r="B1281" s="3"/>
-      <c r="C1281" s="3"/>
+      <c r="A1281" s="6" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B1281" s="6" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C1281" s="6" t="s">
+        <v>3606</v>
+      </c>
     </row>
     <row r="1282" spans="1:3">
-      <c r="A1282" s="3"/>
-      <c r="B1282" s="3"/>
-      <c r="C1282" s="3"/>
+      <c r="A1282" s="6" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B1282" s="6" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C1282" s="6" t="s">
+        <v>3528</v>
+      </c>
     </row>
     <row r="1283" spans="1:3">
-      <c r="A1283" s="3"/>
-      <c r="B1283" s="3"/>
-      <c r="C1283" s="3"/>
+      <c r="A1283" s="6" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B1283" s="6" t="s">
+        <v>3484</v>
+      </c>
+      <c r="C1283" s="6" t="s">
+        <v>3529</v>
+      </c>
     </row>
     <row r="1284" spans="1:3">
-      <c r="A1284" s="3"/>
-      <c r="B1284" s="3"/>
-      <c r="C1284" s="3"/>
+      <c r="A1284" s="6" t="s">
+        <v>3613</v>
+      </c>
+      <c r="B1284" s="6" t="s">
+        <v>3612</v>
+      </c>
+      <c r="C1284" s="6" t="s">
+        <v>3614</v>
+      </c>
     </row>
     <row r="1285" spans="1:3">
-      <c r="A1285" s="3"/>
-      <c r="B1285" s="3"/>
-      <c r="C1285" s="3"/>
+      <c r="A1285" s="6" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B1285" s="6" t="s">
+        <v>3485</v>
+      </c>
+      <c r="C1285" s="6" t="s">
+        <v>3615</v>
+      </c>
     </row>
     <row r="1286" spans="1:3">
-      <c r="A1286" s="3"/>
-      <c r="B1286" s="3"/>
-      <c r="C1286" s="3"/>
+      <c r="A1286" s="6" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B1286" s="6" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C1286" s="6" t="s">
+        <v>3530</v>
+      </c>
     </row>
     <row r="1287" spans="1:3">
-      <c r="A1287" s="3"/>
-      <c r="B1287" s="3"/>
-      <c r="C1287" s="3"/>
+      <c r="A1287" s="6" t="s">
+        <v>3416</v>
+      </c>
+      <c r="B1287" s="6" t="s">
+        <v>3487</v>
+      </c>
+      <c r="C1287" s="6" t="s">
+        <v>3531</v>
+      </c>
     </row>
     <row r="1288" spans="1:3">
-      <c r="A1288" s="3"/>
-      <c r="B1288" s="3"/>
-      <c r="C1288" s="3"/>
+      <c r="A1288" s="6" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B1288" s="6" t="s">
+        <v>3488</v>
+      </c>
+      <c r="C1288" s="6" t="s">
+        <v>3616</v>
+      </c>
     </row>
     <row r="1289" spans="1:3">
-      <c r="A1289" s="3"/>
-      <c r="B1289" s="3"/>
-      <c r="C1289" s="3"/>
+      <c r="A1289" s="6" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B1289" s="6" t="s">
+        <v>3489</v>
+      </c>
+      <c r="C1289" s="6" t="s">
+        <v>3617</v>
+      </c>
     </row>
     <row r="1290" spans="1:3">
-      <c r="A1290" s="3"/>
-      <c r="B1290" s="3"/>
-      <c r="C1290" s="3"/>
+      <c r="A1290" s="6" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B1290" s="6" t="s">
+        <v>3490</v>
+      </c>
+      <c r="C1290" s="6" t="s">
+        <v>3532</v>
+      </c>
     </row>
     <row r="1291" spans="1:3">
-      <c r="A1291" s="3"/>
-      <c r="B1291" s="3"/>
-      <c r="C1291" s="3"/>
+      <c r="A1291" s="6" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B1291" s="6" t="s">
+        <v>3491</v>
+      </c>
+      <c r="C1291" s="6" t="s">
+        <v>3533</v>
+      </c>
     </row>
     <row r="1292" spans="1:3">
-      <c r="A1292" s="3"/>
-      <c r="B1292" s="3"/>
-      <c r="C1292" s="3"/>
+      <c r="A1292" s="6" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B1292" s="6" t="s">
+        <v>3492</v>
+      </c>
+      <c r="C1292" s="6" t="s">
+        <v>3534</v>
+      </c>
     </row>
     <row r="1293" spans="1:3">
-      <c r="A1293" s="3"/>
-      <c r="B1293" s="3"/>
-      <c r="C1293" s="3"/>
+      <c r="A1293" s="6" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B1293" s="6" t="s">
+        <v>3493</v>
+      </c>
+      <c r="C1293" s="6" t="s">
+        <v>3535</v>
+      </c>
     </row>
     <row r="1294" spans="1:3">
-      <c r="A1294" s="3"/>
-      <c r="B1294" s="3"/>
-      <c r="C1294" s="3"/>
+      <c r="A1294" s="6" t="s">
+        <v>3423</v>
+      </c>
+      <c r="B1294" s="6" t="s">
+        <v>3494</v>
+      </c>
+      <c r="C1294" s="6" t="s">
+        <v>3536</v>
+      </c>
     </row>
     <row r="1295" spans="1:3">
-      <c r="A1295" s="3"/>
-      <c r="B1295" s="3"/>
-      <c r="C1295" s="3"/>
+      <c r="A1295" s="6" t="s">
+        <v>3424</v>
+      </c>
+      <c r="B1295" s="6" t="s">
+        <v>3495</v>
+      </c>
+      <c r="C1295" s="6" t="s">
+        <v>3618</v>
+      </c>
     </row>
     <row r="1296" spans="1:3">
-      <c r="A1296" s="3"/>
-      <c r="B1296" s="3"/>
-      <c r="C1296" s="3"/>
+      <c r="A1296" s="6" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B1296" s="6" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C1296" s="6" t="s">
+        <v>3619</v>
+      </c>
     </row>
     <row r="1297" spans="1:3">
-      <c r="A1297" s="3"/>
-      <c r="B1297" s="3"/>
-      <c r="C1297" s="3"/>
+      <c r="A1297" s="6" t="s">
+        <v>3426</v>
+      </c>
+      <c r="B1297" s="6" t="s">
+        <v>3497</v>
+      </c>
+      <c r="C1297" s="6" t="s">
+        <v>3537</v>
+      </c>
     </row>
     <row r="1298" spans="1:3">
-      <c r="A1298" s="3"/>
-      <c r="B1298" s="3"/>
-      <c r="C1298" s="3"/>
+      <c r="A1298" s="6" t="s">
+        <v>3427</v>
+      </c>
+      <c r="B1298" s="6" t="s">
+        <v>3427</v>
+      </c>
+      <c r="C1298" s="6" t="s">
+        <v>3620</v>
+      </c>
     </row>
     <row r="1299" spans="1:3">
-      <c r="A1299" s="3"/>
-      <c r="B1299" s="3"/>
-      <c r="C1299" s="3"/>
+      <c r="A1299" s="6" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B1299" s="6" t="s">
+        <v>3498</v>
+      </c>
+      <c r="C1299" s="6" t="s">
+        <v>3622</v>
+      </c>
     </row>
     <row r="1300" spans="1:3">
-      <c r="A1300" s="1"/>
-      <c r="B1300" s="1"/>
-      <c r="C1300" s="1"/>
+      <c r="A1300" s="6" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B1300" s="6" t="s">
+        <v>3499</v>
+      </c>
+      <c r="C1300" s="6" t="s">
+        <v>3621</v>
+      </c>
     </row>
     <row r="1301" spans="1:3">
-      <c r="A1301" s="3"/>
-      <c r="B1301" s="3"/>
-      <c r="C1301" s="3"/>
+      <c r="A1301" s="6" t="s">
+        <v>3623</v>
+      </c>
+      <c r="B1301" s="6" t="s">
+        <v>3624</v>
+      </c>
+      <c r="C1301" s="6" t="s">
+        <v>3625</v>
+      </c>
     </row>
     <row r="1302" spans="1:3">
-      <c r="A1302" s="3"/>
-      <c r="B1302" s="3"/>
-      <c r="C1302" s="3"/>
+      <c r="A1302" s="6" t="s">
+        <v>3626</v>
+      </c>
+      <c r="B1302" s="6" t="s">
+        <v>3627</v>
+      </c>
+      <c r="C1302" s="6" t="s">
+        <v>3628</v>
+      </c>
     </row>
     <row r="1303" spans="1:3">
-      <c r="A1303" s="3"/>
-      <c r="B1303" s="3"/>
-      <c r="C1303" s="3"/>
+      <c r="A1303" s="6" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B1303" s="6" t="s">
+        <v>3627</v>
+      </c>
+      <c r="C1303" s="6" t="s">
+        <v>3630</v>
+      </c>
     </row>
     <row r="1304" spans="1:3">
-      <c r="A1304" s="3"/>
-      <c r="B1304" s="3"/>
-      <c r="C1304" s="3"/>
+      <c r="A1304" s="6" t="s">
+        <v>3631</v>
+      </c>
+      <c r="B1304" s="6" t="s">
+        <v>3632</v>
+      </c>
+      <c r="C1304" s="6" t="s">
+        <v>3633</v>
+      </c>
     </row>
     <row r="1305" spans="1:3">
-      <c r="A1305" s="3"/>
-      <c r="B1305" s="3"/>
-      <c r="C1305" s="3"/>
+      <c r="A1305" s="6" t="s">
+        <v>3634</v>
+      </c>
+      <c r="B1305" s="6" t="s">
+        <v>3635</v>
+      </c>
+      <c r="C1305" s="6" t="s">
+        <v>3636</v>
+      </c>
     </row>
     <row r="1306" spans="1:3">
-      <c r="A1306" s="3"/>
-      <c r="B1306" s="3"/>
-      <c r="C1306" s="3"/>
+      <c r="A1306" s="6" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B1306" s="6" t="s">
+        <v>3638</v>
+      </c>
+      <c r="C1306" s="6" t="s">
+        <v>3639</v>
+      </c>
     </row>
     <row r="1307" spans="1:3">
-      <c r="A1307" s="3"/>
-      <c r="B1307" s="3"/>
-      <c r="C1307" s="3"/>
+      <c r="A1307" s="6" t="s">
+        <v>3640</v>
+      </c>
+      <c r="B1307" s="6" t="s">
+        <v>3641</v>
+      </c>
+      <c r="C1307" s="6" t="s">
+        <v>3642</v>
+      </c>
     </row>
     <row r="1308" spans="1:3">
-      <c r="A1308" s="3"/>
-      <c r="B1308" s="3"/>
-      <c r="C1308" s="3"/>
+      <c r="A1308" s="6" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B1308" s="6" t="s">
+        <v>3643</v>
+      </c>
+      <c r="C1308" s="6" t="s">
+        <v>3644</v>
+      </c>
     </row>
     <row r="1309" spans="1:3">
-      <c r="A1309" s="3"/>
-      <c r="B1309" s="3"/>
-      <c r="C1309" s="3"/>
+      <c r="A1309" s="6" t="s">
+        <v>3648</v>
+      </c>
+      <c r="B1309" s="6" t="s">
+        <v>3646</v>
+      </c>
+      <c r="C1309" s="6" t="s">
+        <v>3649</v>
+      </c>
     </row>
     <row r="1310" spans="1:3">
-      <c r="A1310" s="3"/>
-      <c r="B1310" s="3"/>
-      <c r="C1310" s="3"/>
+      <c r="A1310" s="6" t="s">
+        <v>3650</v>
+      </c>
+      <c r="B1310" s="6" t="s">
+        <v>3646</v>
+      </c>
+      <c r="C1310" s="6" t="s">
+        <v>3651</v>
+      </c>
     </row>
     <row r="1311" spans="1:3">
-      <c r="A1311" s="3"/>
-      <c r="B1311" s="3"/>
-      <c r="C1311" s="3"/>
+      <c r="A1311" s="6" t="s">
+        <v>3645</v>
+      </c>
+      <c r="B1311" s="6" t="s">
+        <v>3646</v>
+      </c>
+      <c r="C1311" s="6" t="s">
+        <v>3647</v>
+      </c>
     </row>
     <row r="1312" spans="1:3">
-      <c r="A1312" s="3"/>
-      <c r="B1312" s="3"/>
-      <c r="C1312" s="3"/>
+      <c r="A1312" s="6" t="s">
+        <v>3652</v>
+      </c>
+      <c r="B1312" s="6" t="s">
+        <v>3653</v>
+      </c>
+      <c r="C1312" s="6" t="s">
+        <v>3654</v>
+      </c>
     </row>
     <row r="1313" spans="1:3">
-      <c r="A1313" s="3"/>
-      <c r="B1313" s="3"/>
-      <c r="C1313" s="3"/>
+      <c r="A1313" s="6" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B1313" s="6" t="s">
+        <v>3656</v>
+      </c>
+      <c r="C1313" s="6" t="s">
+        <v>3657</v>
+      </c>
     </row>
     <row r="1314" spans="1:3">
-      <c r="A1314" s="3"/>
-      <c r="B1314" s="3"/>
-      <c r="C1314" s="3"/>
+      <c r="A1314" s="6" t="s">
+        <v>3658</v>
+      </c>
+      <c r="B1314" s="6" t="s">
+        <v>3659</v>
+      </c>
+      <c r="C1314" s="6" t="s">
+        <v>3660</v>
+      </c>
     </row>
     <row r="1315" spans="1:3">
-      <c r="A1315" s="3"/>
-      <c r="B1315" s="3"/>
-      <c r="C1315" s="3"/>
+      <c r="A1315" s="6" t="s">
+        <v>3661</v>
+      </c>
+      <c r="B1315" s="6" t="s">
+        <v>3662</v>
+      </c>
+      <c r="C1315" s="6" t="s">
+        <v>3663</v>
+      </c>
     </row>
     <row r="1316" spans="1:3">
-      <c r="A1316" s="3"/>
-      <c r="B1316" s="3"/>
-      <c r="C1316" s="3"/>
+      <c r="A1316" s="6" t="s">
+        <v>3664</v>
+      </c>
+      <c r="B1316" s="6" t="s">
+        <v>3665</v>
+      </c>
+      <c r="C1316" s="6" t="s">
+        <v>3666</v>
+      </c>
     </row>
     <row r="1317" spans="1:3">
-      <c r="A1317" s="3"/>
-      <c r="B1317" s="3"/>
-      <c r="C1317" s="3"/>
+      <c r="A1317" s="6" t="s">
+        <v>3834</v>
+      </c>
+      <c r="B1317" s="6" t="s">
+        <v>3834</v>
+      </c>
+      <c r="C1317" s="6" t="s">
+        <v>3838</v>
+      </c>
     </row>
     <row r="1318" spans="1:3">
-      <c r="A1318" s="3"/>
-      <c r="B1318" s="3"/>
-      <c r="C1318" s="3"/>
+      <c r="A1318" s="6" t="s">
+        <v>3835</v>
+      </c>
+      <c r="B1318" s="6" t="s">
+        <v>3835</v>
+      </c>
+      <c r="C1318" s="6" t="s">
+        <v>3839</v>
+      </c>
     </row>
     <row r="1319" spans="1:3">
-      <c r="A1319" s="3"/>
-      <c r="B1319" s="3"/>
-      <c r="C1319" s="3"/>
+      <c r="A1319" s="6" t="s">
+        <v>3836</v>
+      </c>
+      <c r="B1319" s="6" t="s">
+        <v>3837</v>
+      </c>
+      <c r="C1319" s="6" t="s">
+        <v>3840</v>
+      </c>
     </row>
     <row r="1320" spans="1:3">
-      <c r="A1320" s="3"/>
-      <c r="B1320" s="3"/>
-      <c r="C1320" s="3"/>
+      <c r="A1320" s="6" t="s">
+        <v>3836</v>
+      </c>
+      <c r="B1320" s="6" t="s">
+        <v>3837</v>
+      </c>
+      <c r="C1320" s="6" t="s">
+        <v>3841</v>
+      </c>
     </row>
     <row r="1321" spans="1:3">
-      <c r="A1321" s="3"/>
-      <c r="B1321" s="3"/>
-      <c r="C1321" s="3"/>
+      <c r="A1321" s="6" t="s">
+        <v>3667</v>
+      </c>
+      <c r="B1321" s="6" t="s">
+        <v>3668</v>
+      </c>
+      <c r="C1321" s="6" t="s">
+        <v>3669</v>
+      </c>
     </row>
     <row r="1322" spans="1:3">
-      <c r="A1322" s="3"/>
-      <c r="B1322" s="3"/>
-      <c r="C1322" s="3"/>
+      <c r="A1322" s="6" t="s">
+        <v>3670</v>
+      </c>
+      <c r="B1322" s="6" t="s">
+        <v>3668</v>
+      </c>
+      <c r="C1322" s="6" t="s">
+        <v>3671</v>
+      </c>
     </row>
     <row r="1323" spans="1:3">
-      <c r="A1323" s="3"/>
-      <c r="B1323" s="3"/>
-      <c r="C1323" s="3"/>
+      <c r="A1323" s="6" t="s">
+        <v>3842</v>
+      </c>
+      <c r="B1323" s="6" t="s">
+        <v>3843</v>
+      </c>
+      <c r="C1323" s="6" t="s">
+        <v>3850</v>
+      </c>
     </row>
     <row r="1324" spans="1:3">
-      <c r="A1324" s="3"/>
-      <c r="B1324" s="3"/>
-      <c r="C1324" s="3"/>
+      <c r="A1324" s="6" t="s">
+        <v>3844</v>
+      </c>
+      <c r="B1324" s="6" t="s">
+        <v>3845</v>
+      </c>
+      <c r="C1324" s="6" t="s">
+        <v>3851</v>
+      </c>
     </row>
     <row r="1325" spans="1:3">
-      <c r="A1325" s="3"/>
-      <c r="B1325" s="3"/>
-      <c r="C1325" s="3"/>
+      <c r="A1325" s="6" t="s">
+        <v>3846</v>
+      </c>
+      <c r="B1325" s="6" t="s">
+        <v>3848</v>
+      </c>
+      <c r="C1325" s="6" t="s">
+        <v>3852</v>
+      </c>
     </row>
     <row r="1326" spans="1:3">
-      <c r="A1326" s="3"/>
-      <c r="B1326" s="3"/>
-      <c r="C1326" s="3"/>
+      <c r="A1326" s="6" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B1326" s="6" t="s">
+        <v>3849</v>
+      </c>
+      <c r="C1326" s="6" t="s">
+        <v>3853</v>
+      </c>
     </row>
     <row r="1327" spans="1:3">
-      <c r="A1327" s="3"/>
-      <c r="B1327" s="3"/>
-      <c r="C1327" s="3"/>
+      <c r="A1327" s="6" t="s">
+        <v>3672</v>
+      </c>
+      <c r="B1327" s="6" t="s">
+        <v>3673</v>
+      </c>
+      <c r="C1327" s="6" t="s">
+        <v>3674</v>
+      </c>
     </row>
     <row r="1328" spans="1:3">
-      <c r="A1328" s="3"/>
-      <c r="B1328" s="3"/>
-      <c r="C1328" s="3"/>
+      <c r="A1328" s="6" t="s">
+        <v>3675</v>
+      </c>
+      <c r="B1328" s="6" t="s">
+        <v>3676</v>
+      </c>
+      <c r="C1328" s="6" t="s">
+        <v>3677</v>
+      </c>
     </row>
     <row r="1329" spans="1:3">
-      <c r="A1329" s="3"/>
-      <c r="B1329" s="3"/>
-      <c r="C1329" s="3"/>
+      <c r="A1329" s="6" t="s">
+        <v>3678</v>
+      </c>
+      <c r="B1329" s="6" t="s">
+        <v>3679</v>
+      </c>
+      <c r="C1329" s="6" t="s">
+        <v>3680</v>
+      </c>
     </row>
     <row r="1330" spans="1:3">
-      <c r="A1330" s="3"/>
-      <c r="B1330" s="3"/>
-      <c r="C1330" s="3"/>
+      <c r="A1330" s="6" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B1330" s="6" t="s">
+        <v>3855</v>
+      </c>
+      <c r="C1330" s="6" t="s">
+        <v>3856</v>
+      </c>
     </row>
     <row r="1331" spans="1:3">
-      <c r="A1331" s="3"/>
-      <c r="B1331" s="3"/>
-      <c r="C1331" s="3"/>
+      <c r="A1331" s="6" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B1331" s="6" t="s">
+        <v>3858</v>
+      </c>
+      <c r="C1331" s="6" t="s">
+        <v>3859</v>
+      </c>
     </row>
     <row r="1332" spans="1:3">
-      <c r="A1332" s="3"/>
-      <c r="B1332" s="3"/>
-      <c r="C1332" s="3"/>
+      <c r="A1332" s="6" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B1332" s="6" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C1332" s="6" t="s">
+        <v>3683</v>
+      </c>
     </row>
     <row r="1333" spans="1:3">
-      <c r="A1333" s="3"/>
-      <c r="B1333" s="3"/>
-      <c r="C1333" s="3"/>
+      <c r="A1333" s="6" t="s">
+        <v>3860</v>
+      </c>
+      <c r="B1333" s="6" t="s">
+        <v>3861</v>
+      </c>
+      <c r="C1333" s="6" t="s">
+        <v>3862</v>
+      </c>
     </row>
     <row r="1334" spans="1:3">
-      <c r="A1334" s="3"/>
-      <c r="B1334" s="3"/>
-      <c r="C1334" s="3"/>
+      <c r="A1334" s="6" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B1334" s="6" t="s">
+        <v>3685</v>
+      </c>
+      <c r="C1334" s="6" t="s">
+        <v>3686</v>
+      </c>
     </row>
     <row r="1335" spans="1:3">
-      <c r="A1335" s="3"/>
-      <c r="B1335" s="3"/>
-      <c r="C1335" s="3"/>
+      <c r="A1335" s="6" t="s">
+        <v>3687</v>
+      </c>
+      <c r="B1335" s="6" t="s">
+        <v>3688</v>
+      </c>
+      <c r="C1335" s="6" t="s">
+        <v>3689</v>
+      </c>
     </row>
     <row r="1336" spans="1:3">
-      <c r="A1336" s="3"/>
-      <c r="B1336" s="3"/>
-      <c r="C1336" s="3"/>
+      <c r="A1336" s="6" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B1336" s="6" t="s">
+        <v>3691</v>
+      </c>
+      <c r="C1336" s="6" t="s">
+        <v>3692</v>
+      </c>
     </row>
     <row r="1337" spans="1:3">
-      <c r="A1337" s="3"/>
-      <c r="B1337" s="3"/>
-      <c r="C1337" s="3"/>
+      <c r="A1337" s="6" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B1337" s="6" t="s">
+        <v>3864</v>
+      </c>
+      <c r="C1337" s="6" t="s">
+        <v>3865</v>
+      </c>
     </row>
     <row r="1338" spans="1:3">
-      <c r="A1338" s="3"/>
-      <c r="B1338" s="3"/>
-      <c r="C1338" s="3"/>
+      <c r="A1338" s="6" t="s">
+        <v>3794</v>
+      </c>
+      <c r="B1338" s="6" t="s">
+        <v>3795</v>
+      </c>
+      <c r="C1338" s="6" t="s">
+        <v>3796</v>
+      </c>
     </row>
     <row r="1339" spans="1:3">
-      <c r="A1339" s="3"/>
-      <c r="B1339" s="3"/>
-      <c r="C1339" s="3"/>
+      <c r="A1339" s="6" t="s">
+        <v>3693</v>
+      </c>
+      <c r="B1339" s="6" t="s">
+        <v>3694</v>
+      </c>
+      <c r="C1339" s="6" t="s">
+        <v>3695</v>
+      </c>
     </row>
     <row r="1340" spans="1:3">
-      <c r="A1340" s="3"/>
-      <c r="B1340" s="3"/>
-      <c r="C1340" s="3"/>
+      <c r="A1340" s="6" t="s">
+        <v>3696</v>
+      </c>
+      <c r="B1340" s="6" t="s">
+        <v>3697</v>
+      </c>
+      <c r="C1340" s="6" t="s">
+        <v>3698</v>
+      </c>
     </row>
     <row r="1341" spans="1:3">
-      <c r="A1341" s="3"/>
-      <c r="B1341" s="3"/>
-      <c r="C1341" s="3"/>
+      <c r="A1341" s="6" t="s">
+        <v>3699</v>
+      </c>
+      <c r="B1341" s="6" t="s">
+        <v>3700</v>
+      </c>
+      <c r="C1341" s="6" t="s">
+        <v>3701</v>
+      </c>
     </row>
     <row r="1342" spans="1:3">
-      <c r="A1342" s="3"/>
-      <c r="B1342" s="3"/>
-      <c r="C1342" s="3"/>
+      <c r="A1342" s="6" t="s">
+        <v>3868</v>
+      </c>
+      <c r="B1342" s="6" t="s">
+        <v>3866</v>
+      </c>
+      <c r="C1342" s="6" t="s">
+        <v>3867</v>
+      </c>
     </row>
     <row r="1343" spans="1:3">
-      <c r="A1343" s="3"/>
-      <c r="B1343" s="3"/>
-      <c r="C1343" s="3"/>
+      <c r="A1343" s="6" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B1343" s="6" t="s">
+        <v>3870</v>
+      </c>
+      <c r="C1343" s="6" t="s">
+        <v>3871</v>
+      </c>
     </row>
     <row r="1344" spans="1:3">
-      <c r="A1344" s="3"/>
-      <c r="B1344" s="3"/>
-      <c r="C1344" s="3"/>
+      <c r="A1344" s="6" t="s">
+        <v>3872</v>
+      </c>
+      <c r="B1344" s="6" t="s">
+        <v>3873</v>
+      </c>
+      <c r="C1344" s="6" t="s">
+        <v>3874</v>
+      </c>
     </row>
     <row r="1345" spans="1:3">
-      <c r="A1345" s="3"/>
-      <c r="B1345" s="3"/>
-      <c r="C1345" s="3"/>
+      <c r="A1345" s="6" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B1345" s="6" t="s">
+        <v>3807</v>
+      </c>
+      <c r="C1345" s="6" t="s">
+        <v>3808</v>
+      </c>
     </row>
     <row r="1346" spans="1:3">
-      <c r="A1346" s="3"/>
-      <c r="B1346" s="3"/>
-      <c r="C1346" s="3"/>
+      <c r="A1346" s="6" t="s">
+        <v>3803</v>
+      </c>
+      <c r="B1346" s="6" t="s">
+        <v>3804</v>
+      </c>
+      <c r="C1346" s="6" t="s">
+        <v>3805</v>
+      </c>
     </row>
     <row r="1347" spans="1:3">
-      <c r="A1347" s="3"/>
-      <c r="B1347" s="3"/>
-      <c r="C1347" s="3"/>
+      <c r="A1347" s="6" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B1347" s="6" t="s">
+        <v>3876</v>
+      </c>
+      <c r="C1347" s="6" t="s">
+        <v>3877</v>
+      </c>
     </row>
     <row r="1348" spans="1:3">
-      <c r="A1348" s="3"/>
-      <c r="B1348" s="3"/>
-      <c r="C1348" s="3"/>
+      <c r="A1348" s="6" t="s">
+        <v>3878</v>
+      </c>
+      <c r="B1348" s="6" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C1348" s="6" t="s">
+        <v>3879</v>
+      </c>
     </row>
     <row r="1349" spans="1:3">
-      <c r="A1349" s="3"/>
-      <c r="B1349" s="3"/>
-      <c r="C1349" s="3"/>
+      <c r="A1349" s="6" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B1349" s="6" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C1349" s="6" t="s">
+        <v>3799</v>
+      </c>
     </row>
     <row r="1350" spans="1:3">
-      <c r="A1350" s="3"/>
-      <c r="B1350" s="3"/>
-      <c r="C1350" s="3"/>
+      <c r="A1350" s="6" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B1350" s="6" t="s">
+        <v>3801</v>
+      </c>
+      <c r="C1350" s="6" t="s">
+        <v>3802</v>
+      </c>
     </row>
     <row r="1351" spans="1:3">
-      <c r="A1351" s="3"/>
-      <c r="B1351" s="3"/>
-      <c r="C1351" s="3"/>
+      <c r="A1351" s="6" t="s">
+        <v>3702</v>
+      </c>
+      <c r="B1351" s="6" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C1351" s="6" t="s">
+        <v>3704</v>
+      </c>
     </row>
     <row r="1352" spans="1:3">
-      <c r="A1352" s="3"/>
-      <c r="B1352" s="3"/>
-      <c r="C1352" s="3"/>
+      <c r="A1352" s="6" t="s">
+        <v>3880</v>
+      </c>
+      <c r="B1352" s="6" t="s">
+        <v>3881</v>
+      </c>
+      <c r="C1352" s="6" t="s">
+        <v>3882</v>
+      </c>
     </row>
     <row r="1353" spans="1:3">
-      <c r="A1353" s="3"/>
-      <c r="B1353" s="3"/>
-      <c r="C1353" s="3"/>
+      <c r="A1353" s="6" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B1353" s="6" t="s">
+        <v>3884</v>
+      </c>
+      <c r="C1353" s="6" t="s">
+        <v>3885</v>
+      </c>
     </row>
     <row r="1354" spans="1:3">
-      <c r="A1354" s="3"/>
-      <c r="B1354" s="3"/>
-      <c r="C1354" s="3"/>
+      <c r="A1354" s="6" t="s">
+        <v>3708</v>
+      </c>
+      <c r="B1354" s="6" t="s">
+        <v>3709</v>
+      </c>
+      <c r="C1354" s="6" t="s">
+        <v>3710</v>
+      </c>
     </row>
     <row r="1355" spans="1:3">
-      <c r="A1355" s="3"/>
-      <c r="B1355" s="3"/>
-      <c r="C1355" s="3"/>
+      <c r="A1355" s="6" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B1355" s="6" t="s">
+        <v>3819</v>
+      </c>
+      <c r="C1355" s="6" t="s">
+        <v>3820</v>
+      </c>
     </row>
     <row r="1356" spans="1:3">
-      <c r="A1356" s="3"/>
-      <c r="B1356" s="3"/>
-      <c r="C1356" s="3"/>
+      <c r="A1356" s="6" t="s">
+        <v>3887</v>
+      </c>
+      <c r="B1356" s="6" t="s">
+        <v>3886</v>
+      </c>
+      <c r="C1356" s="6" t="s">
+        <v>3888</v>
+      </c>
     </row>
     <row r="1357" spans="1:3">
-      <c r="A1357" s="3"/>
-      <c r="B1357" s="3"/>
-      <c r="C1357" s="3"/>
+      <c r="A1357" s="6" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B1357" s="6" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C1357" s="6" t="s">
+        <v>3736</v>
+      </c>
     </row>
     <row r="1358" spans="1:3">
-      <c r="A1358" s="3"/>
-      <c r="B1358" s="3"/>
-      <c r="C1358" s="3"/>
+      <c r="A1358" s="6" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B1358" s="6" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C1358" s="6" t="s">
+        <v>3891</v>
+      </c>
     </row>
     <row r="1359" spans="1:3">
-      <c r="A1359" s="3"/>
-      <c r="B1359" s="3"/>
-      <c r="C1359" s="3"/>
+      <c r="A1359" s="6" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B1359" s="6" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C1359" s="6" t="s">
+        <v>3739</v>
+      </c>
     </row>
     <row r="1360" spans="1:3">
-      <c r="A1360" s="3"/>
-      <c r="B1360" s="3"/>
-      <c r="C1360" s="3"/>
+      <c r="A1360" s="6" t="s">
+        <v>3740</v>
+      </c>
+      <c r="B1360" s="6" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C1360" s="6" t="s">
+        <v>3741</v>
+      </c>
     </row>
     <row r="1361" spans="1:3">
-      <c r="A1361" s="3"/>
-      <c r="B1361" s="3"/>
-      <c r="C1361" s="3"/>
+      <c r="A1361" s="6" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B1361" s="6" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C1361" s="6" t="s">
+        <v>3744</v>
+      </c>
     </row>
     <row r="1362" spans="1:3">
-      <c r="A1362" s="3"/>
-      <c r="B1362" s="3"/>
-      <c r="C1362" s="3"/>
+      <c r="A1362" s="6" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B1362" s="6" t="s">
+        <v>3746</v>
+      </c>
+      <c r="C1362" s="6" t="s">
+        <v>3747</v>
+      </c>
     </row>
     <row r="1363" spans="1:3">
-      <c r="A1363" s="3"/>
-      <c r="B1363" s="3"/>
-      <c r="C1363" s="3"/>
+      <c r="A1363" s="6" t="s">
+        <v>3893</v>
+      </c>
+      <c r="B1363" s="6" t="s">
+        <v>3892</v>
+      </c>
+      <c r="C1363" s="6" t="s">
+        <v>3894</v>
+      </c>
     </row>
     <row r="1364" spans="1:3">
-      <c r="A1364" s="3"/>
-      <c r="B1364" s="3"/>
-      <c r="C1364" s="3"/>
+      <c r="A1364" s="6" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B1364" s="6" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C1364" s="6" t="s">
+        <v>3750</v>
+      </c>
     </row>
     <row r="1365" spans="1:3">
-      <c r="A1365" s="3"/>
-      <c r="B1365" s="3"/>
-      <c r="C1365" s="3"/>
+      <c r="A1365" s="6" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B1365" s="6" t="s">
+        <v>3752</v>
+      </c>
+      <c r="C1365" s="6" t="s">
+        <v>3753</v>
+      </c>
     </row>
     <row r="1366" spans="1:3">
-      <c r="A1366" s="3"/>
-      <c r="B1366" s="3"/>
-      <c r="C1366" s="3"/>
+      <c r="A1366" s="6" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B1366" s="6" t="s">
+        <v>3755</v>
+      </c>
+      <c r="C1366" s="6" t="s">
+        <v>3756</v>
+      </c>
     </row>
     <row r="1367" spans="1:3">
-      <c r="A1367" s="3"/>
-      <c r="B1367" s="3"/>
-      <c r="C1367" s="3"/>
+      <c r="A1367" s="6" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B1367" s="6" t="s">
+        <v>3758</v>
+      </c>
+      <c r="C1367" s="6" t="s">
+        <v>3759</v>
+      </c>
     </row>
     <row r="1368" spans="1:3">
-      <c r="A1368" s="3"/>
-      <c r="B1368" s="3"/>
-      <c r="C1368" s="3"/>
+      <c r="A1368" s="6" t="s">
+        <v>3731</v>
+      </c>
+      <c r="B1368" s="6" t="s">
+        <v>3732</v>
+      </c>
+      <c r="C1368" s="6" t="s">
+        <v>3733</v>
+      </c>
     </row>
     <row r="1369" spans="1:3">
-      <c r="A1369" s="3"/>
-      <c r="B1369" s="3"/>
-      <c r="C1369" s="3"/>
+      <c r="A1369" s="6" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B1369" s="6" t="s">
+        <v>3821</v>
+      </c>
+      <c r="C1369" s="6" t="s">
+        <v>3822</v>
+      </c>
     </row>
     <row r="1370" spans="1:3">
-      <c r="A1370" s="3"/>
-      <c r="B1370" s="3"/>
-      <c r="C1370" s="3"/>
+      <c r="A1370" s="6" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B1370" s="6" t="s">
+        <v>3761</v>
+      </c>
+      <c r="C1370" s="6" t="s">
+        <v>3762</v>
+      </c>
     </row>
     <row r="1371" spans="1:3">
-      <c r="A1371" s="3"/>
-      <c r="B1371" s="3"/>
-      <c r="C1371" s="3"/>
+      <c r="A1371" s="6" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B1371" s="6" t="s">
+        <v>3823</v>
+      </c>
+      <c r="C1371" s="6" t="s">
+        <v>3824</v>
+      </c>
     </row>
     <row r="1372" spans="1:3">
-      <c r="A1372" s="3"/>
-      <c r="B1372" s="3"/>
-      <c r="C1372" s="3"/>
+      <c r="A1372" s="6" t="s">
+        <v>3763</v>
+      </c>
+      <c r="B1372" s="6" t="s">
+        <v>3764</v>
+      </c>
+      <c r="C1372" s="6" t="s">
+        <v>3765</v>
+      </c>
     </row>
     <row r="1373" spans="1:3">
-      <c r="A1373" s="3"/>
-      <c r="B1373" s="3"/>
-      <c r="C1373" s="3"/>
+      <c r="A1373" s="6" t="s">
+        <v>3896</v>
+      </c>
+      <c r="B1373" s="6" t="s">
+        <v>3895</v>
+      </c>
+      <c r="C1373" s="6" t="s">
+        <v>3897</v>
+      </c>
     </row>
     <row r="1374" spans="1:3">
-      <c r="A1374" s="3"/>
-      <c r="B1374" s="3"/>
-      <c r="C1374" s="3"/>
+      <c r="A1374" s="6" t="s">
+        <v>3812</v>
+      </c>
+      <c r="B1374" s="6" t="s">
+        <v>3813</v>
+      </c>
+      <c r="C1374" s="6" t="s">
+        <v>3814</v>
+      </c>
     </row>
     <row r="1375" spans="1:3">
-      <c r="A1375" s="3"/>
-      <c r="B1375" s="3"/>
-      <c r="C1375" s="3"/>
+      <c r="A1375" s="6" t="s">
+        <v>3705</v>
+      </c>
+      <c r="B1375" s="6" t="s">
+        <v>3706</v>
+      </c>
+      <c r="C1375" s="6" t="s">
+        <v>3707</v>
+      </c>
     </row>
     <row r="1376" spans="1:3">
-      <c r="A1376" s="3"/>
-      <c r="B1376" s="3"/>
-      <c r="C1376" s="3"/>
+      <c r="A1376" s="6" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B1376" s="6" t="s">
+        <v>3767</v>
+      </c>
+      <c r="C1376" s="6" t="s">
+        <v>3768</v>
+      </c>
     </row>
     <row r="1377" spans="1:3">
-      <c r="A1377" s="3"/>
-      <c r="B1377" s="3"/>
-      <c r="C1377" s="3"/>
+      <c r="A1377" s="6" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B1377" s="6" t="s">
+        <v>3767</v>
+      </c>
+      <c r="C1377" s="6" t="s">
+        <v>3817</v>
+      </c>
     </row>
     <row r="1378" spans="1:3">
-      <c r="A1378" s="3"/>
-      <c r="B1378" s="3"/>
-      <c r="C1378" s="3"/>
+      <c r="A1378" s="6" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B1378" s="6" t="s">
+        <v>3825</v>
+      </c>
+      <c r="C1378" s="6" t="s">
+        <v>3826</v>
+      </c>
     </row>
     <row r="1379" spans="1:3">
-      <c r="A1379" s="3"/>
-      <c r="B1379" s="3"/>
-      <c r="C1379" s="3"/>
+      <c r="A1379" s="6" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B1379" s="6" t="s">
+        <v>3810</v>
+      </c>
+      <c r="C1379" s="6" t="s">
+        <v>3811</v>
+      </c>
     </row>
     <row r="1380" spans="1:3">
-      <c r="A1380" s="3"/>
-      <c r="B1380" s="3"/>
-      <c r="C1380" s="3"/>
+      <c r="A1380" s="6" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B1380" s="6" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C1380" s="6" t="s">
+        <v>3771</v>
+      </c>
     </row>
     <row r="1381" spans="1:3">
-      <c r="A1381" s="3"/>
-      <c r="B1381" s="3"/>
-      <c r="C1381" s="3"/>
+      <c r="A1381" s="6" t="s">
+        <v>3711</v>
+      </c>
+      <c r="B1381" s="6" t="s">
+        <v>3712</v>
+      </c>
+      <c r="C1381" s="6" t="s">
+        <v>3713</v>
+      </c>
     </row>
     <row r="1382" spans="1:3">
-      <c r="A1382" s="3"/>
-      <c r="B1382" s="3"/>
-      <c r="C1382" s="3"/>
+      <c r="A1382" s="6" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B1382" s="6" t="s">
+        <v>3773</v>
+      </c>
+      <c r="C1382" s="6" t="s">
+        <v>3774</v>
+      </c>
     </row>
     <row r="1383" spans="1:3">
-      <c r="A1383" s="3"/>
-      <c r="B1383" s="3"/>
-      <c r="C1383" s="3"/>
+      <c r="A1383" s="6" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B1383" s="6" t="s">
+        <v>3776</v>
+      </c>
+      <c r="C1383" s="6" t="s">
+        <v>3777</v>
+      </c>
     </row>
     <row r="1384" spans="1:3">
-      <c r="A1384" s="3"/>
-      <c r="B1384" s="3"/>
-      <c r="C1384" s="3"/>
+      <c r="A1384" s="6" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B1384" s="6" t="s">
+        <v>3776</v>
+      </c>
+      <c r="C1384" s="6" t="s">
+        <v>3779</v>
+      </c>
     </row>
     <row r="1385" spans="1:3">
-      <c r="A1385" s="3"/>
-      <c r="B1385" s="3"/>
-      <c r="C1385" s="3"/>
+      <c r="A1385" s="6" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B1385" s="6" t="s">
+        <v>3776</v>
+      </c>
+      <c r="C1385" s="6" t="s">
+        <v>3781</v>
+      </c>
     </row>
     <row r="1386" spans="1:3">
-      <c r="A1386" s="3"/>
-      <c r="B1386" s="3"/>
-      <c r="C1386" s="3"/>
+      <c r="A1386" s="6" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B1386" s="6" t="s">
+        <v>3776</v>
+      </c>
+      <c r="C1386" s="6" t="s">
+        <v>3783</v>
+      </c>
     </row>
     <row r="1387" spans="1:3">
-      <c r="A1387" s="3"/>
-      <c r="B1387" s="3"/>
-      <c r="C1387" s="3"/>
+      <c r="A1387" s="6" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B1387" s="6" t="s">
+        <v>3776</v>
+      </c>
+      <c r="C1387" s="6" t="s">
+        <v>3827</v>
+      </c>
     </row>
     <row r="1388" spans="1:3">
-      <c r="A1388" s="3"/>
-      <c r="B1388" s="3"/>
-      <c r="C1388" s="3"/>
+      <c r="A1388" s="6" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B1388" s="6" t="s">
+        <v>3776</v>
+      </c>
+      <c r="C1388" s="6" t="s">
+        <v>3828</v>
+      </c>
     </row>
     <row r="1389" spans="1:3">
-      <c r="A1389" s="3"/>
-      <c r="B1389" s="3"/>
-      <c r="C1389" s="3"/>
+      <c r="A1389" s="6" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B1389" s="6" t="s">
+        <v>3815</v>
+      </c>
+      <c r="C1389" s="6" t="s">
+        <v>3816</v>
+      </c>
     </row>
     <row r="1390" spans="1:3">
-      <c r="A1390" s="3"/>
-      <c r="B1390" s="3"/>
-      <c r="C1390" s="3"/>
+      <c r="A1390" s="6" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B1390" s="6" t="s">
+        <v>3792</v>
+      </c>
+      <c r="C1390" s="6" t="s">
+        <v>3793</v>
+      </c>
     </row>
     <row r="1391" spans="1:3">
-      <c r="A1391" s="3"/>
-      <c r="B1391" s="3"/>
-      <c r="C1391" s="3"/>
+      <c r="A1391" s="6" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B1391" s="6" t="s">
+        <v>3789</v>
+      </c>
+      <c r="C1391" s="6" t="s">
+        <v>3790</v>
+      </c>
     </row>
     <row r="1392" spans="1:3">
-      <c r="A1392" s="3"/>
-      <c r="B1392" s="3"/>
-      <c r="C1392" s="3"/>
+      <c r="A1392" s="6" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B1392" s="6" t="s">
+        <v>3785</v>
+      </c>
+      <c r="C1392" s="6" t="s">
+        <v>3829</v>
+      </c>
     </row>
     <row r="1393" spans="1:3">
-      <c r="A1393" s="3"/>
-      <c r="B1393" s="3"/>
-      <c r="C1393" s="3"/>
+      <c r="A1393" s="6" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B1393" s="6" t="s">
+        <v>3787</v>
+      </c>
+      <c r="C1393" s="6" t="s">
+        <v>3830</v>
+      </c>
     </row>
     <row r="1394" spans="1:3">
-      <c r="A1394" s="3"/>
-      <c r="B1394" s="3"/>
-      <c r="C1394" s="3"/>
+      <c r="A1394" s="6" t="s">
+        <v>3719</v>
+      </c>
+      <c r="B1394" s="6" t="s">
+        <v>3720</v>
+      </c>
+      <c r="C1394" s="6" t="s">
+        <v>3721</v>
+      </c>
     </row>
     <row r="1395" spans="1:3">
-      <c r="A1395" s="3"/>
-      <c r="B1395" s="3"/>
-      <c r="C1395" s="3"/>
+      <c r="A1395" s="6" t="s">
+        <v>3722</v>
+      </c>
+      <c r="B1395" s="6" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C1395" s="6" t="s">
+        <v>3724</v>
+      </c>
     </row>
     <row r="1396" spans="1:3">
-      <c r="A1396" s="3"/>
-      <c r="B1396" s="3"/>
-      <c r="C1396" s="3"/>
+      <c r="A1396" s="6" t="s">
+        <v>3725</v>
+      </c>
+      <c r="B1396" s="6" t="s">
+        <v>3726</v>
+      </c>
+      <c r="C1396" s="6" t="s">
+        <v>3727</v>
+      </c>
     </row>
     <row r="1397" spans="1:3">
-      <c r="A1397" s="3"/>
-      <c r="B1397" s="3"/>
-      <c r="C1397" s="3"/>
+      <c r="A1397" s="6" t="s">
+        <v>3728</v>
+      </c>
+      <c r="B1397" s="6" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C1397" s="6" t="s">
+        <v>3730</v>
+      </c>
     </row>
     <row r="1398" spans="1:3">
-      <c r="A1398" s="3"/>
-      <c r="B1398" s="3"/>
-      <c r="C1398" s="3"/>
+      <c r="A1398" s="6" t="s">
+        <v>3714</v>
+      </c>
+      <c r="B1398" s="6" t="s">
+        <v>3715</v>
+      </c>
+      <c r="C1398" s="6" t="s">
+        <v>3831</v>
+      </c>
     </row>
     <row r="1399" spans="1:3">
-      <c r="A1399" s="3"/>
-      <c r="B1399" s="3"/>
-      <c r="C1399" s="3"/>
+      <c r="A1399" s="6" t="s">
+        <v>3716</v>
+      </c>
+      <c r="B1399" s="6" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C1399" s="6" t="s">
+        <v>3718</v>
+      </c>
     </row>
     <row r="1400" spans="1:3">
-      <c r="A1400" s="3"/>
-      <c r="B1400" s="3"/>
-      <c r="C1400" s="3"/>
+      <c r="A1400" s="6" t="s">
+        <v>3832</v>
+      </c>
+      <c r="B1400" s="6" t="s">
+        <v>3832</v>
+      </c>
+      <c r="C1400" s="6" t="s">
+        <v>3833</v>
+      </c>
     </row>
     <row r="1401" spans="1:3">
-      <c r="A1401" s="3"/>
-      <c r="B1401" s="3"/>
-      <c r="C1401" s="3"/>
+      <c r="A1401" s="4" t="s">
+        <v>3898</v>
+      </c>
+      <c r="B1401" s="5" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C1401" s="5" t="s">
+        <v>3899</v>
+      </c>
     </row>
     <row r="1402" spans="1:3">
-      <c r="A1402" s="3"/>
-      <c r="B1402" s="3"/>
-      <c r="C1402" s="3"/>
+      <c r="A1402" s="4" t="s">
+        <v>3900</v>
+      </c>
+      <c r="B1402" s="5" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C1402" s="5" t="s">
+        <v>3901</v>
+      </c>
     </row>
     <row r="1403" spans="1:3">
-      <c r="A1403" s="3"/>
-      <c r="B1403" s="3"/>
-      <c r="C1403" s="3"/>
+      <c r="A1403" s="4" t="s">
+        <v>4125</v>
+      </c>
+      <c r="B1403" s="5" t="s">
+        <v>3902</v>
+      </c>
+      <c r="C1403" s="5" t="s">
+        <v>4126</v>
+      </c>
     </row>
     <row r="1404" spans="1:3">
-      <c r="A1404" s="3"/>
-      <c r="B1404" s="3"/>
-      <c r="C1404" s="3"/>
+      <c r="A1404" s="4" t="s">
+        <v>3903</v>
+      </c>
+      <c r="B1404" s="5" t="s">
+        <v>3902</v>
+      </c>
+      <c r="C1404" s="5" t="s">
+        <v>4127</v>
+      </c>
     </row>
     <row r="1405" spans="1:3">
-      <c r="A1405" s="1"/>
-      <c r="B1405" s="1"/>
-      <c r="C1405" s="1"/>
+      <c r="A1405" s="4" t="s">
+        <v>3904</v>
+      </c>
+      <c r="B1405" s="5" t="s">
+        <v>3905</v>
+      </c>
+      <c r="C1405" s="5" t="s">
+        <v>3906</v>
+      </c>
     </row>
     <row r="1406" spans="1:3">
-      <c r="A1406" s="1"/>
-      <c r="B1406" s="1"/>
-      <c r="C1406" s="1"/>
+      <c r="A1406" s="4" t="s">
+        <v>3907</v>
+      </c>
+      <c r="B1406" s="5" t="s">
+        <v>3908</v>
+      </c>
+      <c r="C1406" s="5" t="s">
+        <v>3909</v>
+      </c>
     </row>
     <row r="1407" spans="1:3">
-      <c r="A1407" s="1"/>
-      <c r="B1407" s="1"/>
-      <c r="C1407" s="1"/>
+      <c r="A1407" s="4" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B1407" s="5" t="s">
+        <v>3342</v>
+      </c>
+      <c r="C1407" s="5" t="s">
+        <v>3343</v>
+      </c>
     </row>
     <row r="1408" spans="1:3">
-      <c r="A1408" s="1"/>
-      <c r="B1408" s="1"/>
-      <c r="C1408" s="1"/>
+      <c r="A1408" s="4" t="s">
+        <v>3910</v>
+      </c>
+      <c r="B1408" s="5" t="s">
+        <v>3911</v>
+      </c>
+      <c r="C1408" s="5" t="s">
+        <v>3912</v>
+      </c>
     </row>
     <row r="1409" spans="1:3">
-      <c r="A1409" s="1"/>
-      <c r="B1409" s="1"/>
-      <c r="C1409" s="1"/>
+      <c r="A1409" s="4" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B1409" s="5" t="s">
+        <v>3914</v>
+      </c>
+      <c r="C1409" s="5" t="s">
+        <v>3915</v>
+      </c>
     </row>
     <row r="1410" spans="1:3">
-      <c r="A1410" s="1"/>
-      <c r="B1410" s="1"/>
-      <c r="C1410" s="1"/>
+      <c r="A1410" s="4" t="s">
+        <v>3916</v>
+      </c>
+      <c r="B1410" s="5" t="s">
+        <v>3917</v>
+      </c>
+      <c r="C1410" s="5" t="s">
+        <v>3918</v>
+      </c>
     </row>
     <row r="1411" spans="1:3">
-      <c r="A1411" s="1"/>
-      <c r="B1411" s="1"/>
-      <c r="C1411" s="1"/>
+      <c r="A1411" s="4" t="s">
+        <v>3919</v>
+      </c>
+      <c r="B1411" s="5" t="s">
+        <v>3920</v>
+      </c>
+      <c r="C1411" s="5" t="s">
+        <v>3921</v>
+      </c>
     </row>
     <row r="1412" spans="1:3">
-      <c r="A1412" s="1"/>
-      <c r="B1412" s="1"/>
-      <c r="C1412" s="1"/>
+      <c r="A1412" s="4" t="s">
+        <v>3922</v>
+      </c>
+      <c r="B1412" s="5" t="s">
+        <v>3922</v>
+      </c>
+      <c r="C1412" s="5" t="s">
+        <v>3923</v>
+      </c>
     </row>
     <row r="1413" spans="1:3">
-      <c r="A1413" s="1"/>
-      <c r="B1413" s="1"/>
-      <c r="C1413" s="1"/>
+      <c r="A1413" s="4" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B1413" s="5" t="s">
+        <v>3925</v>
+      </c>
+      <c r="C1413" s="5" t="s">
+        <v>3926</v>
+      </c>
     </row>
     <row r="1414" spans="1:3">
-      <c r="A1414" s="1"/>
-      <c r="B1414" s="1"/>
-      <c r="C1414" s="1"/>
+      <c r="A1414" s="4" t="s">
+        <v>3927</v>
+      </c>
+      <c r="B1414" s="5" t="s">
+        <v>3927</v>
+      </c>
+      <c r="C1414" s="5" t="s">
+        <v>3928</v>
+      </c>
     </row>
     <row r="1415" spans="1:3">
-      <c r="A1415" s="1"/>
-      <c r="B1415" s="1"/>
-      <c r="C1415" s="1"/>
+      <c r="A1415" s="4" t="s">
+        <v>3929</v>
+      </c>
+      <c r="B1415" s="5" t="s">
+        <v>3930</v>
+      </c>
+      <c r="C1415" s="5" t="s">
+        <v>3931</v>
+      </c>
     </row>
     <row r="1416" spans="1:3">
-      <c r="A1416" s="1"/>
-      <c r="B1416" s="1"/>
-      <c r="C1416" s="1"/>
+      <c r="A1416" s="4" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1416" s="5" t="s">
+        <v>3932</v>
+      </c>
+      <c r="C1416" s="5" t="s">
+        <v>3933</v>
+      </c>
     </row>
     <row r="1417" spans="1:3">
-      <c r="A1417" s="1"/>
-      <c r="B1417" s="1"/>
-      <c r="C1417" s="1"/>
+      <c r="A1417" s="4" t="s">
+        <v>4128</v>
+      </c>
+      <c r="B1417" s="5" t="s">
+        <v>4129</v>
+      </c>
+      <c r="C1417" s="5" t="s">
+        <v>4130</v>
+      </c>
     </row>
     <row r="1418" spans="1:3">
-      <c r="A1418" s="1"/>
-      <c r="B1418" s="1"/>
-      <c r="C1418" s="1"/>
+      <c r="A1418" s="4" t="s">
+        <v>3934</v>
+      </c>
+      <c r="B1418" s="5" t="s">
+        <v>3935</v>
+      </c>
+      <c r="C1418" s="5" t="s">
+        <v>3936</v>
+      </c>
     </row>
     <row r="1419" spans="1:3">
-      <c r="A1419" s="1"/>
-      <c r="B1419" s="1"/>
-      <c r="C1419" s="1"/>
+      <c r="A1419" s="4" t="s">
+        <v>3937</v>
+      </c>
+      <c r="B1419" s="5" t="s">
+        <v>3938</v>
+      </c>
+      <c r="C1419" s="5" t="s">
+        <v>3939</v>
+      </c>
     </row>
     <row r="1420" spans="1:3">
-      <c r="A1420" s="1"/>
-      <c r="B1420" s="1"/>
-      <c r="C1420" s="1"/>
+      <c r="A1420" s="4" t="s">
+        <v>3940</v>
+      </c>
+      <c r="B1420" s="5" t="s">
+        <v>3941</v>
+      </c>
+      <c r="C1420" s="5" t="s">
+        <v>3923</v>
+      </c>
     </row>
     <row r="1421" spans="1:3">
-      <c r="A1421" s="1"/>
-      <c r="B1421" s="1"/>
-      <c r="C1421" s="1"/>
+      <c r="A1421" s="4" t="s">
+        <v>3942</v>
+      </c>
+      <c r="B1421" s="5" t="s">
+        <v>3942</v>
+      </c>
+      <c r="C1421" s="5" t="s">
+        <v>3943</v>
+      </c>
     </row>
     <row r="1422" spans="1:3">
-      <c r="A1422" s="1"/>
-      <c r="B1422" s="1"/>
-      <c r="C1422" s="1"/>
+      <c r="A1422" s="4" t="s">
+        <v>3944</v>
+      </c>
+      <c r="B1422" s="5" t="s">
+        <v>3944</v>
+      </c>
+      <c r="C1422" s="5" t="s">
+        <v>4131</v>
+      </c>
     </row>
     <row r="1423" spans="1:3">
-      <c r="A1423" s="1"/>
-      <c r="B1423" s="1"/>
-      <c r="C1423" s="1"/>
+      <c r="A1423" s="4" t="s">
+        <v>3945</v>
+      </c>
+      <c r="B1423" s="5" t="s">
+        <v>3946</v>
+      </c>
+      <c r="C1423" s="5" t="s">
+        <v>3947</v>
+      </c>
     </row>
     <row r="1424" spans="1:3">
-      <c r="A1424" s="1"/>
-      <c r="B1424" s="1"/>
-      <c r="C1424" s="1"/>
+      <c r="A1424" s="4" t="s">
+        <v>3948</v>
+      </c>
+      <c r="B1424" s="5" t="s">
+        <v>3948</v>
+      </c>
+      <c r="C1424" s="5" t="s">
+        <v>3949</v>
+      </c>
     </row>
     <row r="1425" spans="1:3">
-      <c r="A1425" s="1"/>
-      <c r="B1425" s="1"/>
-      <c r="C1425" s="1"/>
+      <c r="A1425" s="4" t="s">
+        <v>3950</v>
+      </c>
+      <c r="B1425" s="5" t="s">
+        <v>3951</v>
+      </c>
+      <c r="C1425" s="5" t="s">
+        <v>3952</v>
+      </c>
     </row>
     <row r="1426" spans="1:3">
-      <c r="A1426" s="1"/>
-      <c r="B1426" s="1"/>
-      <c r="C1426" s="1"/>
+      <c r="A1426" s="4" t="s">
+        <v>3953</v>
+      </c>
+      <c r="B1426" s="5" t="s">
+        <v>3954</v>
+      </c>
+      <c r="C1426" s="5" t="s">
+        <v>3955</v>
+      </c>
     </row>
     <row r="1427" spans="1:3">
-      <c r="A1427" s="1"/>
-      <c r="B1427" s="1"/>
-      <c r="C1427" s="1"/>
+      <c r="A1427" s="4" t="s">
+        <v>4132</v>
+      </c>
+      <c r="B1427" s="4" t="s">
+        <v>4132</v>
+      </c>
+      <c r="C1427" s="5" t="s">
+        <v>4133</v>
+      </c>
     </row>
     <row r="1428" spans="1:3">
-      <c r="A1428" s="1"/>
-      <c r="B1428" s="1"/>
-      <c r="C1428" s="1"/>
+      <c r="A1428" s="4" t="s">
+        <v>4132</v>
+      </c>
+      <c r="B1428" s="4" t="s">
+        <v>4132</v>
+      </c>
+      <c r="C1428" s="5" t="s">
+        <v>4134</v>
+      </c>
     </row>
     <row r="1429" spans="1:3">
-      <c r="A1429" s="1"/>
-      <c r="B1429" s="1"/>
-      <c r="C1429" s="1"/>
+      <c r="A1429" s="4" t="s">
+        <v>3956</v>
+      </c>
+      <c r="B1429" s="5" t="s">
+        <v>3957</v>
+      </c>
+      <c r="C1429" s="5" t="s">
+        <v>3958</v>
+      </c>
     </row>
     <row r="1430" spans="1:3">
-      <c r="A1430" s="1"/>
-      <c r="B1430" s="1"/>
-      <c r="C1430" s="1"/>
+      <c r="A1430" s="4" t="s">
+        <v>3959</v>
+      </c>
+      <c r="B1430" s="5" t="s">
+        <v>3960</v>
+      </c>
+      <c r="C1430" s="5" t="s">
+        <v>4135</v>
+      </c>
     </row>
     <row r="1431" spans="1:3">
-      <c r="A1431" s="1"/>
-      <c r="B1431" s="1"/>
-      <c r="C1431" s="1"/>
+      <c r="A1431" s="4" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B1431" s="5" t="s">
+        <v>3962</v>
+      </c>
+      <c r="C1431" s="5" t="s">
+        <v>3963</v>
+      </c>
     </row>
     <row r="1432" spans="1:3">
-      <c r="A1432" s="1"/>
-      <c r="B1432" s="1"/>
-      <c r="C1432" s="1"/>
+      <c r="A1432" s="4" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B1432" s="5" t="s">
+        <v>3965</v>
+      </c>
+      <c r="C1432" s="5" t="s">
+        <v>3966</v>
+      </c>
     </row>
     <row r="1433" spans="1:3">
-      <c r="A1433" s="1"/>
-      <c r="B1433" s="1"/>
-      <c r="C1433" s="1"/>
+      <c r="A1433" s="4" t="s">
+        <v>3967</v>
+      </c>
+      <c r="B1433" s="5" t="s">
+        <v>3968</v>
+      </c>
+      <c r="C1433" s="5" t="s">
+        <v>3969</v>
+      </c>
     </row>
     <row r="1434" spans="1:3">
-      <c r="A1434" s="1"/>
-      <c r="B1434" s="1"/>
-      <c r="C1434" s="1"/>
+      <c r="A1434" s="4" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B1434" s="5" t="s">
+        <v>3968</v>
+      </c>
+      <c r="C1434" s="5" t="s">
+        <v>3971</v>
+      </c>
     </row>
     <row r="1435" spans="1:3">
-      <c r="A1435" s="1"/>
-      <c r="B1435" s="1"/>
-      <c r="C1435" s="1"/>
+      <c r="A1435" s="4" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B1435" s="5" t="s">
+        <v>3968</v>
+      </c>
+      <c r="C1435" s="5" t="s">
+        <v>3973</v>
+      </c>
     </row>
     <row r="1436" spans="1:3">
-      <c r="A1436" s="1"/>
-      <c r="B1436" s="1"/>
-      <c r="C1436" s="1"/>
+      <c r="A1436" s="4" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B1436" s="5" t="s">
+        <v>3968</v>
+      </c>
+      <c r="C1436" s="5" t="s">
+        <v>3975</v>
+      </c>
     </row>
     <row r="1437" spans="1:3">
-      <c r="A1437" s="1"/>
-      <c r="B1437" s="1"/>
-      <c r="C1437" s="1"/>
+      <c r="A1437" s="4" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B1437" s="5" t="s">
+        <v>3968</v>
+      </c>
+      <c r="C1437" s="5" t="s">
+        <v>3977</v>
+      </c>
     </row>
     <row r="1438" spans="1:3">
-      <c r="A1438" s="1"/>
-      <c r="B1438" s="1"/>
-      <c r="C1438" s="1"/>
+      <c r="A1438" s="4" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B1438" s="5" t="s">
+        <v>3979</v>
+      </c>
+      <c r="C1438" s="5" t="s">
+        <v>3980</v>
+      </c>
     </row>
     <row r="1439" spans="1:3">
-      <c r="A1439" s="1"/>
-      <c r="B1439" s="1"/>
-      <c r="C1439" s="1"/>
+      <c r="A1439" s="4" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B1439" s="5" t="s">
+        <v>3982</v>
+      </c>
+      <c r="C1439" s="5" t="s">
+        <v>3983</v>
+      </c>
     </row>
     <row r="1440" spans="1:3">
-      <c r="A1440" s="1"/>
-      <c r="B1440" s="1"/>
-      <c r="C1440" s="1"/>
+      <c r="A1440" s="4" t="s">
+        <v>3984</v>
+      </c>
+      <c r="B1440" s="5" t="s">
+        <v>3985</v>
+      </c>
+      <c r="C1440" s="5" t="s">
+        <v>3986</v>
+      </c>
     </row>
     <row r="1441" spans="1:3">
-      <c r="A1441" s="1"/>
-      <c r="B1441" s="1"/>
-      <c r="C1441" s="1"/>
+      <c r="A1441" s="4" t="s">
+        <v>3987</v>
+      </c>
+      <c r="B1441" s="5" t="s">
+        <v>3988</v>
+      </c>
+      <c r="C1441" s="5" t="s">
+        <v>3989</v>
+      </c>
     </row>
     <row r="1442" spans="1:3">
-      <c r="A1442" s="1"/>
-      <c r="B1442" s="1"/>
-      <c r="C1442" s="1"/>
+      <c r="A1442" s="4" t="s">
+        <v>3990</v>
+      </c>
+      <c r="B1442" s="5" t="s">
+        <v>3991</v>
+      </c>
+      <c r="C1442" s="5" t="s">
+        <v>3992</v>
+      </c>
     </row>
     <row r="1443" spans="1:3">
-      <c r="A1443" s="1"/>
-      <c r="B1443" s="1"/>
-      <c r="C1443" s="1"/>
+      <c r="A1443" s="4" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B1443" s="5" t="s">
+        <v>3994</v>
+      </c>
+      <c r="C1443" s="5" t="s">
+        <v>3995</v>
+      </c>
     </row>
     <row r="1444" spans="1:3">
-      <c r="A1444" s="1"/>
-      <c r="B1444" s="1"/>
-      <c r="C1444" s="1"/>
+      <c r="A1444" s="4" t="s">
+        <v>3996</v>
+      </c>
+      <c r="B1444" s="5" t="s">
+        <v>3997</v>
+      </c>
+      <c r="C1444" s="5" t="s">
+        <v>3998</v>
+      </c>
     </row>
     <row r="1445" spans="1:3">
-      <c r="A1445" s="1"/>
-      <c r="B1445" s="1"/>
-      <c r="C1445" s="1"/>
+      <c r="A1445" s="4" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B1445" s="5" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C1445" s="5" t="s">
+        <v>4000</v>
+      </c>
     </row>
     <row r="1446" spans="1:3">
-      <c r="A1446" s="1"/>
-      <c r="B1446" s="1"/>
-      <c r="C1446" s="1"/>
+      <c r="A1446" s="4" t="s">
+        <v>4001</v>
+      </c>
+      <c r="B1446" s="5" t="s">
+        <v>4001</v>
+      </c>
+      <c r="C1446" s="5" t="s">
+        <v>4002</v>
+      </c>
     </row>
     <row r="1447" spans="1:3">
-      <c r="A1447" s="1"/>
-      <c r="B1447" s="1"/>
-      <c r="C1447" s="1"/>
+      <c r="A1447" s="4" t="s">
+        <v>4003</v>
+      </c>
+      <c r="B1447" s="5" t="s">
+        <v>4003</v>
+      </c>
+      <c r="C1447" s="5" t="s">
+        <v>4004</v>
+      </c>
     </row>
     <row r="1448" spans="1:3">
-      <c r="A1448" s="1"/>
-      <c r="B1448" s="1"/>
-      <c r="C1448" s="1"/>
+      <c r="A1448" s="4" t="s">
+        <v>4005</v>
+      </c>
+      <c r="B1448" s="5" t="s">
+        <v>4005</v>
+      </c>
+      <c r="C1448" s="5" t="s">
+        <v>4006</v>
+      </c>
     </row>
     <row r="1449" spans="1:3">
-      <c r="A1449" s="1"/>
-      <c r="B1449" s="1"/>
-      <c r="C1449" s="1"/>
+      <c r="A1449" s="4" t="s">
+        <v>4007</v>
+      </c>
+      <c r="B1449" s="5" t="s">
+        <v>4007</v>
+      </c>
+      <c r="C1449" s="5" t="s">
+        <v>4008</v>
+      </c>
     </row>
     <row r="1450" spans="1:3">
-      <c r="A1450" s="1"/>
-      <c r="B1450" s="1"/>
-      <c r="C1450" s="1"/>
+      <c r="A1450" s="4" t="s">
+        <v>4009</v>
+      </c>
+      <c r="B1450" s="5" t="s">
+        <v>4010</v>
+      </c>
+      <c r="C1450" s="5" t="s">
+        <v>3710</v>
+      </c>
     </row>
     <row r="1451" spans="1:3">
-      <c r="A1451" s="1"/>
-      <c r="B1451" s="1"/>
-      <c r="C1451" s="1"/>
+      <c r="A1451" s="4" t="s">
+        <v>4011</v>
+      </c>
+      <c r="B1451" s="5" t="s">
+        <v>4011</v>
+      </c>
+      <c r="C1451" s="5" t="s">
+        <v>4012</v>
+      </c>
     </row>
     <row r="1452" spans="1:3">
-      <c r="A1452" s="1"/>
-      <c r="B1452" s="1"/>
-      <c r="C1452" s="1"/>
+      <c r="A1452" s="4" t="s">
+        <v>4013</v>
+      </c>
+      <c r="B1452" s="5" t="s">
+        <v>4014</v>
+      </c>
+      <c r="C1452" s="5" t="s">
+        <v>4015</v>
+      </c>
     </row>
     <row r="1453" spans="1:3">
-      <c r="A1453" s="1"/>
-      <c r="B1453" s="1"/>
-      <c r="C1453" s="1"/>
+      <c r="A1453" s="4" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B1453" s="5" t="s">
+        <v>4017</v>
+      </c>
+      <c r="C1453" s="5" t="s">
+        <v>4018</v>
+      </c>
     </row>
     <row r="1454" spans="1:3">
-      <c r="A1454" s="1"/>
-      <c r="B1454" s="1"/>
-      <c r="C1454" s="1"/>
+      <c r="A1454" s="4" t="s">
+        <v>4019</v>
+      </c>
+      <c r="B1454" s="5" t="s">
+        <v>4019</v>
+      </c>
+      <c r="C1454" s="5" t="s">
+        <v>4020</v>
+      </c>
     </row>
     <row r="1455" spans="1:3">
-      <c r="A1455" s="1"/>
-      <c r="B1455" s="1"/>
-      <c r="C1455" s="1"/>
+      <c r="A1455" s="4" t="s">
+        <v>4021</v>
+      </c>
+      <c r="B1455" s="5" t="s">
+        <v>4022</v>
+      </c>
+      <c r="C1455" s="5" t="s">
+        <v>4023</v>
+      </c>
     </row>
     <row r="1456" spans="1:3">
-      <c r="A1456" s="1"/>
-      <c r="B1456" s="1"/>
-      <c r="C1456" s="1"/>
+      <c r="A1456" s="4" t="s">
+        <v>4024</v>
+      </c>
+      <c r="B1456" s="5" t="s">
+        <v>4022</v>
+      </c>
+      <c r="C1456" s="5" t="s">
+        <v>4025</v>
+      </c>
     </row>
     <row r="1457" spans="1:3">
-      <c r="A1457" s="1"/>
-      <c r="B1457" s="1"/>
-      <c r="C1457" s="1"/>
+      <c r="A1457" s="4" t="s">
+        <v>4026</v>
+      </c>
+      <c r="B1457" s="5" t="s">
+        <v>4136</v>
+      </c>
+      <c r="C1457" s="5" t="s">
+        <v>4027</v>
+      </c>
     </row>
     <row r="1458" spans="1:3">
-      <c r="A1458" s="1"/>
-      <c r="B1458" s="1"/>
-      <c r="C1458" s="1"/>
+      <c r="A1458" s="4" t="s">
+        <v>4137</v>
+      </c>
+      <c r="B1458" s="5" t="s">
+        <v>4138</v>
+      </c>
+      <c r="C1458" s="5" t="s">
+        <v>4027</v>
+      </c>
     </row>
     <row r="1459" spans="1:3">
-      <c r="A1459" s="1"/>
-      <c r="B1459" s="1"/>
-      <c r="C1459" s="1"/>
+      <c r="A1459" s="4" t="s">
+        <v>4028</v>
+      </c>
+      <c r="B1459" s="5" t="s">
+        <v>4029</v>
+      </c>
+      <c r="C1459" s="5" t="s">
+        <v>4030</v>
+      </c>
     </row>
     <row r="1460" spans="1:3">
-      <c r="A1460" s="1"/>
-      <c r="B1460" s="1"/>
-      <c r="C1460" s="1"/>
+      <c r="A1460" s="4" t="s">
+        <v>4031</v>
+      </c>
+      <c r="B1460" s="5" t="s">
+        <v>4029</v>
+      </c>
+      <c r="C1460" s="5" t="s">
+        <v>4032</v>
+      </c>
     </row>
     <row r="1461" spans="1:3">
-      <c r="A1461" s="1"/>
-      <c r="B1461" s="1"/>
-      <c r="C1461" s="1"/>
+      <c r="A1461" s="4" t="s">
+        <v>4033</v>
+      </c>
+      <c r="B1461" s="5" t="s">
+        <v>4034</v>
+      </c>
+      <c r="C1461" s="5" t="s">
+        <v>4035</v>
+      </c>
     </row>
     <row r="1462" spans="1:3">
-      <c r="A1462" s="1"/>
-      <c r="B1462" s="1"/>
-      <c r="C1462" s="1"/>
+      <c r="A1462" s="4" t="s">
+        <v>4036</v>
+      </c>
+      <c r="B1462" s="5" t="s">
+        <v>4036</v>
+      </c>
+      <c r="C1462" s="5" t="s">
+        <v>4037</v>
+      </c>
     </row>
     <row r="1463" spans="1:3">
-      <c r="A1463" s="1"/>
-      <c r="B1463" s="1"/>
-      <c r="C1463" s="1"/>
+      <c r="A1463" s="4" t="s">
+        <v>4038</v>
+      </c>
+      <c r="B1463" s="5" t="s">
+        <v>4039</v>
+      </c>
+      <c r="C1463" s="5" t="s">
+        <v>4040</v>
+      </c>
     </row>
     <row r="1464" spans="1:3">
-      <c r="A1464" s="1"/>
-      <c r="B1464" s="1"/>
-      <c r="C1464" s="1"/>
+      <c r="A1464" s="4" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B1464" s="5" t="s">
+        <v>4041</v>
+      </c>
+      <c r="C1464" s="5" t="s">
+        <v>4042</v>
+      </c>
     </row>
     <row r="1465" spans="1:3">
-      <c r="A1465" s="1"/>
-      <c r="B1465" s="1"/>
-      <c r="C1465" s="1"/>
+      <c r="A1465" s="4" t="s">
+        <v>4043</v>
+      </c>
+      <c r="B1465" s="5" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C1465" s="5" t="s">
+        <v>4044</v>
+      </c>
     </row>
     <row r="1466" spans="1:3">
-      <c r="A1466" s="1"/>
-      <c r="B1466" s="1"/>
-      <c r="C1466" s="1"/>
+      <c r="A1466" s="4" t="s">
+        <v>4045</v>
+      </c>
+      <c r="B1466" s="5" t="s">
+        <v>4046</v>
+      </c>
+      <c r="C1466" s="5" t="s">
+        <v>4047</v>
+      </c>
     </row>
     <row r="1467" spans="1:3">
-      <c r="A1467" s="1"/>
-      <c r="B1467" s="1"/>
-      <c r="C1467" s="1"/>
+      <c r="A1467" s="4" t="s">
+        <v>4048</v>
+      </c>
+      <c r="B1467" s="5" t="s">
+        <v>4049</v>
+      </c>
+      <c r="C1467" s="5" t="s">
+        <v>4050</v>
+      </c>
     </row>
     <row r="1468" spans="1:3">
-      <c r="A1468" s="1"/>
-      <c r="B1468" s="1"/>
-      <c r="C1468" s="1"/>
+      <c r="A1468" s="4" t="s">
+        <v>4051</v>
+      </c>
+      <c r="B1468" s="5" t="s">
+        <v>4052</v>
+      </c>
+      <c r="C1468" s="5" t="s">
+        <v>4032</v>
+      </c>
     </row>
     <row r="1469" spans="1:3">
-      <c r="A1469" s="1"/>
-      <c r="B1469" s="1"/>
-      <c r="C1469" s="1"/>
+      <c r="A1469" s="4" t="s">
+        <v>4053</v>
+      </c>
+      <c r="B1469" s="5" t="s">
+        <v>4054</v>
+      </c>
+      <c r="C1469" s="5" t="s">
+        <v>4055</v>
+      </c>
     </row>
     <row r="1470" spans="1:3">
-      <c r="A1470" s="1"/>
-      <c r="B1470" s="1"/>
-      <c r="C1470" s="1"/>
+      <c r="A1470" s="4" t="s">
+        <v>4056</v>
+      </c>
+      <c r="B1470" s="5" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C1470" s="5" t="s">
+        <v>4058</v>
+      </c>
     </row>
     <row r="1471" spans="1:3">
-      <c r="A1471" s="1"/>
-      <c r="B1471" s="1"/>
-      <c r="C1471" s="1"/>
+      <c r="A1471" s="4" t="s">
+        <v>4059</v>
+      </c>
+      <c r="B1471" s="5" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C1471" s="5" t="s">
+        <v>4060</v>
+      </c>
     </row>
     <row r="1472" spans="1:3">
-      <c r="A1472" s="1"/>
-      <c r="B1472" s="1"/>
-      <c r="C1472" s="1"/>
+      <c r="A1472" s="4" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B1472" s="5" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C1472" s="5" t="s">
+        <v>4062</v>
+      </c>
     </row>
     <row r="1473" spans="1:3">
-      <c r="A1473" s="1"/>
-      <c r="B1473" s="1"/>
-      <c r="C1473" s="1"/>
+      <c r="A1473" s="4" t="s">
+        <v>4063</v>
+      </c>
+      <c r="B1473" s="5" t="s">
+        <v>4064</v>
+      </c>
+      <c r="C1473" s="5" t="s">
+        <v>4065</v>
+      </c>
     </row>
     <row r="1474" spans="1:3">
-      <c r="A1474" s="1"/>
-      <c r="B1474" s="1"/>
-      <c r="C1474" s="1"/>
+      <c r="A1474" s="4" t="s">
+        <v>4066</v>
+      </c>
+      <c r="B1474" s="5" t="s">
+        <v>4067</v>
+      </c>
+      <c r="C1474" s="5" t="s">
+        <v>4068</v>
+      </c>
     </row>
     <row r="1475" spans="1:3">
-      <c r="A1475" s="1"/>
-      <c r="B1475" s="1"/>
-      <c r="C1475" s="1"/>
+      <c r="A1475" s="4" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B1475" s="5" t="s">
+        <v>3344</v>
+      </c>
+      <c r="C1475" s="5" t="s">
+        <v>3345</v>
+      </c>
     </row>
     <row r="1476" spans="1:3">
-      <c r="A1476" s="1"/>
-      <c r="B1476" s="1"/>
-      <c r="C1476" s="1"/>
+      <c r="A1476" s="4" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B1476" s="5" t="s">
+        <v>4070</v>
+      </c>
+      <c r="C1476" s="5" t="s">
+        <v>4071</v>
+      </c>
     </row>
     <row r="1477" spans="1:3">
-      <c r="A1477" s="1"/>
-      <c r="B1477" s="1"/>
-      <c r="C1477" s="1"/>
+      <c r="A1477" s="4" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1477" s="5" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C1477" s="5" t="s">
+        <v>4073</v>
+      </c>
     </row>
     <row r="1478" spans="1:3">
-      <c r="A1478" s="1"/>
-      <c r="B1478" s="1"/>
-      <c r="C1478" s="1"/>
+      <c r="A1478" s="4" t="s">
+        <v>4074</v>
+      </c>
+      <c r="B1478" s="5" t="s">
+        <v>4074</v>
+      </c>
+      <c r="C1478" s="5" t="s">
+        <v>4075</v>
+      </c>
     </row>
     <row r="1479" spans="1:3">
-      <c r="A1479" s="1"/>
-      <c r="B1479" s="1"/>
-      <c r="C1479" s="1"/>
+      <c r="A1479" s="4" t="s">
+        <v>4076</v>
+      </c>
+      <c r="B1479" s="5" t="s">
+        <v>4077</v>
+      </c>
+      <c r="C1479" s="5" t="s">
+        <v>4078</v>
+      </c>
     </row>
     <row r="1480" spans="1:3">
-      <c r="A1480" s="1"/>
-      <c r="B1480" s="1"/>
-      <c r="C1480" s="1"/>
+      <c r="A1480" s="4" t="s">
+        <v>4079</v>
+      </c>
+      <c r="B1480" s="5" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C1480" s="5" t="s">
+        <v>4080</v>
+      </c>
     </row>
     <row r="1481" spans="1:3">
-      <c r="A1481" s="1"/>
-      <c r="B1481" s="1"/>
-      <c r="C1481" s="1"/>
+      <c r="A1481" s="4" t="s">
+        <v>4081</v>
+      </c>
+      <c r="B1481" s="5" t="s">
+        <v>4081</v>
+      </c>
+      <c r="C1481" s="5" t="s">
+        <v>4082</v>
+      </c>
     </row>
     <row r="1482" spans="1:3">
-      <c r="A1482" s="1"/>
-      <c r="B1482" s="1"/>
-      <c r="C1482" s="1"/>
+      <c r="A1482" s="4" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B1482" s="5" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C1482" s="5" t="s">
+        <v>4085</v>
+      </c>
     </row>
     <row r="1483" spans="1:3">
-      <c r="A1483" s="1"/>
-      <c r="B1483" s="1"/>
-      <c r="C1483" s="1"/>
+      <c r="A1483" s="4" t="s">
+        <v>4086</v>
+      </c>
+      <c r="B1483" s="5" t="s">
+        <v>4087</v>
+      </c>
+      <c r="C1483" s="5" t="s">
+        <v>4088</v>
+      </c>
     </row>
     <row r="1484" spans="1:3">
-      <c r="A1484" s="1"/>
-      <c r="B1484" s="1"/>
-      <c r="C1484" s="1"/>
+      <c r="A1484" s="4" t="s">
+        <v>4089</v>
+      </c>
+      <c r="B1484" s="5" t="s">
+        <v>4087</v>
+      </c>
+      <c r="C1484" s="5" t="s">
+        <v>4090</v>
+      </c>
     </row>
     <row r="1485" spans="1:3">
-      <c r="A1485" s="1"/>
-      <c r="B1485" s="1"/>
-      <c r="C1485" s="1"/>
+      <c r="A1485" s="4" t="s">
+        <v>4091</v>
+      </c>
+      <c r="B1485" s="5" t="s">
+        <v>4091</v>
+      </c>
+      <c r="C1485" s="5" t="s">
+        <v>4092</v>
+      </c>
     </row>
     <row r="1486" spans="1:3">
-      <c r="A1486" s="1"/>
-      <c r="B1486" s="1"/>
-      <c r="C1486" s="1"/>
+      <c r="A1486" s="4" t="s">
+        <v>4093</v>
+      </c>
+      <c r="B1486" s="5" t="s">
+        <v>4094</v>
+      </c>
+      <c r="C1486" s="5" t="s">
+        <v>4095</v>
+      </c>
     </row>
     <row r="1487" spans="1:3">
-      <c r="A1487" s="1"/>
-      <c r="B1487" s="1"/>
-      <c r="C1487" s="1"/>
+      <c r="A1487" s="4" t="s">
+        <v>4096</v>
+      </c>
+      <c r="B1487" s="5" t="s">
+        <v>4096</v>
+      </c>
+      <c r="C1487" s="5" t="s">
+        <v>4097</v>
+      </c>
     </row>
     <row r="1488" spans="1:3">
-      <c r="A1488" s="1"/>
-      <c r="B1488" s="1"/>
-      <c r="C1488" s="1"/>
+      <c r="A1488" s="4" t="s">
+        <v>4098</v>
+      </c>
+      <c r="B1488" s="5" t="s">
+        <v>4098</v>
+      </c>
+      <c r="C1488" s="5" t="s">
+        <v>4099</v>
+      </c>
     </row>
     <row r="1489" spans="1:3">
-      <c r="A1489" s="1"/>
-      <c r="B1489" s="1"/>
-      <c r="C1489" s="1"/>
+      <c r="A1489" s="4" t="s">
+        <v>4140</v>
+      </c>
+      <c r="B1489" s="5" t="s">
+        <v>4100</v>
+      </c>
+      <c r="C1489" s="5" t="s">
+        <v>4139</v>
+      </c>
     </row>
     <row r="1490" spans="1:3">
-      <c r="A1490" s="1"/>
-      <c r="B1490" s="1"/>
-      <c r="C1490" s="1"/>
+      <c r="A1490" s="4" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B1490" s="5" t="s">
+        <v>3347</v>
+      </c>
+      <c r="C1490" s="5" t="s">
+        <v>3348</v>
+      </c>
     </row>
     <row r="1491" spans="1:3">
-      <c r="A1491" s="1"/>
-      <c r="B1491" s="1"/>
-      <c r="C1491" s="1"/>
+      <c r="A1491" s="4" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B1491" s="5" t="s">
+        <v>4101</v>
+      </c>
+      <c r="C1491" s="5" t="s">
+        <v>4102</v>
+      </c>
     </row>
     <row r="1492" spans="1:3">
-      <c r="A1492" s="1"/>
-      <c r="B1492" s="1"/>
-      <c r="C1492" s="1"/>
+      <c r="A1492" s="4" t="s">
+        <v>4103</v>
+      </c>
+      <c r="B1492" s="5" t="s">
+        <v>4103</v>
+      </c>
+      <c r="C1492" s="5" t="s">
+        <v>4104</v>
+      </c>
     </row>
     <row r="1493" spans="1:3">
-      <c r="A1493" s="1"/>
-      <c r="B1493" s="1"/>
-      <c r="C1493" s="1"/>
+      <c r="A1493" s="4" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B1493" s="5" t="s">
+        <v>4105</v>
+      </c>
+      <c r="C1493" s="5" t="s">
+        <v>4106</v>
+      </c>
     </row>
     <row r="1494" spans="1:3">
-      <c r="A1494" s="1"/>
-      <c r="B1494" s="1"/>
-      <c r="C1494" s="1"/>
+      <c r="A1494" s="4" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B1494" s="5" t="s">
+        <v>4107</v>
+      </c>
+      <c r="C1494" s="5" t="s">
+        <v>4108</v>
+      </c>
     </row>
     <row r="1495" spans="1:3">
-      <c r="A1495" s="1"/>
-      <c r="B1495" s="1"/>
-      <c r="C1495" s="1"/>
+      <c r="A1495" s="4" t="s">
+        <v>4109</v>
+      </c>
+      <c r="B1495" s="5" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C1495" s="5" t="s">
+        <v>4111</v>
+      </c>
     </row>
     <row r="1496" spans="1:3">
-      <c r="A1496" s="1"/>
-      <c r="B1496" s="1"/>
-      <c r="C1496" s="1"/>
+      <c r="A1496" s="4" t="s">
+        <v>4112</v>
+      </c>
+      <c r="B1496" s="5" t="s">
+        <v>4113</v>
+      </c>
+      <c r="C1496" s="5" t="s">
+        <v>4114</v>
+      </c>
     </row>
     <row r="1497" spans="1:3">
-      <c r="A1497" s="1"/>
-      <c r="B1497" s="1"/>
-      <c r="C1497" s="1"/>
+      <c r="A1497" s="4" t="s">
+        <v>4115</v>
+      </c>
+      <c r="B1497" s="5" t="s">
+        <v>4115</v>
+      </c>
+      <c r="C1497" s="5" t="s">
+        <v>4116</v>
+      </c>
     </row>
     <row r="1498" spans="1:3">
-      <c r="A1498" s="1"/>
-      <c r="B1498" s="1"/>
-      <c r="C1498" s="1"/>
+      <c r="A1498" s="4" t="s">
+        <v>4117</v>
+      </c>
+      <c r="B1498" s="5" t="s">
+        <v>4118</v>
+      </c>
+      <c r="C1498" s="5" t="s">
+        <v>4119</v>
+      </c>
     </row>
     <row r="1499" spans="1:3">
-      <c r="A1499" s="1"/>
-      <c r="B1499" s="1"/>
-      <c r="C1499" s="1"/>
+      <c r="A1499" s="4" t="s">
+        <v>4120</v>
+      </c>
+      <c r="B1499" s="5" t="s">
+        <v>4118</v>
+      </c>
+      <c r="C1499" s="5" t="s">
+        <v>4121</v>
+      </c>
     </row>
     <row r="1500" spans="1:3">
-      <c r="A1500" s="1"/>
-      <c r="B1500" s="1"/>
-      <c r="C1500" s="1"/>
+      <c r="A1500" s="4" t="s">
+        <v>4122</v>
+      </c>
+      <c r="B1500" s="5" t="s">
+        <v>4123</v>
+      </c>
+      <c r="C1500" s="5" t="s">
+        <v>4124</v>
+      </c>
     </row>
     <row r="1501" spans="1:3">
-      <c r="A1501" s="1"/>
-      <c r="B1501" s="1"/>
-      <c r="C1501" s="1"/>
+      <c r="A1501" s="4"/>
+      <c r="B1501" s="5"/>
+      <c r="C1501" s="5"/>
     </row>
     <row r="1502" spans="1:3">
-      <c r="A1502" s="1"/>
-      <c r="B1502" s="1"/>
-      <c r="C1502" s="1"/>
+      <c r="A1502" s="4"/>
+      <c r="B1502" s="5"/>
+      <c r="C1502" s="5"/>
     </row>
     <row r="1503" spans="1:3">
-      <c r="A1503" s="1"/>
-      <c r="B1503" s="1"/>
-      <c r="C1503" s="1"/>
+      <c r="A1503" s="4"/>
+      <c r="B1503" s="5"/>
+      <c r="C1503" s="5"/>
     </row>
     <row r="1504" spans="1:3">
       <c r="A1504" s="1"/>
@@ -32513,9 +36964,69 @@
       <c r="B1768" s="1"/>
       <c r="C1768" s="1"/>
     </row>
+    <row r="1769" spans="1:3">
+      <c r="A1769" s="1"/>
+      <c r="B1769" s="1"/>
+      <c r="C1769" s="1"/>
+    </row>
+    <row r="1770" spans="1:3">
+      <c r="A1770" s="1"/>
+      <c r="B1770" s="1"/>
+      <c r="C1770" s="1"/>
+    </row>
+    <row r="1771" spans="1:3">
+      <c r="A1771" s="1"/>
+      <c r="B1771" s="1"/>
+      <c r="C1771" s="1"/>
+    </row>
+    <row r="1772" spans="1:3">
+      <c r="A1772" s="1"/>
+      <c r="B1772" s="1"/>
+      <c r="C1772" s="1"/>
+    </row>
+    <row r="1773" spans="1:3">
+      <c r="A1773" s="1"/>
+      <c r="B1773" s="1"/>
+      <c r="C1773" s="1"/>
+    </row>
+    <row r="1774" spans="1:3">
+      <c r="A1774" s="1"/>
+      <c r="B1774" s="1"/>
+      <c r="C1774" s="1"/>
+    </row>
+    <row r="1775" spans="1:3">
+      <c r="A1775" s="1"/>
+      <c r="B1775" s="1"/>
+      <c r="C1775" s="1"/>
+    </row>
+    <row r="1776" spans="1:3">
+      <c r="A1776" s="1"/>
+      <c r="B1776" s="1"/>
+      <c r="C1776" s="1"/>
+    </row>
+    <row r="1777" spans="1:3">
+      <c r="A1777" s="1"/>
+      <c r="B1777" s="1"/>
+      <c r="C1777" s="1"/>
+    </row>
+    <row r="1778" spans="1:3">
+      <c r="A1778" s="1"/>
+      <c r="B1778" s="1"/>
+      <c r="C1778" s="1"/>
+    </row>
+    <row r="1779" spans="1:3">
+      <c r="A1779" s="1"/>
+      <c r="B1779" s="1"/>
+      <c r="C1779" s="1"/>
+    </row>
+    <row r="1780" spans="1:3">
+      <c r="A1780" s="1"/>
+      <c r="B1780" s="1"/>
+      <c r="C1780" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C1768">
-    <sortCondition ref="B1:B1768"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C1780">
+    <sortCondition ref="B1:B1780"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日本語/1_語彙.xlsx
+++ b/日本語/1_語彙.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeshafteure/Documents/GitHub/Freshmore/日本語/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DC5CEA-B6F0-314D-A1A1-D6A65C0BDBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B57980-1393-0F42-870C-4DA4AD344C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="13420" windowHeight="18900" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6300" uniqueCount="5796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6900" uniqueCount="6359">
   <si>
     <t>亜〜</t>
   </si>
@@ -24768,6 +24768,2208 @@
   <si>
     <t>rank, court rank, the crown, the throne</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>群</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぐんかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぐんじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くんしゅ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぐんしゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぐんたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぐんび</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぐんぷく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くんれん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>け</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜け</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～けい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜けい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいえい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいかく（する）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいぐ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいげん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいけん（する）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいこうとう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいこく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいさい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいざい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいさつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいしき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいしゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げいじゅつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいぞく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいそつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軍艦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軍事</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>君主</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>monarch, sovereign, ruler</t>
+  </si>
+  <si>
+    <t>warship, battleship</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>military affairs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>群集/群衆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軍隊</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軍備</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軍服</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>訓練</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（髪の）毛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～家</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～形/型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計</t>
+    <rPh sb="0" eb="1">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～系</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敬意</t>
+  </si>
+  <si>
+    <t>経緯</t>
+  </si>
+  <si>
+    <t>経営</t>
+  </si>
+  <si>
+    <t>経過</t>
+  </si>
+  <si>
+    <t>軽快</t>
+  </si>
+  <si>
+    <t>警戒</t>
+  </si>
+  <si>
+    <t>刑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計画（する）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警官</t>
+  </si>
+  <si>
+    <t>景気</t>
+  </si>
+  <si>
+    <t>契機</t>
+  </si>
+  <si>
+    <t>計器</t>
+  </si>
+  <si>
+    <t>敬具</t>
+  </si>
+  <si>
+    <t>軽減</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経験（する）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稽古</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敬語</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケイゴ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>形態</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケイタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傾向</t>
+  </si>
+  <si>
+    <t>警告</t>
+  </si>
+  <si>
+    <t>警察</t>
+  </si>
+  <si>
+    <t>計算</t>
+  </si>
+  <si>
+    <t>刑事</t>
+  </si>
+  <si>
+    <t>掲示</t>
+  </si>
+  <si>
+    <t>形式</t>
+  </si>
+  <si>
+    <t>傾斜</t>
+  </si>
+  <si>
+    <t>芸術</t>
+  </si>
+  <si>
+    <t>形勢</t>
+  </si>
+  <si>
+    <t>形成</t>
+  </si>
+  <si>
+    <t>蛍光灯</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ケイコウトウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲載</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケイサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継続</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケイゾク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽率</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケイソツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a crowd (of people)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>armaments, arms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>armed forces</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>military uniform</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>training, drill,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hair</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a family</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inferiority, meanness, baseness, the last volume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type, tense, shape</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a plan, a plot, the total, the grand total, a meter, a gauge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>system, subject</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>penalty, sentence, punishment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accomplishments, arts, performance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>respect, reverence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>how it came about, complication, the warp and woof, longitude and latitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>management</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>passage (of time), progress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>light, nimble</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>caution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plan (to do)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>business conditions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an opportunity, a chance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gauge, meter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yours truly, yours sincerely</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reduction, alleviation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>experience</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>practice, training, a lesson, a rehearsal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a term of respect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tendency</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fluorescent light</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>warning, a caution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carry, run</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>economy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>police</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calculation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detective</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>notice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>form, formality</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inclination, slope</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>art</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the situation, the state of affairs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>formation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>continuation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rashness, haste, carelessness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shape, form</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>携帯</t>
+  </si>
+  <si>
+    <t>経度</t>
+  </si>
+  <si>
+    <t>系統</t>
+  </si>
+  <si>
+    <t>芸能</t>
+  </si>
+  <si>
+    <t>競馬</t>
+  </si>
+  <si>
+    <t>経費</t>
+  </si>
+  <si>
+    <t>けいと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毛糸</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケイト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいとう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げいのう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいばつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刑罰</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケイバツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいひ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警備</t>
+  </si>
+  <si>
+    <t>けいび</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警部</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケイブ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽蔑</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケイベツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいべつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいやく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経由</t>
+  </si>
+  <si>
+    <t>けいゆ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいようし</t>
+  </si>
+  <si>
+    <t>形容詞</t>
+  </si>
+  <si>
+    <t>けいようどうし</t>
+  </si>
+  <si>
+    <t>形容動詞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいれき</t>
+  </si>
+  <si>
+    <t>経歴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経路</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケーキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怪我（する）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けが（する）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けがらわしい</t>
+  </si>
+  <si>
+    <t>けがわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毛皮</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>劇</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ゲキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>劇場</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲキジョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>激増</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲキゾウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>劇団</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲキダン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げきじょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げきぞう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げきだん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>激励</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲキレイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げきれい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今朝</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケサ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>景色</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケシキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けしき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消しゴム</t>
+    <rPh sb="0" eb="1">
+      <t>ケシゴム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けしごむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下車</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲシャ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げしゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下宿（する）</t>
+    <rPh sb="0" eb="2">
+      <t>ゲシュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げしゅく（する）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下旬</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲジュン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げじゅん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>化粧</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けしょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消す</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ケス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下水</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲスイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げすい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ケズル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けずる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桁</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ケタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下駄</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>獣</t>
+  </si>
+  <si>
+    <t>獣</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ケダモノ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けだもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けち</t>
+  </si>
+  <si>
+    <t>けつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けつあつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けつい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けつえき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けっか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+  </si>
+  <si>
+    <t>決</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>血压</t>
+  </si>
+  <si>
+    <t>決意</t>
+  </si>
+  <si>
+    <t>血液</t>
+  </si>
+  <si>
+    <t>to bring, portable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>woolen yarn/thread</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>longitude,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a system, genealogy, a school, a party</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public entertainment, performing arts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>horse racing, the races, a horse race</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>penally, punishment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>expense(s), upkeep, expenditure(s), outlay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>defense, defense, guard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>police inspector</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contempt, scorn, disdain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>agreement, contract</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>via, by way of; through</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an adjective, an epithet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>な adjective</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>career, one's (personal) history</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>course, route</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case (item)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case (e.g. police case)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>game</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>injury, hurt wound</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dirty, filthy, disgusting, obscene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fur</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drama, a play</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a theater, a theatre, a playhouse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a sudden increase/rise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>theatrical (dramatic) company</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>give encouragement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this morning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scene, scenery</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eraser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get off (a vehicle)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lodge, board (at a place)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the last ten days (of a month)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>makeup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>switch off, turn off</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sewage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a guest, a guest member</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shave, plane, remove, cut out, delete, erase, cut down, reduce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a beam, a girder, a reed, a place</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>geta, (a pair of) Japanese wooden clogs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beast, brute</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stingy, cheap (person)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decision, vote</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blood pressure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>determination, resolution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result, outcome, consequence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結核</t>
+  </si>
+  <si>
+    <t>血管</t>
+  </si>
+  <si>
+    <t>決議</t>
+  </si>
+  <si>
+    <t>結局</t>
+  </si>
+  <si>
+    <t>結構</t>
+  </si>
+  <si>
+    <t>決行</t>
+  </si>
+  <si>
+    <t>結合</t>
+  </si>
+  <si>
+    <t>傑作</t>
+  </si>
+  <si>
+    <t>決算</t>
+  </si>
+  <si>
+    <t>欠陥</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケッカン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けつかく</t>
+  </si>
+  <si>
+    <t>けつかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けつぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月給</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲッキュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げっきゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けっきょく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けっこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けつごう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けっこん（する）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結婚（する）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けっさく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けっさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決して</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ケッシテ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けっして</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けむたい</t>
+  </si>
+  <si>
+    <t>げんしょう</t>
+  </si>
+  <si>
+    <t>煙たい</t>
+  </si>
+  <si>
+    <t>煙</t>
+  </si>
+  <si>
+    <t>煙る</t>
+  </si>
+  <si>
+    <t>家来</t>
+  </si>
+  <si>
+    <t>下痢</t>
+  </si>
+  <si>
+    <t>蹴る</t>
+  </si>
+  <si>
+    <t>険しい</t>
+  </si>
+  <si>
+    <t>〜軒</t>
+  </si>
+  <si>
+    <t>県</t>
+  </si>
+  <si>
+    <t>～権</t>
+  </si>
+  <si>
+    <t>券</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>～圈</t>
+  </si>
+  <si>
+    <t>原因</t>
+  </si>
+  <si>
+    <t>見解</t>
+  </si>
+  <si>
+    <t>限界</t>
+  </si>
+  <si>
+    <t>見学</t>
+  </si>
+  <si>
+    <t>喧嘩（する）</t>
+  </si>
+  <si>
+    <t>玄関</t>
+  </si>
+  <si>
+    <t>元気</t>
+  </si>
+  <si>
+    <t>研究</t>
+  </si>
+  <si>
+    <t>研究室</t>
+  </si>
+  <si>
+    <t>研究（寸 ）</t>
+  </si>
+  <si>
+    <t>謙虚</t>
+  </si>
+  <si>
+    <t>権限</t>
+  </si>
+  <si>
+    <t>言語</t>
+  </si>
+  <si>
+    <t>健康</t>
+  </si>
+  <si>
+    <t>原稿</t>
+  </si>
+  <si>
+    <t>現行</t>
+  </si>
+  <si>
+    <t>検査</t>
+  </si>
+  <si>
+    <t>原産</t>
+  </si>
+  <si>
+    <t>検事</t>
+  </si>
+  <si>
+    <t>研修</t>
+  </si>
+  <si>
+    <t>厳重</t>
+  </si>
+  <si>
+    <t>原書</t>
+  </si>
+  <si>
+    <t>懸賞</t>
+  </si>
+  <si>
+    <t>現象</t>
+  </si>
+  <si>
+    <t>減少</t>
+  </si>
+  <si>
+    <t>現状</t>
+  </si>
+  <si>
+    <t>建設</t>
+  </si>
+  <si>
+    <t>健全</t>
+  </si>
+  <si>
+    <t>元素</t>
+  </si>
+  <si>
+    <t>現像</t>
+  </si>
+  <si>
+    <t>原則</t>
+  </si>
+  <si>
+    <t>謙遜</t>
+  </si>
+  <si>
+    <t>現代</t>
+  </si>
+  <si>
+    <t>見地</t>
+  </si>
+  <si>
+    <t>現地</t>
+  </si>
+  <si>
+    <t>建築</t>
+  </si>
+  <si>
+    <t>県庁</t>
+  </si>
+  <si>
+    <t>ticket, coupon</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>cause, occasion, the origin, factor</t>
+  </si>
+  <si>
+    <t>make a study (of), research</t>
+  </si>
+  <si>
+    <t>a manuscript, a copy, a draft, notes</t>
+  </si>
+  <si>
+    <t>atom</t>
+  </si>
+  <si>
+    <t>principle, general rule</t>
+  </si>
+  <si>
+    <t>the present age, today</t>
+  </si>
+  <si>
+    <t>a prefecture office, the prefecture authorities,</t>
+  </si>
+  <si>
+    <t>tuberculosis, T.B.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げっしゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月謝</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けつじょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠如</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けっしょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決勝</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケッショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a defect, a flaw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blood vessel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resolution, decision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a monthly salary, monthly pay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>after all, in the end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wonderful, excellent, quite, good enough</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carry out （resolutely）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>combination, union,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>marriage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a masterpiece, a fine piece of work</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>settlement of accounts,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>never, by no means</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>monthly fee for lessons, (monthly) tuition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>want, lack, shortage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the finals</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crystallization</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>organization, formation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an absence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>union, unity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>haggard, lose a lot of weight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>definite decision, determination</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decision, determination</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a fault, a shorteoming, a drawback, a weak point, a failing mark</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a monthly installment plan, a (monthly) hire-purchase system</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>want, shortage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end of the month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Monday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>conclusion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kick away, reject</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>speak ill, disparage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a sign, an indication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vulgar, coarse, indecent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smoky, feel awkward/uncomfortable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結晶</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケッショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決心</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケッシン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けっしん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けっせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠席</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結束</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けっせき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けっそく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げっそり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けつだん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決断</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けってい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けってん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠点</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月賦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げつぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けつぼう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠乏</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月末</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げつまつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げつよう／げつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月曜/月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月曜日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結論</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蹴飛ばす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けとばす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げつようび</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けつろん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けなす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けはい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気配</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下品</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>煙い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げひん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けむい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ばり</t>
+  </si>
+  <si>
+    <t>ける</t>
+  </si>
+  <si>
+    <t>けれど（も）</t>
+  </si>
+  <si>
+    <t>けむり</t>
+  </si>
+  <si>
+    <t>～けん</t>
+  </si>
+  <si>
+    <t>げんしゅ</t>
+  </si>
+  <si>
+    <t>けんしゅう</t>
+  </si>
+  <si>
+    <t>げんじゅう</t>
+  </si>
+  <si>
+    <t>けらい</t>
+  </si>
+  <si>
+    <t>げんじつ</t>
+  </si>
+  <si>
+    <t>けわしい</t>
+  </si>
+  <si>
+    <t>げん〜</t>
+  </si>
+  <si>
+    <t>けんじ</t>
+  </si>
+  <si>
+    <t>げんいん</t>
+  </si>
+  <si>
+    <t>けんかい</t>
+  </si>
+  <si>
+    <t>けんか（する）</t>
+  </si>
+  <si>
+    <t>げんしょ</t>
+  </si>
+  <si>
+    <t>げんかい</t>
+  </si>
+  <si>
+    <t>けんきゅう</t>
+  </si>
+  <si>
+    <t>けんきゅうしつ</t>
+  </si>
+  <si>
+    <t>けんきゆう（する）</t>
+  </si>
+  <si>
+    <t>けんきょ</t>
+  </si>
+  <si>
+    <t>けんぎょう</t>
+  </si>
+  <si>
+    <t>げんきん</t>
+  </si>
+  <si>
+    <t>けんげん</t>
+  </si>
+  <si>
+    <t>けんしょう</t>
+  </si>
+  <si>
+    <t>けん</t>
+  </si>
+  <si>
+    <t>げんけい</t>
+  </si>
+  <si>
+    <t>げんこう</t>
+  </si>
+  <si>
+    <t>けんさ</t>
+  </si>
+  <si>
+    <t>けんざい</t>
+  </si>
+  <si>
+    <t>げんざい</t>
+  </si>
+  <si>
+    <t>げんさく</t>
+  </si>
+  <si>
+    <t>げんさん</t>
+  </si>
+  <si>
+    <t>けむる</t>
+  </si>
+  <si>
+    <t>げんかん</t>
+  </si>
+  <si>
+    <t>げんご</t>
+  </si>
+  <si>
+    <t>げんし</t>
+  </si>
+  <si>
+    <t>げんじょう</t>
+  </si>
+  <si>
+    <t>けんぜん</t>
+  </si>
+  <si>
+    <t>げんそ</t>
+  </si>
+  <si>
+    <t>げんぞう</t>
+  </si>
+  <si>
+    <t>げんそく</t>
+  </si>
+  <si>
+    <t>けんそん</t>
+  </si>
+  <si>
+    <t>げんだい</t>
+  </si>
+  <si>
+    <t>けんち</t>
+  </si>
+  <si>
+    <t>げんち</t>
+  </si>
+  <si>
+    <t>けんちく</t>
+  </si>
+  <si>
+    <t>けもの</t>
+  </si>
+  <si>
+    <t>げんき</t>
+  </si>
+  <si>
+    <t>けんこう</t>
+  </si>
+  <si>
+    <t>けんせつ</t>
+  </si>
+  <si>
+    <t>けんちょう</t>
+  </si>
+  <si>
+    <t>現～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権威</t>
+  </si>
+  <si>
+    <t>けんがく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兼業</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現金</t>
+  </si>
+  <si>
+    <t>原形／原型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>健在</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原作</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲンサク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元首</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現実</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原始</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">smoke, fumes, cloud smoke, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smolder, look dim beast</t>
+  </si>
+  <si>
+    <t>retainer, follower, vassal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diarrhoea</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beast</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">kick, give a kick, refuse, reject, turn down </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>but, however</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>steep, severe, stern, grim, critical</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>door, house</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prefecture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smoky</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">business, a case, a matter, an affair, circumstances </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a sphere, a bloc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>current</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opinion, view, outlook</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">study by observation </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">quarrel, fight </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">entrance hall </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">healthy, vigor </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a limit, a boundary, a margin  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>study, research, investigation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>laboratory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modest, humble</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>additional operation, by-business</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cash</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model, prototype, archetype</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> commission, competence, authority, power</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>languape, speech</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>present, existing, current</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>health</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inspection, examination</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">alive and well </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the present, now</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the original (work)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>native</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public prosecutor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>primitive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reality, actuality, a hard fact</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>head of state</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>study and training</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strict, severe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the original (book, work)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prize, reward</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a phenomenon, a happening, a phase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decrease, reduction, diminution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the present situation, the actual situation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>construction, building, establishment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>healthy, sound</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>element</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>develop (film)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a point of view</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the spot, the field, the actual place</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>construction, building, architecture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>経</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>济</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -24857,7 +27059,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -24869,6 +27071,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -25204,10 +27409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD98CDC-2E6D-F340-BEA4-C5F884B9AAD8}">
-  <dimension ref="A1:F2100"/>
+  <dimension ref="A1:F2300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2041" zoomScale="126" workbookViewId="0">
-      <selection activeCell="C2049" sqref="C2049"/>
+    <sheetView tabSelected="1" topLeftCell="A2279" zoomScale="126" workbookViewId="0">
+      <selection activeCell="C2304" sqref="C2304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -48321,6 +50526,2206 @@
         <v>5755</v>
       </c>
     </row>
+    <row r="2101" spans="1:3">
+      <c r="A2101" s="2" t="s">
+        <v>5796</v>
+      </c>
+      <c r="B2101" s="2" t="s">
+        <v>5746</v>
+      </c>
+      <c r="C2101" s="2" t="s">
+        <v>5797</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:3">
+      <c r="A2102" s="2" t="s">
+        <v>5839</v>
+      </c>
+      <c r="B2102" s="2" t="s">
+        <v>5798</v>
+      </c>
+      <c r="C2102" s="2" t="s">
+        <v>5843</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:3">
+      <c r="A2103" s="2" t="s">
+        <v>5840</v>
+      </c>
+      <c r="B2103" s="2" t="s">
+        <v>5799</v>
+      </c>
+      <c r="C2103" s="2" t="s">
+        <v>5844</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:3">
+      <c r="A2104" s="2" t="s">
+        <v>5841</v>
+      </c>
+      <c r="B2104" s="2" t="s">
+        <v>5800</v>
+      </c>
+      <c r="C2104" s="2" t="s">
+        <v>5842</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:3">
+      <c r="A2105" s="2" t="s">
+        <v>5845</v>
+      </c>
+      <c r="B2105" s="2" t="s">
+        <v>5801</v>
+      </c>
+      <c r="C2105" s="2" t="s">
+        <v>5891</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:3">
+      <c r="A2106" s="2" t="s">
+        <v>5846</v>
+      </c>
+      <c r="B2106" s="2" t="s">
+        <v>5802</v>
+      </c>
+      <c r="C2106" s="2" t="s">
+        <v>5893</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:3">
+      <c r="A2107" s="2" t="s">
+        <v>5847</v>
+      </c>
+      <c r="B2107" s="2" t="s">
+        <v>5803</v>
+      </c>
+      <c r="C2107" s="2" t="s">
+        <v>5892</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:3">
+      <c r="A2108" s="2" t="s">
+        <v>5848</v>
+      </c>
+      <c r="B2108" s="2" t="s">
+        <v>5804</v>
+      </c>
+      <c r="C2108" s="2" t="s">
+        <v>5894</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:3">
+      <c r="A2109" s="2" t="s">
+        <v>5849</v>
+      </c>
+      <c r="B2109" s="2" t="s">
+        <v>5805</v>
+      </c>
+      <c r="C2109" s="2" t="s">
+        <v>5895</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:3">
+      <c r="A2110" s="2" t="s">
+        <v>5850</v>
+      </c>
+      <c r="B2110" s="2" t="s">
+        <v>5806</v>
+      </c>
+      <c r="C2110" s="2" t="s">
+        <v>5896</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:3">
+      <c r="A2111" s="2" t="s">
+        <v>5851</v>
+      </c>
+      <c r="B2111" s="2" t="s">
+        <v>5806</v>
+      </c>
+      <c r="C2111" s="2" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:3">
+      <c r="A2112" s="2" t="s">
+        <v>5852</v>
+      </c>
+      <c r="B2112" s="2" t="s">
+        <v>5807</v>
+      </c>
+      <c r="C2112" s="2" t="s">
+        <v>5897</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:3">
+      <c r="A2113" s="2" t="s">
+        <v>5853</v>
+      </c>
+      <c r="B2113" s="2" t="s">
+        <v>5808</v>
+      </c>
+      <c r="C2113" s="2" t="s">
+        <v>5898</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:3">
+      <c r="A2114" s="2" t="s">
+        <v>5854</v>
+      </c>
+      <c r="B2114" s="2" t="s">
+        <v>5809</v>
+      </c>
+      <c r="C2114" s="2" t="s">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:3">
+      <c r="A2115" s="2" t="s">
+        <v>5855</v>
+      </c>
+      <c r="B2115" s="2" t="s">
+        <v>5810</v>
+      </c>
+      <c r="C2115" s="2" t="s">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:3">
+      <c r="A2116" s="2" t="s">
+        <v>5856</v>
+      </c>
+      <c r="B2116" s="2" t="s">
+        <v>5811</v>
+      </c>
+      <c r="C2116" s="2" t="s">
+        <v>5901</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:3">
+      <c r="A2117" s="2" t="s">
+        <v>5863</v>
+      </c>
+      <c r="B2117" s="2" t="s">
+        <v>5810</v>
+      </c>
+      <c r="C2117" s="2" t="s">
+        <v>5902</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:3">
+      <c r="A2118" s="2" t="s">
+        <v>5864</v>
+      </c>
+      <c r="B2118" s="2" t="s">
+        <v>5812</v>
+      </c>
+      <c r="C2118" s="2" t="s">
+        <v>5903</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:3">
+      <c r="A2119" s="2" t="s">
+        <v>5857</v>
+      </c>
+      <c r="B2119" s="2" t="s">
+        <v>5813</v>
+      </c>
+      <c r="C2119" s="2" t="s">
+        <v>5904</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:3">
+      <c r="A2120" s="2" t="s">
+        <v>5858</v>
+      </c>
+      <c r="B2120" s="2" t="s">
+        <v>5813</v>
+      </c>
+      <c r="C2120" s="2" t="s">
+        <v>5905</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:3">
+      <c r="A2121" s="2" t="s">
+        <v>5859</v>
+      </c>
+      <c r="B2121" s="2" t="s">
+        <v>5814</v>
+      </c>
+      <c r="C2121" s="2" t="s">
+        <v>5906</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:3">
+      <c r="A2122" s="2" t="s">
+        <v>5860</v>
+      </c>
+      <c r="B2122" s="2" t="s">
+        <v>5815</v>
+      </c>
+      <c r="C2122" s="2" t="s">
+        <v>5907</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:3">
+      <c r="A2123" s="2" t="s">
+        <v>5861</v>
+      </c>
+      <c r="B2123" s="2" t="s">
+        <v>5816</v>
+      </c>
+      <c r="C2123" s="2" t="s">
+        <v>5908</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:3">
+      <c r="A2124" s="2" t="s">
+        <v>5862</v>
+      </c>
+      <c r="B2124" s="2" t="s">
+        <v>5816</v>
+      </c>
+      <c r="C2124" s="2" t="s">
+        <v>5909</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:3">
+      <c r="A2125" s="2" t="s">
+        <v>5865</v>
+      </c>
+      <c r="B2125" s="2" t="s">
+        <v>5817</v>
+      </c>
+      <c r="C2125" s="2" t="s">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:3">
+      <c r="A2126" s="2" t="s">
+        <v>5866</v>
+      </c>
+      <c r="B2126" s="2" t="s">
+        <v>5818</v>
+      </c>
+      <c r="C2126" s="2" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:3">
+      <c r="A2127" s="2" t="s">
+        <v>5867</v>
+      </c>
+      <c r="B2127" s="2" t="s">
+        <v>5819</v>
+      </c>
+      <c r="C2127" s="2" t="s">
+        <v>5911</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:3">
+      <c r="A2128" s="2" t="s">
+        <v>5868</v>
+      </c>
+      <c r="B2128" s="2" t="s">
+        <v>5819</v>
+      </c>
+      <c r="C2128" s="2" t="s">
+        <v>5912</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:3">
+      <c r="A2129" s="2" t="s">
+        <v>5869</v>
+      </c>
+      <c r="B2129" s="2" t="s">
+        <v>5819</v>
+      </c>
+      <c r="C2129" s="2" t="s">
+        <v>5913</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:3">
+      <c r="A2130" s="2" t="s">
+        <v>5870</v>
+      </c>
+      <c r="B2130" s="2" t="s">
+        <v>5820</v>
+      </c>
+      <c r="C2130" s="2" t="s">
+        <v>5914</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:3">
+      <c r="A2131" s="2" t="s">
+        <v>5871</v>
+      </c>
+      <c r="B2131" s="2" t="s">
+        <v>5821</v>
+      </c>
+      <c r="C2131" s="2" t="s">
+        <v>5915</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:3">
+      <c r="A2132" s="2" t="s">
+        <v>5872</v>
+      </c>
+      <c r="B2132" s="2" t="s">
+        <v>5822</v>
+      </c>
+      <c r="C2132" s="2" t="s">
+        <v>5916</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:3">
+      <c r="A2133" s="2" t="s">
+        <v>5873</v>
+      </c>
+      <c r="B2133" s="2" t="s">
+        <v>5823</v>
+      </c>
+      <c r="C2133" s="2" t="s">
+        <v>5917</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:3">
+      <c r="A2134" s="2" t="s">
+        <v>5874</v>
+      </c>
+      <c r="B2134" s="2" t="s">
+        <v>5824</v>
+      </c>
+      <c r="C2134" s="2" t="s">
+        <v>5918</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:3">
+      <c r="A2135" s="2" t="s">
+        <v>5876</v>
+      </c>
+      <c r="B2135" s="2" t="s">
+        <v>5825</v>
+      </c>
+      <c r="C2135" s="2" t="s">
+        <v>5919</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:3">
+      <c r="A2136" s="2" t="s">
+        <v>5887</v>
+      </c>
+      <c r="B2136" s="2" t="s">
+        <v>5826</v>
+      </c>
+      <c r="C2136" s="2" t="s">
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:3">
+      <c r="A2137" s="2" t="s">
+        <v>5877</v>
+      </c>
+      <c r="B2137" s="2" t="s">
+        <v>5827</v>
+      </c>
+      <c r="C2137" s="2" t="s">
+        <v>5921</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:3">
+      <c r="A2138" s="2" t="s">
+        <v>5888</v>
+      </c>
+      <c r="B2138" s="2" t="s">
+        <v>5828</v>
+      </c>
+      <c r="C2138" s="2" t="s">
+        <v>5922</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:3">
+      <c r="A2139" s="2" t="s">
+        <v>6358</v>
+      </c>
+      <c r="B2139" s="2" t="s">
+        <v>5829</v>
+      </c>
+      <c r="C2139" s="2" t="s">
+        <v>5923</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:3">
+      <c r="A2140" s="2" t="s">
+        <v>5878</v>
+      </c>
+      <c r="B2140" s="2" t="s">
+        <v>5830</v>
+      </c>
+      <c r="C2140" s="2" t="s">
+        <v>5924</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:3">
+      <c r="A2141" s="2" t="s">
+        <v>5879</v>
+      </c>
+      <c r="B2141" s="2" t="s">
+        <v>5831</v>
+      </c>
+      <c r="C2141" s="2" t="s">
+        <v>5925</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:3">
+      <c r="A2142" s="2" t="s">
+        <v>5880</v>
+      </c>
+      <c r="B2142" s="2" t="s">
+        <v>5832</v>
+      </c>
+      <c r="C2142" s="2" t="s">
+        <v>5926</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:3">
+      <c r="A2143" s="2" t="s">
+        <v>5881</v>
+      </c>
+      <c r="B2143" s="2" t="s">
+        <v>5832</v>
+      </c>
+      <c r="C2143" s="2" t="s">
+        <v>5927</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:3">
+      <c r="A2144" s="2" t="s">
+        <v>5882</v>
+      </c>
+      <c r="B2144" s="2" t="s">
+        <v>5833</v>
+      </c>
+      <c r="C2144" s="2" t="s">
+        <v>5928</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:3">
+      <c r="A2145" s="2" t="s">
+        <v>5883</v>
+      </c>
+      <c r="B2145" s="2" t="s">
+        <v>5834</v>
+      </c>
+      <c r="C2145" s="2" t="s">
+        <v>5929</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:3">
+      <c r="A2146" s="2" t="s">
+        <v>5884</v>
+      </c>
+      <c r="B2146" s="2" t="s">
+        <v>5835</v>
+      </c>
+      <c r="C2146" s="2" t="s">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:3">
+      <c r="A2147" s="2" t="s">
+        <v>5885</v>
+      </c>
+      <c r="B2147" s="2" t="s">
+        <v>5836</v>
+      </c>
+      <c r="C2147" s="2" t="s">
+        <v>5931</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:3">
+      <c r="A2148" s="2" t="s">
+        <v>5886</v>
+      </c>
+      <c r="B2148" s="2" t="s">
+        <v>5836</v>
+      </c>
+      <c r="C2148" s="2" t="s">
+        <v>5932</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:3">
+      <c r="A2149" s="2" t="s">
+        <v>5889</v>
+      </c>
+      <c r="B2149" s="2" t="s">
+        <v>5837</v>
+      </c>
+      <c r="C2149" s="2" t="s">
+        <v>5933</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:3">
+      <c r="A2150" s="2" t="s">
+        <v>5890</v>
+      </c>
+      <c r="B2150" s="2" t="s">
+        <v>5838</v>
+      </c>
+      <c r="C2150" s="2" t="s">
+        <v>5934</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:3">
+      <c r="A2151" s="2" t="s">
+        <v>5875</v>
+      </c>
+      <c r="B2151" s="2" t="s">
+        <v>5936</v>
+      </c>
+      <c r="C2151" s="2" t="s">
+        <v>5935</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:3">
+      <c r="A2152" s="2" t="s">
+        <v>5937</v>
+      </c>
+      <c r="B2152" s="2" t="s">
+        <v>5936</v>
+      </c>
+      <c r="C2152" s="2" t="s">
+        <v>6027</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:3">
+      <c r="A2153" s="2" t="s">
+        <v>5944</v>
+      </c>
+      <c r="B2153" s="2" t="s">
+        <v>5943</v>
+      </c>
+      <c r="C2153" s="2" t="s">
+        <v>6028</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:3">
+      <c r="A2154" s="2" t="s">
+        <v>5938</v>
+      </c>
+      <c r="B2154" s="2" t="s">
+        <v>5945</v>
+      </c>
+      <c r="C2154" s="2" t="s">
+        <v>6029</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:3">
+      <c r="A2155" s="2" t="s">
+        <v>5939</v>
+      </c>
+      <c r="B2155" s="2" t="s">
+        <v>5946</v>
+      </c>
+      <c r="C2155" s="2" t="s">
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:3">
+      <c r="A2156" s="2" t="s">
+        <v>5940</v>
+      </c>
+      <c r="B2156" s="2" t="s">
+        <v>5947</v>
+      </c>
+      <c r="C2156" s="2" t="s">
+        <v>6031</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:3">
+      <c r="A2157" s="2" t="s">
+        <v>5941</v>
+      </c>
+      <c r="B2157" s="2" t="s">
+        <v>5948</v>
+      </c>
+      <c r="C2157" s="2" t="s">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:3">
+      <c r="A2158" s="2" t="s">
+        <v>5950</v>
+      </c>
+      <c r="B2158" s="2" t="s">
+        <v>5949</v>
+      </c>
+      <c r="C2158" s="2" t="s">
+        <v>6033</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:3">
+      <c r="A2159" s="2" t="s">
+        <v>5942</v>
+      </c>
+      <c r="B2159" s="2" t="s">
+        <v>5951</v>
+      </c>
+      <c r="C2159" s="2" t="s">
+        <v>6034</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:3">
+      <c r="A2160" s="2" t="s">
+        <v>5952</v>
+      </c>
+      <c r="B2160" s="2" t="s">
+        <v>5953</v>
+      </c>
+      <c r="C2160" s="2" t="s">
+        <v>6035</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:3">
+      <c r="A2161" s="2" t="s">
+        <v>5955</v>
+      </c>
+      <c r="B2161" s="2" t="s">
+        <v>5954</v>
+      </c>
+      <c r="C2161" s="2" t="s">
+        <v>6036</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:3">
+      <c r="A2162" s="2" t="s">
+        <v>5956</v>
+      </c>
+      <c r="B2162" s="2" t="s">
+        <v>5957</v>
+      </c>
+      <c r="C2162" s="2" t="s">
+        <v>6037</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:3">
+      <c r="A2163" s="2" t="s">
+        <v>5959</v>
+      </c>
+      <c r="B2163" s="2" t="s">
+        <v>5958</v>
+      </c>
+      <c r="C2163" s="2" t="s">
+        <v>6038</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:3">
+      <c r="A2164" s="2" t="s">
+        <v>5960</v>
+      </c>
+      <c r="B2164" s="2" t="s">
+        <v>5961</v>
+      </c>
+      <c r="C2164" s="2" t="s">
+        <v>6039</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:3">
+      <c r="A2165" s="2" t="s">
+        <v>5963</v>
+      </c>
+      <c r="B2165" s="2" t="s">
+        <v>5962</v>
+      </c>
+      <c r="C2165" s="2" t="s">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:3">
+      <c r="A2166" s="2" t="s">
+        <v>5965</v>
+      </c>
+      <c r="B2166" s="2" t="s">
+        <v>5964</v>
+      </c>
+      <c r="C2166" s="2" t="s">
+        <v>6041</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:3">
+      <c r="A2167" s="2" t="s">
+        <v>5967</v>
+      </c>
+      <c r="B2167" s="2" t="s">
+        <v>5966</v>
+      </c>
+      <c r="C2167" s="2" t="s">
+        <v>6042</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:3">
+      <c r="A2168" s="2" t="s">
+        <v>5969</v>
+      </c>
+      <c r="B2168" s="2" t="s">
+        <v>5968</v>
+      </c>
+      <c r="C2168" s="2" t="s">
+        <v>6043</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:3">
+      <c r="A2169" s="2" t="s">
+        <v>5970</v>
+      </c>
+      <c r="B2169" s="2" t="s">
+        <v>5970</v>
+      </c>
+      <c r="C2169" s="2" t="s">
+        <v>6044</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:3">
+      <c r="A2170" s="2" t="s">
+        <v>5971</v>
+      </c>
+      <c r="B2170" s="2" t="s">
+        <v>5971</v>
+      </c>
+      <c r="C2170" s="2" t="s">
+        <v>6045</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:3">
+      <c r="A2171" s="2" t="s">
+        <v>5971</v>
+      </c>
+      <c r="B2171" s="2" t="s">
+        <v>5971</v>
+      </c>
+      <c r="C2171" s="2" t="s">
+        <v>6046</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:3">
+      <c r="A2172" s="2" t="s">
+        <v>5972</v>
+      </c>
+      <c r="B2172" s="2" t="s">
+        <v>5972</v>
+      </c>
+      <c r="C2172" s="2" t="s">
+        <v>6047</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:3">
+      <c r="A2173" s="2" t="s">
+        <v>5973</v>
+      </c>
+      <c r="B2173" s="2" t="s">
+        <v>5974</v>
+      </c>
+      <c r="C2173" s="2" t="s">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:3">
+      <c r="A2174" s="2" t="s">
+        <v>5975</v>
+      </c>
+      <c r="B2174" s="2" t="s">
+        <v>5975</v>
+      </c>
+      <c r="C2174" s="2" t="s">
+        <v>6049</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:3">
+      <c r="A2175" s="2" t="s">
+        <v>5977</v>
+      </c>
+      <c r="B2175" s="2" t="s">
+        <v>5976</v>
+      </c>
+      <c r="C2175" s="2" t="s">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:3">
+      <c r="A2176" s="2" t="s">
+        <v>5979</v>
+      </c>
+      <c r="B2176" s="2" t="s">
+        <v>5978</v>
+      </c>
+      <c r="C2176" s="2" t="s">
+        <v>6051</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:3">
+      <c r="A2177" s="2" t="s">
+        <v>5980</v>
+      </c>
+      <c r="B2177" s="2" t="s">
+        <v>5983</v>
+      </c>
+      <c r="C2177" s="2" t="s">
+        <v>6052</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:3">
+      <c r="A2178" s="2" t="s">
+        <v>5981</v>
+      </c>
+      <c r="B2178" s="2" t="s">
+        <v>5984</v>
+      </c>
+      <c r="C2178" s="2" t="s">
+        <v>6053</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:3">
+      <c r="A2179" s="2" t="s">
+        <v>5982</v>
+      </c>
+      <c r="B2179" s="2" t="s">
+        <v>5985</v>
+      </c>
+      <c r="C2179" s="2" t="s">
+        <v>6054</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:3">
+      <c r="A2180" s="2" t="s">
+        <v>5986</v>
+      </c>
+      <c r="B2180" s="2" t="s">
+        <v>5987</v>
+      </c>
+      <c r="C2180" s="2" t="s">
+        <v>6055</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:3">
+      <c r="A2181" s="2" t="s">
+        <v>5988</v>
+      </c>
+      <c r="B2181" s="2" t="s">
+        <v>5989</v>
+      </c>
+      <c r="C2181" s="2" t="s">
+        <v>6056</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:3">
+      <c r="A2182" s="2" t="s">
+        <v>5990</v>
+      </c>
+      <c r="B2182" s="2" t="s">
+        <v>5991</v>
+      </c>
+      <c r="C2182" s="2" t="s">
+        <v>6057</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:3">
+      <c r="A2183" s="2" t="s">
+        <v>5992</v>
+      </c>
+      <c r="B2183" s="2" t="s">
+        <v>5993</v>
+      </c>
+      <c r="C2183" s="2" t="s">
+        <v>6058</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:3">
+      <c r="A2184" s="2" t="s">
+        <v>5994</v>
+      </c>
+      <c r="B2184" s="2" t="s">
+        <v>5995</v>
+      </c>
+      <c r="C2184" s="2" t="s">
+        <v>6059</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:3">
+      <c r="A2185" s="2" t="s">
+        <v>5996</v>
+      </c>
+      <c r="B2185" s="2" t="s">
+        <v>5997</v>
+      </c>
+      <c r="C2185" s="2" t="s">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:3">
+      <c r="A2186" s="2" t="s">
+        <v>5998</v>
+      </c>
+      <c r="B2186" s="2" t="s">
+        <v>5999</v>
+      </c>
+      <c r="C2186" s="2" t="s">
+        <v>6061</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:3">
+      <c r="A2187" s="2" t="s">
+        <v>6000</v>
+      </c>
+      <c r="B2187" s="2" t="s">
+        <v>6001</v>
+      </c>
+      <c r="C2187" s="2" t="s">
+        <v>6062</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:3">
+      <c r="A2188" s="2" t="s">
+        <v>6002</v>
+      </c>
+      <c r="B2188" s="2" t="s">
+        <v>6003</v>
+      </c>
+      <c r="C2188" s="2" t="s">
+        <v>6063</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:3">
+      <c r="A2189" s="2" t="s">
+        <v>6004</v>
+      </c>
+      <c r="B2189" s="2" t="s">
+        <v>6005</v>
+      </c>
+      <c r="C2189" s="2" t="s">
+        <v>6064</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:3">
+      <c r="A2190" s="2" t="s">
+        <v>6006</v>
+      </c>
+      <c r="B2190" s="2" t="s">
+        <v>6006</v>
+      </c>
+      <c r="C2190" s="2" t="s">
+        <v>6065</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:3">
+      <c r="A2191" s="2" t="s">
+        <v>6007</v>
+      </c>
+      <c r="B2191" s="2" t="s">
+        <v>6008</v>
+      </c>
+      <c r="C2191" s="2" t="s">
+        <v>6066</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:3">
+      <c r="A2192" s="2" t="s">
+        <v>6009</v>
+      </c>
+      <c r="B2192" s="2" t="s">
+        <v>6010</v>
+      </c>
+      <c r="C2192" s="2" t="s">
+        <v>6067</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:3">
+      <c r="A2193" s="2" t="s">
+        <v>6011</v>
+      </c>
+      <c r="B2193" s="2" t="s">
+        <v>6012</v>
+      </c>
+      <c r="C2193" s="2" t="s">
+        <v>6068</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:3">
+      <c r="A2194" s="2" t="s">
+        <v>6014</v>
+      </c>
+      <c r="B2194" s="2" t="s">
+        <v>6015</v>
+      </c>
+      <c r="C2194" s="2" t="s">
+        <v>6069</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:3">
+      <c r="A2195" s="2" t="s">
+        <v>6016</v>
+      </c>
+      <c r="B2195" s="2" t="s">
+        <v>6016</v>
+      </c>
+      <c r="C2195" s="2" t="s">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:3">
+      <c r="A2196" s="2" t="s">
+        <v>6023</v>
+      </c>
+      <c r="B2196" s="2" t="s">
+        <v>6017</v>
+      </c>
+      <c r="C2196" s="2" t="s">
+        <v>6071</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:3">
+      <c r="A2197" s="2" t="s">
+        <v>6024</v>
+      </c>
+      <c r="B2197" s="2" t="s">
+        <v>6018</v>
+      </c>
+      <c r="C2197" s="2" t="s">
+        <v>6072</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:3">
+      <c r="A2198" s="2" t="s">
+        <v>6025</v>
+      </c>
+      <c r="B2198" s="2" t="s">
+        <v>6019</v>
+      </c>
+      <c r="C2198" s="2" t="s">
+        <v>6073</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:3">
+      <c r="A2199" s="2" t="s">
+        <v>6026</v>
+      </c>
+      <c r="B2199" s="2" t="s">
+        <v>6020</v>
+      </c>
+      <c r="C2199" s="2" t="s">
+        <v>6074</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:3">
+      <c r="A2200" s="2" t="s">
+        <v>6022</v>
+      </c>
+      <c r="B2200" s="2" t="s">
+        <v>6021</v>
+      </c>
+      <c r="C2200" s="2" t="s">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:3">
+      <c r="A2201" s="2" t="s">
+        <v>6076</v>
+      </c>
+      <c r="B2201" s="2" t="s">
+        <v>6086</v>
+      </c>
+      <c r="C2201" s="2" t="s">
+        <v>6161</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:3">
+      <c r="A2202" s="2" t="s">
+        <v>6085</v>
+      </c>
+      <c r="B2202" s="2" t="s">
+        <v>6087</v>
+      </c>
+      <c r="C2202" s="2" t="s">
+        <v>6168</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:3">
+      <c r="A2203" s="2" t="s">
+        <v>6077</v>
+      </c>
+      <c r="B2203" s="2" t="s">
+        <v>6087</v>
+      </c>
+      <c r="C2203" s="2" t="s">
+        <v>6169</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:3">
+      <c r="A2204" s="2" t="s">
+        <v>6078</v>
+      </c>
+      <c r="B2204" s="2" t="s">
+        <v>6088</v>
+      </c>
+      <c r="C2204" s="2" t="s">
+        <v>6170</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:3">
+      <c r="A2205" s="2" t="s">
+        <v>6089</v>
+      </c>
+      <c r="B2205" s="2" t="s">
+        <v>6090</v>
+      </c>
+      <c r="C2205" s="2" t="s">
+        <v>6171</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:3">
+      <c r="A2206" s="2" t="s">
+        <v>6079</v>
+      </c>
+      <c r="B2206" s="2" t="s">
+        <v>6091</v>
+      </c>
+      <c r="C2206" s="2" t="s">
+        <v>6172</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:3">
+      <c r="A2207" s="2" t="s">
+        <v>6080</v>
+      </c>
+      <c r="B2207" s="2" t="s">
+        <v>6092</v>
+      </c>
+      <c r="C2207" s="2" t="s">
+        <v>6173</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:3">
+      <c r="A2208" s="2" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B2208" s="2" t="s">
+        <v>6092</v>
+      </c>
+      <c r="C2208" s="2" t="s">
+        <v>6174</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:3">
+      <c r="A2209" s="2" t="s">
+        <v>6082</v>
+      </c>
+      <c r="B2209" s="2" t="s">
+        <v>6093</v>
+      </c>
+      <c r="C2209" s="2" t="s">
+        <v>6175</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:3">
+      <c r="A2210" s="2" t="s">
+        <v>6095</v>
+      </c>
+      <c r="B2210" s="2" t="s">
+        <v>6094</v>
+      </c>
+      <c r="C2210" s="2" t="s">
+        <v>6176</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:3">
+      <c r="A2211" s="2" t="s">
+        <v>6083</v>
+      </c>
+      <c r="B2211" s="2" t="s">
+        <v>6096</v>
+      </c>
+      <c r="C2211" s="2" t="s">
+        <v>6177</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:3">
+      <c r="A2212" s="2" t="s">
+        <v>6084</v>
+      </c>
+      <c r="B2212" s="2" t="s">
+        <v>6097</v>
+      </c>
+      <c r="C2212" s="2" t="s">
+        <v>6178</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:3">
+      <c r="A2213" s="2" t="s">
+        <v>6098</v>
+      </c>
+      <c r="B2213" s="2" t="s">
+        <v>6099</v>
+      </c>
+      <c r="C2213" s="2" t="s">
+        <v>6179</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:3">
+      <c r="A2214" s="2" t="s">
+        <v>6163</v>
+      </c>
+      <c r="B2214" s="2" t="s">
+        <v>6162</v>
+      </c>
+      <c r="C2214" s="2" t="s">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:3">
+      <c r="A2215" s="2" t="s">
+        <v>6165</v>
+      </c>
+      <c r="B2215" s="2" t="s">
+        <v>6164</v>
+      </c>
+      <c r="C2215" s="2" t="s">
+        <v>6181</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:3" ht="18">
+      <c r="A2216" s="2" t="s">
+        <v>6167</v>
+      </c>
+      <c r="B2216" s="4" t="s">
+        <v>6166</v>
+      </c>
+      <c r="C2216" s="2" t="s">
+        <v>6182</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:3" ht="18">
+      <c r="A2217" s="2" t="s">
+        <v>6201</v>
+      </c>
+      <c r="B2217" s="4" t="s">
+        <v>6166</v>
+      </c>
+      <c r="C2217" s="2" t="s">
+        <v>6183</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:3">
+      <c r="A2218" s="2" t="s">
+        <v>6202</v>
+      </c>
+      <c r="B2218" s="2" t="s">
+        <v>6203</v>
+      </c>
+      <c r="C2218" s="2" t="s">
+        <v>6073</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:3">
+      <c r="A2219" s="2" t="s">
+        <v>6205</v>
+      </c>
+      <c r="B2219" s="2" t="s">
+        <v>6204</v>
+      </c>
+      <c r="C2219" s="2" t="s">
+        <v>6184</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:3">
+      <c r="A2220" s="2" t="s">
+        <v>6206</v>
+      </c>
+      <c r="B2220" s="2" t="s">
+        <v>6208</v>
+      </c>
+      <c r="C2220" s="2" t="s">
+        <v>6185</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:3">
+      <c r="A2221" s="2" t="s">
+        <v>6207</v>
+      </c>
+      <c r="B2221" s="2" t="s">
+        <v>6209</v>
+      </c>
+      <c r="C2221" s="2" t="s">
+        <v>6186</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:3">
+      <c r="A2222" s="2" t="s">
+        <v>6210</v>
+      </c>
+      <c r="B2222" s="2" t="s">
+        <v>6210</v>
+      </c>
+      <c r="C2222" s="2" t="s">
+        <v>6187</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:3">
+      <c r="A2223" s="2" t="s">
+        <v>6212</v>
+      </c>
+      <c r="B2223" s="2" t="s">
+        <v>6211</v>
+      </c>
+      <c r="C2223" s="2" t="s">
+        <v>6188</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:3">
+      <c r="A2224" s="2" t="s">
+        <v>6213</v>
+      </c>
+      <c r="B2224" s="2" t="s">
+        <v>6214</v>
+      </c>
+      <c r="C2224" s="2" t="s">
+        <v>6189</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:3">
+      <c r="A2225" s="2" t="s">
+        <v>6216</v>
+      </c>
+      <c r="B2225" s="2" t="s">
+        <v>6215</v>
+      </c>
+      <c r="C2225" s="2" t="s">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:3">
+      <c r="A2226" s="2" t="s">
+        <v>6217</v>
+      </c>
+      <c r="B2226" s="2" t="s">
+        <v>6218</v>
+      </c>
+      <c r="C2226" s="2" t="s">
+        <v>6191</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:3">
+      <c r="A2227" s="2" t="s">
+        <v>6220</v>
+      </c>
+      <c r="B2227" s="2" t="s">
+        <v>6219</v>
+      </c>
+      <c r="C2227" s="2" t="s">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:3">
+      <c r="A2228" s="2" t="s">
+        <v>6221</v>
+      </c>
+      <c r="B2228" s="2" t="s">
+        <v>6222</v>
+      </c>
+      <c r="C2228" s="2" t="s">
+        <v>6193</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:3">
+      <c r="A2229" s="2" t="s">
+        <v>6224</v>
+      </c>
+      <c r="B2229" s="2" t="s">
+        <v>6223</v>
+      </c>
+      <c r="C2229" s="2" t="s">
+        <v>6194</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:3">
+      <c r="A2230" s="2" t="s">
+        <v>6225</v>
+      </c>
+      <c r="B2230" s="2" t="s">
+        <v>6229</v>
+      </c>
+      <c r="C2230" s="2" t="s">
+        <v>6194</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:3">
+      <c r="A2231" s="2" t="s">
+        <v>6226</v>
+      </c>
+      <c r="B2231" s="2" t="s">
+        <v>6230</v>
+      </c>
+      <c r="C2231" s="2" t="s">
+        <v>6195</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:3">
+      <c r="A2232" s="2" t="s">
+        <v>6227</v>
+      </c>
+      <c r="B2232" s="2" t="s">
+        <v>6228</v>
+      </c>
+      <c r="C2232" s="2" t="s">
+        <v>6196</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:3">
+      <c r="A2233" s="2" t="s">
+        <v>6231</v>
+      </c>
+      <c r="B2233" s="2" t="s">
+        <v>6231</v>
+      </c>
+      <c r="C2233" s="2" t="s">
+        <v>6197</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:3">
+      <c r="A2234" s="2" t="s">
+        <v>6233</v>
+      </c>
+      <c r="B2234" s="2" t="s">
+        <v>6232</v>
+      </c>
+      <c r="C2234" s="2" t="s">
+        <v>6198</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:3">
+      <c r="A2235" s="2" t="s">
+        <v>6234</v>
+      </c>
+      <c r="B2235" s="2" t="s">
+        <v>6236</v>
+      </c>
+      <c r="C2235" s="2" t="s">
+        <v>6199</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:3">
+      <c r="A2236" s="2" t="s">
+        <v>6235</v>
+      </c>
+      <c r="B2236" s="2" t="s">
+        <v>6237</v>
+      </c>
+      <c r="C2236" s="2" t="s">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:3">
+      <c r="A2237" s="2" t="s">
+        <v>6102</v>
+      </c>
+      <c r="B2237" s="2" t="s">
+        <v>6100</v>
+      </c>
+      <c r="C2237" s="2" t="s">
+        <v>6315</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:3">
+      <c r="A2238" s="2" t="s">
+        <v>6103</v>
+      </c>
+      <c r="B2238" s="2" t="s">
+        <v>6241</v>
+      </c>
+      <c r="C2238" s="2" t="s">
+        <v>6304</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:3">
+      <c r="A2239" s="2" t="s">
+        <v>6104</v>
+      </c>
+      <c r="B2239" s="2" t="s">
+        <v>6272</v>
+      </c>
+      <c r="C2239" s="2" t="s">
+        <v>6305</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:3">
+      <c r="A2240" s="2" t="s">
+        <v>6013</v>
+      </c>
+      <c r="B2240" s="2" t="s">
+        <v>6286</v>
+      </c>
+      <c r="C2240" s="2" t="s">
+        <v>6308</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:3">
+      <c r="A2241" s="2" t="s">
+        <v>6105</v>
+      </c>
+      <c r="B2241" s="2" t="s">
+        <v>6246</v>
+      </c>
+      <c r="C2241" s="2" t="s">
+        <v>6306</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:3">
+      <c r="A2242" s="2" t="s">
+        <v>6106</v>
+      </c>
+      <c r="B2242" s="2" t="s">
+        <v>6238</v>
+      </c>
+      <c r="C2242" s="2" t="s">
+        <v>6307</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:3">
+      <c r="A2243" s="2" t="s">
+        <v>6107</v>
+      </c>
+      <c r="B2243" s="2" t="s">
+        <v>6239</v>
+      </c>
+      <c r="C2243" s="2" t="s">
+        <v>6309</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:3">
+      <c r="A2244" s="2" t="s">
+        <v>6240</v>
+      </c>
+      <c r="B2244" s="2" t="s">
+        <v>6240</v>
+      </c>
+      <c r="C2244" s="2" t="s">
+        <v>6310</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:3">
+      <c r="A2245" s="2" t="s">
+        <v>6108</v>
+      </c>
+      <c r="B2245" s="2" t="s">
+        <v>6248</v>
+      </c>
+      <c r="C2245" s="2" t="s">
+        <v>6311</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:3">
+      <c r="A2246" s="2" t="s">
+        <v>6109</v>
+      </c>
+      <c r="B2246" s="2" t="s">
+        <v>6242</v>
+      </c>
+      <c r="C2246" s="2" t="s">
+        <v>6312</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:3">
+      <c r="A2247" s="2" t="s">
+        <v>6110</v>
+      </c>
+      <c r="B2247" s="2" t="s">
+        <v>6264</v>
+      </c>
+      <c r="C2247" s="2" t="s">
+        <v>6313</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:3">
+      <c r="A2248" s="2" t="s">
+        <v>6111</v>
+      </c>
+      <c r="B2248" s="2" t="s">
+        <v>6242</v>
+      </c>
+      <c r="C2248" s="2" t="s">
+        <v>6314</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:3">
+      <c r="A2249" s="2" t="s">
+        <v>6112</v>
+      </c>
+      <c r="B2249" s="2" t="s">
+        <v>6264</v>
+      </c>
+      <c r="C2249" s="2" t="s">
+        <v>6152</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:3">
+      <c r="A2250" s="2" t="s">
+        <v>6113</v>
+      </c>
+      <c r="B2250" s="2" t="s">
+        <v>6264</v>
+      </c>
+      <c r="C2250" s="2" t="s">
+        <v>6316</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:3">
+      <c r="A2251" s="2" t="s">
+        <v>6114</v>
+      </c>
+      <c r="B2251" s="2" t="s">
+        <v>6242</v>
+      </c>
+      <c r="C2251" s="2" t="s">
+        <v>6317</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:3">
+      <c r="A2252" s="2" t="s">
+        <v>6291</v>
+      </c>
+      <c r="B2252" s="2" t="s">
+        <v>6249</v>
+      </c>
+      <c r="C2252" s="2" t="s">
+        <v>6318</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:3">
+      <c r="A2253" s="2" t="s">
+        <v>6292</v>
+      </c>
+      <c r="B2253" s="2" t="s">
+        <v>6250</v>
+      </c>
+      <c r="C2253" s="2" t="s">
+        <v>6153</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:3">
+      <c r="A2254" s="2" t="s">
+        <v>6115</v>
+      </c>
+      <c r="B2254" s="2" t="s">
+        <v>6251</v>
+      </c>
+      <c r="C2254" s="2" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:3">
+      <c r="A2255" s="2" t="s">
+        <v>6116</v>
+      </c>
+      <c r="B2255" s="2" t="s">
+        <v>6252</v>
+      </c>
+      <c r="C2255" s="2" t="s">
+        <v>6319</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:3">
+      <c r="A2256" s="2" t="s">
+        <v>6117</v>
+      </c>
+      <c r="B2256" s="2" t="s">
+        <v>6255</v>
+      </c>
+      <c r="C2256" s="2" t="s">
+        <v>6324</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:3">
+      <c r="A2257" s="2" t="s">
+        <v>6118</v>
+      </c>
+      <c r="B2257" s="2" t="s">
+        <v>6293</v>
+      </c>
+      <c r="C2257" s="2" t="s">
+        <v>6320</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:3">
+      <c r="A2258" s="2" t="s">
+        <v>6119</v>
+      </c>
+      <c r="B2258" s="2" t="s">
+        <v>6253</v>
+      </c>
+      <c r="C2258" s="2" t="s">
+        <v>6321</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:3">
+      <c r="A2259" s="2" t="s">
+        <v>6120</v>
+      </c>
+      <c r="B2259" s="2" t="s">
+        <v>6273</v>
+      </c>
+      <c r="C2259" s="2" t="s">
+        <v>6322</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:3">
+      <c r="A2260" s="2" t="s">
+        <v>6121</v>
+      </c>
+      <c r="B2260" s="2" t="s">
+        <v>6287</v>
+      </c>
+      <c r="C2260" s="2" t="s">
+        <v>6323</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:3">
+      <c r="A2261" s="2" t="s">
+        <v>6122</v>
+      </c>
+      <c r="B2261" s="2" t="s">
+        <v>6256</v>
+      </c>
+      <c r="C2261" s="2" t="s">
+        <v>6325</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:3">
+      <c r="A2262" s="2" t="s">
+        <v>6123</v>
+      </c>
+      <c r="B2262" s="2" t="s">
+        <v>6257</v>
+      </c>
+      <c r="C2262" s="2" t="s">
+        <v>6326</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:3">
+      <c r="A2263" s="2" t="s">
+        <v>6124</v>
+      </c>
+      <c r="B2263" s="2" t="s">
+        <v>6258</v>
+      </c>
+      <c r="C2263" s="2" t="s">
+        <v>6155</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:3">
+      <c r="A2264" s="2" t="s">
+        <v>6125</v>
+      </c>
+      <c r="B2264" s="2" t="s">
+        <v>6259</v>
+      </c>
+      <c r="C2264" s="2" t="s">
+        <v>6327</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:3">
+      <c r="A2265" s="2" t="s">
+        <v>6294</v>
+      </c>
+      <c r="B2265" s="2" t="s">
+        <v>6260</v>
+      </c>
+      <c r="C2265" s="2" t="s">
+        <v>6328</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:3">
+      <c r="A2266" s="2" t="s">
+        <v>6295</v>
+      </c>
+      <c r="B2266" s="2" t="s">
+        <v>6261</v>
+      </c>
+      <c r="C2266" s="2" t="s">
+        <v>6329</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:3">
+      <c r="A2267" s="2" t="s">
+        <v>6296</v>
+      </c>
+      <c r="B2267" s="2" t="s">
+        <v>6265</v>
+      </c>
+      <c r="C2267" s="2" t="s">
+        <v>6330</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:3">
+      <c r="A2268" s="2" t="s">
+        <v>6126</v>
+      </c>
+      <c r="B2268" s="2" t="s">
+        <v>6262</v>
+      </c>
+      <c r="C2268" s="2" t="s">
+        <v>6331</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:3">
+      <c r="A2269" s="2" t="s">
+        <v>6127</v>
+      </c>
+      <c r="B2269" s="2" t="s">
+        <v>6274</v>
+      </c>
+      <c r="C2269" s="2" t="s">
+        <v>6332</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:3">
+      <c r="A2270" s="2" t="s">
+        <v>6128</v>
+      </c>
+      <c r="B2270" s="2" t="s">
+        <v>6288</v>
+      </c>
+      <c r="C2270" s="2" t="s">
+        <v>6334</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:3">
+      <c r="A2271" s="2" t="s">
+        <v>6129</v>
+      </c>
+      <c r="B2271" s="2" t="s">
+        <v>6266</v>
+      </c>
+      <c r="C2271" s="2" t="s">
+        <v>6156</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:3">
+      <c r="A2272" s="2" t="s">
+        <v>6130</v>
+      </c>
+      <c r="B2272" s="2" t="s">
+        <v>6266</v>
+      </c>
+      <c r="C2272" s="2" t="s">
+        <v>6333</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:3">
+      <c r="A2273" s="2" t="s">
+        <v>6131</v>
+      </c>
+      <c r="B2273" s="2" t="s">
+        <v>6267</v>
+      </c>
+      <c r="C2273" s="2" t="s">
+        <v>6335</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:3">
+      <c r="A2274" s="2" t="s">
+        <v>6297</v>
+      </c>
+      <c r="B2274" s="2" t="s">
+        <v>6268</v>
+      </c>
+      <c r="C2274" s="2" t="s">
+        <v>6336</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:3">
+      <c r="A2275" s="2" t="s">
+        <v>6298</v>
+      </c>
+      <c r="B2275" s="2" t="s">
+        <v>6269</v>
+      </c>
+      <c r="C2275" s="2" t="s">
+        <v>6337</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:3">
+      <c r="A2276" s="2" t="s">
+        <v>6299</v>
+      </c>
+      <c r="B2276" s="2" t="s">
+        <v>6270</v>
+      </c>
+      <c r="C2276" s="2" t="s">
+        <v>6338</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:3">
+      <c r="A2277" s="2" t="s">
+        <v>6132</v>
+      </c>
+      <c r="B2277" s="2" t="s">
+        <v>6271</v>
+      </c>
+      <c r="C2277" s="2" t="s">
+        <v>6339</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:3">
+      <c r="A2278" s="2" t="s">
+        <v>6133</v>
+      </c>
+      <c r="B2278" s="2" t="s">
+        <v>6250</v>
+      </c>
+      <c r="C2278" s="2" t="s">
+        <v>6340</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:3">
+      <c r="A2279" s="2" t="s">
+        <v>6302</v>
+      </c>
+      <c r="B2279" s="2" t="s">
+        <v>6275</v>
+      </c>
+      <c r="C2279" s="2" t="s">
+        <v>6341</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:3">
+      <c r="A2280" s="2" t="s">
+        <v>6303</v>
+      </c>
+      <c r="B2280" s="2" t="s">
+        <v>6275</v>
+      </c>
+      <c r="C2280" s="2" t="s">
+        <v>6157</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:3">
+      <c r="A2281" s="2" t="s">
+        <v>6301</v>
+      </c>
+      <c r="B2281" s="2" t="s">
+        <v>6247</v>
+      </c>
+      <c r="C2281" s="2" t="s">
+        <v>6342</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:3">
+      <c r="A2282" s="2" t="s">
+        <v>6300</v>
+      </c>
+      <c r="B2282" s="2" t="s">
+        <v>6243</v>
+      </c>
+      <c r="C2282" s="2" t="s">
+        <v>6343</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:3">
+      <c r="A2283" s="2" t="s">
+        <v>6134</v>
+      </c>
+      <c r="B2283" s="2" t="s">
+        <v>6244</v>
+      </c>
+      <c r="C2283" s="2" t="s">
+        <v>6344</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:3">
+      <c r="A2284" s="2" t="s">
+        <v>6135</v>
+      </c>
+      <c r="B2284" s="2" t="s">
+        <v>6245</v>
+      </c>
+      <c r="C2284" s="2" t="s">
+        <v>6345</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:3">
+      <c r="A2285" s="2" t="s">
+        <v>6136</v>
+      </c>
+      <c r="B2285" s="2" t="s">
+        <v>6254</v>
+      </c>
+      <c r="C2285" s="2" t="s">
+        <v>6346</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:3">
+      <c r="A2286" s="2" t="s">
+        <v>6137</v>
+      </c>
+      <c r="B2286" s="2" t="s">
+        <v>6263</v>
+      </c>
+      <c r="C2286" s="2" t="s">
+        <v>6347</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:3">
+      <c r="A2287" s="2" t="s">
+        <v>6138</v>
+      </c>
+      <c r="B2287" s="2" t="s">
+        <v>6101</v>
+      </c>
+      <c r="C2287" s="2" t="s">
+        <v>6348</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:3">
+      <c r="A2288" s="2" t="s">
+        <v>6139</v>
+      </c>
+      <c r="B2288" s="2" t="s">
+        <v>6101</v>
+      </c>
+      <c r="C2288" s="2" t="s">
+        <v>6349</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:3">
+      <c r="A2289" s="2" t="s">
+        <v>6140</v>
+      </c>
+      <c r="B2289" s="2" t="s">
+        <v>6276</v>
+      </c>
+      <c r="C2289" s="2" t="s">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:3">
+      <c r="A2290" s="2" t="s">
+        <v>6141</v>
+      </c>
+      <c r="B2290" s="2" t="s">
+        <v>6289</v>
+      </c>
+      <c r="C2290" s="2" t="s">
+        <v>6351</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:3">
+      <c r="A2291" s="2" t="s">
+        <v>6142</v>
+      </c>
+      <c r="B2291" s="2" t="s">
+        <v>6277</v>
+      </c>
+      <c r="C2291" s="2" t="s">
+        <v>6352</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:3">
+      <c r="A2292" s="2" t="s">
+        <v>6143</v>
+      </c>
+      <c r="B2292" s="2" t="s">
+        <v>6278</v>
+      </c>
+      <c r="C2292" s="2" t="s">
+        <v>6353</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:3">
+      <c r="A2293" s="2" t="s">
+        <v>6144</v>
+      </c>
+      <c r="B2293" s="2" t="s">
+        <v>6279</v>
+      </c>
+      <c r="C2293" s="2" t="s">
+        <v>6354</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:3">
+      <c r="A2294" s="2" t="s">
+        <v>6145</v>
+      </c>
+      <c r="B2294" s="2" t="s">
+        <v>6280</v>
+      </c>
+      <c r="C2294" s="2" t="s">
+        <v>6158</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:3">
+      <c r="A2295" s="2" t="s">
+        <v>6146</v>
+      </c>
+      <c r="B2295" s="2" t="s">
+        <v>6281</v>
+      </c>
+      <c r="C2295" s="2" t="s">
+        <v>6327</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:3">
+      <c r="A2296" s="2" t="s">
+        <v>6147</v>
+      </c>
+      <c r="B2296" s="2" t="s">
+        <v>6282</v>
+      </c>
+      <c r="C2296" s="2" t="s">
+        <v>6159</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:3">
+      <c r="A2297" s="2" t="s">
+        <v>6148</v>
+      </c>
+      <c r="B2297" s="2" t="s">
+        <v>6283</v>
+      </c>
+      <c r="C2297" s="2" t="s">
+        <v>6355</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:3">
+      <c r="A2298" s="2" t="s">
+        <v>6149</v>
+      </c>
+      <c r="B2298" s="2" t="s">
+        <v>6284</v>
+      </c>
+      <c r="C2298" s="2" t="s">
+        <v>6356</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:3">
+      <c r="A2299" s="2" t="s">
+        <v>6150</v>
+      </c>
+      <c r="B2299" s="2" t="s">
+        <v>6285</v>
+      </c>
+      <c r="C2299" s="2" t="s">
+        <v>6357</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:3">
+      <c r="A2300" s="2" t="s">
+        <v>6151</v>
+      </c>
+      <c r="B2300" s="2" t="s">
+        <v>6290</v>
+      </c>
+      <c r="C2300" s="2" t="s">
+        <v>6160</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C1802">
     <sortCondition ref="B1:B1802"/>

--- a/日本語/1_語彙.xlsx
+++ b/日本語/1_語彙.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeshafteure/Documents/GitHub/Freshmore/日本語/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B57980-1393-0F42-870C-4DA4AD344C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18716242-AC33-5349-A420-6162151C5D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="15840" windowHeight="18900" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6900" uniqueCount="6359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7200" uniqueCount="6631">
   <si>
     <t>亜〜</t>
   </si>
@@ -26971,12 +26971,1079 @@
       <t>济</t>
     </r>
   </si>
+  <si>
+    <t>げんてい</t>
+  </si>
+  <si>
+    <t>けんよう</t>
+  </si>
+  <si>
+    <t>～こ</t>
+  </si>
+  <si>
+    <t>けんとう</t>
+  </si>
+  <si>
+    <t>げんに</t>
+  </si>
+  <si>
+    <t>げんば</t>
+  </si>
+  <si>
+    <t>けんびきょう</t>
+  </si>
+  <si>
+    <t>けんめい</t>
+  </si>
+  <si>
+    <t>げんりよう</t>
+  </si>
+  <si>
+    <t>げんてん</t>
+  </si>
+  <si>
+    <t>げんみつ</t>
+  </si>
+  <si>
+    <t>けんやく</t>
+  </si>
+  <si>
+    <t>げんゆ</t>
+  </si>
+  <si>
+    <t>けんりよく</t>
+  </si>
+  <si>
+    <t>げんろん</t>
+  </si>
+  <si>
+    <t>けんぶつ（する）</t>
+  </si>
+  <si>
+    <t>げんり</t>
+  </si>
+  <si>
+    <t>げんど</t>
+  </si>
+  <si>
+    <t>けんめい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>限定</t>
+  </si>
+  <si>
+    <t>原典</t>
+  </si>
+  <si>
+    <t>原点</t>
+  </si>
+  <si>
+    <t>減点</t>
+  </si>
+  <si>
+    <t>限度</t>
+  </si>
+  <si>
+    <t>検討</t>
+  </si>
+  <si>
+    <t>見当</t>
+  </si>
+  <si>
+    <t>現に</t>
+  </si>
+  <si>
+    <t>現場</t>
+  </si>
+  <si>
+    <t>原爆</t>
+  </si>
+  <si>
+    <t>げんばく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顕微鏡</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ケンビキョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見物（する）</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケンブツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原文</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲンブン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げんぶん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>憲法</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケンポウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けんぽう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>厳密</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲンミツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>懸命</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケンメイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>賢明</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケンメイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倹約</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケニャク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原油</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲンユ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜個</t>
+    <rPh sb="1" eb="2">
+      <t>コ4</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言論</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲンロン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兼用</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケンヨウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権利</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケンリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原理</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲンリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原料</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲンリョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けんり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権力</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケンリョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜湖</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">コ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御〜</t>
+  </si>
+  <si>
+    <t>濃い</t>
+  </si>
+  <si>
+    <t>語彙</t>
+  </si>
+  <si>
+    <t>恋人</t>
+  </si>
+  <si>
+    <t>小〜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>故〜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜語</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>碁</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋しい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こいしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こいする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こいびと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜こ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こ〜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜ご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご〜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜こう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜校</t>
+  </si>
+  <si>
+    <t>～港</t>
+  </si>
+  <si>
+    <t>～光</t>
+  </si>
+  <si>
+    <t>甲 </t>
+  </si>
+  <si>
+    <t>～号</t>
+  </si>
+  <si>
+    <t>行為</t>
+  </si>
+  <si>
+    <t>好意</t>
+  </si>
+  <si>
+    <t>合意</t>
+  </si>
+  <si>
+    <t>工員</t>
+  </si>
+  <si>
+    <t>強引</t>
+  </si>
+  <si>
+    <t>幸運</t>
+  </si>
+  <si>
+    <t>交易</t>
+  </si>
+  <si>
+    <t>高〜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こう〜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜ごう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうい</t>
+  </si>
+  <si>
+    <t>ごうい</t>
+  </si>
+  <si>
+    <t>こういん</t>
+  </si>
+  <si>
+    <t>ごういん</t>
+  </si>
+  <si>
+    <t>こううん</t>
+  </si>
+  <si>
+    <t>こうえき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>limitation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the original text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the starting point, the origin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>points deducted</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>examination, investligation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>direction, an estimate, a guess</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>actually, really</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the (actual) spot, the scene (of the action)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>atomic bomb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>microscope</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sightseeing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the original, the original (text)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>constitution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strictness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strenuous, hard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wise, advisable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>economy, thrift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crude oil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>for the use of</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a principle, a theory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>raw materials</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>power, authority, influence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>speech</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>counter for things</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>child</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>small, little</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deceased, late</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~ language</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>five</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(the game of) go</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>after</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dark, deep, heavy, strong</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>love</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vocabulary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>homesick, lonely</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>love, be in love</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a love</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>like this</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>school</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>port</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>high, higher, advanced</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>light, shine, torch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>warrior's helmet, headpiece</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a number, an issue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>act, acting, action, behaviour</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>good will, favor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mutual agreement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a factory worker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>forcible, forced, high-handed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>good luck, good fortune</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trade, commerce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公園</t>
+  </si>
+  <si>
+    <t>講演</t>
+  </si>
+  <si>
+    <t>公演</t>
+  </si>
+  <si>
+    <t>高価</t>
+  </si>
+  <si>
+    <t>効県</t>
+  </si>
+  <si>
+    <t>硬有</t>
+  </si>
+  <si>
+    <t>豪華</t>
+  </si>
+  <si>
+    <t>航海</t>
+  </si>
+  <si>
+    <t>公開</t>
+  </si>
+  <si>
+    <t>後梅</t>
+  </si>
+  <si>
+    <t>郊外</t>
+  </si>
+  <si>
+    <t>公害</t>
+  </si>
+  <si>
+    <t>工学</t>
+  </si>
+  <si>
+    <t>合格</t>
+  </si>
+  <si>
+    <t>交換</t>
+  </si>
+  <si>
+    <t>講義</t>
+  </si>
+  <si>
+    <t>抗議</t>
+  </si>
+  <si>
+    <t>合議</t>
+  </si>
+  <si>
+    <t>高級</t>
+  </si>
+  <si>
+    <t>こうえん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうか</t>
+  </si>
+  <si>
+    <t>ごうか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうかい</t>
+  </si>
+  <si>
+    <t>こうがい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうがく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごうかく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごうぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうきゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>皇居</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公共</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウキョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好況</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウキョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工業</t>
+  </si>
+  <si>
+    <t>興業</t>
+  </si>
+  <si>
+    <t>航空</t>
+  </si>
+  <si>
+    <t>光景</t>
+  </si>
+  <si>
+    <t>工芸</t>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>攻撃</t>
+  </si>
+  <si>
+    <t>貢献</t>
+  </si>
+  <si>
+    <t>こうきょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうきょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうぎょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉱業</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウギョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうくう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうけい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうげい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごうけい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうげき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうけん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうげん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうこう（せい）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうこうと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうこがく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうこく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうさい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうさく</t>
+  </si>
+  <si>
+    <t>こうさく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうさてん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうざん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高原</t>
+  </si>
+  <si>
+    <t>交互</t>
+  </si>
+  <si>
+    <t>孝行</t>
+  </si>
+  <si>
+    <t>高校（生）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>煌々と</t>
+  </si>
+  <si>
+    <t>考古学</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広告</t>
+  </si>
+  <si>
+    <t>交差</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交際</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耕作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交差点</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉱山</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講師</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>park</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a lecture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public performance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a high price, expensive, costly, dear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>effect on, result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a coin. (a) metallic currency</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>luxurious, grand, magnificent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>navigation, sailing, voyage, cruise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>throw (a place )open to the public, exhibit (a painting)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regret (for), remorse for)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(environmental) pollution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>engineering</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>success (in an examination), pass an examination, come up to the standard (mark)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(an) exchange, give-and-take</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lecture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>protest, objection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>consultation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>high rank, high class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Imperial Palace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public community</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prosperous conditions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>industry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>industrial promotion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mining industry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aviation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a sight, a scene, a view, spectacle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>industrial arts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the sum total, a total</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attack, an offense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plateau</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alternateness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>filial piety/duty,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>high school (student)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>glowing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>archaeology</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>advertisement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intersection, crossing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>association, social intercourse, friendship</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>handicraft, construction, maneuvering</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cultivation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crossing, intersection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lecturer, instructor</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -27036,6 +28103,31 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -27059,7 +28151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -27074,6 +28166,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -27409,10 +28513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD98CDC-2E6D-F340-BEA4-C5F884B9AAD8}">
-  <dimension ref="A1:F2300"/>
+  <dimension ref="A1:F2400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2279" zoomScale="126" workbookViewId="0">
-      <selection activeCell="C2304" sqref="C2304"/>
+    <sheetView tabSelected="1" topLeftCell="A2375" zoomScale="126" workbookViewId="0">
+      <selection activeCell="C2394" sqref="C2394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -52726,6 +53830,1106 @@
         <v>6160</v>
       </c>
     </row>
+    <row r="2301" spans="1:3">
+      <c r="A2301" s="5" t="s">
+        <v>6378</v>
+      </c>
+      <c r="B2301" s="5" t="s">
+        <v>6359</v>
+      </c>
+      <c r="C2301" s="2" t="s">
+        <v>6457</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:3">
+      <c r="A2302" s="2" t="s">
+        <v>6379</v>
+      </c>
+      <c r="B2302" s="5" t="s">
+        <v>6368</v>
+      </c>
+      <c r="C2302" s="2" t="s">
+        <v>6458</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:3">
+      <c r="A2303" s="2" t="s">
+        <v>6380</v>
+      </c>
+      <c r="B2303" s="5" t="s">
+        <v>6368</v>
+      </c>
+      <c r="C2303" s="2" t="s">
+        <v>6459</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:3">
+      <c r="A2304" s="2" t="s">
+        <v>6381</v>
+      </c>
+      <c r="B2304" s="5" t="s">
+        <v>6368</v>
+      </c>
+      <c r="C2304" s="5" t="s">
+        <v>6460</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:3">
+      <c r="A2305" s="2" t="s">
+        <v>6382</v>
+      </c>
+      <c r="B2305" s="5" t="s">
+        <v>6376</v>
+      </c>
+      <c r="C2305" s="2" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:3">
+      <c r="A2306" s="2" t="s">
+        <v>6383</v>
+      </c>
+      <c r="B2306" s="5" t="s">
+        <v>6362</v>
+      </c>
+      <c r="C2306" s="2" t="s">
+        <v>6461</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:3">
+      <c r="A2307" s="2" t="s">
+        <v>6384</v>
+      </c>
+      <c r="B2307" s="5" t="s">
+        <v>6362</v>
+      </c>
+      <c r="C2307" s="5" t="s">
+        <v>6462</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:3">
+      <c r="A2308" s="2" t="s">
+        <v>6385</v>
+      </c>
+      <c r="B2308" s="5" t="s">
+        <v>6363</v>
+      </c>
+      <c r="C2308" s="2" t="s">
+        <v>6463</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:3">
+      <c r="A2309" s="2" t="s">
+        <v>6386</v>
+      </c>
+      <c r="B2309" s="5" t="s">
+        <v>6364</v>
+      </c>
+      <c r="C2309" s="2" t="s">
+        <v>6464</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:3">
+      <c r="A2310" s="2" t="s">
+        <v>6387</v>
+      </c>
+      <c r="B2310" s="6" t="s">
+        <v>6388</v>
+      </c>
+      <c r="C2310" s="2" t="s">
+        <v>6465</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:3">
+      <c r="A2311" s="2" t="s">
+        <v>6389</v>
+      </c>
+      <c r="B2311" s="5" t="s">
+        <v>6365</v>
+      </c>
+      <c r="C2311" s="2" t="s">
+        <v>6466</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:3">
+      <c r="A2312" s="2" t="s">
+        <v>6390</v>
+      </c>
+      <c r="B2312" s="5" t="s">
+        <v>6374</v>
+      </c>
+      <c r="C2312" s="2" t="s">
+        <v>6467</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:3">
+      <c r="A2313" s="2" t="s">
+        <v>6391</v>
+      </c>
+      <c r="B2313" s="6" t="s">
+        <v>6392</v>
+      </c>
+      <c r="C2313" s="2" t="s">
+        <v>6468</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:3">
+      <c r="A2314" s="2" t="s">
+        <v>6393</v>
+      </c>
+      <c r="B2314" s="6" t="s">
+        <v>6394</v>
+      </c>
+      <c r="C2314" s="2" t="s">
+        <v>6469</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:3">
+      <c r="A2315" s="2" t="s">
+        <v>6395</v>
+      </c>
+      <c r="B2315" s="5" t="s">
+        <v>6369</v>
+      </c>
+      <c r="C2315" s="2" t="s">
+        <v>6470</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:3">
+      <c r="A2316" s="2" t="s">
+        <v>6396</v>
+      </c>
+      <c r="B2316" s="5" t="s">
+        <v>6366</v>
+      </c>
+      <c r="C2316" s="2" t="s">
+        <v>6471</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:3">
+      <c r="A2317" s="2" t="s">
+        <v>6397</v>
+      </c>
+      <c r="B2317" s="6" t="s">
+        <v>6377</v>
+      </c>
+      <c r="C2317" s="2" t="s">
+        <v>6472</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:3">
+      <c r="A2318" s="2" t="s">
+        <v>6398</v>
+      </c>
+      <c r="B2318" s="5" t="s">
+        <v>6370</v>
+      </c>
+      <c r="C2318" s="2" t="s">
+        <v>6473</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:3">
+      <c r="A2319" s="2" t="s">
+        <v>6399</v>
+      </c>
+      <c r="B2319" s="5" t="s">
+        <v>6371</v>
+      </c>
+      <c r="C2319" s="2" t="s">
+        <v>6474</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:3">
+      <c r="A2320" s="2" t="s">
+        <v>6402</v>
+      </c>
+      <c r="B2320" s="5" t="s">
+        <v>6360</v>
+      </c>
+      <c r="C2320" s="2" t="s">
+        <v>6475</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:3">
+      <c r="A2321" s="2" t="s">
+        <v>6403</v>
+      </c>
+      <c r="B2321" s="6" t="s">
+        <v>6406</v>
+      </c>
+      <c r="C2321" s="2" t="s">
+        <v>6314</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:3">
+      <c r="A2322" s="2" t="s">
+        <v>6404</v>
+      </c>
+      <c r="B2322" s="5" t="s">
+        <v>6375</v>
+      </c>
+      <c r="C2322" s="2" t="s">
+        <v>6476</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:3">
+      <c r="A2323" s="2" t="s">
+        <v>6405</v>
+      </c>
+      <c r="B2323" s="5" t="s">
+        <v>6367</v>
+      </c>
+      <c r="C2323" s="2" t="s">
+        <v>6477</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:3">
+      <c r="A2324" s="2" t="s">
+        <v>6407</v>
+      </c>
+      <c r="B2324" s="5" t="s">
+        <v>6372</v>
+      </c>
+      <c r="C2324" s="2" t="s">
+        <v>6478</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:3">
+      <c r="A2325" s="2" t="s">
+        <v>6401</v>
+      </c>
+      <c r="B2325" s="5" t="s">
+        <v>6373</v>
+      </c>
+      <c r="C2325" s="2" t="s">
+        <v>6479</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:3">
+      <c r="A2326" s="2" t="s">
+        <v>6400</v>
+      </c>
+      <c r="B2326" s="5" t="s">
+        <v>6361</v>
+      </c>
+      <c r="C2326" s="2" t="s">
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:3">
+      <c r="A2327" s="2" t="s">
+        <v>6408</v>
+      </c>
+      <c r="B2327" s="2" t="s">
+        <v>6409</v>
+      </c>
+      <c r="C2327" s="2" t="s">
+        <v>6481</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:3">
+      <c r="A2328" s="2" t="s">
+        <v>6410</v>
+      </c>
+      <c r="B2328" s="2" t="s">
+        <v>6431</v>
+      </c>
+      <c r="C2328" s="2" t="s">
+        <v>6482</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:3">
+      <c r="A2329" s="8" t="s">
+        <v>6415</v>
+      </c>
+      <c r="B2329" s="2" t="s">
+        <v>6432</v>
+      </c>
+      <c r="C2329" s="2" t="s">
+        <v>6483</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:3">
+      <c r="A2330" s="8" t="s">
+        <v>6416</v>
+      </c>
+      <c r="B2330" s="2" t="s">
+        <v>6432</v>
+      </c>
+      <c r="C2330" s="2" t="s">
+        <v>6484</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:3">
+      <c r="A2331" s="8" t="s">
+        <v>6417</v>
+      </c>
+      <c r="B2331" s="2" t="s">
+        <v>6433</v>
+      </c>
+      <c r="C2331" s="2" t="s">
+        <v>6485</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:3">
+      <c r="A2332" s="8" t="s">
+        <v>6418</v>
+      </c>
+      <c r="B2332" s="2" t="s">
+        <v>6423</v>
+      </c>
+      <c r="C2332" s="2" t="s">
+        <v>6486</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:3">
+      <c r="A2333" s="7" t="s">
+        <v>6411</v>
+      </c>
+      <c r="B2333" s="2" t="s">
+        <v>6434</v>
+      </c>
+      <c r="C2333" s="2" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:3">
+      <c r="A2334" s="8" t="s">
+        <v>6419</v>
+      </c>
+      <c r="B2334" s="2" t="s">
+        <v>6423</v>
+      </c>
+      <c r="C2334" s="2" t="s">
+        <v>6487</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:3">
+      <c r="A2335" s="8" t="s">
+        <v>6420</v>
+      </c>
+      <c r="B2335" s="2" t="s">
+        <v>6423</v>
+      </c>
+      <c r="C2335" s="2" t="s">
+        <v>6488</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:3">
+      <c r="A2336" s="7" t="s">
+        <v>6412</v>
+      </c>
+      <c r="B2336" s="2" t="s">
+        <v>6424</v>
+      </c>
+      <c r="C2336" s="2" t="s">
+        <v>6489</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:3">
+      <c r="A2337" s="8" t="s">
+        <v>6421</v>
+      </c>
+      <c r="B2337" s="2" t="s">
+        <v>6424</v>
+      </c>
+      <c r="C2337" s="2" t="s">
+        <v>6490</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:3">
+      <c r="A2338" s="7" t="s">
+        <v>6413</v>
+      </c>
+      <c r="B2338" s="2" t="s">
+        <v>6425</v>
+      </c>
+      <c r="C2338" s="2" t="s">
+        <v>6491</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:3">
+      <c r="A2339" s="8" t="s">
+        <v>6426</v>
+      </c>
+      <c r="B2339" s="2" t="s">
+        <v>6428</v>
+      </c>
+      <c r="C2339" s="2" t="s">
+        <v>6492</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:3">
+      <c r="A2340" s="8" t="s">
+        <v>6427</v>
+      </c>
+      <c r="B2340" s="2" t="s">
+        <v>6429</v>
+      </c>
+      <c r="C2340" s="2" t="s">
+        <v>6493</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:3">
+      <c r="A2341" s="7" t="s">
+        <v>6414</v>
+      </c>
+      <c r="B2341" s="2" t="s">
+        <v>6430</v>
+      </c>
+      <c r="C2341" s="2" t="s">
+        <v>6494</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:3">
+      <c r="A2342" s="2" t="s">
+        <v>6422</v>
+      </c>
+      <c r="B2342" s="2" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C2342" s="2" t="s">
+        <v>6495</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:3">
+      <c r="A2343" s="7" t="s">
+        <v>6436</v>
+      </c>
+      <c r="B2343" s="2" t="s">
+        <v>6435</v>
+      </c>
+      <c r="C2343" s="2" t="s">
+        <v>6496</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:3">
+      <c r="A2344" s="7" t="s">
+        <v>6437</v>
+      </c>
+      <c r="B2344" s="2" t="s">
+        <v>6435</v>
+      </c>
+      <c r="C2344" s="2" t="s">
+        <v>6497</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:3">
+      <c r="A2345" s="8" t="s">
+        <v>6448</v>
+      </c>
+      <c r="B2345" s="2" t="s">
+        <v>6449</v>
+      </c>
+      <c r="C2345" s="2" t="s">
+        <v>6498</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:3">
+      <c r="A2346" s="7" t="s">
+        <v>6438</v>
+      </c>
+      <c r="B2346" s="2" t="s">
+        <v>6435</v>
+      </c>
+      <c r="C2346" s="2" t="s">
+        <v>6499</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:3">
+      <c r="A2347" s="7" t="s">
+        <v>6439</v>
+      </c>
+      <c r="B2347" s="2" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C2347" s="2" t="s">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:3">
+      <c r="A2348" s="7" t="s">
+        <v>6440</v>
+      </c>
+      <c r="B2348" s="2" t="s">
+        <v>6450</v>
+      </c>
+      <c r="C2348" s="2" t="s">
+        <v>6501</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:3">
+      <c r="A2349" s="7" t="s">
+        <v>6441</v>
+      </c>
+      <c r="B2349" s="5" t="s">
+        <v>6451</v>
+      </c>
+      <c r="C2349" s="2" t="s">
+        <v>6502</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:3">
+      <c r="A2350" s="7" t="s">
+        <v>6442</v>
+      </c>
+      <c r="B2350" s="5" t="s">
+        <v>6451</v>
+      </c>
+      <c r="C2350" s="2" t="s">
+        <v>6503</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:3">
+      <c r="A2351" s="7" t="s">
+        <v>6443</v>
+      </c>
+      <c r="B2351" s="5" t="s">
+        <v>6452</v>
+      </c>
+      <c r="C2351" s="2" t="s">
+        <v>6504</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:3">
+      <c r="A2352" s="7" t="s">
+        <v>6444</v>
+      </c>
+      <c r="B2352" s="5" t="s">
+        <v>6453</v>
+      </c>
+      <c r="C2352" s="2" t="s">
+        <v>6505</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:3">
+      <c r="A2353" s="7" t="s">
+        <v>6445</v>
+      </c>
+      <c r="B2353" s="5" t="s">
+        <v>6454</v>
+      </c>
+      <c r="C2353" s="2" t="s">
+        <v>6506</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:3">
+      <c r="A2354" s="7" t="s">
+        <v>6446</v>
+      </c>
+      <c r="B2354" s="5" t="s">
+        <v>6455</v>
+      </c>
+      <c r="C2354" s="2" t="s">
+        <v>6507</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:3">
+      <c r="A2355" s="7" t="s">
+        <v>6447</v>
+      </c>
+      <c r="B2355" s="6" t="s">
+        <v>6456</v>
+      </c>
+      <c r="C2355" s="2" t="s">
+        <v>6508</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:3">
+      <c r="A2356" s="2" t="s">
+        <v>6509</v>
+      </c>
+      <c r="B2356" s="2" t="s">
+        <v>6528</v>
+      </c>
+      <c r="C2356" s="2" t="s">
+        <v>6588</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:3">
+      <c r="A2357" s="2" t="s">
+        <v>6510</v>
+      </c>
+      <c r="B2357" s="2" t="s">
+        <v>6528</v>
+      </c>
+      <c r="C2357" s="2" t="s">
+        <v>6589</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:3">
+      <c r="A2358" s="2" t="s">
+        <v>6511</v>
+      </c>
+      <c r="B2358" s="2" t="s">
+        <v>6528</v>
+      </c>
+      <c r="C2358" s="2" t="s">
+        <v>6590</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:3">
+      <c r="A2359" s="2" t="s">
+        <v>6512</v>
+      </c>
+      <c r="B2359" s="5" t="s">
+        <v>6529</v>
+      </c>
+      <c r="C2359" s="2" t="s">
+        <v>6591</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:3">
+      <c r="A2360" s="2" t="s">
+        <v>6513</v>
+      </c>
+      <c r="B2360" s="5" t="s">
+        <v>6529</v>
+      </c>
+      <c r="C2360" s="2" t="s">
+        <v>6592</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:3">
+      <c r="A2361" s="2" t="s">
+        <v>6514</v>
+      </c>
+      <c r="B2361" s="5" t="s">
+        <v>6529</v>
+      </c>
+      <c r="C2361" s="2" t="s">
+        <v>6593</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:3">
+      <c r="A2362" s="2" t="s">
+        <v>6515</v>
+      </c>
+      <c r="B2362" s="2" t="s">
+        <v>6530</v>
+      </c>
+      <c r="C2362" s="2" t="s">
+        <v>6594</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:3">
+      <c r="A2363" s="2" t="s">
+        <v>6516</v>
+      </c>
+      <c r="B2363" s="5" t="s">
+        <v>6531</v>
+      </c>
+      <c r="C2363" s="2" t="s">
+        <v>6595</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:3">
+      <c r="A2364" s="2" t="s">
+        <v>6517</v>
+      </c>
+      <c r="B2364" s="5" t="s">
+        <v>6531</v>
+      </c>
+      <c r="C2364" s="2" t="s">
+        <v>6596</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:3">
+      <c r="A2365" s="2" t="s">
+        <v>6518</v>
+      </c>
+      <c r="B2365" s="5" t="s">
+        <v>6531</v>
+      </c>
+      <c r="C2365" s="2" t="s">
+        <v>6597</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:3">
+      <c r="A2366" s="2" t="s">
+        <v>6519</v>
+      </c>
+      <c r="B2366" s="2" t="s">
+        <v>6532</v>
+      </c>
+      <c r="C2366" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:3">
+      <c r="A2367" s="2" t="s">
+        <v>6520</v>
+      </c>
+      <c r="B2367" s="2" t="s">
+        <v>6532</v>
+      </c>
+      <c r="C2367" s="2" t="s">
+        <v>6598</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:3">
+      <c r="A2368" s="2" t="s">
+        <v>6521</v>
+      </c>
+      <c r="B2368" s="2" t="s">
+        <v>6533</v>
+      </c>
+      <c r="C2368" s="2" t="s">
+        <v>6599</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:3">
+      <c r="A2369" s="2" t="s">
+        <v>6522</v>
+      </c>
+      <c r="B2369" s="2" t="s">
+        <v>6534</v>
+      </c>
+      <c r="C2369" s="2" t="s">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:3">
+      <c r="A2370" s="2" t="s">
+        <v>6523</v>
+      </c>
+      <c r="B2370" s="2" t="s">
+        <v>6535</v>
+      </c>
+      <c r="C2370" s="2" t="s">
+        <v>6601</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:3">
+      <c r="A2371" s="2" t="s">
+        <v>6524</v>
+      </c>
+      <c r="B2371" s="2" t="s">
+        <v>6536</v>
+      </c>
+      <c r="C2371" s="2" t="s">
+        <v>6602</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:3">
+      <c r="A2372" s="2" t="s">
+        <v>6525</v>
+      </c>
+      <c r="B2372" s="2" t="s">
+        <v>6536</v>
+      </c>
+      <c r="C2372" s="2" t="s">
+        <v>6603</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:3">
+      <c r="A2373" s="2" t="s">
+        <v>6526</v>
+      </c>
+      <c r="B2373" s="2" t="s">
+        <v>6537</v>
+      </c>
+      <c r="C2373" s="2" t="s">
+        <v>6604</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:3">
+      <c r="A2374" s="2" t="s">
+        <v>6527</v>
+      </c>
+      <c r="B2374" s="2" t="s">
+        <v>6538</v>
+      </c>
+      <c r="C2374" s="2" t="s">
+        <v>6605</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:3">
+      <c r="A2375" s="2" t="s">
+        <v>6539</v>
+      </c>
+      <c r="B2375" s="2" t="s">
+        <v>6550</v>
+      </c>
+      <c r="C2375" s="2" t="s">
+        <v>6606</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:3">
+      <c r="A2376" s="2" t="s">
+        <v>6540</v>
+      </c>
+      <c r="B2376" s="2" t="s">
+        <v>6551</v>
+      </c>
+      <c r="C2376" s="2" t="s">
+        <v>6607</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:3">
+      <c r="A2377" s="2" t="s">
+        <v>6541</v>
+      </c>
+      <c r="B2377" s="2" t="s">
+        <v>6551</v>
+      </c>
+      <c r="C2377" s="2" t="s">
+        <v>6608</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:3">
+      <c r="A2378" s="2" t="s">
+        <v>6542</v>
+      </c>
+      <c r="B2378" s="2" t="s">
+        <v>6552</v>
+      </c>
+      <c r="C2378" s="2" t="s">
+        <v>6609</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:3">
+      <c r="A2379" s="2" t="s">
+        <v>6543</v>
+      </c>
+      <c r="B2379" s="2" t="s">
+        <v>6552</v>
+      </c>
+      <c r="C2379" s="2" t="s">
+        <v>6610</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:3">
+      <c r="A2380" s="2" t="s">
+        <v>6553</v>
+      </c>
+      <c r="B2380" s="2" t="s">
+        <v>6552</v>
+      </c>
+      <c r="C2380" s="2" t="s">
+        <v>6611</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:3">
+      <c r="A2381" s="2" t="s">
+        <v>6544</v>
+      </c>
+      <c r="B2381" s="2" t="s">
+        <v>6554</v>
+      </c>
+      <c r="C2381" s="2" t="s">
+        <v>6612</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:3">
+      <c r="A2382" s="2" t="s">
+        <v>6545</v>
+      </c>
+      <c r="B2382" s="2" t="s">
+        <v>6555</v>
+      </c>
+      <c r="C2382" s="2" t="s">
+        <v>6613</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:3">
+      <c r="A2383" s="2" t="s">
+        <v>6546</v>
+      </c>
+      <c r="B2383" s="2" t="s">
+        <v>6556</v>
+      </c>
+      <c r="C2383" s="2" t="s">
+        <v>6614</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:3">
+      <c r="A2384" s="2" t="s">
+        <v>6547</v>
+      </c>
+      <c r="B2384" s="2" t="s">
+        <v>6557</v>
+      </c>
+      <c r="C2384" s="2" t="s">
+        <v>6615</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:3">
+      <c r="A2385" s="2" t="s">
+        <v>6548</v>
+      </c>
+      <c r="B2385" s="2" t="s">
+        <v>6558</v>
+      </c>
+      <c r="C2385" s="2" t="s">
+        <v>6616</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:3">
+      <c r="A2386" s="2" t="s">
+        <v>6549</v>
+      </c>
+      <c r="B2386" s="2" t="s">
+        <v>6559</v>
+      </c>
+      <c r="C2386" s="2" t="s">
+        <v>5073</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:3">
+      <c r="A2387" s="5" t="s">
+        <v>6574</v>
+      </c>
+      <c r="B2387" s="2" t="s">
+        <v>6560</v>
+      </c>
+      <c r="C2387" s="2" t="s">
+        <v>6617</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:3">
+      <c r="A2388" s="5" t="s">
+        <v>6575</v>
+      </c>
+      <c r="B2388" s="2" t="s">
+        <v>6561</v>
+      </c>
+      <c r="C2388" s="2" t="s">
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:3">
+      <c r="A2389" s="5" t="s">
+        <v>6576</v>
+      </c>
+      <c r="B2389" s="2" t="s">
+        <v>6562</v>
+      </c>
+      <c r="C2389" s="2" t="s">
+        <v>6619</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:3">
+      <c r="A2390" s="2" t="s">
+        <v>6577</v>
+      </c>
+      <c r="B2390" s="2" t="s">
+        <v>6563</v>
+      </c>
+      <c r="C2390" s="2" t="s">
+        <v>6620</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:3">
+      <c r="A2391" s="5" t="s">
+        <v>6578</v>
+      </c>
+      <c r="B2391" s="2" t="s">
+        <v>6564</v>
+      </c>
+      <c r="C2391" s="2" t="s">
+        <v>6621</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:3">
+      <c r="A2392" s="2" t="s">
+        <v>6579</v>
+      </c>
+      <c r="B2392" s="2" t="s">
+        <v>6565</v>
+      </c>
+      <c r="C2392" s="2" t="s">
+        <v>6622</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:3">
+      <c r="A2393" s="5" t="s">
+        <v>6580</v>
+      </c>
+      <c r="B2393" s="2" t="s">
+        <v>6566</v>
+      </c>
+      <c r="C2393" s="2" t="s">
+        <v>6623</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:3">
+      <c r="A2394" s="2" t="s">
+        <v>6581</v>
+      </c>
+      <c r="B2394" s="2" t="s">
+        <v>6567</v>
+      </c>
+      <c r="C2394" s="2" t="s">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:3">
+      <c r="A2395" s="2" t="s">
+        <v>6582</v>
+      </c>
+      <c r="B2395" s="2" t="s">
+        <v>6568</v>
+      </c>
+      <c r="C2395" s="2" t="s">
+        <v>6625</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:3">
+      <c r="A2396" s="2" t="s">
+        <v>6583</v>
+      </c>
+      <c r="B2396" s="2" t="s">
+        <v>6570</v>
+      </c>
+      <c r="C2396" s="2" t="s">
+        <v>6626</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:3">
+      <c r="A2397" s="2" t="s">
+        <v>6584</v>
+      </c>
+      <c r="B2397" s="5" t="s">
+        <v>6569</v>
+      </c>
+      <c r="C2397" s="2" t="s">
+        <v>6627</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:3">
+      <c r="A2398" s="2" t="s">
+        <v>6585</v>
+      </c>
+      <c r="B2398" s="2" t="s">
+        <v>6571</v>
+      </c>
+      <c r="C2398" s="2" t="s">
+        <v>6628</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:3">
+      <c r="A2399" s="2" t="s">
+        <v>6586</v>
+      </c>
+      <c r="B2399" s="2" t="s">
+        <v>6572</v>
+      </c>
+      <c r="C2399" s="2" t="s">
+        <v>6629</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:3">
+      <c r="A2400" s="2" t="s">
+        <v>6587</v>
+      </c>
+      <c r="B2400" s="2" t="s">
+        <v>6573</v>
+      </c>
+      <c r="C2400" s="2" t="s">
+        <v>6630</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C1802">
     <sortCondition ref="B1:B1802"/>

--- a/日本語/1_語彙.xlsx
+++ b/日本語/1_語彙.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11229"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeshafteure/Documents/GitHub/Freshmore/日本語/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18716242-AC33-5349-A420-6162151C5D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744FEBF0-BB2A-F643-B0A4-9912311F51CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="15840" windowHeight="18900" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7200" uniqueCount="6631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8400" uniqueCount="7715">
   <si>
     <t>亜〜</t>
   </si>
@@ -28038,12 +28038,4235 @@
     <t>lecturer, instructor</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>こうじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工事</t>
+    <rPh sb="0" eb="2">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口 実</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうしき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後者</t>
+  </si>
+  <si>
+    <t>校含</t>
+  </si>
+  <si>
+    <t>公衆</t>
+  </si>
+  <si>
+    <t>講習</t>
+  </si>
+  <si>
+    <t>口述</t>
+  </si>
+  <si>
+    <t>控除</t>
+  </si>
+  <si>
+    <t>高尚</t>
+  </si>
+  <si>
+    <t>こうじつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうして</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうしゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうしゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうじゅつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうじょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうじょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうしょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交渉</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工場</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウジョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向上</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウジョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうじょう／こうば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行進</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうしん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香辛料</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">コウシンリョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうしんりょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香水</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウスイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうすい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>降水</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウスイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洪水</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウズイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうずい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公正</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合成</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゴウセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごうせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>功績</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウセキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうせき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光線</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウセン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうせん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公然</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウゼン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうぜん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高層</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウソウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抗争</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウソウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構想</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウソウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウゾウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうぞう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高速</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウソク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうそく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拘束</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウソク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交替</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後退</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交代</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光沢</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウタク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうたく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公団</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウダン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうだん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耕地</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紅茶</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウチャ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうちゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>校長</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウチョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうちょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好調</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウチョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交通</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウツウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうつう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交通機関</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">コウツウキカン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうつうきかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>校庭</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウテイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肯定</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウテイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうてい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高度</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウド </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高等</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウトウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうとう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口頭</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウトウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講堂</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウドウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうどう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウドウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>construction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>formally, officially</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an excuse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>in this way, thus, like this</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>latter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>schoolhouse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class, training course</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>state orally, dictate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subtraction, deduction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>elevated, high-end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>negotiation, bargaining, connection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>factory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>improvement, progress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>march, parade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spices</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>perfume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rainfall, precipitation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flood, inundation, flow, deluge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>justice, fairness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>composition, construction, formation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>composition, synthesis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a meritorious deed, achivevements, services</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a ray/beam of light</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openly, publicly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>high-rise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rivalry,, strife, strucggle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plan, conception</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structure, construction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>high/full speed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>restrct, place restrictions, confinement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a change, a shift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retreat, back (up), recession</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a change, a shift, relief</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brillance, burnish, glazing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public corporation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arable land, tillable land</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tea</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>principal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boom, excellent condition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>traffic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>transportation facilities</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>school grounds, a playground, a campus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>affirmation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>altitude, height, a high degree</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>high, higher, advanced, high-class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orally, verbally</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auditorium</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an action, behaviour, conduct, take action</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>robbery, mugging, burglary, a robber, a mugger, a burglar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強盜</t>
+  </si>
+  <si>
+    <t>合同</t>
+  </si>
+  <si>
+    <t>高等学校</t>
+  </si>
+  <si>
+    <t>講読</t>
+  </si>
+  <si>
+    <t>購読</t>
+  </si>
+  <si>
+    <t>光熱費</t>
+  </si>
+  <si>
+    <t>後輩</t>
+  </si>
+  <si>
+    <t>荒廃</t>
+  </si>
+  <si>
+    <t>購買</t>
+  </si>
+  <si>
+    <t>後半</t>
+  </si>
+  <si>
+    <t>交番</t>
+  </si>
+  <si>
+    <t>公表</t>
+  </si>
+  <si>
+    <t>好評</t>
+  </si>
+  <si>
+    <t>交付</t>
+  </si>
+  <si>
+    <t>幸福</t>
+  </si>
+  <si>
+    <t>鉱物</t>
+  </si>
+  <si>
+    <t>興奮</t>
+  </si>
+  <si>
+    <t>公平</t>
+  </si>
+  <si>
+    <t>候補</t>
+  </si>
+  <si>
+    <t>公募</t>
+  </si>
+  <si>
+    <t>巧妙</t>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>紅葉</t>
+  </si>
+  <si>
+    <t>公用</t>
+  </si>
+  <si>
+    <t>公立</t>
+  </si>
+  <si>
+    <t>効率</t>
+  </si>
+  <si>
+    <t>交流</t>
+  </si>
+  <si>
+    <t>合流</t>
+  </si>
+  <si>
+    <t>声</t>
+  </si>
+  <si>
+    <t>護衛</t>
+  </si>
+  <si>
+    <t>越える/超える</t>
+  </si>
+  <si>
+    <t>購入</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公認</t>
+  </si>
+  <si>
+    <t>公務員</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公務</t>
+  </si>
+  <si>
+    <t>合理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小売［り］</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>考慮</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷</t>
+  </si>
+  <si>
+    <t>凍る</t>
+  </si>
+  <si>
+    <t>ごうどう</t>
+  </si>
+  <si>
+    <t>こうとうがっこう</t>
+  </si>
+  <si>
+    <t>こうどく</t>
+  </si>
+  <si>
+    <t>こうにゅう</t>
+  </si>
+  <si>
+    <t>こうにん</t>
+  </si>
+  <si>
+    <t>こうねつひ</t>
+  </si>
+  <si>
+    <t>こうはい</t>
+  </si>
+  <si>
+    <t>こうはん</t>
+  </si>
+  <si>
+    <t>こうばん</t>
+  </si>
+  <si>
+    <t>こうひょう</t>
+  </si>
+  <si>
+    <t>こうふ</t>
+  </si>
+  <si>
+    <t>こうふく</t>
+  </si>
+  <si>
+    <t>こうぶつ</t>
+  </si>
+  <si>
+    <t>こうふん</t>
+  </si>
+  <si>
+    <t>こうへい</t>
+  </si>
+  <si>
+    <t>こうむ</t>
+  </si>
+  <si>
+    <t>こうむいん</t>
+  </si>
+  <si>
+    <t>こうもく</t>
+  </si>
+  <si>
+    <t>こうよう</t>
+  </si>
+  <si>
+    <t>ごうり</t>
+  </si>
+  <si>
+    <t>こうりつ</t>
+  </si>
+  <si>
+    <t>ごうりゅう</t>
+  </si>
+  <si>
+    <t>コーナー</t>
+  </si>
+  <si>
+    <t>ごうどう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうばい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうほ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうぼ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうみよう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうよう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうりつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうりゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうりよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうりょく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごえい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごえんりょなく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こおり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こお</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>high school</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reading,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subscription,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>purchase, buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recognize (approve) officially, authorize</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>expenses for lighting and fuel, electricity and heating expenses</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>junior</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dilapidation, devastation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>purchasing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the latter/second half</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>police box</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publication, official announcement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>popular</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delivering prescription, grant, issue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>happiness, well-being, bliss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mineral</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excitement, agillation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>impartiality, fairness, impartial, fair</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>candidacy, candidature, a candidate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>invite public participation, advertise for, solicit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>skillful(ly), ingeniously), clever(ly)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goverment affairs, public service</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public employee, officer, civil servant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>head(ing), item, topic, content, article, particular, clause, provision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>colored leaves, autumn/fall colors</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>for public (government) use, official business</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retailing, retail sales</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rationality</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public, municipal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>efficiency</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exchange, interchange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confluence, concourse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>consideration, account, reference, regard, attention</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>effect, efficacy, validity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>voice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guard, escort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exceed, transcend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please help yourself ~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>course</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coach</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coat, overcoat, jacket</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>court</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cord</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>corner, section, segment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coffee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chorus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>freeze, ice, frost, curdle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こくぼう</t>
+  </si>
+  <si>
+    <t>国防</t>
+  </si>
+  <si>
+    <t>national defense</t>
+  </si>
+  <si>
+    <t>こくみん</t>
+  </si>
+  <si>
+    <t>国民</t>
+  </si>
+  <si>
+    <t>こくもつ</t>
+  </si>
+  <si>
+    <t>穀物</t>
+  </si>
+  <si>
+    <t>grain, cereals, corn</t>
+  </si>
+  <si>
+    <t>こくゆう</t>
+  </si>
+  <si>
+    <t>極楽</t>
+  </si>
+  <si>
+    <t>the Land of Happiness, (Buddhists') paradise, heaven, supreme bliss</t>
+  </si>
+  <si>
+    <t>国立</t>
+  </si>
+  <si>
+    <t>国連</t>
+  </si>
+  <si>
+    <t>the United Nations</t>
+  </si>
+  <si>
+    <t>ご苦労様</t>
+  </si>
+  <si>
+    <t>ここ</t>
+  </si>
+  <si>
+    <t>試み</t>
+  </si>
+  <si>
+    <t>ゴール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誤解</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>misunderstanding, misunderstand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごがく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>語学</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>language study</t>
+  </si>
+  <si>
+    <t>こがす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>焦［が］す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>burn, scorch, singe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こがら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小柄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>small-sized</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小切手</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こぎって</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呼吸</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コキュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こきゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check, cheque</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>故郷</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こきょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one's hometown/village, one's native place</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>breathing, respiration, breath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜国</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">クニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜こく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a country</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漕ぐ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">コグ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こぐ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>row (a boat), pedal (a bicycle), swing oneself (on a swing)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>極 </t>
+  </si>
+  <si>
+    <t>語句</t>
+  </si>
+  <si>
+    <t>国王</t>
+  </si>
+  <si>
+    <t>国語</t>
+  </si>
+  <si>
+    <t>国際</t>
+  </si>
+  <si>
+    <t>国產</t>
+  </si>
+  <si>
+    <t>国籍</t>
+  </si>
+  <si>
+    <t>国定</t>
+  </si>
+  <si>
+    <t>国土</t>
+  </si>
+  <si>
+    <t>告白</t>
+  </si>
+  <si>
+    <t>黒板</t>
+  </si>
+  <si>
+    <t>克服</t>
+  </si>
+  <si>
+    <t>ごく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こくおう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こくご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こくさい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こくさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こくせき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こくてい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こくど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こくはく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こくばん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こくふく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国有</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごくらく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こくりつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thank you very much! / Thank you for your trouble. / Thanks a lot!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a nation, a people</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>state ownership</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>national</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>most, very, extremely</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>words and phrases</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>king, monarch, sovereign</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Japanese language, language of the country.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>domestic production</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one's nationality, one's citizenship.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>state, national</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>country, territory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confession, admit, acknowledge,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>black board, chalkboard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>conquer, overcome</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こくれん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごくろうさま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>焦げ茶</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こげちゃ</t>
+  </si>
+  <si>
+    <t>cocoa, dark brown color</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こげる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>焦げる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>語源</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごげん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個々</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>午後</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>凍える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こごえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心地</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>九日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>九つ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ココロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心当［た］り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここのか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここのつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こころ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こころあたり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こころえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こころえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こころがけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こころがける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こころざし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こころざす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こころづよい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こころぼそい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心得る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心掛け</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心掛ける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>志</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>志す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心強い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心細い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be burned/burnt, be charred, be scorched, scorch, be singed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>etymology, the origin of a word</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>here</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>individuals, one by one</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>afternoon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>freeze, be frozen, chill, be chilled</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feeling, sensation, mood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the 9th day (of the month), 9 days</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9 (things)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>heart, mind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>think of, know of</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>knowledge, understanding, directions,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>know, understand, regard, think, be aware,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mind, spirit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>try to do, endeavour</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one's will, one's resolution, aim, purpose,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intend, aim, resolve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reassuring, encouraging</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be/feel lonely, helpless, hopeless, discouraging</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こころみ</t>
+  </si>
+  <si>
+    <t>こころみる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試みる</t>
+  </si>
+  <si>
+    <t>こころよい</t>
+  </si>
+  <si>
+    <t>快い</t>
+  </si>
+  <si>
+    <t>ごさ</t>
+  </si>
+  <si>
+    <t>誤差</t>
+  </si>
+  <si>
+    <t>ございます</t>
+  </si>
+  <si>
+    <t>ございます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こし</t>
+  </si>
+  <si>
+    <t>腰</t>
+  </si>
+  <si>
+    <t>孤児</t>
+  </si>
+  <si>
+    <t>こしかけ</t>
+  </si>
+  <si>
+    <t>腰掛［け］</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こしかける</t>
+  </si>
+  <si>
+    <t>腰掛ける</t>
+  </si>
+  <si>
+    <t>ごじゅうおん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>五十音</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（御）主人</t>
+  </si>
+  <si>
+    <t>（ご）しゅじん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こしよう</t>
+  </si>
+  <si>
+    <t>胡椒</t>
+  </si>
+  <si>
+    <t>こしょう（する）</t>
+  </si>
+  <si>
+    <t>故障（する）</t>
+  </si>
+  <si>
+    <t>こしらえる</t>
+  </si>
+  <si>
+    <t>こじれる</t>
+  </si>
+  <si>
+    <t>こじん</t>
+  </si>
+  <si>
+    <t>個人</t>
+  </si>
+  <si>
+    <t>故人</t>
+  </si>
+  <si>
+    <t>こす</t>
+  </si>
+  <si>
+    <t>こずえ</t>
+  </si>
+  <si>
+    <t>梢</t>
+  </si>
+  <si>
+    <t>こする</t>
+  </si>
+  <si>
+    <t>こせい</t>
+  </si>
+  <si>
+    <t>個性</t>
+  </si>
+  <si>
+    <t>こせき</t>
+  </si>
+  <si>
+    <t>戸籍</t>
+  </si>
+  <si>
+    <t>こぜに</t>
+  </si>
+  <si>
+    <t>小銭</t>
+  </si>
+  <si>
+    <t>ごぜん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>午前</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～こそ</t>
+  </si>
+  <si>
+    <t>ごぞんじ</t>
+  </si>
+  <si>
+    <t>ご存知</t>
+  </si>
+  <si>
+    <t>こたい</t>
+  </si>
+  <si>
+    <t>固体</t>
+  </si>
+  <si>
+    <t>こだい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こたえ</t>
+  </si>
+  <si>
+    <t>答え</t>
+  </si>
+  <si>
+    <t>こたえる</t>
+  </si>
+  <si>
+    <t>答える</t>
+  </si>
+  <si>
+    <t>こたつ</t>
+  </si>
+  <si>
+    <t>こだわる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごちそう</t>
+  </si>
+  <si>
+    <t>御馳走</t>
+  </si>
+  <si>
+    <t>ごちそうさま（でした）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こちょう</t>
+  </si>
+  <si>
+    <t>こちら／こっち</t>
+  </si>
+  <si>
+    <t>誇張</t>
+  </si>
+  <si>
+    <t>こちらこそ</t>
+  </si>
+  <si>
+    <t>こつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国家</t>
+    <rPh sb="0" eb="2">
+      <t>コッ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こっか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こっかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国会</t>
+    <rPh sb="0" eb="2">
+      <t>コッ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こつかい</t>
+  </si>
+  <si>
+    <t>こつきょう</t>
+  </si>
+  <si>
+    <t>国境</t>
+  </si>
+  <si>
+    <t>小遣［い］</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滑稽</t>
+  </si>
+  <si>
+    <t>こっこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国交</t>
+    <rPh sb="0" eb="2">
+      <t>コッコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>骨折</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こっせつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こっけい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こっそり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小包</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こづつみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a trial, a test, an experiment, an attempt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>try, attempt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pleasant, comfortable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>margin of error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>polite form of あります and であります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the (lower) back, (around) the waist, the hip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orphan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chair, bench, stool, temporary work, stopgap iob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sit (down)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Japanese kana syllabary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>husband</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pepper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>make, prepare, dress oneself up, fabricate, make up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>become complicated</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>individual, personal, private</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the deceased, the departed, the dead</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cross, exceed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>filter, strain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>treetop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rub, scrub, scrape</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>individuality, personality</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>small money, change</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>family registration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A.M.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>taking a particular example to emphasize</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>know (humble cauvalent of しります)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a solid (body), solid matter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ancient times, antiquity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer, reply</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a kotatsu, a low, covered table with a heat source underneath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be particular (about)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gorgeous dinner, gorgeous lunch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thank you for the meal.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exaggeration, overstatement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This direction / polite of "ここ"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>likewise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>knack, art, the hang</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a nation, a state, a country</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the Diet, Congress, Parliament</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spending money, pocket money, allowance, pin money</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>border, frontier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a cook, a cock, a tap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comical, funny</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diplomatic relations</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a bone fracture, a broken bone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stealthily, in secret</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a package, a parcel, parcel post</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こっとうひん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>骨董品</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curio. antique</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>glass/cup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こてい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fixation, fixing, pinning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こてん</t>
+  </si>
+  <si>
+    <t>古典</t>
+  </si>
+  <si>
+    <t>a classic,/古典的 classic，古典音楽 classical music</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こと</t>
+  </si>
+  <si>
+    <t>事</t>
+  </si>
+  <si>
+    <t>thing, matter</t>
+  </si>
+  <si>
+    <t>琴</t>
+  </si>
+  <si>
+    <t>〜ごと</t>
+  </si>
+  <si>
+    <t>～毎</t>
+  </si>
+  <si>
+    <t>〜ごと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～ことから</t>
+  </si>
+  <si>
+    <t>because .... due to ...</t>
+  </si>
+  <si>
+    <t>ことがら</t>
+  </si>
+  <si>
+    <t>事柄</t>
+  </si>
+  <si>
+    <t>a matter, an affair, circumstances</t>
+  </si>
+  <si>
+    <t>孤独</t>
+  </si>
+  <si>
+    <t>solitude, loneliness</t>
+  </si>
+  <si>
+    <t>今年</t>
+  </si>
+  <si>
+    <t>this year</t>
+  </si>
+  <si>
+    <t>言付ける</t>
+  </si>
+  <si>
+    <t>send/give/leave a message, send word, send a thing</t>
+  </si>
+  <si>
+    <t>言伝</t>
+  </si>
+  <si>
+    <t>message, word</t>
+  </si>
+  <si>
+    <t>異なる</t>
+  </si>
+  <si>
+    <t>differ, be different</t>
+  </si>
+  <si>
+    <t>殊に</t>
+  </si>
+  <si>
+    <t>言葉</t>
+  </si>
+  <si>
+    <t>word, language</t>
+  </si>
+  <si>
+    <t>ことばづかい</t>
+  </si>
+  <si>
+    <t>言葉遣い</t>
+  </si>
+  <si>
+    <t>こども</t>
+  </si>
+  <si>
+    <t>子供</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>小鳥</t>
+  </si>
+  <si>
+    <t>(small/little) bird</t>
+  </si>
+  <si>
+    <t>ことわる</t>
+  </si>
+  <si>
+    <t>諺</t>
+  </si>
+  <si>
+    <t>断［わ］る</t>
+  </si>
+  <si>
+    <t>a proverb, a (common) saying</t>
+  </si>
+  <si>
+    <t>decline, refuse, reject, give a person notice, make an excuse</t>
+  </si>
+  <si>
+    <t>粉</t>
+  </si>
+  <si>
+    <t>粉々</t>
+  </si>
+  <si>
+    <t>この間</t>
+  </si>
+  <si>
+    <t>recently, several days ago, the other day, lately, a short time ago, last</t>
+  </si>
+  <si>
+    <t>この頃</t>
+  </si>
+  <si>
+    <t>now, these days, recently, nowadays</t>
+  </si>
+  <si>
+    <t>好ましい</t>
+  </si>
+  <si>
+    <t>好［み］</t>
+  </si>
+  <si>
+    <t>好む</t>
+  </si>
+  <si>
+    <t>like, be fond of, love, care, prefer</t>
+  </si>
+  <si>
+    <t>こどく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ことごとく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ことし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ことつける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ことづて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ことなる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ことに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ことによると</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ことば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ことり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ことわざ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こな／こ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こなごな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このあいだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このごろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このましい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a koto, a long Japanese zither with thirteen strings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>every, per, a, by</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>as if a ~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all along the line</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>perhaps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wording, expression, way of speaking</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>powder, dust, flour, meal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>come to picces, crumble into dust</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>desirable, aprceable, welcome</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>liking, taste, choice, preference, a wish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごはん</t>
+  </si>
+  <si>
+    <t>御飯</t>
+  </si>
+  <si>
+    <t>碁盤</t>
+  </si>
+  <si>
+    <t>コピー（する）</t>
+  </si>
+  <si>
+    <t>this &lt;noun&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御無沙汰</t>
+  </si>
+  <si>
+    <t>ごぶさた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こべつ</t>
+  </si>
+  <si>
+    <t>個別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こぼす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こぼれる</t>
+  </si>
+  <si>
+    <t>コマーシャル</t>
+  </si>
+  <si>
+    <t>こまかい</t>
+  </si>
+  <si>
+    <t>細かい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごまかす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こまやか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細やか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>困る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こまる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塵/芥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニケーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>込む/混む</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～こむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～込む</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こむぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小麦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こめ</t>
+  </si>
+  <si>
+    <t>米</t>
+  </si>
+  <si>
+    <t>rice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wheat, corm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rubber, India rubber, gum,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rice, meal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>go board, a thick, square piece of wood, often with legs, marked for playing go.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a copy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜してすみません Excuse me for my long silence.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>individual(ly), separate(Iy), one by one</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spill, shed, grumble, complain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spill, overflow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>commercial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>small, fine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shuffling, cheat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be in trouble/difficulty, be in a fix, have a hard time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>warm, tender</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rubbish, trash, garbage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>communication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be crowded</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>go into</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>越す/超す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>込める</t>
+  </si>
+  <si>
+    <t>御免</t>
+  </si>
+  <si>
+    <t>I'm sorry. / Excuse me.</t>
+  </si>
+  <si>
+    <t>(When you visit someone's house) Hello!</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>御免なさい）</t>
+  </si>
+  <si>
+    <t>籠もる</t>
+  </si>
+  <si>
+    <t>小屋</t>
+  </si>
+  <si>
+    <t>固有</t>
+  </si>
+  <si>
+    <t>小指</t>
+  </si>
+  <si>
+    <t>the little finger, the pinkie (finger), the little toe</t>
+  </si>
+  <si>
+    <t>雇用</t>
+  </si>
+  <si>
+    <t>暦</t>
+  </si>
+  <si>
+    <t>a calendar, an almanac</t>
+  </si>
+  <si>
+    <t>娯楽</t>
+  </si>
+  <si>
+    <t>こらす</t>
+  </si>
+  <si>
+    <t>凝らす</t>
+  </si>
+  <si>
+    <t>ごらん</t>
+  </si>
+  <si>
+    <t>御覧</t>
+  </si>
+  <si>
+    <t>ごらんなさい</t>
+  </si>
+  <si>
+    <t>ごらんになる</t>
+  </si>
+  <si>
+    <t>御覧になる</t>
+  </si>
+  <si>
+    <t>孤立</t>
+  </si>
+  <si>
+    <t>懲りる</t>
+  </si>
+  <si>
+    <t>こる</t>
+  </si>
+  <si>
+    <t>凝る</t>
+  </si>
+  <si>
+    <t>become stiff, be absorbed in, be crazy about, have a passion for, elaborate</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>from now on</t>
+  </si>
+  <si>
+    <t>a collection</t>
+  </si>
+  <si>
+    <t>頃</t>
+  </si>
+  <si>
+    <t>転がす</t>
+  </si>
+  <si>
+    <t>転がる</t>
+  </si>
+  <si>
+    <t>roll (over)</t>
+  </si>
+  <si>
+    <t>殺す</t>
+  </si>
+  <si>
+    <t>kill, murder, slay</t>
+  </si>
+  <si>
+    <t>転ぶ</t>
+  </si>
+  <si>
+    <t>fall, tumble, slip</t>
+  </si>
+  <si>
+    <t>怖い</t>
+  </si>
+  <si>
+    <t>fearful, dreadful, horrible, terrible</t>
+  </si>
+  <si>
+    <t>壊す</t>
+  </si>
+  <si>
+    <t>break, destroy, damage</t>
+  </si>
+  <si>
+    <t>こわれる</t>
+  </si>
+  <si>
+    <t>壊れる</t>
+  </si>
+  <si>
+    <t>be broken, be destroyed, be damaged</t>
+  </si>
+  <si>
+    <t>こん</t>
+  </si>
+  <si>
+    <t>紺</t>
+  </si>
+  <si>
+    <t>dark blue, navy blue</t>
+  </si>
+  <si>
+    <t>こん〜</t>
+  </si>
+  <si>
+    <t>今回</t>
+  </si>
+  <si>
+    <t>this time</t>
+  </si>
+  <si>
+    <t>根気</t>
+  </si>
+  <si>
+    <t>perseverance, patience</t>
+  </si>
+  <si>
+    <t>根拠</t>
+  </si>
+  <si>
+    <t>ground(s), basis</t>
+  </si>
+  <si>
+    <t>混血</t>
+  </si>
+  <si>
+    <t>mixed blood</t>
+  </si>
+  <si>
+    <t>今月</t>
+  </si>
+  <si>
+    <t>this month</t>
+  </si>
+  <si>
+    <t>今後</t>
+  </si>
+  <si>
+    <t>from now on, in the future</t>
+  </si>
+  <si>
+    <t>こんざつ</t>
+  </si>
+  <si>
+    <t>concert</t>
+  </si>
+  <si>
+    <t>今週</t>
+  </si>
+  <si>
+    <t>contact lens</t>
+  </si>
+  <si>
+    <t>献立</t>
+  </si>
+  <si>
+    <t>こめる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごめん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごめんください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今〜</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イマ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>混合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>混雜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">this week </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wall socket</t>
+  </si>
+  <si>
+    <t>a menu, a bill of fare</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>congestion, a crush</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mixing, mixture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>concrete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roll, bowl, roll over</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(the) time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>these</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>learn a lesson, be disgusted</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isolation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Look!, Have a look!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>look, see, Take/Have a look (at it)!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>amusement, recreation, entertainment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>endure, stand, suppress, tolerate, stifle, repress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one's own, characteristic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a hut, a shed, a shack, a cabin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hide oneself</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+  </si>
+  <si>
+    <t>こもる</t>
+  </si>
+  <si>
+    <t>こゆう</t>
+  </si>
+  <si>
+    <t>こよう</t>
+  </si>
+  <si>
+    <t>こよみ</t>
+  </si>
+  <si>
+    <t>こりつ</t>
+  </si>
+  <si>
+    <t>こんき</t>
+  </si>
+  <si>
+    <t>こんきょ</t>
+  </si>
+  <si>
+    <t>こんけつ</t>
+  </si>
+  <si>
+    <t>コンタクト（レンズ）</t>
+  </si>
+  <si>
+    <t>ごめん（なさい）</t>
+  </si>
+  <si>
+    <t>こや</t>
+  </si>
+  <si>
+    <t>こらえる</t>
+  </si>
+  <si>
+    <t>ころす</t>
+  </si>
+  <si>
+    <t>ころぶ</t>
+  </si>
+  <si>
+    <t>こんかい</t>
+  </si>
+  <si>
+    <t>コンクール</t>
+  </si>
+  <si>
+    <t>こんご</t>
+  </si>
+  <si>
+    <t>こんごう</t>
+  </si>
+  <si>
+    <t>こわい</t>
+  </si>
+  <si>
+    <t>コンサート</t>
+  </si>
+  <si>
+    <t>こんしゅう</t>
+  </si>
+  <si>
+    <t>これ</t>
+  </si>
+  <si>
+    <t>これから</t>
+  </si>
+  <si>
+    <t>ころ</t>
+  </si>
+  <si>
+    <t>ころがす</t>
+  </si>
+  <si>
+    <t>こんげつ</t>
+  </si>
+  <si>
+    <t>こんだて</t>
+  </si>
+  <si>
+    <t>こゆび</t>
+  </si>
+  <si>
+    <t>ごらく</t>
+  </si>
+  <si>
+    <t>こりる</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>これら</t>
+  </si>
+  <si>
+    <t>ころがる</t>
+  </si>
+  <si>
+    <t>コンクリート</t>
+  </si>
+  <si>
+    <t>コンセント</t>
+  </si>
+  <si>
+    <t>こわす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心を〜 with all one's heart,/ピストルに弾を〜 load a pistol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目を〜 Iook closely./工夫を〜 exercise (one's) ingenuity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>see, look at, watch (honorific form for 見る)</t>
+    <rPh sb="40" eb="41">
+      <t xml:space="preserve">ミル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a contest, 音楽〜 a musical contest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昆虫</t>
+  </si>
+  <si>
+    <t>insect, bug</t>
+  </si>
+  <si>
+    <t>根底</t>
+  </si>
+  <si>
+    <t>今度</t>
+  </si>
+  <si>
+    <t>next time, this time</t>
+  </si>
+  <si>
+    <t>混同</t>
+  </si>
+  <si>
+    <t>こんな</t>
+  </si>
+  <si>
+    <t>こんなに</t>
+  </si>
+  <si>
+    <t>困難</t>
+  </si>
+  <si>
+    <t>difficult, hard, troublesome</t>
+  </si>
+  <si>
+    <t>今日</t>
+  </si>
+  <si>
+    <t>今晩</t>
+  </si>
+  <si>
+    <t>this night, this evening</t>
+  </si>
+  <si>
+    <t>Good evening!</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>根本</t>
+  </si>
+  <si>
+    <t>今夜</t>
+  </si>
+  <si>
+    <t>tonight</t>
+  </si>
+  <si>
+    <t>婚約</t>
+  </si>
+  <si>
+    <t>混乱</t>
+  </si>
+  <si>
+    <t>be confused, be disordered</t>
+  </si>
+  <si>
+    <t>差</t>
+  </si>
+  <si>
+    <t>difference, differential, remainder, interval, gap</t>
+  </si>
+  <si>
+    <t>サービス</t>
+  </si>
+  <si>
+    <t>〜さい</t>
+  </si>
+  <si>
+    <t>～さい</t>
+  </si>
+  <si>
+    <t>when, occasion, under</t>
+  </si>
+  <si>
+    <t>さい〜</t>
+  </si>
+  <si>
+    <t>ざい</t>
+  </si>
+  <si>
+    <t>meet (a person) again</t>
+  </si>
+  <si>
+    <t>さいかい</t>
+  </si>
+  <si>
+    <t>さいがい</t>
+  </si>
+  <si>
+    <t>disaster</t>
+  </si>
+  <si>
+    <t>ざいがく</t>
+  </si>
+  <si>
+    <t>さいきん</t>
+  </si>
+  <si>
+    <t>recently</t>
+  </si>
+  <si>
+    <t>bacterium, bacillus, germ</t>
+  </si>
+  <si>
+    <t>細工</t>
+  </si>
+  <si>
+    <t>採掘</t>
+  </si>
+  <si>
+    <t>cycle</t>
+  </si>
+  <si>
+    <t>採决</t>
+  </si>
+  <si>
+    <t>再建</t>
+  </si>
+  <si>
+    <t>こんちゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんてい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんどう</t>
+  </si>
+  <si>
+    <t>コントロール</t>
+  </si>
+  <si>
+    <t>サイクル</t>
+  </si>
+  <si>
+    <t>さい</t>
+  </si>
+  <si>
+    <t>こんど</t>
+  </si>
+  <si>
+    <t>コンパス</t>
+  </si>
+  <si>
+    <t>さ</t>
+  </si>
+  <si>
+    <t>さいけつ</t>
+  </si>
+  <si>
+    <t>さいけん</t>
+  </si>
+  <si>
+    <t>さいく</t>
+  </si>
+  <si>
+    <t>さいくつ</t>
+  </si>
+  <si>
+    <t>コントラスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Good morning!, Good afternoon!, Hello!, Hi!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さあ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>root, foundation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confusion, mixing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contrast</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>such &lt;NOUN&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this, these</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>today, this day, these days</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>compass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foundation, basis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an engagement, a promise to marry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diference, gap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Come on, Now then</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>well, Er, Uh, Um</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a circle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>service, give discount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~years old</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a feast, a festival</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the most, supreme</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goods, wealth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～際</t>
+  </si>
+  <si>
+    <t>〜歳</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>際</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>re~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最</t>
+  </si>
+  <si>
+    <t>財</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再会</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サイカイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>災害</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サイガイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在学</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ザイガク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be a student, be enrolled</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最近</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サイキン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細菌</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サイキン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work, workmanship, trick</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dipping, mining</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vote, division</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんなん</t>
+  </si>
+  <si>
+    <t>こんにち</t>
+  </si>
+  <si>
+    <t>こんにちは</t>
+  </si>
+  <si>
+    <t>こんばん</t>
+  </si>
+  <si>
+    <t>こんばんは</t>
+  </si>
+  <si>
+    <t>コンピューター／コンピュータ</t>
+  </si>
+  <si>
+    <t>こんぽん</t>
+  </si>
+  <si>
+    <t>こんや</t>
+  </si>
+  <si>
+    <t>こんやく</t>
+  </si>
+  <si>
+    <t>こんらん</t>
+  </si>
+  <si>
+    <t>サークル</t>
+  </si>
+  <si>
+    <t>さいげん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ざいげん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ざいこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ざいさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>財產</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採算</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再三</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最高</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>財源</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再現</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rebuiding, reconstruction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reappearance, reproduction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>source of revenue, financial resource</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>highest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>over and over again, again and again, repeatedly, often</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>property, (one's) possessions, a fortune, an estate, assets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祭日</t>
+  </si>
+  <si>
+    <t>最終</t>
+  </si>
+  <si>
+    <t>採集</t>
+  </si>
+  <si>
+    <t>最初</t>
+  </si>
+  <si>
+    <t>さいじつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいしゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいしょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a national holiday, a festival (day)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the last, the final</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>collect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beginning, first</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再生</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サイセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>財政</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ザイセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最善</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サイゼン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>催促</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サイソク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採択</t>
+  </si>
+  <si>
+    <t>最中</t>
+  </si>
+  <si>
+    <t>最低</t>
+  </si>
+  <si>
+    <t>採点</t>
+  </si>
+  <si>
+    <t>災難</t>
+  </si>
+  <si>
+    <t>才能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいのう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ざいせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいぜん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいそく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいたく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいちゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいてい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいてん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいなん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栽培</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サイバイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいばい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再発</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サイハツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいはつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裁判</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サイバン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいばん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>財布</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サイフ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいふ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裁縫</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サイホウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいほう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細胞</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サイボウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいぼう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>材木</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ザイモク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ざいもく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採用</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サイヨウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいよう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ザイリョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ざいりょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイレン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜さえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遮る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サエギル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さえぎる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さえずる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冴える</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サエル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幸［い］</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サイワイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいわい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竿</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サオ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さお</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坂</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>境</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サカイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栄える</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サカエル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さかえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差額</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サガク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さがく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逆さ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サカサ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さかさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逆様</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サカサマ </t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">サマ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さかさま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>探す／捜す</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サガス </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">サガス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さがす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杯</t>
+    <rPh sb="0" eb="1">
+      <t>サカズキ8</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さかずき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逆立ち</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サカダチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さかだち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魚</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サカナ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さかな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遡る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サカノボル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さかのぼる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酒場</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サカバ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さかば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逆らう</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サカラウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さからう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盛り</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サカリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さかり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下がる</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サガル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さがる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盛ん</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サカン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詐欺</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サギ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さきおととい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>three days ago</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>come to life again, regeneration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>finance(s), financial affairs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>best</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a (repeated) demand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adoption</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>in the middle of, while</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>minimum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>markng, grading</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>misfortune, disaster, an accident, a catastrophe,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ability, talent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recurrence, relapse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a trial, a suit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wallet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sewing, needlework</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wood, timber, lumber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adoption, employment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>material</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>siren</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fortunately, be favor with, be glad, be grateful for</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a signature, an autograph, a sign, a signal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>even…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obstruct, cut off, block</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>twitter, sing, chirm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be clear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bamboo pole</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a slope, an incline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>border, boundary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prosper, thrive, flourish, boom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>difference, balance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>upside down</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reverse, upside-down</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sake cup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>handstand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>go against the stream, sail upstream, ascend, date back to, trace back to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bar (room), saloon, public house, pub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>go against, defy, disobey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prime, heyday, flush, heat, rut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>go down /fall/drop/move back</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>active(-ly), vigorous(-ly), successful(-ly)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fraud, swindling</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -28106,11 +32329,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="MS Mincho"/>
       <family val="3"/>
       <charset val="128"/>
@@ -28120,13 +32338,6 @@
       <color theme="1"/>
       <name val="Menlo"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="MS Mincho"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -28170,13 +32381,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28513,10 +32724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD98CDC-2E6D-F340-BEA4-C5F884B9AAD8}">
-  <dimension ref="A1:F2400"/>
+  <dimension ref="A1:F2800"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2375" zoomScale="126" workbookViewId="0">
-      <selection activeCell="C2394" sqref="C2394"/>
+    <sheetView tabSelected="1" topLeftCell="A2774" zoomScale="126" workbookViewId="0">
+      <selection activeCell="C2801" sqref="C2801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -53831,10 +58042,10 @@
       </c>
     </row>
     <row r="2301" spans="1:3">
-      <c r="A2301" s="5" t="s">
+      <c r="A2301" s="2" t="s">
         <v>6378</v>
       </c>
-      <c r="B2301" s="5" t="s">
+      <c r="B2301" s="2" t="s">
         <v>6359</v>
       </c>
       <c r="C2301" s="2" t="s">
@@ -53845,7 +58056,7 @@
       <c r="A2302" s="2" t="s">
         <v>6379</v>
       </c>
-      <c r="B2302" s="5" t="s">
+      <c r="B2302" s="2" t="s">
         <v>6368</v>
       </c>
       <c r="C2302" s="2" t="s">
@@ -53856,7 +58067,7 @@
       <c r="A2303" s="2" t="s">
         <v>6380</v>
       </c>
-      <c r="B2303" s="5" t="s">
+      <c r="B2303" s="2" t="s">
         <v>6368</v>
       </c>
       <c r="C2303" s="2" t="s">
@@ -53867,10 +58078,10 @@
       <c r="A2304" s="2" t="s">
         <v>6381</v>
       </c>
-      <c r="B2304" s="5" t="s">
+      <c r="B2304" s="2" t="s">
         <v>6368</v>
       </c>
-      <c r="C2304" s="5" t="s">
+      <c r="C2304" s="2" t="s">
         <v>6460</v>
       </c>
     </row>
@@ -53878,7 +58089,7 @@
       <c r="A2305" s="2" t="s">
         <v>6382</v>
       </c>
-      <c r="B2305" s="5" t="s">
+      <c r="B2305" s="2" t="s">
         <v>6376</v>
       </c>
       <c r="C2305" s="2" t="s">
@@ -53889,7 +58100,7 @@
       <c r="A2306" s="2" t="s">
         <v>6383</v>
       </c>
-      <c r="B2306" s="5" t="s">
+      <c r="B2306" s="2" t="s">
         <v>6362</v>
       </c>
       <c r="C2306" s="2" t="s">
@@ -53900,10 +58111,10 @@
       <c r="A2307" s="2" t="s">
         <v>6384</v>
       </c>
-      <c r="B2307" s="5" t="s">
+      <c r="B2307" s="2" t="s">
         <v>6362</v>
       </c>
-      <c r="C2307" s="5" t="s">
+      <c r="C2307" s="2" t="s">
         <v>6462</v>
       </c>
     </row>
@@ -53911,7 +58122,7 @@
       <c r="A2308" s="2" t="s">
         <v>6385</v>
       </c>
-      <c r="B2308" s="5" t="s">
+      <c r="B2308" s="2" t="s">
         <v>6363</v>
       </c>
       <c r="C2308" s="2" t="s">
@@ -53922,7 +58133,7 @@
       <c r="A2309" s="2" t="s">
         <v>6386</v>
       </c>
-      <c r="B2309" s="5" t="s">
+      <c r="B2309" s="2" t="s">
         <v>6364</v>
       </c>
       <c r="C2309" s="2" t="s">
@@ -53933,7 +58144,7 @@
       <c r="A2310" s="2" t="s">
         <v>6387</v>
       </c>
-      <c r="B2310" s="6" t="s">
+      <c r="B2310" s="2" t="s">
         <v>6388</v>
       </c>
       <c r="C2310" s="2" t="s">
@@ -53944,7 +58155,7 @@
       <c r="A2311" s="2" t="s">
         <v>6389</v>
       </c>
-      <c r="B2311" s="5" t="s">
+      <c r="B2311" s="2" t="s">
         <v>6365</v>
       </c>
       <c r="C2311" s="2" t="s">
@@ -53955,7 +58166,7 @@
       <c r="A2312" s="2" t="s">
         <v>6390</v>
       </c>
-      <c r="B2312" s="5" t="s">
+      <c r="B2312" s="2" t="s">
         <v>6374</v>
       </c>
       <c r="C2312" s="2" t="s">
@@ -53966,7 +58177,7 @@
       <c r="A2313" s="2" t="s">
         <v>6391</v>
       </c>
-      <c r="B2313" s="6" t="s">
+      <c r="B2313" s="2" t="s">
         <v>6392</v>
       </c>
       <c r="C2313" s="2" t="s">
@@ -53977,7 +58188,7 @@
       <c r="A2314" s="2" t="s">
         <v>6393</v>
       </c>
-      <c r="B2314" s="6" t="s">
+      <c r="B2314" s="2" t="s">
         <v>6394</v>
       </c>
       <c r="C2314" s="2" t="s">
@@ -53988,7 +58199,7 @@
       <c r="A2315" s="2" t="s">
         <v>6395</v>
       </c>
-      <c r="B2315" s="5" t="s">
+      <c r="B2315" s="2" t="s">
         <v>6369</v>
       </c>
       <c r="C2315" s="2" t="s">
@@ -53999,7 +58210,7 @@
       <c r="A2316" s="2" t="s">
         <v>6396</v>
       </c>
-      <c r="B2316" s="5" t="s">
+      <c r="B2316" s="2" t="s">
         <v>6366</v>
       </c>
       <c r="C2316" s="2" t="s">
@@ -54010,7 +58221,7 @@
       <c r="A2317" s="2" t="s">
         <v>6397</v>
       </c>
-      <c r="B2317" s="6" t="s">
+      <c r="B2317" s="2" t="s">
         <v>6377</v>
       </c>
       <c r="C2317" s="2" t="s">
@@ -54021,7 +58232,7 @@
       <c r="A2318" s="2" t="s">
         <v>6398</v>
       </c>
-      <c r="B2318" s="5" t="s">
+      <c r="B2318" s="2" t="s">
         <v>6370</v>
       </c>
       <c r="C2318" s="2" t="s">
@@ -54032,7 +58243,7 @@
       <c r="A2319" s="2" t="s">
         <v>6399</v>
       </c>
-      <c r="B2319" s="5" t="s">
+      <c r="B2319" s="2" t="s">
         <v>6371</v>
       </c>
       <c r="C2319" s="2" t="s">
@@ -54043,7 +58254,7 @@
       <c r="A2320" s="2" t="s">
         <v>6402</v>
       </c>
-      <c r="B2320" s="5" t="s">
+      <c r="B2320" s="2" t="s">
         <v>6360</v>
       </c>
       <c r="C2320" s="2" t="s">
@@ -54054,7 +58265,7 @@
       <c r="A2321" s="2" t="s">
         <v>6403</v>
       </c>
-      <c r="B2321" s="6" t="s">
+      <c r="B2321" s="2" t="s">
         <v>6406</v>
       </c>
       <c r="C2321" s="2" t="s">
@@ -54065,7 +58276,7 @@
       <c r="A2322" s="2" t="s">
         <v>6404</v>
       </c>
-      <c r="B2322" s="5" t="s">
+      <c r="B2322" s="2" t="s">
         <v>6375</v>
       </c>
       <c r="C2322" s="2" t="s">
@@ -54076,7 +58287,7 @@
       <c r="A2323" s="2" t="s">
         <v>6405</v>
       </c>
-      <c r="B2323" s="5" t="s">
+      <c r="B2323" s="2" t="s">
         <v>6367</v>
       </c>
       <c r="C2323" s="2" t="s">
@@ -54087,7 +58298,7 @@
       <c r="A2324" s="2" t="s">
         <v>6407</v>
       </c>
-      <c r="B2324" s="5" t="s">
+      <c r="B2324" s="2" t="s">
         <v>6372</v>
       </c>
       <c r="C2324" s="2" t="s">
@@ -54098,7 +58309,7 @@
       <c r="A2325" s="2" t="s">
         <v>6401</v>
       </c>
-      <c r="B2325" s="5" t="s">
+      <c r="B2325" s="2" t="s">
         <v>6373</v>
       </c>
       <c r="C2325" s="2" t="s">
@@ -54109,7 +58320,7 @@
       <c r="A2326" s="2" t="s">
         <v>6400</v>
       </c>
-      <c r="B2326" s="5" t="s">
+      <c r="B2326" s="2" t="s">
         <v>6361</v>
       </c>
       <c r="C2326" s="2" t="s">
@@ -54139,7 +58350,7 @@
       </c>
     </row>
     <row r="2329" spans="1:3">
-      <c r="A2329" s="8" t="s">
+      <c r="A2329" s="2" t="s">
         <v>6415</v>
       </c>
       <c r="B2329" s="2" t="s">
@@ -54150,7 +58361,7 @@
       </c>
     </row>
     <row r="2330" spans="1:3">
-      <c r="A2330" s="8" t="s">
+      <c r="A2330" s="2" t="s">
         <v>6416</v>
       </c>
       <c r="B2330" s="2" t="s">
@@ -54161,7 +58372,7 @@
       </c>
     </row>
     <row r="2331" spans="1:3">
-      <c r="A2331" s="8" t="s">
+      <c r="A2331" s="2" t="s">
         <v>6417</v>
       </c>
       <c r="B2331" s="2" t="s">
@@ -54172,7 +58383,7 @@
       </c>
     </row>
     <row r="2332" spans="1:3">
-      <c r="A2332" s="8" t="s">
+      <c r="A2332" s="2" t="s">
         <v>6418</v>
       </c>
       <c r="B2332" s="2" t="s">
@@ -54183,7 +58394,7 @@
       </c>
     </row>
     <row r="2333" spans="1:3">
-      <c r="A2333" s="7" t="s">
+      <c r="A2333" s="2" t="s">
         <v>6411</v>
       </c>
       <c r="B2333" s="2" t="s">
@@ -54194,7 +58405,7 @@
       </c>
     </row>
     <row r="2334" spans="1:3">
-      <c r="A2334" s="8" t="s">
+      <c r="A2334" s="2" t="s">
         <v>6419</v>
       </c>
       <c r="B2334" s="2" t="s">
@@ -54205,7 +58416,7 @@
       </c>
     </row>
     <row r="2335" spans="1:3">
-      <c r="A2335" s="8" t="s">
+      <c r="A2335" s="2" t="s">
         <v>6420</v>
       </c>
       <c r="B2335" s="2" t="s">
@@ -54216,7 +58427,7 @@
       </c>
     </row>
     <row r="2336" spans="1:3">
-      <c r="A2336" s="7" t="s">
+      <c r="A2336" s="2" t="s">
         <v>6412</v>
       </c>
       <c r="B2336" s="2" t="s">
@@ -54227,7 +58438,7 @@
       </c>
     </row>
     <row r="2337" spans="1:3">
-      <c r="A2337" s="8" t="s">
+      <c r="A2337" s="2" t="s">
         <v>6421</v>
       </c>
       <c r="B2337" s="2" t="s">
@@ -54238,7 +58449,7 @@
       </c>
     </row>
     <row r="2338" spans="1:3">
-      <c r="A2338" s="7" t="s">
+      <c r="A2338" s="2" t="s">
         <v>6413</v>
       </c>
       <c r="B2338" s="2" t="s">
@@ -54249,7 +58460,7 @@
       </c>
     </row>
     <row r="2339" spans="1:3">
-      <c r="A2339" s="8" t="s">
+      <c r="A2339" s="2" t="s">
         <v>6426</v>
       </c>
       <c r="B2339" s="2" t="s">
@@ -54260,7 +58471,7 @@
       </c>
     </row>
     <row r="2340" spans="1:3">
-      <c r="A2340" s="8" t="s">
+      <c r="A2340" s="2" t="s">
         <v>6427</v>
       </c>
       <c r="B2340" s="2" t="s">
@@ -54271,7 +58482,7 @@
       </c>
     </row>
     <row r="2341" spans="1:3">
-      <c r="A2341" s="7" t="s">
+      <c r="A2341" s="2" t="s">
         <v>6414</v>
       </c>
       <c r="B2341" s="2" t="s">
@@ -54293,7 +58504,7 @@
       </c>
     </row>
     <row r="2343" spans="1:3">
-      <c r="A2343" s="7" t="s">
+      <c r="A2343" s="2" t="s">
         <v>6436</v>
       </c>
       <c r="B2343" s="2" t="s">
@@ -54304,7 +58515,7 @@
       </c>
     </row>
     <row r="2344" spans="1:3">
-      <c r="A2344" s="7" t="s">
+      <c r="A2344" s="2" t="s">
         <v>6437</v>
       </c>
       <c r="B2344" s="2" t="s">
@@ -54315,7 +58526,7 @@
       </c>
     </row>
     <row r="2345" spans="1:3">
-      <c r="A2345" s="8" t="s">
+      <c r="A2345" s="2" t="s">
         <v>6448</v>
       </c>
       <c r="B2345" s="2" t="s">
@@ -54326,7 +58537,7 @@
       </c>
     </row>
     <row r="2346" spans="1:3">
-      <c r="A2346" s="7" t="s">
+      <c r="A2346" s="2" t="s">
         <v>6438</v>
       </c>
       <c r="B2346" s="2" t="s">
@@ -54337,7 +58548,7 @@
       </c>
     </row>
     <row r="2347" spans="1:3">
-      <c r="A2347" s="7" t="s">
+      <c r="A2347" s="2" t="s">
         <v>6439</v>
       </c>
       <c r="B2347" s="2" t="s">
@@ -54348,7 +58559,7 @@
       </c>
     </row>
     <row r="2348" spans="1:3">
-      <c r="A2348" s="7" t="s">
+      <c r="A2348" s="2" t="s">
         <v>6440</v>
       </c>
       <c r="B2348" s="2" t="s">
@@ -54359,10 +58570,10 @@
       </c>
     </row>
     <row r="2349" spans="1:3">
-      <c r="A2349" s="7" t="s">
+      <c r="A2349" s="2" t="s">
         <v>6441</v>
       </c>
-      <c r="B2349" s="5" t="s">
+      <c r="B2349" s="2" t="s">
         <v>6451</v>
       </c>
       <c r="C2349" s="2" t="s">
@@ -54370,10 +58581,10 @@
       </c>
     </row>
     <row r="2350" spans="1:3">
-      <c r="A2350" s="7" t="s">
+      <c r="A2350" s="2" t="s">
         <v>6442</v>
       </c>
-      <c r="B2350" s="5" t="s">
+      <c r="B2350" s="2" t="s">
         <v>6451</v>
       </c>
       <c r="C2350" s="2" t="s">
@@ -54381,10 +58592,10 @@
       </c>
     </row>
     <row r="2351" spans="1:3">
-      <c r="A2351" s="7" t="s">
+      <c r="A2351" s="2" t="s">
         <v>6443</v>
       </c>
-      <c r="B2351" s="5" t="s">
+      <c r="B2351" s="2" t="s">
         <v>6452</v>
       </c>
       <c r="C2351" s="2" t="s">
@@ -54392,10 +58603,10 @@
       </c>
     </row>
     <row r="2352" spans="1:3">
-      <c r="A2352" s="7" t="s">
+      <c r="A2352" s="2" t="s">
         <v>6444</v>
       </c>
-      <c r="B2352" s="5" t="s">
+      <c r="B2352" s="2" t="s">
         <v>6453</v>
       </c>
       <c r="C2352" s="2" t="s">
@@ -54403,10 +58614,10 @@
       </c>
     </row>
     <row r="2353" spans="1:3">
-      <c r="A2353" s="7" t="s">
+      <c r="A2353" s="2" t="s">
         <v>6445</v>
       </c>
-      <c r="B2353" s="5" t="s">
+      <c r="B2353" s="2" t="s">
         <v>6454</v>
       </c>
       <c r="C2353" s="2" t="s">
@@ -54414,10 +58625,10 @@
       </c>
     </row>
     <row r="2354" spans="1:3">
-      <c r="A2354" s="7" t="s">
+      <c r="A2354" s="2" t="s">
         <v>6446</v>
       </c>
-      <c r="B2354" s="5" t="s">
+      <c r="B2354" s="2" t="s">
         <v>6455</v>
       </c>
       <c r="C2354" s="2" t="s">
@@ -54425,10 +58636,10 @@
       </c>
     </row>
     <row r="2355" spans="1:3">
-      <c r="A2355" s="7" t="s">
+      <c r="A2355" s="2" t="s">
         <v>6447</v>
       </c>
-      <c r="B2355" s="6" t="s">
+      <c r="B2355" s="2" t="s">
         <v>6456</v>
       </c>
       <c r="C2355" s="2" t="s">
@@ -54472,7 +58683,7 @@
       <c r="A2359" s="2" t="s">
         <v>6512</v>
       </c>
-      <c r="B2359" s="5" t="s">
+      <c r="B2359" s="2" t="s">
         <v>6529</v>
       </c>
       <c r="C2359" s="2" t="s">
@@ -54483,7 +58694,7 @@
       <c r="A2360" s="2" t="s">
         <v>6513</v>
       </c>
-      <c r="B2360" s="5" t="s">
+      <c r="B2360" s="2" t="s">
         <v>6529</v>
       </c>
       <c r="C2360" s="2" t="s">
@@ -54494,7 +58705,7 @@
       <c r="A2361" s="2" t="s">
         <v>6514</v>
       </c>
-      <c r="B2361" s="5" t="s">
+      <c r="B2361" s="2" t="s">
         <v>6529</v>
       </c>
       <c r="C2361" s="2" t="s">
@@ -54516,7 +58727,7 @@
       <c r="A2363" s="2" t="s">
         <v>6516</v>
       </c>
-      <c r="B2363" s="5" t="s">
+      <c r="B2363" s="2" t="s">
         <v>6531</v>
       </c>
       <c r="C2363" s="2" t="s">
@@ -54527,7 +58738,7 @@
       <c r="A2364" s="2" t="s">
         <v>6517</v>
       </c>
-      <c r="B2364" s="5" t="s">
+      <c r="B2364" s="2" t="s">
         <v>6531</v>
       </c>
       <c r="C2364" s="2" t="s">
@@ -54538,7 +58749,7 @@
       <c r="A2365" s="2" t="s">
         <v>6518</v>
       </c>
-      <c r="B2365" s="5" t="s">
+      <c r="B2365" s="2" t="s">
         <v>6531</v>
       </c>
       <c r="C2365" s="2" t="s">
@@ -54777,7 +58988,7 @@
       </c>
     </row>
     <row r="2387" spans="1:3">
-      <c r="A2387" s="5" t="s">
+      <c r="A2387" s="2" t="s">
         <v>6574</v>
       </c>
       <c r="B2387" s="2" t="s">
@@ -54788,7 +58999,7 @@
       </c>
     </row>
     <row r="2388" spans="1:3">
-      <c r="A2388" s="5" t="s">
+      <c r="A2388" s="2" t="s">
         <v>6575</v>
       </c>
       <c r="B2388" s="2" t="s">
@@ -54799,7 +59010,7 @@
       </c>
     </row>
     <row r="2389" spans="1:3">
-      <c r="A2389" s="5" t="s">
+      <c r="A2389" s="2" t="s">
         <v>6576</v>
       </c>
       <c r="B2389" s="2" t="s">
@@ -54821,7 +59032,7 @@
       </c>
     </row>
     <row r="2391" spans="1:3">
-      <c r="A2391" s="5" t="s">
+      <c r="A2391" s="2" t="s">
         <v>6578</v>
       </c>
       <c r="B2391" s="2" t="s">
@@ -54843,7 +59054,7 @@
       </c>
     </row>
     <row r="2393" spans="1:3">
-      <c r="A2393" s="5" t="s">
+      <c r="A2393" s="2" t="s">
         <v>6580</v>
       </c>
       <c r="B2393" s="2" t="s">
@@ -54890,7 +59101,7 @@
       <c r="A2397" s="2" t="s">
         <v>6584</v>
       </c>
-      <c r="B2397" s="5" t="s">
+      <c r="B2397" s="2" t="s">
         <v>6569</v>
       </c>
       <c r="C2397" s="2" t="s">
@@ -54928,12 +59139,4415 @@
       </c>
       <c r="C2400" s="2" t="s">
         <v>6630</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:3">
+      <c r="A2401" s="2" t="s">
+        <v>6632</v>
+      </c>
+      <c r="B2401" s="2" t="s">
+        <v>6631</v>
+      </c>
+      <c r="C2401" s="2" t="s">
+        <v>6714</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:3">
+      <c r="A2402" s="2" t="s">
+        <v>6633</v>
+      </c>
+      <c r="B2402" s="2" t="s">
+        <v>6635</v>
+      </c>
+      <c r="C2402" s="2" t="s">
+        <v>6715</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:3">
+      <c r="A2403" s="2" t="s">
+        <v>6634</v>
+      </c>
+      <c r="B2403" s="2" t="s">
+        <v>6643</v>
+      </c>
+      <c r="C2403" s="2" t="s">
+        <v>6716</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:3">
+      <c r="A2404" s="2" t="s">
+        <v>6644</v>
+      </c>
+      <c r="B2404" s="2" t="s">
+        <v>6644</v>
+      </c>
+      <c r="C2404" s="2" t="s">
+        <v>6717</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:3">
+      <c r="A2405" s="2" t="s">
+        <v>6636</v>
+      </c>
+      <c r="B2405" s="2" t="s">
+        <v>6645</v>
+      </c>
+      <c r="C2405" s="2" t="s">
+        <v>6718</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:3">
+      <c r="A2406" s="2" t="s">
+        <v>6637</v>
+      </c>
+      <c r="B2406" s="2" t="s">
+        <v>6645</v>
+      </c>
+      <c r="C2406" s="2" t="s">
+        <v>6719</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:3">
+      <c r="A2407" s="2" t="s">
+        <v>6638</v>
+      </c>
+      <c r="B2407" s="2" t="s">
+        <v>6646</v>
+      </c>
+      <c r="C2407" s="2" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:3">
+      <c r="A2408" s="2" t="s">
+        <v>6639</v>
+      </c>
+      <c r="B2408" s="2" t="s">
+        <v>6646</v>
+      </c>
+      <c r="C2408" s="2" t="s">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:3">
+      <c r="A2409" s="2" t="s">
+        <v>6640</v>
+      </c>
+      <c r="B2409" s="2" t="s">
+        <v>6647</v>
+      </c>
+      <c r="C2409" s="2" t="s">
+        <v>6721</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:3">
+      <c r="A2410" s="2" t="s">
+        <v>6641</v>
+      </c>
+      <c r="B2410" s="2" t="s">
+        <v>6648</v>
+      </c>
+      <c r="C2410" s="2" t="s">
+        <v>6722</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:3">
+      <c r="A2411" s="2" t="s">
+        <v>6642</v>
+      </c>
+      <c r="B2411" s="2" t="s">
+        <v>6650</v>
+      </c>
+      <c r="C2411" s="2" t="s">
+        <v>6723</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:3">
+      <c r="A2412" s="2" t="s">
+        <v>6651</v>
+      </c>
+      <c r="B2412" s="2" t="s">
+        <v>6650</v>
+      </c>
+      <c r="C2412" s="2" t="s">
+        <v>6724</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:3">
+      <c r="A2413" s="2" t="s">
+        <v>6652</v>
+      </c>
+      <c r="B2413" s="2" t="s">
+        <v>6649</v>
+      </c>
+      <c r="C2413" s="2" t="s">
+        <v>6725</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:3">
+      <c r="A2414" s="2" t="s">
+        <v>6653</v>
+      </c>
+      <c r="B2414" s="2" t="s">
+        <v>6649</v>
+      </c>
+      <c r="C2414" s="2" t="s">
+        <v>6726</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:3">
+      <c r="A2415" s="2" t="s">
+        <v>6652</v>
+      </c>
+      <c r="B2415" s="2" t="s">
+        <v>6654</v>
+      </c>
+      <c r="C2415" s="2" t="s">
+        <v>6725</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:3">
+      <c r="A2416" s="2" t="s">
+        <v>6655</v>
+      </c>
+      <c r="B2416" s="2" t="s">
+        <v>6656</v>
+      </c>
+      <c r="C2416" s="2" t="s">
+        <v>6727</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:3">
+      <c r="A2417" s="2" t="s">
+        <v>6657</v>
+      </c>
+      <c r="B2417" s="2" t="s">
+        <v>6658</v>
+      </c>
+      <c r="C2417" s="2" t="s">
+        <v>6728</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:3">
+      <c r="A2418" s="2" t="s">
+        <v>6659</v>
+      </c>
+      <c r="B2418" s="2" t="s">
+        <v>6660</v>
+      </c>
+      <c r="C2418" s="2" t="s">
+        <v>6729</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:3">
+      <c r="A2419" s="2" t="s">
+        <v>6661</v>
+      </c>
+      <c r="B2419" s="2" t="s">
+        <v>6660</v>
+      </c>
+      <c r="C2419" s="2" t="s">
+        <v>6730</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:3">
+      <c r="A2420" s="2" t="s">
+        <v>6662</v>
+      </c>
+      <c r="B2420" s="2" t="s">
+        <v>6663</v>
+      </c>
+      <c r="C2420" s="2" t="s">
+        <v>6731</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:3">
+      <c r="A2421" s="2" t="s">
+        <v>6664</v>
+      </c>
+      <c r="B2421" s="2" t="s">
+        <v>6665</v>
+      </c>
+      <c r="C2421" s="2" t="s">
+        <v>6732</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:3">
+      <c r="A2422" s="2" t="s">
+        <v>6666</v>
+      </c>
+      <c r="B2422" s="2" t="s">
+        <v>6665</v>
+      </c>
+      <c r="C2422" s="2" t="s">
+        <v>6733</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:3">
+      <c r="A2423" s="2" t="s">
+        <v>6667</v>
+      </c>
+      <c r="B2423" s="2" t="s">
+        <v>6668</v>
+      </c>
+      <c r="C2423" s="2" t="s">
+        <v>6734</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:3">
+      <c r="A2424" s="2" t="s">
+        <v>6669</v>
+      </c>
+      <c r="B2424" s="2" t="s">
+        <v>6670</v>
+      </c>
+      <c r="C2424" s="2" t="s">
+        <v>6735</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:3">
+      <c r="A2425" s="2" t="s">
+        <v>6671</v>
+      </c>
+      <c r="B2425" s="2" t="s">
+        <v>6672</v>
+      </c>
+      <c r="C2425" s="2" t="s">
+        <v>6736</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:3">
+      <c r="A2426" s="2" t="s">
+        <v>6673</v>
+      </c>
+      <c r="B2426" s="2" t="s">
+        <v>6674</v>
+      </c>
+      <c r="C2426" s="2" t="s">
+        <v>6737</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:3">
+      <c r="A2427" s="2" t="s">
+        <v>6675</v>
+      </c>
+      <c r="B2427" s="2" t="s">
+        <v>6676</v>
+      </c>
+      <c r="C2427" s="2" t="s">
+        <v>6738</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:3">
+      <c r="A2428" s="2" t="s">
+        <v>6677</v>
+      </c>
+      <c r="B2428" s="2" t="s">
+        <v>6676</v>
+      </c>
+      <c r="C2428" s="2" t="s">
+        <v>6739</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:3">
+      <c r="A2429" s="2" t="s">
+        <v>6678</v>
+      </c>
+      <c r="B2429" s="2" t="s">
+        <v>6676</v>
+      </c>
+      <c r="C2429" s="2" t="s">
+        <v>6740</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:3">
+      <c r="A2430" s="2" t="s">
+        <v>6679</v>
+      </c>
+      <c r="B2430" s="2" t="s">
+        <v>6680</v>
+      </c>
+      <c r="C2430" s="2" t="s">
+        <v>6741</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:3">
+      <c r="A2431" s="2" t="s">
+        <v>6681</v>
+      </c>
+      <c r="B2431" s="2" t="s">
+        <v>6682</v>
+      </c>
+      <c r="C2431" s="2" t="s">
+        <v>6742</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:3">
+      <c r="A2432" s="2" t="s">
+        <v>6683</v>
+      </c>
+      <c r="B2432" s="2" t="s">
+        <v>6682</v>
+      </c>
+      <c r="C2432" s="2" t="s">
+        <v>6743</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:3">
+      <c r="A2433" s="2" t="s">
+        <v>6684</v>
+      </c>
+      <c r="B2433" s="2" t="s">
+        <v>6685</v>
+      </c>
+      <c r="C2433" s="2" t="s">
+        <v>6744</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:3">
+      <c r="A2434" s="2" t="s">
+        <v>6686</v>
+      </c>
+      <c r="B2434" s="2" t="s">
+        <v>6685</v>
+      </c>
+      <c r="C2434" s="2" t="s">
+        <v>6745</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:3">
+      <c r="A2435" s="2" t="s">
+        <v>6687</v>
+      </c>
+      <c r="B2435" s="2" t="s">
+        <v>6685</v>
+      </c>
+      <c r="C2435" s="2" t="s">
+        <v>6746</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:3">
+      <c r="A2436" s="2" t="s">
+        <v>6688</v>
+      </c>
+      <c r="B2436" s="2" t="s">
+        <v>6689</v>
+      </c>
+      <c r="C2436" s="2" t="s">
+        <v>6747</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:3">
+      <c r="A2437" s="2" t="s">
+        <v>6690</v>
+      </c>
+      <c r="B2437" s="2" t="s">
+        <v>6691</v>
+      </c>
+      <c r="C2437" s="2" t="s">
+        <v>6748</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:3">
+      <c r="A2438" s="2" t="s">
+        <v>6692</v>
+      </c>
+      <c r="B2438" s="2" t="s">
+        <v>6693</v>
+      </c>
+      <c r="C2438" s="2" t="s">
+        <v>6749</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:3">
+      <c r="A2439" s="2" t="s">
+        <v>6694</v>
+      </c>
+      <c r="B2439" s="2" t="s">
+        <v>6695</v>
+      </c>
+      <c r="C2439" s="2" t="s">
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:3">
+      <c r="A2440" s="2" t="s">
+        <v>6696</v>
+      </c>
+      <c r="B2440" s="2" t="s">
+        <v>6697</v>
+      </c>
+      <c r="C2440" s="2" t="s">
+        <v>6751</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:3">
+      <c r="A2441" s="2" t="s">
+        <v>6698</v>
+      </c>
+      <c r="B2441" s="2" t="s">
+        <v>6697</v>
+      </c>
+      <c r="C2441" s="2" t="s">
+        <v>6752</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:3">
+      <c r="A2442" s="2" t="s">
+        <v>6699</v>
+      </c>
+      <c r="B2442" s="2" t="s">
+        <v>6700</v>
+      </c>
+      <c r="C2442" s="2" t="s">
+        <v>6753</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:3">
+      <c r="A2443" s="2" t="s">
+        <v>6701</v>
+      </c>
+      <c r="B2443" s="2" t="s">
+        <v>6702</v>
+      </c>
+      <c r="C2443" s="2" t="s">
+        <v>6754</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:3">
+      <c r="A2444" s="2" t="s">
+        <v>6703</v>
+      </c>
+      <c r="B2444" s="2" t="s">
+        <v>6705</v>
+      </c>
+      <c r="C2444" s="2" t="s">
+        <v>6755</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:3">
+      <c r="A2445" s="2" t="s">
+        <v>6704</v>
+      </c>
+      <c r="B2445" s="2" t="s">
+        <v>6705</v>
+      </c>
+      <c r="C2445" s="2" t="s">
+        <v>6756</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:3">
+      <c r="A2446" s="2" t="s">
+        <v>6706</v>
+      </c>
+      <c r="B2446" s="2" t="s">
+        <v>6707</v>
+      </c>
+      <c r="C2446" s="2" t="s">
+        <v>6757</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:3">
+      <c r="A2447" s="2" t="s">
+        <v>6708</v>
+      </c>
+      <c r="B2447" s="2" t="s">
+        <v>6709</v>
+      </c>
+      <c r="C2447" s="2" t="s">
+        <v>6758</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:3">
+      <c r="A2448" s="2" t="s">
+        <v>6710</v>
+      </c>
+      <c r="B2448" s="2" t="s">
+        <v>6709</v>
+      </c>
+      <c r="C2448" s="2" t="s">
+        <v>6759</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:3">
+      <c r="A2449" s="2" t="s">
+        <v>6711</v>
+      </c>
+      <c r="B2449" s="2" t="s">
+        <v>6712</v>
+      </c>
+      <c r="C2449" s="2" t="s">
+        <v>6760</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:3">
+      <c r="A2450" s="2" t="s">
+        <v>6713</v>
+      </c>
+      <c r="B2450" s="2" t="s">
+        <v>6712</v>
+      </c>
+      <c r="C2450" s="2" t="s">
+        <v>6761</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:3">
+      <c r="A2451" s="2" t="s">
+        <v>6763</v>
+      </c>
+      <c r="B2451" s="2" t="s">
+        <v>6827</v>
+      </c>
+      <c r="C2451" s="2" t="s">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:3">
+      <c r="A2452" s="2" t="s">
+        <v>6764</v>
+      </c>
+      <c r="B2452" s="2" t="s">
+        <v>6804</v>
+      </c>
+      <c r="C2452" s="2" t="s">
+        <v>6175</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:3">
+      <c r="A2453" s="2" t="s">
+        <v>6765</v>
+      </c>
+      <c r="B2453" s="2" t="s">
+        <v>6805</v>
+      </c>
+      <c r="C2453" s="2" t="s">
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:3">
+      <c r="A2454" s="2" t="s">
+        <v>6766</v>
+      </c>
+      <c r="B2454" s="2" t="s">
+        <v>6806</v>
+      </c>
+      <c r="C2454" s="2" t="s">
+        <v>6851</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:3">
+      <c r="A2455" s="2" t="s">
+        <v>6767</v>
+      </c>
+      <c r="B2455" s="2" t="s">
+        <v>6806</v>
+      </c>
+      <c r="C2455" s="2" t="s">
+        <v>6852</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:3">
+      <c r="A2456" s="2" t="s">
+        <v>6794</v>
+      </c>
+      <c r="B2456" s="2" t="s">
+        <v>6807</v>
+      </c>
+      <c r="C2456" s="2" t="s">
+        <v>6853</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:3">
+      <c r="A2457" s="2" t="s">
+        <v>6795</v>
+      </c>
+      <c r="B2457" s="2" t="s">
+        <v>6808</v>
+      </c>
+      <c r="C2457" s="2" t="s">
+        <v>6854</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:3">
+      <c r="A2458" s="2" t="s">
+        <v>6768</v>
+      </c>
+      <c r="B2458" s="2" t="s">
+        <v>6809</v>
+      </c>
+      <c r="C2458" s="2" t="s">
+        <v>6855</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:3">
+      <c r="A2459" s="2" t="s">
+        <v>6769</v>
+      </c>
+      <c r="B2459" s="2" t="s">
+        <v>6810</v>
+      </c>
+      <c r="C2459" s="2" t="s">
+        <v>6856</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:3">
+      <c r="A2460" s="2" t="s">
+        <v>6770</v>
+      </c>
+      <c r="B2460" s="2" t="s">
+        <v>6810</v>
+      </c>
+      <c r="C2460" s="2" t="s">
+        <v>6857</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:3">
+      <c r="A2461" s="2" t="s">
+        <v>6771</v>
+      </c>
+      <c r="B2461" s="2" t="s">
+        <v>6828</v>
+      </c>
+      <c r="C2461" s="2" t="s">
+        <v>6858</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:3">
+      <c r="A2462" s="2" t="s">
+        <v>6772</v>
+      </c>
+      <c r="B2462" s="2" t="s">
+        <v>6811</v>
+      </c>
+      <c r="C2462" s="2" t="s">
+        <v>6859</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:3">
+      <c r="A2463" s="2" t="s">
+        <v>6773</v>
+      </c>
+      <c r="B2463" s="2" t="s">
+        <v>6812</v>
+      </c>
+      <c r="C2463" s="2" t="s">
+        <v>6860</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:3">
+      <c r="A2464" s="2" t="s">
+        <v>6774</v>
+      </c>
+      <c r="B2464" s="2" t="s">
+        <v>6813</v>
+      </c>
+      <c r="C2464" s="2" t="s">
+        <v>6861</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:3">
+      <c r="A2465" s="2" t="s">
+        <v>6775</v>
+      </c>
+      <c r="B2465" s="2" t="s">
+        <v>6813</v>
+      </c>
+      <c r="C2465" s="2" t="s">
+        <v>6862</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:3">
+      <c r="A2466" s="2" t="s">
+        <v>6776</v>
+      </c>
+      <c r="B2466" s="2" t="s">
+        <v>6814</v>
+      </c>
+      <c r="C2466" s="2" t="s">
+        <v>6863</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:3">
+      <c r="A2467" s="2" t="s">
+        <v>6777</v>
+      </c>
+      <c r="B2467" s="2" t="s">
+        <v>6815</v>
+      </c>
+      <c r="C2467" s="2" t="s">
+        <v>6864</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:3">
+      <c r="A2468" s="2" t="s">
+        <v>6778</v>
+      </c>
+      <c r="B2468" s="2" t="s">
+        <v>6816</v>
+      </c>
+      <c r="C2468" s="2" t="s">
+        <v>6865</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:3">
+      <c r="A2469" s="2" t="s">
+        <v>6779</v>
+      </c>
+      <c r="B2469" s="2" t="s">
+        <v>6817</v>
+      </c>
+      <c r="C2469" s="2" t="s">
+        <v>6866</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:3">
+      <c r="A2470" s="2" t="s">
+        <v>6780</v>
+      </c>
+      <c r="B2470" s="2" t="s">
+        <v>6818</v>
+      </c>
+      <c r="C2470" s="2" t="s">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:3">
+      <c r="A2471" s="2" t="s">
+        <v>6781</v>
+      </c>
+      <c r="B2471" s="2" t="s">
+        <v>6830</v>
+      </c>
+      <c r="C2471" s="2" t="s">
+        <v>6868</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:3">
+      <c r="A2472" s="2" t="s">
+        <v>6782</v>
+      </c>
+      <c r="B2472" s="2" t="s">
+        <v>6831</v>
+      </c>
+      <c r="C2472" s="2" t="s">
+        <v>6869</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:3">
+      <c r="A2473" s="2" t="s">
+        <v>6783</v>
+      </c>
+      <c r="B2473" s="2" t="s">
+        <v>6832</v>
+      </c>
+      <c r="C2473" s="2" t="s">
+        <v>6870</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:3">
+      <c r="A2474" s="2" t="s">
+        <v>6797</v>
+      </c>
+      <c r="B2474" s="2" t="s">
+        <v>6819</v>
+      </c>
+      <c r="C2474" s="2" t="s">
+        <v>6871</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:3">
+      <c r="A2475" s="2" t="s">
+        <v>6796</v>
+      </c>
+      <c r="B2475" s="2" t="s">
+        <v>6820</v>
+      </c>
+      <c r="C2475" s="2" t="s">
+        <v>6872</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:3">
+      <c r="A2476" s="2" t="s">
+        <v>6784</v>
+      </c>
+      <c r="B2476" s="2" t="s">
+        <v>6821</v>
+      </c>
+      <c r="C2476" s="2" t="s">
+        <v>6873</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:3">
+      <c r="A2477" s="2" t="s">
+        <v>6785</v>
+      </c>
+      <c r="B2477" s="2" t="s">
+        <v>6822</v>
+      </c>
+      <c r="C2477" s="2" t="s">
+        <v>6874</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:3">
+      <c r="A2478" s="2" t="s">
+        <v>6786</v>
+      </c>
+      <c r="B2478" s="2" t="s">
+        <v>6833</v>
+      </c>
+      <c r="C2478" s="2" t="s">
+        <v>6875</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:3">
+      <c r="A2479" s="2" t="s">
+        <v>6799</v>
+      </c>
+      <c r="B2479" s="2" t="s">
+        <v>6829</v>
+      </c>
+      <c r="C2479" s="2" t="s">
+        <v>6876</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:3">
+      <c r="A2480" s="2" t="s">
+        <v>6798</v>
+      </c>
+      <c r="B2480" s="2" t="s">
+        <v>6823</v>
+      </c>
+      <c r="C2480" s="2" t="s">
+        <v>6877</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:3">
+      <c r="A2481" s="2" t="s">
+        <v>6787</v>
+      </c>
+      <c r="B2481" s="2" t="s">
+        <v>6834</v>
+      </c>
+      <c r="C2481" s="2" t="s">
+        <v>6878</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:3">
+      <c r="A2482" s="2" t="s">
+        <v>6788</v>
+      </c>
+      <c r="B2482" s="2" t="s">
+        <v>6824</v>
+      </c>
+      <c r="C2482" s="2" t="s">
+        <v>6879</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:3">
+      <c r="A2483" s="2" t="s">
+        <v>6789</v>
+      </c>
+      <c r="B2483" s="2" t="s">
+        <v>6835</v>
+      </c>
+      <c r="C2483" s="2" t="s">
+        <v>6880</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:3">
+      <c r="A2484" s="2" t="s">
+        <v>6790</v>
+      </c>
+      <c r="B2484" s="2" t="s">
+        <v>6825</v>
+      </c>
+      <c r="C2484" s="2" t="s">
+        <v>6881</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:3">
+      <c r="A2485" s="2" t="s">
+        <v>6800</v>
+      </c>
+      <c r="B2485" s="2" t="s">
+        <v>6836</v>
+      </c>
+      <c r="C2485" s="2" t="s">
+        <v>6882</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:3">
+      <c r="A2486" s="2" t="s">
+        <v>6801</v>
+      </c>
+      <c r="B2486" s="2" t="s">
+        <v>6837</v>
+      </c>
+      <c r="C2486" s="2" t="s">
+        <v>6883</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:3">
+      <c r="A2487" s="2" t="s">
+        <v>6791</v>
+      </c>
+      <c r="B2487" s="2" t="s">
+        <v>6838</v>
+      </c>
+      <c r="C2487" s="2" t="s">
+        <v>6884</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:3">
+      <c r="A2488" s="2" t="s">
+        <v>6792</v>
+      </c>
+      <c r="B2488" s="2" t="s">
+        <v>6839</v>
+      </c>
+      <c r="C2488" s="2" t="s">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:3">
+      <c r="A2489" s="2" t="s">
+        <v>6793</v>
+      </c>
+      <c r="B2489" s="2" t="s">
+        <v>6840</v>
+      </c>
+      <c r="C2489" s="2" t="s">
+        <v>6886</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:3">
+      <c r="A2490" s="2" t="s">
+        <v>6841</v>
+      </c>
+      <c r="B2490" s="2" t="s">
+        <v>6841</v>
+      </c>
+      <c r="C2490" s="2" t="s">
+        <v>6887</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:3">
+      <c r="A2491" s="2" t="s">
+        <v>6842</v>
+      </c>
+      <c r="B2491" s="2" t="s">
+        <v>6842</v>
+      </c>
+      <c r="C2491" s="2" t="s">
+        <v>6888</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:3">
+      <c r="A2492" s="2" t="s">
+        <v>6843</v>
+      </c>
+      <c r="B2492" s="2" t="s">
+        <v>6843</v>
+      </c>
+      <c r="C2492" s="2" t="s">
+        <v>6889</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:3">
+      <c r="A2493" s="2" t="s">
+        <v>6844</v>
+      </c>
+      <c r="B2493" s="2" t="s">
+        <v>6844</v>
+      </c>
+      <c r="C2493" s="2" t="s">
+        <v>6890</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:3">
+      <c r="A2494" s="2" t="s">
+        <v>6844</v>
+      </c>
+      <c r="B2494" s="2" t="s">
+        <v>6844</v>
+      </c>
+      <c r="C2494" s="2" t="s">
+        <v>6891</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:3">
+      <c r="A2495" s="2" t="s">
+        <v>6845</v>
+      </c>
+      <c r="B2495" s="2" t="s">
+        <v>6845</v>
+      </c>
+      <c r="C2495" s="2" t="s">
+        <v>6892</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:3">
+      <c r="A2496" s="2" t="s">
+        <v>6826</v>
+      </c>
+      <c r="B2496" s="2" t="s">
+        <v>6826</v>
+      </c>
+      <c r="C2496" s="2" t="s">
+        <v>6893</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:3">
+      <c r="A2497" s="2" t="s">
+        <v>6846</v>
+      </c>
+      <c r="B2497" s="2" t="s">
+        <v>6846</v>
+      </c>
+      <c r="C2497" s="2" t="s">
+        <v>6894</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:3">
+      <c r="A2498" s="2" t="s">
+        <v>6847</v>
+      </c>
+      <c r="B2498" s="2" t="s">
+        <v>6847</v>
+      </c>
+      <c r="C2498" s="2" t="s">
+        <v>6895</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:3">
+      <c r="A2499" s="2" t="s">
+        <v>6802</v>
+      </c>
+      <c r="B2499" s="2" t="s">
+        <v>6848</v>
+      </c>
+      <c r="C2499" s="2" t="s">
+        <v>6896</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:3">
+      <c r="A2500" s="2" t="s">
+        <v>6803</v>
+      </c>
+      <c r="B2500" s="2" t="s">
+        <v>6849</v>
+      </c>
+      <c r="C2500" s="2" t="s">
+        <v>6897</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:3">
+      <c r="A2501" s="2" t="s">
+        <v>6915</v>
+      </c>
+      <c r="B2501" s="2" t="s">
+        <v>6915</v>
+      </c>
+      <c r="C2501" s="2" t="s">
+        <v>6916</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:3">
+      <c r="A2502" s="2" t="s">
+        <v>6917</v>
+      </c>
+      <c r="B2502" s="2" t="s">
+        <v>6918</v>
+      </c>
+      <c r="C2502" s="2" t="s">
+        <v>6919</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:3">
+      <c r="A2503" s="2" t="s">
+        <v>6921</v>
+      </c>
+      <c r="B2503" s="2" t="s">
+        <v>6920</v>
+      </c>
+      <c r="C2503" s="2" t="s">
+        <v>6922</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:3">
+      <c r="A2504" s="2" t="s">
+        <v>6924</v>
+      </c>
+      <c r="B2504" s="2" t="s">
+        <v>6923</v>
+      </c>
+      <c r="C2504" s="2" t="s">
+        <v>6925</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:3">
+      <c r="A2505" s="2" t="s">
+        <v>6927</v>
+      </c>
+      <c r="B2505" s="2" t="s">
+        <v>6926</v>
+      </c>
+      <c r="C2505" s="2" t="s">
+        <v>6928</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:3">
+      <c r="A2506" s="2" t="s">
+        <v>6929</v>
+      </c>
+      <c r="B2506" s="2" t="s">
+        <v>6930</v>
+      </c>
+      <c r="C2506" s="2" t="s">
+        <v>6933</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:3">
+      <c r="A2507" s="2" t="s">
+        <v>6931</v>
+      </c>
+      <c r="B2507" s="2" t="s">
+        <v>6932</v>
+      </c>
+      <c r="C2507" s="2" t="s">
+        <v>6937</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:3">
+      <c r="A2508" s="2" t="s">
+        <v>6934</v>
+      </c>
+      <c r="B2508" s="2" t="s">
+        <v>6935</v>
+      </c>
+      <c r="C2508" s="2" t="s">
+        <v>6936</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:3">
+      <c r="A2509" s="2" t="s">
+        <v>6938</v>
+      </c>
+      <c r="B2509" s="2" t="s">
+        <v>6939</v>
+      </c>
+      <c r="C2509" s="2" t="s">
+        <v>6940</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:3">
+      <c r="A2510" s="2" t="s">
+        <v>6941</v>
+      </c>
+      <c r="B2510" s="2" t="s">
+        <v>6942</v>
+      </c>
+      <c r="C2510" s="2" t="s">
+        <v>6943</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:3">
+      <c r="A2511" s="2" t="s">
+        <v>6944</v>
+      </c>
+      <c r="B2511" s="2" t="s">
+        <v>6956</v>
+      </c>
+      <c r="C2511" s="2" t="s">
+        <v>6974</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:3">
+      <c r="A2512" s="2" t="s">
+        <v>6945</v>
+      </c>
+      <c r="B2512" s="2" t="s">
+        <v>6956</v>
+      </c>
+      <c r="C2512" s="2" t="s">
+        <v>6975</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:3">
+      <c r="A2513" s="2" t="s">
+        <v>6946</v>
+      </c>
+      <c r="B2513" s="2" t="s">
+        <v>6957</v>
+      </c>
+      <c r="C2513" s="2" t="s">
+        <v>6976</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:3">
+      <c r="A2514" s="2" t="s">
+        <v>6947</v>
+      </c>
+      <c r="B2514" s="2" t="s">
+        <v>6958</v>
+      </c>
+      <c r="C2514" s="2" t="s">
+        <v>6977</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:3">
+      <c r="A2515" s="2" t="s">
+        <v>6948</v>
+      </c>
+      <c r="B2515" s="2" t="s">
+        <v>6959</v>
+      </c>
+      <c r="C2515" s="2" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:3">
+      <c r="A2516" s="2" t="s">
+        <v>6949</v>
+      </c>
+      <c r="B2516" s="2" t="s">
+        <v>6960</v>
+      </c>
+      <c r="C2516" s="2" t="s">
+        <v>6978</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:3">
+      <c r="A2517" s="2" t="s">
+        <v>6950</v>
+      </c>
+      <c r="B2517" s="2" t="s">
+        <v>6961</v>
+      </c>
+      <c r="C2517" s="2" t="s">
+        <v>6979</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:3">
+      <c r="A2518" s="2" t="s">
+        <v>6951</v>
+      </c>
+      <c r="B2518" s="2" t="s">
+        <v>6962</v>
+      </c>
+      <c r="C2518" s="2" t="s">
+        <v>6980</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:3">
+      <c r="A2519" s="2" t="s">
+        <v>6952</v>
+      </c>
+      <c r="B2519" s="2" t="s">
+        <v>6963</v>
+      </c>
+      <c r="C2519" s="2" t="s">
+        <v>6981</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:3">
+      <c r="A2520" s="2" t="s">
+        <v>6953</v>
+      </c>
+      <c r="B2520" s="2" t="s">
+        <v>6964</v>
+      </c>
+      <c r="C2520" s="2" t="s">
+        <v>6982</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:3">
+      <c r="A2521" s="2" t="s">
+        <v>6954</v>
+      </c>
+      <c r="B2521" s="2" t="s">
+        <v>6965</v>
+      </c>
+      <c r="C2521" s="2" t="s">
+        <v>6983</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:3">
+      <c r="A2522" s="2" t="s">
+        <v>6955</v>
+      </c>
+      <c r="B2522" s="2" t="s">
+        <v>6966</v>
+      </c>
+      <c r="C2522" s="2" t="s">
+        <v>6984</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:3">
+      <c r="A2523" s="2" t="s">
+        <v>6898</v>
+      </c>
+      <c r="B2523" s="2" t="s">
+        <v>6899</v>
+      </c>
+      <c r="C2523" s="2" t="s">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:3">
+      <c r="A2524" s="2" t="s">
+        <v>6901</v>
+      </c>
+      <c r="B2524" s="2" t="s">
+        <v>6902</v>
+      </c>
+      <c r="C2524" s="2" t="s">
+        <v>6971</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:3">
+      <c r="A2525" s="2" t="s">
+        <v>6903</v>
+      </c>
+      <c r="B2525" s="2" t="s">
+        <v>6904</v>
+      </c>
+      <c r="C2525" s="2" t="s">
+        <v>6905</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:3">
+      <c r="A2526" s="2" t="s">
+        <v>6906</v>
+      </c>
+      <c r="B2526" s="2" t="s">
+        <v>6967</v>
+      </c>
+      <c r="C2526" s="2" t="s">
+        <v>6972</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:3">
+      <c r="A2527" s="2" t="s">
+        <v>6968</v>
+      </c>
+      <c r="B2527" s="2" t="s">
+        <v>6907</v>
+      </c>
+      <c r="C2527" s="2" t="s">
+        <v>6908</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:3">
+      <c r="A2528" s="2" t="s">
+        <v>6969</v>
+      </c>
+      <c r="B2528" s="2" t="s">
+        <v>6909</v>
+      </c>
+      <c r="C2528" s="2" t="s">
+        <v>6973</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:3">
+      <c r="A2529" s="2" t="s">
+        <v>6985</v>
+      </c>
+      <c r="B2529" s="2" t="s">
+        <v>6910</v>
+      </c>
+      <c r="C2529" s="2" t="s">
+        <v>6911</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:3">
+      <c r="A2530" s="2" t="s">
+        <v>6986</v>
+      </c>
+      <c r="B2530" s="2" t="s">
+        <v>6912</v>
+      </c>
+      <c r="C2530" s="2" t="s">
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:3">
+      <c r="A2531" s="2" t="s">
+        <v>6987</v>
+      </c>
+      <c r="B2531" s="2" t="s">
+        <v>6988</v>
+      </c>
+      <c r="C2531" s="2" t="s">
+        <v>6989</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:3">
+      <c r="A2532" s="2" t="s">
+        <v>6991</v>
+      </c>
+      <c r="B2532" s="2" t="s">
+        <v>6990</v>
+      </c>
+      <c r="C2532" s="2" t="s">
+        <v>7025</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:3">
+      <c r="A2533" s="2" t="s">
+        <v>6992</v>
+      </c>
+      <c r="B2533" s="2" t="s">
+        <v>6993</v>
+      </c>
+      <c r="C2533" s="2" t="s">
+        <v>7026</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:3">
+      <c r="A2534" s="2" t="s">
+        <v>6913</v>
+      </c>
+      <c r="B2534" s="2" t="s">
+        <v>6913</v>
+      </c>
+      <c r="C2534" s="2" t="s">
+        <v>7027</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:3">
+      <c r="A2535" s="2" t="s">
+        <v>6994</v>
+      </c>
+      <c r="B2535" s="2" t="s">
+        <v>6913</v>
+      </c>
+      <c r="C2535" s="2" t="s">
+        <v>7028</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:3">
+      <c r="A2536" s="2" t="s">
+        <v>6995</v>
+      </c>
+      <c r="B2536" s="2" t="s">
+        <v>6996</v>
+      </c>
+      <c r="C2536" s="2" t="s">
+        <v>7029</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:3">
+      <c r="A2537" s="2" t="s">
+        <v>6997</v>
+      </c>
+      <c r="B2537" s="2" t="s">
+        <v>6998</v>
+      </c>
+      <c r="C2537" s="2" t="s">
+        <v>7030</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:3">
+      <c r="A2538" s="2" t="s">
+        <v>6999</v>
+      </c>
+      <c r="B2538" s="2" t="s">
+        <v>7004</v>
+      </c>
+      <c r="C2538" s="2" t="s">
+        <v>7031</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:3">
+      <c r="A2539" s="2" t="s">
+        <v>7000</v>
+      </c>
+      <c r="B2539" s="2" t="s">
+        <v>7005</v>
+      </c>
+      <c r="C2539" s="2" t="s">
+        <v>7032</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:3">
+      <c r="A2540" s="2" t="s">
+        <v>7001</v>
+      </c>
+      <c r="B2540" s="2" t="s">
+        <v>7006</v>
+      </c>
+      <c r="C2540" s="2" t="s">
+        <v>7033</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:3">
+      <c r="A2541" s="2" t="s">
+        <v>7002</v>
+      </c>
+      <c r="B2541" s="2" t="s">
+        <v>7007</v>
+      </c>
+      <c r="C2541" s="2" t="s">
+        <v>7034</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:3">
+      <c r="A2542" s="2" t="s">
+        <v>7003</v>
+      </c>
+      <c r="B2542" s="2" t="s">
+        <v>7008</v>
+      </c>
+      <c r="C2542" s="2" t="s">
+        <v>7035</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:3">
+      <c r="A2543" s="2" t="s">
+        <v>7017</v>
+      </c>
+      <c r="B2543" s="2" t="s">
+        <v>7009</v>
+      </c>
+      <c r="C2543" s="2" t="s">
+        <v>7036</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:3">
+      <c r="A2544" s="2" t="s">
+        <v>7018</v>
+      </c>
+      <c r="B2544" s="2" t="s">
+        <v>7010</v>
+      </c>
+      <c r="C2544" s="2" t="s">
+        <v>7037</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:3">
+      <c r="A2545" s="2" t="s">
+        <v>7019</v>
+      </c>
+      <c r="B2545" s="2" t="s">
+        <v>7011</v>
+      </c>
+      <c r="C2545" s="2" t="s">
+        <v>7038</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:3">
+      <c r="A2546" s="2" t="s">
+        <v>7020</v>
+      </c>
+      <c r="B2546" s="2" t="s">
+        <v>7012</v>
+      </c>
+      <c r="C2546" s="2" t="s">
+        <v>7039</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:3">
+      <c r="A2547" s="2" t="s">
+        <v>7021</v>
+      </c>
+      <c r="B2547" s="2" t="s">
+        <v>7013</v>
+      </c>
+      <c r="C2547" s="2" t="s">
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:3" ht="18">
+      <c r="A2548" s="2" t="s">
+        <v>7022</v>
+      </c>
+      <c r="B2548" s="2" t="s">
+        <v>7014</v>
+      </c>
+      <c r="C2548" s="4" t="s">
+        <v>7041</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:3">
+      <c r="A2549" s="2" t="s">
+        <v>7023</v>
+      </c>
+      <c r="B2549" s="2" t="s">
+        <v>7015</v>
+      </c>
+      <c r="C2549" s="2" t="s">
+        <v>7042</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:3">
+      <c r="A2550" s="2" t="s">
+        <v>7024</v>
+      </c>
+      <c r="B2550" s="2" t="s">
+        <v>7016</v>
+      </c>
+      <c r="C2550" s="2" t="s">
+        <v>7043</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:3">
+      <c r="A2551" s="2" t="s">
+        <v>6914</v>
+      </c>
+      <c r="B2551" s="2" t="s">
+        <v>7044</v>
+      </c>
+      <c r="C2551" s="2" t="s">
+        <v>7124</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:3" ht="18">
+      <c r="A2552" s="2" t="s">
+        <v>7046</v>
+      </c>
+      <c r="B2552" s="4" t="s">
+        <v>7045</v>
+      </c>
+      <c r="C2552" s="2" t="s">
+        <v>7125</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:3">
+      <c r="A2553" s="2" t="s">
+        <v>7048</v>
+      </c>
+      <c r="B2553" s="2" t="s">
+        <v>7047</v>
+      </c>
+      <c r="C2553" s="2" t="s">
+        <v>7126</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:3">
+      <c r="A2554" s="2" t="s">
+        <v>7050</v>
+      </c>
+      <c r="B2554" s="2" t="s">
+        <v>7049</v>
+      </c>
+      <c r="C2554" s="2" t="s">
+        <v>7127</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:3">
+      <c r="A2555" s="2" t="s">
+        <v>7051</v>
+      </c>
+      <c r="B2555" s="2" t="s">
+        <v>7052</v>
+      </c>
+      <c r="C2555" s="2" t="s">
+        <v>7128</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:3">
+      <c r="A2556" s="2" t="s">
+        <v>7054</v>
+      </c>
+      <c r="B2556" s="2" t="s">
+        <v>7053</v>
+      </c>
+      <c r="C2556" s="2" t="s">
+        <v>7129</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:3">
+      <c r="A2557" s="2" t="s">
+        <v>7055</v>
+      </c>
+      <c r="B2557" s="2" t="s">
+        <v>7053</v>
+      </c>
+      <c r="C2557" s="2" t="s">
+        <v>7130</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:3">
+      <c r="A2558" s="2" t="s">
+        <v>7057</v>
+      </c>
+      <c r="B2558" s="2" t="s">
+        <v>7056</v>
+      </c>
+      <c r="C2558" s="2" t="s">
+        <v>7131</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:3">
+      <c r="A2559" s="2" t="s">
+        <v>7059</v>
+      </c>
+      <c r="B2559" s="2" t="s">
+        <v>7058</v>
+      </c>
+      <c r="C2559" s="2" t="s">
+        <v>7132</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:3" ht="18">
+      <c r="A2560" s="2" t="s">
+        <v>7061</v>
+      </c>
+      <c r="B2560" s="4" t="s">
+        <v>7060</v>
+      </c>
+      <c r="C2560" s="2" t="s">
+        <v>7133</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:3">
+      <c r="A2561" s="2" t="s">
+        <v>7062</v>
+      </c>
+      <c r="B2561" s="2" t="s">
+        <v>7063</v>
+      </c>
+      <c r="C2561" s="2" t="s">
+        <v>7134</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:3">
+      <c r="A2562" s="2" t="s">
+        <v>7065</v>
+      </c>
+      <c r="B2562" s="2" t="s">
+        <v>7064</v>
+      </c>
+      <c r="C2562" s="2" t="s">
+        <v>7135</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:3">
+      <c r="A2563" s="2" t="s">
+        <v>7067</v>
+      </c>
+      <c r="B2563" s="2" t="s">
+        <v>7066</v>
+      </c>
+      <c r="C2563" s="2" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:3">
+      <c r="A2564" s="2" t="s">
+        <v>7068</v>
+      </c>
+      <c r="B2564" s="2" t="s">
+        <v>7068</v>
+      </c>
+      <c r="C2564" s="2" t="s">
+        <v>7136</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:3">
+      <c r="A2565" s="2" t="s">
+        <v>7069</v>
+      </c>
+      <c r="B2565" s="2" t="s">
+        <v>7069</v>
+      </c>
+      <c r="C2565" s="2" t="s">
+        <v>7137</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:3">
+      <c r="A2566" s="2" t="s">
+        <v>7071</v>
+      </c>
+      <c r="B2566" s="2" t="s">
+        <v>7070</v>
+      </c>
+      <c r="C2566" s="2" t="s">
+        <v>7138</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:3">
+      <c r="A2567" s="2" t="s">
+        <v>7072</v>
+      </c>
+      <c r="B2567" s="2" t="s">
+        <v>7070</v>
+      </c>
+      <c r="C2567" s="2" t="s">
+        <v>7139</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:3">
+      <c r="A2568" s="2" t="s">
+        <v>7309</v>
+      </c>
+      <c r="B2568" s="2" t="s">
+        <v>7073</v>
+      </c>
+      <c r="C2568" s="2" t="s">
+        <v>7140</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:3">
+      <c r="A2569" s="2" t="s">
+        <v>7073</v>
+      </c>
+      <c r="B2569" s="2" t="s">
+        <v>7073</v>
+      </c>
+      <c r="C2569" s="2" t="s">
+        <v>7141</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:3">
+      <c r="A2570" s="2" t="s">
+        <v>7073</v>
+      </c>
+      <c r="B2570" s="2" t="s">
+        <v>7073</v>
+      </c>
+      <c r="C2570" s="2" t="s">
+        <v>7141</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:3">
+      <c r="A2571" s="2" t="s">
+        <v>7075</v>
+      </c>
+      <c r="B2571" s="2" t="s">
+        <v>7074</v>
+      </c>
+      <c r="C2571" s="2" t="s">
+        <v>7142</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:3">
+      <c r="A2572" s="2" t="s">
+        <v>3622</v>
+      </c>
+      <c r="B2572" s="2" t="s">
+        <v>7076</v>
+      </c>
+      <c r="C2572" s="2" t="s">
+        <v>7143</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:3">
+      <c r="A2573" s="2" t="s">
+        <v>7078</v>
+      </c>
+      <c r="B2573" s="2" t="s">
+        <v>7077</v>
+      </c>
+      <c r="C2573" s="2" t="s">
+        <v>7144</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:3">
+      <c r="A2574" s="2" t="s">
+        <v>7080</v>
+      </c>
+      <c r="B2574" s="2" t="s">
+        <v>7079</v>
+      </c>
+      <c r="C2574" s="2" t="s">
+        <v>7146</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:3">
+      <c r="A2575" s="2" t="s">
+        <v>7082</v>
+      </c>
+      <c r="B2575" s="2" t="s">
+        <v>7081</v>
+      </c>
+      <c r="C2575" s="2" t="s">
+        <v>7145</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:3" ht="18">
+      <c r="A2576" s="4" t="s">
+        <v>7084</v>
+      </c>
+      <c r="B2576" s="4" t="s">
+        <v>7083</v>
+      </c>
+      <c r="C2576" s="2" t="s">
+        <v>7147</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:3">
+      <c r="A2577" s="2" t="s">
+        <v>7085</v>
+      </c>
+      <c r="B2577" s="2" t="s">
+        <v>7085</v>
+      </c>
+      <c r="C2577" s="2" t="s">
+        <v>7148</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:3">
+      <c r="A2578" s="2" t="s">
+        <v>7087</v>
+      </c>
+      <c r="B2578" s="2" t="s">
+        <v>7086</v>
+      </c>
+      <c r="C2578" s="2" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:3">
+      <c r="A2579" s="2" t="s">
+        <v>7089</v>
+      </c>
+      <c r="B2579" s="2" t="s">
+        <v>7088</v>
+      </c>
+      <c r="C2579" s="2" t="s">
+        <v>7150</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:3" ht="18">
+      <c r="A2580" s="2" t="s">
+        <v>7091</v>
+      </c>
+      <c r="B2580" s="4" t="s">
+        <v>7090</v>
+      </c>
+      <c r="C2580" s="2" t="s">
+        <v>7151</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:3">
+      <c r="A2581" s="2" t="s">
+        <v>7093</v>
+      </c>
+      <c r="B2581" s="2" t="s">
+        <v>7092</v>
+      </c>
+      <c r="C2581" s="2" t="s">
+        <v>7152</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:3">
+      <c r="A2582" s="2" t="s">
+        <v>7095</v>
+      </c>
+      <c r="B2582" s="2" t="s">
+        <v>7094</v>
+      </c>
+      <c r="C2582" s="2" t="s">
+        <v>7153</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:3">
+      <c r="A2583" s="2" t="s">
+        <v>7096</v>
+      </c>
+      <c r="B2583" s="2" t="s">
+        <v>7096</v>
+      </c>
+      <c r="C2583" s="2" t="s">
+        <v>7154</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:3">
+      <c r="A2584" s="2" t="s">
+        <v>7097</v>
+      </c>
+      <c r="B2584" s="2" t="s">
+        <v>7097</v>
+      </c>
+      <c r="C2584" s="2" t="s">
+        <v>7155</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:3">
+      <c r="A2585" s="2" t="s">
+        <v>7099</v>
+      </c>
+      <c r="B2585" s="2" t="s">
+        <v>7098</v>
+      </c>
+      <c r="C2585" s="2" t="s">
+        <v>7156</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:3">
+      <c r="A2586" s="2" t="s">
+        <v>7100</v>
+      </c>
+      <c r="B2586" s="2" t="s">
+        <v>7100</v>
+      </c>
+      <c r="C2586" s="2" t="s">
+        <v>7157</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:3">
+      <c r="A2587" s="2" t="s">
+        <v>7103</v>
+      </c>
+      <c r="B2587" s="2" t="s">
+        <v>7101</v>
+      </c>
+      <c r="C2587" s="2" t="s">
+        <v>7158</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:3">
+      <c r="A2588" s="2" t="s">
+        <v>7102</v>
+      </c>
+      <c r="B2588" s="2" t="s">
+        <v>7102</v>
+      </c>
+      <c r="C2588" s="2" t="s">
+        <v>7159</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:3">
+      <c r="A2589" s="2" t="s">
+        <v>7104</v>
+      </c>
+      <c r="B2589" s="2" t="s">
+        <v>7104</v>
+      </c>
+      <c r="C2589" s="2" t="s">
+        <v>7160</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:3">
+      <c r="A2590" s="2" t="s">
+        <v>7105</v>
+      </c>
+      <c r="B2590" s="2" t="s">
+        <v>7105</v>
+      </c>
+      <c r="C2590" s="2" t="s">
+        <v>7161</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:3">
+      <c r="A2591" s="2" t="s">
+        <v>7106</v>
+      </c>
+      <c r="B2591" s="2" t="s">
+        <v>7107</v>
+      </c>
+      <c r="C2591" s="2" t="s">
+        <v>7162</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:3">
+      <c r="A2592" s="2" t="s">
+        <v>7109</v>
+      </c>
+      <c r="B2592" s="2" t="s">
+        <v>7108</v>
+      </c>
+      <c r="C2592" s="2" t="s">
+        <v>7163</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:3">
+      <c r="A2593" s="2" t="s">
+        <v>7113</v>
+      </c>
+      <c r="B2593" s="2" t="s">
+        <v>7110</v>
+      </c>
+      <c r="C2593" s="2" t="s">
+        <v>7164</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:3">
+      <c r="A2594" s="2" t="s">
+        <v>7112</v>
+      </c>
+      <c r="B2594" s="2" t="s">
+        <v>7111</v>
+      </c>
+      <c r="C2594" s="2" t="s">
+        <v>7165</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:3">
+      <c r="A2595" s="2" t="s">
+        <v>7114</v>
+      </c>
+      <c r="B2595" s="2" t="s">
+        <v>7114</v>
+      </c>
+      <c r="C2595" s="2" t="s">
+        <v>7166</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:3">
+      <c r="A2596" s="2" t="s">
+        <v>7115</v>
+      </c>
+      <c r="B2596" s="2" t="s">
+        <v>7120</v>
+      </c>
+      <c r="C2596" s="2" t="s">
+        <v>7167</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:3">
+      <c r="A2597" s="2" t="s">
+        <v>7117</v>
+      </c>
+      <c r="B2597" s="2" t="s">
+        <v>7116</v>
+      </c>
+      <c r="C2597" s="2" t="s">
+        <v>7168</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:3">
+      <c r="A2598" s="2" t="s">
+        <v>7118</v>
+      </c>
+      <c r="B2598" s="2" t="s">
+        <v>7119</v>
+      </c>
+      <c r="C2598" s="2" t="s">
+        <v>7169</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:3">
+      <c r="A2599" s="2" t="s">
+        <v>7121</v>
+      </c>
+      <c r="B2599" s="2" t="s">
+        <v>7121</v>
+      </c>
+      <c r="C2599" s="2" t="s">
+        <v>7170</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:3">
+      <c r="A2600" s="2" t="s">
+        <v>7122</v>
+      </c>
+      <c r="B2600" s="2" t="s">
+        <v>7123</v>
+      </c>
+      <c r="C2600" s="2" t="s">
+        <v>7171</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:3">
+      <c r="A2601" s="2" t="s">
+        <v>7173</v>
+      </c>
+      <c r="B2601" s="2" t="s">
+        <v>7172</v>
+      </c>
+      <c r="C2601" s="2" t="s">
+        <v>7174</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:3">
+      <c r="A2602" s="2" t="s">
+        <v>7176</v>
+      </c>
+      <c r="B2602" s="2" t="s">
+        <v>7176</v>
+      </c>
+      <c r="C2602" s="2" t="s">
+        <v>7175</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:3">
+      <c r="A2603" s="2" t="s">
+        <v>7178</v>
+      </c>
+      <c r="B2603" s="2" t="s">
+        <v>7177</v>
+      </c>
+      <c r="C2603" s="2" t="s">
+        <v>7179</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:3">
+      <c r="A2604" s="2" t="s">
+        <v>7181</v>
+      </c>
+      <c r="B2604" s="2" t="s">
+        <v>7180</v>
+      </c>
+      <c r="C2604" s="2" t="s">
+        <v>7182</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:3">
+      <c r="A2605" s="2" t="s">
+        <v>7184</v>
+      </c>
+      <c r="B2605" s="2" t="s">
+        <v>7183</v>
+      </c>
+      <c r="C2605" s="2" t="s">
+        <v>7185</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:3">
+      <c r="A2606" s="2" t="s">
+        <v>7186</v>
+      </c>
+      <c r="B2606" s="2" t="s">
+        <v>7183</v>
+      </c>
+      <c r="C2606" s="2" t="s">
+        <v>7249</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:3">
+      <c r="A2607" s="2" t="s">
+        <v>7188</v>
+      </c>
+      <c r="B2607" s="2" t="s">
+        <v>7187</v>
+      </c>
+      <c r="C2607" s="2" t="s">
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:3">
+      <c r="A2608" s="2" t="s">
+        <v>7189</v>
+      </c>
+      <c r="B2608" s="2" t="s">
+        <v>7189</v>
+      </c>
+      <c r="C2608" s="2" t="s">
+        <v>7251</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:3">
+      <c r="A2609" s="2" t="s">
+        <v>7190</v>
+      </c>
+      <c r="B2609" s="2" t="s">
+        <v>7190</v>
+      </c>
+      <c r="C2609" s="2" t="s">
+        <v>7191</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:3">
+      <c r="A2610" s="2" t="s">
+        <v>7193</v>
+      </c>
+      <c r="B2610" s="2" t="s">
+        <v>7192</v>
+      </c>
+      <c r="C2610" s="2" t="s">
+        <v>7194</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:3">
+      <c r="A2611" s="2" t="s">
+        <v>7195</v>
+      </c>
+      <c r="B2611" s="2" t="s">
+        <v>7230</v>
+      </c>
+      <c r="C2611" s="2" t="s">
+        <v>7196</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:3">
+      <c r="A2612" s="2" t="s">
+        <v>7231</v>
+      </c>
+      <c r="B2612" s="2" t="s">
+        <v>7231</v>
+      </c>
+      <c r="C2612" s="2" t="s">
+        <v>7252</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:3">
+      <c r="A2613" s="2" t="s">
+        <v>7197</v>
+      </c>
+      <c r="B2613" s="2" t="s">
+        <v>7232</v>
+      </c>
+      <c r="C2613" s="2" t="s">
+        <v>7198</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:3">
+      <c r="A2614" s="2" t="s">
+        <v>7199</v>
+      </c>
+      <c r="B2614" s="2" t="s">
+        <v>7233</v>
+      </c>
+      <c r="C2614" s="2" t="s">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:3">
+      <c r="A2615" s="2" t="s">
+        <v>7201</v>
+      </c>
+      <c r="B2615" s="2" t="s">
+        <v>7234</v>
+      </c>
+      <c r="C2615" s="2" t="s">
+        <v>7202</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:3">
+      <c r="A2616" s="2" t="s">
+        <v>7203</v>
+      </c>
+      <c r="B2616" s="2" t="s">
+        <v>7235</v>
+      </c>
+      <c r="C2616" s="2" t="s">
+        <v>7204</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:3">
+      <c r="A2617" s="2" t="s">
+        <v>7205</v>
+      </c>
+      <c r="B2617" s="2" t="s">
+        <v>7236</v>
+      </c>
+      <c r="C2617" s="2" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:3">
+      <c r="A2618" s="2" t="s">
+        <v>7237</v>
+      </c>
+      <c r="B2618" s="2" t="s">
+        <v>7237</v>
+      </c>
+      <c r="C2618" s="2" t="s">
+        <v>7253</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:3">
+      <c r="A2619" s="2" t="s">
+        <v>7206</v>
+      </c>
+      <c r="B2619" s="2" t="s">
+        <v>7238</v>
+      </c>
+      <c r="C2619" s="2" t="s">
+        <v>7207</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:3">
+      <c r="A2620" s="2" t="s">
+        <v>7209</v>
+      </c>
+      <c r="B2620" s="2" t="s">
+        <v>7208</v>
+      </c>
+      <c r="C2620" s="2" t="s">
+        <v>7254</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:3">
+      <c r="A2621" s="2" t="s">
+        <v>7211</v>
+      </c>
+      <c r="B2621" s="2" t="s">
+        <v>7210</v>
+      </c>
+      <c r="C2621" s="2" t="s">
+        <v>7212</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:3">
+      <c r="A2622" s="2" t="s">
+        <v>7213</v>
+      </c>
+      <c r="B2622" s="2" t="s">
+        <v>7239</v>
+      </c>
+      <c r="C2622" s="2" t="s">
+        <v>7214</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:3">
+      <c r="A2623" s="2" t="s">
+        <v>7216</v>
+      </c>
+      <c r="B2623" s="2" t="s">
+        <v>7240</v>
+      </c>
+      <c r="C2623" s="2" t="s">
+        <v>7218</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:3">
+      <c r="A2624" s="2" t="s">
+        <v>7217</v>
+      </c>
+      <c r="B2624" s="2" t="s">
+        <v>7215</v>
+      </c>
+      <c r="C2624" s="2" t="s">
+        <v>7219</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:3">
+      <c r="A2625" s="2" t="s">
+        <v>7220</v>
+      </c>
+      <c r="B2625" s="2" t="s">
+        <v>7241</v>
+      </c>
+      <c r="C2625" s="2" t="s">
+        <v>7255</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:3">
+      <c r="A2626" s="2" t="s">
+        <v>7221</v>
+      </c>
+      <c r="B2626" s="2" t="s">
+        <v>7242</v>
+      </c>
+      <c r="C2626" s="2" t="s">
+        <v>7256</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:3">
+      <c r="A2627" s="2" t="s">
+        <v>7243</v>
+      </c>
+      <c r="B2627" s="2" t="s">
+        <v>7243</v>
+      </c>
+      <c r="C2627" s="2" t="s">
+        <v>7263</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:3">
+      <c r="A2628" s="2" t="s">
+        <v>7222</v>
+      </c>
+      <c r="B2628" s="2" t="s">
+        <v>7244</v>
+      </c>
+      <c r="C2628" s="2" t="s">
+        <v>7223</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:3">
+      <c r="A2629" s="2" t="s">
+        <v>7224</v>
+      </c>
+      <c r="B2629" s="2" t="s">
+        <v>7245</v>
+      </c>
+      <c r="C2629" s="2" t="s">
+        <v>7225</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:3">
+      <c r="A2630" s="2" t="s">
+        <v>7226</v>
+      </c>
+      <c r="B2630" s="2" t="s">
+        <v>7246</v>
+      </c>
+      <c r="C2630" s="2" t="s">
+        <v>7257</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:3">
+      <c r="A2631" s="2" t="s">
+        <v>7227</v>
+      </c>
+      <c r="B2631" s="2" t="s">
+        <v>7247</v>
+      </c>
+      <c r="C2631" s="2" t="s">
+        <v>7258</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:3">
+      <c r="A2632" s="2" t="s">
+        <v>7228</v>
+      </c>
+      <c r="B2632" s="2" t="s">
+        <v>7248</v>
+      </c>
+      <c r="C2632" s="2" t="s">
+        <v>7229</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:3">
+      <c r="A2633" s="2" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B2633" s="2" t="s">
+        <v>7259</v>
+      </c>
+      <c r="C2633" s="2" t="s">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:3">
+      <c r="A2634" s="2" t="s">
+        <v>7261</v>
+      </c>
+      <c r="B2634" s="2" t="s">
+        <v>7259</v>
+      </c>
+      <c r="C2634" s="2" t="s">
+        <v>7294</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:3">
+      <c r="A2635" s="2" t="s">
+        <v>7262</v>
+      </c>
+      <c r="B2635" s="2" t="s">
+        <v>7262</v>
+      </c>
+      <c r="C2635" s="2" t="s">
+        <v>7295</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:3">
+      <c r="A2636" s="2" t="s">
+        <v>7264</v>
+      </c>
+      <c r="B2636" s="2" t="s">
+        <v>7265</v>
+      </c>
+      <c r="C2636" s="2" t="s">
+        <v>7296</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:3">
+      <c r="A2637" s="2" t="s">
+        <v>7267</v>
+      </c>
+      <c r="B2637" s="2" t="s">
+        <v>7266</v>
+      </c>
+      <c r="C2637" s="2" t="s">
+        <v>7297</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:3">
+      <c r="A2638" s="2" t="s">
+        <v>7268</v>
+      </c>
+      <c r="B2638" s="2" t="s">
+        <v>7268</v>
+      </c>
+      <c r="C2638" s="2" t="s">
+        <v>7298</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:3">
+      <c r="A2639" s="2" t="s">
+        <v>7269</v>
+      </c>
+      <c r="B2639" s="2" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C2639" s="2" t="s">
+        <v>7299</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:3">
+      <c r="A2640" s="2" t="s">
+        <v>7270</v>
+      </c>
+      <c r="B2640" s="2" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C2640" s="2" t="s">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:3">
+      <c r="A2641" s="2" t="s">
+        <v>7272</v>
+      </c>
+      <c r="B2641" s="2" t="s">
+        <v>7271</v>
+      </c>
+      <c r="C2641" s="2" t="s">
+        <v>7301</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:3">
+      <c r="A2642" s="2" t="s">
+        <v>7273</v>
+      </c>
+      <c r="B2642" s="2" t="s">
+        <v>7273</v>
+      </c>
+      <c r="C2642" s="2" t="s">
+        <v>7302</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:3">
+      <c r="A2643" s="2" t="s">
+        <v>7275</v>
+      </c>
+      <c r="B2643" s="2" t="s">
+        <v>7274</v>
+      </c>
+      <c r="C2643" s="2" t="s">
+        <v>7304</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:3">
+      <c r="A2644" s="2" t="s">
+        <v>7276</v>
+      </c>
+      <c r="B2644" s="2" t="s">
+        <v>7277</v>
+      </c>
+      <c r="C2644" s="2" t="s">
+        <v>7303</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:3">
+      <c r="A2645" s="2" t="s">
+        <v>7279</v>
+      </c>
+      <c r="B2645" s="2" t="s">
+        <v>7278</v>
+      </c>
+      <c r="C2645" s="2" t="s">
+        <v>7305</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:3">
+      <c r="A2646" s="2" t="s">
+        <v>7280</v>
+      </c>
+      <c r="B2646" s="2" t="s">
+        <v>7280</v>
+      </c>
+      <c r="C2646" s="2" t="s">
+        <v>7306</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:3">
+      <c r="A2647" s="2" t="s">
+        <v>7282</v>
+      </c>
+      <c r="B2647" s="2" t="s">
+        <v>7281</v>
+      </c>
+      <c r="C2647" s="2" t="s">
+        <v>7307</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:3">
+      <c r="A2648" s="2" t="s">
+        <v>7284</v>
+      </c>
+      <c r="B2648" s="2" t="s">
+        <v>7283</v>
+      </c>
+      <c r="C2648" s="2" t="s">
+        <v>7308</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:3">
+      <c r="A2649" s="2" t="s">
+        <v>7285</v>
+      </c>
+      <c r="B2649" s="2" t="s">
+        <v>7285</v>
+      </c>
+      <c r="C2649" s="2" t="s">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:3">
+      <c r="A2650" s="2" t="s">
+        <v>7287</v>
+      </c>
+      <c r="B2650" s="2" t="s">
+        <v>7286</v>
+      </c>
+      <c r="C2650" s="2" t="s">
+        <v>7291</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:3">
+      <c r="A2651" s="2" t="s">
+        <v>7289</v>
+      </c>
+      <c r="B2651" s="2" t="s">
+        <v>7288</v>
+      </c>
+      <c r="C2651" s="2" t="s">
+        <v>7290</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:3">
+      <c r="A2652" s="2" t="s">
+        <v>7310</v>
+      </c>
+      <c r="B2652" s="2" t="s">
+        <v>7376</v>
+      </c>
+      <c r="C2652" s="2" t="s">
+        <v>7439</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:3">
+      <c r="A2653" s="2" t="s">
+        <v>7311</v>
+      </c>
+      <c r="B2653" s="2" t="s">
+        <v>7377</v>
+      </c>
+      <c r="C2653" s="2" t="s">
+        <v>7312</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:3">
+      <c r="A2654" s="2" t="s">
+        <v>7378</v>
+      </c>
+      <c r="B2654" s="2" t="s">
+        <v>7378</v>
+      </c>
+      <c r="C2654" s="2" t="s">
+        <v>7313</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:3">
+      <c r="A2655" s="2" t="s">
+        <v>7402</v>
+      </c>
+      <c r="B2655" s="2" t="s">
+        <v>7402</v>
+      </c>
+      <c r="C2655" s="2" t="s">
+        <v>7314</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:3">
+      <c r="A2656" s="2" t="s">
+        <v>7315</v>
+      </c>
+      <c r="B2656" s="2" t="s">
+        <v>7412</v>
+      </c>
+      <c r="C2656" s="2" t="s">
+        <v>7312</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:3">
+      <c r="A2657" s="2" t="s">
+        <v>7316</v>
+      </c>
+      <c r="B2657" s="2" t="s">
+        <v>7403</v>
+      </c>
+      <c r="C2657" s="2" t="s">
+        <v>7401</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:3">
+      <c r="A2658" s="2" t="s">
+        <v>7317</v>
+      </c>
+      <c r="B2658" s="2" t="s">
+        <v>7413</v>
+      </c>
+      <c r="C2658" s="2" t="s">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:3">
+      <c r="A2659" s="2" t="s">
+        <v>7318</v>
+      </c>
+      <c r="B2659" s="2" t="s">
+        <v>7404</v>
+      </c>
+      <c r="C2659" s="2" t="s">
+        <v>7399</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:3">
+      <c r="A2660" s="2" t="s">
+        <v>7319</v>
+      </c>
+      <c r="B2660" s="2" t="s">
+        <v>7430</v>
+      </c>
+      <c r="C2660" s="2" t="s">
+        <v>7320</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:3">
+      <c r="A2661" s="2" t="s">
+        <v>7321</v>
+      </c>
+      <c r="B2661" s="2" t="s">
+        <v>7405</v>
+      </c>
+      <c r="C2661" s="2" t="s">
+        <v>7398</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:3">
+      <c r="A2662" s="2" t="s">
+        <v>7322</v>
+      </c>
+      <c r="B2662" s="2" t="s">
+        <v>7406</v>
+      </c>
+      <c r="C2662" s="2" t="s">
+        <v>7323</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:3">
+      <c r="A2663" s="2" t="s">
+        <v>7414</v>
+      </c>
+      <c r="B2663" s="2" t="s">
+        <v>7414</v>
+      </c>
+      <c r="C2663" s="2" t="s">
+        <v>7397</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:3">
+      <c r="A2664" s="2" t="s">
+        <v>7324</v>
+      </c>
+      <c r="B2664" s="2" t="s">
+        <v>7431</v>
+      </c>
+      <c r="C2664" s="2" t="s">
+        <v>7396</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:3">
+      <c r="A2665" s="2" t="s">
+        <v>7326</v>
+      </c>
+      <c r="B2665" s="2" t="s">
+        <v>7325</v>
+      </c>
+      <c r="C2665" s="2" t="s">
+        <v>7440</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:3">
+      <c r="A2666" s="2" t="s">
+        <v>7328</v>
+      </c>
+      <c r="B2666" s="2" t="s">
+        <v>7327</v>
+      </c>
+      <c r="C2666" s="2" t="s">
+        <v>7395</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:3">
+      <c r="A2667" s="2" t="s">
+        <v>7329</v>
+      </c>
+      <c r="B2667" s="2" t="s">
+        <v>7329</v>
+      </c>
+      <c r="C2667" s="2" t="s">
+        <v>7394</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:3">
+      <c r="A2668" s="2" t="s">
+        <v>7331</v>
+      </c>
+      <c r="B2668" s="2" t="s">
+        <v>7330</v>
+      </c>
+      <c r="C2668" s="2" t="s">
+        <v>7441</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:3">
+      <c r="A2669" s="2" t="s">
+        <v>7332</v>
+      </c>
+      <c r="B2669" s="2" t="s">
+        <v>7407</v>
+      </c>
+      <c r="C2669" s="2" t="s">
+        <v>7393</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:3">
+      <c r="A2670" s="2" t="s">
+        <v>7333</v>
+      </c>
+      <c r="B2670" s="2" t="s">
+        <v>7432</v>
+      </c>
+      <c r="C2670" s="2" t="s">
+        <v>7392</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:3">
+      <c r="A2671" s="2" t="s">
+        <v>7335</v>
+      </c>
+      <c r="B2671" s="2" t="s">
+        <v>7334</v>
+      </c>
+      <c r="C2671" s="2" t="s">
+        <v>7336</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:3">
+      <c r="A2672" s="2" t="s">
+        <v>7424</v>
+      </c>
+      <c r="B2672" s="2" t="s">
+        <v>7424</v>
+      </c>
+      <c r="C2672" s="2" t="s">
+        <v>7337</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:3">
+      <c r="A2673" s="2" t="s">
+        <v>7425</v>
+      </c>
+      <c r="B2673" s="2" t="s">
+        <v>7425</v>
+      </c>
+      <c r="C2673" s="2" t="s">
+        <v>7338</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:3">
+      <c r="A2674" s="2" t="s">
+        <v>7433</v>
+      </c>
+      <c r="B2674" s="2" t="s">
+        <v>7433</v>
+      </c>
+      <c r="C2674" s="2" t="s">
+        <v>7339</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:3">
+      <c r="A2675" s="2" t="s">
+        <v>7434</v>
+      </c>
+      <c r="B2675" s="2" t="s">
+        <v>7434</v>
+      </c>
+      <c r="C2675" s="2" t="s">
+        <v>7391</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:3">
+      <c r="A2676" s="2" t="s">
+        <v>7340</v>
+      </c>
+      <c r="B2676" s="2" t="s">
+        <v>7426</v>
+      </c>
+      <c r="C2676" s="2" t="s">
+        <v>7390</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:3">
+      <c r="A2677" s="2" t="s">
+        <v>7341</v>
+      </c>
+      <c r="B2677" s="2" t="s">
+        <v>7427</v>
+      </c>
+      <c r="C2677" s="2" t="s">
+        <v>7389</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:3">
+      <c r="A2678" s="2" t="s">
+        <v>7342</v>
+      </c>
+      <c r="B2678" s="2" t="s">
+        <v>7435</v>
+      </c>
+      <c r="C2678" s="2" t="s">
+        <v>7343</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:3">
+      <c r="A2679" s="2" t="s">
+        <v>7344</v>
+      </c>
+      <c r="B2679" s="2" t="s">
+        <v>7415</v>
+      </c>
+      <c r="C2679" s="2" t="s">
+        <v>7345</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:3">
+      <c r="A2680" s="2" t="s">
+        <v>7346</v>
+      </c>
+      <c r="B2680" s="2" t="s">
+        <v>7416</v>
+      </c>
+      <c r="C2680" s="2" t="s">
+        <v>7347</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:3">
+      <c r="A2681" s="2" t="s">
+        <v>7348</v>
+      </c>
+      <c r="B2681" s="2" t="s">
+        <v>7421</v>
+      </c>
+      <c r="C2681" s="2" t="s">
+        <v>7349</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:3">
+      <c r="A2682" s="2" t="s">
+        <v>7350</v>
+      </c>
+      <c r="B2682" s="2" t="s">
+        <v>7438</v>
+      </c>
+      <c r="C2682" s="2" t="s">
+        <v>7351</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:3">
+      <c r="A2683" s="2" t="s">
+        <v>7353</v>
+      </c>
+      <c r="B2683" s="2" t="s">
+        <v>7352</v>
+      </c>
+      <c r="C2683" s="2" t="s">
+        <v>7354</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:3">
+      <c r="A2684" s="2" t="s">
+        <v>7356</v>
+      </c>
+      <c r="B2684" s="2" t="s">
+        <v>7355</v>
+      </c>
+      <c r="C2684" s="2" t="s">
+        <v>7357</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:3">
+      <c r="A2685" s="2" t="s">
+        <v>7379</v>
+      </c>
+      <c r="B2685" s="2" t="s">
+        <v>7358</v>
+      </c>
+      <c r="C2685" s="2" t="s">
+        <v>7388</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:3">
+      <c r="A2686" s="2" t="s">
+        <v>7359</v>
+      </c>
+      <c r="B2686" s="2" t="s">
+        <v>7417</v>
+      </c>
+      <c r="C2686" s="2" t="s">
+        <v>7360</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:3">
+      <c r="A2687" s="2" t="s">
+        <v>7361</v>
+      </c>
+      <c r="B2687" s="2" t="s">
+        <v>7408</v>
+      </c>
+      <c r="C2687" s="2" t="s">
+        <v>7362</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:3">
+      <c r="A2688" s="2" t="s">
+        <v>7363</v>
+      </c>
+      <c r="B2688" s="2" t="s">
+        <v>7409</v>
+      </c>
+      <c r="C2688" s="2" t="s">
+        <v>7364</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:3">
+      <c r="A2689" s="2" t="s">
+        <v>7418</v>
+      </c>
+      <c r="B2689" s="2" t="s">
+        <v>7418</v>
+      </c>
+      <c r="C2689" s="2" t="s">
+        <v>7442</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:3">
+      <c r="A2690" s="2" t="s">
+        <v>7436</v>
+      </c>
+      <c r="B2690" s="2" t="s">
+        <v>7436</v>
+      </c>
+      <c r="C2690" s="2" t="s">
+        <v>7387</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:3">
+      <c r="A2691" s="2" t="s">
+        <v>7365</v>
+      </c>
+      <c r="B2691" s="2" t="s">
+        <v>7410</v>
+      </c>
+      <c r="C2691" s="2" t="s">
+        <v>7366</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:3">
+      <c r="A2692" s="2" t="s">
+        <v>7367</v>
+      </c>
+      <c r="B2692" s="2" t="s">
+        <v>7428</v>
+      </c>
+      <c r="C2692" s="2" t="s">
+        <v>7368</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:3">
+      <c r="A2693" s="2" t="s">
+        <v>7369</v>
+      </c>
+      <c r="B2693" s="2" t="s">
+        <v>7419</v>
+      </c>
+      <c r="C2693" s="2" t="s">
+        <v>7370</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:3">
+      <c r="A2694" s="2" t="s">
+        <v>7380</v>
+      </c>
+      <c r="B2694" s="2" t="s">
+        <v>7420</v>
+      </c>
+      <c r="C2694" s="2" t="s">
+        <v>7386</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:3">
+      <c r="A2695" s="2" t="s">
+        <v>7422</v>
+      </c>
+      <c r="B2695" s="2" t="s">
+        <v>7422</v>
+      </c>
+      <c r="C2695" s="2" t="s">
+        <v>7372</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:3">
+      <c r="A2696" s="2" t="s">
+        <v>7381</v>
+      </c>
+      <c r="B2696" s="2" t="s">
+        <v>7371</v>
+      </c>
+      <c r="C2696" s="2" t="s">
+        <v>7385</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:3">
+      <c r="A2697" s="6" t="s">
+        <v>7373</v>
+      </c>
+      <c r="B2697" s="2" t="s">
+        <v>7423</v>
+      </c>
+      <c r="C2697" s="6" t="s">
+        <v>7382</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:3">
+      <c r="A2698" s="2" t="s">
+        <v>7437</v>
+      </c>
+      <c r="B2698" s="2" t="s">
+        <v>7437</v>
+      </c>
+      <c r="C2698" s="6" t="s">
+        <v>7383</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:3">
+      <c r="A2699" s="2" t="s">
+        <v>7411</v>
+      </c>
+      <c r="B2699" s="2" t="s">
+        <v>7411</v>
+      </c>
+      <c r="C2699" s="2" t="s">
+        <v>7374</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:3">
+      <c r="A2700" s="2" t="s">
+        <v>7375</v>
+      </c>
+      <c r="B2700" s="2" t="s">
+        <v>7429</v>
+      </c>
+      <c r="C2700" s="2" t="s">
+        <v>7384</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:3">
+      <c r="A2701" s="2" t="s">
+        <v>7443</v>
+      </c>
+      <c r="B2701" s="2" t="s">
+        <v>7485</v>
+      </c>
+      <c r="C2701" s="2" t="s">
+        <v>7444</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:3">
+      <c r="A2702" s="2" t="s">
+        <v>7445</v>
+      </c>
+      <c r="B2702" s="2" t="s">
+        <v>7486</v>
+      </c>
+      <c r="C2702" s="2" t="s">
+        <v>7503</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:3">
+      <c r="A2703" s="2" t="s">
+        <v>7487</v>
+      </c>
+      <c r="B2703" s="2" t="s">
+        <v>7487</v>
+      </c>
+      <c r="C2703" s="2" t="s">
+        <v>7504</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:3">
+      <c r="A2704" s="2" t="s">
+        <v>7446</v>
+      </c>
+      <c r="B2704" s="2" t="s">
+        <v>7492</v>
+      </c>
+      <c r="C2704" s="2" t="s">
+        <v>7447</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:3">
+      <c r="A2705" s="2" t="s">
+        <v>7448</v>
+      </c>
+      <c r="B2705" s="2" t="s">
+        <v>7488</v>
+      </c>
+      <c r="C2705" s="2" t="s">
+        <v>7505</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:3">
+      <c r="A2706" s="2" t="s">
+        <v>7499</v>
+      </c>
+      <c r="B2706" s="2" t="s">
+        <v>7499</v>
+      </c>
+      <c r="C2706" s="2" t="s">
+        <v>7506</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:3">
+      <c r="A2707" s="2" t="s">
+        <v>7489</v>
+      </c>
+      <c r="B2707" s="2" t="s">
+        <v>7489</v>
+      </c>
+      <c r="C2707" s="2" t="s">
+        <v>7507</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:3">
+      <c r="A2708" s="2" t="s">
+        <v>7449</v>
+      </c>
+      <c r="B2708" s="2" t="s">
+        <v>7449</v>
+      </c>
+      <c r="C2708" s="2" t="s">
+        <v>7508</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:3">
+      <c r="A2709" s="2" t="s">
+        <v>7450</v>
+      </c>
+      <c r="B2709" s="2" t="s">
+        <v>7450</v>
+      </c>
+      <c r="C2709" s="2" t="s">
+        <v>7509</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:3">
+      <c r="A2710" s="2" t="s">
+        <v>7451</v>
+      </c>
+      <c r="B2710" s="2" t="s">
+        <v>7539</v>
+      </c>
+      <c r="C2710" s="2" t="s">
+        <v>7452</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:3">
+      <c r="A2711" s="2" t="s">
+        <v>7453</v>
+      </c>
+      <c r="B2711" s="2" t="s">
+        <v>7540</v>
+      </c>
+      <c r="C2711" s="2" t="s">
+        <v>7510</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:3">
+      <c r="A2712" s="2" t="s">
+        <v>7541</v>
+      </c>
+      <c r="B2712" s="2" t="s">
+        <v>7541</v>
+      </c>
+      <c r="C2712" s="2" t="s">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:3">
+      <c r="A2713" s="2" t="s">
+        <v>7493</v>
+      </c>
+      <c r="B2713" s="2" t="s">
+        <v>7493</v>
+      </c>
+      <c r="C2713" s="2" t="s">
+        <v>7511</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:3">
+      <c r="A2714" s="2" t="s">
+        <v>7454</v>
+      </c>
+      <c r="B2714" s="2" t="s">
+        <v>7542</v>
+      </c>
+      <c r="C2714" s="2" t="s">
+        <v>7455</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:3">
+      <c r="A2715" s="2" t="s">
+        <v>7543</v>
+      </c>
+      <c r="B2715" s="2" t="s">
+        <v>7543</v>
+      </c>
+      <c r="C2715" s="2" t="s">
+        <v>7456</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:3">
+      <c r="A2716" s="2" t="s">
+        <v>7544</v>
+      </c>
+      <c r="B2716" s="2" t="s">
+        <v>7544</v>
+      </c>
+      <c r="C2716" s="2" t="s">
+        <v>7457</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:3">
+      <c r="A2717" s="2" t="s">
+        <v>7458</v>
+      </c>
+      <c r="B2717" s="2" t="s">
+        <v>7545</v>
+      </c>
+      <c r="C2717" s="2" t="s">
+        <v>7512</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:3">
+      <c r="A2718" s="2" t="s">
+        <v>7459</v>
+      </c>
+      <c r="B2718" s="2" t="s">
+        <v>7546</v>
+      </c>
+      <c r="C2718" s="2" t="s">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:3">
+      <c r="A2719" s="2" t="s">
+        <v>7461</v>
+      </c>
+      <c r="B2719" s="2" t="s">
+        <v>7547</v>
+      </c>
+      <c r="C2719" s="2" t="s">
+        <v>7513</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:3">
+      <c r="A2720" s="2" t="s">
+        <v>7462</v>
+      </c>
+      <c r="B2720" s="2" t="s">
+        <v>7548</v>
+      </c>
+      <c r="C2720" s="2" t="s">
+        <v>7463</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:3">
+      <c r="A2721" s="2" t="s">
+        <v>7464</v>
+      </c>
+      <c r="B2721" s="2" t="s">
+        <v>7501</v>
+      </c>
+      <c r="C2721" s="2" t="s">
+        <v>7465</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:3">
+      <c r="A2722" s="2" t="s">
+        <v>7464</v>
+      </c>
+      <c r="B2722" s="2" t="s">
+        <v>7494</v>
+      </c>
+      <c r="C2722" s="2" t="s">
+        <v>7514</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:3">
+      <c r="A2723" s="2" t="s">
+        <v>7502</v>
+      </c>
+      <c r="B2723" s="2" t="s">
+        <v>7502</v>
+      </c>
+      <c r="C2723" s="2" t="s">
+        <v>7515</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:3">
+      <c r="A2724" s="2" t="s">
+        <v>7502</v>
+      </c>
+      <c r="B2724" s="2" t="s">
+        <v>7502</v>
+      </c>
+      <c r="C2724" s="2" t="s">
+        <v>7516</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:3">
+      <c r="A2725" s="2" t="s">
+        <v>7549</v>
+      </c>
+      <c r="B2725" s="2" t="s">
+        <v>7549</v>
+      </c>
+      <c r="C2725" s="2" t="s">
+        <v>7517</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:3">
+      <c r="A2726" s="2" t="s">
+        <v>7466</v>
+      </c>
+      <c r="B2726" s="2" t="s">
+        <v>7466</v>
+      </c>
+      <c r="C2726" s="2" t="s">
+        <v>7518</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:3">
+      <c r="A2727" s="2" t="s">
+        <v>7524</v>
+      </c>
+      <c r="B2727" s="2" t="s">
+        <v>7467</v>
+      </c>
+      <c r="C2727" s="2" t="s">
+        <v>7519</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:3">
+      <c r="A2728" s="2" t="s">
+        <v>7523</v>
+      </c>
+      <c r="B2728" s="2" t="s">
+        <v>7468</v>
+      </c>
+      <c r="C2728" s="2" t="s">
+        <v>7520</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:3">
+      <c r="A2729" s="2" t="s">
+        <v>7525</v>
+      </c>
+      <c r="B2729" s="2" t="s">
+        <v>7491</v>
+      </c>
+      <c r="C2729" s="2" t="s">
+        <v>7469</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:3">
+      <c r="A2730" s="2" t="s">
+        <v>7526</v>
+      </c>
+      <c r="B2730" s="2" t="s">
+        <v>7470</v>
+      </c>
+      <c r="C2730" s="2" t="s">
+        <v>7527</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:3">
+      <c r="A2731" s="2" t="s">
+        <v>7528</v>
+      </c>
+      <c r="B2731" s="2" t="s">
+        <v>7470</v>
+      </c>
+      <c r="C2731" s="2" t="s">
+        <v>7521</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:3">
+      <c r="A2732" s="2" t="s">
+        <v>7529</v>
+      </c>
+      <c r="B2732" s="2" t="s">
+        <v>7471</v>
+      </c>
+      <c r="C2732" s="2" t="s">
+        <v>7522</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:3">
+      <c r="A2733" s="6" t="s">
+        <v>7530</v>
+      </c>
+      <c r="B2733" s="2" t="s">
+        <v>7473</v>
+      </c>
+      <c r="C2733" s="2" t="s">
+        <v>7472</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:3">
+      <c r="A2734" s="6" t="s">
+        <v>7531</v>
+      </c>
+      <c r="B2734" s="2" t="s">
+        <v>7474</v>
+      </c>
+      <c r="C2734" s="6" t="s">
+        <v>7475</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:3">
+      <c r="A2735" s="2" t="s">
+        <v>7532</v>
+      </c>
+      <c r="B2735" s="2" t="s">
+        <v>7476</v>
+      </c>
+      <c r="C2735" s="7" t="s">
+        <v>7533</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:3">
+      <c r="A2736" s="2" t="s">
+        <v>7534</v>
+      </c>
+      <c r="B2736" s="2" t="s">
+        <v>7477</v>
+      </c>
+      <c r="C2736" s="2" t="s">
+        <v>7478</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:3">
+      <c r="A2737" s="2" t="s">
+        <v>7535</v>
+      </c>
+      <c r="B2737" s="2" t="s">
+        <v>7477</v>
+      </c>
+      <c r="C2737" s="2" t="s">
+        <v>7479</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:3">
+      <c r="A2738" s="2" t="s">
+        <v>7480</v>
+      </c>
+      <c r="B2738" s="2" t="s">
+        <v>7497</v>
+      </c>
+      <c r="C2738" s="2" t="s">
+        <v>7536</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:3">
+      <c r="A2739" s="2" t="s">
+        <v>7481</v>
+      </c>
+      <c r="B2739" s="2" t="s">
+        <v>7498</v>
+      </c>
+      <c r="C2739" s="2" t="s">
+        <v>7537</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:3">
+      <c r="A2740" s="2" t="s">
+        <v>7490</v>
+      </c>
+      <c r="B2740" s="2" t="s">
+        <v>7490</v>
+      </c>
+      <c r="C2740" s="2" t="s">
+        <v>7482</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:3">
+      <c r="A2741" s="2" t="s">
+        <v>7483</v>
+      </c>
+      <c r="B2741" s="2" t="s">
+        <v>7495</v>
+      </c>
+      <c r="C2741" s="2" t="s">
+        <v>7538</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:3">
+      <c r="A2742" s="2" t="s">
+        <v>7484</v>
+      </c>
+      <c r="B2742" s="2" t="s">
+        <v>7496</v>
+      </c>
+      <c r="C2742" s="2" t="s">
+        <v>7565</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:3">
+      <c r="A2743" s="2" t="s">
+        <v>7564</v>
+      </c>
+      <c r="B2743" s="2" t="s">
+        <v>7550</v>
+      </c>
+      <c r="C2743" s="2" t="s">
+        <v>7566</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:3">
+      <c r="A2744" s="2" t="s">
+        <v>7563</v>
+      </c>
+      <c r="B2744" s="2" t="s">
+        <v>7551</v>
+      </c>
+      <c r="C2744" s="2" t="s">
+        <v>7567</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:3">
+      <c r="A2745" s="2" t="s">
+        <v>7562</v>
+      </c>
+      <c r="B2745" s="2" t="s">
+        <v>7552</v>
+      </c>
+      <c r="C2745" s="2" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:3">
+      <c r="A2746" s="2" t="s">
+        <v>7561</v>
+      </c>
+      <c r="B2746" s="2" t="s">
+        <v>7553</v>
+      </c>
+      <c r="C2746" s="2" t="s">
+        <v>7568</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:3">
+      <c r="A2747" s="2" t="s">
+        <v>7560</v>
+      </c>
+      <c r="B2747" s="2" t="s">
+        <v>7554</v>
+      </c>
+      <c r="C2747" s="2" t="s">
+        <v>7569</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:3">
+      <c r="A2748" s="2" t="s">
+        <v>7559</v>
+      </c>
+      <c r="B2748" s="2" t="s">
+        <v>7555</v>
+      </c>
+      <c r="C2748" s="2" t="s">
+        <v>7570</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:3">
+      <c r="A2749" s="2" t="s">
+        <v>7558</v>
+      </c>
+      <c r="B2749" s="2" t="s">
+        <v>7555</v>
+      </c>
+      <c r="C2749" s="2" t="s">
+        <v>7571</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:3">
+      <c r="A2750" s="2" t="s">
+        <v>7557</v>
+      </c>
+      <c r="B2750" s="2" t="s">
+        <v>7556</v>
+      </c>
+      <c r="C2750" s="2" t="s">
+        <v>7572</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:3">
+      <c r="A2751" s="8" t="s">
+        <v>7573</v>
+      </c>
+      <c r="B2751" s="2" t="s">
+        <v>7577</v>
+      </c>
+      <c r="C2751" s="2" t="s">
+        <v>7580</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:3">
+      <c r="A2752" s="8" t="s">
+        <v>7574</v>
+      </c>
+      <c r="B2752" s="2" t="s">
+        <v>7578</v>
+      </c>
+      <c r="C2752" s="2" t="s">
+        <v>7581</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:3">
+      <c r="A2753" s="8" t="s">
+        <v>7575</v>
+      </c>
+      <c r="B2753" s="2" t="s">
+        <v>7578</v>
+      </c>
+      <c r="C2753" s="2" t="s">
+        <v>7582</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:3">
+      <c r="A2754" s="8" t="s">
+        <v>7576</v>
+      </c>
+      <c r="B2754" s="5" t="s">
+        <v>7579</v>
+      </c>
+      <c r="C2754" s="2" t="s">
+        <v>7583</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:3">
+      <c r="A2755" s="2" t="s">
+        <v>7584</v>
+      </c>
+      <c r="B2755" s="2" t="s">
+        <v>7584</v>
+      </c>
+      <c r="C2755" s="2" t="s">
+        <v>7671</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:3">
+      <c r="A2756" s="2" t="s">
+        <v>7585</v>
+      </c>
+      <c r="B2756" s="2" t="s">
+        <v>7596</v>
+      </c>
+      <c r="C2756" s="2" t="s">
+        <v>7672</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:3">
+      <c r="A2757" s="2" t="s">
+        <v>7586</v>
+      </c>
+      <c r="B2757" s="2" t="s">
+        <v>7597</v>
+      </c>
+      <c r="C2757" s="2" t="s">
+        <v>7673</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:3">
+      <c r="A2758" s="2" t="s">
+        <v>7587</v>
+      </c>
+      <c r="B2758" s="2" t="s">
+        <v>7598</v>
+      </c>
+      <c r="C2758" s="2" t="s">
+        <v>7674</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:3">
+      <c r="A2759" s="2" t="s">
+        <v>7588</v>
+      </c>
+      <c r="B2759" s="2" t="s">
+        <v>7599</v>
+      </c>
+      <c r="C2759" s="2" t="s">
+        <v>7675</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:3">
+      <c r="A2760" s="8" t="s">
+        <v>7589</v>
+      </c>
+      <c r="B2760" s="2" t="s">
+        <v>7600</v>
+      </c>
+      <c r="C2760" s="2" t="s">
+        <v>7676</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:3">
+      <c r="A2761" s="8" t="s">
+        <v>7590</v>
+      </c>
+      <c r="B2761" s="2" t="s">
+        <v>7601</v>
+      </c>
+      <c r="C2761" s="2" t="s">
+        <v>7677</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:3">
+      <c r="A2762" s="8" t="s">
+        <v>7591</v>
+      </c>
+      <c r="B2762" s="2" t="s">
+        <v>7602</v>
+      </c>
+      <c r="C2762" s="2" t="s">
+        <v>7678</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:3">
+      <c r="A2763" s="8" t="s">
+        <v>7592</v>
+      </c>
+      <c r="B2763" s="2" t="s">
+        <v>7603</v>
+      </c>
+      <c r="C2763" s="2" t="s">
+        <v>7679</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:3">
+      <c r="A2764" s="8" t="s">
+        <v>7593</v>
+      </c>
+      <c r="B2764" s="2" t="s">
+        <v>7604</v>
+      </c>
+      <c r="C2764" s="2" t="s">
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:3">
+      <c r="A2765" s="2" t="s">
+        <v>7594</v>
+      </c>
+      <c r="B2765" s="2" t="s">
+        <v>7595</v>
+      </c>
+      <c r="C2765" s="2" t="s">
+        <v>7681</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:3">
+      <c r="A2766" s="2" t="s">
+        <v>7605</v>
+      </c>
+      <c r="B2766" s="2" t="s">
+        <v>7606</v>
+      </c>
+      <c r="C2766" s="2" t="s">
+        <v>6627</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:3">
+      <c r="A2767" s="2" t="s">
+        <v>7607</v>
+      </c>
+      <c r="B2767" s="2" t="s">
+        <v>7608</v>
+      </c>
+      <c r="C2767" s="2" t="s">
+        <v>7682</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:3">
+      <c r="A2768" s="2" t="s">
+        <v>7609</v>
+      </c>
+      <c r="B2768" s="2" t="s">
+        <v>7610</v>
+      </c>
+      <c r="C2768" s="2" t="s">
+        <v>7683</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:3">
+      <c r="A2769" s="2" t="s">
+        <v>7611</v>
+      </c>
+      <c r="B2769" s="2" t="s">
+        <v>7612</v>
+      </c>
+      <c r="C2769" s="2" t="s">
+        <v>7684</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:3">
+      <c r="A2770" s="2" t="s">
+        <v>7613</v>
+      </c>
+      <c r="B2770" s="2" t="s">
+        <v>7614</v>
+      </c>
+      <c r="C2770" s="2" t="s">
+        <v>7685</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:3">
+      <c r="A2771" s="2" t="s">
+        <v>7615</v>
+      </c>
+      <c r="B2771" s="2" t="s">
+        <v>7616</v>
+      </c>
+      <c r="C2771" s="2" t="s">
+        <v>7686</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:3">
+      <c r="A2772" s="2" t="s">
+        <v>7617</v>
+      </c>
+      <c r="B2772" s="2" t="s">
+        <v>7618</v>
+      </c>
+      <c r="C2772" s="2" t="s">
+        <v>7687</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:3">
+      <c r="A2773" s="2" t="s">
+        <v>7619</v>
+      </c>
+      <c r="B2773" s="2" t="s">
+        <v>7620</v>
+      </c>
+      <c r="C2773" s="2" t="s">
+        <v>7688</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:3">
+      <c r="A2774" s="2" t="s">
+        <v>7621</v>
+      </c>
+      <c r="B2774" s="2" t="s">
+        <v>7622</v>
+      </c>
+      <c r="C2774" s="2" t="s">
+        <v>7689</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:3">
+      <c r="A2775" s="2" t="s">
+        <v>7623</v>
+      </c>
+      <c r="B2775" s="2" t="s">
+        <v>7623</v>
+      </c>
+      <c r="C2775" s="2" t="s">
+        <v>7690</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:3">
+      <c r="A2776" s="2" t="s">
+        <v>7630</v>
+      </c>
+      <c r="B2776" s="2" t="s">
+        <v>7631</v>
+      </c>
+      <c r="C2776" s="2" t="s">
+        <v>7691</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:3">
+      <c r="A2777" s="2" t="s">
+        <v>7632</v>
+      </c>
+      <c r="B2777" s="2" t="s">
+        <v>7632</v>
+      </c>
+      <c r="C2777" s="2" t="s">
+        <v>7692</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:3">
+      <c r="A2778" s="2" t="s">
+        <v>7624</v>
+      </c>
+      <c r="B2778" s="2" t="s">
+        <v>7624</v>
+      </c>
+      <c r="C2778" s="2" t="s">
+        <v>7693</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:3">
+      <c r="A2779" s="2" t="s">
+        <v>7625</v>
+      </c>
+      <c r="B2779" s="2" t="s">
+        <v>7626</v>
+      </c>
+      <c r="C2779" s="2" t="s">
+        <v>7694</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:3">
+      <c r="A2780" s="2" t="s">
+        <v>7627</v>
+      </c>
+      <c r="B2780" s="2" t="s">
+        <v>7627</v>
+      </c>
+      <c r="C2780" s="2" t="s">
+        <v>7695</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:3">
+      <c r="A2781" s="2" t="s">
+        <v>7628</v>
+      </c>
+      <c r="B2781" s="2" t="s">
+        <v>7629</v>
+      </c>
+      <c r="C2781" s="2" t="s">
+        <v>7696</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:3">
+      <c r="A2782" s="2" t="s">
+        <v>7633</v>
+      </c>
+      <c r="B2782" s="2" t="s">
+        <v>7634</v>
+      </c>
+      <c r="C2782" s="2" t="s">
+        <v>7697</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:3">
+      <c r="A2783" s="2" t="s">
+        <v>7635</v>
+      </c>
+      <c r="B2783" s="2" t="s">
+        <v>7636</v>
+      </c>
+      <c r="C2783" s="2" t="s">
+        <v>7698</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:3">
+      <c r="A2784" s="2" t="s">
+        <v>7637</v>
+      </c>
+      <c r="B2784" s="2" t="s">
+        <v>7638</v>
+      </c>
+      <c r="C2784" s="2" t="s">
+        <v>7699</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:3">
+      <c r="A2785" s="2" t="s">
+        <v>7639</v>
+      </c>
+      <c r="B2785" s="2" t="s">
+        <v>7640</v>
+      </c>
+      <c r="C2785" s="2" t="s">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:3">
+      <c r="A2786" s="2" t="s">
+        <v>7641</v>
+      </c>
+      <c r="B2786" s="2" t="s">
+        <v>7642</v>
+      </c>
+      <c r="C2786" s="2" t="s">
+        <v>7701</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:3">
+      <c r="A2787" s="2" t="s">
+        <v>7643</v>
+      </c>
+      <c r="B2787" s="2" t="s">
+        <v>7644</v>
+      </c>
+      <c r="C2787" s="2" t="s">
+        <v>7702</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:3">
+      <c r="A2788" s="2" t="s">
+        <v>7645</v>
+      </c>
+      <c r="B2788" s="2" t="s">
+        <v>7646</v>
+      </c>
+      <c r="C2788" s="2" t="s">
+        <v>7703</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:3">
+      <c r="A2789" s="2" t="s">
+        <v>7647</v>
+      </c>
+      <c r="B2789" s="2" t="s">
+        <v>7648</v>
+      </c>
+      <c r="C2789" s="2" t="s">
+        <v>7704</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:3">
+      <c r="A2790" s="2" t="s">
+        <v>7649</v>
+      </c>
+      <c r="B2790" s="2" t="s">
+        <v>7650</v>
+      </c>
+      <c r="C2790" s="2" t="s">
+        <v>7705</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:3">
+      <c r="A2791" s="2" t="s">
+        <v>7651</v>
+      </c>
+      <c r="B2791" s="2" t="s">
+        <v>7652</v>
+      </c>
+      <c r="C2791" s="2" t="s">
+        <v>7706</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:3">
+      <c r="A2792" s="2" t="s">
+        <v>7653</v>
+      </c>
+      <c r="B2792" s="2" t="s">
+        <v>7654</v>
+      </c>
+      <c r="C2792" s="2" t="s">
+        <v>7707</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:3">
+      <c r="A2793" s="2" t="s">
+        <v>7655</v>
+      </c>
+      <c r="B2793" s="2" t="s">
+        <v>7656</v>
+      </c>
+      <c r="C2793" s="2" t="s">
+        <v>7708</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:3">
+      <c r="A2794" s="2" t="s">
+        <v>7657</v>
+      </c>
+      <c r="B2794" s="2" t="s">
+        <v>7658</v>
+      </c>
+      <c r="C2794" s="2" t="s">
+        <v>7709</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:3">
+      <c r="A2795" s="2" t="s">
+        <v>7659</v>
+      </c>
+      <c r="B2795" s="2" t="s">
+        <v>7660</v>
+      </c>
+      <c r="C2795" s="2" t="s">
+        <v>7710</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:3">
+      <c r="A2796" s="2" t="s">
+        <v>7661</v>
+      </c>
+      <c r="B2796" s="2" t="s">
+        <v>7662</v>
+      </c>
+      <c r="C2796" s="2" t="s">
+        <v>7711</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:3">
+      <c r="A2797" s="2" t="s">
+        <v>7663</v>
+      </c>
+      <c r="B2797" s="2" t="s">
+        <v>7664</v>
+      </c>
+      <c r="C2797" s="2" t="s">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:3">
+      <c r="A2798" s="2" t="s">
+        <v>7665</v>
+      </c>
+      <c r="B2798" s="2" t="s">
+        <v>7666</v>
+      </c>
+      <c r="C2798" s="2" t="s">
+        <v>7713</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:3">
+      <c r="A2799" s="2" t="s">
+        <v>7667</v>
+      </c>
+      <c r="B2799" s="2" t="s">
+        <v>7668</v>
+      </c>
+      <c r="C2799" s="2" t="s">
+        <v>7714</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:3">
+      <c r="A2800" s="2" t="s">
+        <v>7669</v>
+      </c>
+      <c r="B2800" s="2" t="s">
+        <v>7669</v>
+      </c>
+      <c r="C2800" s="2" t="s">
+        <v>7670</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C1802">
     <sortCondition ref="B1:B1802"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="C2735"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/日本語/1_語彙.xlsx
+++ b/日本語/1_語彙.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeshafteure/Documents/GitHub/Freshmore/日本語/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744FEBF0-BB2A-F643-B0A4-9912311F51CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C53C0C-6635-2D46-8805-EEDCF82AE524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15840" windowHeight="18900" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15840" windowHeight="18880" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8400" uniqueCount="7715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8700" uniqueCount="7988">
   <si>
     <t>亜〜</t>
   </si>
@@ -32261,12 +32261,1542 @@
     <t>fraud, swindling</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>earlier, before, ahead, beforehand, the future, after</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先に</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サキニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さきに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先(に)</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サキニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さき(に)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さきほど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先程</t>
+  </si>
+  <si>
+    <t>作業</t>
+  </si>
+  <si>
+    <t>裂く</t>
+  </si>
+  <si>
+    <t>昨〜</t>
+  </si>
+  <si>
+    <t>さぎょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>策</t>
+  </si>
+  <si>
+    <t>さく〜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>索引</t>
+  </si>
+  <si>
+    <t>削減</t>
+  </si>
+  <si>
+    <t>錯誤</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サクゴ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さくいん</t>
+  </si>
+  <si>
+    <t>さくげん</t>
+  </si>
+  <si>
+    <t>さくご</t>
+  </si>
+  <si>
+    <t>さくしゃ</t>
+  </si>
+  <si>
+    <t>作者</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サクシャ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+  </si>
+  <si>
+    <t>作成/作製</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さくじょ</t>
+  </si>
+  <si>
+    <t>さくせい</t>
+  </si>
+  <si>
+    <t>作戰</t>
+  </si>
+  <si>
+    <t>作品</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サクヒン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作文</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サクブン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作物</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サクモノ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サクラ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さくせん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さくひん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さくもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さくぶん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さくら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>探る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サグル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さぐる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ざっ</t>
+  </si>
+  <si>
+    <t>ざつだん</t>
+  </si>
+  <si>
+    <t>さっぱりする</t>
+  </si>
+  <si>
+    <t>さす</t>
+  </si>
+  <si>
+    <t>刺す</t>
+  </si>
+  <si>
+    <t>指す</t>
+  </si>
+  <si>
+    <t>差す/射す</t>
+  </si>
+  <si>
+    <t>差す／注す／点す</t>
+  </si>
+  <si>
+    <t>挿す</t>
+  </si>
+  <si>
+    <t>流石</t>
+  </si>
+  <si>
+    <t>授ける</t>
+  </si>
+  <si>
+    <t>座席</t>
+  </si>
+  <si>
+    <t>誘う</t>
+  </si>
+  <si>
+    <t>定まる</t>
+  </si>
+  <si>
+    <t>定める</t>
+  </si>
+  <si>
+    <t>座談会</t>
+  </si>
+  <si>
+    <t>〜冊</t>
+  </si>
+  <si>
+    <t>札</t>
+  </si>
+  <si>
+    <t>雜</t>
+  </si>
+  <si>
+    <t>撮影</t>
+  </si>
+  <si>
+    <t>雑音</t>
+  </si>
+  <si>
+    <t>作家</t>
+  </si>
+  <si>
+    <t>雜貨</t>
+  </si>
+  <si>
+    <t>錯覚</t>
+  </si>
+  <si>
+    <t>早急</t>
+  </si>
+  <si>
+    <t>作曲</t>
+  </si>
+  <si>
+    <t>雜誌</t>
+  </si>
+  <si>
+    <t>殺人</t>
+  </si>
+  <si>
+    <t>察する</t>
+  </si>
+  <si>
+    <t>早速</t>
+  </si>
+  <si>
+    <t>雜談</t>
+  </si>
+  <si>
+    <t>砂糖</t>
+  </si>
+  <si>
+    <t>悟る</t>
+  </si>
+  <si>
+    <t>寂しい</t>
+  </si>
+  <si>
+    <t>座標</t>
+  </si>
+  <si>
+    <t>錆びる</t>
+  </si>
+  <si>
+    <t>座布団</t>
+  </si>
+  <si>
+    <t>差別</t>
+  </si>
+  <si>
+    <t>作法</t>
+  </si>
+  <si>
+    <t>～様</t>
+  </si>
+  <si>
+    <t>様</t>
+  </si>
+  <si>
+    <t>様々</t>
+  </si>
+  <si>
+    <t>覚ます</t>
+  </si>
+  <si>
+    <t>冷ます</t>
+  </si>
+  <si>
+    <t>妨げる</t>
+  </si>
+  <si>
+    <t>砂漠</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サバク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裁く</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サバク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>錆</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サビ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さとる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さとう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さする</t>
+  </si>
+  <si>
+    <t>ざだんかい</t>
+  </si>
+  <si>
+    <t>ざっか</t>
+  </si>
+  <si>
+    <t>さっかく</t>
+  </si>
+  <si>
+    <t>さっきゅう／そうきゅう</t>
+  </si>
+  <si>
+    <t>さっと</t>
+  </si>
+  <si>
+    <t>さなか</t>
+  </si>
+  <si>
+    <t>さばく</t>
+  </si>
+  <si>
+    <t>ざひょう</t>
+  </si>
+  <si>
+    <t>さすが</t>
+  </si>
+  <si>
+    <t>ざつおん</t>
+  </si>
+  <si>
+    <t>きっきよく</t>
+  </si>
+  <si>
+    <t>さっ</t>
+  </si>
+  <si>
+    <t>きつえい</t>
+  </si>
+  <si>
+    <t>さっか</t>
+  </si>
+  <si>
+    <t>さっさと</t>
+  </si>
+  <si>
+    <t>さっぱり</t>
+  </si>
+  <si>
+    <t>さて</t>
+  </si>
+  <si>
+    <t>さほう</t>
+  </si>
+  <si>
+    <t>さます</t>
+  </si>
+  <si>
+    <t>さまたげる</t>
+  </si>
+  <si>
+    <t>さっき</t>
+  </si>
+  <si>
+    <t>さびしい</t>
+  </si>
+  <si>
+    <t>ざっし</t>
+  </si>
+  <si>
+    <t>ざせき</t>
+  </si>
+  <si>
+    <t>さぞ</t>
+  </si>
+  <si>
+    <t>さそう</t>
+  </si>
+  <si>
+    <t>さだまる</t>
+  </si>
+  <si>
+    <t>さだめる</t>
+  </si>
+  <si>
+    <t>サッカー</t>
+  </si>
+  <si>
+    <t>さつじん</t>
+  </si>
+  <si>
+    <t>さっする</t>
+  </si>
+  <si>
+    <t>さっそく</t>
+  </si>
+  <si>
+    <t>ざっと</t>
+  </si>
+  <si>
+    <t>さび</t>
+  </si>
+  <si>
+    <t>きます</t>
+  </si>
+  <si>
+    <t>さびる</t>
+  </si>
+  <si>
+    <t>さべつ</t>
+  </si>
+  <si>
+    <t>さほど</t>
+  </si>
+  <si>
+    <t>サボる</t>
+  </si>
+  <si>
+    <t>～さま</t>
+  </si>
+  <si>
+    <t>さま</t>
+  </si>
+  <si>
+    <t>さまざま</t>
+  </si>
+  <si>
+    <t>さずける</t>
+  </si>
+  <si>
+    <t>ざぶとん</t>
+  </si>
+  <si>
+    <t>さす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜さつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pour, fill</t>
+  </si>
+  <si>
+    <t>insert, put in /arrange (flower)</t>
+  </si>
+  <si>
+    <t>invite, ask, induce, tempt, lure</t>
+  </si>
+  <si>
+    <t>novelist, writer, author, artist</t>
+  </si>
+  <si>
+    <t>desert</t>
+  </si>
+  <si>
+    <t>a square (Japanese) floor cushion (used for sitting)</t>
+  </si>
+  <si>
+    <t>manners, etiquette</t>
+  </si>
+  <si>
+    <t>loaf (on the job), play truant/hooky (from school), cut/skip (a class)</t>
+  </si>
+  <si>
+    <t>disturb, impede, hinder, interfere, prevent, stop, obstruct, interrupt, bar</t>
+  </si>
+  <si>
+    <t>point to/at, indicate</t>
+  </si>
+  <si>
+    <t>just</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>round-table discussion</t>
+  </si>
+  <si>
+    <t>(counter for printed stuff)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a bill, a (bank) note</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>photography, filming</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soccer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a moment ago</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>magazine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>murder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>at once. right away</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat, light conversation</t>
+  </si>
+  <si>
+    <t>sugar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lonely, lonesome</t>
+  </si>
+  <si>
+    <t>coordinates</t>
+  </si>
+  <si>
+    <t>not very</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mr. or Mrs. ~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>various, diverse, every kind, all sorts of</t>
+  </si>
+  <si>
+    <t>wake, waken, awake, reawaken, sober up, get sober</t>
+  </si>
+  <si>
+    <t>a short while ago</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work, operations</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bloom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>咲く</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tear, rend, sever</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>last ~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>measure, plan, scheme, policy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cut, reduction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mustake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>author, writer, poet, artist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cut, deletion, elimination</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成execution,/作成するmake, prepare, draw up,/作製manufacture, production</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(military) operations, strategy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a (piece of) work, a work of art</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>composition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crops, farm products</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a cherry tree, a cherry blossom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feel (about), fumble. investigate, probe, spy, sound, feel out</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さけび</t>
+  </si>
+  <si>
+    <t>叫び</t>
+  </si>
+  <si>
+    <t>叫ぶ</t>
+  </si>
+  <si>
+    <t>さけぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>避ける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裂ける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下げる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さげる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ささえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ささげる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捧げる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>囁く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ささやく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ささる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刺さる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>匙</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差し上げる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さしあげる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さしかかる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ざしき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座敷</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さしず</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差［し］出す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差［し］身</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差［し］引く</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ヒク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差［し］引［き］</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ヒキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差［し］支え</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ツカエ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差［し］支える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さしだす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さしつかえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さしつかえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さしひき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さしひく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さしみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shout, cry, scream, shriek, yell,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cry, shout, scream, shriek, yell, clamor, appeal, call</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>avoid, get away, keep out, shirk, shun</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lower, bring down</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tear, split</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>support, hold, sustain, prop, carry, receive, underlay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hold (a thing) high, offer, dedicate to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whisper, murmur, breathe, speak under one's breath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stick, get stuck, pierce, stab</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spoon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I give (to someone of higher status)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Japanese-style room, Japanese-style drawing room (with an alcove in one corner)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>direction, guidance, instruction,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hold out, present, submit, send</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obstacle, hindrance, harm, inconvenience</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>affect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deduction, balance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deduct, stop, recoup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fresh slices of raw fish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>『かさを〜』</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">put/hold up </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>umbrella</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pierce, stab, prick (with a needle) / bite, sting / sew, stitch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日が〜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>sun)shine</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>give, grant, teach</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rub, scrub, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">目を〜 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>rub ones eyes</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">seat, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>〜を予約する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> reserve a seat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>〜指定券</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> reserved-seat ticket</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">must be very, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>〜お疲れでしょう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> You must be very tired.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be decided, be determined, be settled</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decide, fix, set, establish, provide, settle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sloppy, messy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>彼の仕事は〜だ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>His work is sloppy.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>noise, howl stalic/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>〜に迷わされる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> be misled by what others say</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>miscellaneous goods, general merchandise, /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日用〜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> convenience goods</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>illusion, mistaken impression</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>immediate, prompt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>musical compostion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>quickly, briskly/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>仕事を〜片づける</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> finish up one's work briskly</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guess, sense, sympathize with</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>quickly, suddenly, brielly, lightly,/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>私は〜新聞に目を通した</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>I skinmed through the newspaper.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>roughly, approxinately, briefly, lightly./</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>〜目を通す</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> glance, leafc</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>completely neat and tidy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> refreshing,/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>〜思い出せない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> Isimply can't remember.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>feel refreshed, feel relieved, /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>お風呂に入ると〜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> A bath will freshen you up.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>by the way, now,well/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>〜、どうしよう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> What shall I do now</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>become enlightened, realize</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>in the middle of,/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>私は試験勉強の〜だ。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>1 am in the middle of studying for tests.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>judge, sit in judgment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rust, patina</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>rust, pet rusty, gather rust,/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>怠けていると腕が〜よ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> Youll iust rust away in idleness.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>discrimination,/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>〜する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> discriminate,/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>〜的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> discriminatory, discriminative</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>state, condition/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>彼は台風被害の〜を語った</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> He described the havoc wreaked by the typhoon.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>cool, chill/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">スープを〜 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>cool the soup/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>興奮を〜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> take the heat off</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -32339,6 +33869,31 @@
       <name val="Menlo"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -32362,7 +33917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -32381,13 +33936,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -32724,10 +34285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD98CDC-2E6D-F340-BEA4-C5F884B9AAD8}">
-  <dimension ref="A1:F2800"/>
+  <dimension ref="A1:F2900"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2774" zoomScale="126" workbookViewId="0">
-      <selection activeCell="C2801" sqref="C2801"/>
+    <sheetView tabSelected="1" topLeftCell="A2884" zoomScale="126" workbookViewId="0">
+      <selection activeCell="C2889" sqref="C2889"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -62398,13 +63959,13 @@
       </c>
     </row>
     <row r="2697" spans="1:3">
-      <c r="A2697" s="6" t="s">
+      <c r="A2697" s="2" t="s">
         <v>7373</v>
       </c>
       <c r="B2697" s="2" t="s">
         <v>7423</v>
       </c>
-      <c r="C2697" s="6" t="s">
+      <c r="C2697" s="2" t="s">
         <v>7382</v>
       </c>
     </row>
@@ -62415,7 +63976,7 @@
       <c r="B2698" s="2" t="s">
         <v>7437</v>
       </c>
-      <c r="C2698" s="6" t="s">
+      <c r="C2698" s="2" t="s">
         <v>7383</v>
       </c>
     </row>
@@ -62794,7 +64355,7 @@
       </c>
     </row>
     <row r="2733" spans="1:3">
-      <c r="A2733" s="6" t="s">
+      <c r="A2733" s="2" t="s">
         <v>7530</v>
       </c>
       <c r="B2733" s="2" t="s">
@@ -62805,13 +64366,13 @@
       </c>
     </row>
     <row r="2734" spans="1:3">
-      <c r="A2734" s="6" t="s">
+      <c r="A2734" s="2" t="s">
         <v>7531</v>
       </c>
       <c r="B2734" s="2" t="s">
         <v>7474</v>
       </c>
-      <c r="C2734" s="6" t="s">
+      <c r="C2734" s="2" t="s">
         <v>7475</v>
       </c>
     </row>
@@ -62992,7 +64553,7 @@
       </c>
     </row>
     <row r="2751" spans="1:3">
-      <c r="A2751" s="8" t="s">
+      <c r="A2751" s="6" t="s">
         <v>7573</v>
       </c>
       <c r="B2751" s="2" t="s">
@@ -63003,7 +64564,7 @@
       </c>
     </row>
     <row r="2752" spans="1:3">
-      <c r="A2752" s="8" t="s">
+      <c r="A2752" s="6" t="s">
         <v>7574</v>
       </c>
       <c r="B2752" s="2" t="s">
@@ -63014,7 +64575,7 @@
       </c>
     </row>
     <row r="2753" spans="1:3">
-      <c r="A2753" s="8" t="s">
+      <c r="A2753" s="6" t="s">
         <v>7575</v>
       </c>
       <c r="B2753" s="2" t="s">
@@ -63025,7 +64586,7 @@
       </c>
     </row>
     <row r="2754" spans="1:3">
-      <c r="A2754" s="8" t="s">
+      <c r="A2754" s="6" t="s">
         <v>7576</v>
       </c>
       <c r="B2754" s="5" t="s">
@@ -63091,7 +64652,7 @@
       </c>
     </row>
     <row r="2760" spans="1:3">
-      <c r="A2760" s="8" t="s">
+      <c r="A2760" s="6" t="s">
         <v>7589</v>
       </c>
       <c r="B2760" s="2" t="s">
@@ -63102,7 +64663,7 @@
       </c>
     </row>
     <row r="2761" spans="1:3">
-      <c r="A2761" s="8" t="s">
+      <c r="A2761" s="6" t="s">
         <v>7590</v>
       </c>
       <c r="B2761" s="2" t="s">
@@ -63113,7 +64674,7 @@
       </c>
     </row>
     <row r="2762" spans="1:3">
-      <c r="A2762" s="8" t="s">
+      <c r="A2762" s="6" t="s">
         <v>7591</v>
       </c>
       <c r="B2762" s="2" t="s">
@@ -63124,7 +64685,7 @@
       </c>
     </row>
     <row r="2763" spans="1:3">
-      <c r="A2763" s="8" t="s">
+      <c r="A2763" s="6" t="s">
         <v>7592</v>
       </c>
       <c r="B2763" s="2" t="s">
@@ -63135,7 +64696,7 @@
       </c>
     </row>
     <row r="2764" spans="1:3">
-      <c r="A2764" s="8" t="s">
+      <c r="A2764" s="6" t="s">
         <v>7593</v>
       </c>
       <c r="B2764" s="2" t="s">
@@ -63539,6 +65100,1106 @@
       </c>
       <c r="C2800" s="2" t="s">
         <v>7670</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:3">
+      <c r="A2801" s="2" t="s">
+        <v>7718</v>
+      </c>
+      <c r="B2801" s="2" t="s">
+        <v>7719</v>
+      </c>
+      <c r="C2801" s="2" t="s">
+        <v>7715</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:3">
+      <c r="A2802" s="2" t="s">
+        <v>7716</v>
+      </c>
+      <c r="B2802" s="2" t="s">
+        <v>7717</v>
+      </c>
+      <c r="C2802" s="2" t="s">
+        <v>7715</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:3">
+      <c r="A2803" s="6" t="s">
+        <v>7721</v>
+      </c>
+      <c r="B2803" s="2" t="s">
+        <v>7720</v>
+      </c>
+      <c r="C2803" s="2" t="s">
+        <v>7880</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:3">
+      <c r="A2804" s="6" t="s">
+        <v>7722</v>
+      </c>
+      <c r="B2804" s="2" t="s">
+        <v>7725</v>
+      </c>
+      <c r="C2804" s="2" t="s">
+        <v>7881</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:3">
+      <c r="A2805" s="9" t="s">
+        <v>7883</v>
+      </c>
+      <c r="B2805" s="2" t="s">
+        <v>7726</v>
+      </c>
+      <c r="C2805" s="2" t="s">
+        <v>7882</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:3">
+      <c r="A2806" s="6" t="s">
+        <v>7723</v>
+      </c>
+      <c r="B2806" s="2" t="s">
+        <v>7726</v>
+      </c>
+      <c r="C2806" s="2" t="s">
+        <v>7884</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:3">
+      <c r="A2807" s="6" t="s">
+        <v>7724</v>
+      </c>
+      <c r="B2807" s="2" t="s">
+        <v>7730</v>
+      </c>
+      <c r="C2807" s="2" t="s">
+        <v>7885</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:3">
+      <c r="A2808" s="5" t="s">
+        <v>7727</v>
+      </c>
+      <c r="B2808" s="2" t="s">
+        <v>7726</v>
+      </c>
+      <c r="C2808" s="2" t="s">
+        <v>7886</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:3">
+      <c r="A2809" s="2" t="s">
+        <v>7728</v>
+      </c>
+      <c r="B2809" s="2" t="s">
+        <v>7726</v>
+      </c>
+      <c r="C2809" s="2" t="s">
+        <v>7887</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:3">
+      <c r="A2810" s="2" t="s">
+        <v>7729</v>
+      </c>
+      <c r="B2810" s="2" t="s">
+        <v>7726</v>
+      </c>
+      <c r="C2810" s="2" t="s">
+        <v>7888</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:3">
+      <c r="A2811" s="6" t="s">
+        <v>7731</v>
+      </c>
+      <c r="B2811" s="8" t="s">
+        <v>7734</v>
+      </c>
+      <c r="C2811" s="2" t="s">
+        <v>7889</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:3">
+      <c r="A2812" s="6" t="s">
+        <v>7732</v>
+      </c>
+      <c r="B2812" s="8" t="s">
+        <v>7735</v>
+      </c>
+      <c r="C2812" s="2" t="s">
+        <v>7890</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:3">
+      <c r="A2813" s="9" t="s">
+        <v>7733</v>
+      </c>
+      <c r="B2813" s="8" t="s">
+        <v>7736</v>
+      </c>
+      <c r="C2813" s="2" t="s">
+        <v>7891</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:3">
+      <c r="A2814" s="2" t="s">
+        <v>7738</v>
+      </c>
+      <c r="B2814" s="8" t="s">
+        <v>7737</v>
+      </c>
+      <c r="C2814" s="2" t="s">
+        <v>7892</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:3">
+      <c r="A2815" s="8" t="s">
+        <v>7739</v>
+      </c>
+      <c r="B2815" s="8" t="s">
+        <v>7741</v>
+      </c>
+      <c r="C2815" s="2" t="s">
+        <v>7893</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:3">
+      <c r="A2816" s="2" t="s">
+        <v>7740</v>
+      </c>
+      <c r="B2816" s="8" t="s">
+        <v>7742</v>
+      </c>
+      <c r="C2816" s="2" t="s">
+        <v>7894</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:3">
+      <c r="A2817" s="8" t="s">
+        <v>7743</v>
+      </c>
+      <c r="B2817" s="2" t="s">
+        <v>7748</v>
+      </c>
+      <c r="C2817" s="2" t="s">
+        <v>7895</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:3">
+      <c r="A2818" s="2" t="s">
+        <v>7744</v>
+      </c>
+      <c r="B2818" s="2" t="s">
+        <v>7749</v>
+      </c>
+      <c r="C2818" s="2" t="s">
+        <v>7896</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:3">
+      <c r="A2819" s="2" t="s">
+        <v>7745</v>
+      </c>
+      <c r="B2819" s="2" t="s">
+        <v>7751</v>
+      </c>
+      <c r="C2819" s="2" t="s">
+        <v>7897</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:3">
+      <c r="A2820" s="2" t="s">
+        <v>7746</v>
+      </c>
+      <c r="B2820" s="2" t="s">
+        <v>7750</v>
+      </c>
+      <c r="C2820" s="2" t="s">
+        <v>7898</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:3">
+      <c r="A2821" s="2" t="s">
+        <v>7747</v>
+      </c>
+      <c r="B2821" s="2" t="s">
+        <v>7752</v>
+      </c>
+      <c r="C2821" s="2" t="s">
+        <v>7899</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:3">
+      <c r="A2822" s="2" t="s">
+        <v>7753</v>
+      </c>
+      <c r="B2822" s="2" t="s">
+        <v>7754</v>
+      </c>
+      <c r="C2822" s="2" t="s">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:3">
+      <c r="A2823" s="8" t="s">
+        <v>7902</v>
+      </c>
+      <c r="B2823" s="8" t="s">
+        <v>7901</v>
+      </c>
+      <c r="C2823" s="2" t="s">
+        <v>7939</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:3">
+      <c r="A2824" s="8" t="s">
+        <v>7903</v>
+      </c>
+      <c r="B2824" s="2" t="s">
+        <v>7904</v>
+      </c>
+      <c r="C2824" s="2" t="s">
+        <v>7940</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:3">
+      <c r="A2825" s="2" t="s">
+        <v>7905</v>
+      </c>
+      <c r="B2825" s="2" t="s">
+        <v>7906</v>
+      </c>
+      <c r="C2825" s="2" t="s">
+        <v>7941</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:3">
+      <c r="A2826" s="2" t="s">
+        <v>7907</v>
+      </c>
+      <c r="B2826" s="2" t="s">
+        <v>7906</v>
+      </c>
+      <c r="C2826" s="2" t="s">
+        <v>7943</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:3">
+      <c r="A2827" s="2" t="s">
+        <v>7908</v>
+      </c>
+      <c r="B2827" s="2" t="s">
+        <v>7909</v>
+      </c>
+      <c r="C2827" s="2" t="s">
+        <v>7942</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:3">
+      <c r="A2828" s="2" t="s">
+        <v>7910</v>
+      </c>
+      <c r="B2828" s="2" t="s">
+        <v>7911</v>
+      </c>
+      <c r="C2828" s="2" t="s">
+        <v>7944</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:3">
+      <c r="A2829" s="2" t="s">
+        <v>7913</v>
+      </c>
+      <c r="B2829" s="2" t="s">
+        <v>7912</v>
+      </c>
+      <c r="C2829" s="2" t="s">
+        <v>7945</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:3">
+      <c r="A2830" s="2" t="s">
+        <v>7914</v>
+      </c>
+      <c r="B2830" s="2" t="s">
+        <v>7915</v>
+      </c>
+      <c r="C2830" s="2" t="s">
+        <v>7946</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:3">
+      <c r="A2831" s="2" t="s">
+        <v>7917</v>
+      </c>
+      <c r="B2831" s="2" t="s">
+        <v>7916</v>
+      </c>
+      <c r="C2831" s="2" t="s">
+        <v>7947</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:3">
+      <c r="A2832" s="2" t="s">
+        <v>7918</v>
+      </c>
+      <c r="B2832" s="2" t="s">
+        <v>7919</v>
+      </c>
+      <c r="C2832" s="2" t="s">
+        <v>7948</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:3">
+      <c r="A2833" s="2" t="s">
+        <v>7920</v>
+      </c>
+      <c r="B2833" s="2" t="s">
+        <v>7921</v>
+      </c>
+      <c r="C2833" s="2" t="s">
+        <v>7949</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:3">
+      <c r="A2834" s="2" t="s">
+        <v>7922</v>
+      </c>
+      <c r="B2834" s="2" t="s">
+        <v>7922</v>
+      </c>
+      <c r="C2834" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:3">
+      <c r="A2835" s="2" t="s">
+        <v>7924</v>
+      </c>
+      <c r="B2835" s="2" t="s">
+        <v>7923</v>
+      </c>
+      <c r="C2835" s="2" t="s">
+        <v>7950</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:3">
+      <c r="A2836" s="2" t="s">
+        <v>7925</v>
+      </c>
+      <c r="B2836" s="2" t="s">
+        <v>7926</v>
+      </c>
+      <c r="C2836" s="2" t="s">
+        <v>7951</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:3">
+      <c r="A2837" s="2" t="s">
+        <v>7927</v>
+      </c>
+      <c r="B2837" s="2" t="s">
+        <v>7933</v>
+      </c>
+      <c r="C2837" s="2" t="s">
+        <v>7952</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:3">
+      <c r="A2838" s="2" t="s">
+        <v>7931</v>
+      </c>
+      <c r="B2838" s="2" t="s">
+        <v>7934</v>
+      </c>
+      <c r="C2838" s="2" t="s">
+        <v>7953</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:3">
+      <c r="A2839" s="2" t="s">
+        <v>7932</v>
+      </c>
+      <c r="B2839" s="2" t="s">
+        <v>7935</v>
+      </c>
+      <c r="C2839" s="2" t="s">
+        <v>7954</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:3">
+      <c r="A2840" s="2" t="s">
+        <v>7930</v>
+      </c>
+      <c r="B2840" s="2" t="s">
+        <v>7936</v>
+      </c>
+      <c r="C2840" s="2" t="s">
+        <v>7955</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:3">
+      <c r="A2841" s="2" t="s">
+        <v>7929</v>
+      </c>
+      <c r="B2841" s="2" t="s">
+        <v>7937</v>
+      </c>
+      <c r="C2841" s="2" t="s">
+        <v>7956</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:3">
+      <c r="A2842" s="2" t="s">
+        <v>7928</v>
+      </c>
+      <c r="B2842" s="2" t="s">
+        <v>7938</v>
+      </c>
+      <c r="C2842" s="2" t="s">
+        <v>7957</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:3">
+      <c r="A2843" s="8" t="s">
+        <v>7758</v>
+      </c>
+      <c r="B2843" s="8" t="s">
+        <v>7758</v>
+      </c>
+      <c r="C2843" s="10" t="s">
+        <v>7958</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:3">
+      <c r="A2844" s="8" t="s">
+        <v>7758</v>
+      </c>
+      <c r="B2844" s="8" t="s">
+        <v>7759</v>
+      </c>
+      <c r="C2844" s="8" t="s">
+        <v>7959</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:3">
+      <c r="A2845" s="8" t="s">
+        <v>7758</v>
+      </c>
+      <c r="B2845" s="8" t="s">
+        <v>7760</v>
+      </c>
+      <c r="C2845" s="8" t="s">
+        <v>7861</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:3">
+      <c r="A2846" s="5" t="s">
+        <v>7850</v>
+      </c>
+      <c r="B2846" s="8" t="s">
+        <v>7761</v>
+      </c>
+      <c r="C2846" s="10" t="s">
+        <v>7960</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:3">
+      <c r="A2847" s="8" t="s">
+        <v>7758</v>
+      </c>
+      <c r="B2847" s="8" t="s">
+        <v>7762</v>
+      </c>
+      <c r="C2847" s="8" t="s">
+        <v>7852</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:3">
+      <c r="A2848" s="8" t="s">
+        <v>7758</v>
+      </c>
+      <c r="B2848" s="8" t="s">
+        <v>7763</v>
+      </c>
+      <c r="C2848" s="8" t="s">
+        <v>7853</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:3">
+      <c r="A2849" s="8" t="s">
+        <v>7814</v>
+      </c>
+      <c r="B2849" s="8" t="s">
+        <v>7764</v>
+      </c>
+      <c r="C2849" s="8" t="s">
+        <v>7862</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:3">
+      <c r="A2850" s="8" t="s">
+        <v>7848</v>
+      </c>
+      <c r="B2850" s="8" t="s">
+        <v>7765</v>
+      </c>
+      <c r="C2850" s="8" t="s">
+        <v>7961</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:3">
+      <c r="A2851" s="8" t="s">
+        <v>7805</v>
+      </c>
+      <c r="B2851" s="8" t="s">
+        <v>3622</v>
+      </c>
+      <c r="C2851" s="8" t="s">
+        <v>7962</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:3">
+      <c r="A2852" s="8" t="s">
+        <v>7829</v>
+      </c>
+      <c r="B2852" s="8" t="s">
+        <v>7766</v>
+      </c>
+      <c r="C2852" s="8" t="s">
+        <v>7963</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:3">
+      <c r="A2853" s="8" t="s">
+        <v>7830</v>
+      </c>
+      <c r="B2853" s="8" t="s">
+        <v>7830</v>
+      </c>
+      <c r="C2853" s="8" t="s">
+        <v>7964</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:3">
+      <c r="A2854" s="8" t="s">
+        <v>7831</v>
+      </c>
+      <c r="B2854" s="8" t="s">
+        <v>7767</v>
+      </c>
+      <c r="C2854" s="8" t="s">
+        <v>7854</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:3">
+      <c r="A2855" s="8" t="s">
+        <v>7832</v>
+      </c>
+      <c r="B2855" s="8" t="s">
+        <v>7768</v>
+      </c>
+      <c r="C2855" s="8" t="s">
+        <v>7965</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:3">
+      <c r="A2856" s="8" t="s">
+        <v>7833</v>
+      </c>
+      <c r="B2856" s="8" t="s">
+        <v>7769</v>
+      </c>
+      <c r="C2856" s="8" t="s">
+        <v>7966</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:3">
+      <c r="A2857" s="8" t="s">
+        <v>7806</v>
+      </c>
+      <c r="B2857" s="8" t="s">
+        <v>7770</v>
+      </c>
+      <c r="C2857" s="8" t="s">
+        <v>7863</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:3">
+      <c r="A2858" s="5" t="s">
+        <v>7851</v>
+      </c>
+      <c r="B2858" s="8" t="s">
+        <v>7771</v>
+      </c>
+      <c r="C2858" s="8" t="s">
+        <v>7864</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:3">
+      <c r="A2859" s="8" t="s">
+        <v>7817</v>
+      </c>
+      <c r="B2859" s="8" t="s">
+        <v>7772</v>
+      </c>
+      <c r="C2859" s="8" t="s">
+        <v>7865</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:3">
+      <c r="A2860" s="8" t="s">
+        <v>7755</v>
+      </c>
+      <c r="B2860" s="8" t="s">
+        <v>7773</v>
+      </c>
+      <c r="C2860" s="8" t="s">
+        <v>7967</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:3">
+      <c r="A2861" s="8" t="s">
+        <v>7818</v>
+      </c>
+      <c r="B2861" s="8" t="s">
+        <v>7774</v>
+      </c>
+      <c r="C2861" s="8" t="s">
+        <v>7866</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:3">
+      <c r="A2862" s="8" t="s">
+        <v>7815</v>
+      </c>
+      <c r="B2862" s="8" t="s">
+        <v>7775</v>
+      </c>
+      <c r="C2862" s="8" t="s">
+        <v>7968</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:3">
+      <c r="A2863" s="8" t="s">
+        <v>7819</v>
+      </c>
+      <c r="B2863" s="8" t="s">
+        <v>7776</v>
+      </c>
+      <c r="C2863" s="8" t="s">
+        <v>7855</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:3">
+      <c r="A2864" s="8" t="s">
+        <v>7807</v>
+      </c>
+      <c r="B2864" s="8" t="s">
+        <v>7777</v>
+      </c>
+      <c r="C2864" s="8" t="s">
+        <v>7969</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:3">
+      <c r="A2865" s="8" t="s">
+        <v>7834</v>
+      </c>
+      <c r="B2865" s="8" t="s">
+        <v>7834</v>
+      </c>
+      <c r="C2865" s="8" t="s">
+        <v>7867</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:3">
+      <c r="A2866" s="8" t="s">
+        <v>7808</v>
+      </c>
+      <c r="B2866" s="8" t="s">
+        <v>7778</v>
+      </c>
+      <c r="C2866" s="8" t="s">
+        <v>7970</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:3">
+      <c r="A2867" s="8" t="s">
+        <v>7826</v>
+      </c>
+      <c r="B2867" s="8" t="s">
+        <v>7826</v>
+      </c>
+      <c r="C2867" s="8" t="s">
+        <v>7868</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:3">
+      <c r="A2868" s="8" t="s">
+        <v>7809</v>
+      </c>
+      <c r="B2868" s="8" t="s">
+        <v>7779</v>
+      </c>
+      <c r="C2868" s="8" t="s">
+        <v>7971</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:3">
+      <c r="A2869" s="8" t="s">
+        <v>7816</v>
+      </c>
+      <c r="B2869" s="8" t="s">
+        <v>7780</v>
+      </c>
+      <c r="C2869" s="8" t="s">
+        <v>7972</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:3">
+      <c r="A2870" s="8" t="s">
+        <v>7820</v>
+      </c>
+      <c r="B2870" s="8" t="s">
+        <v>7820</v>
+      </c>
+      <c r="C2870" s="8" t="s">
+        <v>7973</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:3">
+      <c r="A2871" s="8" t="s">
+        <v>7828</v>
+      </c>
+      <c r="B2871" s="8" t="s">
+        <v>7781</v>
+      </c>
+      <c r="C2871" s="8" t="s">
+        <v>7869</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:3">
+      <c r="A2872" s="8" t="s">
+        <v>7835</v>
+      </c>
+      <c r="B2872" s="8" t="s">
+        <v>7782</v>
+      </c>
+      <c r="C2872" s="8" t="s">
+        <v>7870</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:3">
+      <c r="A2873" s="8" t="s">
+        <v>7836</v>
+      </c>
+      <c r="B2873" s="8" t="s">
+        <v>7783</v>
+      </c>
+      <c r="C2873" s="8" t="s">
+        <v>7974</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:3">
+      <c r="A2874" s="8" t="s">
+        <v>7837</v>
+      </c>
+      <c r="B2874" s="8" t="s">
+        <v>7784</v>
+      </c>
+      <c r="C2874" s="8" t="s">
+        <v>7871</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:3">
+      <c r="A2875" s="8" t="s">
+        <v>7756</v>
+      </c>
+      <c r="B2875" s="8" t="s">
+        <v>7785</v>
+      </c>
+      <c r="C2875" s="8" t="s">
+        <v>7872</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:3">
+      <c r="A2876" s="8" t="s">
+        <v>7810</v>
+      </c>
+      <c r="B2876" s="8" t="s">
+        <v>7810</v>
+      </c>
+      <c r="C2876" s="8" t="s">
+        <v>7975</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:3">
+      <c r="A2877" s="8" t="s">
+        <v>7838</v>
+      </c>
+      <c r="B2877" s="8" t="s">
+        <v>7838</v>
+      </c>
+      <c r="C2877" s="8" t="s">
+        <v>7976</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:3">
+      <c r="A2878" s="8" t="s">
+        <v>7821</v>
+      </c>
+      <c r="B2878" s="8" t="s">
+        <v>7821</v>
+      </c>
+      <c r="C2878" s="8" t="s">
+        <v>7977</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:3">
+      <c r="A2879" s="8" t="s">
+        <v>7757</v>
+      </c>
+      <c r="B2879" s="8" t="s">
+        <v>7757</v>
+      </c>
+      <c r="C2879" s="8" t="s">
+        <v>7978</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:3">
+      <c r="A2880" s="8" t="s">
+        <v>7822</v>
+      </c>
+      <c r="B2880" s="8" t="s">
+        <v>7822</v>
+      </c>
+      <c r="C2880" s="8" t="s">
+        <v>7979</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:3">
+      <c r="A2881" s="5" t="s">
+        <v>7804</v>
+      </c>
+      <c r="B2881" s="8" t="s">
+        <v>7786</v>
+      </c>
+      <c r="C2881" s="8" t="s">
+        <v>7873</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:3">
+      <c r="A2882" s="5" t="s">
+        <v>7803</v>
+      </c>
+      <c r="B2882" s="8" t="s">
+        <v>7787</v>
+      </c>
+      <c r="C2882" s="8" t="s">
+        <v>7980</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:3">
+      <c r="A2883" s="8" t="s">
+        <v>7811</v>
+      </c>
+      <c r="B2883" s="8" t="s">
+        <v>7590</v>
+      </c>
+      <c r="C2883" s="8" t="s">
+        <v>7981</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:3">
+      <c r="A2884" s="8" t="s">
+        <v>7812</v>
+      </c>
+      <c r="B2884" s="5" t="s">
+        <v>7800</v>
+      </c>
+      <c r="C2884" s="8" t="s">
+        <v>7856</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:3">
+      <c r="A2885" s="8" t="s">
+        <v>7812</v>
+      </c>
+      <c r="B2885" s="2" t="s">
+        <v>7801</v>
+      </c>
+      <c r="C2885" s="8" t="s">
+        <v>7982</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:3">
+      <c r="A2886" s="8" t="s">
+        <v>7839</v>
+      </c>
+      <c r="B2886" s="2" t="s">
+        <v>7802</v>
+      </c>
+      <c r="C2886" s="8" t="s">
+        <v>7983</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:3">
+      <c r="A2887" s="8" t="s">
+        <v>7827</v>
+      </c>
+      <c r="B2887" s="8" t="s">
+        <v>7788</v>
+      </c>
+      <c r="C2887" s="8" t="s">
+        <v>7874</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:3">
+      <c r="A2888" s="8" t="s">
+        <v>7813</v>
+      </c>
+      <c r="B2888" s="8" t="s">
+        <v>7789</v>
+      </c>
+      <c r="C2888" s="8" t="s">
+        <v>7875</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:3">
+      <c r="A2889" s="8" t="s">
+        <v>7841</v>
+      </c>
+      <c r="B2889" s="8" t="s">
+        <v>7790</v>
+      </c>
+      <c r="C2889" s="8" t="s">
+        <v>7984</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:3">
+      <c r="A2890" s="8" t="s">
+        <v>7849</v>
+      </c>
+      <c r="B2890" s="8" t="s">
+        <v>7791</v>
+      </c>
+      <c r="C2890" s="8" t="s">
+        <v>7857</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:3">
+      <c r="A2891" s="8" t="s">
+        <v>7842</v>
+      </c>
+      <c r="B2891" s="8" t="s">
+        <v>7792</v>
+      </c>
+      <c r="C2891" s="8" t="s">
+        <v>7985</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:3">
+      <c r="A2892" s="8" t="s">
+        <v>7823</v>
+      </c>
+      <c r="B2892" s="8" t="s">
+        <v>7793</v>
+      </c>
+      <c r="C2892" s="8" t="s">
+        <v>7858</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:3">
+      <c r="A2893" s="8" t="s">
+        <v>7843</v>
+      </c>
+      <c r="B2893" s="8" t="s">
+        <v>7843</v>
+      </c>
+      <c r="C2893" s="8" t="s">
+        <v>7876</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:3">
+      <c r="A2894" s="8" t="s">
+        <v>7844</v>
+      </c>
+      <c r="B2894" s="8" t="s">
+        <v>7844</v>
+      </c>
+      <c r="C2894" s="8" t="s">
+        <v>7859</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:3">
+      <c r="A2895" s="8" t="s">
+        <v>7845</v>
+      </c>
+      <c r="B2895" s="8" t="s">
+        <v>7794</v>
+      </c>
+      <c r="C2895" s="8" t="s">
+        <v>7877</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:3">
+      <c r="A2896" s="8" t="s">
+        <v>7846</v>
+      </c>
+      <c r="B2896" s="8" t="s">
+        <v>7795</v>
+      </c>
+      <c r="C2896" s="8" t="s">
+        <v>7986</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:3">
+      <c r="A2897" s="8" t="s">
+        <v>7847</v>
+      </c>
+      <c r="B2897" s="8" t="s">
+        <v>7796</v>
+      </c>
+      <c r="C2897" s="8" t="s">
+        <v>7878</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:3">
+      <c r="A2898" s="8" t="s">
+        <v>7840</v>
+      </c>
+      <c r="B2898" s="8" t="s">
+        <v>7797</v>
+      </c>
+      <c r="C2898" s="8" t="s">
+        <v>7879</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:3">
+      <c r="A2899" s="8" t="s">
+        <v>7824</v>
+      </c>
+      <c r="B2899" s="8" t="s">
+        <v>7798</v>
+      </c>
+      <c r="C2899" s="8" t="s">
+        <v>7987</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:3">
+      <c r="A2900" s="8" t="s">
+        <v>7825</v>
+      </c>
+      <c r="B2900" s="8" t="s">
+        <v>7799</v>
+      </c>
+      <c r="C2900" s="8" t="s">
+        <v>7860</v>
       </c>
     </row>
   </sheetData>

--- a/日本語/1_語彙.xlsx
+++ b/日本語/1_語彙.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeshafteure/Documents/GitHub/Freshmore/日本語/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C53C0C-6635-2D46-8805-EEDCF82AE524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AFCBA9-107D-7843-8221-05F6E8EF3AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15840" windowHeight="18880" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8700" uniqueCount="7988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8706" uniqueCount="7993">
   <si>
     <t>亜〜</t>
   </si>
@@ -33161,192 +33161,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>『かさを〜』</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">put/hold up </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>umbrella</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>pierce, stab, prick (with a needle) / bite, sting / sew, stitch</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>日が〜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>sun)shine</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>give, grant, teach</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">rub, scrub, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">目を〜 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>rub ones eyes</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">seat, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>〜を予約する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> reserve a seat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>〜指定券</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> reserved-seat ticket</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">must be very, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>〜お疲れでしょう</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> You must be very tired.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>be decided, be determined, be settled</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -33355,78 +33177,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">sloppy, messy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>彼の仕事は〜だ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>His work is sloppy.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>noise, howl stalic/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>〜に迷わされる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> be misled by what others say</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>miscellaneous goods, general merchandise, /</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>日用〜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> convenience goods</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>illusion, mistaken impression</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -33439,219 +33189,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>quickly, briskly/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>仕事を〜片づける</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> finish up one's work briskly</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>guess, sense, sympathize with</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>quickly, suddenly, brielly, lightly,/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>私は〜新聞に目を通した</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>I skinmed through the newspaper.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>roughly, approxinately, briefly, lightly./</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>〜目を通す</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> glance, leafc</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>completely neat and tidy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> refreshing,/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>〜思い出せない</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> Isimply can't remember.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>feel refreshed, feel relieved, /</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>お風呂に入ると〜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> A bath will freshen you up.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>by the way, now,well/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>〜、どうしよう</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> What shall I do now</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>？</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>become enlightened, realize</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>in the middle of,/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>私は試験勉強の〜だ。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>1 am in the middle of studying for tests.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>judge, sit in judgment</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -33660,135 +33205,96 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>rust, pet rusty, gather rust,/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>怠けていると腕が〜よ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> Youll iust rust away in idleness.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>discrimination,/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>〜する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> discriminate,/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>〜的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> discriminatory, discriminative</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>state, condition/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>彼は台風被害の〜を語った</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> He described the havoc wreaked by the typhoon.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>cool, chill/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">スープを〜 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>cool the soup/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>興奮を〜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> take the heat off</t>
-    </r>
+    <t>さまよう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stray, wander</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さむい</t>
+  </si>
+  <si>
+    <t>寒い</t>
+  </si>
+  <si>
+    <t>cold (climate, weather, place)</t>
+  </si>
+  <si>
+    <t>『かさを〜』put/hold up （umbrella）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日が〜 (sun)shine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rub, scrub, 目を〜 rub ones eyes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seat, 〜を予約する reserve a seat 〜指定券 reserved-seat ticket</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>must be very, 〜お疲れでしょう You must be very tired.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sloppy, messy 彼の仕事は〜だHis work is sloppy.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>noise, howl stalic/〜に迷わされる be misled by what others say</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>miscellaneous goods, general merchandise, /日用〜 convenience goods</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>quickly, briskly/仕事を〜片づける finish up one's work briskly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>quickly, suddenly, brielly, lightly,/私は〜新聞に目を通した I skinmed through the newspaper.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roughly, approxinately, briefly, lightly./〜目を通す glance, leafc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>completely neat and tidy， refreshing,/〜思い出せない Isimply can't remember.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feel refreshed, feel relieved, /お風呂に入ると〜 A bath will freshen you up.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>by the way, now,well/〜、どうしよう What shall I do now？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>in the middle of,/私は試験勉強の〜だ。1 am in the middle of studying for tests.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rust, pet rusty, gather rust,/怠けていると腕が〜よ Youll iust rust away in idleness.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>discrimination,/〜する discriminate,/〜的 discriminatory, discriminative</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>state, condition/彼は台風被害の〜を語った He described the havoc wreaked by the typhoon.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cool, chill/スープを〜 cool the soup/興奮を〜 take the heat off</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -33796,7 +33302,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -33856,44 +33362,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="MS Mincho"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Menlo"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="MS Mincho"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -33917,7 +33385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -33933,22 +33401,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -34285,10 +33738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD98CDC-2E6D-F340-BEA4-C5F884B9AAD8}">
-  <dimension ref="A1:F2900"/>
+  <dimension ref="A1:F2902"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2884" zoomScale="126" workbookViewId="0">
-      <selection activeCell="C2889" sqref="C2889"/>
+    <sheetView tabSelected="1" topLeftCell="A2886" zoomScale="126" workbookViewId="0">
+      <selection activeCell="A2902" sqref="A1:C2902"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -64383,7 +63836,7 @@
       <c r="B2735" s="2" t="s">
         <v>7476</v>
       </c>
-      <c r="C2735" s="7" t="s">
+      <c r="C2735" s="5" t="s">
         <v>7533</v>
       </c>
     </row>
@@ -64553,7 +64006,7 @@
       </c>
     </row>
     <row r="2751" spans="1:3">
-      <c r="A2751" s="6" t="s">
+      <c r="A2751" s="2" t="s">
         <v>7573</v>
       </c>
       <c r="B2751" s="2" t="s">
@@ -64564,7 +64017,7 @@
       </c>
     </row>
     <row r="2752" spans="1:3">
-      <c r="A2752" s="6" t="s">
+      <c r="A2752" s="2" t="s">
         <v>7574</v>
       </c>
       <c r="B2752" s="2" t="s">
@@ -64575,7 +64028,7 @@
       </c>
     </row>
     <row r="2753" spans="1:3">
-      <c r="A2753" s="6" t="s">
+      <c r="A2753" s="2" t="s">
         <v>7575</v>
       </c>
       <c r="B2753" s="2" t="s">
@@ -64586,10 +64039,10 @@
       </c>
     </row>
     <row r="2754" spans="1:3">
-      <c r="A2754" s="6" t="s">
+      <c r="A2754" s="2" t="s">
         <v>7576</v>
       </c>
-      <c r="B2754" s="5" t="s">
+      <c r="B2754" s="2" t="s">
         <v>7579</v>
       </c>
       <c r="C2754" s="2" t="s">
@@ -64652,7 +64105,7 @@
       </c>
     </row>
     <row r="2760" spans="1:3">
-      <c r="A2760" s="6" t="s">
+      <c r="A2760" s="2" t="s">
         <v>7589</v>
       </c>
       <c r="B2760" s="2" t="s">
@@ -64663,7 +64116,7 @@
       </c>
     </row>
     <row r="2761" spans="1:3">
-      <c r="A2761" s="6" t="s">
+      <c r="A2761" s="2" t="s">
         <v>7590</v>
       </c>
       <c r="B2761" s="2" t="s">
@@ -64674,7 +64127,7 @@
       </c>
     </row>
     <row r="2762" spans="1:3">
-      <c r="A2762" s="6" t="s">
+      <c r="A2762" s="2" t="s">
         <v>7591</v>
       </c>
       <c r="B2762" s="2" t="s">
@@ -64685,7 +64138,7 @@
       </c>
     </row>
     <row r="2763" spans="1:3">
-      <c r="A2763" s="6" t="s">
+      <c r="A2763" s="2" t="s">
         <v>7592</v>
       </c>
       <c r="B2763" s="2" t="s">
@@ -64696,7 +64149,7 @@
       </c>
     </row>
     <row r="2764" spans="1:3">
-      <c r="A2764" s="6" t="s">
+      <c r="A2764" s="2" t="s">
         <v>7593</v>
       </c>
       <c r="B2764" s="2" t="s">
@@ -65125,7 +64578,7 @@
       </c>
     </row>
     <row r="2803" spans="1:3">
-      <c r="A2803" s="6" t="s">
+      <c r="A2803" s="2" t="s">
         <v>7721</v>
       </c>
       <c r="B2803" s="2" t="s">
@@ -65136,7 +64589,7 @@
       </c>
     </row>
     <row r="2804" spans="1:3">
-      <c r="A2804" s="6" t="s">
+      <c r="A2804" s="2" t="s">
         <v>7722</v>
       </c>
       <c r="B2804" s="2" t="s">
@@ -65147,7 +64600,7 @@
       </c>
     </row>
     <row r="2805" spans="1:3">
-      <c r="A2805" s="9" t="s">
+      <c r="A2805" s="2" t="s">
         <v>7883</v>
       </c>
       <c r="B2805" s="2" t="s">
@@ -65158,7 +64611,7 @@
       </c>
     </row>
     <row r="2806" spans="1:3">
-      <c r="A2806" s="6" t="s">
+      <c r="A2806" s="2" t="s">
         <v>7723</v>
       </c>
       <c r="B2806" s="2" t="s">
@@ -65169,7 +64622,7 @@
       </c>
     </row>
     <row r="2807" spans="1:3">
-      <c r="A2807" s="6" t="s">
+      <c r="A2807" s="2" t="s">
         <v>7724</v>
       </c>
       <c r="B2807" s="2" t="s">
@@ -65180,7 +64633,7 @@
       </c>
     </row>
     <row r="2808" spans="1:3">
-      <c r="A2808" s="5" t="s">
+      <c r="A2808" s="2" t="s">
         <v>7727</v>
       </c>
       <c r="B2808" s="2" t="s">
@@ -65213,10 +64666,10 @@
       </c>
     </row>
     <row r="2811" spans="1:3">
-      <c r="A2811" s="6" t="s">
+      <c r="A2811" s="2" t="s">
         <v>7731</v>
       </c>
-      <c r="B2811" s="8" t="s">
+      <c r="B2811" s="2" t="s">
         <v>7734</v>
       </c>
       <c r="C2811" s="2" t="s">
@@ -65224,10 +64677,10 @@
       </c>
     </row>
     <row r="2812" spans="1:3">
-      <c r="A2812" s="6" t="s">
+      <c r="A2812" s="2" t="s">
         <v>7732</v>
       </c>
-      <c r="B2812" s="8" t="s">
+      <c r="B2812" s="2" t="s">
         <v>7735</v>
       </c>
       <c r="C2812" s="2" t="s">
@@ -65235,10 +64688,10 @@
       </c>
     </row>
     <row r="2813" spans="1:3">
-      <c r="A2813" s="9" t="s">
+      <c r="A2813" s="2" t="s">
         <v>7733</v>
       </c>
-      <c r="B2813" s="8" t="s">
+      <c r="B2813" s="2" t="s">
         <v>7736</v>
       </c>
       <c r="C2813" s="2" t="s">
@@ -65249,7 +64702,7 @@
       <c r="A2814" s="2" t="s">
         <v>7738</v>
       </c>
-      <c r="B2814" s="8" t="s">
+      <c r="B2814" s="2" t="s">
         <v>7737</v>
       </c>
       <c r="C2814" s="2" t="s">
@@ -65257,10 +64710,10 @@
       </c>
     </row>
     <row r="2815" spans="1:3">
-      <c r="A2815" s="8" t="s">
+      <c r="A2815" s="2" t="s">
         <v>7739</v>
       </c>
-      <c r="B2815" s="8" t="s">
+      <c r="B2815" s="2" t="s">
         <v>7741</v>
       </c>
       <c r="C2815" s="2" t="s">
@@ -65271,7 +64724,7 @@
       <c r="A2816" s="2" t="s">
         <v>7740</v>
       </c>
-      <c r="B2816" s="8" t="s">
+      <c r="B2816" s="2" t="s">
         <v>7742</v>
       </c>
       <c r="C2816" s="2" t="s">
@@ -65279,7 +64732,7 @@
       </c>
     </row>
     <row r="2817" spans="1:3">
-      <c r="A2817" s="8" t="s">
+      <c r="A2817" s="2" t="s">
         <v>7743</v>
       </c>
       <c r="B2817" s="2" t="s">
@@ -65345,10 +64798,10 @@
       </c>
     </row>
     <row r="2823" spans="1:3">
-      <c r="A2823" s="8" t="s">
+      <c r="A2823" s="2" t="s">
         <v>7902</v>
       </c>
-      <c r="B2823" s="8" t="s">
+      <c r="B2823" s="2" t="s">
         <v>7901</v>
       </c>
       <c r="C2823" s="2" t="s">
@@ -65356,7 +64809,7 @@
       </c>
     </row>
     <row r="2824" spans="1:3">
-      <c r="A2824" s="8" t="s">
+      <c r="A2824" s="2" t="s">
         <v>7903</v>
       </c>
       <c r="B2824" s="2" t="s">
@@ -65565,641 +65018,663 @@
       </c>
     </row>
     <row r="2843" spans="1:3">
-      <c r="A2843" s="8" t="s">
+      <c r="A2843" s="2" t="s">
         <v>7758</v>
       </c>
-      <c r="B2843" s="8" t="s">
+      <c r="B2843" s="2" t="s">
         <v>7758</v>
       </c>
-      <c r="C2843" s="10" t="s">
+      <c r="C2843" s="2" t="s">
+        <v>7974</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:3">
+      <c r="A2844" s="2" t="s">
+        <v>7758</v>
+      </c>
+      <c r="B2844" s="2" t="s">
+        <v>7759</v>
+      </c>
+      <c r="C2844" s="2" t="s">
         <v>7958</v>
       </c>
     </row>
-    <row r="2844" spans="1:3">
-      <c r="A2844" s="8" t="s">
+    <row r="2845" spans="1:3">
+      <c r="A2845" s="2" t="s">
         <v>7758</v>
       </c>
-      <c r="B2844" s="8" t="s">
-        <v>7759</v>
-      </c>
-      <c r="C2844" s="8" t="s">
+      <c r="B2845" s="2" t="s">
+        <v>7760</v>
+      </c>
+      <c r="C2845" s="2" t="s">
+        <v>7861</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:3">
+      <c r="A2846" s="2" t="s">
+        <v>7850</v>
+      </c>
+      <c r="B2846" s="2" t="s">
+        <v>7761</v>
+      </c>
+      <c r="C2846" s="2" t="s">
+        <v>7975</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:3">
+      <c r="A2847" s="2" t="s">
+        <v>7758</v>
+      </c>
+      <c r="B2847" s="2" t="s">
+        <v>7762</v>
+      </c>
+      <c r="C2847" s="2" t="s">
+        <v>7852</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:3">
+      <c r="A2848" s="2" t="s">
+        <v>7758</v>
+      </c>
+      <c r="B2848" s="2" t="s">
+        <v>7763</v>
+      </c>
+      <c r="C2848" s="2" t="s">
+        <v>7853</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:3">
+      <c r="A2849" s="2" t="s">
+        <v>7814</v>
+      </c>
+      <c r="B2849" s="2" t="s">
+        <v>7764</v>
+      </c>
+      <c r="C2849" s="2" t="s">
+        <v>7862</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:3">
+      <c r="A2850" s="2" t="s">
+        <v>7848</v>
+      </c>
+      <c r="B2850" s="2" t="s">
+        <v>7765</v>
+      </c>
+      <c r="C2850" s="2" t="s">
         <v>7959</v>
       </c>
     </row>
-    <row r="2845" spans="1:3">
-      <c r="A2845" s="8" t="s">
-        <v>7758</v>
-      </c>
-      <c r="B2845" s="8" t="s">
-        <v>7760</v>
-      </c>
-      <c r="C2845" s="8" t="s">
-        <v>7861</v>
-      </c>
-    </row>
-    <row r="2846" spans="1:3">
-      <c r="A2846" s="5" t="s">
-        <v>7850</v>
-      </c>
-      <c r="B2846" s="8" t="s">
-        <v>7761</v>
-      </c>
-      <c r="C2846" s="10" t="s">
+    <row r="2851" spans="1:3">
+      <c r="A2851" s="2" t="s">
+        <v>7805</v>
+      </c>
+      <c r="B2851" s="2" t="s">
+        <v>3622</v>
+      </c>
+      <c r="C2851" s="2" t="s">
+        <v>7976</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:3">
+      <c r="A2852" s="2" t="s">
+        <v>7829</v>
+      </c>
+      <c r="B2852" s="2" t="s">
+        <v>7766</v>
+      </c>
+      <c r="C2852" s="2" t="s">
+        <v>7977</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:3">
+      <c r="A2853" s="2" t="s">
+        <v>7830</v>
+      </c>
+      <c r="B2853" s="2" t="s">
+        <v>7830</v>
+      </c>
+      <c r="C2853" s="2" t="s">
+        <v>7978</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:3">
+      <c r="A2854" s="2" t="s">
+        <v>7831</v>
+      </c>
+      <c r="B2854" s="2" t="s">
+        <v>7767</v>
+      </c>
+      <c r="C2854" s="2" t="s">
+        <v>7854</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:3">
+      <c r="A2855" s="2" t="s">
+        <v>7832</v>
+      </c>
+      <c r="B2855" s="2" t="s">
+        <v>7768</v>
+      </c>
+      <c r="C2855" s="2" t="s">
         <v>7960</v>
       </c>
     </row>
-    <row r="2847" spans="1:3">
-      <c r="A2847" s="8" t="s">
-        <v>7758</v>
-      </c>
-      <c r="B2847" s="8" t="s">
-        <v>7762</v>
-      </c>
-      <c r="C2847" s="8" t="s">
-        <v>7852</v>
-      </c>
-    </row>
-    <row r="2848" spans="1:3">
-      <c r="A2848" s="8" t="s">
-        <v>7758</v>
-      </c>
-      <c r="B2848" s="8" t="s">
-        <v>7763</v>
-      </c>
-      <c r="C2848" s="8" t="s">
-        <v>7853</v>
-      </c>
-    </row>
-    <row r="2849" spans="1:3">
-      <c r="A2849" s="8" t="s">
-        <v>7814</v>
-      </c>
-      <c r="B2849" s="8" t="s">
-        <v>7764</v>
-      </c>
-      <c r="C2849" s="8" t="s">
-        <v>7862</v>
-      </c>
-    </row>
-    <row r="2850" spans="1:3">
-      <c r="A2850" s="8" t="s">
-        <v>7848</v>
-      </c>
-      <c r="B2850" s="8" t="s">
-        <v>7765</v>
-      </c>
-      <c r="C2850" s="8" t="s">
+    <row r="2856" spans="1:3">
+      <c r="A2856" s="2" t="s">
+        <v>7833</v>
+      </c>
+      <c r="B2856" s="2" t="s">
+        <v>7769</v>
+      </c>
+      <c r="C2856" s="2" t="s">
         <v>7961</v>
       </c>
     </row>
-    <row r="2851" spans="1:3">
-      <c r="A2851" s="8" t="s">
-        <v>7805</v>
-      </c>
-      <c r="B2851" s="8" t="s">
-        <v>3622</v>
-      </c>
-      <c r="C2851" s="8" t="s">
+    <row r="2857" spans="1:3">
+      <c r="A2857" s="2" t="s">
+        <v>7806</v>
+      </c>
+      <c r="B2857" s="2" t="s">
+        <v>7770</v>
+      </c>
+      <c r="C2857" s="2" t="s">
+        <v>7863</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:3">
+      <c r="A2858" s="2" t="s">
+        <v>7851</v>
+      </c>
+      <c r="B2858" s="2" t="s">
+        <v>7771</v>
+      </c>
+      <c r="C2858" s="2" t="s">
+        <v>7864</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:3">
+      <c r="A2859" s="2" t="s">
+        <v>7817</v>
+      </c>
+      <c r="B2859" s="2" t="s">
+        <v>7772</v>
+      </c>
+      <c r="C2859" s="2" t="s">
+        <v>7865</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:3">
+      <c r="A2860" s="2" t="s">
+        <v>7755</v>
+      </c>
+      <c r="B2860" s="2" t="s">
+        <v>7773</v>
+      </c>
+      <c r="C2860" s="2" t="s">
+        <v>7979</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:3">
+      <c r="A2861" s="2" t="s">
+        <v>7818</v>
+      </c>
+      <c r="B2861" s="2" t="s">
+        <v>7774</v>
+      </c>
+      <c r="C2861" s="2" t="s">
+        <v>7866</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:3">
+      <c r="A2862" s="2" t="s">
+        <v>7815</v>
+      </c>
+      <c r="B2862" s="2" t="s">
+        <v>7775</v>
+      </c>
+      <c r="C2862" s="2" t="s">
+        <v>7980</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:3">
+      <c r="A2863" s="2" t="s">
+        <v>7819</v>
+      </c>
+      <c r="B2863" s="2" t="s">
+        <v>7776</v>
+      </c>
+      <c r="C2863" s="2" t="s">
+        <v>7855</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:3">
+      <c r="A2864" s="2" t="s">
+        <v>7807</v>
+      </c>
+      <c r="B2864" s="2" t="s">
+        <v>7777</v>
+      </c>
+      <c r="C2864" s="2" t="s">
+        <v>7981</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:3">
+      <c r="A2865" s="2" t="s">
+        <v>7834</v>
+      </c>
+      <c r="B2865" s="2" t="s">
+        <v>7834</v>
+      </c>
+      <c r="C2865" s="2" t="s">
+        <v>7867</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:3">
+      <c r="A2866" s="2" t="s">
+        <v>7808</v>
+      </c>
+      <c r="B2866" s="2" t="s">
+        <v>7778</v>
+      </c>
+      <c r="C2866" s="2" t="s">
         <v>7962</v>
       </c>
     </row>
-    <row r="2852" spans="1:3">
-      <c r="A2852" s="8" t="s">
-        <v>7829</v>
-      </c>
-      <c r="B2852" s="8" t="s">
-        <v>7766</v>
-      </c>
-      <c r="C2852" s="8" t="s">
+    <row r="2867" spans="1:3">
+      <c r="A2867" s="2" t="s">
+        <v>7826</v>
+      </c>
+      <c r="B2867" s="2" t="s">
+        <v>7826</v>
+      </c>
+      <c r="C2867" s="2" t="s">
+        <v>7868</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:3">
+      <c r="A2868" s="2" t="s">
+        <v>7809</v>
+      </c>
+      <c r="B2868" s="2" t="s">
+        <v>7779</v>
+      </c>
+      <c r="C2868" s="2" t="s">
         <v>7963</v>
       </c>
     </row>
-    <row r="2853" spans="1:3">
-      <c r="A2853" s="8" t="s">
-        <v>7830</v>
-      </c>
-      <c r="B2853" s="8" t="s">
-        <v>7830</v>
-      </c>
-      <c r="C2853" s="8" t="s">
+    <row r="2869" spans="1:3">
+      <c r="A2869" s="2" t="s">
+        <v>7816</v>
+      </c>
+      <c r="B2869" s="2" t="s">
+        <v>7780</v>
+      </c>
+      <c r="C2869" s="2" t="s">
         <v>7964</v>
       </c>
     </row>
-    <row r="2854" spans="1:3">
-      <c r="A2854" s="8" t="s">
-        <v>7831</v>
-      </c>
-      <c r="B2854" s="8" t="s">
-        <v>7767</v>
-      </c>
-      <c r="C2854" s="8" t="s">
-        <v>7854</v>
-      </c>
-    </row>
-    <row r="2855" spans="1:3">
-      <c r="A2855" s="8" t="s">
-        <v>7832</v>
-      </c>
-      <c r="B2855" s="8" t="s">
-        <v>7768</v>
-      </c>
-      <c r="C2855" s="8" t="s">
+    <row r="2870" spans="1:3">
+      <c r="A2870" s="2" t="s">
+        <v>7820</v>
+      </c>
+      <c r="B2870" s="2" t="s">
+        <v>7820</v>
+      </c>
+      <c r="C2870" s="2" t="s">
+        <v>7982</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:3">
+      <c r="A2871" s="2" t="s">
+        <v>7828</v>
+      </c>
+      <c r="B2871" s="2" t="s">
+        <v>7781</v>
+      </c>
+      <c r="C2871" s="2" t="s">
+        <v>7869</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:3">
+      <c r="A2872" s="2" t="s">
+        <v>7835</v>
+      </c>
+      <c r="B2872" s="2" t="s">
+        <v>7782</v>
+      </c>
+      <c r="C2872" s="2" t="s">
+        <v>7870</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:3">
+      <c r="A2873" s="2" t="s">
+        <v>7836</v>
+      </c>
+      <c r="B2873" s="2" t="s">
+        <v>7783</v>
+      </c>
+      <c r="C2873" s="2" t="s">
         <v>7965</v>
       </c>
     </row>
-    <row r="2856" spans="1:3">
-      <c r="A2856" s="8" t="s">
-        <v>7833</v>
-      </c>
-      <c r="B2856" s="8" t="s">
-        <v>7769</v>
-      </c>
-      <c r="C2856" s="8" t="s">
+    <row r="2874" spans="1:3">
+      <c r="A2874" s="2" t="s">
+        <v>7837</v>
+      </c>
+      <c r="B2874" s="2" t="s">
+        <v>7784</v>
+      </c>
+      <c r="C2874" s="2" t="s">
+        <v>7871</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:3">
+      <c r="A2875" s="2" t="s">
+        <v>7756</v>
+      </c>
+      <c r="B2875" s="2" t="s">
+        <v>7785</v>
+      </c>
+      <c r="C2875" s="2" t="s">
+        <v>7872</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:3">
+      <c r="A2876" s="2" t="s">
+        <v>7810</v>
+      </c>
+      <c r="B2876" s="2" t="s">
+        <v>7810</v>
+      </c>
+      <c r="C2876" s="2" t="s">
+        <v>7983</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:3">
+      <c r="A2877" s="2" t="s">
+        <v>7838</v>
+      </c>
+      <c r="B2877" s="2" t="s">
+        <v>7838</v>
+      </c>
+      <c r="C2877" s="2" t="s">
+        <v>7984</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:3">
+      <c r="A2878" s="2" t="s">
+        <v>7821</v>
+      </c>
+      <c r="B2878" s="2" t="s">
+        <v>7821</v>
+      </c>
+      <c r="C2878" s="2" t="s">
+        <v>7985</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:3">
+      <c r="A2879" s="2" t="s">
+        <v>7757</v>
+      </c>
+      <c r="B2879" s="2" t="s">
+        <v>7757</v>
+      </c>
+      <c r="C2879" s="2" t="s">
+        <v>7986</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:3">
+      <c r="A2880" s="2" t="s">
+        <v>7822</v>
+      </c>
+      <c r="B2880" s="2" t="s">
+        <v>7822</v>
+      </c>
+      <c r="C2880" s="2" t="s">
+        <v>7987</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:3">
+      <c r="A2881" s="2" t="s">
+        <v>7804</v>
+      </c>
+      <c r="B2881" s="2" t="s">
+        <v>7786</v>
+      </c>
+      <c r="C2881" s="2" t="s">
+        <v>7873</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:3">
+      <c r="A2882" s="2" t="s">
+        <v>7803</v>
+      </c>
+      <c r="B2882" s="2" t="s">
+        <v>7787</v>
+      </c>
+      <c r="C2882" s="2" t="s">
         <v>7966</v>
       </c>
     </row>
-    <row r="2857" spans="1:3">
-      <c r="A2857" s="8" t="s">
-        <v>7806</v>
-      </c>
-      <c r="B2857" s="8" t="s">
-        <v>7770</v>
-      </c>
-      <c r="C2857" s="8" t="s">
-        <v>7863</v>
-      </c>
-    </row>
-    <row r="2858" spans="1:3">
-      <c r="A2858" s="5" t="s">
-        <v>7851</v>
-      </c>
-      <c r="B2858" s="8" t="s">
-        <v>7771</v>
-      </c>
-      <c r="C2858" s="8" t="s">
-        <v>7864</v>
-      </c>
-    </row>
-    <row r="2859" spans="1:3">
-      <c r="A2859" s="8" t="s">
-        <v>7817</v>
-      </c>
-      <c r="B2859" s="8" t="s">
-        <v>7772</v>
-      </c>
-      <c r="C2859" s="8" t="s">
-        <v>7865</v>
-      </c>
-    </row>
-    <row r="2860" spans="1:3">
-      <c r="A2860" s="8" t="s">
-        <v>7755</v>
-      </c>
-      <c r="B2860" s="8" t="s">
-        <v>7773</v>
-      </c>
-      <c r="C2860" s="8" t="s">
-        <v>7967</v>
-      </c>
-    </row>
-    <row r="2861" spans="1:3">
-      <c r="A2861" s="8" t="s">
-        <v>7818</v>
-      </c>
-      <c r="B2861" s="8" t="s">
-        <v>7774</v>
-      </c>
-      <c r="C2861" s="8" t="s">
-        <v>7866</v>
-      </c>
-    </row>
-    <row r="2862" spans="1:3">
-      <c r="A2862" s="8" t="s">
-        <v>7815</v>
-      </c>
-      <c r="B2862" s="8" t="s">
-        <v>7775</v>
-      </c>
-      <c r="C2862" s="8" t="s">
-        <v>7968</v>
-      </c>
-    </row>
-    <row r="2863" spans="1:3">
-      <c r="A2863" s="8" t="s">
-        <v>7819</v>
-      </c>
-      <c r="B2863" s="8" t="s">
-        <v>7776</v>
-      </c>
-      <c r="C2863" s="8" t="s">
-        <v>7855</v>
-      </c>
-    </row>
-    <row r="2864" spans="1:3">
-      <c r="A2864" s="8" t="s">
-        <v>7807</v>
-      </c>
-      <c r="B2864" s="8" t="s">
-        <v>7777</v>
-      </c>
-      <c r="C2864" s="8" t="s">
-        <v>7969</v>
-      </c>
-    </row>
-    <row r="2865" spans="1:3">
-      <c r="A2865" s="8" t="s">
-        <v>7834</v>
-      </c>
-      <c r="B2865" s="8" t="s">
-        <v>7834</v>
-      </c>
-      <c r="C2865" s="8" t="s">
-        <v>7867</v>
-      </c>
-    </row>
-    <row r="2866" spans="1:3">
-      <c r="A2866" s="8" t="s">
-        <v>7808</v>
-      </c>
-      <c r="B2866" s="8" t="s">
-        <v>7778</v>
-      </c>
-      <c r="C2866" s="8" t="s">
-        <v>7970</v>
-      </c>
-    </row>
-    <row r="2867" spans="1:3">
-      <c r="A2867" s="8" t="s">
-        <v>7826</v>
-      </c>
-      <c r="B2867" s="8" t="s">
-        <v>7826</v>
-      </c>
-      <c r="C2867" s="8" t="s">
-        <v>7868</v>
-      </c>
-    </row>
-    <row r="2868" spans="1:3">
-      <c r="A2868" s="8" t="s">
-        <v>7809</v>
-      </c>
-      <c r="B2868" s="8" t="s">
-        <v>7779</v>
-      </c>
-      <c r="C2868" s="8" t="s">
-        <v>7971</v>
-      </c>
-    </row>
-    <row r="2869" spans="1:3">
-      <c r="A2869" s="8" t="s">
-        <v>7816</v>
-      </c>
-      <c r="B2869" s="8" t="s">
-        <v>7780</v>
-      </c>
-      <c r="C2869" s="8" t="s">
-        <v>7972</v>
-      </c>
-    </row>
-    <row r="2870" spans="1:3">
-      <c r="A2870" s="8" t="s">
-        <v>7820</v>
-      </c>
-      <c r="B2870" s="8" t="s">
-        <v>7820</v>
-      </c>
-      <c r="C2870" s="8" t="s">
-        <v>7973</v>
-      </c>
-    </row>
-    <row r="2871" spans="1:3">
-      <c r="A2871" s="8" t="s">
-        <v>7828</v>
-      </c>
-      <c r="B2871" s="8" t="s">
-        <v>7781</v>
-      </c>
-      <c r="C2871" s="8" t="s">
-        <v>7869</v>
-      </c>
-    </row>
-    <row r="2872" spans="1:3">
-      <c r="A2872" s="8" t="s">
-        <v>7835</v>
-      </c>
-      <c r="B2872" s="8" t="s">
-        <v>7782</v>
-      </c>
-      <c r="C2872" s="8" t="s">
-        <v>7870</v>
-      </c>
-    </row>
-    <row r="2873" spans="1:3">
-      <c r="A2873" s="8" t="s">
-        <v>7836</v>
-      </c>
-      <c r="B2873" s="8" t="s">
-        <v>7783</v>
-      </c>
-      <c r="C2873" s="8" t="s">
-        <v>7974</v>
-      </c>
-    </row>
-    <row r="2874" spans="1:3">
-      <c r="A2874" s="8" t="s">
-        <v>7837</v>
-      </c>
-      <c r="B2874" s="8" t="s">
-        <v>7784</v>
-      </c>
-      <c r="C2874" s="8" t="s">
-        <v>7871</v>
-      </c>
-    </row>
-    <row r="2875" spans="1:3">
-      <c r="A2875" s="8" t="s">
-        <v>7756</v>
-      </c>
-      <c r="B2875" s="8" t="s">
-        <v>7785</v>
-      </c>
-      <c r="C2875" s="8" t="s">
-        <v>7872</v>
-      </c>
-    </row>
-    <row r="2876" spans="1:3">
-      <c r="A2876" s="8" t="s">
-        <v>7810</v>
-      </c>
-      <c r="B2876" s="8" t="s">
-        <v>7810</v>
-      </c>
-      <c r="C2876" s="8" t="s">
-        <v>7975</v>
-      </c>
-    </row>
-    <row r="2877" spans="1:3">
-      <c r="A2877" s="8" t="s">
-        <v>7838</v>
-      </c>
-      <c r="B2877" s="8" t="s">
-        <v>7838</v>
-      </c>
-      <c r="C2877" s="8" t="s">
-        <v>7976</v>
-      </c>
-    </row>
-    <row r="2878" spans="1:3">
-      <c r="A2878" s="8" t="s">
-        <v>7821</v>
-      </c>
-      <c r="B2878" s="8" t="s">
-        <v>7821</v>
-      </c>
-      <c r="C2878" s="8" t="s">
-        <v>7977</v>
-      </c>
-    </row>
-    <row r="2879" spans="1:3">
-      <c r="A2879" s="8" t="s">
-        <v>7757</v>
-      </c>
-      <c r="B2879" s="8" t="s">
-        <v>7757</v>
-      </c>
-      <c r="C2879" s="8" t="s">
-        <v>7978</v>
-      </c>
-    </row>
-    <row r="2880" spans="1:3">
-      <c r="A2880" s="8" t="s">
-        <v>7822</v>
-      </c>
-      <c r="B2880" s="8" t="s">
-        <v>7822</v>
-      </c>
-      <c r="C2880" s="8" t="s">
-        <v>7979</v>
-      </c>
-    </row>
-    <row r="2881" spans="1:3">
-      <c r="A2881" s="5" t="s">
-        <v>7804</v>
-      </c>
-      <c r="B2881" s="8" t="s">
-        <v>7786</v>
-      </c>
-      <c r="C2881" s="8" t="s">
-        <v>7873</v>
-      </c>
-    </row>
-    <row r="2882" spans="1:3">
-      <c r="A2882" s="5" t="s">
-        <v>7803</v>
-      </c>
-      <c r="B2882" s="8" t="s">
-        <v>7787</v>
-      </c>
-      <c r="C2882" s="8" t="s">
-        <v>7980</v>
-      </c>
-    </row>
     <row r="2883" spans="1:3">
-      <c r="A2883" s="8" t="s">
+      <c r="A2883" s="2" t="s">
         <v>7811</v>
       </c>
-      <c r="B2883" s="8" t="s">
+      <c r="B2883" s="2" t="s">
         <v>7590</v>
       </c>
-      <c r="C2883" s="8" t="s">
-        <v>7981</v>
+      <c r="C2883" s="2" t="s">
+        <v>7988</v>
       </c>
     </row>
     <row r="2884" spans="1:3">
-      <c r="A2884" s="8" t="s">
+      <c r="A2884" s="2" t="s">
         <v>7812</v>
       </c>
-      <c r="B2884" s="5" t="s">
+      <c r="B2884" s="2" t="s">
         <v>7800</v>
       </c>
-      <c r="C2884" s="8" t="s">
+      <c r="C2884" s="2" t="s">
         <v>7856</v>
       </c>
     </row>
     <row r="2885" spans="1:3">
-      <c r="A2885" s="8" t="s">
+      <c r="A2885" s="2" t="s">
         <v>7812</v>
       </c>
       <c r="B2885" s="2" t="s">
         <v>7801</v>
       </c>
-      <c r="C2885" s="8" t="s">
-        <v>7982</v>
+      <c r="C2885" s="2" t="s">
+        <v>7967</v>
       </c>
     </row>
     <row r="2886" spans="1:3">
-      <c r="A2886" s="8" t="s">
+      <c r="A2886" s="2" t="s">
         <v>7839</v>
       </c>
       <c r="B2886" s="2" t="s">
         <v>7802</v>
       </c>
-      <c r="C2886" s="8" t="s">
-        <v>7983</v>
+      <c r="C2886" s="2" t="s">
+        <v>7968</v>
       </c>
     </row>
     <row r="2887" spans="1:3">
-      <c r="A2887" s="8" t="s">
+      <c r="A2887" s="2" t="s">
         <v>7827</v>
       </c>
-      <c r="B2887" s="8" t="s">
+      <c r="B2887" s="2" t="s">
         <v>7788</v>
       </c>
-      <c r="C2887" s="8" t="s">
+      <c r="C2887" s="2" t="s">
         <v>7874</v>
       </c>
     </row>
     <row r="2888" spans="1:3">
-      <c r="A2888" s="8" t="s">
+      <c r="A2888" s="2" t="s">
         <v>7813</v>
       </c>
-      <c r="B2888" s="8" t="s">
+      <c r="B2888" s="2" t="s">
         <v>7789</v>
       </c>
-      <c r="C2888" s="8" t="s">
+      <c r="C2888" s="2" t="s">
         <v>7875</v>
       </c>
     </row>
     <row r="2889" spans="1:3">
-      <c r="A2889" s="8" t="s">
+      <c r="A2889" s="2" t="s">
         <v>7841</v>
       </c>
-      <c r="B2889" s="8" t="s">
+      <c r="B2889" s="2" t="s">
         <v>7790</v>
       </c>
-      <c r="C2889" s="8" t="s">
-        <v>7984</v>
+      <c r="C2889" s="2" t="s">
+        <v>7989</v>
       </c>
     </row>
     <row r="2890" spans="1:3">
-      <c r="A2890" s="8" t="s">
+      <c r="A2890" s="2" t="s">
         <v>7849</v>
       </c>
-      <c r="B2890" s="8" t="s">
+      <c r="B2890" s="2" t="s">
         <v>7791</v>
       </c>
-      <c r="C2890" s="8" t="s">
+      <c r="C2890" s="2" t="s">
         <v>7857</v>
       </c>
     </row>
     <row r="2891" spans="1:3">
-      <c r="A2891" s="8" t="s">
+      <c r="A2891" s="2" t="s">
         <v>7842</v>
       </c>
-      <c r="B2891" s="8" t="s">
+      <c r="B2891" s="2" t="s">
         <v>7792</v>
       </c>
-      <c r="C2891" s="8" t="s">
-        <v>7985</v>
+      <c r="C2891" s="2" t="s">
+        <v>7990</v>
       </c>
     </row>
     <row r="2892" spans="1:3">
-      <c r="A2892" s="8" t="s">
+      <c r="A2892" s="2" t="s">
         <v>7823</v>
       </c>
-      <c r="B2892" s="8" t="s">
+      <c r="B2892" s="2" t="s">
         <v>7793</v>
       </c>
-      <c r="C2892" s="8" t="s">
+      <c r="C2892" s="2" t="s">
         <v>7858</v>
       </c>
     </row>
     <row r="2893" spans="1:3">
-      <c r="A2893" s="8" t="s">
+      <c r="A2893" s="2" t="s">
         <v>7843</v>
       </c>
-      <c r="B2893" s="8" t="s">
+      <c r="B2893" s="2" t="s">
         <v>7843</v>
       </c>
-      <c r="C2893" s="8" t="s">
+      <c r="C2893" s="2" t="s">
         <v>7876</v>
       </c>
     </row>
     <row r="2894" spans="1:3">
-      <c r="A2894" s="8" t="s">
+      <c r="A2894" s="2" t="s">
         <v>7844</v>
       </c>
-      <c r="B2894" s="8" t="s">
+      <c r="B2894" s="2" t="s">
         <v>7844</v>
       </c>
-      <c r="C2894" s="8" t="s">
+      <c r="C2894" s="2" t="s">
         <v>7859</v>
       </c>
     </row>
     <row r="2895" spans="1:3">
-      <c r="A2895" s="8" t="s">
+      <c r="A2895" s="2" t="s">
         <v>7845</v>
       </c>
-      <c r="B2895" s="8" t="s">
+      <c r="B2895" s="2" t="s">
         <v>7794</v>
       </c>
-      <c r="C2895" s="8" t="s">
+      <c r="C2895" s="2" t="s">
         <v>7877</v>
       </c>
     </row>
     <row r="2896" spans="1:3">
-      <c r="A2896" s="8" t="s">
+      <c r="A2896" s="2" t="s">
         <v>7846</v>
       </c>
-      <c r="B2896" s="8" t="s">
+      <c r="B2896" s="2" t="s">
         <v>7795</v>
       </c>
-      <c r="C2896" s="8" t="s">
-        <v>7986</v>
+      <c r="C2896" s="2" t="s">
+        <v>7991</v>
       </c>
     </row>
     <row r="2897" spans="1:3">
-      <c r="A2897" s="8" t="s">
+      <c r="A2897" s="2" t="s">
         <v>7847</v>
       </c>
-      <c r="B2897" s="8" t="s">
+      <c r="B2897" s="2" t="s">
         <v>7796</v>
       </c>
-      <c r="C2897" s="8" t="s">
+      <c r="C2897" s="2" t="s">
         <v>7878</v>
       </c>
     </row>
     <row r="2898" spans="1:3">
-      <c r="A2898" s="8" t="s">
+      <c r="A2898" s="2" t="s">
         <v>7840</v>
       </c>
-      <c r="B2898" s="8" t="s">
+      <c r="B2898" s="2" t="s">
         <v>7797</v>
       </c>
-      <c r="C2898" s="8" t="s">
+      <c r="C2898" s="2" t="s">
         <v>7879</v>
       </c>
     </row>
     <row r="2899" spans="1:3">
-      <c r="A2899" s="8" t="s">
+      <c r="A2899" s="2" t="s">
         <v>7824</v>
       </c>
-      <c r="B2899" s="8" t="s">
+      <c r="B2899" s="2" t="s">
         <v>7798</v>
       </c>
-      <c r="C2899" s="8" t="s">
-        <v>7987</v>
+      <c r="C2899" s="2" t="s">
+        <v>7992</v>
       </c>
     </row>
     <row r="2900" spans="1:3">
-      <c r="A2900" s="8" t="s">
+      <c r="A2900" s="2" t="s">
         <v>7825</v>
       </c>
-      <c r="B2900" s="8" t="s">
+      <c r="B2900" s="2" t="s">
         <v>7799</v>
       </c>
-      <c r="C2900" s="8" t="s">
+      <c r="C2900" s="2" t="s">
         <v>7860</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:3">
+      <c r="A2901" s="2" t="s">
+        <v>7969</v>
+      </c>
+      <c r="B2901" s="2" t="s">
+        <v>7969</v>
+      </c>
+      <c r="C2901" s="2" t="s">
+        <v>7970</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:3">
+      <c r="A2902" s="2" t="s">
+        <v>7972</v>
+      </c>
+      <c r="B2902" s="2" t="s">
+        <v>7971</v>
+      </c>
+      <c r="C2902" s="2" t="s">
+        <v>7973</v>
       </c>
     </row>
   </sheetData>

--- a/日本語/1_語彙.xlsx
+++ b/日本語/1_語彙.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10101"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeshafteure/Documents/GitHub/Freshmore/日本語/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AFCBA9-107D-7843-8221-05F6E8EF3AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B651D64-2A15-B748-B977-3016CEAAEF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15840" windowHeight="18880" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8706" uniqueCount="7993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9000" uniqueCount="8258">
   <si>
     <t>亜〜</t>
   </si>
@@ -33297,12 +33297,952 @@
     <t>cool, chill/スープを〜 cool the soup/興奮を〜 take the heat off</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>さむけ</t>
+  </si>
+  <si>
+    <t>寒気</t>
+  </si>
+  <si>
+    <t>chill</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さむらい</t>
+  </si>
+  <si>
+    <t>侍</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>samurai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷める</t>
+  </si>
+  <si>
+    <t>(tea/soup/hot water) get cold, cool, cool down</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さめる</t>
+  </si>
+  <si>
+    <t>見める</t>
+  </si>
+  <si>
+    <t>wake (up), awake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さも</t>
+  </si>
+  <si>
+    <t>〜おいしそうに as if enioys it greatly, /〜ないとor else</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さゆう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サユウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>left and right, both sides,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作用</t>
+  </si>
+  <si>
+    <t>action, effect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さようなら／さよなら</t>
+  </si>
+  <si>
+    <t>さようなら／さよなら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>good-bye, bye now, bye-bye, farewell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さらいげつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さ来月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the month after next</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さらいしゅう</t>
+  </si>
+  <si>
+    <t>さ来週／再来週</t>
+  </si>
+  <si>
+    <t>the week after next</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さらいねん</t>
+  </si>
+  <si>
+    <t>さ来年/再来年</t>
+  </si>
+  <si>
+    <t>the year after next</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さらう</t>
+  </si>
+  <si>
+    <t>さらう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dredge/review, go over, run through/snatch away, carry off, kidnap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サラダ</t>
+  </si>
+  <si>
+    <t>サラダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>salad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さらに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moreover, furthermore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サラリーマン</t>
+  </si>
+  <si>
+    <t>サラリーマン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>an office worker, a white-collar worker, a salaried worker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>猿</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>去る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>leave, depart, (time) pass, die, be gone, disappear, resign</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>monkey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さわがしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>騒しい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>noisy, turbulent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さわぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>騒ぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>noise, uproar, tumult, turmoil, fuss, commotion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>騒ぐ</t>
+  </si>
+  <si>
+    <t>make noise</t>
+  </si>
+  <si>
+    <t>さわやか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さわぐ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>refreshing, bracing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さわる</t>
+  </si>
+  <si>
+    <t>触る</t>
+  </si>
+  <si>
+    <t>touch</t>
+  </si>
+  <si>
+    <t>障る</t>
+  </si>
+  <si>
+    <t>interfere with</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜さん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mr. / Mrs. / Miss…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>three</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～さん</t>
+  </si>
+  <si>
+    <t>名詞</t>
+  </si>
+  <si>
+    <t>酸</t>
+  </si>
+  <si>
+    <t>さんか</t>
+  </si>
+  <si>
+    <t>参加</t>
+  </si>
+  <si>
+    <t>酸化</t>
+  </si>
+  <si>
+    <t>三角</t>
+  </si>
+  <si>
+    <t>山岳</t>
+  </si>
+  <si>
+    <t>mountains</t>
+  </si>
+  <si>
+    <t>参議院</t>
+  </si>
+  <si>
+    <t>the House of Councilors, the Upper House</t>
+  </si>
+  <si>
+    <t>山</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>産</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さんかく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さわる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さんぎいん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さんがく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>participation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oxidation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a triangle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンキュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thank you</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さんきゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>産休</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maternity leave</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さんぎょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ざんきん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>産業</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サンギョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残金</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ザンキン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the money left over, the balance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postpartum, after childbirth</t>
+  </si>
+  <si>
+    <t>さんご</t>
+  </si>
+  <si>
+    <t>産後</t>
+  </si>
+  <si>
+    <t>さんこう。</t>
+  </si>
+  <si>
+    <t>参考</t>
+  </si>
+  <si>
+    <t>reference, consultation</t>
+  </si>
+  <si>
+    <t>さんこく</t>
+  </si>
+  <si>
+    <t>残酷</t>
+  </si>
+  <si>
+    <t>cruelty, brutality</t>
+  </si>
+  <si>
+    <t>さんしゅつ</t>
+  </si>
+  <si>
+    <t>産出</t>
+  </si>
+  <si>
+    <t>さんしょう</t>
+  </si>
+  <si>
+    <t>参照</t>
+  </si>
+  <si>
+    <t>さんじょう</t>
+  </si>
+  <si>
+    <t>visit, go (come) to see</t>
+  </si>
+  <si>
+    <t>さんせい</t>
+  </si>
+  <si>
+    <t>arithmetic, caleulation</t>
+  </si>
+  <si>
+    <t>酸性</t>
+  </si>
+  <si>
+    <t>酸素</t>
+  </si>
+  <si>
+    <t>oxygen</t>
+  </si>
+  <si>
+    <t>残高</t>
+  </si>
+  <si>
+    <t>acid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さんすう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参上</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>agreement, approval, support, agree, second, /Hsk % agree, approve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>算数</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サンスウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>賛成</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サンセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さんせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さんそ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ざんだか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mount, Mt.，/富士〜 Mt. Fui</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生〜 production, 財〜 propenly, 出〜 (childbirth)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(bank) balance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>acidity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>refer,consult</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>production</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンタクロース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Santa Claus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンダル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sandals</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さんち</t>
+  </si>
+  <si>
+    <t>產地</t>
+  </si>
+  <si>
+    <t>山頂</t>
+  </si>
+  <si>
+    <t>the summit (top) of a mountain, mountaintop</t>
+  </si>
+  <si>
+    <t>sandwich</t>
+  </si>
+  <si>
+    <t>残念</t>
+  </si>
+  <si>
+    <t>disappointing, regrettable, vexing</t>
+  </si>
+  <si>
+    <t>桟橋</t>
+  </si>
+  <si>
+    <t>pier, jetty</t>
+  </si>
+  <si>
+    <t>贊美</t>
+  </si>
+  <si>
+    <t>praise, glorification</t>
+  </si>
+  <si>
+    <t>山腹</t>
+  </si>
+  <si>
+    <t>hillside, halfway up the hill</t>
+  </si>
+  <si>
+    <t>産婦人科</t>
+  </si>
+  <si>
+    <t>obstetrics and gynecology</t>
+  </si>
+  <si>
+    <t>product, produce</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>散歩（寸 ）</t>
+  </si>
+  <si>
+    <t>山脈</t>
+  </si>
+  <si>
+    <t>take a walk, have a stroll</t>
+  </si>
+  <si>
+    <t>さんりん</t>
+  </si>
+  <si>
+    <t>山林</t>
+  </si>
+  <si>
+    <t>市</t>
+  </si>
+  <si>
+    <t>～し</t>
+  </si>
+  <si>
+    <t>～史</t>
+  </si>
+  <si>
+    <t>～紙</t>
+  </si>
+  <si>
+    <t>し</t>
+  </si>
+  <si>
+    <t>氏</t>
+  </si>
+  <si>
+    <t>詩</t>
+  </si>
+  <si>
+    <t>poetry, a poem, verse</t>
+  </si>
+  <si>
+    <t>～士</t>
+  </si>
+  <si>
+    <t>師</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>死</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>～時</t>
+  </si>
+  <si>
+    <t>o'clock</t>
+  </si>
+  <si>
+    <t>字</t>
+  </si>
+  <si>
+    <t>〜じ</t>
+  </si>
+  <si>
+    <t>～寺</t>
+  </si>
+  <si>
+    <t>(Buddhist) temple</t>
+  </si>
+  <si>
+    <t>〜児</t>
+  </si>
+  <si>
+    <t>～次</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>試合</t>
+  </si>
+  <si>
+    <t>game, match</t>
+  </si>
+  <si>
+    <t>come up, finish, complete</t>
+  </si>
+  <si>
+    <t>two days after tomorrow, three days from today</t>
+  </si>
+  <si>
+    <t>happiness, happy, good fortune, lucky, fortunate, luckily</t>
+  </si>
+  <si>
+    <t>飼育</t>
+  </si>
+  <si>
+    <t>強いて</t>
+  </si>
+  <si>
+    <t>a pair of (blue) jeans</t>
+  </si>
+  <si>
+    <t>強いる</t>
+  </si>
+  <si>
+    <t>仕入れる</t>
+  </si>
+  <si>
+    <t>寺院</t>
+  </si>
+  <si>
+    <t>a (Buddhist) temple</t>
+  </si>
+  <si>
+    <t>自衛</t>
+  </si>
+  <si>
+    <t>ジェット機</t>
+  </si>
+  <si>
+    <t>塩</t>
+  </si>
+  <si>
+    <t>a jet (plane)</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>サンドイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>産物</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サンブツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>letter, character, word</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>four</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕上［が］り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕上［が］る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しあがる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕上［げ］</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕上［げ］る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幸［せ］</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しいて</t>
+  </si>
+  <si>
+    <t>ジーパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jeans</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>still, tacit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しお</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェットき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さんばし</t>
+  </si>
+  <si>
+    <t>さんみやく</t>
+  </si>
+  <si>
+    <t>しあがり</t>
+  </si>
+  <si>
+    <t>しあげ</t>
+  </si>
+  <si>
+    <t>しあげる</t>
+  </si>
+  <si>
+    <t>しいく</t>
+  </si>
+  <si>
+    <t>シート</t>
+  </si>
+  <si>
+    <t>しいれる</t>
+  </si>
+  <si>
+    <t>しあさって</t>
+  </si>
+  <si>
+    <t>シーズン</t>
+  </si>
+  <si>
+    <t>シーツ</t>
+  </si>
+  <si>
+    <t>じいん</t>
+  </si>
+  <si>
+    <t>ジーンズ</t>
+  </si>
+  <si>
+    <t>しいんと（する）</t>
+  </si>
+  <si>
+    <t>じえい</t>
+  </si>
+  <si>
+    <t>ざんねん</t>
+  </si>
+  <si>
+    <t>しあい</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 〜じ</t>
+  </si>
+  <si>
+    <t>し/よん</t>
+  </si>
+  <si>
+    <t>さんちょう</t>
+  </si>
+  <si>
+    <t>さんび</t>
+  </si>
+  <si>
+    <t>さんぷく</t>
+  </si>
+  <si>
+    <t>さんぶつ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> サンブル</t>
+  </si>
+  <si>
+    <t>さんぽ（する）</t>
+  </si>
+  <si>
+    <t>しあわせ</t>
+  </si>
+  <si>
+    <t>しいる</t>
+  </si>
+  <si>
+    <t>さんふじんか</t>
+  </si>
+  <si>
+    <t>一〜試験 preliminary examination、/第二〜世界大戦 the Second World War</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>self-defense, self-prolection/〜するdefend oneself./〜隊 the Self-Defense Force</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>finish, complete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>finishing, /防水〜 water-resistant finish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>child, 育児 child care, 孤児 orphan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>history, annals, chronicle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mountain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>production centre, growing area</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>forest in the mountains, mountains and forests</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a city, a municipality</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a family, a clan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>man, 紳〜 gentleman, 武〜 samurai, 弁護〜 lawyer, 力〜 sumo wrestler</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>finishing, 〜はいつになりますか When will it be finished?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>breeding, 〜する breed, raise</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>season, 〜オフ the off-season</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(bed) sheet, 〜を数くpul a sheet on a bed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>by force, forcibly,（人）に〜＜動詞＞させるforce someone to</t>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ドウシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜（座席） seat, 〜（紙，布）sheet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>compel, force, 彼は自分の考えを息子たちに〜 He imposed his will on his sons.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lay in, stock, pet, 自然食品を〜 stock organic food</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -33362,6 +34302,11 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -33385,7 +34330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -33400,6 +34345,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -33738,10 +34686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD98CDC-2E6D-F340-BEA4-C5F884B9AAD8}">
-  <dimension ref="A1:F2902"/>
+  <dimension ref="A1:E3002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2886" zoomScale="126" workbookViewId="0">
-      <selection activeCell="A2902" sqref="A1:C2902"/>
+    <sheetView tabSelected="1" topLeftCell="A2923" zoomScale="126" workbookViewId="0">
+      <selection activeCell="C2994" sqref="C2994"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -50296,7 +51244,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="1505" spans="1:6">
+    <row r="1505" spans="1:5">
       <c r="A1505" s="1" t="s">
         <v>4371</v>
       </c>
@@ -50307,7 +51255,7 @@
         <v>4152</v>
       </c>
     </row>
-    <row r="1506" spans="1:6">
+    <row r="1506" spans="1:5">
       <c r="A1506" s="1" t="s">
         <v>4376</v>
       </c>
@@ -50318,7 +51266,7 @@
         <v>4377</v>
       </c>
     </row>
-    <row r="1507" spans="1:6">
+    <row r="1507" spans="1:5">
       <c r="A1507" s="1" t="s">
         <v>4372</v>
       </c>
@@ -50329,7 +51277,7 @@
         <v>4153</v>
       </c>
     </row>
-    <row r="1508" spans="1:6">
+    <row r="1508" spans="1:5">
       <c r="A1508" s="1" t="s">
         <v>4373</v>
       </c>
@@ -50340,7 +51288,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="1509" spans="1:6">
+    <row r="1509" spans="1:5">
       <c r="A1509" s="1" t="s">
         <v>4374</v>
       </c>
@@ -50351,7 +51299,7 @@
         <v>4155</v>
       </c>
     </row>
-    <row r="1510" spans="1:6">
+    <row r="1510" spans="1:5">
       <c r="A1510" s="1" t="s">
         <v>4157</v>
       </c>
@@ -50362,7 +51310,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="1511" spans="1:6">
+    <row r="1511" spans="1:5">
       <c r="A1511" s="1" t="s">
         <v>4159</v>
       </c>
@@ -50373,7 +51321,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="1512" spans="1:6">
+    <row r="1512" spans="1:5">
       <c r="A1512" s="1" t="s">
         <v>4378</v>
       </c>
@@ -50384,7 +51332,7 @@
         <v>4156</v>
       </c>
     </row>
-    <row r="1513" spans="1:6">
+    <row r="1513" spans="1:5">
       <c r="A1513" s="1" t="s">
         <v>4161</v>
       </c>
@@ -50395,7 +51343,7 @@
         <v>4162</v>
       </c>
     </row>
-    <row r="1514" spans="1:6">
+    <row r="1514" spans="1:5">
       <c r="A1514" s="1" t="s">
         <v>4163</v>
       </c>
@@ -50406,7 +51354,7 @@
         <v>4164</v>
       </c>
     </row>
-    <row r="1515" spans="1:6">
+    <row r="1515" spans="1:5">
       <c r="A1515" s="1" t="s">
         <v>4165</v>
       </c>
@@ -50417,7 +51365,7 @@
         <v>4167</v>
       </c>
     </row>
-    <row r="1516" spans="1:6">
+    <row r="1516" spans="1:5">
       <c r="A1516" s="1" t="s">
         <v>4379</v>
       </c>
@@ -50428,7 +51376,7 @@
         <v>4381</v>
       </c>
     </row>
-    <row r="1517" spans="1:6">
+    <row r="1517" spans="1:5">
       <c r="A1517" s="1" t="s">
         <v>4169</v>
       </c>
@@ -50440,9 +51388,8 @@
       </c>
       <c r="D1517" s="1"/>
       <c r="E1517" s="1"/>
-      <c r="F1517" s="1"/>
-    </row>
-    <row r="1518" spans="1:6">
+    </row>
+    <row r="1518" spans="1:5">
       <c r="A1518" s="1" t="s">
         <v>4172</v>
       </c>
@@ -50453,7 +51400,7 @@
         <v>4174</v>
       </c>
     </row>
-    <row r="1519" spans="1:6">
+    <row r="1519" spans="1:5">
       <c r="A1519" s="1" t="s">
         <v>4175</v>
       </c>
@@ -50464,7 +51411,7 @@
         <v>4177</v>
       </c>
     </row>
-    <row r="1520" spans="1:6">
+    <row r="1520" spans="1:5">
       <c r="A1520" s="1" t="s">
         <v>4178</v>
       </c>
@@ -63836,7 +64783,7 @@
       <c r="B2735" s="2" t="s">
         <v>7476</v>
       </c>
-      <c r="C2735" s="5" t="s">
+      <c r="C2735" s="6" t="s">
         <v>7533</v>
       </c>
     </row>
@@ -65030,10 +65977,10 @@
     </row>
     <row r="2844" spans="1:3">
       <c r="A2844" s="2" t="s">
+        <v>7759</v>
+      </c>
+      <c r="B2844" s="2" t="s">
         <v>7758</v>
-      </c>
-      <c r="B2844" s="2" t="s">
-        <v>7759</v>
       </c>
       <c r="C2844" s="2" t="s">
         <v>7958</v>
@@ -65041,10 +65988,10 @@
     </row>
     <row r="2845" spans="1:3">
       <c r="A2845" s="2" t="s">
+        <v>7760</v>
+      </c>
+      <c r="B2845" s="2" t="s">
         <v>7758</v>
-      </c>
-      <c r="B2845" s="2" t="s">
-        <v>7760</v>
       </c>
       <c r="C2845" s="2" t="s">
         <v>7861</v>
@@ -65052,10 +65999,10 @@
     </row>
     <row r="2846" spans="1:3">
       <c r="A2846" s="2" t="s">
+        <v>7761</v>
+      </c>
+      <c r="B2846" s="2" t="s">
         <v>7850</v>
-      </c>
-      <c r="B2846" s="2" t="s">
-        <v>7761</v>
       </c>
       <c r="C2846" s="2" t="s">
         <v>7975</v>
@@ -65063,10 +66010,10 @@
     </row>
     <row r="2847" spans="1:3">
       <c r="A2847" s="2" t="s">
+        <v>7762</v>
+      </c>
+      <c r="B2847" s="2" t="s">
         <v>7758</v>
-      </c>
-      <c r="B2847" s="2" t="s">
-        <v>7762</v>
       </c>
       <c r="C2847" s="2" t="s">
         <v>7852</v>
@@ -65074,10 +66021,10 @@
     </row>
     <row r="2848" spans="1:3">
       <c r="A2848" s="2" t="s">
+        <v>7763</v>
+      </c>
+      <c r="B2848" s="2" t="s">
         <v>7758</v>
-      </c>
-      <c r="B2848" s="2" t="s">
-        <v>7763</v>
       </c>
       <c r="C2848" s="2" t="s">
         <v>7853</v>
@@ -65085,10 +66032,10 @@
     </row>
     <row r="2849" spans="1:3">
       <c r="A2849" s="2" t="s">
+        <v>7764</v>
+      </c>
+      <c r="B2849" s="2" t="s">
         <v>7814</v>
-      </c>
-      <c r="B2849" s="2" t="s">
-        <v>7764</v>
       </c>
       <c r="C2849" s="2" t="s">
         <v>7862</v>
@@ -65096,10 +66043,10 @@
     </row>
     <row r="2850" spans="1:3">
       <c r="A2850" s="2" t="s">
+        <v>7765</v>
+      </c>
+      <c r="B2850" s="2" t="s">
         <v>7848</v>
-      </c>
-      <c r="B2850" s="2" t="s">
-        <v>7765</v>
       </c>
       <c r="C2850" s="2" t="s">
         <v>7959</v>
@@ -65107,10 +66054,10 @@
     </row>
     <row r="2851" spans="1:3">
       <c r="A2851" s="2" t="s">
+        <v>3622</v>
+      </c>
+      <c r="B2851" s="2" t="s">
         <v>7805</v>
-      </c>
-      <c r="B2851" s="2" t="s">
-        <v>3622</v>
       </c>
       <c r="C2851" s="2" t="s">
         <v>7976</v>
@@ -65118,10 +66065,10 @@
     </row>
     <row r="2852" spans="1:3">
       <c r="A2852" s="2" t="s">
+        <v>7766</v>
+      </c>
+      <c r="B2852" s="2" t="s">
         <v>7829</v>
-      </c>
-      <c r="B2852" s="2" t="s">
-        <v>7766</v>
       </c>
       <c r="C2852" s="2" t="s">
         <v>7977</v>
@@ -65140,10 +66087,10 @@
     </row>
     <row r="2854" spans="1:3">
       <c r="A2854" s="2" t="s">
+        <v>7767</v>
+      </c>
+      <c r="B2854" s="2" t="s">
         <v>7831</v>
-      </c>
-      <c r="B2854" s="2" t="s">
-        <v>7767</v>
       </c>
       <c r="C2854" s="2" t="s">
         <v>7854</v>
@@ -65151,10 +66098,10 @@
     </row>
     <row r="2855" spans="1:3">
       <c r="A2855" s="2" t="s">
+        <v>7768</v>
+      </c>
+      <c r="B2855" s="2" t="s">
         <v>7832</v>
-      </c>
-      <c r="B2855" s="2" t="s">
-        <v>7768</v>
       </c>
       <c r="C2855" s="2" t="s">
         <v>7960</v>
@@ -65162,10 +66109,10 @@
     </row>
     <row r="2856" spans="1:3">
       <c r="A2856" s="2" t="s">
+        <v>7769</v>
+      </c>
+      <c r="B2856" s="2" t="s">
         <v>7833</v>
-      </c>
-      <c r="B2856" s="2" t="s">
-        <v>7769</v>
       </c>
       <c r="C2856" s="2" t="s">
         <v>7961</v>
@@ -65173,10 +66120,10 @@
     </row>
     <row r="2857" spans="1:3">
       <c r="A2857" s="2" t="s">
+        <v>7770</v>
+      </c>
+      <c r="B2857" s="2" t="s">
         <v>7806</v>
-      </c>
-      <c r="B2857" s="2" t="s">
-        <v>7770</v>
       </c>
       <c r="C2857" s="2" t="s">
         <v>7863</v>
@@ -65184,10 +66131,10 @@
     </row>
     <row r="2858" spans="1:3">
       <c r="A2858" s="2" t="s">
+        <v>7771</v>
+      </c>
+      <c r="B2858" s="2" t="s">
         <v>7851</v>
-      </c>
-      <c r="B2858" s="2" t="s">
-        <v>7771</v>
       </c>
       <c r="C2858" s="2" t="s">
         <v>7864</v>
@@ -65195,10 +66142,10 @@
     </row>
     <row r="2859" spans="1:3">
       <c r="A2859" s="2" t="s">
+        <v>7772</v>
+      </c>
+      <c r="B2859" s="2" t="s">
         <v>7817</v>
-      </c>
-      <c r="B2859" s="2" t="s">
-        <v>7772</v>
       </c>
       <c r="C2859" s="2" t="s">
         <v>7865</v>
@@ -65206,10 +66153,10 @@
     </row>
     <row r="2860" spans="1:3">
       <c r="A2860" s="2" t="s">
+        <v>7773</v>
+      </c>
+      <c r="B2860" s="2" t="s">
         <v>7755</v>
-      </c>
-      <c r="B2860" s="2" t="s">
-        <v>7773</v>
       </c>
       <c r="C2860" s="2" t="s">
         <v>7979</v>
@@ -65217,10 +66164,10 @@
     </row>
     <row r="2861" spans="1:3">
       <c r="A2861" s="2" t="s">
+        <v>7774</v>
+      </c>
+      <c r="B2861" s="2" t="s">
         <v>7818</v>
-      </c>
-      <c r="B2861" s="2" t="s">
-        <v>7774</v>
       </c>
       <c r="C2861" s="2" t="s">
         <v>7866</v>
@@ -65228,10 +66175,10 @@
     </row>
     <row r="2862" spans="1:3">
       <c r="A2862" s="2" t="s">
+        <v>7775</v>
+      </c>
+      <c r="B2862" s="2" t="s">
         <v>7815</v>
-      </c>
-      <c r="B2862" s="2" t="s">
-        <v>7775</v>
       </c>
       <c r="C2862" s="2" t="s">
         <v>7980</v>
@@ -65239,10 +66186,10 @@
     </row>
     <row r="2863" spans="1:3">
       <c r="A2863" s="2" t="s">
+        <v>7776</v>
+      </c>
+      <c r="B2863" s="2" t="s">
         <v>7819</v>
-      </c>
-      <c r="B2863" s="2" t="s">
-        <v>7776</v>
       </c>
       <c r="C2863" s="2" t="s">
         <v>7855</v>
@@ -65250,10 +66197,10 @@
     </row>
     <row r="2864" spans="1:3">
       <c r="A2864" s="2" t="s">
+        <v>7777</v>
+      </c>
+      <c r="B2864" s="2" t="s">
         <v>7807</v>
-      </c>
-      <c r="B2864" s="2" t="s">
-        <v>7777</v>
       </c>
       <c r="C2864" s="2" t="s">
         <v>7981</v>
@@ -65272,10 +66219,10 @@
     </row>
     <row r="2866" spans="1:3">
       <c r="A2866" s="2" t="s">
+        <v>7778</v>
+      </c>
+      <c r="B2866" s="2" t="s">
         <v>7808</v>
-      </c>
-      <c r="B2866" s="2" t="s">
-        <v>7778</v>
       </c>
       <c r="C2866" s="2" t="s">
         <v>7962</v>
@@ -65294,10 +66241,10 @@
     </row>
     <row r="2868" spans="1:3">
       <c r="A2868" s="2" t="s">
+        <v>7779</v>
+      </c>
+      <c r="B2868" s="2" t="s">
         <v>7809</v>
-      </c>
-      <c r="B2868" s="2" t="s">
-        <v>7779</v>
       </c>
       <c r="C2868" s="2" t="s">
         <v>7963</v>
@@ -65305,10 +66252,10 @@
     </row>
     <row r="2869" spans="1:3">
       <c r="A2869" s="2" t="s">
+        <v>7780</v>
+      </c>
+      <c r="B2869" s="2" t="s">
         <v>7816</v>
-      </c>
-      <c r="B2869" s="2" t="s">
-        <v>7780</v>
       </c>
       <c r="C2869" s="2" t="s">
         <v>7964</v>
@@ -65327,10 +66274,10 @@
     </row>
     <row r="2871" spans="1:3">
       <c r="A2871" s="2" t="s">
+        <v>7781</v>
+      </c>
+      <c r="B2871" s="2" t="s">
         <v>7828</v>
-      </c>
-      <c r="B2871" s="2" t="s">
-        <v>7781</v>
       </c>
       <c r="C2871" s="2" t="s">
         <v>7869</v>
@@ -65338,10 +66285,10 @@
     </row>
     <row r="2872" spans="1:3">
       <c r="A2872" s="2" t="s">
+        <v>7782</v>
+      </c>
+      <c r="B2872" s="2" t="s">
         <v>7835</v>
-      </c>
-      <c r="B2872" s="2" t="s">
-        <v>7782</v>
       </c>
       <c r="C2872" s="2" t="s">
         <v>7870</v>
@@ -65349,10 +66296,10 @@
     </row>
     <row r="2873" spans="1:3">
       <c r="A2873" s="2" t="s">
+        <v>7783</v>
+      </c>
+      <c r="B2873" s="2" t="s">
         <v>7836</v>
-      </c>
-      <c r="B2873" s="2" t="s">
-        <v>7783</v>
       </c>
       <c r="C2873" s="2" t="s">
         <v>7965</v>
@@ -65360,10 +66307,10 @@
     </row>
     <row r="2874" spans="1:3">
       <c r="A2874" s="2" t="s">
+        <v>7784</v>
+      </c>
+      <c r="B2874" s="2" t="s">
         <v>7837</v>
-      </c>
-      <c r="B2874" s="2" t="s">
-        <v>7784</v>
       </c>
       <c r="C2874" s="2" t="s">
         <v>7871</v>
@@ -65371,10 +66318,10 @@
     </row>
     <row r="2875" spans="1:3">
       <c r="A2875" s="2" t="s">
+        <v>7785</v>
+      </c>
+      <c r="B2875" s="2" t="s">
         <v>7756</v>
-      </c>
-      <c r="B2875" s="2" t="s">
-        <v>7785</v>
       </c>
       <c r="C2875" s="2" t="s">
         <v>7872</v>
@@ -65437,10 +66384,10 @@
     </row>
     <row r="2881" spans="1:3">
       <c r="A2881" s="2" t="s">
+        <v>7786</v>
+      </c>
+      <c r="B2881" s="2" t="s">
         <v>7804</v>
-      </c>
-      <c r="B2881" s="2" t="s">
-        <v>7786</v>
       </c>
       <c r="C2881" s="2" t="s">
         <v>7873</v>
@@ -65448,10 +66395,10 @@
     </row>
     <row r="2882" spans="1:3">
       <c r="A2882" s="2" t="s">
+        <v>7787</v>
+      </c>
+      <c r="B2882" s="2" t="s">
         <v>7803</v>
-      </c>
-      <c r="B2882" s="2" t="s">
-        <v>7787</v>
       </c>
       <c r="C2882" s="2" t="s">
         <v>7966</v>
@@ -65459,10 +66406,10 @@
     </row>
     <row r="2883" spans="1:3">
       <c r="A2883" s="2" t="s">
+        <v>7590</v>
+      </c>
+      <c r="B2883" s="2" t="s">
         <v>7811</v>
-      </c>
-      <c r="B2883" s="2" t="s">
-        <v>7590</v>
       </c>
       <c r="C2883" s="2" t="s">
         <v>7988</v>
@@ -65470,10 +66417,10 @@
     </row>
     <row r="2884" spans="1:3">
       <c r="A2884" s="2" t="s">
+        <v>7800</v>
+      </c>
+      <c r="B2884" s="2" t="s">
         <v>7812</v>
-      </c>
-      <c r="B2884" s="2" t="s">
-        <v>7800</v>
       </c>
       <c r="C2884" s="2" t="s">
         <v>7856</v>
@@ -65481,10 +66428,10 @@
     </row>
     <row r="2885" spans="1:3">
       <c r="A2885" s="2" t="s">
+        <v>7801</v>
+      </c>
+      <c r="B2885" s="2" t="s">
         <v>7812</v>
-      </c>
-      <c r="B2885" s="2" t="s">
-        <v>7801</v>
       </c>
       <c r="C2885" s="2" t="s">
         <v>7967</v>
@@ -65492,10 +66439,10 @@
     </row>
     <row r="2886" spans="1:3">
       <c r="A2886" s="2" t="s">
+        <v>7802</v>
+      </c>
+      <c r="B2886" s="2" t="s">
         <v>7839</v>
-      </c>
-      <c r="B2886" s="2" t="s">
-        <v>7802</v>
       </c>
       <c r="C2886" s="2" t="s">
         <v>7968</v>
@@ -65503,10 +66450,10 @@
     </row>
     <row r="2887" spans="1:3">
       <c r="A2887" s="2" t="s">
+        <v>7788</v>
+      </c>
+      <c r="B2887" s="2" t="s">
         <v>7827</v>
-      </c>
-      <c r="B2887" s="2" t="s">
-        <v>7788</v>
       </c>
       <c r="C2887" s="2" t="s">
         <v>7874</v>
@@ -65514,10 +66461,10 @@
     </row>
     <row r="2888" spans="1:3">
       <c r="A2888" s="2" t="s">
+        <v>7789</v>
+      </c>
+      <c r="B2888" s="2" t="s">
         <v>7813</v>
-      </c>
-      <c r="B2888" s="2" t="s">
-        <v>7789</v>
       </c>
       <c r="C2888" s="2" t="s">
         <v>7875</v>
@@ -65525,10 +66472,10 @@
     </row>
     <row r="2889" spans="1:3">
       <c r="A2889" s="2" t="s">
+        <v>7790</v>
+      </c>
+      <c r="B2889" s="2" t="s">
         <v>7841</v>
-      </c>
-      <c r="B2889" s="2" t="s">
-        <v>7790</v>
       </c>
       <c r="C2889" s="2" t="s">
         <v>7989</v>
@@ -65536,10 +66483,10 @@
     </row>
     <row r="2890" spans="1:3">
       <c r="A2890" s="2" t="s">
+        <v>7791</v>
+      </c>
+      <c r="B2890" s="2" t="s">
         <v>7849</v>
-      </c>
-      <c r="B2890" s="2" t="s">
-        <v>7791</v>
       </c>
       <c r="C2890" s="2" t="s">
         <v>7857</v>
@@ -65547,10 +66494,10 @@
     </row>
     <row r="2891" spans="1:3">
       <c r="A2891" s="2" t="s">
+        <v>7792</v>
+      </c>
+      <c r="B2891" s="2" t="s">
         <v>7842</v>
-      </c>
-      <c r="B2891" s="2" t="s">
-        <v>7792</v>
       </c>
       <c r="C2891" s="2" t="s">
         <v>7990</v>
@@ -65558,10 +66505,10 @@
     </row>
     <row r="2892" spans="1:3">
       <c r="A2892" s="2" t="s">
+        <v>7793</v>
+      </c>
+      <c r="B2892" s="2" t="s">
         <v>7823</v>
-      </c>
-      <c r="B2892" s="2" t="s">
-        <v>7793</v>
       </c>
       <c r="C2892" s="2" t="s">
         <v>7858</v>
@@ -65591,10 +66538,10 @@
     </row>
     <row r="2895" spans="1:3">
       <c r="A2895" s="2" t="s">
+        <v>7794</v>
+      </c>
+      <c r="B2895" s="2" t="s">
         <v>7845</v>
-      </c>
-      <c r="B2895" s="2" t="s">
-        <v>7794</v>
       </c>
       <c r="C2895" s="2" t="s">
         <v>7877</v>
@@ -65602,10 +66549,10 @@
     </row>
     <row r="2896" spans="1:3">
       <c r="A2896" s="2" t="s">
+        <v>7795</v>
+      </c>
+      <c r="B2896" s="2" t="s">
         <v>7846</v>
-      </c>
-      <c r="B2896" s="2" t="s">
-        <v>7795</v>
       </c>
       <c r="C2896" s="2" t="s">
         <v>7991</v>
@@ -65613,10 +66560,10 @@
     </row>
     <row r="2897" spans="1:3">
       <c r="A2897" s="2" t="s">
+        <v>7796</v>
+      </c>
+      <c r="B2897" s="2" t="s">
         <v>7847</v>
-      </c>
-      <c r="B2897" s="2" t="s">
-        <v>7796</v>
       </c>
       <c r="C2897" s="2" t="s">
         <v>7878</v>
@@ -65624,10 +66571,10 @@
     </row>
     <row r="2898" spans="1:3">
       <c r="A2898" s="2" t="s">
+        <v>7797</v>
+      </c>
+      <c r="B2898" s="2" t="s">
         <v>7840</v>
-      </c>
-      <c r="B2898" s="2" t="s">
-        <v>7797</v>
       </c>
       <c r="C2898" s="2" t="s">
         <v>7879</v>
@@ -65635,10 +66582,10 @@
     </row>
     <row r="2899" spans="1:3">
       <c r="A2899" s="2" t="s">
+        <v>7798</v>
+      </c>
+      <c r="B2899" s="2" t="s">
         <v>7824</v>
-      </c>
-      <c r="B2899" s="2" t="s">
-        <v>7798</v>
       </c>
       <c r="C2899" s="2" t="s">
         <v>7992</v>
@@ -65646,10 +66593,10 @@
     </row>
     <row r="2900" spans="1:3">
       <c r="A2900" s="2" t="s">
+        <v>7799</v>
+      </c>
+      <c r="B2900" s="2" t="s">
         <v>7825</v>
-      </c>
-      <c r="B2900" s="2" t="s">
-        <v>7799</v>
       </c>
       <c r="C2900" s="2" t="s">
         <v>7860</v>
@@ -65668,14 +66615,1101 @@
     </row>
     <row r="2902" spans="1:3">
       <c r="A2902" s="2" t="s">
+        <v>7971</v>
+      </c>
+      <c r="B2902" s="2" t="s">
         <v>7972</v>
-      </c>
-      <c r="B2902" s="2" t="s">
-        <v>7971</v>
       </c>
       <c r="C2902" s="2" t="s">
         <v>7973</v>
       </c>
+    </row>
+    <row r="2903" spans="1:3">
+      <c r="A2903" s="2" t="s">
+        <v>7994</v>
+      </c>
+      <c r="B2903" s="2" t="s">
+        <v>7993</v>
+      </c>
+      <c r="C2903" s="2" t="s">
+        <v>7995</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:3">
+      <c r="A2904" s="2" t="s">
+        <v>7997</v>
+      </c>
+      <c r="B2904" s="2" t="s">
+        <v>7996</v>
+      </c>
+      <c r="C2904" s="2" t="s">
+        <v>7998</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:3">
+      <c r="A2905" s="2" t="s">
+        <v>7999</v>
+      </c>
+      <c r="B2905" s="2" t="s">
+        <v>8001</v>
+      </c>
+      <c r="C2905" s="2" t="s">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:3">
+      <c r="A2906" s="2" t="s">
+        <v>8002</v>
+      </c>
+      <c r="B2906" s="2" t="s">
+        <v>8001</v>
+      </c>
+      <c r="C2906" s="2" t="s">
+        <v>8003</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:3">
+      <c r="A2907" s="2" t="s">
+        <v>8004</v>
+      </c>
+      <c r="B2907" s="2" t="s">
+        <v>8004</v>
+      </c>
+      <c r="C2907" s="2" t="s">
+        <v>8005</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:3">
+      <c r="A2908" s="2" t="s">
+        <v>8007</v>
+      </c>
+      <c r="B2908" s="2" t="s">
+        <v>8006</v>
+      </c>
+      <c r="C2908" s="2" t="s">
+        <v>8008</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:3">
+      <c r="A2909" s="2" t="s">
+        <v>8009</v>
+      </c>
+      <c r="B2909" s="2" t="s">
+        <v>5011</v>
+      </c>
+      <c r="C2909" s="2" t="s">
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:3">
+      <c r="A2910" s="2" t="s">
+        <v>8011</v>
+      </c>
+      <c r="B2910" s="2" t="s">
+        <v>8012</v>
+      </c>
+      <c r="C2910" s="2" t="s">
+        <v>8013</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:3">
+      <c r="A2911" s="2" t="s">
+        <v>8015</v>
+      </c>
+      <c r="B2911" s="2" t="s">
+        <v>8014</v>
+      </c>
+      <c r="C2911" s="2" t="s">
+        <v>8016</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:3">
+      <c r="A2912" s="2" t="s">
+        <v>8018</v>
+      </c>
+      <c r="B2912" s="2" t="s">
+        <v>8017</v>
+      </c>
+      <c r="C2912" s="2" t="s">
+        <v>8019</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:3">
+      <c r="A2913" s="2" t="s">
+        <v>8021</v>
+      </c>
+      <c r="B2913" s="2" t="s">
+        <v>8020</v>
+      </c>
+      <c r="C2913" s="2" t="s">
+        <v>8022</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:3">
+      <c r="A2914" s="2" t="s">
+        <v>8023</v>
+      </c>
+      <c r="B2914" s="2" t="s">
+        <v>8024</v>
+      </c>
+      <c r="C2914" s="2" t="s">
+        <v>8025</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:3">
+      <c r="A2915" s="2" t="s">
+        <v>8026</v>
+      </c>
+      <c r="B2915" s="2" t="s">
+        <v>8027</v>
+      </c>
+      <c r="C2915" s="2" t="s">
+        <v>8028</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:3">
+      <c r="A2916" s="2" t="s">
+        <v>8030</v>
+      </c>
+      <c r="B2916" s="2" t="s">
+        <v>8029</v>
+      </c>
+      <c r="C2916" s="2" t="s">
+        <v>8031</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:3">
+      <c r="A2917" s="2" t="s">
+        <v>8032</v>
+      </c>
+      <c r="B2917" s="2" t="s">
+        <v>8033</v>
+      </c>
+      <c r="C2917" s="2" t="s">
+        <v>8034</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:3">
+      <c r="A2918" s="2" t="s">
+        <v>8035</v>
+      </c>
+      <c r="B2918" s="2" t="s">
+        <v>8036</v>
+      </c>
+      <c r="C2918" s="2" t="s">
+        <v>8039</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:3">
+      <c r="A2919" s="2" t="s">
+        <v>8037</v>
+      </c>
+      <c r="B2919" s="2" t="s">
+        <v>8036</v>
+      </c>
+      <c r="C2919" s="2" t="s">
+        <v>8038</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:3">
+      <c r="A2920" s="2" t="s">
+        <v>8041</v>
+      </c>
+      <c r="B2920" s="2" t="s">
+        <v>8040</v>
+      </c>
+      <c r="C2920" s="2" t="s">
+        <v>8042</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:3">
+      <c r="A2921" s="2" t="s">
+        <v>8044</v>
+      </c>
+      <c r="B2921" s="2" t="s">
+        <v>8043</v>
+      </c>
+      <c r="C2921" s="2" t="s">
+        <v>8045</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:3">
+      <c r="A2922" s="2" t="s">
+        <v>8046</v>
+      </c>
+      <c r="B2922" s="2" t="s">
+        <v>8049</v>
+      </c>
+      <c r="C2922" s="2" t="s">
+        <v>8047</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:3">
+      <c r="A2923" s="2" t="s">
+        <v>8048</v>
+      </c>
+      <c r="B2923" s="2" t="s">
+        <v>8048</v>
+      </c>
+      <c r="C2923" s="2" t="s">
+        <v>8050</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:3">
+      <c r="A2924" s="2" t="s">
+        <v>8052</v>
+      </c>
+      <c r="B2924" s="2" t="s">
+        <v>8051</v>
+      </c>
+      <c r="C2924" s="2" t="s">
+        <v>8053</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:3">
+      <c r="A2925" s="2" t="s">
+        <v>8054</v>
+      </c>
+      <c r="B2925" s="2" t="s">
+        <v>8075</v>
+      </c>
+      <c r="C2925" s="2" t="s">
+        <v>8055</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:3">
+      <c r="A2926" s="2" t="s">
+        <v>8056</v>
+      </c>
+      <c r="B2926" s="2" t="s">
+        <v>8056</v>
+      </c>
+      <c r="C2926" s="2" t="s">
+        <v>8057</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:3">
+      <c r="A2927" s="2" t="s">
+        <v>8059</v>
+      </c>
+      <c r="B2927" s="2" t="s">
+        <v>8058</v>
+      </c>
+      <c r="C2927" s="2" t="s">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:3">
+      <c r="A2928" s="2" t="s">
+        <v>8072</v>
+      </c>
+      <c r="B2928" s="2" t="s">
+        <v>8061</v>
+      </c>
+      <c r="C2928" s="2" t="s">
+        <v>8121</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:3">
+      <c r="A2929" s="2" t="s">
+        <v>8073</v>
+      </c>
+      <c r="B2929" s="2" t="s">
+        <v>8061</v>
+      </c>
+      <c r="C2929" s="2" t="s">
+        <v>8122</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:3">
+      <c r="A2930" s="2" t="s">
+        <v>8063</v>
+      </c>
+      <c r="B2930" s="2" t="s">
+        <v>8059</v>
+      </c>
+      <c r="C2930" s="2" t="s">
+        <v>8112</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:3">
+      <c r="A2931" s="2" t="s">
+        <v>8065</v>
+      </c>
+      <c r="B2931" s="2" t="s">
+        <v>8064</v>
+      </c>
+      <c r="C2931" s="2" t="s">
+        <v>8078</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:3">
+      <c r="A2932" s="2" t="s">
+        <v>8066</v>
+      </c>
+      <c r="B2932" s="2" t="s">
+        <v>8064</v>
+      </c>
+      <c r="C2932" s="2" t="s">
+        <v>8079</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:3">
+      <c r="A2933" s="2" t="s">
+        <v>8067</v>
+      </c>
+      <c r="B2933" s="2" t="s">
+        <v>8074</v>
+      </c>
+      <c r="C2933" s="2" t="s">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:3">
+      <c r="A2934" s="2" t="s">
+        <v>8068</v>
+      </c>
+      <c r="B2934" s="2" t="s">
+        <v>8077</v>
+      </c>
+      <c r="C2934" s="2" t="s">
+        <v>8069</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:3">
+      <c r="A2935" s="2" t="s">
+        <v>8070</v>
+      </c>
+      <c r="B2935" s="2" t="s">
+        <v>8076</v>
+      </c>
+      <c r="C2935" s="2" t="s">
+        <v>8071</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:3">
+      <c r="A2936" s="2" t="s">
+        <v>8081</v>
+      </c>
+      <c r="B2936" s="2" t="s">
+        <v>8081</v>
+      </c>
+      <c r="C2936" s="2" t="s">
+        <v>8082</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:3">
+      <c r="A2937" s="2" t="s">
+        <v>8084</v>
+      </c>
+      <c r="B2937" s="2" t="s">
+        <v>8083</v>
+      </c>
+      <c r="C2937" s="2" t="s">
+        <v>8085</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:3">
+      <c r="A2938" s="2" t="s">
+        <v>8088</v>
+      </c>
+      <c r="B2938" s="2" t="s">
+        <v>8086</v>
+      </c>
+      <c r="C2938" s="2" t="s">
+        <v>6609</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:3">
+      <c r="A2939" s="2" t="s">
+        <v>8089</v>
+      </c>
+      <c r="B2939" s="2" t="s">
+        <v>8087</v>
+      </c>
+      <c r="C2939" s="2" t="s">
+        <v>8090</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:3">
+      <c r="A2940" s="2" t="s">
+        <v>8093</v>
+      </c>
+      <c r="B2940" s="2" t="s">
+        <v>8092</v>
+      </c>
+      <c r="C2940" s="2" t="s">
+        <v>8091</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:3">
+      <c r="A2941" s="2" t="s">
+        <v>8095</v>
+      </c>
+      <c r="B2941" s="2" t="s">
+        <v>8094</v>
+      </c>
+      <c r="C2941" s="2" t="s">
+        <v>8096</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:3">
+      <c r="A2942" s="2" t="s">
+        <v>8098</v>
+      </c>
+      <c r="B2942" s="2" t="s">
+        <v>8097</v>
+      </c>
+      <c r="C2942" s="2" t="s">
+        <v>8099</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:3">
+      <c r="A2943" s="2" t="s">
+        <v>8101</v>
+      </c>
+      <c r="B2943" s="2" t="s">
+        <v>8100</v>
+      </c>
+      <c r="C2943" s="2" t="s">
+        <v>8126</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:3">
+      <c r="A2944" s="2" t="s">
+        <v>8103</v>
+      </c>
+      <c r="B2944" s="2" t="s">
+        <v>8102</v>
+      </c>
+      <c r="C2944" s="2" t="s">
+        <v>8125</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:3">
+      <c r="A2945" s="2" t="s">
+        <v>8114</v>
+      </c>
+      <c r="B2945" s="2" t="s">
+        <v>8104</v>
+      </c>
+      <c r="C2945" s="2" t="s">
+        <v>8105</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:3">
+      <c r="A2946" s="2" t="s">
+        <v>8116</v>
+      </c>
+      <c r="B2946" s="2" t="s">
+        <v>8113</v>
+      </c>
+      <c r="C2946" s="2" t="s">
+        <v>8107</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:3">
+      <c r="A2947" s="2" t="s">
+        <v>8117</v>
+      </c>
+      <c r="B2947" s="2" t="s">
+        <v>8106</v>
+      </c>
+      <c r="C2947" s="2" t="s">
+        <v>8115</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:3">
+      <c r="A2948" s="2" t="s">
+        <v>8108</v>
+      </c>
+      <c r="B2948" s="2" t="s">
+        <v>8118</v>
+      </c>
+      <c r="C2948" s="2" t="s">
+        <v>8124</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:3">
+      <c r="A2949" s="2" t="s">
+        <v>8109</v>
+      </c>
+      <c r="B2949" s="2" t="s">
+        <v>8119</v>
+      </c>
+      <c r="C2949" s="2" t="s">
+        <v>8110</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:3">
+      <c r="A2950" s="2" t="s">
+        <v>8111</v>
+      </c>
+      <c r="B2950" s="2" t="s">
+        <v>8120</v>
+      </c>
+      <c r="C2950" s="2" t="s">
+        <v>8123</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:3">
+      <c r="A2951" s="2" t="s">
+        <v>8127</v>
+      </c>
+      <c r="B2951" s="2" t="s">
+        <v>8127</v>
+      </c>
+      <c r="C2951" s="2" t="s">
+        <v>8128</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:3">
+      <c r="A2952" s="2" t="s">
+        <v>8129</v>
+      </c>
+      <c r="B2952" s="2" t="s">
+        <v>8129</v>
+      </c>
+      <c r="C2952" s="2" t="s">
+        <v>8130</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:3">
+      <c r="A2953" s="2" t="s">
+        <v>8131</v>
+      </c>
+      <c r="B2953" s="2" t="s">
+        <v>8132</v>
+      </c>
+      <c r="C2953" s="2" t="s">
+        <v>8245</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:3">
+      <c r="A2954" s="2" t="s">
+        <v>8228</v>
+      </c>
+      <c r="B2954" s="2" t="s">
+        <v>8133</v>
+      </c>
+      <c r="C2954" s="2" t="s">
+        <v>8134</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:3">
+      <c r="A2955" s="2" t="s">
+        <v>8192</v>
+      </c>
+      <c r="B2955" s="2" t="s">
+        <v>8192</v>
+      </c>
+      <c r="C2955" s="2" t="s">
+        <v>8135</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:3">
+      <c r="A2956" s="2" t="s">
+        <v>8224</v>
+      </c>
+      <c r="B2956" s="2" t="s">
+        <v>8136</v>
+      </c>
+      <c r="C2956" s="2" t="s">
+        <v>8137</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:3">
+      <c r="A2957" s="2" t="s">
+        <v>8209</v>
+      </c>
+      <c r="B2957" s="2" t="s">
+        <v>8138</v>
+      </c>
+      <c r="C2957" s="2" t="s">
+        <v>8139</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:3">
+      <c r="A2958" s="2" t="s">
+        <v>8229</v>
+      </c>
+      <c r="B2958" s="2" t="s">
+        <v>8140</v>
+      </c>
+      <c r="C2958" s="2" t="s">
+        <v>8141</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:3">
+      <c r="A2959" s="2" t="s">
+        <v>8230</v>
+      </c>
+      <c r="B2959" s="2" t="s">
+        <v>8142</v>
+      </c>
+      <c r="C2959" s="2" t="s">
+        <v>8143</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:3">
+      <c r="A2960" s="2" t="s">
+        <v>8236</v>
+      </c>
+      <c r="B2960" s="2" t="s">
+        <v>8144</v>
+      </c>
+      <c r="C2960" s="2" t="s">
+        <v>8145</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:3">
+      <c r="A2961" s="2" t="s">
+        <v>8231</v>
+      </c>
+      <c r="B2961" s="2" t="s">
+        <v>8193</v>
+      </c>
+      <c r="C2961" s="2" t="s">
+        <v>8146</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:3">
+      <c r="A2962" s="2" t="s">
+        <v>8232</v>
+      </c>
+      <c r="B2962" s="2" t="s">
+        <v>8232</v>
+      </c>
+      <c r="C2962" s="2" t="s">
+        <v>8147</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:3">
+      <c r="A2963" s="2" t="s">
+        <v>8233</v>
+      </c>
+      <c r="B2963" s="2" t="s">
+        <v>8148</v>
+      </c>
+      <c r="C2963" s="2" t="s">
+        <v>8150</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:3">
+      <c r="A2964" s="2" t="s">
+        <v>8210</v>
+      </c>
+      <c r="B2964" s="2" t="s">
+        <v>8149</v>
+      </c>
+      <c r="C2964" s="2" t="s">
+        <v>8244</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:3">
+      <c r="A2965" s="2" t="s">
+        <v>8151</v>
+      </c>
+      <c r="B2965" s="2" t="s">
+        <v>8152</v>
+      </c>
+      <c r="C2965" s="2" t="s">
+        <v>8246</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:3">
+      <c r="A2966" s="2" t="s">
+        <v>8157</v>
+      </c>
+      <c r="B2966" s="2" t="s">
+        <v>8153</v>
+      </c>
+      <c r="C2966" s="2" t="s">
+        <v>8247</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:3">
+      <c r="A2967" s="2" t="s">
+        <v>8154</v>
+      </c>
+      <c r="B2967" s="2" t="s">
+        <v>8155</v>
+      </c>
+      <c r="C2967" s="2" t="s">
+        <v>8243</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:3">
+      <c r="A2968" s="2" t="s">
+        <v>8154</v>
+      </c>
+      <c r="B2968" s="2" t="s">
+        <v>8156</v>
+      </c>
+      <c r="C2968" s="2" t="s">
+        <v>8242</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:3">
+      <c r="A2969" s="2" t="s">
+        <v>8157</v>
+      </c>
+      <c r="B2969" s="2" t="s">
+        <v>8158</v>
+      </c>
+      <c r="C2969" s="2" t="s">
+        <v>8248</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:3">
+      <c r="A2970" s="2" t="s">
+        <v>8157</v>
+      </c>
+      <c r="B2970" s="2" t="s">
+        <v>8159</v>
+      </c>
+      <c r="C2970" s="2" t="s">
+        <v>8160</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:3">
+      <c r="A2971" s="2" t="s">
+        <v>8154</v>
+      </c>
+      <c r="B2971" s="2" t="s">
+        <v>8161</v>
+      </c>
+      <c r="C2971" s="2" t="s">
+        <v>8249</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:3">
+      <c r="A2972" s="2" t="s">
+        <v>8157</v>
+      </c>
+      <c r="B2972" s="2" t="s">
+        <v>8162</v>
+      </c>
+      <c r="C2972" s="2" t="s">
+        <v>8163</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:3">
+      <c r="A2973" s="2" t="s">
+        <v>8157</v>
+      </c>
+      <c r="B2973" s="2" t="s">
+        <v>8164</v>
+      </c>
+      <c r="C2973" s="2" t="s">
+        <v>8165</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:3">
+      <c r="A2974" s="2" t="s">
+        <v>8226</v>
+      </c>
+      <c r="B2974" s="2" t="s">
+        <v>8166</v>
+      </c>
+      <c r="C2974" s="2" t="s">
+        <v>8167</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:3">
+      <c r="A2975" s="2" t="s">
+        <v>8194</v>
+      </c>
+      <c r="B2975" s="2" t="s">
+        <v>8168</v>
+      </c>
+      <c r="C2975" s="2" t="s">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:3">
+      <c r="A2976" s="2" t="s">
+        <v>8169</v>
+      </c>
+      <c r="B2976" s="2" t="s">
+        <v>8170</v>
+      </c>
+      <c r="C2976" s="2" t="s">
+        <v>8171</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:3">
+      <c r="A2977" s="2" t="s">
+        <v>8169</v>
+      </c>
+      <c r="B2977" s="2" t="s">
+        <v>8172</v>
+      </c>
+      <c r="C2977" s="2" t="s">
+        <v>8241</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:3">
+      <c r="A2978" s="2" t="s">
+        <v>8169</v>
+      </c>
+      <c r="B2978" s="2" t="s">
+        <v>8173</v>
+      </c>
+      <c r="C2978" s="2" t="s">
+        <v>8237</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:3">
+      <c r="A2979" s="2" t="s">
+        <v>8227</v>
+      </c>
+      <c r="B2979" s="2" t="s">
+        <v>8174</v>
+      </c>
+      <c r="C2979" s="2" t="s">
+        <v>8196</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:3">
+      <c r="A2980" s="2" t="s">
+        <v>8225</v>
+      </c>
+      <c r="B2980" s="2" t="s">
+        <v>8175</v>
+      </c>
+      <c r="C2980" s="2" t="s">
+        <v>8176</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:3">
+      <c r="A2981" s="2" t="s">
+        <v>8211</v>
+      </c>
+      <c r="B2981" s="2" t="s">
+        <v>8197</v>
+      </c>
+      <c r="C2981" s="2" t="s">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:3">
+      <c r="A2982" s="2" t="s">
+        <v>8199</v>
+      </c>
+      <c r="B2982" s="2" t="s">
+        <v>8198</v>
+      </c>
+      <c r="C2982" s="2" t="s">
+        <v>8177</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:3">
+      <c r="A2983" s="2" t="s">
+        <v>8212</v>
+      </c>
+      <c r="B2983" s="2" t="s">
+        <v>8200</v>
+      </c>
+      <c r="C2983" s="2" t="s">
+        <v>8240</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:3">
+      <c r="A2984" s="2" t="s">
+        <v>8213</v>
+      </c>
+      <c r="B2984" s="2" t="s">
+        <v>8201</v>
+      </c>
+      <c r="C2984" s="2" t="s">
+        <v>8239</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:3">
+      <c r="A2985" s="2" t="s">
+        <v>8217</v>
+      </c>
+      <c r="B2985" s="2" t="s">
+        <v>8217</v>
+      </c>
+      <c r="C2985" s="2" t="s">
+        <v>8178</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:3">
+      <c r="A2986" s="2" t="s">
+        <v>8234</v>
+      </c>
+      <c r="B2986" s="2" t="s">
+        <v>8202</v>
+      </c>
+      <c r="C2986" s="2" t="s">
+        <v>8179</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:3">
+      <c r="A2987" s="2" t="s">
+        <v>8214</v>
+      </c>
+      <c r="B2987" s="2" t="s">
+        <v>8180</v>
+      </c>
+      <c r="C2987" s="2" t="s">
+        <v>8251</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:3">
+      <c r="A2988" s="2" t="s">
+        <v>8218</v>
+      </c>
+      <c r="B2988" s="2" t="s">
+        <v>8218</v>
+      </c>
+      <c r="C2988" s="2" t="s">
+        <v>8252</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:3">
+      <c r="A2989" s="2" t="s">
+        <v>8219</v>
+      </c>
+      <c r="B2989" s="2" t="s">
+        <v>8219</v>
+      </c>
+      <c r="C2989" s="2" t="s">
+        <v>8253</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:3">
+      <c r="A2990" s="2" t="s">
+        <v>8203</v>
+      </c>
+      <c r="B2990" s="2" t="s">
+        <v>8181</v>
+      </c>
+      <c r="C2990" s="2" t="s">
+        <v>8254</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:3">
+      <c r="A2991" s="2" t="s">
+        <v>8215</v>
+      </c>
+      <c r="B2991" s="2" t="s">
+        <v>8215</v>
+      </c>
+      <c r="C2991" s="2" t="s">
+        <v>8255</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:3">
+      <c r="A2992" s="2" t="s">
+        <v>8204</v>
+      </c>
+      <c r="B2992" s="2" t="s">
+        <v>8204</v>
+      </c>
+      <c r="C2992" s="2" t="s">
+        <v>8182</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:3">
+      <c r="A2993" s="2" t="s">
+        <v>8235</v>
+      </c>
+      <c r="B2993" s="2" t="s">
+        <v>8183</v>
+      </c>
+      <c r="C2993" s="2" t="s">
+        <v>8256</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:3">
+      <c r="A2994" s="2" t="s">
+        <v>8216</v>
+      </c>
+      <c r="B2994" s="2" t="s">
+        <v>8184</v>
+      </c>
+      <c r="C2994" s="2" t="s">
+        <v>8257</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:3">
+      <c r="A2995" s="2" t="s">
+        <v>8220</v>
+      </c>
+      <c r="B2995" s="2" t="s">
+        <v>8185</v>
+      </c>
+      <c r="C2995" s="2" t="s">
+        <v>8186</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:3">
+      <c r="A2996" s="2" t="s">
+        <v>8221</v>
+      </c>
+      <c r="B2996" s="2" t="s">
+        <v>8062</v>
+      </c>
+      <c r="C2996" s="2" t="s">
+        <v>8205</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:3">
+      <c r="A2997" s="2" t="s">
+        <v>8222</v>
+      </c>
+      <c r="B2997" s="2" t="s">
+        <v>8222</v>
+      </c>
+      <c r="C2997" s="2" t="s">
+        <v>8206</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:3">
+      <c r="A2998" s="2" t="s">
+        <v>8223</v>
+      </c>
+      <c r="B2998" s="2" t="s">
+        <v>8187</v>
+      </c>
+      <c r="C2998" s="2" t="s">
+        <v>8238</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:3">
+      <c r="A2999" s="2" t="s">
+        <v>8208</v>
+      </c>
+      <c r="B2999" s="2" t="s">
+        <v>8188</v>
+      </c>
+      <c r="C2999" s="2" t="s">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:3">
+      <c r="A3000" s="2" t="s">
+        <v>8207</v>
+      </c>
+      <c r="B3000" s="2" t="s">
+        <v>8189</v>
+      </c>
+      <c r="C3000" s="2" t="s">
+        <v>8191</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:3" ht="20">
+      <c r="B3001"/>
+      <c r="C3001"/>
+    </row>
+    <row r="3002" spans="1:3" ht="20">
+      <c r="A3002" s="5"/>
+      <c r="B3002"/>
+      <c r="C3002"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C1802">

--- a/日本語/1_語彙.xlsx
+++ b/日本語/1_語彙.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeshafteure/Documents/GitHub/Freshmore/日本語/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B651D64-2A15-B748-B977-3016CEAAEF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE2016F-6C28-614C-B9EC-A27C78B05156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9000" uniqueCount="8258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9030" uniqueCount="8285">
   <si>
     <t>亜〜</t>
   </si>
@@ -34237,12 +34237,150 @@
     <t>lay in, stock, pet, 自然食品を〜 stock organic food</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>潮</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シオ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tide</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塩辛い</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シオカライ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しおからい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>salty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歯科</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dentistry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自我</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジガ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じが</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>self, ego</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>司会</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シカイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>preside</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市街</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シガイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しがい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the streets, city, town</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四角</t>
+    <rPh sb="0" eb="2">
+      <t>❒</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>square</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資格</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シカク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視覚</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シカク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自覚</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジカク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じかく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>capacity, a right, qualification, certification, license</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the sense of sight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>self-awareness</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -34302,11 +34440,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -34330,7 +34463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -34345,9 +34478,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -34686,10 +34816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD98CDC-2E6D-F340-BEA4-C5F884B9AAD8}">
-  <dimension ref="A1:E3002"/>
+  <dimension ref="A1:E3010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2923" zoomScale="126" workbookViewId="0">
-      <selection activeCell="C2994" sqref="C2994"/>
+    <sheetView tabSelected="1" topLeftCell="A2994" zoomScale="126" workbookViewId="0">
+      <selection activeCell="C3011" sqref="C3011"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -64783,7 +64913,7 @@
       <c r="B2735" s="2" t="s">
         <v>7476</v>
       </c>
-      <c r="C2735" s="6" t="s">
+      <c r="C2735" s="5" t="s">
         <v>7533</v>
       </c>
     </row>
@@ -67176,10 +67306,10 @@
     </row>
     <row r="2953" spans="1:3">
       <c r="A2953" s="2" t="s">
+        <v>8132</v>
+      </c>
+      <c r="B2953" s="2" t="s">
         <v>8131</v>
-      </c>
-      <c r="B2953" s="2" t="s">
-        <v>8132</v>
       </c>
       <c r="C2953" s="2" t="s">
         <v>8245</v>
@@ -67187,10 +67317,10 @@
     </row>
     <row r="2954" spans="1:3">
       <c r="A2954" s="2" t="s">
+        <v>8133</v>
+      </c>
+      <c r="B2954" s="2" t="s">
         <v>8228</v>
-      </c>
-      <c r="B2954" s="2" t="s">
-        <v>8133</v>
       </c>
       <c r="C2954" s="2" t="s">
         <v>8134</v>
@@ -67209,10 +67339,10 @@
     </row>
     <row r="2956" spans="1:3">
       <c r="A2956" s="2" t="s">
+        <v>8136</v>
+      </c>
+      <c r="B2956" s="2" t="s">
         <v>8224</v>
-      </c>
-      <c r="B2956" s="2" t="s">
-        <v>8136</v>
       </c>
       <c r="C2956" s="2" t="s">
         <v>8137</v>
@@ -67220,10 +67350,10 @@
     </row>
     <row r="2957" spans="1:3">
       <c r="A2957" s="2" t="s">
+        <v>8138</v>
+      </c>
+      <c r="B2957" s="2" t="s">
         <v>8209</v>
-      </c>
-      <c r="B2957" s="2" t="s">
-        <v>8138</v>
       </c>
       <c r="C2957" s="2" t="s">
         <v>8139</v>
@@ -67231,10 +67361,10 @@
     </row>
     <row r="2958" spans="1:3">
       <c r="A2958" s="2" t="s">
+        <v>8140</v>
+      </c>
+      <c r="B2958" s="2" t="s">
         <v>8229</v>
-      </c>
-      <c r="B2958" s="2" t="s">
-        <v>8140</v>
       </c>
       <c r="C2958" s="2" t="s">
         <v>8141</v>
@@ -67242,10 +67372,10 @@
     </row>
     <row r="2959" spans="1:3">
       <c r="A2959" s="2" t="s">
+        <v>8142</v>
+      </c>
+      <c r="B2959" s="2" t="s">
         <v>8230</v>
-      </c>
-      <c r="B2959" s="2" t="s">
-        <v>8142</v>
       </c>
       <c r="C2959" s="2" t="s">
         <v>8143</v>
@@ -67253,10 +67383,10 @@
     </row>
     <row r="2960" spans="1:3">
       <c r="A2960" s="2" t="s">
+        <v>8144</v>
+      </c>
+      <c r="B2960" s="2" t="s">
         <v>8236</v>
-      </c>
-      <c r="B2960" s="2" t="s">
-        <v>8144</v>
       </c>
       <c r="C2960" s="2" t="s">
         <v>8145</v>
@@ -67264,10 +67394,10 @@
     </row>
     <row r="2961" spans="1:3">
       <c r="A2961" s="2" t="s">
+        <v>8193</v>
+      </c>
+      <c r="B2961" s="2" t="s">
         <v>8231</v>
-      </c>
-      <c r="B2961" s="2" t="s">
-        <v>8193</v>
       </c>
       <c r="C2961" s="2" t="s">
         <v>8146</v>
@@ -67286,10 +67416,10 @@
     </row>
     <row r="2963" spans="1:3">
       <c r="A2963" s="2" t="s">
+        <v>8148</v>
+      </c>
+      <c r="B2963" s="2" t="s">
         <v>8233</v>
-      </c>
-      <c r="B2963" s="2" t="s">
-        <v>8148</v>
       </c>
       <c r="C2963" s="2" t="s">
         <v>8150</v>
@@ -67297,10 +67427,10 @@
     </row>
     <row r="2964" spans="1:3">
       <c r="A2964" s="2" t="s">
+        <v>8149</v>
+      </c>
+      <c r="B2964" s="2" t="s">
         <v>8210</v>
-      </c>
-      <c r="B2964" s="2" t="s">
-        <v>8149</v>
       </c>
       <c r="C2964" s="2" t="s">
         <v>8244</v>
@@ -67308,10 +67438,10 @@
     </row>
     <row r="2965" spans="1:3">
       <c r="A2965" s="2" t="s">
+        <v>8152</v>
+      </c>
+      <c r="B2965" s="2" t="s">
         <v>8151</v>
-      </c>
-      <c r="B2965" s="2" t="s">
-        <v>8152</v>
       </c>
       <c r="C2965" s="2" t="s">
         <v>8246</v>
@@ -67319,10 +67449,10 @@
     </row>
     <row r="2966" spans="1:3">
       <c r="A2966" s="2" t="s">
+        <v>8153</v>
+      </c>
+      <c r="B2966" s="2" t="s">
         <v>8157</v>
-      </c>
-      <c r="B2966" s="2" t="s">
-        <v>8153</v>
       </c>
       <c r="C2966" s="2" t="s">
         <v>8247</v>
@@ -67330,10 +67460,10 @@
     </row>
     <row r="2967" spans="1:3">
       <c r="A2967" s="2" t="s">
+        <v>8155</v>
+      </c>
+      <c r="B2967" s="2" t="s">
         <v>8154</v>
-      </c>
-      <c r="B2967" s="2" t="s">
-        <v>8155</v>
       </c>
       <c r="C2967" s="2" t="s">
         <v>8243</v>
@@ -67341,10 +67471,10 @@
     </row>
     <row r="2968" spans="1:3">
       <c r="A2968" s="2" t="s">
+        <v>8156</v>
+      </c>
+      <c r="B2968" s="2" t="s">
         <v>8154</v>
-      </c>
-      <c r="B2968" s="2" t="s">
-        <v>8156</v>
       </c>
       <c r="C2968" s="2" t="s">
         <v>8242</v>
@@ -67352,10 +67482,10 @@
     </row>
     <row r="2969" spans="1:3">
       <c r="A2969" s="2" t="s">
+        <v>8158</v>
+      </c>
+      <c r="B2969" s="2" t="s">
         <v>8157</v>
-      </c>
-      <c r="B2969" s="2" t="s">
-        <v>8158</v>
       </c>
       <c r="C2969" s="2" t="s">
         <v>8248</v>
@@ -67363,10 +67493,10 @@
     </row>
     <row r="2970" spans="1:3">
       <c r="A2970" s="2" t="s">
+        <v>8159</v>
+      </c>
+      <c r="B2970" s="2" t="s">
         <v>8157</v>
-      </c>
-      <c r="B2970" s="2" t="s">
-        <v>8159</v>
       </c>
       <c r="C2970" s="2" t="s">
         <v>8160</v>
@@ -67374,10 +67504,10 @@
     </row>
     <row r="2971" spans="1:3">
       <c r="A2971" s="2" t="s">
+        <v>8161</v>
+      </c>
+      <c r="B2971" s="2" t="s">
         <v>8154</v>
-      </c>
-      <c r="B2971" s="2" t="s">
-        <v>8161</v>
       </c>
       <c r="C2971" s="2" t="s">
         <v>8249</v>
@@ -67385,10 +67515,10 @@
     </row>
     <row r="2972" spans="1:3">
       <c r="A2972" s="2" t="s">
+        <v>8162</v>
+      </c>
+      <c r="B2972" s="2" t="s">
         <v>8157</v>
-      </c>
-      <c r="B2972" s="2" t="s">
-        <v>8162</v>
       </c>
       <c r="C2972" s="2" t="s">
         <v>8163</v>
@@ -67396,10 +67526,10 @@
     </row>
     <row r="2973" spans="1:3">
       <c r="A2973" s="2" t="s">
+        <v>8164</v>
+      </c>
+      <c r="B2973" s="2" t="s">
         <v>8157</v>
-      </c>
-      <c r="B2973" s="2" t="s">
-        <v>8164</v>
       </c>
       <c r="C2973" s="2" t="s">
         <v>8165</v>
@@ -67407,10 +67537,10 @@
     </row>
     <row r="2974" spans="1:3">
       <c r="A2974" s="2" t="s">
+        <v>8166</v>
+      </c>
+      <c r="B2974" s="2" t="s">
         <v>8226</v>
-      </c>
-      <c r="B2974" s="2" t="s">
-        <v>8166</v>
       </c>
       <c r="C2974" s="2" t="s">
         <v>8167</v>
@@ -67418,10 +67548,10 @@
     </row>
     <row r="2975" spans="1:3">
       <c r="A2975" s="2" t="s">
+        <v>8168</v>
+      </c>
+      <c r="B2975" s="2" t="s">
         <v>8194</v>
-      </c>
-      <c r="B2975" s="2" t="s">
-        <v>8168</v>
       </c>
       <c r="C2975" s="2" t="s">
         <v>8195</v>
@@ -67429,10 +67559,10 @@
     </row>
     <row r="2976" spans="1:3">
       <c r="A2976" s="2" t="s">
+        <v>8170</v>
+      </c>
+      <c r="B2976" s="2" t="s">
         <v>8169</v>
-      </c>
-      <c r="B2976" s="2" t="s">
-        <v>8170</v>
       </c>
       <c r="C2976" s="2" t="s">
         <v>8171</v>
@@ -67440,10 +67570,10 @@
     </row>
     <row r="2977" spans="1:3">
       <c r="A2977" s="2" t="s">
+        <v>8172</v>
+      </c>
+      <c r="B2977" s="2" t="s">
         <v>8169</v>
-      </c>
-      <c r="B2977" s="2" t="s">
-        <v>8172</v>
       </c>
       <c r="C2977" s="2" t="s">
         <v>8241</v>
@@ -67451,10 +67581,10 @@
     </row>
     <row r="2978" spans="1:3">
       <c r="A2978" s="2" t="s">
+        <v>8173</v>
+      </c>
+      <c r="B2978" s="2" t="s">
         <v>8169</v>
-      </c>
-      <c r="B2978" s="2" t="s">
-        <v>8173</v>
       </c>
       <c r="C2978" s="2" t="s">
         <v>8237</v>
@@ -67462,10 +67592,10 @@
     </row>
     <row r="2979" spans="1:3">
       <c r="A2979" s="2" t="s">
+        <v>8174</v>
+      </c>
+      <c r="B2979" s="2" t="s">
         <v>8227</v>
-      </c>
-      <c r="B2979" s="2" t="s">
-        <v>8174</v>
       </c>
       <c r="C2979" s="2" t="s">
         <v>8196</v>
@@ -67473,10 +67603,10 @@
     </row>
     <row r="2980" spans="1:3">
       <c r="A2980" s="2" t="s">
+        <v>8175</v>
+      </c>
+      <c r="B2980" s="2" t="s">
         <v>8225</v>
-      </c>
-      <c r="B2980" s="2" t="s">
-        <v>8175</v>
       </c>
       <c r="C2980" s="2" t="s">
         <v>8176</v>
@@ -67484,10 +67614,10 @@
     </row>
     <row r="2981" spans="1:3">
       <c r="A2981" s="2" t="s">
+        <v>8197</v>
+      </c>
+      <c r="B2981" s="2" t="s">
         <v>8211</v>
-      </c>
-      <c r="B2981" s="2" t="s">
-        <v>8197</v>
       </c>
       <c r="C2981" s="2" t="s">
         <v>8250</v>
@@ -67495,10 +67625,10 @@
     </row>
     <row r="2982" spans="1:3">
       <c r="A2982" s="2" t="s">
+        <v>8198</v>
+      </c>
+      <c r="B2982" s="2" t="s">
         <v>8199</v>
-      </c>
-      <c r="B2982" s="2" t="s">
-        <v>8198</v>
       </c>
       <c r="C2982" s="2" t="s">
         <v>8177</v>
@@ -67506,10 +67636,10 @@
     </row>
     <row r="2983" spans="1:3">
       <c r="A2983" s="2" t="s">
+        <v>8200</v>
+      </c>
+      <c r="B2983" s="2" t="s">
         <v>8212</v>
-      </c>
-      <c r="B2983" s="2" t="s">
-        <v>8200</v>
       </c>
       <c r="C2983" s="2" t="s">
         <v>8240</v>
@@ -67517,10 +67647,10 @@
     </row>
     <row r="2984" spans="1:3">
       <c r="A2984" s="2" t="s">
+        <v>8201</v>
+      </c>
+      <c r="B2984" s="2" t="s">
         <v>8213</v>
-      </c>
-      <c r="B2984" s="2" t="s">
-        <v>8201</v>
       </c>
       <c r="C2984" s="2" t="s">
         <v>8239</v>
@@ -67539,10 +67669,10 @@
     </row>
     <row r="2986" spans="1:3">
       <c r="A2986" s="2" t="s">
+        <v>8202</v>
+      </c>
+      <c r="B2986" s="2" t="s">
         <v>8234</v>
-      </c>
-      <c r="B2986" s="2" t="s">
-        <v>8202</v>
       </c>
       <c r="C2986" s="2" t="s">
         <v>8179</v>
@@ -67550,10 +67680,10 @@
     </row>
     <row r="2987" spans="1:3">
       <c r="A2987" s="2" t="s">
+        <v>8180</v>
+      </c>
+      <c r="B2987" s="2" t="s">
         <v>8214</v>
-      </c>
-      <c r="B2987" s="2" t="s">
-        <v>8180</v>
       </c>
       <c r="C2987" s="2" t="s">
         <v>8251</v>
@@ -67583,10 +67713,10 @@
     </row>
     <row r="2990" spans="1:3">
       <c r="A2990" s="2" t="s">
+        <v>8181</v>
+      </c>
+      <c r="B2990" s="2" t="s">
         <v>8203</v>
-      </c>
-      <c r="B2990" s="2" t="s">
-        <v>8181</v>
       </c>
       <c r="C2990" s="2" t="s">
         <v>8254</v>
@@ -67616,10 +67746,10 @@
     </row>
     <row r="2993" spans="1:3">
       <c r="A2993" s="2" t="s">
+        <v>8183</v>
+      </c>
+      <c r="B2993" s="2" t="s">
         <v>8235</v>
-      </c>
-      <c r="B2993" s="2" t="s">
-        <v>8183</v>
       </c>
       <c r="C2993" s="2" t="s">
         <v>8256</v>
@@ -67627,10 +67757,10 @@
     </row>
     <row r="2994" spans="1:3">
       <c r="A2994" s="2" t="s">
+        <v>8184</v>
+      </c>
+      <c r="B2994" s="2" t="s">
         <v>8216</v>
-      </c>
-      <c r="B2994" s="2" t="s">
-        <v>8184</v>
       </c>
       <c r="C2994" s="2" t="s">
         <v>8257</v>
@@ -67638,10 +67768,10 @@
     </row>
     <row r="2995" spans="1:3">
       <c r="A2995" s="2" t="s">
+        <v>8185</v>
+      </c>
+      <c r="B2995" s="2" t="s">
         <v>8220</v>
-      </c>
-      <c r="B2995" s="2" t="s">
-        <v>8185</v>
       </c>
       <c r="C2995" s="2" t="s">
         <v>8186</v>
@@ -67649,10 +67779,10 @@
     </row>
     <row r="2996" spans="1:3">
       <c r="A2996" s="2" t="s">
+        <v>8062</v>
+      </c>
+      <c r="B2996" s="2" t="s">
         <v>8221</v>
-      </c>
-      <c r="B2996" s="2" t="s">
-        <v>8062</v>
       </c>
       <c r="C2996" s="2" t="s">
         <v>8205</v>
@@ -67671,10 +67801,10 @@
     </row>
     <row r="2998" spans="1:3">
       <c r="A2998" s="2" t="s">
+        <v>8187</v>
+      </c>
+      <c r="B2998" s="2" t="s">
         <v>8223</v>
-      </c>
-      <c r="B2998" s="2" t="s">
-        <v>8187</v>
       </c>
       <c r="C2998" s="2" t="s">
         <v>8238</v>
@@ -67682,10 +67812,10 @@
     </row>
     <row r="2999" spans="1:3">
       <c r="A2999" s="2" t="s">
+        <v>8188</v>
+      </c>
+      <c r="B2999" s="2" t="s">
         <v>8208</v>
-      </c>
-      <c r="B2999" s="2" t="s">
-        <v>8188</v>
       </c>
       <c r="C2999" s="2" t="s">
         <v>8190</v>
@@ -67693,23 +67823,124 @@
     </row>
     <row r="3000" spans="1:3">
       <c r="A3000" s="2" t="s">
+        <v>8189</v>
+      </c>
+      <c r="B3000" s="2" t="s">
         <v>8207</v>
-      </c>
-      <c r="B3000" s="2" t="s">
-        <v>8189</v>
       </c>
       <c r="C3000" s="2" t="s">
         <v>8191</v>
       </c>
     </row>
-    <row r="3001" spans="1:3" ht="20">
-      <c r="B3001"/>
-      <c r="C3001"/>
-    </row>
-    <row r="3002" spans="1:3" ht="20">
-      <c r="A3002" s="5"/>
-      <c r="B3002"/>
-      <c r="C3002"/>
+    <row r="3001" spans="1:3">
+      <c r="A3001" s="2" t="s">
+        <v>8258</v>
+      </c>
+      <c r="B3001" s="2" t="s">
+        <v>8207</v>
+      </c>
+      <c r="C3001" s="2" t="s">
+        <v>8259</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:3">
+      <c r="A3002" s="2" t="s">
+        <v>8260</v>
+      </c>
+      <c r="B3002" s="2" t="s">
+        <v>8261</v>
+      </c>
+      <c r="C3002" s="2" t="s">
+        <v>8262</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:3">
+      <c r="A3003" s="2" t="s">
+        <v>8263</v>
+      </c>
+      <c r="B3003" s="2" t="s">
+        <v>8264</v>
+      </c>
+      <c r="C3003" s="2" t="s">
+        <v>8265</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:3">
+      <c r="A3004" s="2" t="s">
+        <v>8266</v>
+      </c>
+      <c r="B3004" s="2" t="s">
+        <v>8267</v>
+      </c>
+      <c r="C3004" s="2" t="s">
+        <v>8268</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:3">
+      <c r="A3005" s="2" t="s">
+        <v>8269</v>
+      </c>
+      <c r="B3005" s="2" t="s">
+        <v>8270</v>
+      </c>
+      <c r="C3005" s="2" t="s">
+        <v>8271</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:3">
+      <c r="A3006" s="2" t="s">
+        <v>8272</v>
+      </c>
+      <c r="B3006" s="2" t="s">
+        <v>8273</v>
+      </c>
+      <c r="C3006" s="2" t="s">
+        <v>8274</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:3">
+      <c r="A3007" s="2" t="s">
+        <v>8275</v>
+      </c>
+      <c r="B3007" s="2" t="s">
+        <v>8276</v>
+      </c>
+      <c r="C3007" s="2" t="s">
+        <v>8277</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:3">
+      <c r="A3008" s="2" t="s">
+        <v>8278</v>
+      </c>
+      <c r="B3008" s="2" t="s">
+        <v>8276</v>
+      </c>
+      <c r="C3008" s="2" t="s">
+        <v>8282</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:3">
+      <c r="A3009" s="2" t="s">
+        <v>8279</v>
+      </c>
+      <c r="B3009" s="2" t="s">
+        <v>8276</v>
+      </c>
+      <c r="C3009" s="2" t="s">
+        <v>8283</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:3">
+      <c r="A3010" s="2" t="s">
+        <v>8280</v>
+      </c>
+      <c r="B3010" s="2" t="s">
+        <v>8281</v>
+      </c>
+      <c r="C3010" s="2" t="s">
+        <v>8284</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C1802">

--- a/日本語/1_語彙.xlsx
+++ b/日本語/1_語彙.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10106"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeshafteure/Documents/GitHub/Freshmore/日本語/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE2016F-6C28-614C-B9EC-A27C78B05156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274CFF12-BCF2-BF40-BA1C-99E29878F06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="15840" windowHeight="18900" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9030" uniqueCount="8285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9600" uniqueCount="8812">
   <si>
     <t>亜〜</t>
   </si>
@@ -34375,12 +34375,2040 @@
     <t>self-awareness</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>四角い／な</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シカクイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかくい／な</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>squarish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕掛け</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シカケ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>device, mechanism, system</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕掛ける</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シカケル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start, begin, set (up)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>but</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかしながら</t>
+  </si>
+  <si>
+    <t>しかしながら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>but, however, nevertheless</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕方</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>way (to do), method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかたがない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕方がない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cannot help doing, lust have to do, incorrigible, hopeless, That's the way it goes.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じかに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直に</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ジカニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>directly, at first hand, in person, straight, full, immediately</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moreover, besides</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかる</t>
+  </si>
+  <si>
+    <t>叱る</t>
+  </si>
+  <si>
+    <t>scold</t>
+  </si>
+  <si>
+    <t>～じかん</t>
+  </si>
+  <si>
+    <t>hour (s)</t>
+  </si>
+  <si>
+    <t>じかん</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>〜時間目</t>
+  </si>
+  <si>
+    <t>じかんわり</t>
+  </si>
+  <si>
+    <t>時間割</t>
+  </si>
+  <si>
+    <t>timetable, schedule</t>
+  </si>
+  <si>
+    <t>～しき</t>
+  </si>
+  <si>
+    <t>～式</t>
+  </si>
+  <si>
+    <t>式</t>
+  </si>
+  <si>
+    <t>ceremony</t>
+  </si>
+  <si>
+    <t>四季</t>
+  </si>
+  <si>
+    <t>the four seasons</t>
+  </si>
+  <si>
+    <t>指揮</t>
+  </si>
+  <si>
+    <t>時期</t>
+  </si>
+  <si>
+    <t>しき</t>
+  </si>
+  <si>
+    <t>直</t>
+  </si>
+  <si>
+    <t>磁気</t>
+  </si>
+  <si>
+    <t>magnetism</t>
+  </si>
+  <si>
+    <t>感器</t>
+  </si>
+  <si>
+    <t>porcelain, china (ware)</t>
+  </si>
+  <si>
+    <t>色彩</t>
+  </si>
+  <si>
+    <t>式場</t>
+  </si>
+  <si>
+    <t>敷地</t>
+  </si>
+  <si>
+    <t>至急</t>
+  </si>
+  <si>
+    <t>an emergency, urgent, quickly, soon, prompt, early</t>
+  </si>
+  <si>
+    <t>しきゅう</t>
+  </si>
+  <si>
+    <t>支給</t>
+  </si>
+  <si>
+    <t>事業</t>
+  </si>
+  <si>
+    <t>work, project</t>
+  </si>
+  <si>
+    <t>frequently, often, repeatedly, incessantly, eagerly, keenly, strongly</t>
+  </si>
+  <si>
+    <t>しきる</t>
+  </si>
+  <si>
+    <t>仕切る</t>
+  </si>
+  <si>
+    <t>資金</t>
+  </si>
+  <si>
+    <t>fund</t>
+  </si>
+  <si>
+    <t>敷く</t>
+  </si>
+  <si>
+    <t>spread, lay out, carpet, cover, under lay, lay, rail</t>
+  </si>
+  <si>
+    <t>軸</t>
+  </si>
+  <si>
+    <t>axis, axle, spindle, pivot, shaft, the center of activity</t>
+  </si>
+  <si>
+    <t>capital punishment, the death penalty</t>
+  </si>
+  <si>
+    <t>死刑</t>
+  </si>
+  <si>
+    <t>a stimulus, stimulation, irritation, /ploit 3 stimulate, irritate</t>
+  </si>
+  <si>
+    <t>～時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～じかんめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しきさい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しきじょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しきたり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しきち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しきゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じぎょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しきりに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しきん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しくじる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しくみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕来［た］り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕組［み］</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しけい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刺激</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シゲキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しげき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湿気る</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シケル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get damp, get soggy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ceremony, celebration, party</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>system, style</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>command, direction, conduct</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time, the timing, a season</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>in a moment, close</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ceremonial hall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>customs, convention</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lot, site, ground, situation. Premises</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>supply</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>partition, divide</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structure, mechanism, system</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しげる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>茂［る］</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>grow thick/rampant, be overprown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験</t>
+  </si>
+  <si>
+    <t>examination</t>
+  </si>
+  <si>
+    <t>資源</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>じこ</t>
+  </si>
+  <si>
+    <t>じこう</t>
+  </si>
+  <si>
+    <t>事項</t>
+  </si>
+  <si>
+    <t>時刻</t>
+  </si>
+  <si>
+    <t>time, the hour</t>
+  </si>
+  <si>
+    <t>じごく</t>
+  </si>
+  <si>
+    <t>地獄</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>時刻表</t>
+  </si>
+  <si>
+    <t>schedule, timetable</t>
+  </si>
+  <si>
+    <t>仕事</t>
+  </si>
+  <si>
+    <t>work, job</t>
+  </si>
+  <si>
+    <t>時差</t>
+  </si>
+  <si>
+    <t>資座</t>
+  </si>
+  <si>
+    <t>持参</t>
+  </si>
+  <si>
+    <t>指示</t>
+  </si>
+  <si>
+    <t>支持</t>
+  </si>
+  <si>
+    <t>事実</t>
+  </si>
+  <si>
+    <t>a fact, the truth, a concrete example, actually, really, in fact, as a matter of fact</t>
+  </si>
+  <si>
+    <t>磁石</t>
+  </si>
+  <si>
+    <t>magnet, magnetite, magnetic iron ore, compass</t>
+  </si>
+  <si>
+    <t>四捨五入</t>
+  </si>
+  <si>
+    <t>自首</t>
+  </si>
+  <si>
+    <t>自主</t>
+  </si>
+  <si>
+    <t>刺繡</t>
+  </si>
+  <si>
+    <t>始終</t>
+  </si>
+  <si>
+    <t>自質</t>
+  </si>
+  <si>
+    <t>支出</t>
+  </si>
+  <si>
+    <t>辞書</t>
+  </si>
+  <si>
+    <t>市場</t>
+  </si>
+  <si>
+    <t>事情</t>
+  </si>
+  <si>
+    <t>辞職</t>
+  </si>
+  <si>
+    <t>詩人</t>
+  </si>
+  <si>
+    <t>poet</t>
+  </si>
+  <si>
+    <t>earthquake</t>
+  </si>
+  <si>
+    <t>self-confidence</t>
+  </si>
+  <si>
+    <t>自身</t>
+  </si>
+  <si>
+    <t>静か</t>
+  </si>
+  <si>
+    <t>quiet, still, calm, placid</t>
+  </si>
+  <si>
+    <t>システム</t>
+  </si>
+  <si>
+    <t>静まる</t>
+  </si>
+  <si>
+    <t>become still/quiet, calm, settle, fall, smooch, lull, remit</t>
+  </si>
+  <si>
+    <t>沈む</t>
+  </si>
+  <si>
+    <t>sink, settle, subside, set, go down, dip, depressed, melancholy</t>
+  </si>
+  <si>
+    <t>沈める</t>
+  </si>
+  <si>
+    <t>姿勢</t>
+  </si>
+  <si>
+    <t>施設</t>
+  </si>
+  <si>
+    <t>事前</t>
+  </si>
+  <si>
+    <t>事故</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジコ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">event, a happening, an incident, a matter, an afrair </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accident</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しけん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しげん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じけん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジコ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>志向</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嗜好</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思考</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施行</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試行</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thought, thinking</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enforce, carry out</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>self, oneself</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>natural resources</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matters, facts, data, articles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じこくひょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しごと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じざい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しさつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視察</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シサツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じさつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自殺</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジサツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>difference in time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>at will, freely</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inspection, observation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>suicide</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assets, properly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じじつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じしゃく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ししゃごにゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じしゅ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ししゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しじゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じしゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>indication, directions, instructions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>round up numbers of five and above and drop anyting under five</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>surrender (oneseif), turn oneself in</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>independence, aulonomy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>embroidery</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>always, constantly, often, the ins and outs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>self study</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>support, backing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜するbring,take; 〜金 marriage portion; 〜人 bearer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ししゅつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じしょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>expenditure, expenditure, disbursements, expenses,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dictionary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>market, exchange, marketplace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しじょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じじょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>circumstances</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resignation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じしょく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しじん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じしん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地震</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジシン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自信</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジシン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>by oneself, in person</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しずか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>water droplets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雫／滴</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シズク </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">シズク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しずく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しずまる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>system</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>institution, facilities, home</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>posture, attitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sink, submerge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>be forehand, in advance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じぜん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しせつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しずめる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しずむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自然科学</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">シゼンカガク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しぜんかがく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>natural/physical science</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自然（に）</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シゼン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しぜんに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nature, natural, spontaneous, naturally, spontaneously, automatically</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思想</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シソウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子息</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シソク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しそく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時速</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジソク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じそく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持続</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジゾク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じぞく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子孫</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シソン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しそん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自尊心</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ジソンシン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じそんしん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>舌</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>した</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死体</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>したい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜次第</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">シダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜しだい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事態</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>字体</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辞退</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時代</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じだい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次第（に）</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シダイニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しだいに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慕う</t>
+    <rPh sb="0" eb="1">
+      <t>シタウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>したう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従う</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シタガウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>したがう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下書き</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シタガキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>したがき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>したがって</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下着</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シタギ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>したぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自宅</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジタク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じたく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>したく（する）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支度（する）</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シタクスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下心</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シタゴコロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>したごころ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>したし</t>
+  </si>
+  <si>
+    <t>﻿したしい</t>
+  </si>
+  <si>
+    <t>﻿したび</t>
+  </si>
+  <si>
+    <t>﻿したまち</t>
+  </si>
+  <si>
+    <t>〜じつ</t>
+  </si>
+  <si>
+    <t>﻿しつきやく</t>
+  </si>
+  <si>
+    <t>﻿しつぎよう</t>
+  </si>
+  <si>
+    <t>﻿しつけ</t>
+  </si>
+  <si>
+    <t>﻿しっけ／しっき</t>
+  </si>
+  <si>
+    <t>﻿しつける</t>
+  </si>
+  <si>
+    <t>﻿じっけん</t>
+  </si>
+  <si>
+    <t>したしむ</t>
+  </si>
+  <si>
+    <t>したしらべ</t>
+  </si>
+  <si>
+    <t>したてる</t>
+  </si>
+  <si>
+    <t>したどり</t>
+  </si>
+  <si>
+    <t>しつ</t>
+  </si>
+  <si>
+    <t>じっか</t>
+  </si>
+  <si>
+    <t>しっかく</t>
+  </si>
+  <si>
+    <t>しつぎ</t>
+  </si>
+  <si>
+    <t>じつぎょうか</t>
+  </si>
+  <si>
+    <t>シック</t>
+  </si>
+  <si>
+    <t>じっくり</t>
+  </si>
+  <si>
+    <t>じち</t>
+  </si>
+  <si>
+    <t>～しつ</t>
+  </si>
+  <si>
+    <t>しつ〜</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> じっかん</t>
+  </si>
+  <si>
+    <t>じつげん</t>
+  </si>
+  <si>
+    <t>しっかり</t>
+  </si>
+  <si>
+    <t>下地</t>
+  </si>
+  <si>
+    <t>親しい</t>
+  </si>
+  <si>
+    <t>親しむ</t>
+  </si>
+  <si>
+    <t>下調べ</t>
+  </si>
+  <si>
+    <t>仕立てる</t>
+  </si>
+  <si>
+    <t>下取［り］</t>
+  </si>
+  <si>
+    <t>下火</t>
+  </si>
+  <si>
+    <t>七</t>
+  </si>
+  <si>
+    <t>～室</t>
+  </si>
+  <si>
+    <t>質</t>
+  </si>
+  <si>
+    <t>室～</t>
+  </si>
+  <si>
+    <t>～日</t>
+  </si>
+  <si>
+    <t>実家</t>
+  </si>
+  <si>
+    <t>失格</t>
+  </si>
+  <si>
+    <t>実感</t>
+  </si>
+  <si>
+    <t>失脚</t>
+  </si>
+  <si>
+    <t>失業</t>
+  </si>
+  <si>
+    <t>実業家</t>
+  </si>
+  <si>
+    <t>湿気</t>
+  </si>
+  <si>
+    <t>狭ける</t>
+  </si>
+  <si>
+    <t>実験</t>
+  </si>
+  <si>
+    <t>実現</t>
+  </si>
+  <si>
+    <t>躾</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シツケ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質疑</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シツギ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下町</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自治</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行</t>
+  </si>
+  <si>
+    <t>実際</t>
+  </si>
+  <si>
+    <t>実施</t>
+  </si>
+  <si>
+    <t>実質</t>
+  </si>
+  <si>
+    <t>実習</t>
+  </si>
+  <si>
+    <t>実情</t>
+  </si>
+  <si>
+    <t>実績</t>
+  </si>
+  <si>
+    <t>じっせん</t>
+  </si>
+  <si>
+    <t>実践</t>
+  </si>
+  <si>
+    <t>しっそ</t>
+  </si>
+  <si>
+    <t>質素</t>
+  </si>
+  <si>
+    <t>じったい</t>
+  </si>
+  <si>
+    <t>実態</t>
+  </si>
+  <si>
+    <t>しっちょう</t>
+  </si>
+  <si>
+    <t>失調</t>
+  </si>
+  <si>
+    <t>しっと</t>
+  </si>
+  <si>
+    <t>嫉妬</t>
+  </si>
+  <si>
+    <t>湿度</t>
+  </si>
+  <si>
+    <t>じっと</t>
+  </si>
+  <si>
+    <t>じつに</t>
+  </si>
+  <si>
+    <t>実に</t>
+  </si>
+  <si>
+    <t>じつは</t>
+  </si>
+  <si>
+    <t>実は</t>
+  </si>
+  <si>
+    <t>失敗（する）</t>
+  </si>
+  <si>
+    <t>じっぴ</t>
+  </si>
+  <si>
+    <t>実費</t>
+  </si>
+  <si>
+    <t>しっぴつ</t>
+  </si>
+  <si>
+    <t>執筆</t>
+  </si>
+  <si>
+    <t>じつぶつ</t>
+  </si>
+  <si>
+    <t>実物</t>
+  </si>
+  <si>
+    <t>しっぽ</t>
+  </si>
+  <si>
+    <t>しつぼう</t>
+  </si>
+  <si>
+    <t>失望</t>
+  </si>
+  <si>
+    <t>しつもん（する）</t>
+  </si>
+  <si>
+    <t>質問（する）</t>
+  </si>
+  <si>
+    <t>じつよう</t>
+  </si>
+  <si>
+    <t>実用</t>
+  </si>
+  <si>
+    <t>実力</t>
+  </si>
+  <si>
+    <t>しつれい</t>
+  </si>
+  <si>
+    <t>失礼</t>
+  </si>
+  <si>
+    <t>じつれい</t>
+  </si>
+  <si>
+    <t>実例</t>
+  </si>
+  <si>
+    <t>しつれい（する）</t>
+  </si>
+  <si>
+    <t>失礼（する）</t>
+  </si>
+  <si>
+    <t>しつれん</t>
+  </si>
+  <si>
+    <t>失恋</t>
+  </si>
+  <si>
+    <t>してい</t>
+  </si>
+  <si>
+    <t>指定</t>
+  </si>
+  <si>
+    <t>してき</t>
+  </si>
+  <si>
+    <t>指摘</t>
+  </si>
+  <si>
+    <t>私鉄</t>
+  </si>
+  <si>
+    <t>支店</t>
+  </si>
+  <si>
+    <t>視点</t>
+  </si>
+  <si>
+    <t>辞典</t>
+  </si>
+  <si>
+    <t>自転</t>
+  </si>
+  <si>
+    <t>自転車</t>
+  </si>
+  <si>
+    <t>指導</t>
+  </si>
+  <si>
+    <t>自動</t>
+  </si>
+  <si>
+    <t>児童</t>
+  </si>
+  <si>
+    <t>自動車</t>
+  </si>
+  <si>
+    <t>しつこい</t>
+  </si>
+  <si>
+    <t>しっぱい（する）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じつりょく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失礼します／しました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しつれいします／しました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>してつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>してん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じてん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じてんしゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しどう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じどう</t>
+  </si>
+  <si>
+    <t>じどう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じどうし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動詞</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ジドウシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じどうしゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しとやか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>淑やか</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シトヤカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じっこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じっさい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じっし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じっしつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じっしゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じつじょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じっせき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しっど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しち/なな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idea. thoucht, ideas,/思想家 thinker</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>descendant, posterity</t>
+  </si>
+  <si>
+    <t>dead body, corpse, cadaver</t>
+  </si>
+  <si>
+    <t>because of ... due to . right after</t>
+  </si>
+  <si>
+    <t>the times, an era, an age, days, antiquity</t>
+  </si>
+  <si>
+    <t>obey, follow, go along, abide by</t>
+  </si>
+  <si>
+    <t>downtown area, traditional working-class neighborhood</t>
+  </si>
+  <si>
+    <t>nature, disposition, temperament, matter, quality</t>
+  </si>
+  <si>
+    <t>speed per hour</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>last, continue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pride. self-respect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a businessman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lose one's job </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one's downfall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question, inquiry, interpellation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">one's parents' house (home) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disqualification, be disqualified, be eliminated</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">firmly, tightly, strong, steady, reliable, be sure, well </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">substance, the truth, result. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>actual feeling, sense of reality.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>room</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trade-in</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sew, tailor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>burning down, slowing down</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>preparation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>make friends with, get to know. be fond of</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>close, friendly, familiar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>groundwork, foundation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ulterior motive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">under, down </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a tongue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prepare, dress (oneself) up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">one's house, one's home </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>draft, rough draft/copy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>therefore, consequently</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>underwear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the situation. the state of affairs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the form of a character</t>
+  </si>
+  <si>
+    <t>decline, turn down, refuse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order, circumstances, depends, as soon as, at the first</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>long for, attach oneself to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>self-povernment,autonomy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seven</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chic, stylish, smart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>discipline, training</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moisture, damp(ness), humidity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>discipline, train</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>experimentation, experiment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>realization, materialization</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>persistent, obstinate, insistent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>practice, action, execution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>practice, the truth, fact, reality, actuality, actual conditions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enforcement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>substance, essence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>practice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the actual condition/circumstances, the real state of affairs/things</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(actual) results, one's achievements</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(actual) practice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>frugal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the actual situation, the real state of affairs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ataxy, dystrophia, deconditioning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iealousy, envy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>humidity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>still, patiently</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>really</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to tell the truth, actually</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>failure, mistake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>actual expense(s). Cost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>writing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>real thing, actual object, genuine article, real life, original</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tail, an end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disappointment, despair, regret, frustration, dismay, letdown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>practical use</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one's ability, force</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>impolite, rude, impudent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>example, instance, illustration, sample, specimen, case</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I beg your pardon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>excuse me</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disappointed/unrequited love, broken heart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>specify, designate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>point out</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private railway</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>branch (office/store)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a point of view, a viewpoint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rotation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bicycle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guidance, leadership, coaching</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a child, children</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intransitive verb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modest, gentle, graceful</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slowly and carefully, 〜読む take one's time to read</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -34440,6 +36468,11 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -34463,7 +36496,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -34480,6 +36513,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -34816,10 +36855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD98CDC-2E6D-F340-BEA4-C5F884B9AAD8}">
-  <dimension ref="A1:E3010"/>
+  <dimension ref="A1:E3204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2994" zoomScale="126" workbookViewId="0">
-      <selection activeCell="C3011" sqref="C3011"/>
+    <sheetView tabSelected="1" topLeftCell="A3167" zoomScale="126" workbookViewId="0">
+      <selection activeCell="C3127" sqref="C3127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -67942,6 +69981,2108 @@
         <v>8284</v>
       </c>
     </row>
+    <row r="3011" spans="1:3">
+      <c r="A3011" s="2" t="s">
+        <v>8285</v>
+      </c>
+      <c r="B3011" s="2" t="s">
+        <v>8286</v>
+      </c>
+      <c r="C3011" s="2" t="s">
+        <v>8287</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:3">
+      <c r="A3012" s="2" t="s">
+        <v>8288</v>
+      </c>
+      <c r="B3012" s="2" t="s">
+        <v>8289</v>
+      </c>
+      <c r="C3012" s="2" t="s">
+        <v>8290</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:3">
+      <c r="A3013" s="2" t="s">
+        <v>8291</v>
+      </c>
+      <c r="B3013" s="2" t="s">
+        <v>8292</v>
+      </c>
+      <c r="C3013" s="2" t="s">
+        <v>8293</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:3">
+      <c r="A3014" s="2" t="s">
+        <v>8294</v>
+      </c>
+      <c r="B3014" s="2" t="s">
+        <v>8294</v>
+      </c>
+      <c r="C3014" s="2" t="s">
+        <v>8295</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:3">
+      <c r="A3015" s="2" t="s">
+        <v>8296</v>
+      </c>
+      <c r="B3015" s="2" t="s">
+        <v>8297</v>
+      </c>
+      <c r="C3015" s="2" t="s">
+        <v>8298</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:3">
+      <c r="A3016" s="2" t="s">
+        <v>8300</v>
+      </c>
+      <c r="B3016" s="2" t="s">
+        <v>8299</v>
+      </c>
+      <c r="C3016" s="2" t="s">
+        <v>8301</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:3">
+      <c r="A3017" s="2" t="s">
+        <v>8303</v>
+      </c>
+      <c r="B3017" s="2" t="s">
+        <v>8302</v>
+      </c>
+      <c r="C3017" s="2" t="s">
+        <v>8304</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:3" ht="18">
+      <c r="A3018" s="2" t="s">
+        <v>8306</v>
+      </c>
+      <c r="B3018" s="4" t="s">
+        <v>8305</v>
+      </c>
+      <c r="C3018" s="2" t="s">
+        <v>8307</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:3">
+      <c r="A3019" s="2" t="s">
+        <v>8308</v>
+      </c>
+      <c r="B3019" s="2" t="s">
+        <v>8308</v>
+      </c>
+      <c r="C3019" s="2" t="s">
+        <v>8309</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:3">
+      <c r="A3020" s="2" t="s">
+        <v>8311</v>
+      </c>
+      <c r="B3020" s="2" t="s">
+        <v>8310</v>
+      </c>
+      <c r="C3020" s="2" t="s">
+        <v>8312</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:3">
+      <c r="A3021" s="2" t="s">
+        <v>8356</v>
+      </c>
+      <c r="B3021" s="2" t="s">
+        <v>8313</v>
+      </c>
+      <c r="C3021" s="2" t="s">
+        <v>8314</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:3">
+      <c r="A3022" s="2" t="s">
+        <v>8357</v>
+      </c>
+      <c r="B3022" s="2" t="s">
+        <v>8315</v>
+      </c>
+      <c r="C3022" s="2" t="s">
+        <v>8316</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:3">
+      <c r="A3023" s="2" t="s">
+        <v>8317</v>
+      </c>
+      <c r="B3023" s="2" t="s">
+        <v>8358</v>
+      </c>
+      <c r="C3023" s="2" t="s">
+        <v>4679</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:3">
+      <c r="A3024" s="2" t="s">
+        <v>8319</v>
+      </c>
+      <c r="B3024" s="2" t="s">
+        <v>8318</v>
+      </c>
+      <c r="C3024" s="2" t="s">
+        <v>8320</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:3">
+      <c r="A3025" s="2" t="s">
+        <v>8322</v>
+      </c>
+      <c r="B3025" s="2" t="s">
+        <v>8321</v>
+      </c>
+      <c r="C3025" s="2" t="s">
+        <v>8381</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:3">
+      <c r="A3026" s="2" t="s">
+        <v>8322</v>
+      </c>
+      <c r="B3026" s="2" t="s">
+        <v>8321</v>
+      </c>
+      <c r="C3026" s="2" t="s">
+        <v>8382</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:3">
+      <c r="A3027" s="2" t="s">
+        <v>8323</v>
+      </c>
+      <c r="B3027" s="2" t="s">
+        <v>8329</v>
+      </c>
+      <c r="C3027" s="2" t="s">
+        <v>8324</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:3">
+      <c r="A3028" s="2" t="s">
+        <v>8325</v>
+      </c>
+      <c r="B3028" s="2" t="s">
+        <v>8359</v>
+      </c>
+      <c r="C3028" s="2" t="s">
+        <v>8326</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:3">
+      <c r="A3029" s="2" t="s">
+        <v>8327</v>
+      </c>
+      <c r="B3029" s="2" t="s">
+        <v>8359</v>
+      </c>
+      <c r="C3029" s="2" t="s">
+        <v>8383</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:3">
+      <c r="A3030" s="2" t="s">
+        <v>8328</v>
+      </c>
+      <c r="B3030" s="2" t="s">
+        <v>8360</v>
+      </c>
+      <c r="C3030" s="2" t="s">
+        <v>8384</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:3">
+      <c r="A3031" s="2" t="s">
+        <v>8330</v>
+      </c>
+      <c r="B3031" s="2" t="s">
+        <v>8360</v>
+      </c>
+      <c r="C3031" s="2" t="s">
+        <v>8385</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:3">
+      <c r="A3032" s="2" t="s">
+        <v>8331</v>
+      </c>
+      <c r="B3032" s="2" t="s">
+        <v>8360</v>
+      </c>
+      <c r="C3032" s="2" t="s">
+        <v>8332</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:3">
+      <c r="A3033" s="2" t="s">
+        <v>8333</v>
+      </c>
+      <c r="B3033" s="2" t="s">
+        <v>8360</v>
+      </c>
+      <c r="C3033" s="2" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:3">
+      <c r="A3034" s="2" t="s">
+        <v>8335</v>
+      </c>
+      <c r="B3034" s="2" t="s">
+        <v>8361</v>
+      </c>
+      <c r="C3034" s="2" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:3">
+      <c r="A3035" s="2" t="s">
+        <v>8336</v>
+      </c>
+      <c r="B3035" s="2" t="s">
+        <v>8362</v>
+      </c>
+      <c r="C3035" s="2" t="s">
+        <v>8386</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:3">
+      <c r="A3036" s="2" t="s">
+        <v>8373</v>
+      </c>
+      <c r="B3036" s="2" t="s">
+        <v>8363</v>
+      </c>
+      <c r="C3036" s="2" t="s">
+        <v>8387</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:3">
+      <c r="A3037" s="2" t="s">
+        <v>8337</v>
+      </c>
+      <c r="B3037" s="2" t="s">
+        <v>8364</v>
+      </c>
+      <c r="C3037" s="2" t="s">
+        <v>8388</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:3">
+      <c r="A3038" s="2" t="s">
+        <v>8338</v>
+      </c>
+      <c r="B3038" s="2" t="s">
+        <v>8365</v>
+      </c>
+      <c r="C3038" s="2" t="s">
+        <v>8339</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:3">
+      <c r="A3039" s="2" t="s">
+        <v>8341</v>
+      </c>
+      <c r="B3039" s="2" t="s">
+        <v>8340</v>
+      </c>
+      <c r="C3039" s="2" t="s">
+        <v>8389</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:3">
+      <c r="A3040" s="2" t="s">
+        <v>8342</v>
+      </c>
+      <c r="B3040" s="2" t="s">
+        <v>8366</v>
+      </c>
+      <c r="C3040" s="2" t="s">
+        <v>8343</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:3">
+      <c r="A3041" s="2" t="s">
+        <v>8367</v>
+      </c>
+      <c r="B3041" s="2" t="s">
+        <v>8367</v>
+      </c>
+      <c r="C3041" s="2" t="s">
+        <v>8344</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:3">
+      <c r="A3042" s="2" t="s">
+        <v>8346</v>
+      </c>
+      <c r="B3042" s="2" t="s">
+        <v>8345</v>
+      </c>
+      <c r="C3042" s="2" t="s">
+        <v>8390</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:3">
+      <c r="A3043" s="2" t="s">
+        <v>8347</v>
+      </c>
+      <c r="B3043" s="2" t="s">
+        <v>8368</v>
+      </c>
+      <c r="C3043" s="2" t="s">
+        <v>8348</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:3">
+      <c r="A3044" s="2" t="s">
+        <v>8349</v>
+      </c>
+      <c r="B3044" s="2" t="s">
+        <v>8369</v>
+      </c>
+      <c r="C3044" s="2" t="s">
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:3">
+      <c r="A3045" s="2" t="s">
+        <v>8351</v>
+      </c>
+      <c r="B3045" s="2" t="s">
+        <v>8370</v>
+      </c>
+      <c r="C3045" s="2" t="s">
+        <v>8352</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:3">
+      <c r="A3046" s="2" t="s">
+        <v>8371</v>
+      </c>
+      <c r="B3046" s="2" t="s">
+        <v>8371</v>
+      </c>
+      <c r="C3046" s="2" t="s">
+        <v>8391</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:3">
+      <c r="A3047" s="2" t="s">
+        <v>8374</v>
+      </c>
+      <c r="B3047" s="2" t="s">
+        <v>8372</v>
+      </c>
+      <c r="C3047" s="2" t="s">
+        <v>8392</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:3">
+      <c r="A3048" s="2" t="s">
+        <v>8354</v>
+      </c>
+      <c r="B3048" s="2" t="s">
+        <v>8375</v>
+      </c>
+      <c r="C3048" s="2" t="s">
+        <v>8353</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:3">
+      <c r="A3049" s="2" t="s">
+        <v>8376</v>
+      </c>
+      <c r="B3049" s="2" t="s">
+        <v>8377</v>
+      </c>
+      <c r="C3049" s="2" t="s">
+        <v>8355</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:3">
+      <c r="A3050" s="2" t="s">
+        <v>8378</v>
+      </c>
+      <c r="B3050" s="2" t="s">
+        <v>8379</v>
+      </c>
+      <c r="C3050" s="2" t="s">
+        <v>8380</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:3">
+      <c r="A3051" s="2" t="s">
+        <v>8394</v>
+      </c>
+      <c r="B3051" s="2" t="s">
+        <v>8393</v>
+      </c>
+      <c r="C3051" s="2" t="s">
+        <v>8395</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:3">
+      <c r="A3052" s="2" t="s">
+        <v>8396</v>
+      </c>
+      <c r="B3052" s="2" t="s">
+        <v>8452</v>
+      </c>
+      <c r="C3052" s="2" t="s">
+        <v>8397</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:3">
+      <c r="A3053" s="2" t="s">
+        <v>8398</v>
+      </c>
+      <c r="B3053" s="2" t="s">
+        <v>8453</v>
+      </c>
+      <c r="C3053" s="2" t="s">
+        <v>8466</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:3">
+      <c r="A3054" s="2" t="s">
+        <v>8399</v>
+      </c>
+      <c r="B3054" s="2" t="s">
+        <v>8454</v>
+      </c>
+      <c r="C3054" s="2" t="s">
+        <v>8450</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:3">
+      <c r="A3055" s="2" t="s">
+        <v>8448</v>
+      </c>
+      <c r="B3055" s="2" t="s">
+        <v>8449</v>
+      </c>
+      <c r="C3055" s="2" t="s">
+        <v>8451</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:3">
+      <c r="A3056" s="2" t="s">
+        <v>8455</v>
+      </c>
+      <c r="B3056" s="2" t="s">
+        <v>8400</v>
+      </c>
+      <c r="C3056" s="2" t="s">
+        <v>8465</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:3">
+      <c r="A3057" s="2" t="s">
+        <v>8456</v>
+      </c>
+      <c r="B3057" s="2" t="s">
+        <v>8457</v>
+      </c>
+      <c r="C3057" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:3">
+      <c r="A3058" s="2" t="s">
+        <v>8458</v>
+      </c>
+      <c r="B3058" s="2" t="s">
+        <v>8457</v>
+      </c>
+      <c r="C3058" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:3">
+      <c r="A3059" s="2" t="s">
+        <v>8459</v>
+      </c>
+      <c r="B3059" s="2" t="s">
+        <v>8457</v>
+      </c>
+      <c r="C3059" s="7" t="s">
+        <v>8462</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:3">
+      <c r="A3060" s="2" t="s">
+        <v>8460</v>
+      </c>
+      <c r="B3060" s="2" t="s">
+        <v>8457</v>
+      </c>
+      <c r="C3060" s="2" t="s">
+        <v>8463</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:3">
+      <c r="A3061" s="2" t="s">
+        <v>8461</v>
+      </c>
+      <c r="B3061" s="2" t="s">
+        <v>8457</v>
+      </c>
+      <c r="C3061" s="7" t="s">
+        <v>8464</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:3">
+      <c r="A3062" s="2" t="s">
+        <v>8402</v>
+      </c>
+      <c r="B3062" s="2" t="s">
+        <v>8401</v>
+      </c>
+      <c r="C3062" s="2" t="s">
+        <v>8467</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:3">
+      <c r="A3063" s="2" t="s">
+        <v>8403</v>
+      </c>
+      <c r="B3063" s="2" t="s">
+        <v>8405</v>
+      </c>
+      <c r="C3063" s="2" t="s">
+        <v>8404</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:3">
+      <c r="A3064" s="2" t="s">
+        <v>8406</v>
+      </c>
+      <c r="B3064" s="2" t="s">
+        <v>8405</v>
+      </c>
+      <c r="C3064" s="2" t="s">
+        <v>8407</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:3">
+      <c r="A3065" s="2" t="s">
+        <v>8408</v>
+      </c>
+      <c r="B3065" s="2" t="s">
+        <v>8468</v>
+      </c>
+      <c r="C3065" s="2" t="s">
+        <v>8409</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:3">
+      <c r="A3066" s="2" t="s">
+        <v>8410</v>
+      </c>
+      <c r="B3066" s="2" t="s">
+        <v>8469</v>
+      </c>
+      <c r="C3066" s="2" t="s">
+        <v>8411</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:3">
+      <c r="A3067" s="2" t="s">
+        <v>8412</v>
+      </c>
+      <c r="B3067" s="2" t="s">
+        <v>8470</v>
+      </c>
+      <c r="C3067" s="2" t="s">
+        <v>8476</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:3">
+      <c r="A3068" s="2" t="s">
+        <v>8471</v>
+      </c>
+      <c r="B3068" s="2" t="s">
+        <v>8471</v>
+      </c>
+      <c r="C3068" s="2" t="s">
+        <v>8477</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:3">
+      <c r="A3069" s="2" t="s">
+        <v>8473</v>
+      </c>
+      <c r="B3069" s="2" t="s">
+        <v>8472</v>
+      </c>
+      <c r="C3069" s="2" t="s">
+        <v>8478</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:3">
+      <c r="A3070" s="2" t="s">
+        <v>8475</v>
+      </c>
+      <c r="B3070" s="2" t="s">
+        <v>8474</v>
+      </c>
+      <c r="C3070" s="2" t="s">
+        <v>8479</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:3">
+      <c r="A3071" s="2" t="s">
+        <v>8413</v>
+      </c>
+      <c r="B3071" s="2" t="s">
+        <v>8481</v>
+      </c>
+      <c r="C3071" s="2" t="s">
+        <v>8480</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:3">
+      <c r="A3072" s="2" t="s">
+        <v>8414</v>
+      </c>
+      <c r="B3072" s="2" t="s">
+        <v>8482</v>
+      </c>
+      <c r="C3072" s="2" t="s">
+        <v>8499</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:3">
+      <c r="A3073" s="2" t="s">
+        <v>8415</v>
+      </c>
+      <c r="B3073" s="2" t="s">
+        <v>8483</v>
+      </c>
+      <c r="C3073" s="2" t="s">
+        <v>8491</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:3">
+      <c r="A3074" s="2" t="s">
+        <v>8416</v>
+      </c>
+      <c r="B3074" s="2" t="s">
+        <v>8483</v>
+      </c>
+      <c r="C3074" s="2" t="s">
+        <v>8498</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:3">
+      <c r="A3075" s="2" t="s">
+        <v>8417</v>
+      </c>
+      <c r="B3075" s="2" t="s">
+        <v>8484</v>
+      </c>
+      <c r="C3075" s="2" t="s">
+        <v>8418</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:3">
+      <c r="A3076" s="2" t="s">
+        <v>8419</v>
+      </c>
+      <c r="B3076" s="2" t="s">
+        <v>8485</v>
+      </c>
+      <c r="C3076" s="2" t="s">
+        <v>8420</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:3">
+      <c r="A3077" s="2" t="s">
+        <v>8421</v>
+      </c>
+      <c r="B3077" s="2" t="s">
+        <v>8486</v>
+      </c>
+      <c r="C3077" s="2" t="s">
+        <v>8492</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:3">
+      <c r="A3078" s="2" t="s">
+        <v>8422</v>
+      </c>
+      <c r="B3078" s="2" t="s">
+        <v>8487</v>
+      </c>
+      <c r="C3078" s="2" t="s">
+        <v>8493</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:3">
+      <c r="A3079" s="2" t="s">
+        <v>8423</v>
+      </c>
+      <c r="B3079" s="2" t="s">
+        <v>8487</v>
+      </c>
+      <c r="C3079" s="2" t="s">
+        <v>8494</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:3">
+      <c r="A3080" s="2" t="s">
+        <v>8424</v>
+      </c>
+      <c r="B3080" s="2" t="s">
+        <v>8488</v>
+      </c>
+      <c r="C3080" s="2" t="s">
+        <v>8495</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:3">
+      <c r="A3081" s="2" t="s">
+        <v>8425</v>
+      </c>
+      <c r="B3081" s="2" t="s">
+        <v>8489</v>
+      </c>
+      <c r="C3081" s="2" t="s">
+        <v>8496</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:3">
+      <c r="A3082" s="2" t="s">
+        <v>8426</v>
+      </c>
+      <c r="B3082" s="2" t="s">
+        <v>8490</v>
+      </c>
+      <c r="C3082" s="2" t="s">
+        <v>8497</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:3">
+      <c r="A3083" s="2" t="s">
+        <v>8427</v>
+      </c>
+      <c r="B3083" s="2" t="s">
+        <v>8500</v>
+      </c>
+      <c r="C3083" s="2" t="s">
+        <v>8502</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:3">
+      <c r="A3084" s="2" t="s">
+        <v>8428</v>
+      </c>
+      <c r="B3084" s="2" t="s">
+        <v>8501</v>
+      </c>
+      <c r="C3084" s="2" t="s">
+        <v>8503</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:3">
+      <c r="A3085" s="2" t="s">
+        <v>8429</v>
+      </c>
+      <c r="B3085" s="2" t="s">
+        <v>8505</v>
+      </c>
+      <c r="C3085" s="2" t="s">
+        <v>8504</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:3">
+      <c r="A3086" s="2" t="s">
+        <v>8430</v>
+      </c>
+      <c r="B3086" s="2" t="s">
+        <v>8506</v>
+      </c>
+      <c r="C3086" s="2" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:3">
+      <c r="A3087" s="2" t="s">
+        <v>8431</v>
+      </c>
+      <c r="B3087" s="2" t="s">
+        <v>8509</v>
+      </c>
+      <c r="C3087" s="2" t="s">
+        <v>8508</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:3">
+      <c r="A3088" s="2" t="s">
+        <v>8432</v>
+      </c>
+      <c r="B3088" s="2" t="s">
+        <v>8510</v>
+      </c>
+      <c r="C3088" s="2" t="s">
+        <v>8433</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:3">
+      <c r="A3089" s="2" t="s">
+        <v>8512</v>
+      </c>
+      <c r="B3089" s="2" t="s">
+        <v>8511</v>
+      </c>
+      <c r="C3089" s="2" t="s">
+        <v>8434</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:3">
+      <c r="A3090" s="2" t="s">
+        <v>8513</v>
+      </c>
+      <c r="B3090" s="2" t="s">
+        <v>8511</v>
+      </c>
+      <c r="C3090" s="2" t="s">
+        <v>8435</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:3">
+      <c r="A3091" s="2" t="s">
+        <v>8436</v>
+      </c>
+      <c r="B3091" s="2" t="s">
+        <v>8511</v>
+      </c>
+      <c r="C3091" s="2" t="s">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:3">
+      <c r="A3092" s="2" t="s">
+        <v>8437</v>
+      </c>
+      <c r="B3092" s="7" t="s">
+        <v>8515</v>
+      </c>
+      <c r="C3092" s="2" t="s">
+        <v>8438</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:3">
+      <c r="A3093" s="2" t="s">
+        <v>8517</v>
+      </c>
+      <c r="B3093" s="2" t="s">
+        <v>8518</v>
+      </c>
+      <c r="C3093" s="2" t="s">
+        <v>8516</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:3">
+      <c r="A3094" s="2" t="s">
+        <v>8439</v>
+      </c>
+      <c r="B3094" s="2" t="s">
+        <v>8439</v>
+      </c>
+      <c r="C3094" s="2" t="s">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:3">
+      <c r="A3095" s="2" t="s">
+        <v>8440</v>
+      </c>
+      <c r="B3095" s="2" t="s">
+        <v>8519</v>
+      </c>
+      <c r="C3095" s="2" t="s">
+        <v>8441</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:3">
+      <c r="A3096" s="2" t="s">
+        <v>8442</v>
+      </c>
+      <c r="B3096" s="2" t="s">
+        <v>8529</v>
+      </c>
+      <c r="C3096" s="2" t="s">
+        <v>8443</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:3">
+      <c r="A3097" s="2" t="s">
+        <v>8444</v>
+      </c>
+      <c r="B3097" s="2" t="s">
+        <v>8528</v>
+      </c>
+      <c r="C3097" s="7" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:3">
+      <c r="A3098" s="2" t="s">
+        <v>8445</v>
+      </c>
+      <c r="B3098" s="2" t="s">
+        <v>8527</v>
+      </c>
+      <c r="C3098" s="7" t="s">
+        <v>8522</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:3">
+      <c r="A3099" s="2" t="s">
+        <v>8446</v>
+      </c>
+      <c r="B3099" s="2" t="s">
+        <v>8526</v>
+      </c>
+      <c r="C3099" s="2" t="s">
+        <v>8521</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:3">
+      <c r="A3100" s="2" t="s">
+        <v>8447</v>
+      </c>
+      <c r="B3100" s="2" t="s">
+        <v>8525</v>
+      </c>
+      <c r="C3100" s="2" t="s">
+        <v>8524</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:3">
+      <c r="A3101" s="2" t="s">
+        <v>8530</v>
+      </c>
+      <c r="B3101" s="2" t="s">
+        <v>8531</v>
+      </c>
+      <c r="C3101" s="2" t="s">
+        <v>8532</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:3">
+      <c r="A3102" s="2" t="s">
+        <v>8533</v>
+      </c>
+      <c r="B3102" s="2" t="s">
+        <v>8534</v>
+      </c>
+      <c r="C3102" s="2" t="s">
+        <v>8535</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:3">
+      <c r="A3103" s="2" t="s">
+        <v>8536</v>
+      </c>
+      <c r="B3103" s="2" t="s">
+        <v>8537</v>
+      </c>
+      <c r="C3103" s="2" t="s">
+        <v>8718</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:3">
+      <c r="A3104" s="2" t="s">
+        <v>8538</v>
+      </c>
+      <c r="B3104" s="2" t="s">
+        <v>8539</v>
+      </c>
+      <c r="C3104" s="2" t="s">
+        <v>8719</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:3">
+      <c r="A3105" s="2" t="s">
+        <v>8540</v>
+      </c>
+      <c r="B3105" s="2" t="s">
+        <v>8541</v>
+      </c>
+      <c r="C3105" s="2" t="s">
+        <v>8727</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:3">
+      <c r="A3106" s="2" t="s">
+        <v>8542</v>
+      </c>
+      <c r="B3106" s="2" t="s">
+        <v>8543</v>
+      </c>
+      <c r="C3106" s="2" t="s">
+        <v>8728</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:3">
+      <c r="A3107" s="2" t="s">
+        <v>8544</v>
+      </c>
+      <c r="B3107" s="2" t="s">
+        <v>8545</v>
+      </c>
+      <c r="C3107" s="2" t="s">
+        <v>8720</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:3">
+      <c r="A3108" s="2" t="s">
+        <v>8546</v>
+      </c>
+      <c r="B3108" s="2" t="s">
+        <v>8547</v>
+      </c>
+      <c r="C3108" s="2" t="s">
+        <v>8729</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:3">
+      <c r="A3109" s="2" t="s">
+        <v>8548</v>
+      </c>
+      <c r="B3109" s="2" t="s">
+        <v>8550</v>
+      </c>
+      <c r="C3109" s="2" t="s">
+        <v>8749</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:3">
+      <c r="A3110" s="2" t="s">
+        <v>8549</v>
+      </c>
+      <c r="B3110" s="2" t="s">
+        <v>8550</v>
+      </c>
+      <c r="C3110" s="2" t="s">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:3">
+      <c r="A3111" s="2" t="s">
+        <v>8551</v>
+      </c>
+      <c r="B3111" s="2" t="s">
+        <v>8552</v>
+      </c>
+      <c r="C3111" s="2" t="s">
+        <v>8721</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:3">
+      <c r="A3112" s="2" t="s">
+        <v>8553</v>
+      </c>
+      <c r="B3112" s="2" t="s">
+        <v>8554</v>
+      </c>
+      <c r="C3112" s="2" t="s">
+        <v>8722</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:3">
+      <c r="A3113" s="2" t="s">
+        <v>8555</v>
+      </c>
+      <c r="B3113" s="2" t="s">
+        <v>8556</v>
+      </c>
+      <c r="C3113" s="2" t="s">
+        <v>8756</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:3">
+      <c r="A3114" s="2" t="s">
+        <v>8557</v>
+      </c>
+      <c r="B3114" s="2" t="s">
+        <v>8556</v>
+      </c>
+      <c r="C3114" s="2" t="s">
+        <v>8757</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:3">
+      <c r="A3115" s="2" t="s">
+        <v>8558</v>
+      </c>
+      <c r="B3115" s="2" t="s">
+        <v>8556</v>
+      </c>
+      <c r="C3115" s="2" t="s">
+        <v>8758</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:3">
+      <c r="A3116" s="2" t="s">
+        <v>8559</v>
+      </c>
+      <c r="B3116" s="2" t="s">
+        <v>8560</v>
+      </c>
+      <c r="C3116" s="2" t="s">
+        <v>8723</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:3">
+      <c r="A3117" s="2" t="s">
+        <v>8561</v>
+      </c>
+      <c r="B3117" s="2" t="s">
+        <v>8562</v>
+      </c>
+      <c r="C3117" s="2" t="s">
+        <v>8759</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:3">
+      <c r="A3118" s="2" t="s">
+        <v>8563</v>
+      </c>
+      <c r="B3118" s="2" t="s">
+        <v>8564</v>
+      </c>
+      <c r="C3118" s="2" t="s">
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:3">
+      <c r="A3119" s="2" t="s">
+        <v>8565</v>
+      </c>
+      <c r="B3119" s="2" t="s">
+        <v>8566</v>
+      </c>
+      <c r="C3119" s="2" t="s">
+        <v>8724</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:3">
+      <c r="A3120" s="2" t="s">
+        <v>8567</v>
+      </c>
+      <c r="B3120" s="2" t="s">
+        <v>8568</v>
+      </c>
+      <c r="C3120" s="2" t="s">
+        <v>8753</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:3">
+      <c r="A3121" s="2" t="s">
+        <v>8569</v>
+      </c>
+      <c r="B3121" s="2" t="s">
+        <v>8569</v>
+      </c>
+      <c r="C3121" s="2" t="s">
+        <v>8754</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:3">
+      <c r="A3122" s="2" t="s">
+        <v>8570</v>
+      </c>
+      <c r="B3122" s="2" t="s">
+        <v>8571</v>
+      </c>
+      <c r="C3122" s="2" t="s">
+        <v>8755</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:3">
+      <c r="A3123" s="2" t="s">
+        <v>8572</v>
+      </c>
+      <c r="B3123" s="2" t="s">
+        <v>8573</v>
+      </c>
+      <c r="C3123" s="2" t="s">
+        <v>8752</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:3">
+      <c r="A3124" s="2" t="s">
+        <v>8575</v>
+      </c>
+      <c r="B3124" s="2" t="s">
+        <v>8574</v>
+      </c>
+      <c r="C3124" s="2" t="s">
+        <v>8751</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:3">
+      <c r="A3125" s="2" t="s">
+        <v>8576</v>
+      </c>
+      <c r="B3125" s="2" t="s">
+        <v>8577</v>
+      </c>
+      <c r="C3125" s="2" t="s">
+        <v>8748</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:3">
+      <c r="A3126" s="2" t="s">
+        <v>8578</v>
+      </c>
+      <c r="B3126" s="2" t="s">
+        <v>8606</v>
+      </c>
+      <c r="C3126" s="2" t="s">
+        <v>8747</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:3">
+      <c r="A3127" s="2" t="s">
+        <v>8579</v>
+      </c>
+      <c r="B3127" s="2" t="s">
+        <v>8607</v>
+      </c>
+      <c r="C3127" s="2" t="s">
+        <v>8746</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:3">
+      <c r="A3128" s="2" t="s">
+        <v>8589</v>
+      </c>
+      <c r="B3128" s="2" t="s">
+        <v>8608</v>
+      </c>
+      <c r="C3128" s="2" t="s">
+        <v>8745</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:3">
+      <c r="A3129" s="2" t="s">
+        <v>8590</v>
+      </c>
+      <c r="B3129" s="2" t="s">
+        <v>8609</v>
+      </c>
+      <c r="C3129" s="2" t="s">
+        <v>8744</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:3">
+      <c r="A3130" s="2" t="s">
+        <v>8591</v>
+      </c>
+      <c r="B3130" s="2" t="s">
+        <v>8610</v>
+      </c>
+      <c r="C3130" s="2" t="s">
+        <v>8742</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:3">
+      <c r="A3131" s="2" t="s">
+        <v>8592</v>
+      </c>
+      <c r="B3131" s="2" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C3131" s="2" t="s">
+        <v>8741</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:3">
+      <c r="A3132" s="2" t="s">
+        <v>8580</v>
+      </c>
+      <c r="B3132" s="2" t="s">
+        <v>8612</v>
+      </c>
+      <c r="C3132" s="2" t="s">
+        <v>8743</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:3">
+      <c r="A3133" s="2" t="s">
+        <v>8581</v>
+      </c>
+      <c r="B3133" s="2" t="s">
+        <v>8630</v>
+      </c>
+      <c r="C3133" s="2" t="s">
+        <v>8725</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:3">
+      <c r="A3134" s="2" t="s">
+        <v>8600</v>
+      </c>
+      <c r="B3134" s="2" t="s">
+        <v>8631</v>
+      </c>
+      <c r="C3134" s="2" t="s">
+        <v>8761</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:3">
+      <c r="A3135" s="2" t="s">
+        <v>8717</v>
+      </c>
+      <c r="B3135" s="2" t="s">
+        <v>8613</v>
+      </c>
+      <c r="C3135" s="2" t="s">
+        <v>8762</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:3">
+      <c r="A3136" s="2" t="s">
+        <v>8601</v>
+      </c>
+      <c r="B3136" s="2" t="s">
+        <v>8614</v>
+      </c>
+      <c r="C3136" s="2" t="s">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:3">
+      <c r="A3137" s="2" t="s">
+        <v>8593</v>
+      </c>
+      <c r="B3137" s="2" t="s">
+        <v>8615</v>
+      </c>
+      <c r="C3137" s="2" t="s">
+        <v>8726</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:3">
+      <c r="A3138" s="2" t="s">
+        <v>8602</v>
+      </c>
+      <c r="B3138" s="2" t="s">
+        <v>8616</v>
+      </c>
+      <c r="C3138" s="2" t="s">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:3">
+      <c r="A3139" s="2" t="s">
+        <v>8582</v>
+      </c>
+      <c r="B3139" s="2" t="s">
+        <v>8617</v>
+      </c>
+      <c r="C3139" s="2" t="s">
+        <v>8739</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:3">
+      <c r="A3140" s="2" t="s">
+        <v>8593</v>
+      </c>
+      <c r="B3140" s="2" t="s">
+        <v>8593</v>
+      </c>
+      <c r="C3140" s="2" t="s">
+        <v>8737</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:3">
+      <c r="A3141" s="2" t="s">
+        <v>8594</v>
+      </c>
+      <c r="B3141" s="2" t="s">
+        <v>8618</v>
+      </c>
+      <c r="C3141" s="2" t="s">
+        <v>8734</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:3">
+      <c r="A3142" s="2" t="s">
+        <v>8595</v>
+      </c>
+      <c r="B3142" s="2" t="s">
+        <v>8619</v>
+      </c>
+      <c r="C3142" s="2" t="s">
+        <v>8735</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:3">
+      <c r="A3143" s="2" t="s">
+        <v>8605</v>
+      </c>
+      <c r="B3143" s="2" t="s">
+        <v>8605</v>
+      </c>
+      <c r="C3143" s="2" t="s">
+        <v>8736</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:3">
+      <c r="A3144" s="2" t="s">
+        <v>8603</v>
+      </c>
+      <c r="B3144" s="2" t="s">
+        <v>8620</v>
+      </c>
+      <c r="C3144" s="2" t="s">
+        <v>8738</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:3">
+      <c r="A3145" s="2" t="s">
+        <v>8596</v>
+      </c>
+      <c r="B3145" s="2" t="s">
+        <v>8629</v>
+      </c>
+      <c r="C3145" s="2" t="s">
+        <v>8733</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:3">
+      <c r="A3146" s="2" t="s">
+        <v>8583</v>
+      </c>
+      <c r="B3146" s="2" t="s">
+        <v>8621</v>
+      </c>
+      <c r="C3146" s="2" t="s">
+        <v>8732</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:3">
+      <c r="A3147" s="2" t="s">
+        <v>8584</v>
+      </c>
+      <c r="B3147" s="2" t="s">
+        <v>8622</v>
+      </c>
+      <c r="C3147" s="2" t="s">
+        <v>8731</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:3">
+      <c r="A3148" s="2" t="s">
+        <v>8597</v>
+      </c>
+      <c r="B3148" s="2" t="s">
+        <v>8623</v>
+      </c>
+      <c r="C3148" s="2" t="s">
+        <v>8730</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:3">
+      <c r="A3149" s="2" t="s">
+        <v>8598</v>
+      </c>
+      <c r="B3149" s="2" t="s">
+        <v>8598</v>
+      </c>
+      <c r="C3149" s="2" t="s">
+        <v>8763</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:3">
+      <c r="A3150" s="2" t="s">
+        <v>8599</v>
+      </c>
+      <c r="B3150" s="2" t="s">
+        <v>8599</v>
+      </c>
+      <c r="C3150" s="2" t="s">
+        <v>8811</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:3">
+      <c r="A3151" s="2" t="s">
+        <v>8585</v>
+      </c>
+      <c r="B3151" s="2" t="s">
+        <v>8628</v>
+      </c>
+      <c r="C3151" s="2" t="s">
+        <v>8764</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:3">
+      <c r="A3152" s="2" t="s">
+        <v>8586</v>
+      </c>
+      <c r="B3152" s="2" t="s">
+        <v>8624</v>
+      </c>
+      <c r="C3152" s="2" t="s">
+        <v>8765</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:3">
+      <c r="A3153" s="2" t="s">
+        <v>8587</v>
+      </c>
+      <c r="B3153" s="2" t="s">
+        <v>8625</v>
+      </c>
+      <c r="C3153" s="2" t="s">
+        <v>8766</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:3">
+      <c r="A3154" s="2" t="s">
+        <v>8588</v>
+      </c>
+      <c r="B3154" s="2" t="s">
+        <v>8626</v>
+      </c>
+      <c r="C3154" s="2" t="s">
+        <v>8767</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:3">
+      <c r="A3155" s="2" t="s">
+        <v>8604</v>
+      </c>
+      <c r="B3155" s="2" t="s">
+        <v>8627</v>
+      </c>
+      <c r="C3155" s="2" t="s">
+        <v>8768</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:3">
+      <c r="A3156" s="7" t="s">
+        <v>8692</v>
+      </c>
+      <c r="B3156" s="2" t="s">
+        <v>8692</v>
+      </c>
+      <c r="C3156" s="2" t="s">
+        <v>8769</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:3">
+      <c r="A3157" s="2" t="s">
+        <v>8709</v>
+      </c>
+      <c r="B3157" s="2" t="s">
+        <v>8632</v>
+      </c>
+      <c r="C3157" s="2" t="s">
+        <v>8770</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:3">
+      <c r="A3158" s="2" t="s">
+        <v>8710</v>
+      </c>
+      <c r="B3158" s="2" t="s">
+        <v>8633</v>
+      </c>
+      <c r="C3158" s="2" t="s">
+        <v>8771</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:3">
+      <c r="A3159" s="2" t="s">
+        <v>8711</v>
+      </c>
+      <c r="B3159" s="2" t="s">
+        <v>8634</v>
+      </c>
+      <c r="C3159" s="2" t="s">
+        <v>8772</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:3">
+      <c r="A3160" s="2" t="s">
+        <v>8712</v>
+      </c>
+      <c r="B3160" s="2" t="s">
+        <v>8635</v>
+      </c>
+      <c r="C3160" s="2" t="s">
+        <v>8773</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:3">
+      <c r="A3161" s="2" t="s">
+        <v>8713</v>
+      </c>
+      <c r="B3161" s="2" t="s">
+        <v>8636</v>
+      </c>
+      <c r="C3161" s="2" t="s">
+        <v>8774</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:3">
+      <c r="A3162" s="2" t="s">
+        <v>8714</v>
+      </c>
+      <c r="B3162" s="2" t="s">
+        <v>8637</v>
+      </c>
+      <c r="C3162" s="2" t="s">
+        <v>8775</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:3">
+      <c r="A3163" s="2" t="s">
+        <v>8715</v>
+      </c>
+      <c r="B3163" s="2" t="s">
+        <v>8638</v>
+      </c>
+      <c r="C3163" s="2" t="s">
+        <v>8776</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:3">
+      <c r="A3164" s="2" t="s">
+        <v>8639</v>
+      </c>
+      <c r="B3164" s="2" t="s">
+        <v>8640</v>
+      </c>
+      <c r="C3164" s="2" t="s">
+        <v>8777</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:3">
+      <c r="A3165" s="2" t="s">
+        <v>8641</v>
+      </c>
+      <c r="B3165" s="2" t="s">
+        <v>8642</v>
+      </c>
+      <c r="C3165" s="2" t="s">
+        <v>8778</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:3">
+      <c r="A3166" s="2" t="s">
+        <v>8643</v>
+      </c>
+      <c r="B3166" s="2" t="s">
+        <v>8644</v>
+      </c>
+      <c r="C3166" s="2" t="s">
+        <v>8779</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:3">
+      <c r="A3167" s="2" t="s">
+        <v>8645</v>
+      </c>
+      <c r="B3167" s="2" t="s">
+        <v>8646</v>
+      </c>
+      <c r="C3167" s="2" t="s">
+        <v>8780</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:3">
+      <c r="A3168" s="2" t="s">
+        <v>8647</v>
+      </c>
+      <c r="B3168" s="2" t="s">
+        <v>8648</v>
+      </c>
+      <c r="C3168" s="2" t="s">
+        <v>8781</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:3">
+      <c r="A3169" s="2" t="s">
+        <v>8716</v>
+      </c>
+      <c r="B3169" s="2" t="s">
+        <v>8649</v>
+      </c>
+      <c r="C3169" s="2" t="s">
+        <v>8782</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:3">
+      <c r="A3170" s="2" t="s">
+        <v>8650</v>
+      </c>
+      <c r="B3170" s="2" t="s">
+        <v>8650</v>
+      </c>
+      <c r="C3170" s="2" t="s">
+        <v>8783</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:3">
+      <c r="A3171" s="2" t="s">
+        <v>8651</v>
+      </c>
+      <c r="B3171" s="2" t="s">
+        <v>8652</v>
+      </c>
+      <c r="C3171" s="2" t="s">
+        <v>8784</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:3">
+      <c r="A3172" s="2" t="s">
+        <v>8653</v>
+      </c>
+      <c r="B3172" s="2" t="s">
+        <v>8654</v>
+      </c>
+      <c r="C3172" s="2" t="s">
+        <v>8785</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:3">
+      <c r="A3173" s="2" t="s">
+        <v>8693</v>
+      </c>
+      <c r="B3173" s="2" t="s">
+        <v>8655</v>
+      </c>
+      <c r="C3173" s="2" t="s">
+        <v>8786</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:3">
+      <c r="A3174" s="2" t="s">
+        <v>8656</v>
+      </c>
+      <c r="B3174" s="2" t="s">
+        <v>8657</v>
+      </c>
+      <c r="C3174" s="2" t="s">
+        <v>8787</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:3">
+      <c r="A3175" s="2" t="s">
+        <v>8658</v>
+      </c>
+      <c r="B3175" s="2" t="s">
+        <v>8659</v>
+      </c>
+      <c r="C3175" s="2" t="s">
+        <v>8788</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:3">
+      <c r="A3176" s="2" t="s">
+        <v>8660</v>
+      </c>
+      <c r="B3176" s="2" t="s">
+        <v>8661</v>
+      </c>
+      <c r="C3176" s="2" t="s">
+        <v>8789</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:3">
+      <c r="A3177" s="2" t="s">
+        <v>8662</v>
+      </c>
+      <c r="B3177" s="2" t="s">
+        <v>8662</v>
+      </c>
+      <c r="C3177" s="2" t="s">
+        <v>8790</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:3">
+      <c r="A3178" s="2" t="s">
+        <v>8663</v>
+      </c>
+      <c r="B3178" s="2" t="s">
+        <v>8664</v>
+      </c>
+      <c r="C3178" s="2" t="s">
+        <v>8791</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:3">
+      <c r="A3179" s="2" t="s">
+        <v>8665</v>
+      </c>
+      <c r="B3179" s="2" t="s">
+        <v>8666</v>
+      </c>
+      <c r="C3179" s="2" t="s">
+        <v>8792</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:3">
+      <c r="A3180" s="2" t="s">
+        <v>8667</v>
+      </c>
+      <c r="B3180" s="2" t="s">
+        <v>8668</v>
+      </c>
+      <c r="C3180" s="2" t="s">
+        <v>8793</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:3">
+      <c r="A3181" s="2" t="s">
+        <v>8694</v>
+      </c>
+      <c r="B3181" s="2" t="s">
+        <v>8669</v>
+      </c>
+      <c r="C3181" s="2" t="s">
+        <v>8794</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:3">
+      <c r="A3182" s="2" t="s">
+        <v>8670</v>
+      </c>
+      <c r="B3182" s="2" t="s">
+        <v>8671</v>
+      </c>
+      <c r="C3182" s="2" t="s">
+        <v>8795</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:3">
+      <c r="A3183" s="2" t="s">
+        <v>8672</v>
+      </c>
+      <c r="B3183" s="2" t="s">
+        <v>8673</v>
+      </c>
+      <c r="C3183" s="2" t="s">
+        <v>8796</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:3">
+      <c r="A3184" s="7" t="s">
+        <v>8696</v>
+      </c>
+      <c r="B3184" s="2" t="s">
+        <v>8695</v>
+      </c>
+      <c r="C3184" s="2" t="s">
+        <v>8797</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:3">
+      <c r="A3185" s="2" t="s">
+        <v>8674</v>
+      </c>
+      <c r="B3185" s="2" t="s">
+        <v>8675</v>
+      </c>
+      <c r="C3185" s="2" t="s">
+        <v>8798</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:3">
+      <c r="A3186" s="2" t="s">
+        <v>8676</v>
+      </c>
+      <c r="B3186" s="2" t="s">
+        <v>8677</v>
+      </c>
+      <c r="C3186" s="2" t="s">
+        <v>8799</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:3">
+      <c r="A3187" s="2" t="s">
+        <v>8678</v>
+      </c>
+      <c r="B3187" s="2" t="s">
+        <v>8679</v>
+      </c>
+      <c r="C3187" s="2" t="s">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:3">
+      <c r="A3188" s="2" t="s">
+        <v>8680</v>
+      </c>
+      <c r="B3188" s="2" t="s">
+        <v>8681</v>
+      </c>
+      <c r="C3188" s="2" t="s">
+        <v>8801</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:3">
+      <c r="A3189" s="2" t="s">
+        <v>8697</v>
+      </c>
+      <c r="B3189" s="2" t="s">
+        <v>8682</v>
+      </c>
+      <c r="C3189" s="2" t="s">
+        <v>8802</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:3">
+      <c r="A3190" s="2" t="s">
+        <v>8698</v>
+      </c>
+      <c r="B3190" s="2" t="s">
+        <v>8683</v>
+      </c>
+      <c r="C3190" s="2" t="s">
+        <v>8803</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:3">
+      <c r="A3191" s="2" t="s">
+        <v>8698</v>
+      </c>
+      <c r="B3191" s="2" t="s">
+        <v>8684</v>
+      </c>
+      <c r="C3191" s="2" t="s">
+        <v>8804</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:3">
+      <c r="A3192" s="2" t="s">
+        <v>8699</v>
+      </c>
+      <c r="B3192" s="2" t="s">
+        <v>8685</v>
+      </c>
+      <c r="C3192" s="2" t="s">
+        <v>8503</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:3">
+      <c r="A3193" s="2" t="s">
+        <v>8699</v>
+      </c>
+      <c r="B3193" s="2" t="s">
+        <v>8686</v>
+      </c>
+      <c r="C3193" s="2" t="s">
+        <v>8805</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:3">
+      <c r="A3194" s="2" t="s">
+        <v>8700</v>
+      </c>
+      <c r="B3194" s="2" t="s">
+        <v>8687</v>
+      </c>
+      <c r="C3194" s="2" t="s">
+        <v>8806</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:3">
+      <c r="A3195" s="2" t="s">
+        <v>8701</v>
+      </c>
+      <c r="B3195" s="2" t="s">
+        <v>8688</v>
+      </c>
+      <c r="C3195" s="2" t="s">
+        <v>8807</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:3">
+      <c r="A3196" s="2" t="s">
+        <v>8703</v>
+      </c>
+      <c r="B3196" s="2" t="s">
+        <v>8689</v>
+      </c>
+      <c r="C3196" s="2" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:3">
+      <c r="A3197" s="7" t="s">
+        <v>8702</v>
+      </c>
+      <c r="B3197" s="2" t="s">
+        <v>8690</v>
+      </c>
+      <c r="C3197" s="2" t="s">
+        <v>8808</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:3">
+      <c r="A3198" s="2" t="s">
+        <v>8704</v>
+      </c>
+      <c r="B3198" s="2" t="s">
+        <v>8705</v>
+      </c>
+      <c r="C3198" s="2" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:3">
+      <c r="A3199" s="2" t="s">
+        <v>8706</v>
+      </c>
+      <c r="B3199" s="2" t="s">
+        <v>8691</v>
+      </c>
+      <c r="C3199" s="2" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:3">
+      <c r="A3200" s="7" t="s">
+        <v>8707</v>
+      </c>
+      <c r="B3200" s="2" t="s">
+        <v>8708</v>
+      </c>
+      <c r="C3200" s="2" t="s">
+        <v>8810</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:1">
+      <c r="A3201" s="6"/>
+    </row>
+    <row r="3202" spans="1:1">
+      <c r="A3202" s="6"/>
+    </row>
+    <row r="3203" spans="1:1">
+      <c r="A3203" s="6"/>
+    </row>
+    <row r="3204" spans="1:1">
+      <c r="A3204" s="6"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C1802">
     <sortCondition ref="B1:B1802"/>

--- a/日本語/1_語彙.xlsx
+++ b/日本語/1_語彙.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeshafteure/Documents/GitHub/Freshmore/日本語/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A28E9C-0D6D-BE45-BB80-1611C2760DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E3B3B8-068A-9142-AC95-240BC3548FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12000" uniqueCount="11041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13200" uniqueCount="12176">
   <si>
     <t>亜〜</t>
   </si>
@@ -44352,12 +44352,3948 @@
   <si>
     <t>Grades, Results</t>
   </si>
+  <si>
+    <t>整然</t>
+    <rPh sb="0" eb="2">
+      <t>セイゼ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清掃</t>
+    <rPh sb="0" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盛装</t>
+    <rPh sb="0" eb="2">
+      <t>🤵‍♂️</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製造</t>
+    <rPh sb="0" eb="2">
+      <t>セイゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生存</t>
+    <rPh sb="0" eb="2">
+      <t>セイゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盛大</t>
+    <rPh sb="0" eb="2">
+      <t>セイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清濁</t>
+    <rPh sb="0" eb="2">
+      <t>セイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>贅沢</t>
+    <rPh sb="0" eb="2">
+      <t>ゼイタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成長</t>
+    <rPh sb="0" eb="2">
+      <t>セイチョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制定</t>
+    <rPh sb="0" eb="2">
+      <t>セイテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静的</t>
+    <rPh sb="0" eb="2">
+      <t>セイテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製鉄</t>
+    <rPh sb="0" eb="2">
+      <t>セイテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>晴天</t>
+    <rPh sb="0" eb="2">
+      <t>セイテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生徒</t>
+    <rPh sb="0" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制度</t>
+    <rPh sb="0" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>政党</t>
+    <rPh sb="0" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正当</t>
+    <rPh sb="0" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青年</t>
+    <rPh sb="0" eb="2">
+      <t>セイネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成年</t>
+    <rPh sb="0" eb="2">
+      <t>セイネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生年月日</t>
+    <rPh sb="0" eb="4">
+      <t>セイネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性能</t>
+    <rPh sb="0" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整備</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>政府</t>
+    <rPh sb="0" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制服</t>
+    <rPh sb="0" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>征服</t>
+    <rPh sb="0" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生物</t>
+    <rPh sb="0" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成分</t>
+    <rPh sb="0" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製法</t>
+    <rPh sb="0" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正方形</t>
+    <rPh sb="0" eb="3">
+      <t>セイホウケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精密</t>
+    <rPh sb="0" eb="2">
+      <t>セイミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>税務署</t>
+    <rPh sb="0" eb="3">
+      <t>ゼイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>声明</t>
+  </si>
+  <si>
+    <t>正門</t>
+  </si>
+  <si>
+    <t>制約</t>
+  </si>
+  <si>
+    <t>西洋</t>
+  </si>
+  <si>
+    <t>整理</t>
+  </si>
+  <si>
+    <t>勢力</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>整列</t>
+  </si>
+  <si>
+    <t>生理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成立</t>
+  </si>
+  <si>
+    <t>セーター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背負う</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>急かす</t>
+  </si>
+  <si>
+    <t>倅</t>
+  </si>
+  <si>
+    <t>席</t>
+  </si>
+  <si>
+    <t>～隻</t>
+  </si>
+  <si>
+    <t>咳</t>
+  </si>
+  <si>
+    <t>石炭</t>
+  </si>
+  <si>
+    <t>赤道</t>
+  </si>
+  <si>
+    <t>責任</t>
+  </si>
+  <si>
+    <t>責務</t>
+  </si>
+  <si>
+    <t>石油</t>
+  </si>
+  <si>
+    <t>セクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>是正</t>
+  </si>
+  <si>
+    <t>世帯</t>
+  </si>
+  <si>
+    <t>世代</t>
+  </si>
+  <si>
+    <t>説</t>
+  </si>
+  <si>
+    <t>節</t>
+  </si>
+  <si>
+    <t>切開</t>
+  </si>
+  <si>
+    <t>折角</t>
+  </si>
+  <si>
+    <t>積極的</t>
+  </si>
+  <si>
+    <t>接近</t>
+  </si>
+  <si>
+    <t>世間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世辞</t>
+  </si>
+  <si>
+    <t>セックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計</t>
+  </si>
+  <si>
+    <t>石鹸</t>
+  </si>
+  <si>
+    <t>切実</t>
+  </si>
+  <si>
+    <t>接触</t>
+  </si>
+  <si>
+    <t>接する</t>
+  </si>
+  <si>
+    <t>せっせと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続</t>
+  </si>
+  <si>
+    <t>接統詞</t>
+  </si>
+  <si>
+    <t>絶対（に）</t>
+  </si>
+  <si>
+    <t>設置</t>
+  </si>
+  <si>
+    <t>折衷</t>
+  </si>
+  <si>
+    <t>設定</t>
+  </si>
+  <si>
+    <t>セット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説得</t>
+  </si>
+  <si>
+    <t>切ない</t>
+  </si>
+  <si>
+    <t>絶版</t>
+  </si>
+  <si>
+    <t>設備</t>
+  </si>
+  <si>
+    <t>絶望</t>
+  </si>
+  <si>
+    <t>説明（する）</t>
+  </si>
+  <si>
+    <t>節約</t>
+  </si>
+  <si>
+    <t>股立</t>
+  </si>
+  <si>
+    <t>瀬戸物</t>
+  </si>
+  <si>
+    <t>背広</t>
+  </si>
+  <si>
+    <t>是非とも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>是非</t>
+  </si>
+  <si>
+    <t>絶滅</t>
+    <rPh sb="0" eb="2">
+      <t>ゼツメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>狭い</t>
+  </si>
+  <si>
+    <t>迫る</t>
+  </si>
+  <si>
+    <t>ゼミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻め</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せめて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>責める/攻める</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セメント</t>
+  </si>
+  <si>
+    <t>ゼリー</t>
+  </si>
+  <si>
+    <t>台詞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セレモニー</t>
+  </si>
+  <si>
+    <t>ゼロ</t>
+  </si>
+  <si>
+    <t>世論</t>
+  </si>
+  <si>
+    <t>世話</t>
+  </si>
+  <si>
+    <t>世話（する）</t>
+  </si>
+  <si>
+    <t>線</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">セン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜戦</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">セン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～船</t>
+  </si>
+  <si>
+    <t>栓</t>
+  </si>
+  <si>
+    <t>先</t>
+    <rPh sb="0" eb="1">
+      <t>センセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜前</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ゼン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>善</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ゼン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前〜</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ゼン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全〜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>膳</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>禅</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ゼン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">セン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繊維</t>
+    <rPh sb="0" eb="2">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全快</t>
+  </si>
+  <si>
+    <t>先月</t>
+  </si>
+  <si>
+    <t>前後</t>
+  </si>
+  <si>
+    <t>専攻</t>
+  </si>
+  <si>
+    <t>先行</t>
+  </si>
+  <si>
+    <t>全国</t>
+  </si>
+  <si>
+    <t>選手</t>
+  </si>
+  <si>
+    <t>全集</t>
+  </si>
+  <si>
+    <t>前進</t>
+  </si>
+  <si>
+    <t>全身</t>
+  </si>
+  <si>
+    <t>扇子</t>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選挙</t>
+    <rPh sb="0" eb="2">
+      <t>センキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宣教</t>
+    <rPh sb="0" eb="2">
+      <t>センキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宣言</t>
+    <rPh sb="0" eb="2">
+      <t>センゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選考</t>
+    <rPh sb="0" eb="2">
+      <t>センコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦災</t>
+    <rPh sb="0" eb="2">
+      <t>センサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前者</t>
+  </si>
+  <si>
+    <t>先週</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>專修</t>
+  </si>
+  <si>
+    <t>洗剤</t>
+    <rPh sb="0" eb="2">
+      <t>センザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦術</t>
+    <rPh sb="0" eb="2">
+      <t>センジュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>センス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>潜水</t>
+  </si>
+  <si>
+    <t>先生</t>
+  </si>
+  <si>
+    <t>専制</t>
+  </si>
+  <si>
+    <t>全盛</t>
+  </si>
+  <si>
+    <t>全然</t>
+  </si>
+  <si>
+    <t>先々月</t>
+  </si>
+  <si>
+    <t>先々週</t>
+  </si>
+  <si>
+    <t>先祖</t>
+  </si>
+  <si>
+    <t>戦争（する）</t>
+  </si>
+  <si>
+    <t>センター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先代</t>
+  </si>
+  <si>
+    <t>全体</t>
+  </si>
+  <si>
+    <t>選択</t>
+  </si>
+  <si>
+    <t>洗濯（する）</t>
+  </si>
+  <si>
+    <t>先だって</t>
+  </si>
+  <si>
+    <t>先端</t>
+  </si>
+  <si>
+    <t>センチ（メートル）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先着</t>
+  </si>
+  <si>
+    <t>前提</t>
+  </si>
+  <si>
+    <t>宣伝</t>
+  </si>
+  <si>
+    <t>先天的</t>
+  </si>
+  <si>
+    <t>前途</t>
+  </si>
+  <si>
+    <t>先頭</t>
+  </si>
+  <si>
+    <t>潜入</t>
+  </si>
+  <si>
+    <t>先輩</t>
+  </si>
+  <si>
+    <t>船舶</t>
+  </si>
+  <si>
+    <t>前半</t>
+  </si>
+  <si>
+    <t>扇風機</t>
+  </si>
+  <si>
+    <t>全滅</t>
+  </si>
+  <si>
+    <t>洗面</t>
+  </si>
+  <si>
+    <t>専門</t>
+  </si>
+  <si>
+    <t>専用</t>
+  </si>
+  <si>
+    <t>占領</t>
+  </si>
+  <si>
+    <t>善良</t>
+  </si>
+  <si>
+    <t>戦力</t>
+  </si>
+  <si>
+    <t>全力</t>
+  </si>
+  <si>
+    <t>前例</t>
+  </si>
+  <si>
+    <t>線路</t>
+  </si>
+  <si>
+    <t>～沿い</t>
+  </si>
+  <si>
+    <t>戦闘</t>
+    <rPh sb="0" eb="2">
+      <t>♨️</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全般</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～艘</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沿う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総～</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ソウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>僧</t>
+  </si>
+  <si>
+    <t>相</t>
+  </si>
+  <si>
+    <t>象</t>
+    <rPh sb="0" eb="1">
+      <t>🐘</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>像</t>
+    <rPh sb="0" eb="1">
+      <t>🐘</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相違</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ソウイウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そういえば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総会</t>
+  </si>
+  <si>
+    <t>創刊</t>
+  </si>
+  <si>
+    <t>雑木</t>
+  </si>
+  <si>
+    <t>増強</t>
+  </si>
+  <si>
+    <t>送金</t>
+  </si>
+  <si>
+    <t>雑巾</t>
+  </si>
+  <si>
+    <t>増減</t>
+  </si>
+  <si>
+    <t>倉庫</t>
+  </si>
+  <si>
+    <t>総合</t>
+  </si>
+  <si>
+    <t>相応</t>
+    <rPh sb="0" eb="2">
+      <t>ソウオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>騒音</t>
+    <rPh sb="0" eb="2">
+      <t>ソウオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>増加</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行</t>
+  </si>
+  <si>
+    <t>相互</t>
+    <rPh sb="0" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ソウサ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捜査</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>創作</t>
+  </si>
+  <si>
+    <t>捜索</t>
+  </si>
+  <si>
+    <t>葬式</t>
+  </si>
+  <si>
+    <t>掃除（する）</t>
+  </si>
+  <si>
+    <t>喪失</t>
+  </si>
+  <si>
+    <t>藏相</t>
+  </si>
+  <si>
+    <t>装飾</t>
+  </si>
+  <si>
+    <t>造船</t>
+  </si>
+  <si>
+    <t>想像</t>
+  </si>
+  <si>
+    <t>創造</t>
+  </si>
+  <si>
+    <t>騒々しい</t>
+  </si>
+  <si>
+    <t>相対</t>
+  </si>
+  <si>
+    <t>壮大</t>
+  </si>
+  <si>
+    <t>相談（する）</t>
+  </si>
+  <si>
+    <t>装置</t>
+  </si>
+  <si>
+    <t>操縦</t>
+    <rPh sb="0" eb="2">
+      <t>ソウジュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>増進</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相続</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>増大</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうっと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相当</t>
+  </si>
+  <si>
+    <t>騒動</t>
+  </si>
+  <si>
+    <t>遭難</t>
+  </si>
+  <si>
+    <t>相場</t>
+  </si>
+  <si>
+    <t>装備</t>
+  </si>
+  <si>
+    <t>送別</t>
+  </si>
+  <si>
+    <t>草履</t>
+  </si>
+  <si>
+    <t>総理大臣</t>
+  </si>
+  <si>
+    <t>創立</t>
+  </si>
+  <si>
+    <t>送料</t>
+  </si>
+  <si>
+    <t>添える</t>
+  </si>
+  <si>
+    <t>ソース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～足</t>
+  </si>
+  <si>
+    <t>即座に</t>
+  </si>
+  <si>
+    <t>促進</t>
+  </si>
+  <si>
+    <t>即する</t>
+  </si>
+  <si>
+    <t>属す(る)</t>
+    <rPh sb="0" eb="1">
+      <t>ゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統々</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速達</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東縛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>側面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>底</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そこで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>損(な)う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そこら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阻止</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組織</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素質</t>
+    <rPh sb="0" eb="2">
+      <t>ソシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そして／そうして</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>訴訟</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祖先</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注ぐ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そそっかしい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>育ち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>育つ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>育てる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>措置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そちら／そっち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卒業（する）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そっくり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そっけない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>率直</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そっと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外方</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>袖</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備［え］付ける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備える／具える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備わる/具わる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その上</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのうち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのころ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのため</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのほか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのまま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祖父</t>
+  </si>
+  <si>
+    <t>蕎麦</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ソバ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聳える</t>
+    <rPh sb="0" eb="1">
+      <t>ソビエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソファー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祖母</t>
+  </si>
+  <si>
+    <t>素朴</t>
+  </si>
+  <si>
+    <t>粗末</t>
+  </si>
+  <si>
+    <t>染まる</t>
+  </si>
+  <si>
+    <t>背く</t>
+  </si>
+  <si>
+    <t>染める</t>
+  </si>
+  <si>
+    <t>外らす</t>
+  </si>
+  <si>
+    <t>そり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剃る</t>
+  </si>
+  <si>
+    <t>反る</t>
+  </si>
+  <si>
+    <t>それ</t>
+  </si>
+  <si>
+    <t>それに</t>
+  </si>
+  <si>
+    <t>それから</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それぞれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それでは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それでも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それとも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それなのに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それなら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それはいけませんね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それほど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それゆえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逸れる</t>
+  </si>
+  <si>
+    <t>ソロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>揃い</t>
+  </si>
+  <si>
+    <t>揃う</t>
+  </si>
+  <si>
+    <t>揃える</t>
+  </si>
+  <si>
+    <t>そろそろ</t>
+  </si>
+  <si>
+    <t>算盤</t>
+  </si>
+  <si>
+    <t>損</t>
+  </si>
+  <si>
+    <t>損害</t>
+  </si>
+  <si>
+    <t>尊敬</t>
+  </si>
+  <si>
+    <t>存在</t>
+  </si>
+  <si>
+    <t>ぞんざい</t>
+  </si>
+  <si>
+    <t>損失</t>
+  </si>
+  <si>
+    <t>存じる／する</t>
+  </si>
+  <si>
+    <t>存続</t>
+  </si>
+  <si>
+    <t>尊重</t>
+  </si>
+  <si>
+    <t>損得</t>
+  </si>
+  <si>
+    <t>そんな（に）</t>
+  </si>
+  <si>
+    <t>他</t>
+  </si>
+  <si>
+    <t>田／田んぼ</t>
+  </si>
+  <si>
+    <t>ダース</t>
+  </si>
+  <si>
+    <t>タイ</t>
+  </si>
+  <si>
+    <t>対</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">タイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隊</t>
+    <rPh sb="0" eb="1">
+      <t>🇹🇭</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜帯</t>
+    <rPh sb="1" eb="2">
+      <t>🇹🇭</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜台</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜代</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>題</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第〜</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ダイイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体育</t>
+    <rPh sb="0" eb="2">
+      <t>タイイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ダイイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退院</t>
+    <rPh sb="0" eb="2">
+      <t>タイイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応</t>
+    <rPh sb="0" eb="2">
+      <t>タイオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体温</t>
+    <rPh sb="0" eb="2">
+      <t>タイオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大家</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タイカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退化</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タイカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大会</t>
+    <rPh sb="0" eb="2">
+      <t>タイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大概</t>
+    <rPh sb="0" eb="2">
+      <t>タイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体格</t>
+    <rPh sb="0" eb="2">
+      <t>タイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退学</t>
+    <rPh sb="0" eb="2">
+      <t>タイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学</t>
+    <rPh sb="0" eb="2">
+      <t>ダイガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学院</t>
+    <rPh sb="0" eb="3">
+      <t>ダイガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学生</t>
+    <rPh sb="0" eb="3">
+      <t>ダイガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大気</t>
+    <rPh sb="0" eb="2">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大金</t>
+    <rPh sb="0" eb="2">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代金</t>
+    <rPh sb="0" eb="2">
+      <t>ダイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大工</t>
+    <rPh sb="0" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待遇</t>
+    <rPh sb="0" eb="2">
+      <t>タイグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退屈</t>
+    <rPh sb="0" eb="2">
+      <t>タイク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体系</t>
+    <rPh sb="0" eb="2">
+      <t>タイケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対決</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体験</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太鼓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対抗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滞在</t>
+    <rPh sb="0" eb="2">
+      <t>タイザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対策</t>
+    <rPh sb="0" eb="2">
+      <t>タイサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大使</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タイシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退治</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タイジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大事</t>
+    <rPh sb="0" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大使館</t>
+    <rPh sb="0" eb="3">
+      <t>タイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大した</t>
+    <rPh sb="0" eb="1">
+      <t>タイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大して</t>
+    <rPh sb="0" eb="1">
+      <t>タイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大衆</t>
+    <rPh sb="0" eb="2">
+      <t>タイシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <rPh sb="0" eb="2">
+      <t>タイジュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対処</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タイショ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せいぜん</t>
+  </si>
+  <si>
+    <t>Orderly, Systematic</t>
+  </si>
+  <si>
+    <t>せいそう</t>
+  </si>
+  <si>
+    <t>Cleaning</t>
+  </si>
+  <si>
+    <t>Formal Attire, Dressing Up</t>
+  </si>
+  <si>
+    <t>せいぞう</t>
+  </si>
+  <si>
+    <t>Manufacturing, Production</t>
+  </si>
+  <si>
+    <t>せいぞん</t>
+  </si>
+  <si>
+    <t>Survival</t>
+  </si>
+  <si>
+    <t>せいだい</t>
+  </si>
+  <si>
+    <t>Grand, Magnificent</t>
+  </si>
+  <si>
+    <t>せいだく</t>
+  </si>
+  <si>
+    <t>Purity and Impurity</t>
+  </si>
+  <si>
+    <t>ぜいたく</t>
+  </si>
+  <si>
+    <t>Luxury, Extravagance</t>
+  </si>
+  <si>
+    <t>せいちょう</t>
+  </si>
+  <si>
+    <t>せいてい</t>
+  </si>
+  <si>
+    <t>Enactment, Establishment</t>
+  </si>
+  <si>
+    <t>せいてき</t>
+  </si>
+  <si>
+    <t>Static, Unchanging</t>
+  </si>
+  <si>
+    <t>せいてつ</t>
+  </si>
+  <si>
+    <t>Iron and Steel Manufacturing</t>
+  </si>
+  <si>
+    <t>せいてん</t>
+  </si>
+  <si>
+    <t>Clear Sky, Fine Weather</t>
+  </si>
+  <si>
+    <t>せいと</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>せいど</t>
+  </si>
+  <si>
+    <t>System, Institution</t>
+  </si>
+  <si>
+    <t>せいとう</t>
+  </si>
+  <si>
+    <t>Political Party</t>
+  </si>
+  <si>
+    <t>Legitimate, Just</t>
+  </si>
+  <si>
+    <t>せいねん</t>
+  </si>
+  <si>
+    <t>Youth, Young Man</t>
+  </si>
+  <si>
+    <t>Adulthood</t>
+  </si>
+  <si>
+    <t>せいねんがっぴ</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>せいのう</t>
+  </si>
+  <si>
+    <t>Performance, Efficiency</t>
+  </si>
+  <si>
+    <t>せいび</t>
+  </si>
+  <si>
+    <t>Maintenance, Servicing</t>
+  </si>
+  <si>
+    <t>せいひん</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>せいふ</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>せいふく</t>
+  </si>
+  <si>
+    <t>Uniform</t>
+  </si>
+  <si>
+    <t>Conquest, Subjugation</t>
+  </si>
+  <si>
+    <t>せいぶつ</t>
+  </si>
+  <si>
+    <t>Living Being, Organism</t>
+  </si>
+  <si>
+    <t>せいぶん</t>
+  </si>
+  <si>
+    <t>Component, Ingredient</t>
+  </si>
+  <si>
+    <t>せいべつ</t>
+  </si>
+  <si>
+    <t>Gender, Sex</t>
+  </si>
+  <si>
+    <t>せいほう</t>
+  </si>
+  <si>
+    <t>Manufacturing Method</t>
+  </si>
+  <si>
+    <t>せいほうけい</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>せいみつ</t>
+  </si>
+  <si>
+    <t>Precision, Detailed</t>
+  </si>
+  <si>
+    <t>ぜいむしょ</t>
+  </si>
+  <si>
+    <t>Tax Office</t>
+  </si>
+  <si>
+    <t>せいめい</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Declaration, Statement</t>
+  </si>
+  <si>
+    <t>せいもん</t>
+  </si>
+  <si>
+    <t>Main Gate</t>
+  </si>
+  <si>
+    <t>せいやく</t>
+  </si>
+  <si>
+    <t>Restriction, Limitation</t>
+  </si>
+  <si>
+    <t>せいよう</t>
+  </si>
+  <si>
+    <t>Western World, Occident</t>
+  </si>
+  <si>
+    <t>せいり</t>
+  </si>
+  <si>
+    <t>Organization, Tidying Up</t>
+  </si>
+  <si>
+    <t>Physiology, Menstruation</t>
+  </si>
+  <si>
+    <t>せいりつ</t>
+  </si>
+  <si>
+    <t>Formation, Establishment</t>
+  </si>
+  <si>
+    <t>せいりょく</t>
+  </si>
+  <si>
+    <t>Power, Influence</t>
+  </si>
+  <si>
+    <t>せいれき</t>
+  </si>
+  <si>
+    <t>Western Calendar, Anno Domini</t>
+  </si>
+  <si>
+    <t>せいれつ</t>
+  </si>
+  <si>
+    <t>Alignment, Lineup</t>
+  </si>
+  <si>
+    <t>セーター</t>
+  </si>
+  <si>
+    <t>Sweater</t>
+  </si>
+  <si>
+    <t>セール</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>せおう</t>
+  </si>
+  <si>
+    <t>To Carry on One’s Back</t>
+  </si>
+  <si>
+    <t>せかい</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>せかす</t>
+  </si>
+  <si>
+    <t>To Urge, To Hasten</t>
+  </si>
+  <si>
+    <t>せがれ</t>
+  </si>
+  <si>
+    <t>Son (informal)</t>
+  </si>
+  <si>
+    <t>せき</t>
+  </si>
+  <si>
+    <t>Seat</t>
+  </si>
+  <si>
+    <t>～せき</t>
+  </si>
+  <si>
+    <t>Counter for Ships</t>
+  </si>
+  <si>
+    <t>Cough</t>
+  </si>
+  <si>
+    <t>せきたん</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>せきどう</t>
+  </si>
+  <si>
+    <t>Equator</t>
+  </si>
+  <si>
+    <t>せきにん</t>
+  </si>
+  <si>
+    <t>Responsibility</t>
+  </si>
+  <si>
+    <t>せきむ</t>
+  </si>
+  <si>
+    <t>Duty, Obligation</t>
+  </si>
+  <si>
+    <t>せきゆ</t>
+  </si>
+  <si>
+    <t>Petroleum, Oil</t>
+  </si>
+  <si>
+    <t>セクション</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>せけん</t>
+  </si>
+  <si>
+    <t>Society, World</t>
+  </si>
+  <si>
+    <t>せじ</t>
+  </si>
+  <si>
+    <t>Flattery</t>
+  </si>
+  <si>
+    <t>ぜせい</t>
+  </si>
+  <si>
+    <t>Correction, Rectification</t>
+  </si>
+  <si>
+    <t>せたい</t>
+  </si>
+  <si>
+    <t>せだい</t>
+  </si>
+  <si>
+    <t>Generation</t>
+  </si>
+  <si>
+    <t>せつ</t>
+  </si>
+  <si>
+    <t>Theory, Explanation</t>
+  </si>
+  <si>
+    <t>Joint, Section, Clause</t>
+  </si>
+  <si>
+    <t>せっかい</t>
+  </si>
+  <si>
+    <t>Incision, Surgical Opening</t>
+  </si>
+  <si>
+    <t>せっかく</t>
+  </si>
+  <si>
+    <t>With Great Effort, Rare Opportunity</t>
+  </si>
+  <si>
+    <t>せっきょくてき</t>
+  </si>
+  <si>
+    <t>Positive, Proactive</t>
+  </si>
+  <si>
+    <t>せっきん</t>
+  </si>
+  <si>
+    <t>Approach, Proximity</t>
+  </si>
+  <si>
+    <t>セックス</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>せっけい</t>
+  </si>
+  <si>
+    <t>Design, Plan</t>
+  </si>
+  <si>
+    <t>せっけん</t>
+  </si>
+  <si>
+    <t>Soap</t>
+  </si>
+  <si>
+    <t>せつじつ</t>
+  </si>
+  <si>
+    <t>Earnest, Pressing</t>
+  </si>
+  <si>
+    <t>せっしょく</t>
+  </si>
+  <si>
+    <t>Contact, Touch</t>
+  </si>
+  <si>
+    <t>せっする</t>
+  </si>
+  <si>
+    <t>To Touch, To Border On</t>
+  </si>
+  <si>
+    <t>せっせと</t>
+  </si>
+  <si>
+    <t>Diligently, Industriously</t>
+  </si>
+  <si>
+    <t>せつぞく</t>
+  </si>
+  <si>
+    <t>Connection, Linking</t>
+  </si>
+  <si>
+    <t>せつぞくし</t>
+  </si>
+  <si>
+    <t>Conjunction (grammar)</t>
+  </si>
+  <si>
+    <t>ぜったい（に）</t>
+  </si>
+  <si>
+    <t>Absolutely, Definitely</t>
+  </si>
+  <si>
+    <t>せっち</t>
+  </si>
+  <si>
+    <t>Installation, Establishment</t>
+  </si>
+  <si>
+    <t>せっちゅう</t>
+  </si>
+  <si>
+    <t>Compromise, Blending</t>
+  </si>
+  <si>
+    <t>せってい</t>
+  </si>
+  <si>
+    <t>Setting, Configuration</t>
+  </si>
+  <si>
+    <t>セット</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>せっとく</t>
+  </si>
+  <si>
+    <t>Persuasion</t>
+  </si>
+  <si>
+    <t>せつない</t>
+  </si>
+  <si>
+    <t>Painful, Heartbreaking</t>
+  </si>
+  <si>
+    <t>ぜっぱん</t>
+  </si>
+  <si>
+    <t>Out of Print</t>
+  </si>
+  <si>
+    <t>せつび</t>
+  </si>
+  <si>
+    <t>Equipment, Facilities</t>
+  </si>
+  <si>
+    <t>ぜつぼう</t>
+  </si>
+  <si>
+    <t>Despair, Hopelessness</t>
+  </si>
+  <si>
+    <t>せつめい（する）</t>
+  </si>
+  <si>
+    <t>Explanation (To Explain)</t>
+  </si>
+  <si>
+    <t>ぜつめつ</t>
+  </si>
+  <si>
+    <t>Extinction</t>
+  </si>
+  <si>
+    <t>せつやく</t>
+  </si>
+  <si>
+    <t>Economizing, Saving</t>
+  </si>
+  <si>
+    <t>せったい</t>
+  </si>
+  <si>
+    <t>Stance, Spread Legs</t>
+  </si>
+  <si>
+    <t>せともの</t>
+  </si>
+  <si>
+    <t>Earthenware, Ceramics</t>
+  </si>
+  <si>
+    <t>せなか</t>
+  </si>
+  <si>
+    <t>Back (of the Body)</t>
+  </si>
+  <si>
+    <t>ぜひ</t>
+  </si>
+  <si>
+    <t>By All Means, Certainly</t>
+  </si>
+  <si>
+    <t>ぜひとも</t>
+  </si>
+  <si>
+    <t>At Any Cost, Without Fail</t>
+  </si>
+  <si>
+    <t>せびろ</t>
+  </si>
+  <si>
+    <t>Business Suit</t>
+  </si>
+  <si>
+    <t>せまい</t>
+  </si>
+  <si>
+    <t>Narrow, Small</t>
+  </si>
+  <si>
+    <t>せまる</t>
+  </si>
+  <si>
+    <t>To Approach, To Press</t>
+  </si>
+  <si>
+    <t>ゼミ</t>
+  </si>
+  <si>
+    <t>Seminar</t>
+  </si>
+  <si>
+    <t>せめ</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>せめて</t>
+  </si>
+  <si>
+    <t>At Least, At Most</t>
+  </si>
+  <si>
+    <t>せめる</t>
+  </si>
+  <si>
+    <t>To Blame, To Attack</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Jelly</t>
+  </si>
+  <si>
+    <t>せりふ</t>
+  </si>
+  <si>
+    <t>Dialogue, Lines (of a Play)</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>せろん／よろん</t>
+  </si>
+  <si>
+    <t>Public Opinion</t>
+  </si>
+  <si>
+    <t>せわ</t>
+  </si>
+  <si>
+    <t>Care, Help</t>
+  </si>
+  <si>
+    <t>せわ（する）</t>
+  </si>
+  <si>
+    <t>To Take Care Of, To Assist</t>
+  </si>
+  <si>
+    <t>せん</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>〜せん</t>
+  </si>
+  <si>
+    <t>Battle, Competition</t>
+  </si>
+  <si>
+    <t>～せん</t>
+  </si>
+  <si>
+    <t>Ship, Vessel</t>
+  </si>
+  <si>
+    <t>Plug, Cork</t>
+  </si>
+  <si>
+    <t>さき</t>
+  </si>
+  <si>
+    <t>Ahead, Previous</t>
+  </si>
+  <si>
+    <t>〜まえ</t>
+  </si>
+  <si>
+    <t>Before, In Front Of</t>
+  </si>
+  <si>
+    <t>ぜん</t>
+  </si>
+  <si>
+    <t>Goodness, Virtue</t>
+  </si>
+  <si>
+    <t>まえ〜</t>
+  </si>
+  <si>
+    <t>Previous~, Former~</t>
+  </si>
+  <si>
+    <t>ぜん〜</t>
+  </si>
+  <si>
+    <t>Entire~, Whole~</t>
+  </si>
+  <si>
+    <t>Meal Tray, Tableware</t>
+  </si>
+  <si>
+    <t>Zen Buddhism</t>
+  </si>
+  <si>
+    <t>Thousand</t>
+  </si>
+  <si>
+    <t>せんい</t>
+  </si>
+  <si>
+    <t>Fiber</t>
+  </si>
+  <si>
+    <t>ぜんいん</t>
+  </si>
+  <si>
+    <t>All Members</t>
+  </si>
+  <si>
+    <t>ぜんかい</t>
+  </si>
+  <si>
+    <t>Complete Recovery</t>
+  </si>
+  <si>
+    <t>せんきょ</t>
+  </si>
+  <si>
+    <t>Election</t>
+  </si>
+  <si>
+    <t>せんきょう</t>
+  </si>
+  <si>
+    <t>Missionary Work, Preaching</t>
+  </si>
+  <si>
+    <t>せんげつ</t>
+  </si>
+  <si>
+    <t>Last Month</t>
+  </si>
+  <si>
+    <t>せんげん</t>
+  </si>
+  <si>
+    <t>Declaration, Proclamation</t>
+  </si>
+  <si>
+    <t>ぜんご</t>
+  </si>
+  <si>
+    <t>Around, Before and After</t>
+  </si>
+  <si>
+    <t>せんこう</t>
+  </si>
+  <si>
+    <t>Major (in Study), Specialization</t>
+  </si>
+  <si>
+    <t>Preceding, Going Ahead</t>
+  </si>
+  <si>
+    <t>Selection, Screening</t>
+  </si>
+  <si>
+    <t>ぜんこく</t>
+  </si>
+  <si>
+    <t>Nationwide, Whole Country</t>
+  </si>
+  <si>
+    <t>せんさい</t>
+  </si>
+  <si>
+    <t>War Damage</t>
+  </si>
+  <si>
+    <t>せんざい</t>
+  </si>
+  <si>
+    <t>Detergent</t>
+  </si>
+  <si>
+    <t>せんじつ</t>
+  </si>
+  <si>
+    <t>The Other Day, Recently</t>
+  </si>
+  <si>
+    <t>ぜんしゃ</t>
+  </si>
+  <si>
+    <t>The Former</t>
+  </si>
+  <si>
+    <t>せんしゅ</t>
+  </si>
+  <si>
+    <t>Player, Athlete</t>
+  </si>
+  <si>
+    <t>せんしゅう</t>
+  </si>
+  <si>
+    <t>Last Week</t>
+  </si>
+  <si>
+    <t>Specialization</t>
+  </si>
+  <si>
+    <t>ぜんしゅう</t>
+  </si>
+  <si>
+    <t>Complete Works</t>
+  </si>
+  <si>
+    <t>せんじゅつ</t>
+  </si>
+  <si>
+    <t>Tactics, Strategy</t>
+  </si>
+  <si>
+    <t>ぜんしん</t>
+  </si>
+  <si>
+    <t>Advance, Progress</t>
+  </si>
+  <si>
+    <t>Whole Body</t>
+  </si>
+  <si>
+    <t>せんす</t>
+  </si>
+  <si>
+    <t>Folding Fan</t>
+  </si>
+  <si>
+    <t>センス</t>
+  </si>
+  <si>
+    <t>Sense, Taste</t>
+  </si>
+  <si>
+    <t>せんすい</t>
+  </si>
+  <si>
+    <t>Diving, Submersion</t>
+  </si>
+  <si>
+    <t>せんせい</t>
+  </si>
+  <si>
+    <t>Teacher, Master</t>
+  </si>
+  <si>
+    <t>Despotism, Autocracy</t>
+  </si>
+  <si>
+    <t>ぜんせい</t>
+  </si>
+  <si>
+    <t>Height of Prosperity</t>
+  </si>
+  <si>
+    <t>ぜんぜん</t>
+  </si>
+  <si>
+    <t>Not at All (when Negative)</t>
+  </si>
+  <si>
+    <t>せんせんげつ</t>
+  </si>
+  <si>
+    <t>Month Before Last</t>
+  </si>
+  <si>
+    <t>せんせんしゅう</t>
+  </si>
+  <si>
+    <t>Week Before Last</t>
+  </si>
+  <si>
+    <t>せんぞ</t>
+  </si>
+  <si>
+    <t>Ancestor</t>
+  </si>
+  <si>
+    <t>せんそう（する）</t>
+  </si>
+  <si>
+    <t>War (To Wage War)</t>
+  </si>
+  <si>
+    <t>センター</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>せんだい</t>
+  </si>
+  <si>
+    <t>Previous Generation, Predecessor</t>
+  </si>
+  <si>
+    <t>ぜんたい</t>
+  </si>
+  <si>
+    <t>Whole, Entirety</t>
+  </si>
+  <si>
+    <t>せんたく</t>
+  </si>
+  <si>
+    <t>Selection, Choice</t>
+  </si>
+  <si>
+    <t>せんたく（する）</t>
+  </si>
+  <si>
+    <t>Laundry (To Wash Clothes)</t>
+  </si>
+  <si>
+    <t>せんだって</t>
+  </si>
+  <si>
+    <t>The Other Day, Previously</t>
+  </si>
+  <si>
+    <t>せんたん</t>
+  </si>
+  <si>
+    <t>Pointed End, Cutting Edge</t>
+  </si>
+  <si>
+    <t>センチ（メートル）</t>
+  </si>
+  <si>
+    <t>Centimeter</t>
+  </si>
+  <si>
+    <t>せんちゃく</t>
+  </si>
+  <si>
+    <t>First Arrival</t>
+  </si>
+  <si>
+    <t>ぜんてい</t>
+  </si>
+  <si>
+    <t>Premise, Assumption</t>
+  </si>
+  <si>
+    <t>せんでん</t>
+  </si>
+  <si>
+    <t>Advertising, Publicity</t>
+  </si>
+  <si>
+    <t>せんてんてき</t>
+  </si>
+  <si>
+    <t>Innate, Inborn</t>
+  </si>
+  <si>
+    <t>ぜんと</t>
+  </si>
+  <si>
+    <t>Future, Prospect</t>
+  </si>
+  <si>
+    <t>せんとう</t>
+  </si>
+  <si>
+    <t>Lead, Front</t>
+  </si>
+  <si>
+    <t>Battle, Combat</t>
+  </si>
+  <si>
+    <t>せんにゅう</t>
+  </si>
+  <si>
+    <t>Infiltration</t>
+  </si>
+  <si>
+    <t>せんぱい</t>
+  </si>
+  <si>
+    <t>Senior (at Work/School)</t>
+  </si>
+  <si>
+    <t>せんぱく</t>
+  </si>
+  <si>
+    <t>ぜんはん</t>
+  </si>
+  <si>
+    <t>First Half</t>
+  </si>
+  <si>
+    <t>ぜんぱん</t>
+  </si>
+  <si>
+    <t>General, Overall</t>
+  </si>
+  <si>
+    <t>ぜんぶ</t>
+  </si>
+  <si>
+    <t>All, Everything</t>
+  </si>
+  <si>
+    <t>せんぷうき</t>
+  </si>
+  <si>
+    <t>Electric Fan</t>
+  </si>
+  <si>
+    <t>ぜんめつ</t>
+  </si>
+  <si>
+    <t>Annihilation, Total Destruction</t>
+  </si>
+  <si>
+    <t>せんめん</t>
+  </si>
+  <si>
+    <t>Washing One’s Face</t>
+  </si>
+  <si>
+    <t>せんもん</t>
+  </si>
+  <si>
+    <t>Specialty, Expertise</t>
+  </si>
+  <si>
+    <t>せんよう</t>
+  </si>
+  <si>
+    <t>Exclusive Use</t>
+  </si>
+  <si>
+    <t>せんりょう</t>
+  </si>
+  <si>
+    <t>Occupation, Capture</t>
+  </si>
+  <si>
+    <t>ぜんりょう</t>
+  </si>
+  <si>
+    <t>せんりょく</t>
+  </si>
+  <si>
+    <t>War Potential, Military Strength</t>
+  </si>
+  <si>
+    <t>ぜんりょく</t>
+  </si>
+  <si>
+    <t>All One’s Strength</t>
+  </si>
+  <si>
+    <t>ぜんれい</t>
+  </si>
+  <si>
+    <t>Precedent</t>
+  </si>
+  <si>
+    <t>せんろ</t>
+  </si>
+  <si>
+    <t>Railway Track</t>
+  </si>
+  <si>
+    <t>～ぞい</t>
+  </si>
+  <si>
+    <t>Along~, Beside~</t>
+  </si>
+  <si>
+    <t>そう</t>
+  </si>
+  <si>
+    <t>Yes, So, Agreed</t>
+  </si>
+  <si>
+    <t>～そう</t>
+  </si>
+  <si>
+    <t>To Follow, To Go Along</t>
+  </si>
+  <si>
+    <t>そう～</t>
+  </si>
+  <si>
+    <t>Total~, General~</t>
+  </si>
+  <si>
+    <t>Monk</t>
+  </si>
+  <si>
+    <t>Appearance, Aspect</t>
+  </si>
+  <si>
+    <t>Like, just like (grammar)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぞう</t>
+  </si>
+  <si>
+    <t>Elephant</t>
+  </si>
+  <si>
+    <t>Statue, Image</t>
+  </si>
+  <si>
+    <t>そうい</t>
+  </si>
+  <si>
+    <t>Difference, Discrepancy</t>
+  </si>
+  <si>
+    <t>そういえば</t>
+  </si>
+  <si>
+    <t>Speaking of Which, Now That You Mention It</t>
+  </si>
+  <si>
+    <t>そうおう</t>
+  </si>
+  <si>
+    <t>Suitable, Appropriate</t>
+  </si>
+  <si>
+    <t>そうおん</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>ぞうか</t>
+  </si>
+  <si>
+    <t>Increase, Growth</t>
+  </si>
+  <si>
+    <t>そうかい</t>
+  </si>
+  <si>
+    <t>General Meeting</t>
+  </si>
+  <si>
+    <t>そうかん</t>
+  </si>
+  <si>
+    <t>Launch, First Publication</t>
+  </si>
+  <si>
+    <t>ぞうき</t>
+  </si>
+  <si>
+    <t>Various Trees</t>
+  </si>
+  <si>
+    <t>ぞうきょう</t>
+  </si>
+  <si>
+    <t>Reinforcement, Strengthening</t>
+  </si>
+  <si>
+    <t>そうきん</t>
+  </si>
+  <si>
+    <t>Sending Money, Remittance</t>
+  </si>
+  <si>
+    <t>ぞうきん</t>
+  </si>
+  <si>
+    <t>Dust Cloth</t>
+  </si>
+  <si>
+    <t>ぞうげん</t>
+  </si>
+  <si>
+    <t>Increase and Decrease</t>
+  </si>
+  <si>
+    <t>そうこ</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>そうご</t>
+  </si>
+  <si>
+    <t>Mutual, Reciprocal</t>
+  </si>
+  <si>
+    <t>そうこう</t>
+  </si>
+  <si>
+    <t>Driving, Running</t>
+  </si>
+  <si>
+    <t>そうごう</t>
+  </si>
+  <si>
+    <t>Synthesis, Integration</t>
+  </si>
+  <si>
+    <t>そうさ</t>
+  </si>
+  <si>
+    <t>Operation, Handling</t>
+  </si>
+  <si>
+    <t>そうさく</t>
+  </si>
+  <si>
+    <t>Creation, Production</t>
+  </si>
+  <si>
+    <t>Search (e.g., for a Missing Person)</t>
+  </si>
+  <si>
+    <t>そうしき</t>
+  </si>
+  <si>
+    <t>Funeral</t>
+  </si>
+  <si>
+    <t>そうじ（する）</t>
+  </si>
+  <si>
+    <t>Cleaning (To Clean)</t>
+  </si>
+  <si>
+    <t>そうしつ</t>
+  </si>
+  <si>
+    <t>Loss, Forfeiture</t>
+  </si>
+  <si>
+    <t>そうじゅう</t>
+  </si>
+  <si>
+    <t>Operation, Control</t>
+  </si>
+  <si>
+    <t>ぞうしょう</t>
+  </si>
+  <si>
+    <t>Minister of Finance</t>
+  </si>
+  <si>
+    <t>そうしょく</t>
+  </si>
+  <si>
+    <t>Decoration</t>
+  </si>
+  <si>
+    <t>ぞうしん</t>
+  </si>
+  <si>
+    <t>Promotion, Enhancement</t>
+  </si>
+  <si>
+    <t>ぞうせん</t>
+  </si>
+  <si>
+    <t>Shipbuilding</t>
+  </si>
+  <si>
+    <t>そうぞう</t>
+  </si>
+  <si>
+    <t>Imagination</t>
+  </si>
+  <si>
+    <t>Creation, Innovation</t>
+  </si>
+  <si>
+    <t>そうぞうしい</t>
+  </si>
+  <si>
+    <t>Noisy, Boisterous</t>
+  </si>
+  <si>
+    <t>そうぞく</t>
+  </si>
+  <si>
+    <t>Inheritance, Succession</t>
+  </si>
+  <si>
+    <t>そうたい</t>
+  </si>
+  <si>
+    <t>Relative, Opposite</t>
+  </si>
+  <si>
+    <t>そうだい</t>
+  </si>
+  <si>
+    <t>Magnificent, Grand</t>
+  </si>
+  <si>
+    <t>ぞうだい</t>
+  </si>
+  <si>
+    <t>Enlargement, Expansion</t>
+  </si>
+  <si>
+    <t>そうだん（する）</t>
+  </si>
+  <si>
+    <t>Consultation (To Consult)</t>
+  </si>
+  <si>
+    <t>そうち</t>
+  </si>
+  <si>
+    <t>Equipment, Device</t>
+  </si>
+  <si>
+    <t>そうっと</t>
+  </si>
+  <si>
+    <t>Gently, Quietly</t>
+  </si>
+  <si>
+    <t>そうとう</t>
+  </si>
+  <si>
+    <t>Corresponding To, Worthy Of</t>
+  </si>
+  <si>
+    <t>そうどう</t>
+  </si>
+  <si>
+    <t>Disturbance, Uproar</t>
+  </si>
+  <si>
+    <t>そうなん</t>
+  </si>
+  <si>
+    <t>Disaster, Distress</t>
+  </si>
+  <si>
+    <t>そうば</t>
+  </si>
+  <si>
+    <t>Market Price, Speculation</t>
+  </si>
+  <si>
+    <t>そうび</t>
+  </si>
+  <si>
+    <t>Equipment, Gear</t>
+  </si>
+  <si>
+    <t>そうべつ</t>
+  </si>
+  <si>
+    <t>Farewell</t>
+  </si>
+  <si>
+    <t>ぞうり</t>
+  </si>
+  <si>
+    <t>Japanese Sandals</t>
+  </si>
+  <si>
+    <t>そうりだいじん</t>
+  </si>
+  <si>
+    <t>そうりつ</t>
+  </si>
+  <si>
+    <t>Establishment, Foundation</t>
+  </si>
+  <si>
+    <t>そうりょう</t>
+  </si>
+  <si>
+    <t>Postage, Shipping Fee</t>
+  </si>
+  <si>
+    <t>そえる</t>
+  </si>
+  <si>
+    <t>To Add, To Attach</t>
+  </si>
+  <si>
+    <t>ソース</t>
+  </si>
+  <si>
+    <t>Sauce, Source</t>
+  </si>
+  <si>
+    <t>～そく</t>
+  </si>
+  <si>
+    <t>Counter for Pairs of Footwear</t>
+  </si>
+  <si>
+    <t>そくざに</t>
+  </si>
+  <si>
+    <t>Immediately, Instantly</t>
+  </si>
+  <si>
+    <t>そくしん</t>
+  </si>
+  <si>
+    <t>Promotion, Acceleration</t>
+  </si>
+  <si>
+    <t>そくする</t>
+  </si>
+  <si>
+    <t>To Conform To, To Be Based On</t>
+  </si>
+  <si>
+    <t>ぞくする</t>
+  </si>
+  <si>
+    <t>To Belong To, To Be Affiliated With</t>
+  </si>
+  <si>
+    <t>ぞくぞく</t>
+  </si>
+  <si>
+    <t>Successively, One After Another</t>
+  </si>
+  <si>
+    <t>そくたつ</t>
+  </si>
+  <si>
+    <t>Express Delivery</t>
+  </si>
+  <si>
+    <t>そくてい</t>
+  </si>
+  <si>
+    <t>Measurement</t>
+  </si>
+  <si>
+    <t>そくど</t>
+  </si>
+  <si>
+    <t>そくばく</t>
+  </si>
+  <si>
+    <t>Restriction, Restraint</t>
+  </si>
+  <si>
+    <t>そくめん</t>
+  </si>
+  <si>
+    <t>Side, Aspect</t>
+  </si>
+  <si>
+    <t>そくりょう</t>
+  </si>
+  <si>
+    <t>Surveying, Measurement</t>
+  </si>
+  <si>
+    <t>そくりょく</t>
+  </si>
+  <si>
+    <t>そこ</t>
+  </si>
+  <si>
+    <t>There, Bottom</t>
+  </si>
+  <si>
+    <t>Bottom, Sole</t>
+  </si>
+  <si>
+    <t>そこで</t>
+  </si>
+  <si>
+    <t>So, Therefore</t>
+  </si>
+  <si>
+    <t>そこなう</t>
+  </si>
+  <si>
+    <t>To Harm, To Damage</t>
+  </si>
+  <si>
+    <t>そこら</t>
+  </si>
+  <si>
+    <t>Around There, About That</t>
+  </si>
+  <si>
+    <t>そざい</t>
+  </si>
+  <si>
+    <t>Material, Raw Material</t>
+  </si>
+  <si>
+    <t>そし</t>
+  </si>
+  <si>
+    <t>Obstruction, Hindrance</t>
+  </si>
+  <si>
+    <t>そしき</t>
+  </si>
+  <si>
+    <t>Organization, Structure</t>
+  </si>
+  <si>
+    <t>そしつ</t>
+  </si>
+  <si>
+    <t>Aptitude, Talent</t>
+  </si>
+  <si>
+    <t>そして／そうして</t>
+  </si>
+  <si>
+    <t>And Then, Thus</t>
+  </si>
+  <si>
+    <t>そしょう</t>
+  </si>
+  <si>
+    <t>Lawsuit</t>
+  </si>
+  <si>
+    <t>そせん</t>
+  </si>
+  <si>
+    <t>そそぐ</t>
+  </si>
+  <si>
+    <t>To Pour, To Sprinkle</t>
+  </si>
+  <si>
+    <t>そそっかしい</t>
+  </si>
+  <si>
+    <t>Careless, Scatterbrained</t>
+  </si>
+  <si>
+    <t>そだち</t>
+  </si>
+  <si>
+    <t>Growth, Upbringing</t>
+  </si>
+  <si>
+    <t>そだつ</t>
+  </si>
+  <si>
+    <t>To Grow, To Be Raised</t>
+  </si>
+  <si>
+    <t>そだてる</t>
+  </si>
+  <si>
+    <t>To Raise, To Bring Up</t>
+  </si>
+  <si>
+    <t>そち</t>
+  </si>
+  <si>
+    <t>Measure, Step</t>
+  </si>
+  <si>
+    <t>そちら／そっち</t>
+  </si>
+  <si>
+    <t>Over There, That Way</t>
+  </si>
+  <si>
+    <t>そつぎょう（する）</t>
+  </si>
+  <si>
+    <t>Graduation (To Graduate)</t>
+  </si>
+  <si>
+    <t>ソックス</t>
+  </si>
+  <si>
+    <t>Socks</t>
+  </si>
+  <si>
+    <t>そっくり</t>
+  </si>
+  <si>
+    <t>Entirely, Just Like</t>
+  </si>
+  <si>
+    <t>そっけない</t>
+  </si>
+  <si>
+    <t>Cold, Blunt</t>
+  </si>
+  <si>
+    <t>そっちょく</t>
+  </si>
+  <si>
+    <t>Frankness, Candor</t>
+  </si>
+  <si>
+    <t>そっと</t>
+  </si>
+  <si>
+    <t>Softly, Quietly</t>
+  </si>
+  <si>
+    <t>そっぽ</t>
+  </si>
+  <si>
+    <t>Looking Away, Turning Aside</t>
+  </si>
+  <si>
+    <t>そで</t>
+  </si>
+  <si>
+    <t>Sleeve</t>
+  </si>
+  <si>
+    <t>そと</t>
+  </si>
+  <si>
+    <t>Outside</t>
+  </si>
+  <si>
+    <t>そなえつける</t>
+  </si>
+  <si>
+    <t>To Provide, To Equip</t>
+  </si>
+  <si>
+    <t>そなえる</t>
+  </si>
+  <si>
+    <t>To Prepare, To Equip</t>
+  </si>
+  <si>
+    <t>そなわる</t>
+  </si>
+  <si>
+    <t>To Be Furnished With, To Be Equipped</t>
+  </si>
+  <si>
+    <t>その</t>
+  </si>
+  <si>
+    <t>That</t>
+  </si>
+  <si>
+    <t>そのうえ</t>
+  </si>
+  <si>
+    <t>Moreover, On Top of That</t>
+  </si>
+  <si>
+    <t>そのうち</t>
+  </si>
+  <si>
+    <t>Soon, Before Long</t>
+  </si>
+  <si>
+    <t>そのころ</t>
+  </si>
+  <si>
+    <t>Around That Time</t>
+  </si>
+  <si>
+    <t>そのため</t>
+  </si>
+  <si>
+    <t>For That Reason, Therefore</t>
+  </si>
+  <si>
+    <t>そのほか</t>
+  </si>
+  <si>
+    <t>Besides, Other Than That</t>
+  </si>
+  <si>
+    <t>そのまま</t>
+  </si>
+  <si>
+    <t>As It Is, Without Change</t>
+  </si>
+  <si>
+    <t>そば</t>
+  </si>
+  <si>
+    <t>Side, Nearby</t>
+  </si>
+  <si>
+    <t>Soba (Japanese Buckwheat Noodles)</t>
+  </si>
+  <si>
+    <t>そびえる</t>
+  </si>
+  <si>
+    <t>To Tower, To Rise High</t>
+  </si>
+  <si>
+    <t>そふ</t>
+  </si>
+  <si>
+    <t>Grandfather</t>
+  </si>
+  <si>
+    <t>ソファー</t>
+  </si>
+  <si>
+    <t>Sofa</t>
+  </si>
+  <si>
+    <t>ソフト</t>
+  </si>
+  <si>
+    <t>Soft, Software</t>
+  </si>
+  <si>
+    <t>そぼ</t>
+  </si>
+  <si>
+    <t>Grandmother</t>
+  </si>
+  <si>
+    <t>そぼく</t>
+  </si>
+  <si>
+    <t>Simplicity, Naivety</t>
+  </si>
+  <si>
+    <t>そまつ</t>
+  </si>
+  <si>
+    <t>Crude, Poor, Humble</t>
+  </si>
+  <si>
+    <t>そまる</t>
+  </si>
+  <si>
+    <t>To Be Dyed, To Be Tainted</t>
+  </si>
+  <si>
+    <t>そむく</t>
+  </si>
+  <si>
+    <t>To Disobey, To Go Against</t>
+  </si>
+  <si>
+    <t>そめる</t>
+  </si>
+  <si>
+    <t>To Dye, To Color</t>
+  </si>
+  <si>
+    <t>そら</t>
+  </si>
+  <si>
+    <t>Sky, Heavens</t>
+  </si>
+  <si>
+    <t>そらす</t>
+  </si>
+  <si>
+    <t>To Turn Away, To Divert</t>
+  </si>
+  <si>
+    <t>そり</t>
+  </si>
+  <si>
+    <t>Sled, Sleigh</t>
+  </si>
+  <si>
+    <t>そる</t>
+  </si>
+  <si>
+    <t>To Shave</t>
+  </si>
+  <si>
+    <t>To Warp, To Bend Backward</t>
+  </si>
+  <si>
+    <t>それから</t>
+  </si>
+  <si>
+    <t>After That, And Then</t>
+  </si>
+  <si>
+    <t>それぞれ</t>
+  </si>
+  <si>
+    <t>Each, Respectively</t>
+  </si>
+  <si>
+    <t>それで</t>
+  </si>
+  <si>
+    <t>And So, Therefore</t>
+  </si>
+  <si>
+    <t>それでは</t>
+  </si>
+  <si>
+    <t>Well Then, In That Case</t>
+  </si>
+  <si>
+    <t>それでも</t>
+  </si>
+  <si>
+    <t>Even So, Nevertheless</t>
+  </si>
+  <si>
+    <t>それと</t>
+  </si>
+  <si>
+    <t>And, Also</t>
+  </si>
+  <si>
+    <t>それとも</t>
+  </si>
+  <si>
+    <t>Or, Or Else</t>
+  </si>
+  <si>
+    <t>それなのに</t>
+  </si>
+  <si>
+    <t>Even Though, Despite That</t>
+  </si>
+  <si>
+    <t>それなら</t>
+  </si>
+  <si>
+    <t>If So, In That Case</t>
+  </si>
+  <si>
+    <t>Moreover, In Addition</t>
+  </si>
+  <si>
+    <t>それはいけませんね</t>
+  </si>
+  <si>
+    <t>That’s Not Good, That’s Unacceptable</t>
+  </si>
+  <si>
+    <t>それほど</t>
+  </si>
+  <si>
+    <t>To That Extent</t>
+  </si>
+  <si>
+    <t>それゆえ</t>
+  </si>
+  <si>
+    <t>Therefore, Consequently</t>
+  </si>
+  <si>
+    <t>それる</t>
+  </si>
+  <si>
+    <t>To Stray, To Deviate</t>
+  </si>
+  <si>
+    <t>ソロ</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>そろい</t>
+  </si>
+  <si>
+    <t>Set, Complete Collection</t>
+  </si>
+  <si>
+    <t>そろう</t>
+  </si>
+  <si>
+    <t>To Be Complete, To Gather</t>
+  </si>
+  <si>
+    <t>そろえる</t>
+  </si>
+  <si>
+    <t>To Gather, To Complete</t>
+  </si>
+  <si>
+    <t>Soon, Any Time Now</t>
+  </si>
+  <si>
+    <t>そろばん</t>
+  </si>
+  <si>
+    <t>Abacus</t>
+  </si>
+  <si>
+    <t>そん</t>
+  </si>
+  <si>
+    <t>Loss, Disadvantage</t>
+  </si>
+  <si>
+    <t>そんがい</t>
+  </si>
+  <si>
+    <t>Damage, Loss</t>
+  </si>
+  <si>
+    <t>そんけい</t>
+  </si>
+  <si>
+    <t>Respect, Esteem</t>
+  </si>
+  <si>
+    <t>そんざい</t>
+  </si>
+  <si>
+    <t>Existence, Being</t>
+  </si>
+  <si>
+    <t>Careless, Rough</t>
+  </si>
+  <si>
+    <t>そんしつ</t>
+  </si>
+  <si>
+    <t>Loss, Damage</t>
+  </si>
+  <si>
+    <t>ぞんじる／する</t>
+  </si>
+  <si>
+    <t>To Know, To Think (Humble)</t>
+  </si>
+  <si>
+    <t>そんぞく</t>
+  </si>
+  <si>
+    <t>Continuation, Subsistence</t>
+  </si>
+  <si>
+    <t>そんちょう</t>
+  </si>
+  <si>
+    <t>そんとく</t>
+  </si>
+  <si>
+    <t>Profit and Loss</t>
+  </si>
+  <si>
+    <t>Such, Like That</t>
+  </si>
+  <si>
+    <t>た</t>
+  </si>
+  <si>
+    <t>Other, Another</t>
+  </si>
+  <si>
+    <t>た／たんぼ</t>
+  </si>
+  <si>
+    <t>Rice Field</t>
+  </si>
+  <si>
+    <t>Dozen</t>
+  </si>
+  <si>
+    <t>Thailand, Tie (in Sports)</t>
+  </si>
+  <si>
+    <t>たい</t>
+  </si>
+  <si>
+    <t>Opposite, Versus</t>
+  </si>
+  <si>
+    <t>Corps, Team</t>
+  </si>
+  <si>
+    <t>〜たい</t>
+  </si>
+  <si>
+    <t>Region, Zone</t>
+  </si>
+  <si>
+    <t>〜だい</t>
+  </si>
+  <si>
+    <t>Counter for Vehicles, Machines</t>
+  </si>
+  <si>
+    <t>Generation, Age, Price</t>
+  </si>
+  <si>
+    <t>だい</t>
+  </si>
+  <si>
+    <t>Big, Great</t>
+  </si>
+  <si>
+    <t>Title, Topic</t>
+  </si>
+  <si>
+    <t>だい〜</t>
+  </si>
+  <si>
+    <t>Number (e.g., First, Second)</t>
+  </si>
+  <si>
+    <t>たいいく</t>
+  </si>
+  <si>
+    <t>Physical Education</t>
+  </si>
+  <si>
+    <t>だいいち</t>
+  </si>
+  <si>
+    <t>First, Foremost</t>
+  </si>
+  <si>
+    <t>たいいん</t>
+  </si>
+  <si>
+    <t>Discharge From Hospital</t>
+  </si>
+  <si>
+    <t>たいおう</t>
+  </si>
+  <si>
+    <t>Correspondence, Dealing With</t>
+  </si>
+  <si>
+    <t>たいおん</t>
+  </si>
+  <si>
+    <t>Body Temperature</t>
+  </si>
+  <si>
+    <t>たいか</t>
+  </si>
+  <si>
+    <t>Expert, Master</t>
+  </si>
+  <si>
+    <t>Degeneration</t>
+  </si>
+  <si>
+    <t>たいかい</t>
+  </si>
+  <si>
+    <t>Tournament, Convention</t>
+  </si>
+  <si>
+    <t>たいがい</t>
+  </si>
+  <si>
+    <t>Generally, Mostly</t>
+  </si>
+  <si>
+    <t>たいかく</t>
+  </si>
+  <si>
+    <t>Physique, Build</t>
+  </si>
+  <si>
+    <t>たいがく</t>
+  </si>
+  <si>
+    <t>Dropping Out of School</t>
+  </si>
+  <si>
+    <t>だいがく</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>だいがくいん</t>
+  </si>
+  <si>
+    <t>Graduate School</t>
+  </si>
+  <si>
+    <t>だいがくせい</t>
+  </si>
+  <si>
+    <t>University Student</t>
+  </si>
+  <si>
+    <t>たいき</t>
+  </si>
+  <si>
+    <t>Atmosphere</t>
+  </si>
+  <si>
+    <t>たいきん</t>
+  </si>
+  <si>
+    <t>Large Amount of Money</t>
+  </si>
+  <si>
+    <t>だいきん</t>
+  </si>
+  <si>
+    <t>Payment, Price</t>
+  </si>
+  <si>
+    <t>だいく</t>
+  </si>
+  <si>
+    <t>Carpenter</t>
+  </si>
+  <si>
+    <t>たいぐう</t>
+  </si>
+  <si>
+    <t>Treatment, Reception</t>
+  </si>
+  <si>
+    <t>たいくつ</t>
+  </si>
+  <si>
+    <t>Boredom</t>
+  </si>
+  <si>
+    <t>たいけい</t>
+  </si>
+  <si>
+    <t>System, Framework</t>
+  </si>
+  <si>
+    <t>たいけつ</t>
+  </si>
+  <si>
+    <t>Confrontation, Showdown</t>
+  </si>
+  <si>
+    <t>たいけん</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>たいこ</t>
+  </si>
+  <si>
+    <t>Drum</t>
+  </si>
+  <si>
+    <t>たいこう</t>
+  </si>
+  <si>
+    <t>Opposition, Rivalry</t>
+  </si>
+  <si>
+    <t>たいざい</t>
+  </si>
+  <si>
+    <t>Stay, Sojourn</t>
+  </si>
+  <si>
+    <t>たいさく</t>
+  </si>
+  <si>
+    <t>Countermeasure, Plan</t>
+  </si>
+  <si>
+    <t>たいし</t>
+  </si>
+  <si>
+    <t>Ambassador</t>
+  </si>
+  <si>
+    <t>たいじ</t>
+  </si>
+  <si>
+    <t>Extermination, Suppression</t>
+  </si>
+  <si>
+    <t>だいじ</t>
+  </si>
+  <si>
+    <t>Important, Serious</t>
+  </si>
+  <si>
+    <t>たいしかん</t>
+  </si>
+  <si>
+    <t>Embassy</t>
+  </si>
+  <si>
+    <t>たいした</t>
+  </si>
+  <si>
+    <t>Significant, Considerable</t>
+  </si>
+  <si>
+    <t>たいして</t>
+  </si>
+  <si>
+    <t>Not Very (When Used Negatively)</t>
+  </si>
+  <si>
+    <t>たいしゅう</t>
+  </si>
+  <si>
+    <t>The Public, The Masses</t>
+  </si>
+  <si>
+    <t>たいじゅう</t>
+  </si>
+  <si>
+    <t>Body Weight</t>
+  </si>
+  <si>
+    <t>たいしょ</t>
+  </si>
+  <si>
+    <t>Dealing With, Handling</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -44417,13 +48353,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -44447,7 +48376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -44462,9 +48391,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -44803,10 +48729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD98CDC-2E6D-F340-BEA4-C5F884B9AAD8}">
-  <dimension ref="A1:E4000"/>
+  <dimension ref="A1:E4400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3987" zoomScale="126" workbookViewId="0">
-      <selection activeCell="D3997" sqref="D3997"/>
+    <sheetView tabSelected="1" topLeftCell="A4095" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B4126" sqref="B4101:B4126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -74900,7 +78826,7 @@
       <c r="B2735" s="2" t="s">
         <v>7476</v>
       </c>
-      <c r="C2735" s="6" t="s">
+      <c r="C2735" s="5" t="s">
         <v>7533</v>
       </c>
     </row>
@@ -80327,7 +84253,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="3229" spans="1:4" ht="20">
+    <row r="3229" spans="1:4">
       <c r="A3229" s="2" t="s">
         <v>8888</v>
       </c>
@@ -80337,9 +84263,9 @@
       <c r="C3229" s="1" t="s">
         <v>9021</v>
       </c>
-      <c r="D3229" s="5"/>
-    </row>
-    <row r="3230" spans="1:4" ht="20">
+      <c r="D3229" s="1"/>
+    </row>
+    <row r="3230" spans="1:4">
       <c r="A3230" s="2" t="s">
         <v>8889</v>
       </c>
@@ -80349,9 +84275,9 @@
       <c r="C3230" s="1" t="s">
         <v>9022</v>
       </c>
-      <c r="D3230" s="5"/>
-    </row>
-    <row r="3231" spans="1:4" ht="20">
+      <c r="D3230" s="1"/>
+    </row>
+    <row r="3231" spans="1:4">
       <c r="A3231" s="2" t="s">
         <v>8890</v>
       </c>
@@ -80361,9 +84287,9 @@
       <c r="C3231" s="1" t="s">
         <v>9023</v>
       </c>
-      <c r="D3231" s="5"/>
-    </row>
-    <row r="3232" spans="1:4" ht="20">
+      <c r="D3231" s="1"/>
+    </row>
+    <row r="3232" spans="1:4">
       <c r="A3232" s="2" t="s">
         <v>8891</v>
       </c>
@@ -80373,9 +84299,9 @@
       <c r="C3232" s="1" t="s">
         <v>9024</v>
       </c>
-      <c r="D3232" s="5"/>
-    </row>
-    <row r="3233" spans="1:4" ht="20">
+      <c r="D3232" s="1"/>
+    </row>
+    <row r="3233" spans="1:4">
       <c r="A3233" s="2" t="s">
         <v>8893</v>
       </c>
@@ -80385,9 +84311,9 @@
       <c r="C3233" s="1" t="s">
         <v>9025</v>
       </c>
-      <c r="D3233" s="5"/>
-    </row>
-    <row r="3234" spans="1:4" ht="20">
+      <c r="D3233" s="1"/>
+    </row>
+    <row r="3234" spans="1:4">
       <c r="A3234" s="2" t="s">
         <v>8895</v>
       </c>
@@ -80397,9 +84323,9 @@
       <c r="C3234" s="1" t="s">
         <v>9026</v>
       </c>
-      <c r="D3234" s="5"/>
-    </row>
-    <row r="3235" spans="1:4" ht="20">
+      <c r="D3234" s="1"/>
+    </row>
+    <row r="3235" spans="1:4">
       <c r="A3235" s="2" t="s">
         <v>8896</v>
       </c>
@@ -80409,9 +84335,9 @@
       <c r="C3235" s="1" t="s">
         <v>9027</v>
       </c>
-      <c r="D3235" s="5"/>
-    </row>
-    <row r="3236" spans="1:4" ht="20">
+      <c r="D3235" s="1"/>
+    </row>
+    <row r="3236" spans="1:4">
       <c r="A3236" s="2" t="s">
         <v>8897</v>
       </c>
@@ -80421,9 +84347,9 @@
       <c r="C3236" s="1" t="s">
         <v>9028</v>
       </c>
-      <c r="D3236" s="5"/>
-    </row>
-    <row r="3237" spans="1:4" ht="20">
+      <c r="D3236" s="1"/>
+    </row>
+    <row r="3237" spans="1:4">
       <c r="A3237" s="2" t="s">
         <v>8898</v>
       </c>
@@ -80433,9 +84359,9 @@
       <c r="C3237" s="1" t="s">
         <v>9029</v>
       </c>
-      <c r="D3237" s="5"/>
-    </row>
-    <row r="3238" spans="1:4" ht="20">
+      <c r="D3237" s="1"/>
+    </row>
+    <row r="3238" spans="1:4">
       <c r="A3238" s="2" t="s">
         <v>8899</v>
       </c>
@@ -80445,9 +84371,9 @@
       <c r="C3238" s="1" t="s">
         <v>9030</v>
       </c>
-      <c r="D3238" s="5"/>
-    </row>
-    <row r="3239" spans="1:4" ht="20">
+      <c r="D3238" s="1"/>
+    </row>
+    <row r="3239" spans="1:4">
       <c r="A3239" s="2" t="s">
         <v>8900</v>
       </c>
@@ -80457,9 +84383,9 @@
       <c r="C3239" s="1" t="s">
         <v>9031</v>
       </c>
-      <c r="D3239" s="5"/>
-    </row>
-    <row r="3240" spans="1:4" ht="20">
+      <c r="D3239" s="1"/>
+    </row>
+    <row r="3240" spans="1:4">
       <c r="A3240" s="2" t="s">
         <v>8902</v>
       </c>
@@ -80469,9 +84395,9 @@
       <c r="C3240" s="1" t="s">
         <v>9032</v>
       </c>
-      <c r="D3240" s="5"/>
-    </row>
-    <row r="3241" spans="1:4" ht="20">
+      <c r="D3240" s="1"/>
+    </row>
+    <row r="3241" spans="1:4">
       <c r="A3241" s="2" t="s">
         <v>8903</v>
       </c>
@@ -80481,9 +84407,9 @@
       <c r="C3241" s="1" t="s">
         <v>9033</v>
       </c>
-      <c r="D3241" s="5"/>
-    </row>
-    <row r="3242" spans="1:4" ht="20">
+      <c r="D3241" s="1"/>
+    </row>
+    <row r="3242" spans="1:4">
       <c r="A3242" s="2" t="s">
         <v>8905</v>
       </c>
@@ -80493,9 +84419,9 @@
       <c r="C3242" s="1" t="s">
         <v>9034</v>
       </c>
-      <c r="D3242" s="5"/>
-    </row>
-    <row r="3243" spans="1:4" ht="20">
+      <c r="D3242" s="1"/>
+    </row>
+    <row r="3243" spans="1:4">
       <c r="A3243" s="2" t="s">
         <v>8906</v>
       </c>
@@ -80505,9 +84431,9 @@
       <c r="C3243" s="1" t="s">
         <v>9035</v>
       </c>
-      <c r="D3243" s="5"/>
-    </row>
-    <row r="3244" spans="1:4" ht="20">
+      <c r="D3243" s="1"/>
+    </row>
+    <row r="3244" spans="1:4">
       <c r="A3244" s="2" t="s">
         <v>8907</v>
       </c>
@@ -80517,9 +84443,9 @@
       <c r="C3244" s="1" t="s">
         <v>9036</v>
       </c>
-      <c r="D3244" s="5"/>
-    </row>
-    <row r="3245" spans="1:4" ht="20">
+      <c r="D3244" s="1"/>
+    </row>
+    <row r="3245" spans="1:4">
       <c r="A3245" s="2" t="s">
         <v>8908</v>
       </c>
@@ -80529,9 +84455,9 @@
       <c r="C3245" s="1" t="s">
         <v>9037</v>
       </c>
-      <c r="D3245" s="5"/>
-    </row>
-    <row r="3246" spans="1:4" ht="20">
+      <c r="D3245" s="1"/>
+    </row>
+    <row r="3246" spans="1:4">
       <c r="A3246" s="2" t="s">
         <v>8910</v>
       </c>
@@ -80541,9 +84467,9 @@
       <c r="C3246" s="1" t="s">
         <v>9038</v>
       </c>
-      <c r="D3246" s="5"/>
-    </row>
-    <row r="3247" spans="1:4" ht="20">
+      <c r="D3246" s="1"/>
+    </row>
+    <row r="3247" spans="1:4">
       <c r="A3247" s="2" t="s">
         <v>8911</v>
       </c>
@@ -80553,9 +84479,9 @@
       <c r="C3247" s="1" t="s">
         <v>9039</v>
       </c>
-      <c r="D3247" s="5"/>
-    </row>
-    <row r="3248" spans="1:4" ht="20">
+      <c r="D3247" s="1"/>
+    </row>
+    <row r="3248" spans="1:4">
       <c r="A3248" s="2" t="s">
         <v>8912</v>
       </c>
@@ -80565,9 +84491,9 @@
       <c r="C3248" s="1" t="s">
         <v>9040</v>
       </c>
-      <c r="D3248" s="5"/>
-    </row>
-    <row r="3249" spans="1:4" ht="20">
+      <c r="D3248" s="1"/>
+    </row>
+    <row r="3249" spans="1:4">
       <c r="A3249" s="2" t="s">
         <v>8913</v>
       </c>
@@ -80577,9 +84503,9 @@
       <c r="C3249" s="1" t="s">
         <v>9041</v>
       </c>
-      <c r="D3249" s="5"/>
-    </row>
-    <row r="3250" spans="1:4" ht="20">
+      <c r="D3249" s="1"/>
+    </row>
+    <row r="3250" spans="1:4">
       <c r="A3250" s="2" t="s">
         <v>8914</v>
       </c>
@@ -80589,9 +84515,9 @@
       <c r="C3250" s="1" t="s">
         <v>9042</v>
       </c>
-      <c r="D3250" s="5"/>
-    </row>
-    <row r="3251" spans="1:4" ht="20">
+      <c r="D3250" s="1"/>
+    </row>
+    <row r="3251" spans="1:4">
       <c r="A3251" s="2" t="s">
         <v>8915</v>
       </c>
@@ -80601,9 +84527,9 @@
       <c r="C3251" s="1" t="s">
         <v>9043</v>
       </c>
-      <c r="D3251" s="5"/>
-    </row>
-    <row r="3252" spans="1:4" ht="20">
+      <c r="D3251" s="1"/>
+    </row>
+    <row r="3252" spans="1:4">
       <c r="A3252" s="2" t="s">
         <v>8916</v>
       </c>
@@ -80613,9 +84539,9 @@
       <c r="C3252" s="1" t="s">
         <v>9044</v>
       </c>
-      <c r="D3252" s="5"/>
-    </row>
-    <row r="3253" spans="1:4" ht="20">
+      <c r="D3252" s="1"/>
+    </row>
+    <row r="3253" spans="1:4">
       <c r="A3253" s="2" t="s">
         <v>8917</v>
       </c>
@@ -80625,9 +84551,9 @@
       <c r="C3253" s="1" t="s">
         <v>9045</v>
       </c>
-      <c r="D3253" s="5"/>
-    </row>
-    <row r="3254" spans="1:4" ht="20">
+      <c r="D3253" s="1"/>
+    </row>
+    <row r="3254" spans="1:4">
       <c r="A3254" s="2" t="s">
         <v>8919</v>
       </c>
@@ -80637,9 +84563,9 @@
       <c r="C3254" s="1" t="s">
         <v>4555</v>
       </c>
-      <c r="D3254" s="5"/>
-    </row>
-    <row r="3255" spans="1:4" ht="20">
+      <c r="D3254" s="1"/>
+    </row>
+    <row r="3255" spans="1:4">
       <c r="A3255" s="2" t="s">
         <v>8918</v>
       </c>
@@ -80649,9 +84575,9 @@
       <c r="C3255" s="1" t="s">
         <v>9046</v>
       </c>
-      <c r="D3255" s="5"/>
-    </row>
-    <row r="3256" spans="1:4" ht="20">
+      <c r="D3255" s="1"/>
+    </row>
+    <row r="3256" spans="1:4">
       <c r="A3256" s="2" t="s">
         <v>8922</v>
       </c>
@@ -80661,9 +84587,9 @@
       <c r="C3256" s="1" t="s">
         <v>9047</v>
       </c>
-      <c r="D3256" s="5"/>
-    </row>
-    <row r="3257" spans="1:4" ht="20">
+      <c r="D3256" s="1"/>
+    </row>
+    <row r="3257" spans="1:4">
       <c r="A3257" s="2" t="s">
         <v>8924</v>
       </c>
@@ -80673,9 +84599,9 @@
       <c r="C3257" s="1" t="s">
         <v>9048</v>
       </c>
-      <c r="D3257" s="5"/>
-    </row>
-    <row r="3258" spans="1:4" ht="20">
+      <c r="D3257" s="1"/>
+    </row>
+    <row r="3258" spans="1:4">
       <c r="A3258" s="2" t="s">
         <v>8925</v>
       </c>
@@ -80685,9 +84611,9 @@
       <c r="C3258" s="1" t="s">
         <v>9049</v>
       </c>
-      <c r="D3258" s="5"/>
-    </row>
-    <row r="3259" spans="1:4" ht="20">
+      <c r="D3258" s="1"/>
+    </row>
+    <row r="3259" spans="1:4">
       <c r="A3259" s="2" t="s">
         <v>8926</v>
       </c>
@@ -80697,9 +84623,9 @@
       <c r="C3259" s="1" t="s">
         <v>9050</v>
       </c>
-      <c r="D3259" s="5"/>
-    </row>
-    <row r="3260" spans="1:4" ht="20">
+      <c r="D3259" s="1"/>
+    </row>
+    <row r="3260" spans="1:4">
       <c r="A3260" s="2" t="s">
         <v>8927</v>
       </c>
@@ -80709,9 +84635,9 @@
       <c r="C3260" s="1" t="s">
         <v>9051</v>
       </c>
-      <c r="D3260" s="5"/>
-    </row>
-    <row r="3261" spans="1:4" ht="20">
+      <c r="D3260" s="1"/>
+    </row>
+    <row r="3261" spans="1:4">
       <c r="A3261" s="2" t="s">
         <v>8928</v>
       </c>
@@ -80721,9 +84647,9 @@
       <c r="C3261" s="1" t="s">
         <v>9052</v>
       </c>
-      <c r="D3261" s="5"/>
-    </row>
-    <row r="3262" spans="1:4" ht="20">
+      <c r="D3261" s="1"/>
+    </row>
+    <row r="3262" spans="1:4">
       <c r="A3262" s="2" t="s">
         <v>8929</v>
       </c>
@@ -80733,9 +84659,9 @@
       <c r="C3262" s="1" t="s">
         <v>9053</v>
       </c>
-      <c r="D3262" s="5"/>
-    </row>
-    <row r="3263" spans="1:4" ht="20">
+      <c r="D3262" s="1"/>
+    </row>
+    <row r="3263" spans="1:4">
       <c r="A3263" s="2" t="s">
         <v>9018</v>
       </c>
@@ -80745,9 +84671,9 @@
       <c r="C3263" s="1" t="s">
         <v>9054</v>
       </c>
-      <c r="D3263" s="5"/>
-    </row>
-    <row r="3264" spans="1:4" ht="20">
+      <c r="D3263" s="1"/>
+    </row>
+    <row r="3264" spans="1:4">
       <c r="A3264" s="2" t="s">
         <v>8930</v>
       </c>
@@ -80757,9 +84683,9 @@
       <c r="C3264" s="1" t="s">
         <v>9055</v>
       </c>
-      <c r="D3264" s="5"/>
-    </row>
-    <row r="3265" spans="1:4" ht="20">
+      <c r="D3264" s="1"/>
+    </row>
+    <row r="3265" spans="1:4">
       <c r="A3265" s="2" t="s">
         <v>8931</v>
       </c>
@@ -80769,9 +84695,9 @@
       <c r="C3265" s="1" t="s">
         <v>9056</v>
       </c>
-      <c r="D3265" s="5"/>
-    </row>
-    <row r="3266" spans="1:4" ht="20">
+      <c r="D3265" s="1"/>
+    </row>
+    <row r="3266" spans="1:4">
       <c r="A3266" s="2" t="s">
         <v>8932</v>
       </c>
@@ -80781,9 +84707,9 @@
       <c r="C3266" s="1" t="s">
         <v>9057</v>
       </c>
-      <c r="D3266" s="5"/>
-    </row>
-    <row r="3267" spans="1:4" ht="20">
+      <c r="D3266" s="1"/>
+    </row>
+    <row r="3267" spans="1:4">
       <c r="A3267" s="2" t="s">
         <v>8933</v>
       </c>
@@ -80793,9 +84719,9 @@
       <c r="C3267" s="1" t="s">
         <v>9058</v>
       </c>
-      <c r="D3267" s="5"/>
-    </row>
-    <row r="3268" spans="1:4" ht="20">
+      <c r="D3267" s="1"/>
+    </row>
+    <row r="3268" spans="1:4">
       <c r="A3268" s="2" t="s">
         <v>8934</v>
       </c>
@@ -80805,9 +84731,9 @@
       <c r="C3268" s="1" t="s">
         <v>9059</v>
       </c>
-      <c r="D3268" s="5"/>
-    </row>
-    <row r="3269" spans="1:4" ht="20">
+      <c r="D3268" s="1"/>
+    </row>
+    <row r="3269" spans="1:4">
       <c r="A3269" s="2" t="s">
         <v>8935</v>
       </c>
@@ -80817,9 +84743,9 @@
       <c r="C3269" s="1" t="s">
         <v>9060</v>
       </c>
-      <c r="D3269" s="5"/>
-    </row>
-    <row r="3270" spans="1:4" ht="20">
+      <c r="D3269" s="1"/>
+    </row>
+    <row r="3270" spans="1:4">
       <c r="A3270" s="2" t="s">
         <v>8937</v>
       </c>
@@ -80829,9 +84755,9 @@
       <c r="C3270" s="1" t="s">
         <v>9061</v>
       </c>
-      <c r="D3270" s="5"/>
-    </row>
-    <row r="3271" spans="1:4" ht="20">
+      <c r="D3270" s="1"/>
+    </row>
+    <row r="3271" spans="1:4">
       <c r="A3271" s="2" t="s">
         <v>8939</v>
       </c>
@@ -80841,9 +84767,9 @@
       <c r="C3271" s="1" t="s">
         <v>9062</v>
       </c>
-      <c r="D3271" s="5"/>
-    </row>
-    <row r="3272" spans="1:4" ht="20">
+      <c r="D3271" s="1"/>
+    </row>
+    <row r="3272" spans="1:4">
       <c r="A3272" s="2" t="s">
         <v>8940</v>
       </c>
@@ -80853,9 +84779,9 @@
       <c r="C3272" s="1" t="s">
         <v>9063</v>
       </c>
-      <c r="D3272" s="5"/>
-    </row>
-    <row r="3273" spans="1:4" ht="20">
+      <c r="D3272" s="1"/>
+    </row>
+    <row r="3273" spans="1:4">
       <c r="A3273" s="2" t="s">
         <v>8941</v>
       </c>
@@ -80865,9 +84791,9 @@
       <c r="C3273" s="1" t="s">
         <v>9064</v>
       </c>
-      <c r="D3273" s="5"/>
-    </row>
-    <row r="3274" spans="1:4" ht="20">
+      <c r="D3273" s="1"/>
+    </row>
+    <row r="3274" spans="1:4">
       <c r="A3274" s="2" t="s">
         <v>8943</v>
       </c>
@@ -80877,9 +84803,9 @@
       <c r="C3274" s="1" t="s">
         <v>9065</v>
       </c>
-      <c r="D3274" s="5"/>
-    </row>
-    <row r="3275" spans="1:4" ht="20">
+      <c r="D3274" s="1"/>
+    </row>
+    <row r="3275" spans="1:4">
       <c r="A3275" s="2" t="s">
         <v>8944</v>
       </c>
@@ -80889,9 +84815,9 @@
       <c r="C3275" s="1" t="s">
         <v>9066</v>
       </c>
-      <c r="D3275" s="5"/>
-    </row>
-    <row r="3276" spans="1:4" ht="20">
+      <c r="D3275" s="1"/>
+    </row>
+    <row r="3276" spans="1:4">
       <c r="A3276" s="2" t="s">
         <v>8945</v>
       </c>
@@ -80901,9 +84827,9 @@
       <c r="C3276" s="1" t="s">
         <v>9067</v>
       </c>
-      <c r="D3276" s="5"/>
-    </row>
-    <row r="3277" spans="1:4" ht="20">
+      <c r="D3276" s="1"/>
+    </row>
+    <row r="3277" spans="1:4">
       <c r="A3277" s="2" t="s">
         <v>8946</v>
       </c>
@@ -80913,9 +84839,9 @@
       <c r="C3277" s="1" t="s">
         <v>9068</v>
       </c>
-      <c r="D3277" s="5"/>
-    </row>
-    <row r="3278" spans="1:4" ht="20">
+      <c r="D3277" s="1"/>
+    </row>
+    <row r="3278" spans="1:4">
       <c r="A3278" s="2" t="s">
         <v>8947</v>
       </c>
@@ -80925,9 +84851,9 @@
       <c r="C3278" s="1" t="s">
         <v>4081</v>
       </c>
-      <c r="D3278" s="5"/>
-    </row>
-    <row r="3279" spans="1:4" ht="20">
+      <c r="D3278" s="1"/>
+    </row>
+    <row r="3279" spans="1:4">
       <c r="A3279" s="2" t="s">
         <v>8948</v>
       </c>
@@ -80937,9 +84863,9 @@
       <c r="C3279" s="1" t="s">
         <v>9069</v>
       </c>
-      <c r="D3279" s="5"/>
-    </row>
-    <row r="3280" spans="1:4" ht="20">
+      <c r="D3279" s="1"/>
+    </row>
+    <row r="3280" spans="1:4">
       <c r="A3280" s="2" t="s">
         <v>8949</v>
       </c>
@@ -80949,9 +84875,9 @@
       <c r="C3280" s="1" t="s">
         <v>9070</v>
       </c>
-      <c r="D3280" s="5"/>
-    </row>
-    <row r="3281" spans="1:4" ht="20">
+      <c r="D3280" s="1"/>
+    </row>
+    <row r="3281" spans="1:4">
       <c r="A3281" s="2" t="s">
         <v>8950</v>
       </c>
@@ -80961,9 +84887,9 @@
       <c r="C3281" s="1" t="s">
         <v>9071</v>
       </c>
-      <c r="D3281" s="5"/>
-    </row>
-    <row r="3282" spans="1:4" ht="20">
+      <c r="D3281" s="1"/>
+    </row>
+    <row r="3282" spans="1:4">
       <c r="A3282" s="2" t="s">
         <v>8951</v>
       </c>
@@ -80973,9 +84899,9 @@
       <c r="C3282" s="1" t="s">
         <v>9072</v>
       </c>
-      <c r="D3282" s="5"/>
-    </row>
-    <row r="3283" spans="1:4" ht="20">
+      <c r="D3282" s="1"/>
+    </row>
+    <row r="3283" spans="1:4">
       <c r="A3283" s="2" t="s">
         <v>8953</v>
       </c>
@@ -80985,9 +84911,9 @@
       <c r="C3283" s="1" t="s">
         <v>9073</v>
       </c>
-      <c r="D3283" s="5"/>
-    </row>
-    <row r="3284" spans="1:4" ht="20">
+      <c r="D3283" s="1"/>
+    </row>
+    <row r="3284" spans="1:4">
       <c r="A3284" s="2" t="s">
         <v>8954</v>
       </c>
@@ -80997,9 +84923,9 @@
       <c r="C3284" s="1" t="s">
         <v>9074</v>
       </c>
-      <c r="D3284" s="5"/>
-    </row>
-    <row r="3285" spans="1:4" ht="20">
+      <c r="D3284" s="1"/>
+    </row>
+    <row r="3285" spans="1:4">
       <c r="A3285" s="2" t="s">
         <v>8955</v>
       </c>
@@ -81009,9 +84935,9 @@
       <c r="C3285" s="1" t="s">
         <v>9075</v>
       </c>
-      <c r="D3285" s="5"/>
-    </row>
-    <row r="3286" spans="1:4" ht="20">
+      <c r="D3285" s="1"/>
+    </row>
+    <row r="3286" spans="1:4">
       <c r="A3286" s="2" t="s">
         <v>8956</v>
       </c>
@@ -81021,9 +84947,9 @@
       <c r="C3286" s="1" t="s">
         <v>9076</v>
       </c>
-      <c r="D3286" s="5"/>
-    </row>
-    <row r="3287" spans="1:4" ht="20">
+      <c r="D3286" s="1"/>
+    </row>
+    <row r="3287" spans="1:4">
       <c r="A3287" s="2" t="s">
         <v>8957</v>
       </c>
@@ -81033,9 +84959,9 @@
       <c r="C3287" s="1" t="s">
         <v>9077</v>
       </c>
-      <c r="D3287" s="5"/>
-    </row>
-    <row r="3288" spans="1:4" ht="20">
+      <c r="D3287" s="1"/>
+    </row>
+    <row r="3288" spans="1:4">
       <c r="A3288" s="2" t="s">
         <v>8958</v>
       </c>
@@ -81045,9 +84971,9 @@
       <c r="C3288" s="1" t="s">
         <v>9078</v>
       </c>
-      <c r="D3288" s="5"/>
-    </row>
-    <row r="3289" spans="1:4" ht="20">
+      <c r="D3288" s="1"/>
+    </row>
+    <row r="3289" spans="1:4">
       <c r="A3289" s="2" t="s">
         <v>8960</v>
       </c>
@@ -81057,9 +84983,9 @@
       <c r="C3289" s="1" t="s">
         <v>9079</v>
       </c>
-      <c r="D3289" s="5"/>
-    </row>
-    <row r="3290" spans="1:4" ht="20">
+      <c r="D3289" s="1"/>
+    </row>
+    <row r="3290" spans="1:4">
       <c r="A3290" s="2" t="s">
         <v>8961</v>
       </c>
@@ -81069,9 +84995,9 @@
       <c r="C3290" s="1" t="s">
         <v>9080</v>
       </c>
-      <c r="D3290" s="5"/>
-    </row>
-    <row r="3291" spans="1:4" ht="20">
+      <c r="D3290" s="1"/>
+    </row>
+    <row r="3291" spans="1:4">
       <c r="A3291" s="2" t="s">
         <v>8962</v>
       </c>
@@ -81081,9 +85007,9 @@
       <c r="C3291" s="1" t="s">
         <v>9081</v>
       </c>
-      <c r="D3291" s="5"/>
-    </row>
-    <row r="3292" spans="1:4" ht="20">
+      <c r="D3291" s="1"/>
+    </row>
+    <row r="3292" spans="1:4">
       <c r="A3292" s="2" t="s">
         <v>8964</v>
       </c>
@@ -81093,9 +85019,9 @@
       <c r="C3292" s="1" t="s">
         <v>9082</v>
       </c>
-      <c r="D3292" s="5"/>
-    </row>
-    <row r="3293" spans="1:4" ht="20">
+      <c r="D3292" s="1"/>
+    </row>
+    <row r="3293" spans="1:4">
       <c r="A3293" s="2" t="s">
         <v>8966</v>
       </c>
@@ -81105,9 +85031,9 @@
       <c r="C3293" s="1" t="s">
         <v>9083</v>
       </c>
-      <c r="D3293" s="5"/>
-    </row>
-    <row r="3294" spans="1:4" ht="20">
+      <c r="D3293" s="1"/>
+    </row>
+    <row r="3294" spans="1:4">
       <c r="A3294" s="2" t="s">
         <v>8967</v>
       </c>
@@ -81117,9 +85043,9 @@
       <c r="C3294" s="1" t="s">
         <v>9084</v>
       </c>
-      <c r="D3294" s="5"/>
-    </row>
-    <row r="3295" spans="1:4" ht="20">
+      <c r="D3294" s="1"/>
+    </row>
+    <row r="3295" spans="1:4">
       <c r="A3295" s="2" t="s">
         <v>8969</v>
       </c>
@@ -81129,9 +85055,9 @@
       <c r="C3295" s="1" t="s">
         <v>9085</v>
       </c>
-      <c r="D3295" s="5"/>
-    </row>
-    <row r="3296" spans="1:4" ht="20">
+      <c r="D3295" s="1"/>
+    </row>
+    <row r="3296" spans="1:4">
       <c r="A3296" s="2" t="s">
         <v>8971</v>
       </c>
@@ -81141,9 +85067,9 @@
       <c r="C3296" s="1" t="s">
         <v>9086</v>
       </c>
-      <c r="D3296" s="5"/>
-    </row>
-    <row r="3297" spans="1:4" ht="20">
+      <c r="D3296" s="1"/>
+    </row>
+    <row r="3297" spans="1:4">
       <c r="A3297" s="2" t="s">
         <v>8972</v>
       </c>
@@ -81153,9 +85079,9 @@
       <c r="C3297" s="1" t="s">
         <v>9087</v>
       </c>
-      <c r="D3297" s="5"/>
-    </row>
-    <row r="3298" spans="1:4" ht="20">
+      <c r="D3297" s="1"/>
+    </row>
+    <row r="3298" spans="1:4">
       <c r="A3298" s="2" t="s">
         <v>9016</v>
       </c>
@@ -81165,9 +85091,9 @@
       <c r="C3298" s="1" t="s">
         <v>9088</v>
       </c>
-      <c r="D3298" s="5"/>
-    </row>
-    <row r="3299" spans="1:4" ht="20">
+      <c r="D3298" s="1"/>
+    </row>
+    <row r="3299" spans="1:4">
       <c r="A3299" s="2" t="s">
         <v>9015</v>
       </c>
@@ -81177,9 +85103,9 @@
       <c r="C3299" s="1" t="s">
         <v>9089</v>
       </c>
-      <c r="D3299" s="5"/>
-    </row>
-    <row r="3300" spans="1:4" ht="20">
+      <c r="D3299" s="1"/>
+    </row>
+    <row r="3300" spans="1:4">
       <c r="A3300" s="2" t="s">
         <v>8973</v>
       </c>
@@ -81189,7 +85115,7 @@
       <c r="C3300" s="1" t="s">
         <v>9090</v>
       </c>
-      <c r="D3300" s="5"/>
+      <c r="D3300" s="1"/>
     </row>
     <row r="3301" spans="1:4">
       <c r="A3301" s="2" t="s">
@@ -88889,6 +92815,4406 @@
       </c>
       <c r="C4000" s="1" t="s">
         <v>11040</v>
+      </c>
+    </row>
+    <row r="4001" spans="1:3">
+      <c r="A4001" s="2" t="s">
+        <v>11041</v>
+      </c>
+      <c r="B4001" s="1" t="s">
+        <v>11437</v>
+      </c>
+      <c r="C4001" s="1" t="s">
+        <v>11438</v>
+      </c>
+    </row>
+    <row r="4002" spans="1:3">
+      <c r="A4002" s="2" t="s">
+        <v>11042</v>
+      </c>
+      <c r="B4002" s="1" t="s">
+        <v>11439</v>
+      </c>
+      <c r="C4002" s="1" t="s">
+        <v>11440</v>
+      </c>
+    </row>
+    <row r="4003" spans="1:3">
+      <c r="A4003" s="2" t="s">
+        <v>11043</v>
+      </c>
+      <c r="B4003" s="1" t="s">
+        <v>11439</v>
+      </c>
+      <c r="C4003" s="1" t="s">
+        <v>11441</v>
+      </c>
+    </row>
+    <row r="4004" spans="1:3">
+      <c r="A4004" s="2" t="s">
+        <v>11044</v>
+      </c>
+      <c r="B4004" s="1" t="s">
+        <v>11442</v>
+      </c>
+      <c r="C4004" s="1" t="s">
+        <v>11443</v>
+      </c>
+    </row>
+    <row r="4005" spans="1:3">
+      <c r="A4005" s="2" t="s">
+        <v>11045</v>
+      </c>
+      <c r="B4005" s="1" t="s">
+        <v>11444</v>
+      </c>
+      <c r="C4005" s="1" t="s">
+        <v>11445</v>
+      </c>
+    </row>
+    <row r="4006" spans="1:3">
+      <c r="A4006" s="2" t="s">
+        <v>11046</v>
+      </c>
+      <c r="B4006" s="1" t="s">
+        <v>11446</v>
+      </c>
+      <c r="C4006" s="1" t="s">
+        <v>11447</v>
+      </c>
+    </row>
+    <row r="4007" spans="1:3">
+      <c r="A4007" s="2" t="s">
+        <v>11047</v>
+      </c>
+      <c r="B4007" s="1" t="s">
+        <v>11448</v>
+      </c>
+      <c r="C4007" s="1" t="s">
+        <v>11449</v>
+      </c>
+    </row>
+    <row r="4008" spans="1:3">
+      <c r="A4008" s="2" t="s">
+        <v>11048</v>
+      </c>
+      <c r="B4008" s="1" t="s">
+        <v>11450</v>
+      </c>
+      <c r="C4008" s="1" t="s">
+        <v>11451</v>
+      </c>
+    </row>
+    <row r="4009" spans="1:3">
+      <c r="A4009" s="2" t="s">
+        <v>11049</v>
+      </c>
+      <c r="B4009" s="1" t="s">
+        <v>11452</v>
+      </c>
+      <c r="C4009" s="1" t="s">
+        <v>10961</v>
+      </c>
+    </row>
+    <row r="4010" spans="1:3">
+      <c r="A4010" s="2" t="s">
+        <v>11050</v>
+      </c>
+      <c r="B4010" s="1" t="s">
+        <v>11453</v>
+      </c>
+      <c r="C4010" s="1" t="s">
+        <v>11454</v>
+      </c>
+    </row>
+    <row r="4011" spans="1:3">
+      <c r="A4011" s="2" t="s">
+        <v>11051</v>
+      </c>
+      <c r="B4011" s="1" t="s">
+        <v>11455</v>
+      </c>
+      <c r="C4011" s="1" t="s">
+        <v>11456</v>
+      </c>
+    </row>
+    <row r="4012" spans="1:3">
+      <c r="A4012" s="2" t="s">
+        <v>11052</v>
+      </c>
+      <c r="B4012" s="1" t="s">
+        <v>11457</v>
+      </c>
+      <c r="C4012" s="1" t="s">
+        <v>11458</v>
+      </c>
+    </row>
+    <row r="4013" spans="1:3">
+      <c r="A4013" s="2" t="s">
+        <v>11053</v>
+      </c>
+      <c r="B4013" s="1" t="s">
+        <v>11459</v>
+      </c>
+      <c r="C4013" s="1" t="s">
+        <v>11460</v>
+      </c>
+    </row>
+    <row r="4014" spans="1:3">
+      <c r="A4014" s="2" t="s">
+        <v>11054</v>
+      </c>
+      <c r="B4014" s="1" t="s">
+        <v>11461</v>
+      </c>
+      <c r="C4014" s="1" t="s">
+        <v>11462</v>
+      </c>
+    </row>
+    <row r="4015" spans="1:3">
+      <c r="A4015" s="2" t="s">
+        <v>11055</v>
+      </c>
+      <c r="B4015" s="1" t="s">
+        <v>11463</v>
+      </c>
+      <c r="C4015" s="1" t="s">
+        <v>11464</v>
+      </c>
+    </row>
+    <row r="4016" spans="1:3">
+      <c r="A4016" s="2" t="s">
+        <v>11056</v>
+      </c>
+      <c r="B4016" s="1" t="s">
+        <v>11465</v>
+      </c>
+      <c r="C4016" s="1" t="s">
+        <v>11466</v>
+      </c>
+    </row>
+    <row r="4017" spans="1:3">
+      <c r="A4017" s="2" t="s">
+        <v>11057</v>
+      </c>
+      <c r="B4017" s="1" t="s">
+        <v>11465</v>
+      </c>
+      <c r="C4017" s="1" t="s">
+        <v>11467</v>
+      </c>
+    </row>
+    <row r="4018" spans="1:3">
+      <c r="A4018" s="2" t="s">
+        <v>11058</v>
+      </c>
+      <c r="B4018" s="1" t="s">
+        <v>11468</v>
+      </c>
+      <c r="C4018" s="1" t="s">
+        <v>11469</v>
+      </c>
+    </row>
+    <row r="4019" spans="1:3">
+      <c r="A4019" s="2" t="s">
+        <v>11059</v>
+      </c>
+      <c r="B4019" s="1" t="s">
+        <v>11468</v>
+      </c>
+      <c r="C4019" s="1" t="s">
+        <v>11470</v>
+      </c>
+    </row>
+    <row r="4020" spans="1:3">
+      <c r="A4020" s="2" t="s">
+        <v>11060</v>
+      </c>
+      <c r="B4020" s="1" t="s">
+        <v>11471</v>
+      </c>
+      <c r="C4020" s="1" t="s">
+        <v>11472</v>
+      </c>
+    </row>
+    <row r="4021" spans="1:3">
+      <c r="A4021" s="2" t="s">
+        <v>11061</v>
+      </c>
+      <c r="B4021" s="1" t="s">
+        <v>11473</v>
+      </c>
+      <c r="C4021" s="1" t="s">
+        <v>11474</v>
+      </c>
+    </row>
+    <row r="4022" spans="1:3">
+      <c r="A4022" s="2" t="s">
+        <v>11062</v>
+      </c>
+      <c r="B4022" s="1" t="s">
+        <v>11475</v>
+      </c>
+      <c r="C4022" s="1" t="s">
+        <v>11476</v>
+      </c>
+    </row>
+    <row r="4023" spans="1:3">
+      <c r="A4023" s="2" t="s">
+        <v>11063</v>
+      </c>
+      <c r="B4023" s="1" t="s">
+        <v>11477</v>
+      </c>
+      <c r="C4023" s="1" t="s">
+        <v>11478</v>
+      </c>
+    </row>
+    <row r="4024" spans="1:3">
+      <c r="A4024" s="2" t="s">
+        <v>11064</v>
+      </c>
+      <c r="B4024" s="1" t="s">
+        <v>11479</v>
+      </c>
+      <c r="C4024" s="1" t="s">
+        <v>11480</v>
+      </c>
+    </row>
+    <row r="4025" spans="1:3">
+      <c r="A4025" s="2" t="s">
+        <v>11065</v>
+      </c>
+      <c r="B4025" s="1" t="s">
+        <v>11481</v>
+      </c>
+      <c r="C4025" s="1" t="s">
+        <v>11482</v>
+      </c>
+    </row>
+    <row r="4026" spans="1:3">
+      <c r="A4026" s="2" t="s">
+        <v>11066</v>
+      </c>
+      <c r="B4026" s="1" t="s">
+        <v>11481</v>
+      </c>
+      <c r="C4026" s="1" t="s">
+        <v>11483</v>
+      </c>
+    </row>
+    <row r="4027" spans="1:3">
+      <c r="A4027" s="2" t="s">
+        <v>11067</v>
+      </c>
+      <c r="B4027" s="1" t="s">
+        <v>11484</v>
+      </c>
+      <c r="C4027" s="1" t="s">
+        <v>11485</v>
+      </c>
+    </row>
+    <row r="4028" spans="1:3">
+      <c r="A4028" s="2" t="s">
+        <v>11068</v>
+      </c>
+      <c r="B4028" s="1" t="s">
+        <v>11486</v>
+      </c>
+      <c r="C4028" s="1" t="s">
+        <v>11487</v>
+      </c>
+    </row>
+    <row r="4029" spans="1:3">
+      <c r="A4029" s="2" t="s">
+        <v>11069</v>
+      </c>
+      <c r="B4029" s="1" t="s">
+        <v>11488</v>
+      </c>
+      <c r="C4029" s="1" t="s">
+        <v>11489</v>
+      </c>
+    </row>
+    <row r="4030" spans="1:3">
+      <c r="A4030" s="2" t="s">
+        <v>11070</v>
+      </c>
+      <c r="B4030" s="1" t="s">
+        <v>11490</v>
+      </c>
+      <c r="C4030" s="1" t="s">
+        <v>11491</v>
+      </c>
+    </row>
+    <row r="4031" spans="1:3">
+      <c r="A4031" s="2" t="s">
+        <v>11071</v>
+      </c>
+      <c r="B4031" s="1" t="s">
+        <v>11492</v>
+      </c>
+      <c r="C4031" s="1" t="s">
+        <v>11493</v>
+      </c>
+    </row>
+    <row r="4032" spans="1:3">
+      <c r="A4032" s="2" t="s">
+        <v>11072</v>
+      </c>
+      <c r="B4032" s="1" t="s">
+        <v>11494</v>
+      </c>
+      <c r="C4032" s="1" t="s">
+        <v>11495</v>
+      </c>
+    </row>
+    <row r="4033" spans="1:3">
+      <c r="A4033" s="2" t="s">
+        <v>11073</v>
+      </c>
+      <c r="B4033" s="1" t="s">
+        <v>11496</v>
+      </c>
+      <c r="C4033" s="1" t="s">
+        <v>11497</v>
+      </c>
+    </row>
+    <row r="4034" spans="1:3">
+      <c r="A4034" s="2" t="s">
+        <v>11074</v>
+      </c>
+      <c r="B4034" s="1" t="s">
+        <v>11498</v>
+      </c>
+      <c r="C4034" s="1" t="s">
+        <v>10531</v>
+      </c>
+    </row>
+    <row r="4035" spans="1:3">
+      <c r="A4035" s="2" t="s">
+        <v>11075</v>
+      </c>
+      <c r="B4035" s="1" t="s">
+        <v>11498</v>
+      </c>
+      <c r="C4035" s="1" t="s">
+        <v>11499</v>
+      </c>
+    </row>
+    <row r="4036" spans="1:3">
+      <c r="A4036" s="2" t="s">
+        <v>11076</v>
+      </c>
+      <c r="B4036" s="1" t="s">
+        <v>11498</v>
+      </c>
+      <c r="C4036" s="1" t="s">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="4037" spans="1:3">
+      <c r="A4037" s="2" t="s">
+        <v>11077</v>
+      </c>
+      <c r="B4037" s="1" t="s">
+        <v>11501</v>
+      </c>
+      <c r="C4037" s="1" t="s">
+        <v>11502</v>
+      </c>
+    </row>
+    <row r="4038" spans="1:3">
+      <c r="A4038" s="2" t="s">
+        <v>11078</v>
+      </c>
+      <c r="B4038" s="1" t="s">
+        <v>11503</v>
+      </c>
+      <c r="C4038" s="1" t="s">
+        <v>11504</v>
+      </c>
+    </row>
+    <row r="4039" spans="1:3">
+      <c r="A4039" s="2" t="s">
+        <v>11079</v>
+      </c>
+      <c r="B4039" s="1" t="s">
+        <v>11505</v>
+      </c>
+      <c r="C4039" s="1" t="s">
+        <v>11506</v>
+      </c>
+    </row>
+    <row r="4040" spans="1:3">
+      <c r="A4040" s="2" t="s">
+        <v>11080</v>
+      </c>
+      <c r="B4040" s="1" t="s">
+        <v>11507</v>
+      </c>
+      <c r="C4040" s="1" t="s">
+        <v>11508</v>
+      </c>
+    </row>
+    <row r="4041" spans="1:3">
+      <c r="A4041" s="2" t="s">
+        <v>11084</v>
+      </c>
+      <c r="B4041" s="1" t="s">
+        <v>11507</v>
+      </c>
+      <c r="C4041" s="1" t="s">
+        <v>11509</v>
+      </c>
+    </row>
+    <row r="4042" spans="1:3">
+      <c r="A4042" s="2" t="s">
+        <v>11085</v>
+      </c>
+      <c r="B4042" s="1" t="s">
+        <v>11510</v>
+      </c>
+      <c r="C4042" s="1" t="s">
+        <v>11511</v>
+      </c>
+    </row>
+    <row r="4043" spans="1:3">
+      <c r="A4043" s="2" t="s">
+        <v>11081</v>
+      </c>
+      <c r="B4043" s="1" t="s">
+        <v>11512</v>
+      </c>
+      <c r="C4043" s="1" t="s">
+        <v>11513</v>
+      </c>
+    </row>
+    <row r="4044" spans="1:3">
+      <c r="A4044" s="2" t="s">
+        <v>11082</v>
+      </c>
+      <c r="B4044" s="1" t="s">
+        <v>11514</v>
+      </c>
+      <c r="C4044" s="1" t="s">
+        <v>11515</v>
+      </c>
+    </row>
+    <row r="4045" spans="1:3">
+      <c r="A4045" s="2" t="s">
+        <v>11083</v>
+      </c>
+      <c r="B4045" s="1" t="s">
+        <v>11516</v>
+      </c>
+      <c r="C4045" s="1" t="s">
+        <v>11517</v>
+      </c>
+    </row>
+    <row r="4046" spans="1:3">
+      <c r="A4046" s="2" t="s">
+        <v>11086</v>
+      </c>
+      <c r="B4046" s="1" t="s">
+        <v>11518</v>
+      </c>
+      <c r="C4046" s="1" t="s">
+        <v>11519</v>
+      </c>
+    </row>
+    <row r="4047" spans="1:3">
+      <c r="A4047" s="2" t="s">
+        <v>11087</v>
+      </c>
+      <c r="B4047" s="1" t="s">
+        <v>11520</v>
+      </c>
+      <c r="C4047" s="1" t="s">
+        <v>11521</v>
+      </c>
+    </row>
+    <row r="4048" spans="1:3">
+      <c r="A4048" s="2" t="s">
+        <v>11088</v>
+      </c>
+      <c r="B4048" s="1" t="s">
+        <v>11522</v>
+      </c>
+      <c r="C4048" s="1" t="s">
+        <v>11523</v>
+      </c>
+    </row>
+    <row r="4049" spans="1:3">
+      <c r="A4049" s="2" t="s">
+        <v>11089</v>
+      </c>
+      <c r="B4049" s="1" t="s">
+        <v>11524</v>
+      </c>
+      <c r="C4049" s="1" t="s">
+        <v>11525</v>
+      </c>
+    </row>
+    <row r="4050" spans="1:3">
+      <c r="A4050" s="2" t="s">
+        <v>11089</v>
+      </c>
+      <c r="B4050" s="1" t="s">
+        <v>11524</v>
+      </c>
+      <c r="C4050" s="1" t="s">
+        <v>11525</v>
+      </c>
+    </row>
+    <row r="4051" spans="1:3">
+      <c r="A4051" s="2" t="s">
+        <v>11090</v>
+      </c>
+      <c r="B4051" s="1" t="s">
+        <v>11526</v>
+      </c>
+      <c r="C4051" s="1" t="s">
+        <v>11527</v>
+      </c>
+    </row>
+    <row r="4052" spans="1:3">
+      <c r="A4052" s="2" t="s">
+        <v>11091</v>
+      </c>
+      <c r="B4052" s="1" t="s">
+        <v>11528</v>
+      </c>
+      <c r="C4052" s="1" t="s">
+        <v>11529</v>
+      </c>
+    </row>
+    <row r="4053" spans="1:3">
+      <c r="A4053" s="2" t="s">
+        <v>11092</v>
+      </c>
+      <c r="B4053" s="1" t="s">
+        <v>11530</v>
+      </c>
+      <c r="C4053" s="1" t="s">
+        <v>11531</v>
+      </c>
+    </row>
+    <row r="4054" spans="1:3">
+      <c r="A4054" s="2" t="s">
+        <v>11093</v>
+      </c>
+      <c r="B4054" s="1" t="s">
+        <v>11532</v>
+      </c>
+      <c r="C4054" s="1" t="s">
+        <v>11533</v>
+      </c>
+    </row>
+    <row r="4055" spans="1:3">
+      <c r="A4055" s="2" t="s">
+        <v>11094</v>
+      </c>
+      <c r="B4055" s="1" t="s">
+        <v>11530</v>
+      </c>
+      <c r="C4055" s="1" t="s">
+        <v>11534</v>
+      </c>
+    </row>
+    <row r="4056" spans="1:3">
+      <c r="A4056" s="2" t="s">
+        <v>11095</v>
+      </c>
+      <c r="B4056" s="1" t="s">
+        <v>11535</v>
+      </c>
+      <c r="C4056" s="1" t="s">
+        <v>11536</v>
+      </c>
+    </row>
+    <row r="4057" spans="1:3">
+      <c r="A4057" s="2" t="s">
+        <v>11096</v>
+      </c>
+      <c r="B4057" s="1" t="s">
+        <v>11537</v>
+      </c>
+      <c r="C4057" s="1" t="s">
+        <v>11538</v>
+      </c>
+    </row>
+    <row r="4058" spans="1:3">
+      <c r="A4058" s="2" t="s">
+        <v>11097</v>
+      </c>
+      <c r="B4058" s="1" t="s">
+        <v>11539</v>
+      </c>
+      <c r="C4058" s="1" t="s">
+        <v>11540</v>
+      </c>
+    </row>
+    <row r="4059" spans="1:3">
+      <c r="A4059" s="2" t="s">
+        <v>11098</v>
+      </c>
+      <c r="B4059" s="1" t="s">
+        <v>11541</v>
+      </c>
+      <c r="C4059" s="1" t="s">
+        <v>11542</v>
+      </c>
+    </row>
+    <row r="4060" spans="1:3">
+      <c r="A4060" s="2" t="s">
+        <v>11099</v>
+      </c>
+      <c r="B4060" s="1" t="s">
+        <v>11543</v>
+      </c>
+      <c r="C4060" s="1" t="s">
+        <v>11544</v>
+      </c>
+    </row>
+    <row r="4061" spans="1:3">
+      <c r="A4061" s="2" t="s">
+        <v>11100</v>
+      </c>
+      <c r="B4061" s="1" t="s">
+        <v>11545</v>
+      </c>
+      <c r="C4061" s="1" t="s">
+        <v>11546</v>
+      </c>
+    </row>
+    <row r="4062" spans="1:3">
+      <c r="A4062" s="2" t="s">
+        <v>11110</v>
+      </c>
+      <c r="B4062" s="1" t="s">
+        <v>11547</v>
+      </c>
+      <c r="C4062" s="1" t="s">
+        <v>11548</v>
+      </c>
+    </row>
+    <row r="4063" spans="1:3">
+      <c r="A4063" s="2" t="s">
+        <v>11111</v>
+      </c>
+      <c r="B4063" s="1" t="s">
+        <v>11549</v>
+      </c>
+      <c r="C4063" s="1" t="s">
+        <v>11550</v>
+      </c>
+    </row>
+    <row r="4064" spans="1:3">
+      <c r="A4064" s="2" t="s">
+        <v>11101</v>
+      </c>
+      <c r="B4064" s="1" t="s">
+        <v>11551</v>
+      </c>
+      <c r="C4064" s="1" t="s">
+        <v>11552</v>
+      </c>
+    </row>
+    <row r="4065" spans="1:3">
+      <c r="A4065" s="2" t="s">
+        <v>11102</v>
+      </c>
+      <c r="B4065" s="1" t="s">
+        <v>11553</v>
+      </c>
+      <c r="C4065" s="1" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="4066" spans="1:3">
+      <c r="A4066" s="2" t="s">
+        <v>11103</v>
+      </c>
+      <c r="B4066" s="1" t="s">
+        <v>11554</v>
+      </c>
+      <c r="C4066" s="1" t="s">
+        <v>11555</v>
+      </c>
+    </row>
+    <row r="4067" spans="1:3">
+      <c r="A4067" s="2" t="s">
+        <v>11104</v>
+      </c>
+      <c r="B4067" s="1" t="s">
+        <v>11556</v>
+      </c>
+      <c r="C4067" s="1" t="s">
+        <v>11557</v>
+      </c>
+    </row>
+    <row r="4068" spans="1:3">
+      <c r="A4068" s="2" t="s">
+        <v>11105</v>
+      </c>
+      <c r="B4068" s="1" t="s">
+        <v>11556</v>
+      </c>
+      <c r="C4068" s="1" t="s">
+        <v>11558</v>
+      </c>
+    </row>
+    <row r="4069" spans="1:3">
+      <c r="A4069" s="2" t="s">
+        <v>11106</v>
+      </c>
+      <c r="B4069" s="1" t="s">
+        <v>11559</v>
+      </c>
+      <c r="C4069" s="1" t="s">
+        <v>11560</v>
+      </c>
+    </row>
+    <row r="4070" spans="1:3">
+      <c r="A4070" s="2" t="s">
+        <v>11107</v>
+      </c>
+      <c r="B4070" s="1" t="s">
+        <v>11561</v>
+      </c>
+      <c r="C4070" s="1" t="s">
+        <v>11562</v>
+      </c>
+    </row>
+    <row r="4071" spans="1:3">
+      <c r="A4071" s="2" t="s">
+        <v>11108</v>
+      </c>
+      <c r="B4071" s="1" t="s">
+        <v>11563</v>
+      </c>
+      <c r="C4071" s="1" t="s">
+        <v>11564</v>
+      </c>
+    </row>
+    <row r="4072" spans="1:3">
+      <c r="A4072" s="2" t="s">
+        <v>11109</v>
+      </c>
+      <c r="B4072" s="1" t="s">
+        <v>11565</v>
+      </c>
+      <c r="C4072" s="1" t="s">
+        <v>11566</v>
+      </c>
+    </row>
+    <row r="4073" spans="1:3">
+      <c r="A4073" s="2" t="s">
+        <v>11112</v>
+      </c>
+      <c r="B4073" s="1" t="s">
+        <v>11567</v>
+      </c>
+      <c r="C4073" s="1" t="s">
+        <v>11568</v>
+      </c>
+    </row>
+    <row r="4074" spans="1:3">
+      <c r="A4074" s="2" t="s">
+        <v>11113</v>
+      </c>
+      <c r="B4074" s="1" t="s">
+        <v>11569</v>
+      </c>
+      <c r="C4074" s="1" t="s">
+        <v>11570</v>
+      </c>
+    </row>
+    <row r="4075" spans="1:3">
+      <c r="A4075" s="2" t="s">
+        <v>11114</v>
+      </c>
+      <c r="B4075" s="1" t="s">
+        <v>11571</v>
+      </c>
+      <c r="C4075" s="1" t="s">
+        <v>11572</v>
+      </c>
+    </row>
+    <row r="4076" spans="1:3">
+      <c r="A4076" s="2" t="s">
+        <v>11115</v>
+      </c>
+      <c r="B4076" s="1" t="s">
+        <v>11573</v>
+      </c>
+      <c r="C4076" s="1" t="s">
+        <v>11574</v>
+      </c>
+    </row>
+    <row r="4077" spans="1:3">
+      <c r="A4077" s="2" t="s">
+        <v>11116</v>
+      </c>
+      <c r="B4077" s="1" t="s">
+        <v>11575</v>
+      </c>
+      <c r="C4077" s="1" t="s">
+        <v>11576</v>
+      </c>
+    </row>
+    <row r="4078" spans="1:3">
+      <c r="A4078" s="2" t="s">
+        <v>11117</v>
+      </c>
+      <c r="B4078" s="1" t="s">
+        <v>11577</v>
+      </c>
+      <c r="C4078" s="1" t="s">
+        <v>11578</v>
+      </c>
+    </row>
+    <row r="4079" spans="1:3">
+      <c r="A4079" s="2" t="s">
+        <v>11118</v>
+      </c>
+      <c r="B4079" s="1" t="s">
+        <v>11579</v>
+      </c>
+      <c r="C4079" s="1" t="s">
+        <v>11580</v>
+      </c>
+    </row>
+    <row r="4080" spans="1:3">
+      <c r="A4080" s="2" t="s">
+        <v>11119</v>
+      </c>
+      <c r="B4080" s="1" t="s">
+        <v>11581</v>
+      </c>
+      <c r="C4080" s="1" t="s">
+        <v>11582</v>
+      </c>
+    </row>
+    <row r="4081" spans="1:3">
+      <c r="A4081" s="2" t="s">
+        <v>11120</v>
+      </c>
+      <c r="B4081" s="1" t="s">
+        <v>11583</v>
+      </c>
+      <c r="C4081" s="1" t="s">
+        <v>11584</v>
+      </c>
+    </row>
+    <row r="4082" spans="1:3">
+      <c r="A4082" s="2" t="s">
+        <v>11121</v>
+      </c>
+      <c r="B4082" s="1" t="s">
+        <v>11585</v>
+      </c>
+      <c r="C4082" s="1" t="s">
+        <v>11586</v>
+      </c>
+    </row>
+    <row r="4083" spans="1:3">
+      <c r="A4083" s="2" t="s">
+        <v>11122</v>
+      </c>
+      <c r="B4083" s="1" t="s">
+        <v>11587</v>
+      </c>
+      <c r="C4083" s="1" t="s">
+        <v>11588</v>
+      </c>
+    </row>
+    <row r="4084" spans="1:3">
+      <c r="A4084" s="2" t="s">
+        <v>11123</v>
+      </c>
+      <c r="B4084" s="1" t="s">
+        <v>11589</v>
+      </c>
+      <c r="C4084" s="1" t="s">
+        <v>11590</v>
+      </c>
+    </row>
+    <row r="4085" spans="1:3">
+      <c r="A4085" s="2" t="s">
+        <v>11124</v>
+      </c>
+      <c r="B4085" s="1" t="s">
+        <v>11591</v>
+      </c>
+      <c r="C4085" s="1" t="s">
+        <v>11592</v>
+      </c>
+    </row>
+    <row r="4086" spans="1:3">
+      <c r="A4086" s="2" t="s">
+        <v>11125</v>
+      </c>
+      <c r="B4086" s="1" t="s">
+        <v>11593</v>
+      </c>
+      <c r="C4086" s="1" t="s">
+        <v>11594</v>
+      </c>
+    </row>
+    <row r="4087" spans="1:3">
+      <c r="A4087" s="2" t="s">
+        <v>11126</v>
+      </c>
+      <c r="B4087" s="1" t="s">
+        <v>11595</v>
+      </c>
+      <c r="C4087" s="1" t="s">
+        <v>11596</v>
+      </c>
+    </row>
+    <row r="4088" spans="1:3">
+      <c r="A4088" s="2" t="s">
+        <v>11127</v>
+      </c>
+      <c r="B4088" s="1" t="s">
+        <v>11597</v>
+      </c>
+      <c r="C4088" s="1" t="s">
+        <v>11598</v>
+      </c>
+    </row>
+    <row r="4089" spans="1:3">
+      <c r="A4089" s="2" t="s">
+        <v>11128</v>
+      </c>
+      <c r="B4089" s="1" t="s">
+        <v>11599</v>
+      </c>
+      <c r="C4089" s="1" t="s">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="4090" spans="1:3">
+      <c r="A4090" s="2" t="s">
+        <v>11129</v>
+      </c>
+      <c r="B4090" s="1" t="s">
+        <v>11601</v>
+      </c>
+      <c r="C4090" s="1" t="s">
+        <v>11602</v>
+      </c>
+    </row>
+    <row r="4091" spans="1:3">
+      <c r="A4091" s="2" t="s">
+        <v>11130</v>
+      </c>
+      <c r="B4091" s="1" t="s">
+        <v>11603</v>
+      </c>
+      <c r="C4091" s="1" t="s">
+        <v>11604</v>
+      </c>
+    </row>
+    <row r="4092" spans="1:3">
+      <c r="A4092" s="2" t="s">
+        <v>11131</v>
+      </c>
+      <c r="B4092" s="1" t="s">
+        <v>11605</v>
+      </c>
+      <c r="C4092" s="1" t="s">
+        <v>11606</v>
+      </c>
+    </row>
+    <row r="4093" spans="1:3">
+      <c r="A4093" s="2" t="s">
+        <v>11139</v>
+      </c>
+      <c r="B4093" s="1" t="s">
+        <v>11607</v>
+      </c>
+      <c r="C4093" s="1" t="s">
+        <v>11608</v>
+      </c>
+    </row>
+    <row r="4094" spans="1:3">
+      <c r="A4094" s="2" t="s">
+        <v>11132</v>
+      </c>
+      <c r="B4094" s="1" t="s">
+        <v>11609</v>
+      </c>
+      <c r="C4094" s="1" t="s">
+        <v>11610</v>
+      </c>
+    </row>
+    <row r="4095" spans="1:3">
+      <c r="A4095" s="2" t="s">
+        <v>11133</v>
+      </c>
+      <c r="B4095" s="1" t="s">
+        <v>11611</v>
+      </c>
+      <c r="C4095" s="1" t="s">
+        <v>11612</v>
+      </c>
+    </row>
+    <row r="4096" spans="1:3">
+      <c r="A4096" s="2" t="s">
+        <v>11134</v>
+      </c>
+      <c r="B4096" s="1" t="s">
+        <v>11613</v>
+      </c>
+      <c r="C4096" s="1" t="s">
+        <v>11614</v>
+      </c>
+    </row>
+    <row r="4097" spans="1:3">
+      <c r="A4097" s="2" t="s">
+        <v>11137</v>
+      </c>
+      <c r="B4097" s="1" t="s">
+        <v>11615</v>
+      </c>
+      <c r="C4097" s="1" t="s">
+        <v>11616</v>
+      </c>
+    </row>
+    <row r="4098" spans="1:3">
+      <c r="A4098" s="2" t="s">
+        <v>11138</v>
+      </c>
+      <c r="B4098" s="1" t="s">
+        <v>11617</v>
+      </c>
+      <c r="C4098" s="1" t="s">
+        <v>11618</v>
+      </c>
+    </row>
+    <row r="4099" spans="1:3">
+      <c r="A4099" s="2" t="s">
+        <v>11136</v>
+      </c>
+      <c r="B4099" s="1" t="s">
+        <v>11619</v>
+      </c>
+      <c r="C4099" s="1" t="s">
+        <v>11620</v>
+      </c>
+    </row>
+    <row r="4100" spans="1:3">
+      <c r="A4100" s="2" t="s">
+        <v>11135</v>
+      </c>
+      <c r="B4100" s="1" t="s">
+        <v>11621</v>
+      </c>
+      <c r="C4100" s="1" t="s">
+        <v>11622</v>
+      </c>
+    </row>
+    <row r="4101" spans="1:3">
+      <c r="A4101" s="2" t="s">
+        <v>11140</v>
+      </c>
+      <c r="B4101" s="1" t="s">
+        <v>11623</v>
+      </c>
+      <c r="C4101" s="1" t="s">
+        <v>11624</v>
+      </c>
+    </row>
+    <row r="4102" spans="1:3">
+      <c r="A4102" s="2" t="s">
+        <v>11141</v>
+      </c>
+      <c r="B4102" s="1" t="s">
+        <v>11625</v>
+      </c>
+      <c r="C4102" s="1" t="s">
+        <v>11626</v>
+      </c>
+    </row>
+    <row r="4103" spans="1:3">
+      <c r="A4103" s="2" t="s">
+        <v>11142</v>
+      </c>
+      <c r="B4103" s="1" t="s">
+        <v>11627</v>
+      </c>
+      <c r="C4103" s="1" t="s">
+        <v>11628</v>
+      </c>
+    </row>
+    <row r="4104" spans="1:3">
+      <c r="A4104" s="2" t="s">
+        <v>11143</v>
+      </c>
+      <c r="B4104" s="1" t="s">
+        <v>11629</v>
+      </c>
+      <c r="C4104" s="1" t="s">
+        <v>11630</v>
+      </c>
+    </row>
+    <row r="4105" spans="1:3">
+      <c r="A4105" s="2" t="s">
+        <v>11144</v>
+      </c>
+      <c r="B4105" s="1" t="s">
+        <v>11631</v>
+      </c>
+      <c r="C4105" s="1" t="s">
+        <v>11632</v>
+      </c>
+    </row>
+    <row r="4106" spans="1:3">
+      <c r="A4106" s="2" t="s">
+        <v>11145</v>
+      </c>
+      <c r="B4106" s="1" t="s">
+        <v>11633</v>
+      </c>
+      <c r="C4106" s="1" t="s">
+        <v>11634</v>
+      </c>
+    </row>
+    <row r="4107" spans="1:3">
+      <c r="A4107" s="2" t="s">
+        <v>11146</v>
+      </c>
+      <c r="B4107" s="1" t="s">
+        <v>11146</v>
+      </c>
+      <c r="C4107" s="1" t="s">
+        <v>11635</v>
+      </c>
+    </row>
+    <row r="4108" spans="1:3">
+      <c r="A4108" s="2" t="s">
+        <v>11147</v>
+      </c>
+      <c r="B4108" s="1" t="s">
+        <v>11147</v>
+      </c>
+      <c r="C4108" s="1" t="s">
+        <v>11636</v>
+      </c>
+    </row>
+    <row r="4109" spans="1:3">
+      <c r="A4109" s="2" t="s">
+        <v>11148</v>
+      </c>
+      <c r="B4109" s="1" t="s">
+        <v>11637</v>
+      </c>
+      <c r="C4109" s="1" t="s">
+        <v>11638</v>
+      </c>
+    </row>
+    <row r="4110" spans="1:3">
+      <c r="A4110" s="2" t="s">
+        <v>11149</v>
+      </c>
+      <c r="B4110" s="1" t="s">
+        <v>11149</v>
+      </c>
+      <c r="C4110" s="1" t="s">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="4111" spans="1:3">
+      <c r="A4111" s="2" t="s">
+        <v>11150</v>
+      </c>
+      <c r="B4111" s="1" t="s">
+        <v>11150</v>
+      </c>
+      <c r="C4111" s="1" t="s">
+        <v>11639</v>
+      </c>
+    </row>
+    <row r="4112" spans="1:3">
+      <c r="A4112" s="2" t="s">
+        <v>11151</v>
+      </c>
+      <c r="B4112" s="1" t="s">
+        <v>11640</v>
+      </c>
+      <c r="C4112" s="1" t="s">
+        <v>11641</v>
+      </c>
+    </row>
+    <row r="4113" spans="1:3">
+      <c r="A4113" s="2" t="s">
+        <v>11152</v>
+      </c>
+      <c r="B4113" s="1" t="s">
+        <v>11642</v>
+      </c>
+      <c r="C4113" s="1" t="s">
+        <v>11643</v>
+      </c>
+    </row>
+    <row r="4114" spans="1:3">
+      <c r="A4114" s="2" t="s">
+        <v>11153</v>
+      </c>
+      <c r="B4114" s="1" t="s">
+        <v>11644</v>
+      </c>
+      <c r="C4114" s="1" t="s">
+        <v>11645</v>
+      </c>
+    </row>
+    <row r="4115" spans="1:3">
+      <c r="A4115" s="2" t="s">
+        <v>11154</v>
+      </c>
+      <c r="B4115" s="1" t="s">
+        <v>11646</v>
+      </c>
+      <c r="C4115" s="1" t="s">
+        <v>11647</v>
+      </c>
+    </row>
+    <row r="4116" spans="1:3">
+      <c r="A4116" s="2" t="s">
+        <v>11155</v>
+      </c>
+      <c r="B4116" s="1" t="s">
+        <v>11648</v>
+      </c>
+      <c r="C4116" s="1" t="s">
+        <v>11649</v>
+      </c>
+    </row>
+    <row r="4117" spans="1:3">
+      <c r="A4117" s="2" t="s">
+        <v>11156</v>
+      </c>
+      <c r="B4117" s="1" t="s">
+        <v>11650</v>
+      </c>
+      <c r="C4117" s="1" t="s">
+        <v>11651</v>
+      </c>
+    </row>
+    <row r="4118" spans="1:3">
+      <c r="A4118" s="2" t="s">
+        <v>11157</v>
+      </c>
+      <c r="B4118" s="1" t="s">
+        <v>11646</v>
+      </c>
+      <c r="C4118" s="1" t="s">
+        <v>11652</v>
+      </c>
+    </row>
+    <row r="4119" spans="1:3">
+      <c r="A4119" s="2" t="s">
+        <v>11158</v>
+      </c>
+      <c r="B4119" s="1" t="s">
+        <v>11653</v>
+      </c>
+      <c r="C4119" s="1" t="s">
+        <v>11654</v>
+      </c>
+    </row>
+    <row r="4120" spans="1:3">
+      <c r="A4120" s="2" t="s">
+        <v>11159</v>
+      </c>
+      <c r="B4120" s="1" t="s">
+        <v>11655</v>
+      </c>
+      <c r="C4120" s="1" t="s">
+        <v>11656</v>
+      </c>
+    </row>
+    <row r="4121" spans="1:3">
+      <c r="A4121" s="2" t="s">
+        <v>11160</v>
+      </c>
+      <c r="B4121" s="1" t="s">
+        <v>11657</v>
+      </c>
+      <c r="C4121" s="1" t="s">
+        <v>11658</v>
+      </c>
+    </row>
+    <row r="4122" spans="1:3">
+      <c r="A4122" s="2" t="s">
+        <v>11161</v>
+      </c>
+      <c r="B4122" s="1" t="s">
+        <v>11659</v>
+      </c>
+      <c r="C4122" s="1" t="s">
+        <v>11660</v>
+      </c>
+    </row>
+    <row r="4123" spans="1:3">
+      <c r="A4123" s="2" t="s">
+        <v>11162</v>
+      </c>
+      <c r="B4123" s="1" t="s">
+        <v>11661</v>
+      </c>
+      <c r="C4123" s="1" t="s">
+        <v>11662</v>
+      </c>
+    </row>
+    <row r="4124" spans="1:3">
+      <c r="A4124" s="2" t="s">
+        <v>11163</v>
+      </c>
+      <c r="B4124" s="1" t="s">
+        <v>11657</v>
+      </c>
+      <c r="C4124" s="1" t="s">
+        <v>11663</v>
+      </c>
+    </row>
+    <row r="4125" spans="1:3">
+      <c r="A4125" s="2" t="s">
+        <v>11164</v>
+      </c>
+      <c r="B4125" s="1" t="s">
+        <v>11657</v>
+      </c>
+      <c r="C4125" s="1" t="s">
+        <v>11664</v>
+      </c>
+    </row>
+    <row r="4126" spans="1:3">
+      <c r="A4126" s="2" t="s">
+        <v>11165</v>
+      </c>
+      <c r="B4126" s="1" t="s">
+        <v>11646</v>
+      </c>
+      <c r="C4126" s="1" t="s">
+        <v>11665</v>
+      </c>
+    </row>
+    <row r="4127" spans="1:3">
+      <c r="A4127" s="2" t="s">
+        <v>11166</v>
+      </c>
+      <c r="B4127" s="1" t="s">
+        <v>11666</v>
+      </c>
+      <c r="C4127" s="1" t="s">
+        <v>11667</v>
+      </c>
+    </row>
+    <row r="4128" spans="1:3">
+      <c r="A4128" s="2" t="s">
+        <v>11178</v>
+      </c>
+      <c r="B4128" s="1" t="s">
+        <v>11668</v>
+      </c>
+      <c r="C4128" s="1" t="s">
+        <v>11669</v>
+      </c>
+    </row>
+    <row r="4129" spans="1:3">
+      <c r="A4129" s="2" t="s">
+        <v>11167</v>
+      </c>
+      <c r="B4129" s="1" t="s">
+        <v>11670</v>
+      </c>
+      <c r="C4129" s="1" t="s">
+        <v>11671</v>
+      </c>
+    </row>
+    <row r="4130" spans="1:3">
+      <c r="A4130" s="2" t="s">
+        <v>11179</v>
+      </c>
+      <c r="B4130" s="1" t="s">
+        <v>11672</v>
+      </c>
+      <c r="C4130" s="1" t="s">
+        <v>11673</v>
+      </c>
+    </row>
+    <row r="4131" spans="1:3">
+      <c r="A4131" s="2" t="s">
+        <v>11180</v>
+      </c>
+      <c r="B4131" s="1" t="s">
+        <v>11674</v>
+      </c>
+      <c r="C4131" s="1" t="s">
+        <v>11675</v>
+      </c>
+    </row>
+    <row r="4132" spans="1:3">
+      <c r="A4132" s="2" t="s">
+        <v>11168</v>
+      </c>
+      <c r="B4132" s="1" t="s">
+        <v>11676</v>
+      </c>
+      <c r="C4132" s="1" t="s">
+        <v>11677</v>
+      </c>
+    </row>
+    <row r="4133" spans="1:3">
+      <c r="A4133" s="2" t="s">
+        <v>11181</v>
+      </c>
+      <c r="B4133" s="1" t="s">
+        <v>11678</v>
+      </c>
+      <c r="C4133" s="1" t="s">
+        <v>11679</v>
+      </c>
+    </row>
+    <row r="4134" spans="1:3">
+      <c r="A4134" s="2" t="s">
+        <v>11169</v>
+      </c>
+      <c r="B4134" s="1" t="s">
+        <v>11680</v>
+      </c>
+      <c r="C4134" s="1" t="s">
+        <v>11681</v>
+      </c>
+    </row>
+    <row r="4135" spans="1:3">
+      <c r="A4135" s="2" t="s">
+        <v>11170</v>
+      </c>
+      <c r="B4135" s="1" t="s">
+        <v>11682</v>
+      </c>
+      <c r="C4135" s="1" t="s">
+        <v>11683</v>
+      </c>
+    </row>
+    <row r="4136" spans="1:3">
+      <c r="A4136" s="2" t="s">
+        <v>11171</v>
+      </c>
+      <c r="B4136" s="1" t="s">
+        <v>11682</v>
+      </c>
+      <c r="C4136" s="1" t="s">
+        <v>11684</v>
+      </c>
+    </row>
+    <row r="4137" spans="1:3">
+      <c r="A4137" s="2" t="s">
+        <v>11182</v>
+      </c>
+      <c r="B4137" s="1" t="s">
+        <v>11682</v>
+      </c>
+      <c r="C4137" s="1" t="s">
+        <v>11685</v>
+      </c>
+    </row>
+    <row r="4138" spans="1:3">
+      <c r="A4138" s="2" t="s">
+        <v>11172</v>
+      </c>
+      <c r="B4138" s="1" t="s">
+        <v>11686</v>
+      </c>
+      <c r="C4138" s="1" t="s">
+        <v>11687</v>
+      </c>
+    </row>
+    <row r="4139" spans="1:3">
+      <c r="A4139" s="2" t="s">
+        <v>11183</v>
+      </c>
+      <c r="B4139" s="1" t="s">
+        <v>11688</v>
+      </c>
+      <c r="C4139" s="1" t="s">
+        <v>11689</v>
+      </c>
+    </row>
+    <row r="4140" spans="1:3">
+      <c r="A4140" s="2" t="s">
+        <v>11188</v>
+      </c>
+      <c r="B4140" s="1" t="s">
+        <v>11690</v>
+      </c>
+      <c r="C4140" s="1" t="s">
+        <v>11691</v>
+      </c>
+    </row>
+    <row r="4141" spans="1:3">
+      <c r="A4141" s="2" t="s">
+        <v>11184</v>
+      </c>
+      <c r="B4141" s="1" t="s">
+        <v>11692</v>
+      </c>
+      <c r="C4141" s="1" t="s">
+        <v>11693</v>
+      </c>
+    </row>
+    <row r="4142" spans="1:3">
+      <c r="A4142" s="2" t="s">
+        <v>11185</v>
+      </c>
+      <c r="B4142" s="1" t="s">
+        <v>11694</v>
+      </c>
+      <c r="C4142" s="1" t="s">
+        <v>11695</v>
+      </c>
+    </row>
+    <row r="4143" spans="1:3">
+      <c r="A4143" s="2" t="s">
+        <v>11173</v>
+      </c>
+      <c r="B4143" s="1" t="s">
+        <v>11696</v>
+      </c>
+      <c r="C4143" s="1" t="s">
+        <v>11697</v>
+      </c>
+    </row>
+    <row r="4144" spans="1:3">
+      <c r="A4144" s="2" t="s">
+        <v>11186</v>
+      </c>
+      <c r="B4144" s="1" t="s">
+        <v>11698</v>
+      </c>
+      <c r="C4144" s="1" t="s">
+        <v>11699</v>
+      </c>
+    </row>
+    <row r="4145" spans="1:3">
+      <c r="A4145" s="2" t="s">
+        <v>11187</v>
+      </c>
+      <c r="B4145" s="1" t="s">
+        <v>11698</v>
+      </c>
+      <c r="C4145" s="1" t="s">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="4146" spans="1:3">
+      <c r="A4146" s="2" t="s">
+        <v>11174</v>
+      </c>
+      <c r="B4146" s="1" t="s">
+        <v>11701</v>
+      </c>
+      <c r="C4146" s="1" t="s">
+        <v>11702</v>
+      </c>
+    </row>
+    <row r="4147" spans="1:3">
+      <c r="A4147" s="2" t="s">
+        <v>11189</v>
+      </c>
+      <c r="B4147" s="1" t="s">
+        <v>11703</v>
+      </c>
+      <c r="C4147" s="1" t="s">
+        <v>11704</v>
+      </c>
+    </row>
+    <row r="4148" spans="1:3">
+      <c r="A4148" s="2" t="s">
+        <v>11175</v>
+      </c>
+      <c r="B4148" s="1" t="s">
+        <v>11705</v>
+      </c>
+      <c r="C4148" s="1" t="s">
+        <v>11706</v>
+      </c>
+    </row>
+    <row r="4149" spans="1:3">
+      <c r="A4149" s="2" t="s">
+        <v>11176</v>
+      </c>
+      <c r="B4149" s="1" t="s">
+        <v>11705</v>
+      </c>
+      <c r="C4149" s="1" t="s">
+        <v>11707</v>
+      </c>
+    </row>
+    <row r="4150" spans="1:3">
+      <c r="A4150" s="2" t="s">
+        <v>11177</v>
+      </c>
+      <c r="B4150" s="1" t="s">
+        <v>11708</v>
+      </c>
+      <c r="C4150" s="1" t="s">
+        <v>11709</v>
+      </c>
+    </row>
+    <row r="4151" spans="1:3">
+      <c r="A4151" s="2" t="s">
+        <v>11190</v>
+      </c>
+      <c r="B4151" s="1" t="s">
+        <v>11710</v>
+      </c>
+      <c r="C4151" s="1" t="s">
+        <v>11711</v>
+      </c>
+    </row>
+    <row r="4152" spans="1:3">
+      <c r="A4152" s="2" t="s">
+        <v>11191</v>
+      </c>
+      <c r="B4152" s="1" t="s">
+        <v>11712</v>
+      </c>
+      <c r="C4152" s="1" t="s">
+        <v>11713</v>
+      </c>
+    </row>
+    <row r="4153" spans="1:3">
+      <c r="A4153" s="2" t="s">
+        <v>11192</v>
+      </c>
+      <c r="B4153" s="1" t="s">
+        <v>11714</v>
+      </c>
+      <c r="C4153" s="1" t="s">
+        <v>11715</v>
+      </c>
+    </row>
+    <row r="4154" spans="1:3">
+      <c r="A4154" s="2" t="s">
+        <v>11193</v>
+      </c>
+      <c r="B4154" s="1" t="s">
+        <v>11714</v>
+      </c>
+      <c r="C4154" s="1" t="s">
+        <v>11716</v>
+      </c>
+    </row>
+    <row r="4155" spans="1:3">
+      <c r="A4155" s="2" t="s">
+        <v>11194</v>
+      </c>
+      <c r="B4155" s="1" t="s">
+        <v>11717</v>
+      </c>
+      <c r="C4155" s="1" t="s">
+        <v>11718</v>
+      </c>
+    </row>
+    <row r="4156" spans="1:3">
+      <c r="A4156" s="2" t="s">
+        <v>11195</v>
+      </c>
+      <c r="B4156" s="1" t="s">
+        <v>11719</v>
+      </c>
+      <c r="C4156" s="1" t="s">
+        <v>11720</v>
+      </c>
+    </row>
+    <row r="4157" spans="1:3">
+      <c r="A4157" s="2" t="s">
+        <v>11196</v>
+      </c>
+      <c r="B4157" s="1" t="s">
+        <v>11721</v>
+      </c>
+      <c r="C4157" s="1" t="s">
+        <v>11722</v>
+      </c>
+    </row>
+    <row r="4158" spans="1:3">
+      <c r="A4158" s="2" t="s">
+        <v>11197</v>
+      </c>
+      <c r="B4158" s="1" t="s">
+        <v>11723</v>
+      </c>
+      <c r="C4158" s="1" t="s">
+        <v>11724</v>
+      </c>
+    </row>
+    <row r="4159" spans="1:3">
+      <c r="A4159" s="2" t="s">
+        <v>11198</v>
+      </c>
+      <c r="B4159" s="1" t="s">
+        <v>11725</v>
+      </c>
+      <c r="C4159" s="1" t="s">
+        <v>11726</v>
+      </c>
+    </row>
+    <row r="4160" spans="1:3">
+      <c r="A4160" s="2" t="s">
+        <v>11199</v>
+      </c>
+      <c r="B4160" s="1" t="s">
+        <v>11727</v>
+      </c>
+      <c r="C4160" s="1" t="s">
+        <v>11728</v>
+      </c>
+    </row>
+    <row r="4161" spans="1:3">
+      <c r="A4161" s="2" t="s">
+        <v>11200</v>
+      </c>
+      <c r="B4161" s="1" t="s">
+        <v>11729</v>
+      </c>
+      <c r="C4161" s="1" t="s">
+        <v>11730</v>
+      </c>
+    </row>
+    <row r="4162" spans="1:3">
+      <c r="A4162" s="2" t="s">
+        <v>11201</v>
+      </c>
+      <c r="B4162" s="1" t="s">
+        <v>11731</v>
+      </c>
+      <c r="C4162" s="1" t="s">
+        <v>11732</v>
+      </c>
+    </row>
+    <row r="4163" spans="1:3">
+      <c r="A4163" s="2" t="s">
+        <v>11202</v>
+      </c>
+      <c r="B4163" s="1" t="s">
+        <v>11733</v>
+      </c>
+      <c r="C4163" s="1" t="s">
+        <v>11734</v>
+      </c>
+    </row>
+    <row r="4164" spans="1:3">
+      <c r="A4164" s="2" t="s">
+        <v>11203</v>
+      </c>
+      <c r="B4164" s="1" t="s">
+        <v>11735</v>
+      </c>
+      <c r="C4164" s="1" t="s">
+        <v>11736</v>
+      </c>
+    </row>
+    <row r="4165" spans="1:3">
+      <c r="A4165" s="2" t="s">
+        <v>11204</v>
+      </c>
+      <c r="B4165" s="1" t="s">
+        <v>11737</v>
+      </c>
+      <c r="C4165" s="1" t="s">
+        <v>11738</v>
+      </c>
+    </row>
+    <row r="4166" spans="1:3">
+      <c r="A4166" s="2" t="s">
+        <v>11205</v>
+      </c>
+      <c r="B4166" s="1" t="s">
+        <v>11739</v>
+      </c>
+      <c r="C4166" s="1" t="s">
+        <v>11740</v>
+      </c>
+    </row>
+    <row r="4167" spans="1:3">
+      <c r="A4167" s="2" t="s">
+        <v>11206</v>
+      </c>
+      <c r="B4167" s="1" t="s">
+        <v>11741</v>
+      </c>
+      <c r="C4167" s="1" t="s">
+        <v>11742</v>
+      </c>
+    </row>
+    <row r="4168" spans="1:3">
+      <c r="A4168" s="2" t="s">
+        <v>11207</v>
+      </c>
+      <c r="B4168" s="1" t="s">
+        <v>11743</v>
+      </c>
+      <c r="C4168" s="1" t="s">
+        <v>11744</v>
+      </c>
+    </row>
+    <row r="4169" spans="1:3">
+      <c r="A4169" s="2" t="s">
+        <v>11208</v>
+      </c>
+      <c r="B4169" s="1" t="s">
+        <v>11745</v>
+      </c>
+      <c r="C4169" s="1" t="s">
+        <v>11746</v>
+      </c>
+    </row>
+    <row r="4170" spans="1:3">
+      <c r="A4170" s="2" t="s">
+        <v>11209</v>
+      </c>
+      <c r="B4170" s="1" t="s">
+        <v>11747</v>
+      </c>
+      <c r="C4170" s="1" t="s">
+        <v>11748</v>
+      </c>
+    </row>
+    <row r="4171" spans="1:3">
+      <c r="A4171" s="2" t="s">
+        <v>11210</v>
+      </c>
+      <c r="B4171" s="1" t="s">
+        <v>11749</v>
+      </c>
+      <c r="C4171" s="1" t="s">
+        <v>11750</v>
+      </c>
+    </row>
+    <row r="4172" spans="1:3">
+      <c r="A4172" s="2" t="s">
+        <v>11211</v>
+      </c>
+      <c r="B4172" s="1" t="s">
+        <v>11751</v>
+      </c>
+      <c r="C4172" s="1" t="s">
+        <v>11752</v>
+      </c>
+    </row>
+    <row r="4173" spans="1:3">
+      <c r="A4173" s="2" t="s">
+        <v>11212</v>
+      </c>
+      <c r="B4173" s="1" t="s">
+        <v>11753</v>
+      </c>
+      <c r="C4173" s="1" t="s">
+        <v>11754</v>
+      </c>
+    </row>
+    <row r="4174" spans="1:3">
+      <c r="A4174" s="2" t="s">
+        <v>11213</v>
+      </c>
+      <c r="B4174" s="1" t="s">
+        <v>11755</v>
+      </c>
+      <c r="C4174" s="1" t="s">
+        <v>11756</v>
+      </c>
+    </row>
+    <row r="4175" spans="1:3">
+      <c r="A4175" s="2" t="s">
+        <v>11230</v>
+      </c>
+      <c r="B4175" s="1" t="s">
+        <v>11755</v>
+      </c>
+      <c r="C4175" s="1" t="s">
+        <v>11757</v>
+      </c>
+    </row>
+    <row r="4176" spans="1:3">
+      <c r="A4176" s="2" t="s">
+        <v>11214</v>
+      </c>
+      <c r="B4176" s="1" t="s">
+        <v>11758</v>
+      </c>
+      <c r="C4176" s="1" t="s">
+        <v>11759</v>
+      </c>
+    </row>
+    <row r="4177" spans="1:3">
+      <c r="A4177" s="2" t="s">
+        <v>11215</v>
+      </c>
+      <c r="B4177" s="1" t="s">
+        <v>11760</v>
+      </c>
+      <c r="C4177" s="1" t="s">
+        <v>11761</v>
+      </c>
+    </row>
+    <row r="4178" spans="1:3">
+      <c r="A4178" s="2" t="s">
+        <v>11216</v>
+      </c>
+      <c r="B4178" s="1" t="s">
+        <v>11762</v>
+      </c>
+      <c r="C4178" s="1" t="s">
+        <v>11651</v>
+      </c>
+    </row>
+    <row r="4179" spans="1:3">
+      <c r="A4179" s="2" t="s">
+        <v>11217</v>
+      </c>
+      <c r="B4179" s="1" t="s">
+        <v>11763</v>
+      </c>
+      <c r="C4179" s="1" t="s">
+        <v>11764</v>
+      </c>
+    </row>
+    <row r="4180" spans="1:3">
+      <c r="A4180" s="2" t="s">
+        <v>11231</v>
+      </c>
+      <c r="B4180" s="1" t="s">
+        <v>11765</v>
+      </c>
+      <c r="C4180" s="1" t="s">
+        <v>11766</v>
+      </c>
+    </row>
+    <row r="4181" spans="1:3">
+      <c r="A4181" s="2" t="s">
+        <v>11232</v>
+      </c>
+      <c r="B4181" s="1" t="s">
+        <v>11767</v>
+      </c>
+      <c r="C4181" s="1" t="s">
+        <v>11768</v>
+      </c>
+    </row>
+    <row r="4182" spans="1:3">
+      <c r="A4182" s="2" t="s">
+        <v>11218</v>
+      </c>
+      <c r="B4182" s="1" t="s">
+        <v>11769</v>
+      </c>
+      <c r="C4182" s="1" t="s">
+        <v>11770</v>
+      </c>
+    </row>
+    <row r="4183" spans="1:3">
+      <c r="A4183" s="2" t="s">
+        <v>11219</v>
+      </c>
+      <c r="B4183" s="1" t="s">
+        <v>11771</v>
+      </c>
+      <c r="C4183" s="1" t="s">
+        <v>11772</v>
+      </c>
+    </row>
+    <row r="4184" spans="1:3">
+      <c r="A4184" s="2" t="s">
+        <v>11220</v>
+      </c>
+      <c r="B4184" s="1" t="s">
+        <v>11773</v>
+      </c>
+      <c r="C4184" s="1" t="s">
+        <v>11774</v>
+      </c>
+    </row>
+    <row r="4185" spans="1:3">
+      <c r="A4185" s="2" t="s">
+        <v>11221</v>
+      </c>
+      <c r="B4185" s="1" t="s">
+        <v>11775</v>
+      </c>
+      <c r="C4185" s="1" t="s">
+        <v>11776</v>
+      </c>
+    </row>
+    <row r="4186" spans="1:3">
+      <c r="A4186" s="2" t="s">
+        <v>11222</v>
+      </c>
+      <c r="B4186" s="1" t="s">
+        <v>11777</v>
+      </c>
+      <c r="C4186" s="1" t="s">
+        <v>11778</v>
+      </c>
+    </row>
+    <row r="4187" spans="1:3">
+      <c r="A4187" s="2" t="s">
+        <v>11223</v>
+      </c>
+      <c r="B4187" s="1" t="s">
+        <v>11779</v>
+      </c>
+      <c r="C4187" s="1" t="s">
+        <v>11780</v>
+      </c>
+    </row>
+    <row r="4188" spans="1:3">
+      <c r="A4188" s="2" t="s">
+        <v>11224</v>
+      </c>
+      <c r="B4188" s="1" t="s">
+        <v>11781</v>
+      </c>
+      <c r="C4188" s="1" t="s">
+        <v>11658</v>
+      </c>
+    </row>
+    <row r="4189" spans="1:3">
+      <c r="A4189" s="2" t="s">
+        <v>11225</v>
+      </c>
+      <c r="B4189" s="1" t="s">
+        <v>11782</v>
+      </c>
+      <c r="C4189" s="1" t="s">
+        <v>11783</v>
+      </c>
+    </row>
+    <row r="4190" spans="1:3">
+      <c r="A4190" s="2" t="s">
+        <v>11226</v>
+      </c>
+      <c r="B4190" s="1" t="s">
+        <v>11784</v>
+      </c>
+      <c r="C4190" s="1" t="s">
+        <v>11785</v>
+      </c>
+    </row>
+    <row r="4191" spans="1:3">
+      <c r="A4191" s="2" t="s">
+        <v>11227</v>
+      </c>
+      <c r="B4191" s="1" t="s">
+        <v>11786</v>
+      </c>
+      <c r="C4191" s="1" t="s">
+        <v>11787</v>
+      </c>
+    </row>
+    <row r="4192" spans="1:3">
+      <c r="A4192" s="2" t="s">
+        <v>11228</v>
+      </c>
+      <c r="B4192" s="1" t="s">
+        <v>11788</v>
+      </c>
+      <c r="C4192" s="1" t="s">
+        <v>11789</v>
+      </c>
+    </row>
+    <row r="4193" spans="1:3">
+      <c r="A4193" s="2" t="s">
+        <v>11229</v>
+      </c>
+      <c r="B4193" s="1" t="s">
+        <v>11790</v>
+      </c>
+      <c r="C4193" s="1" t="s">
+        <v>11791</v>
+      </c>
+    </row>
+    <row r="4194" spans="1:3">
+      <c r="A4194" s="2" t="s">
+        <v>11233</v>
+      </c>
+      <c r="B4194" s="1" t="s">
+        <v>11792</v>
+      </c>
+      <c r="C4194" s="1" t="s">
+        <v>11793</v>
+      </c>
+    </row>
+    <row r="4195" spans="1:3">
+      <c r="A4195" s="2" t="s">
+        <v>11233</v>
+      </c>
+      <c r="B4195" s="1" t="s">
+        <v>11792</v>
+      </c>
+      <c r="C4195" s="1" t="s">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="4196" spans="1:3" ht="18">
+      <c r="A4196" s="4" t="s">
+        <v>11234</v>
+      </c>
+      <c r="B4196" s="1" t="s">
+        <v>11794</v>
+      </c>
+      <c r="C4196" s="1" t="s">
+        <v>11533</v>
+      </c>
+    </row>
+    <row r="4197" spans="1:3">
+      <c r="A4197" s="2" t="s">
+        <v>11235</v>
+      </c>
+      <c r="B4197" s="1" t="s">
+        <v>11792</v>
+      </c>
+      <c r="C4197" s="1" t="s">
+        <v>11795</v>
+      </c>
+    </row>
+    <row r="4198" spans="1:3">
+      <c r="A4198" s="2" t="s">
+        <v>11236</v>
+      </c>
+      <c r="B4198" s="1" t="s">
+        <v>11796</v>
+      </c>
+      <c r="C4198" s="1" t="s">
+        <v>11797</v>
+      </c>
+    </row>
+    <row r="4199" spans="1:3">
+      <c r="A4199" s="2" t="s">
+        <v>11237</v>
+      </c>
+      <c r="B4199" s="1" t="s">
+        <v>11792</v>
+      </c>
+      <c r="C4199" s="1" t="s">
+        <v>11798</v>
+      </c>
+    </row>
+    <row r="4200" spans="1:3">
+      <c r="A4200" s="2" t="s">
+        <v>11238</v>
+      </c>
+      <c r="B4200" s="1" t="s">
+        <v>11792</v>
+      </c>
+      <c r="C4200" s="1" t="s">
+        <v>11799</v>
+      </c>
+    </row>
+    <row r="4201" spans="1:3">
+      <c r="A4201" s="2" t="s">
+        <v>11239</v>
+      </c>
+      <c r="B4201" s="1" t="s">
+        <v>11801</v>
+      </c>
+      <c r="C4201" s="1" t="s">
+        <v>11802</v>
+      </c>
+    </row>
+    <row r="4202" spans="1:3">
+      <c r="A4202" s="2" t="s">
+        <v>11240</v>
+      </c>
+      <c r="B4202" s="1" t="s">
+        <v>11801</v>
+      </c>
+      <c r="C4202" s="1" t="s">
+        <v>11803</v>
+      </c>
+    </row>
+    <row r="4203" spans="1:3">
+      <c r="A4203" s="2" t="s">
+        <v>11241</v>
+      </c>
+      <c r="B4203" s="1" t="s">
+        <v>11804</v>
+      </c>
+      <c r="C4203" s="1" t="s">
+        <v>11805</v>
+      </c>
+    </row>
+    <row r="4204" spans="1:3">
+      <c r="A4204" s="2" t="s">
+        <v>11242</v>
+      </c>
+      <c r="B4204" s="1" t="s">
+        <v>11806</v>
+      </c>
+      <c r="C4204" s="1" t="s">
+        <v>11807</v>
+      </c>
+    </row>
+    <row r="4205" spans="1:3">
+      <c r="A4205" s="2" t="s">
+        <v>11252</v>
+      </c>
+      <c r="B4205" s="1" t="s">
+        <v>11808</v>
+      </c>
+      <c r="C4205" s="1" t="s">
+        <v>11809</v>
+      </c>
+    </row>
+    <row r="4206" spans="1:3">
+      <c r="A4206" s="2" t="s">
+        <v>11253</v>
+      </c>
+      <c r="B4206" s="1" t="s">
+        <v>11810</v>
+      </c>
+      <c r="C4206" s="1" t="s">
+        <v>11811</v>
+      </c>
+    </row>
+    <row r="4207" spans="1:3">
+      <c r="A4207" s="2" t="s">
+        <v>11254</v>
+      </c>
+      <c r="B4207" s="1" t="s">
+        <v>11812</v>
+      </c>
+      <c r="C4207" s="1" t="s">
+        <v>11813</v>
+      </c>
+    </row>
+    <row r="4208" spans="1:3">
+      <c r="A4208" s="2" t="s">
+        <v>11243</v>
+      </c>
+      <c r="B4208" s="1" t="s">
+        <v>11814</v>
+      </c>
+      <c r="C4208" s="1" t="s">
+        <v>11815</v>
+      </c>
+    </row>
+    <row r="4209" spans="1:3">
+      <c r="A4209" s="2" t="s">
+        <v>11244</v>
+      </c>
+      <c r="B4209" s="1" t="s">
+        <v>11816</v>
+      </c>
+      <c r="C4209" s="1" t="s">
+        <v>11817</v>
+      </c>
+    </row>
+    <row r="4210" spans="1:3">
+      <c r="A4210" s="2" t="s">
+        <v>11245</v>
+      </c>
+      <c r="B4210" s="1" t="s">
+        <v>11818</v>
+      </c>
+      <c r="C4210" s="1" t="s">
+        <v>11819</v>
+      </c>
+    </row>
+    <row r="4211" spans="1:3">
+      <c r="A4211" s="2" t="s">
+        <v>11246</v>
+      </c>
+      <c r="B4211" s="1" t="s">
+        <v>11820</v>
+      </c>
+      <c r="C4211" s="1" t="s">
+        <v>11821</v>
+      </c>
+    </row>
+    <row r="4212" spans="1:3">
+      <c r="A4212" s="2" t="s">
+        <v>11247</v>
+      </c>
+      <c r="B4212" s="1" t="s">
+        <v>11822</v>
+      </c>
+      <c r="C4212" s="1" t="s">
+        <v>11823</v>
+      </c>
+    </row>
+    <row r="4213" spans="1:3">
+      <c r="A4213" s="2" t="s">
+        <v>11248</v>
+      </c>
+      <c r="B4213" s="1" t="s">
+        <v>11824</v>
+      </c>
+      <c r="C4213" s="1" t="s">
+        <v>11825</v>
+      </c>
+    </row>
+    <row r="4214" spans="1:3">
+      <c r="A4214" s="2" t="s">
+        <v>11249</v>
+      </c>
+      <c r="B4214" s="1" t="s">
+        <v>11826</v>
+      </c>
+      <c r="C4214" s="1" t="s">
+        <v>11827</v>
+      </c>
+    </row>
+    <row r="4215" spans="1:3">
+      <c r="A4215" s="2" t="s">
+        <v>11250</v>
+      </c>
+      <c r="B4215" s="1" t="s">
+        <v>11828</v>
+      </c>
+      <c r="C4215" s="1" t="s">
+        <v>11829</v>
+      </c>
+    </row>
+    <row r="4216" spans="1:3">
+      <c r="A4216" s="2" t="s">
+        <v>11256</v>
+      </c>
+      <c r="B4216" s="1" t="s">
+        <v>11830</v>
+      </c>
+      <c r="C4216" s="1" t="s">
+        <v>11831</v>
+      </c>
+    </row>
+    <row r="4217" spans="1:3">
+      <c r="A4217" s="2" t="s">
+        <v>11255</v>
+      </c>
+      <c r="B4217" s="1" t="s">
+        <v>11832</v>
+      </c>
+      <c r="C4217" s="1" t="s">
+        <v>11833</v>
+      </c>
+    </row>
+    <row r="4218" spans="1:3">
+      <c r="A4218" s="2" t="s">
+        <v>11251</v>
+      </c>
+      <c r="B4218" s="1" t="s">
+        <v>11834</v>
+      </c>
+      <c r="C4218" s="1" t="s">
+        <v>11835</v>
+      </c>
+    </row>
+    <row r="4219" spans="1:3">
+      <c r="A4219" s="2" t="s">
+        <v>11257</v>
+      </c>
+      <c r="B4219" s="1" t="s">
+        <v>11836</v>
+      </c>
+      <c r="C4219" s="1" t="s">
+        <v>11837</v>
+      </c>
+    </row>
+    <row r="4220" spans="1:3">
+      <c r="A4220" s="2" t="s">
+        <v>11258</v>
+      </c>
+      <c r="B4220" s="1" t="s">
+        <v>11836</v>
+      </c>
+      <c r="C4220" s="1" t="s">
+        <v>10432</v>
+      </c>
+    </row>
+    <row r="4221" spans="1:3">
+      <c r="A4221" s="2" t="s">
+        <v>11259</v>
+      </c>
+      <c r="B4221" s="1" t="s">
+        <v>11838</v>
+      </c>
+      <c r="C4221" s="1" t="s">
+        <v>11839</v>
+      </c>
+    </row>
+    <row r="4222" spans="1:3">
+      <c r="A4222" s="2" t="s">
+        <v>11260</v>
+      </c>
+      <c r="B4222" s="1" t="s">
+        <v>11838</v>
+      </c>
+      <c r="C4222" s="1" t="s">
+        <v>11840</v>
+      </c>
+    </row>
+    <row r="4223" spans="1:3">
+      <c r="A4223" s="2" t="s">
+        <v>11261</v>
+      </c>
+      <c r="B4223" s="1" t="s">
+        <v>11841</v>
+      </c>
+      <c r="C4223" s="1" t="s">
+        <v>11842</v>
+      </c>
+    </row>
+    <row r="4224" spans="1:3">
+      <c r="A4224" s="2" t="s">
+        <v>11262</v>
+      </c>
+      <c r="B4224" s="1" t="s">
+        <v>11843</v>
+      </c>
+      <c r="C4224" s="1" t="s">
+        <v>11844</v>
+      </c>
+    </row>
+    <row r="4225" spans="1:3">
+      <c r="A4225" s="2" t="s">
+        <v>11263</v>
+      </c>
+      <c r="B4225" s="1" t="s">
+        <v>11845</v>
+      </c>
+      <c r="C4225" s="1" t="s">
+        <v>11846</v>
+      </c>
+    </row>
+    <row r="4226" spans="1:3">
+      <c r="A4226" s="2" t="s">
+        <v>11274</v>
+      </c>
+      <c r="B4226" s="1" t="s">
+        <v>11847</v>
+      </c>
+      <c r="C4226" s="1" t="s">
+        <v>11848</v>
+      </c>
+    </row>
+    <row r="4227" spans="1:3">
+      <c r="A4227" s="2" t="s">
+        <v>11264</v>
+      </c>
+      <c r="B4227" s="1" t="s">
+        <v>11849</v>
+      </c>
+      <c r="C4227" s="1" t="s">
+        <v>11850</v>
+      </c>
+    </row>
+    <row r="4228" spans="1:3">
+      <c r="A4228" s="2" t="s">
+        <v>11265</v>
+      </c>
+      <c r="B4228" s="1" t="s">
+        <v>11851</v>
+      </c>
+      <c r="C4228" s="1" t="s">
+        <v>11852</v>
+      </c>
+    </row>
+    <row r="4229" spans="1:3">
+      <c r="A4229" s="2" t="s">
+        <v>11275</v>
+      </c>
+      <c r="B4229" s="1" t="s">
+        <v>11853</v>
+      </c>
+      <c r="C4229" s="1" t="s">
+        <v>11854</v>
+      </c>
+    </row>
+    <row r="4230" spans="1:3">
+      <c r="A4230" s="2" t="s">
+        <v>11266</v>
+      </c>
+      <c r="B4230" s="1" t="s">
+        <v>11855</v>
+      </c>
+      <c r="C4230" s="1" t="s">
+        <v>11856</v>
+      </c>
+    </row>
+    <row r="4231" spans="1:3">
+      <c r="A4231" s="2" t="s">
+        <v>11267</v>
+      </c>
+      <c r="B4231" s="1" t="s">
+        <v>11857</v>
+      </c>
+      <c r="C4231" s="1" t="s">
+        <v>11858</v>
+      </c>
+    </row>
+    <row r="4232" spans="1:3">
+      <c r="A4232" s="2" t="s">
+        <v>11268</v>
+      </c>
+      <c r="B4232" s="1" t="s">
+        <v>11857</v>
+      </c>
+      <c r="C4232" s="1" t="s">
+        <v>11859</v>
+      </c>
+    </row>
+    <row r="4233" spans="1:3">
+      <c r="A4233" s="2" t="s">
+        <v>11269</v>
+      </c>
+      <c r="B4233" s="1" t="s">
+        <v>11860</v>
+      </c>
+      <c r="C4233" s="1" t="s">
+        <v>11861</v>
+      </c>
+    </row>
+    <row r="4234" spans="1:3">
+      <c r="A4234" s="2" t="s">
+        <v>11276</v>
+      </c>
+      <c r="B4234" s="1" t="s">
+        <v>11862</v>
+      </c>
+      <c r="C4234" s="1" t="s">
+        <v>11863</v>
+      </c>
+    </row>
+    <row r="4235" spans="1:3">
+      <c r="A4235" s="2" t="s">
+        <v>11270</v>
+      </c>
+      <c r="B4235" s="1" t="s">
+        <v>11864</v>
+      </c>
+      <c r="C4235" s="1" t="s">
+        <v>11865</v>
+      </c>
+    </row>
+    <row r="4236" spans="1:3">
+      <c r="A4236" s="2" t="s">
+        <v>11271</v>
+      </c>
+      <c r="B4236" s="1" t="s">
+        <v>11866</v>
+      </c>
+      <c r="C4236" s="1" t="s">
+        <v>11867</v>
+      </c>
+    </row>
+    <row r="4237" spans="1:3">
+      <c r="A4237" s="2" t="s">
+        <v>11277</v>
+      </c>
+      <c r="B4237" s="1" t="s">
+        <v>11868</v>
+      </c>
+      <c r="C4237" s="1" t="s">
+        <v>11869</v>
+      </c>
+    </row>
+    <row r="4238" spans="1:3">
+      <c r="A4238" s="2" t="s">
+        <v>11272</v>
+      </c>
+      <c r="B4238" s="1" t="s">
+        <v>11870</v>
+      </c>
+      <c r="C4238" s="1" t="s">
+        <v>11871</v>
+      </c>
+    </row>
+    <row r="4239" spans="1:3">
+      <c r="A4239" s="2" t="s">
+        <v>11273</v>
+      </c>
+      <c r="B4239" s="1" t="s">
+        <v>11872</v>
+      </c>
+      <c r="C4239" s="1" t="s">
+        <v>11873</v>
+      </c>
+    </row>
+    <row r="4240" spans="1:3">
+      <c r="A4240" s="2" t="s">
+        <v>11278</v>
+      </c>
+      <c r="B4240" s="1" t="s">
+        <v>11874</v>
+      </c>
+      <c r="C4240" s="1" t="s">
+        <v>11875</v>
+      </c>
+    </row>
+    <row r="4241" spans="1:3">
+      <c r="A4241" s="2" t="s">
+        <v>11279</v>
+      </c>
+      <c r="B4241" s="1" t="s">
+        <v>11876</v>
+      </c>
+      <c r="C4241" s="1" t="s">
+        <v>11877</v>
+      </c>
+    </row>
+    <row r="4242" spans="1:3">
+      <c r="A4242" s="2" t="s">
+        <v>11280</v>
+      </c>
+      <c r="B4242" s="1" t="s">
+        <v>11878</v>
+      </c>
+      <c r="C4242" s="1" t="s">
+        <v>11879</v>
+      </c>
+    </row>
+    <row r="4243" spans="1:3">
+      <c r="A4243" s="2" t="s">
+        <v>11281</v>
+      </c>
+      <c r="B4243" s="1" t="s">
+        <v>11880</v>
+      </c>
+      <c r="C4243" s="1" t="s">
+        <v>11881</v>
+      </c>
+    </row>
+    <row r="4244" spans="1:3">
+      <c r="A4244" s="2" t="s">
+        <v>11282</v>
+      </c>
+      <c r="B4244" s="1" t="s">
+        <v>11882</v>
+      </c>
+      <c r="C4244" s="1" t="s">
+        <v>11883</v>
+      </c>
+    </row>
+    <row r="4245" spans="1:3">
+      <c r="A4245" s="2" t="s">
+        <v>11283</v>
+      </c>
+      <c r="B4245" s="1" t="s">
+        <v>11884</v>
+      </c>
+      <c r="C4245" s="1" t="s">
+        <v>11885</v>
+      </c>
+    </row>
+    <row r="4246" spans="1:3">
+      <c r="A4246" s="2" t="s">
+        <v>11284</v>
+      </c>
+      <c r="B4246" s="1" t="s">
+        <v>11886</v>
+      </c>
+      <c r="C4246" s="1" t="s">
+        <v>11887</v>
+      </c>
+    </row>
+    <row r="4247" spans="1:3">
+      <c r="A4247" s="2" t="s">
+        <v>11285</v>
+      </c>
+      <c r="B4247" s="1" t="s">
+        <v>11888</v>
+      </c>
+      <c r="C4247" s="1" t="s">
+        <v>11889</v>
+      </c>
+    </row>
+    <row r="4248" spans="1:3">
+      <c r="A4248" s="2" t="s">
+        <v>11286</v>
+      </c>
+      <c r="B4248" s="1" t="s">
+        <v>11890</v>
+      </c>
+      <c r="C4248" s="1" t="s">
+        <v>10068</v>
+      </c>
+    </row>
+    <row r="4249" spans="1:3">
+      <c r="A4249" s="2" t="s">
+        <v>11287</v>
+      </c>
+      <c r="B4249" s="1" t="s">
+        <v>11891</v>
+      </c>
+      <c r="C4249" s="1" t="s">
+        <v>11892</v>
+      </c>
+    </row>
+    <row r="4250" spans="1:3">
+      <c r="A4250" s="2" t="s">
+        <v>11288</v>
+      </c>
+      <c r="B4250" s="1" t="s">
+        <v>11893</v>
+      </c>
+      <c r="C4250" s="1" t="s">
+        <v>11894</v>
+      </c>
+    </row>
+    <row r="4251" spans="1:3">
+      <c r="A4251" s="2" t="s">
+        <v>11289</v>
+      </c>
+      <c r="B4251" s="1" t="s">
+        <v>11895</v>
+      </c>
+      <c r="C4251" s="1" t="s">
+        <v>11896</v>
+      </c>
+    </row>
+    <row r="4252" spans="1:3">
+      <c r="A4252" s="2" t="s">
+        <v>11290</v>
+      </c>
+      <c r="B4252" s="1" t="s">
+        <v>11897</v>
+      </c>
+      <c r="C4252" s="1" t="s">
+        <v>11898</v>
+      </c>
+    </row>
+    <row r="4253" spans="1:3">
+      <c r="A4253" s="2" t="s">
+        <v>11291</v>
+      </c>
+      <c r="B4253" s="1" t="s">
+        <v>11899</v>
+      </c>
+      <c r="C4253" s="1" t="s">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="4254" spans="1:3">
+      <c r="A4254" s="2" t="s">
+        <v>11292</v>
+      </c>
+      <c r="B4254" s="1" t="s">
+        <v>11901</v>
+      </c>
+      <c r="C4254" s="1" t="s">
+        <v>11902</v>
+      </c>
+    </row>
+    <row r="4255" spans="1:3">
+      <c r="A4255" s="2" t="s">
+        <v>11293</v>
+      </c>
+      <c r="B4255" s="1" t="s">
+        <v>11903</v>
+      </c>
+      <c r="C4255" s="1" t="s">
+        <v>11904</v>
+      </c>
+    </row>
+    <row r="4256" spans="1:3">
+      <c r="A4256" s="2" t="s">
+        <v>11294</v>
+      </c>
+      <c r="B4256" s="1" t="s">
+        <v>11905</v>
+      </c>
+      <c r="C4256" s="1" t="s">
+        <v>11906</v>
+      </c>
+    </row>
+    <row r="4257" spans="1:3">
+      <c r="A4257" s="2" t="s">
+        <v>11295</v>
+      </c>
+      <c r="B4257" s="1" t="s">
+        <v>11907</v>
+      </c>
+      <c r="C4257" s="1" t="s">
+        <v>11908</v>
+      </c>
+    </row>
+    <row r="4258" spans="1:3">
+      <c r="A4258" s="2" t="s">
+        <v>11296</v>
+      </c>
+      <c r="B4258" s="1" t="s">
+        <v>11909</v>
+      </c>
+      <c r="C4258" s="1" t="s">
+        <v>11910</v>
+      </c>
+    </row>
+    <row r="4259" spans="1:3">
+      <c r="A4259" s="2" t="s">
+        <v>11297</v>
+      </c>
+      <c r="B4259" s="1" t="s">
+        <v>11911</v>
+      </c>
+      <c r="C4259" s="1" t="s">
+        <v>11912</v>
+      </c>
+    </row>
+    <row r="4260" spans="1:3">
+      <c r="A4260" s="2" t="s">
+        <v>11298</v>
+      </c>
+      <c r="B4260" s="1" t="s">
+        <v>11913</v>
+      </c>
+      <c r="C4260" s="1" t="s">
+        <v>11914</v>
+      </c>
+    </row>
+    <row r="4261" spans="1:3">
+      <c r="A4261" s="2" t="s">
+        <v>11299</v>
+      </c>
+      <c r="B4261" s="1" t="s">
+        <v>11915</v>
+      </c>
+      <c r="C4261" s="1" t="s">
+        <v>10759</v>
+      </c>
+    </row>
+    <row r="4262" spans="1:3">
+      <c r="A4262" s="2" t="s">
+        <v>11300</v>
+      </c>
+      <c r="B4262" s="1" t="s">
+        <v>11916</v>
+      </c>
+      <c r="C4262" s="1" t="s">
+        <v>11917</v>
+      </c>
+    </row>
+    <row r="4263" spans="1:3">
+      <c r="A4263" s="2" t="s">
+        <v>11301</v>
+      </c>
+      <c r="B4263" s="1" t="s">
+        <v>11918</v>
+      </c>
+      <c r="C4263" s="1" t="s">
+        <v>11919</v>
+      </c>
+    </row>
+    <row r="4264" spans="1:3">
+      <c r="A4264" s="2" t="s">
+        <v>11302</v>
+      </c>
+      <c r="B4264" s="1" t="s">
+        <v>11920</v>
+      </c>
+      <c r="C4264" s="1" t="s">
+        <v>11921</v>
+      </c>
+    </row>
+    <row r="4265" spans="1:3">
+      <c r="A4265" s="2" t="s">
+        <v>11303</v>
+      </c>
+      <c r="B4265" s="1" t="s">
+        <v>11922</v>
+      </c>
+      <c r="C4265" s="1" t="s">
+        <v>10759</v>
+      </c>
+    </row>
+    <row r="4266" spans="1:3">
+      <c r="A4266" s="2" t="s">
+        <v>11304</v>
+      </c>
+      <c r="B4266" s="1" t="s">
+        <v>11923</v>
+      </c>
+      <c r="C4266" s="1" t="s">
+        <v>11924</v>
+      </c>
+    </row>
+    <row r="4267" spans="1:3">
+      <c r="A4267" s="2" t="s">
+        <v>11305</v>
+      </c>
+      <c r="B4267" s="1" t="s">
+        <v>11923</v>
+      </c>
+      <c r="C4267" s="1" t="s">
+        <v>11925</v>
+      </c>
+    </row>
+    <row r="4268" spans="1:3">
+      <c r="A4268" s="2" t="s">
+        <v>11306</v>
+      </c>
+      <c r="B4268" s="1" t="s">
+        <v>11926</v>
+      </c>
+      <c r="C4268" s="1" t="s">
+        <v>11927</v>
+      </c>
+    </row>
+    <row r="4269" spans="1:3">
+      <c r="A4269" s="2" t="s">
+        <v>11307</v>
+      </c>
+      <c r="B4269" s="1" t="s">
+        <v>11928</v>
+      </c>
+      <c r="C4269" s="1" t="s">
+        <v>11929</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:3">
+      <c r="A4270" s="2" t="s">
+        <v>11308</v>
+      </c>
+      <c r="B4270" s="1" t="s">
+        <v>11930</v>
+      </c>
+      <c r="C4270" s="1" t="s">
+        <v>11931</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:3">
+      <c r="A4271" s="2" t="s">
+        <v>11309</v>
+      </c>
+      <c r="B4271" s="1" t="s">
+        <v>11932</v>
+      </c>
+      <c r="C4271" s="1" t="s">
+        <v>11933</v>
+      </c>
+    </row>
+    <row r="4272" spans="1:3">
+      <c r="A4272" s="2" t="s">
+        <v>11310</v>
+      </c>
+      <c r="B4272" s="1" t="s">
+        <v>11934</v>
+      </c>
+      <c r="C4272" s="1" t="s">
+        <v>11935</v>
+      </c>
+    </row>
+    <row r="4273" spans="1:3">
+      <c r="A4273" s="2" t="s">
+        <v>11311</v>
+      </c>
+      <c r="B4273" s="1" t="s">
+        <v>11936</v>
+      </c>
+      <c r="C4273" s="1" t="s">
+        <v>11937</v>
+      </c>
+    </row>
+    <row r="4274" spans="1:3">
+      <c r="A4274" s="2" t="s">
+        <v>11312</v>
+      </c>
+      <c r="B4274" s="1" t="s">
+        <v>11938</v>
+      </c>
+      <c r="C4274" s="1" t="s">
+        <v>11939</v>
+      </c>
+    </row>
+    <row r="4275" spans="1:3">
+      <c r="A4275" s="2" t="s">
+        <v>11313</v>
+      </c>
+      <c r="B4275" s="1" t="s">
+        <v>11940</v>
+      </c>
+      <c r="C4275" s="1" t="s">
+        <v>11941</v>
+      </c>
+    </row>
+    <row r="4276" spans="1:3">
+      <c r="A4276" s="2" t="s">
+        <v>11314</v>
+      </c>
+      <c r="B4276" s="1" t="s">
+        <v>11942</v>
+      </c>
+      <c r="C4276" s="1" t="s">
+        <v>11943</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:3">
+      <c r="A4277" s="2" t="s">
+        <v>11315</v>
+      </c>
+      <c r="B4277" s="1" t="s">
+        <v>11944</v>
+      </c>
+      <c r="C4277" s="1" t="s">
+        <v>11726</v>
+      </c>
+    </row>
+    <row r="4278" spans="1:3">
+      <c r="A4278" s="2" t="s">
+        <v>11316</v>
+      </c>
+      <c r="B4278" s="1" t="s">
+        <v>11945</v>
+      </c>
+      <c r="C4278" s="1" t="s">
+        <v>11946</v>
+      </c>
+    </row>
+    <row r="4279" spans="1:3">
+      <c r="A4279" s="2" t="s">
+        <v>11317</v>
+      </c>
+      <c r="B4279" s="1" t="s">
+        <v>11947</v>
+      </c>
+      <c r="C4279" s="1" t="s">
+        <v>11948</v>
+      </c>
+    </row>
+    <row r="4280" spans="1:3">
+      <c r="A4280" s="2" t="s">
+        <v>11318</v>
+      </c>
+      <c r="B4280" s="1" t="s">
+        <v>11949</v>
+      </c>
+      <c r="C4280" s="1" t="s">
+        <v>11950</v>
+      </c>
+    </row>
+    <row r="4281" spans="1:3">
+      <c r="A4281" s="2" t="s">
+        <v>11319</v>
+      </c>
+      <c r="B4281" s="1" t="s">
+        <v>11951</v>
+      </c>
+      <c r="C4281" s="1" t="s">
+        <v>11952</v>
+      </c>
+    </row>
+    <row r="4282" spans="1:3">
+      <c r="A4282" s="2" t="s">
+        <v>11320</v>
+      </c>
+      <c r="B4282" s="1" t="s">
+        <v>11953</v>
+      </c>
+      <c r="C4282" s="1" t="s">
+        <v>11954</v>
+      </c>
+    </row>
+    <row r="4283" spans="1:3">
+      <c r="A4283" s="2" t="s">
+        <v>11321</v>
+      </c>
+      <c r="B4283" s="1" t="s">
+        <v>11955</v>
+      </c>
+      <c r="C4283" s="1" t="s">
+        <v>11956</v>
+      </c>
+    </row>
+    <row r="4284" spans="1:3">
+      <c r="A4284" s="2" t="s">
+        <v>11322</v>
+      </c>
+      <c r="B4284" s="1" t="s">
+        <v>11957</v>
+      </c>
+      <c r="C4284" s="1" t="s">
+        <v>11958</v>
+      </c>
+    </row>
+    <row r="4285" spans="1:3">
+      <c r="A4285" s="2" t="s">
+        <v>11323</v>
+      </c>
+      <c r="B4285" s="1" t="s">
+        <v>11959</v>
+      </c>
+      <c r="C4285" s="1" t="s">
+        <v>11960</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:3">
+      <c r="A4286" s="2" t="s">
+        <v>11324</v>
+      </c>
+      <c r="B4286" s="1" t="s">
+        <v>11961</v>
+      </c>
+      <c r="C4286" s="1" t="s">
+        <v>11962</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:3">
+      <c r="A4287" s="2" t="s">
+        <v>11325</v>
+      </c>
+      <c r="B4287" s="1" t="s">
+        <v>11963</v>
+      </c>
+      <c r="C4287" s="1" t="s">
+        <v>11964</v>
+      </c>
+    </row>
+    <row r="4288" spans="1:3">
+      <c r="A4288" s="2" t="s">
+        <v>11326</v>
+      </c>
+      <c r="B4288" s="1" t="s">
+        <v>11965</v>
+      </c>
+      <c r="C4288" s="1" t="s">
+        <v>11966</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:3">
+      <c r="A4289" s="2" t="s">
+        <v>11327</v>
+      </c>
+      <c r="B4289" s="1" t="s">
+        <v>11967</v>
+      </c>
+      <c r="C4289" s="1" t="s">
+        <v>11968</v>
+      </c>
+    </row>
+    <row r="4290" spans="1:3">
+      <c r="A4290" s="2" t="s">
+        <v>11328</v>
+      </c>
+      <c r="B4290" s="1" t="s">
+        <v>11969</v>
+      </c>
+      <c r="C4290" s="1" t="s">
+        <v>11970</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:3">
+      <c r="A4291" s="2" t="s">
+        <v>11329</v>
+      </c>
+      <c r="B4291" s="1" t="s">
+        <v>11971</v>
+      </c>
+      <c r="C4291" s="1" t="s">
+        <v>11972</v>
+      </c>
+    </row>
+    <row r="4292" spans="1:3">
+      <c r="A4292" s="2" t="s">
+        <v>11330</v>
+      </c>
+      <c r="B4292" s="1" t="s">
+        <v>11973</v>
+      </c>
+      <c r="C4292" s="1" t="s">
+        <v>11974</v>
+      </c>
+    </row>
+    <row r="4293" spans="1:3">
+      <c r="A4293" s="2" t="s">
+        <v>11331</v>
+      </c>
+      <c r="B4293" s="1" t="s">
+        <v>11975</v>
+      </c>
+      <c r="C4293" s="1" t="s">
+        <v>11976</v>
+      </c>
+    </row>
+    <row r="4294" spans="1:3">
+      <c r="A4294" s="2" t="s">
+        <v>11332</v>
+      </c>
+      <c r="B4294" s="1" t="s">
+        <v>11977</v>
+      </c>
+      <c r="C4294" s="1" t="s">
+        <v>11978</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:3">
+      <c r="A4295" s="2" t="s">
+        <v>11333</v>
+      </c>
+      <c r="B4295" s="1" t="s">
+        <v>11979</v>
+      </c>
+      <c r="C4295" s="1" t="s">
+        <v>11980</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:3">
+      <c r="A4296" s="2" t="s">
+        <v>11334</v>
+      </c>
+      <c r="B4296" s="1" t="s">
+        <v>11981</v>
+      </c>
+      <c r="C4296" s="1" t="s">
+        <v>11982</v>
+      </c>
+    </row>
+    <row r="4297" spans="1:3">
+      <c r="A4297" s="2" t="s">
+        <v>11335</v>
+      </c>
+      <c r="B4297" s="1" t="s">
+        <v>11983</v>
+      </c>
+      <c r="C4297" s="1" t="s">
+        <v>11984</v>
+      </c>
+    </row>
+    <row r="4298" spans="1:3">
+      <c r="A4298" s="2" t="s">
+        <v>11336</v>
+      </c>
+      <c r="B4298" s="1" t="s">
+        <v>11985</v>
+      </c>
+      <c r="C4298" s="1" t="s">
+        <v>11986</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:3">
+      <c r="A4299" s="2" t="s">
+        <v>11337</v>
+      </c>
+      <c r="B4299" s="1" t="s">
+        <v>11987</v>
+      </c>
+      <c r="C4299" s="1" t="s">
+        <v>11988</v>
+      </c>
+    </row>
+    <row r="4300" spans="1:3">
+      <c r="A4300" s="2" t="s">
+        <v>11338</v>
+      </c>
+      <c r="B4300" s="1" t="s">
+        <v>11989</v>
+      </c>
+      <c r="C4300" s="1" t="s">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:3">
+      <c r="A4301" s="2" t="s">
+        <v>11339</v>
+      </c>
+      <c r="B4301" s="1" t="s">
+        <v>11991</v>
+      </c>
+      <c r="C4301" s="1" t="s">
+        <v>11992</v>
+      </c>
+    </row>
+    <row r="4302" spans="1:3">
+      <c r="A4302" s="2" t="s">
+        <v>11340</v>
+      </c>
+      <c r="B4302" s="1" t="s">
+        <v>11993</v>
+      </c>
+      <c r="C4302" s="1" t="s">
+        <v>11994</v>
+      </c>
+    </row>
+    <row r="4303" spans="1:3">
+      <c r="A4303" s="2" t="s">
+        <v>11341</v>
+      </c>
+      <c r="B4303" s="1" t="s">
+        <v>11995</v>
+      </c>
+      <c r="C4303" s="1" t="s">
+        <v>11996</v>
+      </c>
+    </row>
+    <row r="4304" spans="1:3">
+      <c r="A4304" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B4304" s="1" t="s">
+        <v>11997</v>
+      </c>
+      <c r="C4304" s="1" t="s">
+        <v>11998</v>
+      </c>
+    </row>
+    <row r="4305" spans="1:3">
+      <c r="A4305" s="2" t="s">
+        <v>11343</v>
+      </c>
+      <c r="B4305" s="1" t="s">
+        <v>11997</v>
+      </c>
+      <c r="C4305" s="1" t="s">
+        <v>11999</v>
+      </c>
+    </row>
+    <row r="4306" spans="1:3">
+      <c r="A4306" s="2" t="s">
+        <v>11344</v>
+      </c>
+      <c r="B4306" s="1" t="s">
+        <v>12000</v>
+      </c>
+      <c r="C4306" s="1" t="s">
+        <v>12001</v>
+      </c>
+    </row>
+    <row r="4307" spans="1:3">
+      <c r="A4307" s="2" t="s">
+        <v>11342</v>
+      </c>
+      <c r="B4307" s="1" t="s">
+        <v>12002</v>
+      </c>
+      <c r="C4307" s="1" t="s">
+        <v>12003</v>
+      </c>
+    </row>
+    <row r="4308" spans="1:3">
+      <c r="A4308" s="2" t="s">
+        <v>11345</v>
+      </c>
+      <c r="B4308" s="1" t="s">
+        <v>12004</v>
+      </c>
+      <c r="C4308" s="1" t="s">
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="4309" spans="1:3">
+      <c r="A4309" s="2" t="s">
+        <v>11346</v>
+      </c>
+      <c r="B4309" s="1" t="s">
+        <v>12006</v>
+      </c>
+      <c r="C4309" s="1" t="s">
+        <v>12007</v>
+      </c>
+    </row>
+    <row r="4310" spans="1:3">
+      <c r="A4310" s="2" t="s">
+        <v>11347</v>
+      </c>
+      <c r="B4310" s="1" t="s">
+        <v>12008</v>
+      </c>
+      <c r="C4310" s="1" t="s">
+        <v>12009</v>
+      </c>
+    </row>
+    <row r="4311" spans="1:3">
+      <c r="A4311" s="2" t="s">
+        <v>11348</v>
+      </c>
+      <c r="B4311" s="1" t="s">
+        <v>12010</v>
+      </c>
+      <c r="C4311" s="1" t="s">
+        <v>12011</v>
+      </c>
+    </row>
+    <row r="4312" spans="1:3">
+      <c r="A4312" s="2" t="s">
+        <v>11349</v>
+      </c>
+      <c r="B4312" s="1" t="s">
+        <v>12012</v>
+      </c>
+      <c r="C4312" s="1" t="s">
+        <v>12013</v>
+      </c>
+    </row>
+    <row r="4313" spans="1:3">
+      <c r="A4313" s="2" t="s">
+        <v>11350</v>
+      </c>
+      <c r="B4313" s="1" t="s">
+        <v>12014</v>
+      </c>
+      <c r="C4313" s="1" t="s">
+        <v>12015</v>
+      </c>
+    </row>
+    <row r="4314" spans="1:3">
+      <c r="A4314" s="2" t="s">
+        <v>11351</v>
+      </c>
+      <c r="B4314" s="1" t="s">
+        <v>12016</v>
+      </c>
+      <c r="C4314" s="1" t="s">
+        <v>12017</v>
+      </c>
+    </row>
+    <row r="4315" spans="1:3">
+      <c r="A4315" s="2" t="s">
+        <v>11352</v>
+      </c>
+      <c r="B4315" s="1" t="s">
+        <v>12018</v>
+      </c>
+      <c r="C4315" s="1" t="s">
+        <v>12019</v>
+      </c>
+    </row>
+    <row r="4316" spans="1:3">
+      <c r="A4316" s="2" t="s">
+        <v>4030</v>
+      </c>
+      <c r="B4316" s="1" t="s">
+        <v>12020</v>
+      </c>
+      <c r="C4316" s="1" t="s">
+        <v>12021</v>
+      </c>
+    </row>
+    <row r="4317" spans="1:3">
+      <c r="A4317" s="2" t="s">
+        <v>11353</v>
+      </c>
+      <c r="B4317" s="1" t="s">
+        <v>12022</v>
+      </c>
+      <c r="C4317" s="1" t="s">
+        <v>12023</v>
+      </c>
+    </row>
+    <row r="4318" spans="1:3">
+      <c r="A4318" s="2" t="s">
+        <v>11354</v>
+      </c>
+      <c r="B4318" s="1" t="s">
+        <v>12024</v>
+      </c>
+      <c r="C4318" s="1" t="s">
+        <v>12025</v>
+      </c>
+    </row>
+    <row r="4319" spans="1:3">
+      <c r="A4319" s="2" t="s">
+        <v>11355</v>
+      </c>
+      <c r="B4319" s="1" t="s">
+        <v>12026</v>
+      </c>
+      <c r="C4319" s="1" t="s">
+        <v>12027</v>
+      </c>
+    </row>
+    <row r="4320" spans="1:3">
+      <c r="A4320" s="2" t="s">
+        <v>11356</v>
+      </c>
+      <c r="B4320" s="1" t="s">
+        <v>12026</v>
+      </c>
+      <c r="C4320" s="1" t="s">
+        <v>12028</v>
+      </c>
+    </row>
+    <row r="4321" spans="1:3">
+      <c r="A4321" s="2" t="s">
+        <v>11357</v>
+      </c>
+      <c r="B4321" s="1" t="s">
+        <v>11357</v>
+      </c>
+      <c r="C4321" s="1" t="s">
+        <v>11984</v>
+      </c>
+    </row>
+    <row r="4322" spans="1:3">
+      <c r="A4322" s="2" t="s">
+        <v>11359</v>
+      </c>
+      <c r="B4322" s="1" t="s">
+        <v>12029</v>
+      </c>
+      <c r="C4322" s="1" t="s">
+        <v>12030</v>
+      </c>
+    </row>
+    <row r="4323" spans="1:3">
+      <c r="A4323" s="2" t="s">
+        <v>11360</v>
+      </c>
+      <c r="B4323" s="1" t="s">
+        <v>12031</v>
+      </c>
+      <c r="C4323" s="1" t="s">
+        <v>12032</v>
+      </c>
+    </row>
+    <row r="4324" spans="1:3">
+      <c r="A4324" s="2" t="s">
+        <v>11361</v>
+      </c>
+      <c r="B4324" s="1" t="s">
+        <v>12033</v>
+      </c>
+      <c r="C4324" s="1" t="s">
+        <v>12034</v>
+      </c>
+    </row>
+    <row r="4325" spans="1:3">
+      <c r="A4325" s="2" t="s">
+        <v>11362</v>
+      </c>
+      <c r="B4325" s="1" t="s">
+        <v>12035</v>
+      </c>
+      <c r="C4325" s="1" t="s">
+        <v>12036</v>
+      </c>
+    </row>
+    <row r="4326" spans="1:3">
+      <c r="A4326" s="2" t="s">
+        <v>11363</v>
+      </c>
+      <c r="B4326" s="1" t="s">
+        <v>12037</v>
+      </c>
+      <c r="C4326" s="1" t="s">
+        <v>12038</v>
+      </c>
+    </row>
+    <row r="4327" spans="1:3">
+      <c r="A4327" s="2" t="s">
+        <v>11364</v>
+      </c>
+      <c r="B4327" s="1" t="s">
+        <v>12039</v>
+      </c>
+      <c r="C4327" s="1" t="s">
+        <v>12040</v>
+      </c>
+    </row>
+    <row r="4328" spans="1:3">
+      <c r="A4328" s="2" t="s">
+        <v>11365</v>
+      </c>
+      <c r="B4328" s="1" t="s">
+        <v>12041</v>
+      </c>
+      <c r="C4328" s="1" t="s">
+        <v>12042</v>
+      </c>
+    </row>
+    <row r="4329" spans="1:3">
+      <c r="A4329" s="2" t="s">
+        <v>11366</v>
+      </c>
+      <c r="B4329" s="1" t="s">
+        <v>12043</v>
+      </c>
+      <c r="C4329" s="1" t="s">
+        <v>12044</v>
+      </c>
+    </row>
+    <row r="4330" spans="1:3">
+      <c r="A4330" s="2" t="s">
+        <v>11367</v>
+      </c>
+      <c r="B4330" s="1" t="s">
+        <v>12045</v>
+      </c>
+      <c r="C4330" s="1" t="s">
+        <v>12046</v>
+      </c>
+    </row>
+    <row r="4331" spans="1:3">
+      <c r="A4331" s="2" t="s">
+        <v>11358</v>
+      </c>
+      <c r="B4331" s="1" t="s">
+        <v>11358</v>
+      </c>
+      <c r="C4331" s="1" t="s">
+        <v>12047</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:3">
+      <c r="A4332" s="2" t="s">
+        <v>11368</v>
+      </c>
+      <c r="B4332" s="1" t="s">
+        <v>12048</v>
+      </c>
+      <c r="C4332" s="1" t="s">
+        <v>12049</v>
+      </c>
+    </row>
+    <row r="4333" spans="1:3">
+      <c r="A4333" s="2" t="s">
+        <v>11369</v>
+      </c>
+      <c r="B4333" s="1" t="s">
+        <v>12050</v>
+      </c>
+      <c r="C4333" s="1" t="s">
+        <v>12051</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:3">
+      <c r="A4334" s="2" t="s">
+        <v>11370</v>
+      </c>
+      <c r="B4334" s="1" t="s">
+        <v>12052</v>
+      </c>
+      <c r="C4334" s="1" t="s">
+        <v>12053</v>
+      </c>
+    </row>
+    <row r="4335" spans="1:3">
+      <c r="A4335" s="2" t="s">
+        <v>11371</v>
+      </c>
+      <c r="B4335" s="1" t="s">
+        <v>12054</v>
+      </c>
+      <c r="C4335" s="1" t="s">
+        <v>12055</v>
+      </c>
+    </row>
+    <row r="4336" spans="1:3">
+      <c r="A4336" s="2" t="s">
+        <v>11372</v>
+      </c>
+      <c r="B4336" s="1" t="s">
+        <v>12056</v>
+      </c>
+      <c r="C4336" s="1" t="s">
+        <v>12057</v>
+      </c>
+    </row>
+    <row r="4337" spans="1:3">
+      <c r="A4337" s="2" t="s">
+        <v>11373</v>
+      </c>
+      <c r="B4337" s="1" t="s">
+        <v>12058</v>
+      </c>
+      <c r="C4337" s="1" t="s">
+        <v>12059</v>
+      </c>
+    </row>
+    <row r="4338" spans="1:3">
+      <c r="A4338" s="2" t="s">
+        <v>11374</v>
+      </c>
+      <c r="B4338" s="1" t="s">
+        <v>12060</v>
+      </c>
+      <c r="C4338" s="1" t="s">
+        <v>12061</v>
+      </c>
+    </row>
+    <row r="4339" spans="1:3">
+      <c r="A4339" s="2" t="s">
+        <v>11375</v>
+      </c>
+      <c r="B4339" s="1" t="s">
+        <v>12062</v>
+      </c>
+      <c r="C4339" s="1" t="s">
+        <v>12063</v>
+      </c>
+    </row>
+    <row r="4340" spans="1:3">
+      <c r="A4340" s="2" t="s">
+        <v>11376</v>
+      </c>
+      <c r="B4340" s="1" t="s">
+        <v>11376</v>
+      </c>
+      <c r="C4340" s="1" t="s">
+        <v>12064</v>
+      </c>
+    </row>
+    <row r="4341" spans="1:3">
+      <c r="A4341" s="2" t="s">
+        <v>11377</v>
+      </c>
+      <c r="B4341" s="1" t="s">
+        <v>12065</v>
+      </c>
+      <c r="C4341" s="1" t="s">
+        <v>12066</v>
+      </c>
+    </row>
+    <row r="4342" spans="1:3">
+      <c r="A4342" s="2" t="s">
+        <v>11378</v>
+      </c>
+      <c r="B4342" s="1" t="s">
+        <v>12067</v>
+      </c>
+      <c r="C4342" s="1" t="s">
+        <v>12068</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:3">
+      <c r="A4343" s="2" t="s">
+        <v>11379</v>
+      </c>
+      <c r="B4343" s="1" t="s">
+        <v>12069</v>
+      </c>
+      <c r="C4343" s="1" t="s">
+        <v>12070</v>
+      </c>
+    </row>
+    <row r="4344" spans="1:3">
+      <c r="A4344" s="2" t="s">
+        <v>11380</v>
+      </c>
+      <c r="B4344" s="1" t="s">
+        <v>12071</v>
+      </c>
+      <c r="C4344" s="1" t="s">
+        <v>12072</v>
+      </c>
+    </row>
+    <row r="4345" spans="1:3">
+      <c r="A4345" s="2" t="s">
+        <v>11381</v>
+      </c>
+      <c r="B4345" s="1" t="s">
+        <v>12073</v>
+      </c>
+      <c r="C4345" s="1" t="s">
+        <v>12074</v>
+      </c>
+    </row>
+    <row r="4346" spans="1:3">
+      <c r="A4346" s="2" t="s">
+        <v>11382</v>
+      </c>
+      <c r="B4346" s="1" t="s">
+        <v>11382</v>
+      </c>
+      <c r="C4346" s="1" t="s">
+        <v>12075</v>
+      </c>
+    </row>
+    <row r="4347" spans="1:3">
+      <c r="A4347" s="2" t="s">
+        <v>11383</v>
+      </c>
+      <c r="B4347" s="1" t="s">
+        <v>12076</v>
+      </c>
+      <c r="C4347" s="1" t="s">
+        <v>12077</v>
+      </c>
+    </row>
+    <row r="4348" spans="1:3">
+      <c r="A4348" s="2" t="s">
+        <v>11384</v>
+      </c>
+      <c r="B4348" s="1" t="s">
+        <v>12078</v>
+      </c>
+      <c r="C4348" s="1" t="s">
+        <v>12079</v>
+      </c>
+    </row>
+    <row r="4349" spans="1:3">
+      <c r="A4349" s="2" t="s">
+        <v>11385</v>
+      </c>
+      <c r="B4349" s="1" t="s">
+        <v>12080</v>
+      </c>
+      <c r="C4349" s="1" t="s">
+        <v>12081</v>
+      </c>
+    </row>
+    <row r="4350" spans="1:3">
+      <c r="A4350" s="2" t="s">
+        <v>11386</v>
+      </c>
+      <c r="B4350" s="1" t="s">
+        <v>12082</v>
+      </c>
+      <c r="C4350" s="1" t="s">
+        <v>12072</v>
+      </c>
+    </row>
+    <row r="4351" spans="1:3">
+      <c r="A4351" s="2" t="s">
+        <v>11387</v>
+      </c>
+      <c r="B4351" s="1" t="s">
+        <v>12083</v>
+      </c>
+      <c r="C4351" s="1" t="s">
+        <v>12084</v>
+      </c>
+    </row>
+    <row r="4352" spans="1:3">
+      <c r="A4352" s="2" t="s">
+        <v>11388</v>
+      </c>
+      <c r="B4352" s="1" t="s">
+        <v>11388</v>
+      </c>
+      <c r="C4352" s="1" t="s">
+        <v>12085</v>
+      </c>
+    </row>
+    <row r="4353" spans="1:3">
+      <c r="A4353" s="2" t="s">
+        <v>11389</v>
+      </c>
+      <c r="B4353" s="1" t="s">
+        <v>12086</v>
+      </c>
+      <c r="C4353" s="1" t="s">
+        <v>12087</v>
+      </c>
+    </row>
+    <row r="4354" spans="1:3">
+      <c r="A4354" s="2" t="s">
+        <v>11390</v>
+      </c>
+      <c r="B4354" s="1" t="s">
+        <v>12088</v>
+      </c>
+      <c r="C4354" s="1" t="s">
+        <v>12089</v>
+      </c>
+    </row>
+    <row r="4355" spans="1:3">
+      <c r="A4355" s="2" t="s">
+        <v>11391</v>
+      </c>
+      <c r="B4355" s="1" t="s">
+        <v>11391</v>
+      </c>
+      <c r="C4355" s="1" t="s">
+        <v>12090</v>
+      </c>
+    </row>
+    <row r="4356" spans="1:3">
+      <c r="A4356" s="2" t="s">
+        <v>11392</v>
+      </c>
+      <c r="B4356" s="1" t="s">
+        <v>11392</v>
+      </c>
+      <c r="C4356" s="1" t="s">
+        <v>12091</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:3">
+      <c r="A4357" s="2" t="s">
+        <v>11393</v>
+      </c>
+      <c r="B4357" s="1" t="s">
+        <v>12092</v>
+      </c>
+      <c r="C4357" s="1" t="s">
+        <v>12093</v>
+      </c>
+    </row>
+    <row r="4358" spans="1:3">
+      <c r="A4358" s="2" t="s">
+        <v>11394</v>
+      </c>
+      <c r="B4358" s="1" t="s">
+        <v>12092</v>
+      </c>
+      <c r="C4358" s="1" t="s">
+        <v>12094</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:3">
+      <c r="A4359" s="2" t="s">
+        <v>11395</v>
+      </c>
+      <c r="B4359" s="1" t="s">
+        <v>12095</v>
+      </c>
+      <c r="C4359" s="1" t="s">
+        <v>12096</v>
+      </c>
+    </row>
+    <row r="4360" spans="1:3">
+      <c r="A4360" s="2" t="s">
+        <v>11396</v>
+      </c>
+      <c r="B4360" s="1" t="s">
+        <v>12097</v>
+      </c>
+      <c r="C4360" s="1" t="s">
+        <v>12098</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:3">
+      <c r="A4361" s="2" t="s">
+        <v>11397</v>
+      </c>
+      <c r="B4361" s="1" t="s">
+        <v>12097</v>
+      </c>
+      <c r="C4361" s="1" t="s">
+        <v>12099</v>
+      </c>
+    </row>
+    <row r="4362" spans="1:3">
+      <c r="A4362" s="2" t="s">
+        <v>11398</v>
+      </c>
+      <c r="B4362" s="1" t="s">
+        <v>12100</v>
+      </c>
+      <c r="C4362" s="1" t="s">
+        <v>12101</v>
+      </c>
+    </row>
+    <row r="4363" spans="1:3">
+      <c r="A4363" s="2" t="s">
+        <v>11399</v>
+      </c>
+      <c r="B4363" s="1" t="s">
+        <v>12100</v>
+      </c>
+      <c r="C4363" s="1" t="s">
+        <v>12102</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:3">
+      <c r="A4364" s="2" t="s">
+        <v>11400</v>
+      </c>
+      <c r="B4364" s="1" t="s">
+        <v>12103</v>
+      </c>
+      <c r="C4364" s="1" t="s">
+        <v>12104</v>
+      </c>
+    </row>
+    <row r="4365" spans="1:3">
+      <c r="A4365" s="2" t="s">
+        <v>11401</v>
+      </c>
+      <c r="B4365" s="1" t="s">
+        <v>12105</v>
+      </c>
+      <c r="C4365" s="1" t="s">
+        <v>12106</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:3">
+      <c r="A4366" s="2" t="s">
+        <v>11402</v>
+      </c>
+      <c r="B4366" s="1" t="s">
+        <v>12107</v>
+      </c>
+      <c r="C4366" s="1" t="s">
+        <v>12108</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:3">
+      <c r="A4367" s="2" t="s">
+        <v>11403</v>
+      </c>
+      <c r="B4367" s="1" t="s">
+        <v>12109</v>
+      </c>
+      <c r="C4367" s="1" t="s">
+        <v>12110</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:3">
+      <c r="A4368" s="2" t="s">
+        <v>11404</v>
+      </c>
+      <c r="B4368" s="1" t="s">
+        <v>12111</v>
+      </c>
+      <c r="C4368" s="1" t="s">
+        <v>12112</v>
+      </c>
+    </row>
+    <row r="4369" spans="1:3">
+      <c r="A4369" s="2" t="s">
+        <v>11405</v>
+      </c>
+      <c r="B4369" s="1" t="s">
+        <v>12113</v>
+      </c>
+      <c r="C4369" s="1" t="s">
+        <v>12114</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:3">
+      <c r="A4370" s="2" t="s">
+        <v>11406</v>
+      </c>
+      <c r="B4370" s="1" t="s">
+        <v>12115</v>
+      </c>
+      <c r="C4370" s="1" t="s">
+        <v>12116</v>
+      </c>
+    </row>
+    <row r="4371" spans="1:3">
+      <c r="A4371" s="2" t="s">
+        <v>11407</v>
+      </c>
+      <c r="B4371" s="1" t="s">
+        <v>12115</v>
+      </c>
+      <c r="C4371" s="1" t="s">
+        <v>12117</v>
+      </c>
+    </row>
+    <row r="4372" spans="1:3">
+      <c r="A4372" s="2" t="s">
+        <v>11408</v>
+      </c>
+      <c r="B4372" s="1" t="s">
+        <v>12118</v>
+      </c>
+      <c r="C4372" s="1" t="s">
+        <v>12119</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:3">
+      <c r="A4373" s="2" t="s">
+        <v>11409</v>
+      </c>
+      <c r="B4373" s="1" t="s">
+        <v>12120</v>
+      </c>
+      <c r="C4373" s="1" t="s">
+        <v>12121</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:3">
+      <c r="A4374" s="2" t="s">
+        <v>11410</v>
+      </c>
+      <c r="B4374" s="1" t="s">
+        <v>12122</v>
+      </c>
+      <c r="C4374" s="1" t="s">
+        <v>12123</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:3">
+      <c r="A4375" s="2" t="s">
+        <v>11411</v>
+      </c>
+      <c r="B4375" s="1" t="s">
+        <v>12124</v>
+      </c>
+      <c r="C4375" s="1" t="s">
+        <v>12125</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:3">
+      <c r="A4376" s="2" t="s">
+        <v>11412</v>
+      </c>
+      <c r="B4376" s="1" t="s">
+        <v>12126</v>
+      </c>
+      <c r="C4376" s="1" t="s">
+        <v>12127</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:3">
+      <c r="A4377" s="2" t="s">
+        <v>11413</v>
+      </c>
+      <c r="B4377" s="1" t="s">
+        <v>12128</v>
+      </c>
+      <c r="C4377" s="1" t="s">
+        <v>12129</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:3">
+      <c r="A4378" s="2" t="s">
+        <v>11414</v>
+      </c>
+      <c r="B4378" s="1" t="s">
+        <v>12130</v>
+      </c>
+      <c r="C4378" s="1" t="s">
+        <v>12131</v>
+      </c>
+    </row>
+    <row r="4379" spans="1:3">
+      <c r="A4379" s="2" t="s">
+        <v>11415</v>
+      </c>
+      <c r="B4379" s="1" t="s">
+        <v>12132</v>
+      </c>
+      <c r="C4379" s="1" t="s">
+        <v>12133</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:3">
+      <c r="A4380" s="2" t="s">
+        <v>11416</v>
+      </c>
+      <c r="B4380" s="1" t="s">
+        <v>12134</v>
+      </c>
+      <c r="C4380" s="1" t="s">
+        <v>12135</v>
+      </c>
+    </row>
+    <row r="4381" spans="1:3">
+      <c r="A4381" s="2" t="s">
+        <v>11417</v>
+      </c>
+      <c r="B4381" s="1" t="s">
+        <v>12136</v>
+      </c>
+      <c r="C4381" s="1" t="s">
+        <v>12137</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:3">
+      <c r="A4382" s="2" t="s">
+        <v>11418</v>
+      </c>
+      <c r="B4382" s="1" t="s">
+        <v>12138</v>
+      </c>
+      <c r="C4382" s="1" t="s">
+        <v>12139</v>
+      </c>
+    </row>
+    <row r="4383" spans="1:3">
+      <c r="A4383" s="2" t="s">
+        <v>11419</v>
+      </c>
+      <c r="B4383" s="1" t="s">
+        <v>12140</v>
+      </c>
+      <c r="C4383" s="1" t="s">
+        <v>12141</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:3">
+      <c r="A4384" s="2" t="s">
+        <v>11420</v>
+      </c>
+      <c r="B4384" s="1" t="s">
+        <v>12142</v>
+      </c>
+      <c r="C4384" s="1" t="s">
+        <v>12143</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:3">
+      <c r="A4385" s="2" t="s">
+        <v>11421</v>
+      </c>
+      <c r="B4385" s="1" t="s">
+        <v>12144</v>
+      </c>
+      <c r="C4385" s="1" t="s">
+        <v>12145</v>
+      </c>
+    </row>
+    <row r="4386" spans="1:3">
+      <c r="A4386" s="2" t="s">
+        <v>11422</v>
+      </c>
+      <c r="B4386" s="1" t="s">
+        <v>12146</v>
+      </c>
+      <c r="C4386" s="1" t="s">
+        <v>12147</v>
+      </c>
+    </row>
+    <row r="4387" spans="1:3">
+      <c r="A4387" s="2" t="s">
+        <v>11423</v>
+      </c>
+      <c r="B4387" s="1" t="s">
+        <v>12148</v>
+      </c>
+      <c r="C4387" s="1" t="s">
+        <v>12149</v>
+      </c>
+    </row>
+    <row r="4388" spans="1:3">
+      <c r="A4388" s="2" t="s">
+        <v>11424</v>
+      </c>
+      <c r="B4388" s="1" t="s">
+        <v>12150</v>
+      </c>
+      <c r="C4388" s="1" t="s">
+        <v>12151</v>
+      </c>
+    </row>
+    <row r="4389" spans="1:3">
+      <c r="A4389" s="2" t="s">
+        <v>11425</v>
+      </c>
+      <c r="B4389" s="1" t="s">
+        <v>12152</v>
+      </c>
+      <c r="C4389" s="1" t="s">
+        <v>12153</v>
+      </c>
+    </row>
+    <row r="4390" spans="1:3">
+      <c r="A4390" s="2" t="s">
+        <v>11426</v>
+      </c>
+      <c r="B4390" s="1" t="s">
+        <v>12154</v>
+      </c>
+      <c r="C4390" s="1" t="s">
+        <v>12155</v>
+      </c>
+    </row>
+    <row r="4391" spans="1:3">
+      <c r="A4391" s="2" t="s">
+        <v>11427</v>
+      </c>
+      <c r="B4391" s="1" t="s">
+        <v>12156</v>
+      </c>
+      <c r="C4391" s="1" t="s">
+        <v>12157</v>
+      </c>
+    </row>
+    <row r="4392" spans="1:3">
+      <c r="A4392" s="2" t="s">
+        <v>11428</v>
+      </c>
+      <c r="B4392" s="1" t="s">
+        <v>12158</v>
+      </c>
+      <c r="C4392" s="1" t="s">
+        <v>12159</v>
+      </c>
+    </row>
+    <row r="4393" spans="1:3">
+      <c r="A4393" s="2" t="s">
+        <v>11429</v>
+      </c>
+      <c r="B4393" s="1" t="s">
+        <v>12160</v>
+      </c>
+      <c r="C4393" s="1" t="s">
+        <v>12161</v>
+      </c>
+    </row>
+    <row r="4394" spans="1:3">
+      <c r="A4394" s="2" t="s">
+        <v>11430</v>
+      </c>
+      <c r="B4394" s="1" t="s">
+        <v>12162</v>
+      </c>
+      <c r="C4394" s="1" t="s">
+        <v>12163</v>
+      </c>
+    </row>
+    <row r="4395" spans="1:3">
+      <c r="A4395" s="2" t="s">
+        <v>11431</v>
+      </c>
+      <c r="B4395" s="1" t="s">
+        <v>12164</v>
+      </c>
+      <c r="C4395" s="1" t="s">
+        <v>12165</v>
+      </c>
+    </row>
+    <row r="4396" spans="1:3">
+      <c r="A4396" s="2" t="s">
+        <v>11432</v>
+      </c>
+      <c r="B4396" s="1" t="s">
+        <v>12166</v>
+      </c>
+      <c r="C4396" s="1" t="s">
+        <v>12167</v>
+      </c>
+    </row>
+    <row r="4397" spans="1:3">
+      <c r="A4397" s="2" t="s">
+        <v>11433</v>
+      </c>
+      <c r="B4397" s="1" t="s">
+        <v>12168</v>
+      </c>
+      <c r="C4397" s="1" t="s">
+        <v>12169</v>
+      </c>
+    </row>
+    <row r="4398" spans="1:3">
+      <c r="A4398" s="2" t="s">
+        <v>11434</v>
+      </c>
+      <c r="B4398" s="1" t="s">
+        <v>12170</v>
+      </c>
+      <c r="C4398" s="1" t="s">
+        <v>12171</v>
+      </c>
+    </row>
+    <row r="4399" spans="1:3">
+      <c r="A4399" s="2" t="s">
+        <v>11435</v>
+      </c>
+      <c r="B4399" s="1" t="s">
+        <v>12172</v>
+      </c>
+      <c r="C4399" s="1" t="s">
+        <v>12173</v>
+      </c>
+    </row>
+    <row r="4400" spans="1:3">
+      <c r="A4400" s="2" t="s">
+        <v>11436</v>
+      </c>
+      <c r="B4400" s="1" t="s">
+        <v>12174</v>
+      </c>
+      <c r="C4400" s="1" t="s">
+        <v>12175</v>
       </c>
     </row>
   </sheetData>

--- a/日本語/1_語彙.xlsx
+++ b/日本語/1_語彙.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10219"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10226"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeshafteure/Documents/GitHub/Freshmore/日本語/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDE7833-9D28-2843-AB24-54BB3E07110E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E19789E-5E22-9F4F-823D-715C61FAA0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15840" windowHeight="18900" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="15000" windowHeight="18900" xr2:uid="{4594DD4E-358F-7145-8E4F-B49DE3DAF1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13300" uniqueCount="12275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13850" uniqueCount="12761">
   <si>
     <t>亜〜</t>
   </si>
@@ -48585,12 +48585,1470 @@
   <si>
     <t>打撃</t>
   </si>
+  <si>
+    <t>妥結</t>
+  </si>
+  <si>
+    <t>だけど</t>
+  </si>
+  <si>
+    <t>〜だけに</t>
+  </si>
+  <si>
+    <t>駄作</t>
+  </si>
+  <si>
+    <t>確か</t>
+  </si>
+  <si>
+    <t>確か（に）</t>
+  </si>
+  <si>
+    <t>確かめる</t>
+  </si>
+  <si>
+    <t>足し算</t>
+  </si>
+  <si>
+    <t>多少</t>
+  </si>
+  <si>
+    <t>足す</t>
+  </si>
+  <si>
+    <t>出す</t>
+  </si>
+  <si>
+    <t>〜出す</t>
+  </si>
+  <si>
+    <t>多数決</t>
+  </si>
+  <si>
+    <t>助かる</t>
+  </si>
+  <si>
+    <t>助け</t>
+  </si>
+  <si>
+    <t>助ける</t>
+  </si>
+  <si>
+    <t>携わる</t>
+  </si>
+  <si>
+    <t>訪ねる</t>
+  </si>
+  <si>
+    <t>尋ねる</t>
+  </si>
+  <si>
+    <t>只／唯</t>
+  </si>
+  <si>
+    <t>ただ</t>
+  </si>
+  <si>
+    <t>ただいま</t>
+  </si>
+  <si>
+    <t>戦い</t>
+  </si>
+  <si>
+    <t>戦う</t>
+  </si>
+  <si>
+    <t>叩く</t>
+  </si>
+  <si>
+    <t>但し</t>
+  </si>
+  <si>
+    <t>正しい</t>
+  </si>
+  <si>
+    <t>直ちに</t>
+  </si>
+  <si>
+    <t>畳</t>
+  </si>
+  <si>
+    <t>畳む</t>
+  </si>
+  <si>
+    <t>漂う</t>
+  </si>
+  <si>
+    <t>〜たち</t>
+  </si>
+  <si>
+    <t>立ち上がる</t>
+  </si>
+  <si>
+    <t>立ち去る</t>
+  </si>
+  <si>
+    <t>立ち止まる</t>
+  </si>
+  <si>
+    <t>立場</t>
+  </si>
+  <si>
+    <t>たちまち</t>
+  </si>
+  <si>
+    <t>立ち寄る</t>
+  </si>
+  <si>
+    <t>立つ</t>
+  </si>
+  <si>
+    <t>経つ</t>
+  </si>
+  <si>
+    <t>発つ</t>
+  </si>
+  <si>
+    <t>建つ</t>
+  </si>
+  <si>
+    <t>絶つ</t>
+  </si>
+  <si>
+    <t>抱っこ</t>
+  </si>
+  <si>
+    <t>達者</t>
+  </si>
+  <si>
+    <t>脱出</t>
+  </si>
+  <si>
+    <t>達する</t>
+  </si>
+  <si>
+    <t>脱する</t>
+  </si>
+  <si>
+    <t>達成</t>
+  </si>
+  <si>
+    <t>脱線</t>
+  </si>
+  <si>
+    <t>唯</t>
+  </si>
+  <si>
+    <t>脱退</t>
+  </si>
+  <si>
+    <t>だったら</t>
+  </si>
+  <si>
+    <t>だって</t>
+  </si>
+  <si>
+    <t>たっぷり</t>
+  </si>
+  <si>
+    <t>縦</t>
+  </si>
+  <si>
+    <t>盾</t>
+  </si>
+  <si>
+    <t>〜建て</t>
+  </si>
+  <si>
+    <t>立て替える</t>
+  </si>
+  <si>
+    <t>建前</t>
+  </si>
+  <si>
+    <t>奉る</t>
+  </si>
+  <si>
+    <t>建物</t>
+  </si>
+  <si>
+    <t>建てる</t>
+  </si>
+  <si>
+    <t>立てる</t>
+  </si>
+  <si>
+    <t>立てる／建てる</t>
+  </si>
+  <si>
+    <t>だと</t>
+  </si>
+  <si>
+    <t>妥当</t>
+  </si>
+  <si>
+    <t>他動詞</t>
+  </si>
+  <si>
+    <t>たとえ</t>
+  </si>
+  <si>
+    <t>例え</t>
+  </si>
+  <si>
+    <t>例えば</t>
+  </si>
+  <si>
+    <t>例える</t>
+  </si>
+  <si>
+    <t>〜たところで</t>
+  </si>
+  <si>
+    <t>辿り着く</t>
+  </si>
+  <si>
+    <t>辿る</t>
+  </si>
+  <si>
+    <t>棚</t>
+  </si>
+  <si>
+    <t>谷</t>
+  </si>
+  <si>
+    <t>他人</t>
+  </si>
+  <si>
+    <t>種</t>
+  </si>
+  <si>
+    <t>楽しい</t>
+  </si>
+  <si>
+    <t>楽しむ</t>
+  </si>
+  <si>
+    <t>楽しみ</t>
+  </si>
+  <si>
+    <t>頼み</t>
+  </si>
+  <si>
+    <t>頼む</t>
+  </si>
+  <si>
+    <t>頼もしい</t>
+  </si>
+  <si>
+    <t>束</t>
+  </si>
+  <si>
+    <t>〜たばかり</t>
+  </si>
+  <si>
+    <t>たばこ</t>
+  </si>
+  <si>
+    <t>束ねる</t>
+  </si>
+  <si>
+    <t>足袋</t>
+  </si>
+  <si>
+    <t>度</t>
+  </si>
+  <si>
+    <t>旅</t>
+  </si>
+  <si>
+    <t>たびたび</t>
+  </si>
+  <si>
+    <t>だぶだぶ</t>
+  </si>
+  <si>
+    <t>ダブる</t>
+  </si>
+  <si>
+    <t>ダブル</t>
+  </si>
+  <si>
+    <t>多分</t>
+  </si>
+  <si>
+    <t>食べ物</t>
+  </si>
+  <si>
+    <t>食べる</t>
+  </si>
+  <si>
+    <t>他方</t>
+  </si>
+  <si>
+    <t>たいしょう</t>
+  </si>
+  <si>
+    <t>Target, Object (of Study, etc.)</t>
+  </si>
+  <si>
+    <t>Contrast, Comparison</t>
+  </si>
+  <si>
+    <t>だいしょう</t>
+  </si>
+  <si>
+    <t>Sizes (Large and Small)</t>
+  </si>
+  <si>
+    <t>だいじょうぶ</t>
+  </si>
+  <si>
+    <t>Okay, Safe, All Right</t>
+  </si>
+  <si>
+    <t>たいしょく</t>
+  </si>
+  <si>
+    <t>Retirement, Resignation</t>
+  </si>
+  <si>
+    <t>だいじん</t>
+  </si>
+  <si>
+    <t>Minister (of State)</t>
+  </si>
+  <si>
+    <t>だいすき</t>
+  </si>
+  <si>
+    <t>Love Very Much, Adore</t>
+  </si>
+  <si>
+    <t>たいする</t>
+  </si>
+  <si>
+    <t>To Face, To Oppose</t>
+  </si>
+  <si>
+    <t>だいする</t>
+  </si>
+  <si>
+    <t>To Be Titled, To Be Called</t>
+  </si>
+  <si>
+    <t>たいせい</t>
+  </si>
+  <si>
+    <t>System, Structure</t>
+  </si>
+  <si>
+    <t>Attitude, Posture</t>
+  </si>
+  <si>
+    <t>たいせき</t>
+  </si>
+  <si>
+    <t>Volume, Capacity</t>
+  </si>
+  <si>
+    <t>たいせつ</t>
+  </si>
+  <si>
+    <t>Important, Precious</t>
+  </si>
+  <si>
+    <t>たいせん</t>
+  </si>
+  <si>
+    <t>Great War</t>
+  </si>
+  <si>
+    <t>たいそう</t>
+  </si>
+  <si>
+    <t>Gymnastics, Physical Exercises</t>
+  </si>
+  <si>
+    <t>Very, Extremely</t>
+  </si>
+  <si>
+    <t>だいたい</t>
+  </si>
+  <si>
+    <t>Generally, In General</t>
+  </si>
+  <si>
+    <t>たいだん</t>
+  </si>
+  <si>
+    <t>Talk, Dialogue</t>
+  </si>
+  <si>
+    <t>だいたん</t>
+  </si>
+  <si>
+    <t>Bold, Daring</t>
+  </si>
+  <si>
+    <t>たいてい</t>
+  </si>
+  <si>
+    <t>Usually, Generally</t>
+  </si>
+  <si>
+    <t>たいど</t>
+  </si>
+  <si>
+    <t>Attitude, Manner</t>
+  </si>
+  <si>
+    <t>たいとう</t>
+  </si>
+  <si>
+    <t>Equality, Equivalent</t>
+  </si>
+  <si>
+    <t>だいとうりょう</t>
+  </si>
+  <si>
+    <t>President (of a Country)</t>
+  </si>
+  <si>
+    <t>だいどころ</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>だいなし</t>
+  </si>
+  <si>
+    <t>Spoiled, Ruined</t>
+  </si>
+  <si>
+    <t>たいのう</t>
+  </si>
+  <si>
+    <t>Non-payment, Arrears</t>
+  </si>
+  <si>
+    <t>たいはん</t>
+  </si>
+  <si>
+    <t>Majority, More Than Half</t>
+  </si>
+  <si>
+    <t>たいひ</t>
+  </si>
+  <si>
+    <t>タイピスト</t>
+  </si>
+  <si>
+    <t>Typist</t>
+  </si>
+  <si>
+    <t>だいひょう</t>
+  </si>
+  <si>
+    <t>Representative, Delegation</t>
+  </si>
+  <si>
+    <t>たいぶ</t>
+  </si>
+  <si>
+    <t>Large Volume, Large Part</t>
+  </si>
+  <si>
+    <t>Considerably, A Lot</t>
+  </si>
+  <si>
+    <t>だいぶん</t>
+  </si>
+  <si>
+    <t>Fairly, Considerably</t>
+  </si>
+  <si>
+    <t>たいふう</t>
+  </si>
+  <si>
+    <t>Typhoon</t>
+  </si>
+  <si>
+    <t>Type, To Type (on a Keyboard)</t>
+  </si>
+  <si>
+    <t>だいぶぶん</t>
+  </si>
+  <si>
+    <t>Majority, Most Part</t>
+  </si>
+  <si>
+    <t>Typewriter</t>
+  </si>
+  <si>
+    <t>たいへん</t>
+  </si>
+  <si>
+    <t>だいべん</t>
+  </si>
+  <si>
+    <t>Speak on Behalf, Represent</t>
+  </si>
+  <si>
+    <t>Feces, Stool</t>
+  </si>
+  <si>
+    <t>たいほ</t>
+  </si>
+  <si>
+    <t>Arrest, Apprehension</t>
+  </si>
+  <si>
+    <t>たいぼう</t>
+  </si>
+  <si>
+    <t>Long-Awaited, Anticipated</t>
+  </si>
+  <si>
+    <t>たいぼく</t>
+  </si>
+  <si>
+    <t>Large Tree</t>
+  </si>
+  <si>
+    <t>だいほん</t>
+  </si>
+  <si>
+    <t>Script, Scenario</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>たいまん</t>
+  </si>
+  <si>
+    <t>Negligence, Carelessness</t>
+  </si>
+  <si>
+    <t>Timing</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Timely, Well-Timed</t>
+  </si>
+  <si>
+    <t>だいめい</t>
+  </si>
+  <si>
+    <t>Title (of a Book, Movie, etc.)</t>
+  </si>
+  <si>
+    <t>だいめいし</t>
+  </si>
+  <si>
+    <t>Pronoun, Representative Example</t>
+  </si>
+  <si>
+    <t>たいめん</t>
+  </si>
+  <si>
+    <t>Face-to-Face Meeting</t>
+  </si>
+  <si>
+    <t>Tire (of a Car, Bicycle, etc.)</t>
+  </si>
+  <si>
+    <t>Diamond / Train Schedule (Abbreviation)</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>Dial (Phone, Radio)</t>
+  </si>
+  <si>
+    <t>たいよう</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>だいよう</t>
+  </si>
+  <si>
+    <t>Substitute, Alternative Use</t>
+  </si>
+  <si>
+    <t>たいら</t>
+  </si>
+  <si>
+    <t>Flat, Level</t>
+  </si>
+  <si>
+    <t>だいり</t>
+  </si>
+  <si>
+    <t>Representation, Proxy</t>
+  </si>
+  <si>
+    <t>たいりく</t>
+  </si>
+  <si>
+    <t>Continent</t>
+  </si>
+  <si>
+    <t>たいりつ</t>
+  </si>
+  <si>
+    <t>Confrontation, Opposition</t>
+  </si>
+  <si>
+    <t>たいりょく</t>
+  </si>
+  <si>
+    <t>Physical Strength, Stamina</t>
+  </si>
+  <si>
+    <t>たいわ</t>
+  </si>
+  <si>
+    <t>Dialogue, Conversation</t>
+  </si>
+  <si>
+    <t>たうえ</t>
+  </si>
+  <si>
+    <t>Rice Planting</t>
+  </si>
+  <si>
+    <t>Down, Decline, Loss of Strength</t>
+  </si>
+  <si>
+    <t>たえず</t>
+  </si>
+  <si>
+    <t>Constantly, Always</t>
+  </si>
+  <si>
+    <t>たえる</t>
+  </si>
+  <si>
+    <t>To Die Out, To Cease</t>
+  </si>
+  <si>
+    <t>To Endure, To Withstand</t>
+  </si>
+  <si>
+    <t>だえん</t>
+  </si>
+  <si>
+    <t>Ellipse, Oval</t>
+  </si>
+  <si>
+    <t>たおす</t>
+  </si>
+  <si>
+    <t>To Knock Down, To Defeat</t>
+  </si>
+  <si>
+    <t>Towel</t>
+  </si>
+  <si>
+    <t>たおれる</t>
+  </si>
+  <si>
+    <t>To Collapse, To Fall Over</t>
+  </si>
+  <si>
+    <t>However, But</t>
+  </si>
+  <si>
+    <t>たかい</t>
+  </si>
+  <si>
+    <t>High, Tall, Expensive</t>
+  </si>
+  <si>
+    <t>たがい</t>
+  </si>
+  <si>
+    <t>だかい</t>
+  </si>
+  <si>
+    <t>Breakthrough, Solution</t>
+  </si>
+  <si>
+    <t>たかまる</t>
+  </si>
+  <si>
+    <t>To Rise, To Increase</t>
+  </si>
+  <si>
+    <t>たかめる</t>
+  </si>
+  <si>
+    <t>To Raise, To Enhance</t>
+  </si>
+  <si>
+    <t>たがやす</t>
+  </si>
+  <si>
+    <t>To Cultivate, To Plow</t>
+  </si>
+  <si>
+    <t>たから</t>
+  </si>
+  <si>
+    <t>Treasure, Valuable Thing</t>
+  </si>
+  <si>
+    <t>Therefore, So</t>
+  </si>
+  <si>
+    <t>たき</t>
+  </si>
+  <si>
+    <t>Waterfall</t>
+  </si>
+  <si>
+    <t>たきび</t>
+  </si>
+  <si>
+    <t>Bonfire</t>
+  </si>
+  <si>
+    <t>だきょう</t>
+  </si>
+  <si>
+    <t>Compromise</t>
+  </si>
+  <si>
+    <t>たく</t>
+  </si>
+  <si>
+    <t>To Cook (Rice)</t>
+  </si>
+  <si>
+    <t>House, Home</t>
+  </si>
+  <si>
+    <t>だく／いだく</t>
+  </si>
+  <si>
+    <t>To Hold, To Embrace</t>
+  </si>
+  <si>
+    <t>A Lot, Many</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>Sturdy, Strong, Robust</t>
+  </si>
+  <si>
+    <t>たくみ</t>
+  </si>
+  <si>
+    <t>Skillful, Clever</t>
+  </si>
+  <si>
+    <t>たくわえる</t>
+  </si>
+  <si>
+    <t>To Store, To Save</t>
+  </si>
+  <si>
+    <t>たけ</t>
+  </si>
+  <si>
+    <t>Bamboo</t>
+  </si>
+  <si>
+    <t>Height, Length</t>
+  </si>
+  <si>
+    <t>Only, Just</t>
+  </si>
+  <si>
+    <t>だげき</t>
+  </si>
+  <si>
+    <t>Blow, Strike, Shock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very, Awfully (Adverb) </t>
+  </si>
+  <si>
+    <t>Difficult, Serious (Adj)</t>
+  </si>
+  <si>
+    <t>だけつ</t>
+  </si>
+  <si>
+    <t>Agreement, Settlement</t>
+  </si>
+  <si>
+    <t>But, However</t>
+  </si>
+  <si>
+    <t>Precisely Because, As Might Be Expected</t>
+  </si>
+  <si>
+    <t>ださく</t>
+  </si>
+  <si>
+    <t>Poor Work, Trashy Production</t>
+  </si>
+  <si>
+    <t>たしか</t>
+  </si>
+  <si>
+    <t>Certain, Sure</t>
+  </si>
+  <si>
+    <t>たしかに</t>
+  </si>
+  <si>
+    <t>Surely, Certainly</t>
+  </si>
+  <si>
+    <t>たしかめる</t>
+  </si>
+  <si>
+    <t>To Confirm, To Make Sure</t>
+  </si>
+  <si>
+    <t>たしざん</t>
+  </si>
+  <si>
+    <t>Addition (Math)</t>
+  </si>
+  <si>
+    <t>たしょう</t>
+  </si>
+  <si>
+    <t>More or Less, Somewhat</t>
+  </si>
+  <si>
+    <t>たす</t>
+  </si>
+  <si>
+    <t>To Add, To Supplement</t>
+  </si>
+  <si>
+    <t>だす</t>
+  </si>
+  <si>
+    <t>To Take Out, To Submit</t>
+  </si>
+  <si>
+    <t>〜だす</t>
+  </si>
+  <si>
+    <t>To Start Doing, To Put Out</t>
+  </si>
+  <si>
+    <t>たすうけつ</t>
+  </si>
+  <si>
+    <t>Majority Decision</t>
+  </si>
+  <si>
+    <t>たすかる</t>
+  </si>
+  <si>
+    <t>To Be Saved, To Be Helped</t>
+  </si>
+  <si>
+    <t>たすけ</t>
+  </si>
+  <si>
+    <t>Help, Assistance</t>
+  </si>
+  <si>
+    <t>たすける</t>
+  </si>
+  <si>
+    <t>To Help, To Save</t>
+  </si>
+  <si>
+    <t>たずさわる</t>
+  </si>
+  <si>
+    <t>To Be Involved, To Engage In</t>
+  </si>
+  <si>
+    <t>たずねる</t>
+  </si>
+  <si>
+    <t>To Visit</t>
+  </si>
+  <si>
+    <t>To Ask, To Inquire</t>
+  </si>
+  <si>
+    <t>Just, Only</t>
+  </si>
+  <si>
+    <t>Free (of Charge)</t>
+  </si>
+  <si>
+    <t>I'm Home / Right Now</t>
+  </si>
+  <si>
+    <t>たたかい</t>
+  </si>
+  <si>
+    <t>Battle, Fight</t>
+  </si>
+  <si>
+    <t>たたかう</t>
+  </si>
+  <si>
+    <t>To Fight, To Battle</t>
+  </si>
+  <si>
+    <t>たたく</t>
+  </si>
+  <si>
+    <t>To Hit, To Clap, To Criticize</t>
+  </si>
+  <si>
+    <t>ただし</t>
+  </si>
+  <si>
+    <t>However, Provided That</t>
+  </si>
+  <si>
+    <t>ただしい</t>
+  </si>
+  <si>
+    <t>Correct, Right</t>
+  </si>
+  <si>
+    <t>ただちに</t>
+  </si>
+  <si>
+    <t>Immediately, Directly</t>
+  </si>
+  <si>
+    <t>たたみ</t>
+  </si>
+  <si>
+    <t>Tatami Mat</t>
+  </si>
+  <si>
+    <t>たたむ</t>
+  </si>
+  <si>
+    <t>To Fold, To Close (Business)</t>
+  </si>
+  <si>
+    <t>ただよう</t>
+  </si>
+  <si>
+    <t>To Drift, To Float</t>
+  </si>
+  <si>
+    <t>(Pluralizing Suffix for People)</t>
+  </si>
+  <si>
+    <t>たちあがる</t>
+  </si>
+  <si>
+    <t>To Stand Up, To Rise</t>
+  </si>
+  <si>
+    <t>たちさる</t>
+  </si>
+  <si>
+    <t>To Leave, To Go Away</t>
+  </si>
+  <si>
+    <t>たちどまる</t>
+  </si>
+  <si>
+    <t>To Stop (Walking)</t>
+  </si>
+  <si>
+    <t>たちば</t>
+  </si>
+  <si>
+    <t>Position, Standpoint</t>
+  </si>
+  <si>
+    <t>Instantly, Immediately</t>
+  </si>
+  <si>
+    <t>たちよる</t>
+  </si>
+  <si>
+    <t>To Stop By, To Drop In</t>
+  </si>
+  <si>
+    <t>たつ</t>
+  </si>
+  <si>
+    <t>To Stand, To Rise</t>
+  </si>
+  <si>
+    <t>To Pass (Time)</t>
+  </si>
+  <si>
+    <t>To Depart</t>
+  </si>
+  <si>
+    <t>To Be Built</t>
+  </si>
+  <si>
+    <t>To Sever, To Cut Off</t>
+  </si>
+  <si>
+    <t>だっこ</t>
+  </si>
+  <si>
+    <t>Hug, Carrying a Child</t>
+  </si>
+  <si>
+    <t>たっしゃ</t>
+  </si>
+  <si>
+    <t>Skilled, Healthy</t>
+  </si>
+  <si>
+    <t>だっしゅつ</t>
+  </si>
+  <si>
+    <t>Escape, Breakout</t>
+  </si>
+  <si>
+    <t>たっする</t>
+  </si>
+  <si>
+    <t>To Reach, To Attain</t>
+  </si>
+  <si>
+    <t>だっする</t>
+  </si>
+  <si>
+    <t>To Get Out, To Escape</t>
+  </si>
+  <si>
+    <t>たっせい</t>
+  </si>
+  <si>
+    <t>Achievement, Accomplishment</t>
+  </si>
+  <si>
+    <t>だっせん</t>
+  </si>
+  <si>
+    <t>Derailment, Digression</t>
+  </si>
+  <si>
+    <t>Only, Merely</t>
+  </si>
+  <si>
+    <t>だったい</t>
+  </si>
+  <si>
+    <t>Secession, Withdrawal</t>
+  </si>
+  <si>
+    <t>If That's the Case</t>
+  </si>
+  <si>
+    <t>But, Because</t>
+  </si>
+  <si>
+    <t>Full, Plenty</t>
+  </si>
+  <si>
+    <t>たて</t>
+  </si>
+  <si>
+    <t>Vertical, Length</t>
+  </si>
+  <si>
+    <t>Shield, Defense</t>
+  </si>
+  <si>
+    <t>〜だて</t>
+  </si>
+  <si>
+    <t>(Suffix for Multi-Story Buildings)</t>
+  </si>
+  <si>
+    <t>たてかえる</t>
+  </si>
+  <si>
+    <t>To Pay for Someone, To Pay in Advance</t>
+  </si>
+  <si>
+    <t>たてまえ</t>
+  </si>
+  <si>
+    <t>Official Stance, Pretense</t>
+  </si>
+  <si>
+    <t>たてまつる</t>
+  </si>
+  <si>
+    <t>To Offer, To Revere</t>
+  </si>
+  <si>
+    <t>たてもの</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>たてる</t>
+  </si>
+  <si>
+    <t>To Build</t>
+  </si>
+  <si>
+    <t>To Stand Up, To Establish</t>
+  </si>
+  <si>
+    <t>To Stand/Build</t>
+  </si>
+  <si>
+    <t>If It Is, If That's the Case</t>
+  </si>
+  <si>
+    <t>だとう</t>
+  </si>
+  <si>
+    <t>Appropriate, Valid</t>
+  </si>
+  <si>
+    <t>たどうし</t>
+  </si>
+  <si>
+    <t>Transitive Verb</t>
+  </si>
+  <si>
+    <t>Even If, Supposing</t>
+  </si>
+  <si>
+    <t>Example, Simile</t>
+  </si>
+  <si>
+    <t>たとえば</t>
+  </si>
+  <si>
+    <t>For Example</t>
+  </si>
+  <si>
+    <t>たとえる</t>
+  </si>
+  <si>
+    <t>To Compare, To Illustrate</t>
+  </si>
+  <si>
+    <t>Even If (Used in Hypotheticals)</t>
+  </si>
+  <si>
+    <t>たどりつく</t>
+  </si>
+  <si>
+    <t>To Finally Arrive at</t>
+  </si>
+  <si>
+    <t>たどる</t>
+  </si>
+  <si>
+    <t>To Follow (a Route), To Pursue</t>
+  </si>
+  <si>
+    <t>たな</t>
+  </si>
+  <si>
+    <t>Shelf</t>
+  </si>
+  <si>
+    <t>たに</t>
+  </si>
+  <si>
+    <t>Valley</t>
+  </si>
+  <si>
+    <t>たにん</t>
+  </si>
+  <si>
+    <t>Stranger, Other People</t>
+  </si>
+  <si>
+    <t>たね</t>
+  </si>
+  <si>
+    <t>Seed, Kind, Variety</t>
+  </si>
+  <si>
+    <t>たのしい</t>
+  </si>
+  <si>
+    <t>Fun, Enjoyable</t>
+  </si>
+  <si>
+    <t>たのしみ</t>
+  </si>
+  <si>
+    <t>Pleasure, Anticipation</t>
+  </si>
+  <si>
+    <t>たのしむ</t>
+  </si>
+  <si>
+    <t>To Enjoy Oneself</t>
+  </si>
+  <si>
+    <t>たのみ</t>
+  </si>
+  <si>
+    <t>Request, Favor</t>
+  </si>
+  <si>
+    <t>たのむ</t>
+  </si>
+  <si>
+    <t>To Ask, To Request</t>
+  </si>
+  <si>
+    <t>たのもしい</t>
+  </si>
+  <si>
+    <t>Reliable, Trustworthy</t>
+  </si>
+  <si>
+    <t>たば</t>
+  </si>
+  <si>
+    <t>Bundle, Bunch</t>
+  </si>
+  <si>
+    <t>Just (Did Something)</t>
+  </si>
+  <si>
+    <t>Tobacco, Cigarette</t>
+  </si>
+  <si>
+    <t>たばねる</t>
+  </si>
+  <si>
+    <t>To Tie in a Bundle, To Govern</t>
+  </si>
+  <si>
+    <t>たび</t>
+  </si>
+  <si>
+    <t>Traditional Japanese Socks</t>
+  </si>
+  <si>
+    <t>Time(s), Degree</t>
+  </si>
+  <si>
+    <t>Trip, Travel</t>
+  </si>
+  <si>
+    <t>Often, Repeatedly</t>
+  </si>
+  <si>
+    <t>Baggy, Loose</t>
+  </si>
+  <si>
+    <t>To Overlap, To Be Redundant</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>たぶん</t>
+  </si>
+  <si>
+    <t>Probably, Perhaps</t>
+  </si>
+  <si>
+    <t>たべもの</t>
+  </si>
+  <si>
+    <t>たべる</t>
+  </si>
+  <si>
+    <t>To Eat</t>
+  </si>
+  <si>
+    <t>たほう</t>
+  </si>
+  <si>
+    <t>The Other Way, Other Side</t>
+  </si>
+  <si>
+    <t>多忙</t>
+  </si>
+  <si>
+    <t>玉／球／弾</t>
+  </si>
+  <si>
+    <t>偶</t>
+  </si>
+  <si>
+    <t>給う</t>
+  </si>
+  <si>
+    <t>卵</t>
+  </si>
+  <si>
+    <t>魂</t>
+  </si>
+  <si>
+    <t>騙す</t>
+  </si>
+  <si>
+    <t>偶々</t>
+  </si>
+  <si>
+    <t>たまに</t>
+  </si>
+  <si>
+    <t>たまらない</t>
+  </si>
+  <si>
+    <t>溜まり</t>
+  </si>
+  <si>
+    <t>貯まる／溜まる</t>
+  </si>
+  <si>
+    <t>黙る</t>
+  </si>
+  <si>
+    <t>賜る</t>
+  </si>
+  <si>
+    <t>ダム</t>
+  </si>
+  <si>
+    <t>為</t>
+  </si>
+  <si>
+    <t>駄目</t>
+  </si>
+  <si>
+    <t>溜め息</t>
+  </si>
+  <si>
+    <t>試し</t>
+  </si>
+  <si>
+    <t>試す</t>
+  </si>
+  <si>
+    <t>ためらる</t>
+  </si>
+  <si>
+    <t>溜める</t>
+  </si>
+  <si>
+    <t>保つ</t>
+  </si>
+  <si>
+    <t>たやすい</t>
+  </si>
+  <si>
+    <t>多様</t>
+  </si>
+  <si>
+    <t>便り</t>
+  </si>
+  <si>
+    <t>頼る</t>
+  </si>
+  <si>
+    <t>〜だらけ</t>
+  </si>
+  <si>
+    <t>だらしない</t>
+  </si>
+  <si>
+    <t>足りる</t>
+  </si>
+  <si>
+    <t>足る</t>
+  </si>
+  <si>
+    <t>だるい</t>
+  </si>
+  <si>
+    <t>弛み</t>
+  </si>
+  <si>
+    <t>弛む</t>
+  </si>
+  <si>
+    <t>誰</t>
+  </si>
+  <si>
+    <t>だれか</t>
+  </si>
+  <si>
+    <t>だれも</t>
+  </si>
+  <si>
+    <t>垂れる</t>
+  </si>
+  <si>
+    <t>タレント</t>
+  </si>
+  <si>
+    <t>タワー</t>
+  </si>
+  <si>
+    <t>短〜</t>
+  </si>
+  <si>
+    <t>単〜</t>
+  </si>
+  <si>
+    <t>〜団</t>
+  </si>
+  <si>
+    <t>段</t>
+  </si>
+  <si>
+    <t>単位</t>
+  </si>
+  <si>
+    <t>単一</t>
+  </si>
+  <si>
+    <t>担架</t>
+  </si>
+  <si>
+    <t>短歌</t>
+  </si>
+  <si>
+    <t>段階</t>
+  </si>
+  <si>
+    <t>短期</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -48657,6 +50115,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -48680,7 +50145,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -48696,10 +50161,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -49036,10 +50504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD98CDC-2E6D-F340-BEA4-C5F884B9AAD8}">
-  <dimension ref="A1:E4500"/>
+  <dimension ref="A1:E4650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4464" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A4501" sqref="A4501"/>
+    <sheetView tabSelected="1" topLeftCell="A4616" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A4651" sqref="A4651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -79133,7 +80601,7 @@
       <c r="B2735" s="2" t="s">
         <v>7476</v>
       </c>
-      <c r="C2735" s="5" t="s">
+      <c r="C2735" s="6" t="s">
         <v>7533</v>
       </c>
     </row>
@@ -97524,504 +98992,2454 @@
         <v>12175</v>
       </c>
     </row>
-    <row r="4401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4401" s="2" t="s">
+    <row r="4401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4401" s="5" t="s">
         <v>12176</v>
       </c>
-    </row>
-    <row r="4402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4402" s="2" t="s">
+      <c r="B4401" s="7" t="s">
+        <v>12375</v>
+      </c>
+      <c r="C4401" s="7" t="s">
+        <v>12376</v>
+      </c>
+    </row>
+    <row r="4402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4402" s="5" t="s">
         <v>12177</v>
       </c>
-    </row>
-    <row r="4403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4403" s="2" t="s">
+      <c r="B4402" s="7" t="s">
+        <v>12375</v>
+      </c>
+      <c r="C4402" s="7" t="s">
+        <v>12377</v>
+      </c>
+    </row>
+    <row r="4403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4403" s="5" t="s">
         <v>12178</v>
       </c>
-    </row>
-    <row r="4404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4404" s="2" t="s">
+      <c r="B4403" s="7" t="s">
+        <v>12378</v>
+      </c>
+      <c r="C4403" s="7" t="s">
+        <v>12379</v>
+      </c>
+    </row>
+    <row r="4404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4404" s="5" t="s">
         <v>12179</v>
       </c>
-    </row>
-    <row r="4405" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4405" s="2" t="s">
+      <c r="B4404" s="7" t="s">
+        <v>12380</v>
+      </c>
+      <c r="C4404" s="7" t="s">
+        <v>12381</v>
+      </c>
+    </row>
+    <row r="4405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4405" s="5" t="s">
         <v>12180</v>
       </c>
-    </row>
-    <row r="4406" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4406" s="2" t="s">
+      <c r="B4405" s="7" t="s">
+        <v>12382</v>
+      </c>
+      <c r="C4405" s="7" t="s">
+        <v>12383</v>
+      </c>
+    </row>
+    <row r="4406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4406" s="5" t="s">
         <v>12181</v>
       </c>
-    </row>
-    <row r="4407" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4407" s="2" t="s">
+      <c r="B4406" s="7" t="s">
+        <v>12384</v>
+      </c>
+      <c r="C4406" s="7" t="s">
+        <v>12385</v>
+      </c>
+    </row>
+    <row r="4407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4407" s="5" t="s">
         <v>12182</v>
       </c>
-    </row>
-    <row r="4408" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4408" s="2" t="s">
+      <c r="B4407" s="7" t="s">
+        <v>12386</v>
+      </c>
+      <c r="C4407" s="7" t="s">
+        <v>12387</v>
+      </c>
+    </row>
+    <row r="4408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4408" s="5" t="s">
         <v>12183</v>
       </c>
-    </row>
-    <row r="4409" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4409" s="2" t="s">
+      <c r="B4408" s="7" t="s">
+        <v>12388</v>
+      </c>
+      <c r="C4408" s="7" t="s">
+        <v>12389</v>
+      </c>
+    </row>
+    <row r="4409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4409" s="5" t="s">
         <v>12184</v>
       </c>
-    </row>
-    <row r="4410" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4410" s="2" t="s">
+      <c r="B4409" s="7" t="s">
+        <v>12390</v>
+      </c>
+      <c r="C4409" s="7" t="s">
+        <v>12391</v>
+      </c>
+    </row>
+    <row r="4410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4410" s="5" t="s">
         <v>12185</v>
       </c>
-    </row>
-    <row r="4411" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4411" s="2" t="s">
+      <c r="B4410" s="7" t="s">
+        <v>12392</v>
+      </c>
+      <c r="C4410" s="7" t="s">
+        <v>12393</v>
+      </c>
+    </row>
+    <row r="4411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4411" s="5" t="s">
         <v>12186</v>
       </c>
-    </row>
-    <row r="4412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4412" s="2" t="s">
+      <c r="B4411" s="7" t="s">
+        <v>12392</v>
+      </c>
+      <c r="C4411" s="7" t="s">
+        <v>12394</v>
+      </c>
+    </row>
+    <row r="4412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4412" s="5" t="s">
         <v>12187</v>
       </c>
-    </row>
-    <row r="4413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4413" s="2" t="s">
+      <c r="B4412" s="7" t="s">
+        <v>12395</v>
+      </c>
+      <c r="C4412" s="7" t="s">
+        <v>12396</v>
+      </c>
+    </row>
+    <row r="4413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4413" s="5" t="s">
         <v>12188</v>
       </c>
-    </row>
-    <row r="4414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4414" s="2" t="s">
+      <c r="B4413" s="7" t="s">
+        <v>12397</v>
+      </c>
+      <c r="C4413" s="7" t="s">
+        <v>12398</v>
+      </c>
+    </row>
+    <row r="4414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4414" s="5" t="s">
         <v>12189</v>
       </c>
-    </row>
-    <row r="4415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4415" s="2" t="s">
+      <c r="B4414" s="7" t="s">
+        <v>12399</v>
+      </c>
+      <c r="C4414" s="7" t="s">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="4415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4415" s="5" t="s">
         <v>12190</v>
       </c>
-    </row>
-    <row r="4416" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4416" s="2" t="s">
+      <c r="B4415" s="7" t="s">
+        <v>12401</v>
+      </c>
+      <c r="C4415" s="7" t="s">
+        <v>12402</v>
+      </c>
+    </row>
+    <row r="4416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4416" s="5" t="s">
         <v>12191</v>
       </c>
-    </row>
-    <row r="4417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4417" s="2" t="s">
+      <c r="B4416" s="7" t="s">
+        <v>12401</v>
+      </c>
+      <c r="C4416" s="7" t="s">
+        <v>12403</v>
+      </c>
+    </row>
+    <row r="4417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4417" s="5" t="s">
         <v>12192</v>
       </c>
-    </row>
-    <row r="4418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4418" s="2" t="s">
+      <c r="B4417" s="7" t="s">
+        <v>12404</v>
+      </c>
+      <c r="C4417" s="7" t="s">
+        <v>12405</v>
+      </c>
+    </row>
+    <row r="4418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4418" s="5" t="s">
         <v>12193</v>
       </c>
-    </row>
-    <row r="4419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4419" s="2" t="s">
+      <c r="B4418" s="7" t="s">
+        <v>12406</v>
+      </c>
+      <c r="C4418" s="7" t="s">
+        <v>12407</v>
+      </c>
+    </row>
+    <row r="4419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4419" s="5" t="s">
         <v>12194</v>
       </c>
-    </row>
-    <row r="4420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4420" s="2" t="s">
+      <c r="B4419" s="7" t="s">
+        <v>12408</v>
+      </c>
+      <c r="C4419" s="7" t="s">
+        <v>12409</v>
+      </c>
+    </row>
+    <row r="4420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4420" s="5" t="s">
         <v>12195</v>
       </c>
-    </row>
-    <row r="4421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4421" s="2" t="s">
+      <c r="B4420" s="7" t="s">
+        <v>12410</v>
+      </c>
+      <c r="C4420" s="7" t="s">
+        <v>12411</v>
+      </c>
+    </row>
+    <row r="4421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4421" s="5" t="s">
         <v>12196</v>
       </c>
-    </row>
-    <row r="4422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4422" s="2" t="s">
+      <c r="B4421" s="7" t="s">
+        <v>12412</v>
+      </c>
+      <c r="C4421" s="7" t="s">
+        <v>12413</v>
+      </c>
+    </row>
+    <row r="4422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4422" s="5" t="s">
         <v>12197</v>
       </c>
-    </row>
-    <row r="4423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4423" s="2" t="s">
+      <c r="B4422" s="7" t="s">
+        <v>12414</v>
+      </c>
+      <c r="C4422" s="7" t="s">
+        <v>12415</v>
+      </c>
+    </row>
+    <row r="4423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4423" s="5" t="s">
         <v>12198</v>
       </c>
-    </row>
-    <row r="4424" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4424" s="2" t="s">
+      <c r="B4423" s="7" t="s">
+        <v>12416</v>
+      </c>
+      <c r="C4423" s="7" t="s">
+        <v>12417</v>
+      </c>
+    </row>
+    <row r="4424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4424" s="5" t="s">
         <v>12199</v>
       </c>
-    </row>
-    <row r="4425" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4425" s="2" t="s">
+      <c r="B4424" s="7" t="s">
+        <v>12418</v>
+      </c>
+      <c r="C4424" s="7" t="s">
+        <v>12419</v>
+      </c>
+    </row>
+    <row r="4425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4425" s="5" t="s">
         <v>12200</v>
       </c>
-    </row>
-    <row r="4426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4426" s="2" t="s">
+      <c r="B4425" s="7" t="s">
+        <v>12200</v>
+      </c>
+      <c r="C4425" s="7" t="s">
+        <v>12420</v>
+      </c>
+    </row>
+    <row r="4426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4426" s="5" t="s">
         <v>12201</v>
       </c>
-    </row>
-    <row r="4427" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4427" s="2" t="s">
+      <c r="B4426" s="7" t="s">
+        <v>12421</v>
+      </c>
+      <c r="C4426" s="7" t="s">
+        <v>12422</v>
+      </c>
+    </row>
+    <row r="4427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4427" s="5" t="s">
         <v>12202</v>
       </c>
-    </row>
-    <row r="4428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4428" s="2" t="s">
+      <c r="B4427" s="7" t="s">
+        <v>12423</v>
+      </c>
+      <c r="C4427" s="7" t="s">
+        <v>12424</v>
+      </c>
+    </row>
+    <row r="4428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4428" s="5" t="s">
         <v>12203</v>
       </c>
-    </row>
-    <row r="4429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4429" s="2" t="s">
+      <c r="B4428" s="7" t="s">
+        <v>12425</v>
+      </c>
+      <c r="C4428" s="7" t="s">
+        <v>12426</v>
+      </c>
+    </row>
+    <row r="4429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4429" s="5" t="s">
         <v>12204</v>
       </c>
-    </row>
-    <row r="4430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4430" s="2" t="s">
+      <c r="B4429" s="7" t="s">
+        <v>12427</v>
+      </c>
+      <c r="C4429" s="7" t="s">
+        <v>12377</v>
+      </c>
+    </row>
+    <row r="4430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4430" s="5" t="s">
         <v>12205</v>
       </c>
-    </row>
-    <row r="4431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4431" s="2" t="s">
+      <c r="B4430" s="7" t="s">
+        <v>12428</v>
+      </c>
+      <c r="C4430" s="7" t="s">
+        <v>12429</v>
+      </c>
+    </row>
+    <row r="4431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4431" s="5" t="s">
         <v>12206</v>
       </c>
-    </row>
-    <row r="4432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4432" s="2" t="s">
+      <c r="B4431" s="7" t="s">
+        <v>12430</v>
+      </c>
+      <c r="C4431" s="7" t="s">
+        <v>12431</v>
+      </c>
+    </row>
+    <row r="4432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4432" s="5" t="s">
         <v>12207</v>
       </c>
-    </row>
-    <row r="4433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4433" s="2" t="s">
+      <c r="B4432" s="7" t="s">
+        <v>12432</v>
+      </c>
+      <c r="C4432" s="7" t="s">
+        <v>12433</v>
+      </c>
+    </row>
+    <row r="4433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4433" s="5" t="s">
         <v>12208</v>
       </c>
-    </row>
-    <row r="4434" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4434" s="2" t="s">
+      <c r="B4433" s="7" t="s">
+        <v>12208</v>
+      </c>
+      <c r="C4433" s="7" t="s">
+        <v>12434</v>
+      </c>
+    </row>
+    <row r="4434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4434" s="5" t="s">
         <v>12209</v>
       </c>
-    </row>
-    <row r="4435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4435" s="2" t="s">
+      <c r="B4434" s="7" t="s">
+        <v>12435</v>
+      </c>
+      <c r="C4434" s="7" t="s">
+        <v>12436</v>
+      </c>
+    </row>
+    <row r="4435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4435" s="5" t="s">
         <v>12210</v>
       </c>
-    </row>
-    <row r="4436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4436" s="2" t="s">
+      <c r="B4435" s="7" t="s">
+        <v>12437</v>
+      </c>
+      <c r="C4435" s="7" t="s">
+        <v>12438</v>
+      </c>
+    </row>
+    <row r="4436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4436" s="5" t="s">
         <v>12211</v>
       </c>
-    </row>
-    <row r="4437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4437" s="2" t="s">
+      <c r="B4436" s="7" t="s">
+        <v>12211</v>
+      </c>
+      <c r="C4436" s="7" t="s">
+        <v>12439</v>
+      </c>
+    </row>
+    <row r="4437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4437" s="5" t="s">
         <v>12212</v>
       </c>
-    </row>
-    <row r="4438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4438" s="2" t="s">
+      <c r="B4437" s="7" t="s">
+        <v>12440</v>
+      </c>
+      <c r="C4437" s="7" t="s">
+        <v>12441</v>
+      </c>
+    </row>
+    <row r="4438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4438" s="5" t="s">
         <v>12213</v>
       </c>
-    </row>
-    <row r="4439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4439" s="2" t="s">
+      <c r="B4438" s="7" t="s">
+        <v>12213</v>
+      </c>
+      <c r="C4438" s="7" t="s">
+        <v>12442</v>
+      </c>
+    </row>
+    <row r="4439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4439" s="5" t="s">
         <v>12214</v>
       </c>
-    </row>
-    <row r="4440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4440" s="2" t="s">
+      <c r="B4439" s="7" t="s">
+        <v>12443</v>
+      </c>
+      <c r="C4439" s="7" t="s">
+        <v>12542</v>
+      </c>
+    </row>
+    <row r="4440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4440" s="5" t="s">
         <v>12214</v>
       </c>
-    </row>
-    <row r="4441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4441" s="2" t="s">
+      <c r="B4440" s="7" t="s">
+        <v>12443</v>
+      </c>
+      <c r="C4440" s="5" t="s">
+        <v>12541</v>
+      </c>
+    </row>
+    <row r="4441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4441" s="5" t="s">
         <v>12215</v>
       </c>
-    </row>
-    <row r="4442" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4442" s="2" t="s">
+      <c r="B4441" s="7" t="s">
+        <v>12444</v>
+      </c>
+      <c r="C4441" s="7" t="s">
+        <v>12445</v>
+      </c>
+    </row>
+    <row r="4442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4442" s="5" t="s">
         <v>12216</v>
       </c>
-    </row>
-    <row r="4443" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4443" s="2" t="s">
+      <c r="B4442" s="7" t="s">
+        <v>12444</v>
+      </c>
+      <c r="C4442" s="7" t="s">
+        <v>12446</v>
+      </c>
+    </row>
+    <row r="4443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4443" s="5" t="s">
         <v>12217</v>
       </c>
-    </row>
-    <row r="4444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4444" s="2" t="s">
+      <c r="B4443" s="7" t="s">
+        <v>12447</v>
+      </c>
+      <c r="C4443" s="7" t="s">
+        <v>12448</v>
+      </c>
+    </row>
+    <row r="4444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4444" s="5" t="s">
         <v>12218</v>
       </c>
-    </row>
-    <row r="4445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4445" s="2" t="s">
+      <c r="B4444" s="7" t="s">
+        <v>12449</v>
+      </c>
+      <c r="C4444" s="7" t="s">
+        <v>12450</v>
+      </c>
+    </row>
+    <row r="4445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4445" s="5" t="s">
         <v>12219</v>
       </c>
-    </row>
-    <row r="4446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4446" s="2" t="s">
+      <c r="B4445" s="7" t="s">
+        <v>12451</v>
+      </c>
+      <c r="C4445" s="7" t="s">
+        <v>12452</v>
+      </c>
+    </row>
+    <row r="4446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4446" s="5" t="s">
         <v>12220</v>
       </c>
-    </row>
-    <row r="4447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4447" s="2" t="s">
+      <c r="B4446" s="7" t="s">
+        <v>12453</v>
+      </c>
+      <c r="C4446" s="7" t="s">
+        <v>12454</v>
+      </c>
+    </row>
+    <row r="4447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4447" s="5" t="s">
         <v>12221</v>
       </c>
-    </row>
-    <row r="4448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4448" s="2" t="s">
+      <c r="B4447" s="7" t="s">
+        <v>12221</v>
+      </c>
+      <c r="C4447" s="7" t="s">
+        <v>12455</v>
+      </c>
+    </row>
+    <row r="4448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4448" s="5" t="s">
         <v>12222</v>
       </c>
-    </row>
-    <row r="4449" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4449" s="2" t="s">
+      <c r="B4448" s="7" t="s">
+        <v>12456</v>
+      </c>
+      <c r="C4448" s="7" t="s">
+        <v>12457</v>
+      </c>
+    </row>
+    <row r="4449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4449" s="5" t="s">
         <v>12223</v>
       </c>
-    </row>
-    <row r="4450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4450" s="2" t="s">
+      <c r="B4449" s="7" t="s">
+        <v>12223</v>
+      </c>
+      <c r="C4449" s="7" t="s">
+        <v>12458</v>
+      </c>
+    </row>
+    <row r="4450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4450" s="5" t="s">
         <v>12224</v>
       </c>
-    </row>
-    <row r="4451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4451" s="6" t="s">
+      <c r="B4450" s="7" t="s">
+        <v>12224</v>
+      </c>
+      <c r="C4450" s="7" t="s">
+        <v>12459</v>
+      </c>
+    </row>
+    <row r="4451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4451" s="5" t="s">
         <v>12245</v>
       </c>
-    </row>
-    <row r="4452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4452" s="2" t="s">
+      <c r="B4451" s="7" t="s">
+        <v>12245</v>
+      </c>
+      <c r="C4451" s="7" t="s">
+        <v>12460</v>
+      </c>
+    </row>
+    <row r="4452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4452" s="5" t="s">
         <v>12225</v>
       </c>
-    </row>
-    <row r="4453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4453" s="2" t="s">
+      <c r="B4452" s="7" t="s">
+        <v>12461</v>
+      </c>
+      <c r="C4452" s="7" t="s">
+        <v>12462</v>
+      </c>
+    </row>
+    <row r="4453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4453" s="5" t="s">
         <v>12226</v>
       </c>
-    </row>
-    <row r="4454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4454" s="2" t="s">
+      <c r="B4453" s="7" t="s">
+        <v>12463</v>
+      </c>
+      <c r="C4453" s="7" t="s">
+        <v>12464</v>
+      </c>
+    </row>
+    <row r="4454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4454" s="5" t="s">
         <v>12227</v>
       </c>
-    </row>
-    <row r="4455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4455" s="2" t="s">
+      <c r="B4454" s="7" t="s">
+        <v>12465</v>
+      </c>
+      <c r="C4454" s="7" t="s">
+        <v>12466</v>
+      </c>
+    </row>
+    <row r="4455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4455" s="5" t="s">
         <v>12228</v>
       </c>
-    </row>
-    <row r="4456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4456" s="2" t="s">
+      <c r="B4455" s="7" t="s">
+        <v>12228</v>
+      </c>
+      <c r="C4455" s="7" t="s">
+        <v>12467</v>
+      </c>
+    </row>
+    <row r="4456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4456" s="5" t="s">
         <v>12229</v>
       </c>
-    </row>
-    <row r="4457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4457" s="2" t="s">
+      <c r="B4456" s="7" t="s">
+        <v>12229</v>
+      </c>
+      <c r="C4456" s="7" t="s">
+        <v>12468</v>
+      </c>
+    </row>
+    <row r="4457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4457" s="5" t="s">
         <v>12230</v>
       </c>
-    </row>
-    <row r="4458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4458" s="2" t="s">
+      <c r="B4457" s="7" t="s">
+        <v>12230</v>
+      </c>
+      <c r="C4457" s="7" t="s">
+        <v>12469</v>
+      </c>
+    </row>
+    <row r="4458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4458" s="5" t="s">
         <v>12231</v>
       </c>
-    </row>
-    <row r="4459" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4459" s="2" t="s">
+      <c r="B4458" s="7" t="s">
+        <v>12231</v>
+      </c>
+      <c r="C4458" s="7" t="s">
+        <v>12470</v>
+      </c>
+    </row>
+    <row r="4459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4459" s="5" t="s">
         <v>12232</v>
       </c>
-    </row>
-    <row r="4460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4460" s="2" t="s">
+      <c r="B4459" s="7" t="s">
+        <v>12471</v>
+      </c>
+      <c r="C4459" s="7" t="s">
+        <v>12472</v>
+      </c>
+    </row>
+    <row r="4460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4460" s="5" t="s">
         <v>12233</v>
       </c>
-    </row>
-    <row r="4461" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4461" s="2" t="s">
+      <c r="B4460" s="7" t="s">
+        <v>12473</v>
+      </c>
+      <c r="C4460" s="7" t="s">
+        <v>12474</v>
+      </c>
+    </row>
+    <row r="4461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4461" s="5" t="s">
         <v>12234</v>
       </c>
-    </row>
-    <row r="4462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4462" s="2" t="s">
+      <c r="B4461" s="7" t="s">
+        <v>12475</v>
+      </c>
+      <c r="C4461" s="7" t="s">
+        <v>12476</v>
+      </c>
+    </row>
+    <row r="4462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4462" s="5" t="s">
         <v>12235</v>
       </c>
-    </row>
-    <row r="4463" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4463" s="2" t="s">
+      <c r="B4462" s="7" t="s">
+        <v>12477</v>
+      </c>
+      <c r="C4462" s="7" t="s">
+        <v>12478</v>
+      </c>
+    </row>
+    <row r="4463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4463" s="5" t="s">
         <v>12236</v>
       </c>
-    </row>
-    <row r="4464" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4464" s="2" t="s">
+      <c r="B4463" s="7" t="s">
+        <v>12479</v>
+      </c>
+      <c r="C4463" s="7" t="s">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="4464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4464" s="5" t="s">
         <v>12237</v>
       </c>
-    </row>
-    <row r="4465" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4465" s="2" t="s">
+      <c r="B4464" s="7" t="s">
+        <v>12481</v>
+      </c>
+      <c r="C4464" s="7" t="s">
+        <v>12482</v>
+      </c>
+    </row>
+    <row r="4465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4465" s="5" t="s">
         <v>12238</v>
       </c>
-    </row>
-    <row r="4466" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4466" s="2" t="s">
+      <c r="B4465" s="7" t="s">
+        <v>12483</v>
+      </c>
+      <c r="C4465" s="7" t="s">
+        <v>12484</v>
+      </c>
+    </row>
+    <row r="4466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4466" s="5" t="s">
         <v>12239</v>
       </c>
-    </row>
-    <row r="4467" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4467" s="2" t="s">
+      <c r="B4466" s="7" t="s">
+        <v>12239</v>
+      </c>
+      <c r="C4466" s="7" t="s">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="4467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4467" s="5" t="s">
         <v>12240</v>
       </c>
-    </row>
-    <row r="4468" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4468" s="2" t="s">
+      <c r="B4467" s="7" t="s">
+        <v>12485</v>
+      </c>
+      <c r="C4467" s="7" t="s">
+        <v>12486</v>
+      </c>
+    </row>
+    <row r="4468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4468" s="5" t="s">
         <v>12241</v>
       </c>
-    </row>
-    <row r="4469" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4469" s="2" t="s">
+      <c r="B4468" s="7" t="s">
+        <v>12487</v>
+      </c>
+      <c r="C4468" s="7" t="s">
+        <v>12488</v>
+      </c>
+    </row>
+    <row r="4469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4469" s="5" t="s">
         <v>12242</v>
       </c>
-    </row>
-    <row r="4470" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4470" s="2" t="s">
+      <c r="B4469" s="7" t="s">
+        <v>12242</v>
+      </c>
+      <c r="C4469" s="7" t="s">
+        <v>12489</v>
+      </c>
+    </row>
+    <row r="4470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4470" s="5" t="s">
         <v>12243</v>
       </c>
-    </row>
-    <row r="4471" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4471" s="2" t="s">
+      <c r="B4470" s="7" t="s">
+        <v>12490</v>
+      </c>
+      <c r="C4470" s="7" t="s">
+        <v>12491</v>
+      </c>
+    </row>
+    <row r="4471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4471" s="5" t="s">
         <v>12244</v>
       </c>
-    </row>
-    <row r="4472" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4472" s="6" t="s">
+      <c r="B4471" s="7" t="s">
+        <v>12492</v>
+      </c>
+      <c r="C4471" s="7" t="s">
+        <v>12493</v>
+      </c>
+    </row>
+    <row r="4472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4472" s="5" t="s">
         <v>12246</v>
       </c>
-    </row>
-    <row r="4473" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4473" s="6" t="s">
+      <c r="B4472" s="7" t="s">
+        <v>12492</v>
+      </c>
+      <c r="C4472" s="7" t="s">
+        <v>12494</v>
+      </c>
+    </row>
+    <row r="4473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4473" s="5" t="s">
         <v>12247</v>
       </c>
-    </row>
-    <row r="4474" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4474" s="6" t="s">
+      <c r="B4473" s="7" t="s">
+        <v>12495</v>
+      </c>
+      <c r="C4473" s="7" t="s">
+        <v>12496</v>
+      </c>
+    </row>
+    <row r="4474" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4474" s="5" t="s">
         <v>12248</v>
       </c>
-    </row>
-    <row r="4475" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4475" s="6" t="s">
+      <c r="B4474" s="7" t="s">
+        <v>12497</v>
+      </c>
+      <c r="C4474" s="7" t="s">
+        <v>12498</v>
+      </c>
+    </row>
+    <row r="4475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4475" s="5" t="s">
         <v>12249</v>
       </c>
-    </row>
-    <row r="4476" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4476" s="6" t="s">
+      <c r="B4475" s="7" t="s">
+        <v>12249</v>
+      </c>
+      <c r="C4475" s="7" t="s">
+        <v>12499</v>
+      </c>
+    </row>
+    <row r="4476" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4476" s="5" t="s">
         <v>12250</v>
       </c>
-    </row>
-    <row r="4477" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4477" s="6" t="s">
+      <c r="B4476" s="7" t="s">
+        <v>12500</v>
+      </c>
+      <c r="C4476" s="7" t="s">
+        <v>12501</v>
+      </c>
+    </row>
+    <row r="4477" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4477" s="5" t="s">
         <v>12251</v>
       </c>
-    </row>
-    <row r="4478" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4478" s="6" t="s">
+      <c r="B4477" s="7" t="s">
+        <v>12251</v>
+      </c>
+      <c r="C4477" s="7" t="s">
+        <v>12502</v>
+      </c>
+    </row>
+    <row r="4478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4478" s="5" t="s">
         <v>12252</v>
       </c>
-    </row>
-    <row r="4479" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4479" s="6" t="s">
+      <c r="B4478" s="7" t="s">
+        <v>12503</v>
+      </c>
+      <c r="C4478" s="7" t="s">
+        <v>12504</v>
+      </c>
+    </row>
+    <row r="4479" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4479" s="5" t="s">
         <v>12253</v>
       </c>
-    </row>
-    <row r="4480" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4480" s="6" t="s">
+      <c r="B4479" s="7" t="s">
+        <v>12505</v>
+      </c>
+      <c r="C4479" s="7" t="s">
+        <v>11831</v>
+      </c>
+    </row>
+    <row r="4480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4480" s="5" t="s">
         <v>12254</v>
       </c>
-    </row>
-    <row r="4481" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4481" s="6" t="s">
+      <c r="B4480" s="7" t="s">
+        <v>12506</v>
+      </c>
+      <c r="C4480" s="7" t="s">
+        <v>12507</v>
+      </c>
+    </row>
+    <row r="4481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4481" s="5" t="s">
         <v>12255</v>
       </c>
-    </row>
-    <row r="4482" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4482" s="6" t="s">
+      <c r="B4481" s="7" t="s">
+        <v>12508</v>
+      </c>
+      <c r="C4481" s="7" t="s">
+        <v>12509</v>
+      </c>
+    </row>
+    <row r="4482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4482" s="5" t="s">
         <v>12256</v>
       </c>
-    </row>
-    <row r="4483" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4483" s="6" t="s">
+      <c r="B4482" s="7" t="s">
+        <v>12510</v>
+      </c>
+      <c r="C4482" s="7" t="s">
+        <v>12511</v>
+      </c>
+    </row>
+    <row r="4483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4483" s="5" t="s">
         <v>12257</v>
       </c>
-    </row>
-    <row r="4484" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4484" s="6" t="s">
+      <c r="B4483" s="7" t="s">
+        <v>12512</v>
+      </c>
+      <c r="C4483" s="7" t="s">
+        <v>12513</v>
+      </c>
+    </row>
+    <row r="4484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4484" s="5" t="s">
         <v>12258</v>
       </c>
-    </row>
-    <row r="4485" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4485" s="6" t="s">
+      <c r="B4484" s="7" t="s">
+        <v>12514</v>
+      </c>
+      <c r="C4484" s="7" t="s">
+        <v>12515</v>
+      </c>
+    </row>
+    <row r="4485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4485" s="5" t="s">
         <v>12259</v>
       </c>
-    </row>
-    <row r="4486" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4486" s="6" t="s">
+      <c r="B4485" s="7" t="s">
+        <v>12259</v>
+      </c>
+      <c r="C4485" s="7" t="s">
+        <v>12516</v>
+      </c>
+    </row>
+    <row r="4486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4486" s="5" t="s">
         <v>12260</v>
       </c>
-    </row>
-    <row r="4487" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4487" s="6" t="s">
+      <c r="B4486" s="7" t="s">
+        <v>12517</v>
+      </c>
+      <c r="C4486" s="7" t="s">
+        <v>12518</v>
+      </c>
+    </row>
+    <row r="4487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4487" s="5" t="s">
         <v>12261</v>
       </c>
-    </row>
-    <row r="4488" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4488" s="6" t="s">
+      <c r="B4487" s="7" t="s">
+        <v>12519</v>
+      </c>
+      <c r="C4487" s="7" t="s">
+        <v>12520</v>
+      </c>
+    </row>
+    <row r="4488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4488" s="5" t="s">
         <v>12262</v>
       </c>
-    </row>
-    <row r="4489" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4489" s="6" t="s">
+      <c r="B4488" s="7" t="s">
+        <v>12521</v>
+      </c>
+      <c r="C4488" s="7" t="s">
+        <v>12522</v>
+      </c>
+    </row>
+    <row r="4489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4489" s="5" t="s">
         <v>12263</v>
       </c>
-    </row>
-    <row r="4490" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4490" s="6" t="s">
+      <c r="B4489" s="7" t="s">
+        <v>12523</v>
+      </c>
+      <c r="C4489" s="7" t="s">
+        <v>12524</v>
+      </c>
+    </row>
+    <row r="4490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4490" s="5" t="s">
         <v>12264</v>
       </c>
-    </row>
-    <row r="4491" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4491" s="6" t="s">
+      <c r="B4490" s="7" t="s">
+        <v>12523</v>
+      </c>
+      <c r="C4490" s="7" t="s">
+        <v>12525</v>
+      </c>
+    </row>
+    <row r="4491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4491" s="5" t="s">
         <v>12265</v>
       </c>
-    </row>
-    <row r="4492" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4492" s="6" t="s">
+      <c r="B4491" s="7" t="s">
+        <v>12526</v>
+      </c>
+      <c r="C4491" s="7" t="s">
+        <v>12527</v>
+      </c>
+    </row>
+    <row r="4492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4492" s="5" t="s">
         <v>12266</v>
       </c>
-    </row>
-    <row r="4493" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4493" s="6" t="s">
+      <c r="B4492" s="7" t="s">
+        <v>12266</v>
+      </c>
+      <c r="C4492" s="7" t="s">
+        <v>12528</v>
+      </c>
+    </row>
+    <row r="4493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4493" s="5" t="s">
         <v>12267</v>
       </c>
-    </row>
-    <row r="4494" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4494" s="6" t="s">
+      <c r="B4493" s="7" t="s">
+        <v>12267</v>
+      </c>
+      <c r="C4493" s="7" t="s">
+        <v>12529</v>
+      </c>
+    </row>
+    <row r="4494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4494" s="5" t="s">
         <v>12268</v>
       </c>
-    </row>
-    <row r="4495" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4495" s="6" t="s">
+      <c r="B4494" s="7" t="s">
+        <v>12268</v>
+      </c>
+      <c r="C4494" s="7" t="s">
+        <v>12530</v>
+      </c>
+    </row>
+    <row r="4495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4495" s="5" t="s">
         <v>12269</v>
       </c>
-    </row>
-    <row r="4496" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4496" s="6" t="s">
+      <c r="B4495" s="7" t="s">
+        <v>12531</v>
+      </c>
+      <c r="C4495" s="7" t="s">
+        <v>12532</v>
+      </c>
+    </row>
+    <row r="4496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4496" s="5" t="s">
         <v>12270</v>
       </c>
-    </row>
-    <row r="4497" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4497" s="6" t="s">
+      <c r="B4496" s="7" t="s">
+        <v>12533</v>
+      </c>
+      <c r="C4496" s="7" t="s">
+        <v>12534</v>
+      </c>
+    </row>
+    <row r="4497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4497" s="5" t="s">
         <v>12271</v>
       </c>
-    </row>
-    <row r="4498" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4498" s="6" t="s">
+      <c r="B4497" s="7" t="s">
+        <v>12535</v>
+      </c>
+      <c r="C4497" s="7" t="s">
+        <v>12536</v>
+      </c>
+    </row>
+    <row r="4498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4498" s="5" t="s">
         <v>12272</v>
       </c>
-    </row>
-    <row r="4499" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4499" s="6" t="s">
+      <c r="B4498" s="7" t="s">
+        <v>12535</v>
+      </c>
+      <c r="C4498" s="7" t="s">
+        <v>12537</v>
+      </c>
+    </row>
+    <row r="4499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4499" s="5" t="s">
         <v>12273</v>
       </c>
-    </row>
-    <row r="4500" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4500" s="6" t="s">
+      <c r="B4499" s="7" t="s">
+        <v>12273</v>
+      </c>
+      <c r="C4499" s="7" t="s">
+        <v>12538</v>
+      </c>
+    </row>
+    <row r="4500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4500" s="5" t="s">
         <v>12274</v>
+      </c>
+      <c r="B4500" s="7" t="s">
+        <v>12539</v>
+      </c>
+      <c r="C4500" s="7" t="s">
+        <v>12540</v>
+      </c>
+    </row>
+    <row r="4501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4501" s="5" t="s">
+        <v>12275</v>
+      </c>
+      <c r="B4501" s="7" t="s">
+        <v>12543</v>
+      </c>
+      <c r="C4501" s="7" t="s">
+        <v>12544</v>
+      </c>
+    </row>
+    <row r="4502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4502" s="5" t="s">
+        <v>12276</v>
+      </c>
+      <c r="B4502" s="7" t="s">
+        <v>12276</v>
+      </c>
+      <c r="C4502" s="7" t="s">
+        <v>12545</v>
+      </c>
+    </row>
+    <row r="4503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4503" s="5" t="s">
+        <v>12277</v>
+      </c>
+      <c r="B4503" s="7" t="s">
+        <v>12277</v>
+      </c>
+      <c r="C4503" s="7" t="s">
+        <v>12546</v>
+      </c>
+    </row>
+    <row r="4504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4504" s="5" t="s">
+        <v>12278</v>
+      </c>
+      <c r="B4504" s="7" t="s">
+        <v>12547</v>
+      </c>
+      <c r="C4504" s="7" t="s">
+        <v>12548</v>
+      </c>
+    </row>
+    <row r="4505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4505" s="5" t="s">
+        <v>12279</v>
+      </c>
+      <c r="B4505" s="7" t="s">
+        <v>12549</v>
+      </c>
+      <c r="C4505" s="7" t="s">
+        <v>12550</v>
+      </c>
+    </row>
+    <row r="4506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4506" s="5" t="s">
+        <v>12280</v>
+      </c>
+      <c r="B4506" s="7" t="s">
+        <v>12551</v>
+      </c>
+      <c r="C4506" s="7" t="s">
+        <v>12552</v>
+      </c>
+    </row>
+    <row r="4507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4507" s="5" t="s">
+        <v>12281</v>
+      </c>
+      <c r="B4507" s="7" t="s">
+        <v>12553</v>
+      </c>
+      <c r="C4507" s="7" t="s">
+        <v>12554</v>
+      </c>
+    </row>
+    <row r="4508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4508" s="5" t="s">
+        <v>12282</v>
+      </c>
+      <c r="B4508" s="7" t="s">
+        <v>12555</v>
+      </c>
+      <c r="C4508" s="7" t="s">
+        <v>12556</v>
+      </c>
+    </row>
+    <row r="4509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4509" s="5" t="s">
+        <v>12283</v>
+      </c>
+      <c r="B4509" s="7" t="s">
+        <v>12557</v>
+      </c>
+      <c r="C4509" s="7" t="s">
+        <v>12558</v>
+      </c>
+    </row>
+    <row r="4510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4510" s="5" t="s">
+        <v>12284</v>
+      </c>
+      <c r="B4510" s="7" t="s">
+        <v>12559</v>
+      </c>
+      <c r="C4510" s="7" t="s">
+        <v>12560</v>
+      </c>
+    </row>
+    <row r="4511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4511" s="5" t="s">
+        <v>12285</v>
+      </c>
+      <c r="B4511" s="7" t="s">
+        <v>12561</v>
+      </c>
+      <c r="C4511" s="7" t="s">
+        <v>12562</v>
+      </c>
+    </row>
+    <row r="4512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4512" s="5" t="s">
+        <v>12286</v>
+      </c>
+      <c r="B4512" s="7" t="s">
+        <v>12563</v>
+      </c>
+      <c r="C4512" s="7" t="s">
+        <v>12564</v>
+      </c>
+    </row>
+    <row r="4513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4513" s="5" t="s">
+        <v>12287</v>
+      </c>
+      <c r="B4513" s="7" t="s">
+        <v>12565</v>
+      </c>
+      <c r="C4513" s="7" t="s">
+        <v>12566</v>
+      </c>
+    </row>
+    <row r="4514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4514" s="5" t="s">
+        <v>12288</v>
+      </c>
+      <c r="B4514" s="7" t="s">
+        <v>12567</v>
+      </c>
+      <c r="C4514" s="7" t="s">
+        <v>12568</v>
+      </c>
+    </row>
+    <row r="4515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4515" s="5" t="s">
+        <v>12289</v>
+      </c>
+      <c r="B4515" s="7" t="s">
+        <v>12569</v>
+      </c>
+      <c r="C4515" s="7" t="s">
+        <v>12570</v>
+      </c>
+    </row>
+    <row r="4516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4516" s="5" t="s">
+        <v>12290</v>
+      </c>
+      <c r="B4516" s="7" t="s">
+        <v>12571</v>
+      </c>
+      <c r="C4516" s="7" t="s">
+        <v>12572</v>
+      </c>
+    </row>
+    <row r="4517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4517" s="5" t="s">
+        <v>12291</v>
+      </c>
+      <c r="B4517" s="7" t="s">
+        <v>12573</v>
+      </c>
+      <c r="C4517" s="7" t="s">
+        <v>12574</v>
+      </c>
+    </row>
+    <row r="4518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4518" s="5" t="s">
+        <v>12292</v>
+      </c>
+      <c r="B4518" s="7" t="s">
+        <v>12575</v>
+      </c>
+      <c r="C4518" s="7" t="s">
+        <v>12576</v>
+      </c>
+    </row>
+    <row r="4519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4519" s="5" t="s">
+        <v>12293</v>
+      </c>
+      <c r="B4519" s="7" t="s">
+        <v>12575</v>
+      </c>
+      <c r="C4519" s="7" t="s">
+        <v>12577</v>
+      </c>
+    </row>
+    <row r="4520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4520" s="5" t="s">
+        <v>12294</v>
+      </c>
+      <c r="B4520" s="7" t="s">
+        <v>12295</v>
+      </c>
+      <c r="C4520" s="7" t="s">
+        <v>12578</v>
+      </c>
+    </row>
+    <row r="4521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4521" s="5" t="s">
+        <v>12295</v>
+      </c>
+      <c r="B4521" s="7" t="s">
+        <v>12295</v>
+      </c>
+      <c r="C4521" s="7" t="s">
+        <v>12579</v>
+      </c>
+    </row>
+    <row r="4522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4522" s="5" t="s">
+        <v>12296</v>
+      </c>
+      <c r="B4522" s="7" t="s">
+        <v>12296</v>
+      </c>
+      <c r="C4522" s="7" t="s">
+        <v>12580</v>
+      </c>
+    </row>
+    <row r="4523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4523" s="5" t="s">
+        <v>12297</v>
+      </c>
+      <c r="B4523" s="7" t="s">
+        <v>12581</v>
+      </c>
+      <c r="C4523" s="7" t="s">
+        <v>12582</v>
+      </c>
+    </row>
+    <row r="4524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4524" s="5" t="s">
+        <v>12298</v>
+      </c>
+      <c r="B4524" s="7" t="s">
+        <v>12583</v>
+      </c>
+      <c r="C4524" s="7" t="s">
+        <v>12584</v>
+      </c>
+    </row>
+    <row r="4525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4525" s="5" t="s">
+        <v>12299</v>
+      </c>
+      <c r="B4525" s="7" t="s">
+        <v>12585</v>
+      </c>
+      <c r="C4525" s="7" t="s">
+        <v>12586</v>
+      </c>
+    </row>
+    <row r="4526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4526" s="5" t="s">
+        <v>12300</v>
+      </c>
+      <c r="B4526" s="7" t="s">
+        <v>12587</v>
+      </c>
+      <c r="C4526" s="7" t="s">
+        <v>12588</v>
+      </c>
+    </row>
+    <row r="4527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4527" s="5" t="s">
+        <v>12301</v>
+      </c>
+      <c r="B4527" s="7" t="s">
+        <v>12589</v>
+      </c>
+      <c r="C4527" s="7" t="s">
+        <v>12590</v>
+      </c>
+    </row>
+    <row r="4528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4528" s="5" t="s">
+        <v>12302</v>
+      </c>
+      <c r="B4528" s="7" t="s">
+        <v>12591</v>
+      </c>
+      <c r="C4528" s="7" t="s">
+        <v>12592</v>
+      </c>
+    </row>
+    <row r="4529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4529" s="5" t="s">
+        <v>12303</v>
+      </c>
+      <c r="B4529" s="7" t="s">
+        <v>12593</v>
+      </c>
+      <c r="C4529" s="7" t="s">
+        <v>12594</v>
+      </c>
+    </row>
+    <row r="4530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4530" s="5" t="s">
+        <v>12304</v>
+      </c>
+      <c r="B4530" s="7" t="s">
+        <v>12595</v>
+      </c>
+      <c r="C4530" s="7" t="s">
+        <v>12596</v>
+      </c>
+    </row>
+    <row r="4531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4531" s="5" t="s">
+        <v>12305</v>
+      </c>
+      <c r="B4531" s="7" t="s">
+        <v>12597</v>
+      </c>
+      <c r="C4531" s="7" t="s">
+        <v>12598</v>
+      </c>
+    </row>
+    <row r="4532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4532" s="5" t="s">
+        <v>12306</v>
+      </c>
+      <c r="B4532" s="7" t="s">
+        <v>12306</v>
+      </c>
+      <c r="C4532" s="7" t="s">
+        <v>12599</v>
+      </c>
+    </row>
+    <row r="4533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4533" s="5" t="s">
+        <v>12307</v>
+      </c>
+      <c r="B4533" s="7" t="s">
+        <v>12600</v>
+      </c>
+      <c r="C4533" s="7" t="s">
+        <v>12601</v>
+      </c>
+    </row>
+    <row r="4534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4534" s="5" t="s">
+        <v>12308</v>
+      </c>
+      <c r="B4534" s="7" t="s">
+        <v>12602</v>
+      </c>
+      <c r="C4534" s="7" t="s">
+        <v>12603</v>
+      </c>
+    </row>
+    <row r="4535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4535" s="5" t="s">
+        <v>12309</v>
+      </c>
+      <c r="B4535" s="7" t="s">
+        <v>12604</v>
+      </c>
+      <c r="C4535" s="7" t="s">
+        <v>12605</v>
+      </c>
+    </row>
+    <row r="4536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4536" s="5" t="s">
+        <v>12310</v>
+      </c>
+      <c r="B4536" s="7" t="s">
+        <v>12606</v>
+      </c>
+      <c r="C4536" s="7" t="s">
+        <v>12607</v>
+      </c>
+    </row>
+    <row r="4537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4537" s="5" t="s">
+        <v>12311</v>
+      </c>
+      <c r="B4537" s="7" t="s">
+        <v>12311</v>
+      </c>
+      <c r="C4537" s="7" t="s">
+        <v>12608</v>
+      </c>
+    </row>
+    <row r="4538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4538" s="5" t="s">
+        <v>12312</v>
+      </c>
+      <c r="B4538" s="7" t="s">
+        <v>12609</v>
+      </c>
+      <c r="C4538" s="7" t="s">
+        <v>12610</v>
+      </c>
+    </row>
+    <row r="4539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4539" s="5" t="s">
+        <v>12313</v>
+      </c>
+      <c r="B4539" s="7" t="s">
+        <v>12611</v>
+      </c>
+      <c r="C4539" s="7" t="s">
+        <v>12612</v>
+      </c>
+    </row>
+    <row r="4540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4540" s="5" t="s">
+        <v>12314</v>
+      </c>
+      <c r="B4540" s="7" t="s">
+        <v>12611</v>
+      </c>
+      <c r="C4540" s="7" t="s">
+        <v>12613</v>
+      </c>
+    </row>
+    <row r="4541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4541" s="5" t="s">
+        <v>12315</v>
+      </c>
+      <c r="B4541" s="7" t="s">
+        <v>12611</v>
+      </c>
+      <c r="C4541" s="7" t="s">
+        <v>12614</v>
+      </c>
+    </row>
+    <row r="4542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4542" s="5" t="s">
+        <v>12316</v>
+      </c>
+      <c r="B4542" s="7" t="s">
+        <v>12611</v>
+      </c>
+      <c r="C4542" s="7" t="s">
+        <v>12615</v>
+      </c>
+    </row>
+    <row r="4543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4543" s="5" t="s">
+        <v>12317</v>
+      </c>
+      <c r="B4543" s="7" t="s">
+        <v>12611</v>
+      </c>
+      <c r="C4543" s="7" t="s">
+        <v>12616</v>
+      </c>
+    </row>
+    <row r="4544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4544" s="5" t="s">
+        <v>12318</v>
+      </c>
+      <c r="B4544" s="7" t="s">
+        <v>12617</v>
+      </c>
+      <c r="C4544" s="7" t="s">
+        <v>12618</v>
+      </c>
+    </row>
+    <row r="4545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4545" s="5" t="s">
+        <v>12319</v>
+      </c>
+      <c r="B4545" s="7" t="s">
+        <v>12619</v>
+      </c>
+      <c r="C4545" s="7" t="s">
+        <v>12620</v>
+      </c>
+    </row>
+    <row r="4546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4546" s="5" t="s">
+        <v>12320</v>
+      </c>
+      <c r="B4546" s="7" t="s">
+        <v>12621</v>
+      </c>
+      <c r="C4546" s="7" t="s">
+        <v>12622</v>
+      </c>
+    </row>
+    <row r="4547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4547" s="5" t="s">
+        <v>12321</v>
+      </c>
+      <c r="B4547" s="7" t="s">
+        <v>12623</v>
+      </c>
+      <c r="C4547" s="7" t="s">
+        <v>12624</v>
+      </c>
+    </row>
+    <row r="4548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4548" s="5" t="s">
+        <v>12322</v>
+      </c>
+      <c r="B4548" s="7" t="s">
+        <v>12625</v>
+      </c>
+      <c r="C4548" s="7" t="s">
+        <v>12626</v>
+      </c>
+    </row>
+    <row r="4549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4549" s="5" t="s">
+        <v>12323</v>
+      </c>
+      <c r="B4549" s="7" t="s">
+        <v>12627</v>
+      </c>
+      <c r="C4549" s="7" t="s">
+        <v>12628</v>
+      </c>
+    </row>
+    <row r="4550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4550" s="5" t="s">
+        <v>12324</v>
+      </c>
+      <c r="B4550" s="7" t="s">
+        <v>12629</v>
+      </c>
+      <c r="C4550" s="7" t="s">
+        <v>12630</v>
+      </c>
+    </row>
+    <row r="4551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4551" s="5" t="s">
+        <v>12325</v>
+      </c>
+      <c r="B4551" s="7" t="s">
+        <v>12295</v>
+      </c>
+      <c r="C4551" s="7" t="s">
+        <v>12631</v>
+      </c>
+    </row>
+    <row r="4552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4552" s="5" t="s">
+        <v>12326</v>
+      </c>
+      <c r="B4552" s="7" t="s">
+        <v>12632</v>
+      </c>
+      <c r="C4552" s="7" t="s">
+        <v>12633</v>
+      </c>
+    </row>
+    <row r="4553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4553" s="5" t="s">
+        <v>12327</v>
+      </c>
+      <c r="B4553" s="7" t="s">
+        <v>12327</v>
+      </c>
+      <c r="C4553" s="7" t="s">
+        <v>12634</v>
+      </c>
+    </row>
+    <row r="4554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4554" s="5" t="s">
+        <v>12328</v>
+      </c>
+      <c r="B4554" s="7" t="s">
+        <v>12328</v>
+      </c>
+      <c r="C4554" s="7" t="s">
+        <v>12635</v>
+      </c>
+    </row>
+    <row r="4555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4555" s="5" t="s">
+        <v>12329</v>
+      </c>
+      <c r="B4555" s="7" t="s">
+        <v>12329</v>
+      </c>
+      <c r="C4555" s="7" t="s">
+        <v>12636</v>
+      </c>
+    </row>
+    <row r="4556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4556" s="5" t="s">
+        <v>12330</v>
+      </c>
+      <c r="B4556" s="7" t="s">
+        <v>12637</v>
+      </c>
+      <c r="C4556" s="7" t="s">
+        <v>12638</v>
+      </c>
+    </row>
+    <row r="4557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4557" s="5" t="s">
+        <v>12331</v>
+      </c>
+      <c r="B4557" s="7" t="s">
+        <v>12637</v>
+      </c>
+      <c r="C4557" s="7" t="s">
+        <v>12639</v>
+      </c>
+    </row>
+    <row r="4558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4558" s="5" t="s">
+        <v>12332</v>
+      </c>
+      <c r="B4558" s="7" t="s">
+        <v>12640</v>
+      </c>
+      <c r="C4558" s="7" t="s">
+        <v>12641</v>
+      </c>
+    </row>
+    <row r="4559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4559" s="5" t="s">
+        <v>12333</v>
+      </c>
+      <c r="B4559" s="7" t="s">
+        <v>12642</v>
+      </c>
+      <c r="C4559" s="7" t="s">
+        <v>12643</v>
+      </c>
+    </row>
+    <row r="4560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4560" s="5" t="s">
+        <v>12334</v>
+      </c>
+      <c r="B4560" s="7" t="s">
+        <v>12644</v>
+      </c>
+      <c r="C4560" s="7" t="s">
+        <v>12645</v>
+      </c>
+    </row>
+    <row r="4561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4561" s="5" t="s">
+        <v>12335</v>
+      </c>
+      <c r="B4561" s="7" t="s">
+        <v>12646</v>
+      </c>
+      <c r="C4561" s="7" t="s">
+        <v>12647</v>
+      </c>
+    </row>
+    <row r="4562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4562" s="5" t="s">
+        <v>12336</v>
+      </c>
+      <c r="B4562" s="7" t="s">
+        <v>12648</v>
+      </c>
+      <c r="C4562" s="7" t="s">
+        <v>12649</v>
+      </c>
+    </row>
+    <row r="4563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4563" s="5" t="s">
+        <v>12337</v>
+      </c>
+      <c r="B4563" s="7" t="s">
+        <v>12650</v>
+      </c>
+      <c r="C4563" s="7" t="s">
+        <v>12651</v>
+      </c>
+    </row>
+    <row r="4564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4564" s="5" t="s">
+        <v>12338</v>
+      </c>
+      <c r="B4564" s="7" t="s">
+        <v>12650</v>
+      </c>
+      <c r="C4564" s="7" t="s">
+        <v>12652</v>
+      </c>
+    </row>
+    <row r="4565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4565" s="5" t="s">
+        <v>12339</v>
+      </c>
+      <c r="B4565" s="7" t="s">
+        <v>12650</v>
+      </c>
+      <c r="C4565" s="7" t="s">
+        <v>12653</v>
+      </c>
+    </row>
+    <row r="4566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4566" s="5" t="s">
+        <v>12340</v>
+      </c>
+      <c r="B4566" s="7" t="s">
+        <v>12340</v>
+      </c>
+      <c r="C4566" s="7" t="s">
+        <v>12654</v>
+      </c>
+    </row>
+    <row r="4567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4567" s="5" t="s">
+        <v>12341</v>
+      </c>
+      <c r="B4567" s="7" t="s">
+        <v>12655</v>
+      </c>
+      <c r="C4567" s="7" t="s">
+        <v>12656</v>
+      </c>
+    </row>
+    <row r="4568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4568" s="5" t="s">
+        <v>12342</v>
+      </c>
+      <c r="B4568" s="7" t="s">
+        <v>12657</v>
+      </c>
+      <c r="C4568" s="7" t="s">
+        <v>12658</v>
+      </c>
+    </row>
+    <row r="4569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4569" s="5" t="s">
+        <v>12343</v>
+      </c>
+      <c r="B4569" s="7" t="s">
+        <v>12343</v>
+      </c>
+      <c r="C4569" s="7" t="s">
+        <v>12659</v>
+      </c>
+    </row>
+    <row r="4570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4570" s="5" t="s">
+        <v>12344</v>
+      </c>
+      <c r="B4570" s="7" t="s">
+        <v>12343</v>
+      </c>
+      <c r="C4570" s="7" t="s">
+        <v>12660</v>
+      </c>
+    </row>
+    <row r="4571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4571" s="5" t="s">
+        <v>12345</v>
+      </c>
+      <c r="B4571" s="7" t="s">
+        <v>12661</v>
+      </c>
+      <c r="C4571" s="7" t="s">
+        <v>12662</v>
+      </c>
+    </row>
+    <row r="4572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4572" s="5" t="s">
+        <v>12346</v>
+      </c>
+      <c r="B4572" s="7" t="s">
+        <v>12663</v>
+      </c>
+      <c r="C4572" s="7" t="s">
+        <v>12664</v>
+      </c>
+    </row>
+    <row r="4573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4573" s="5" t="s">
+        <v>12347</v>
+      </c>
+      <c r="B4573" s="7" t="s">
+        <v>12347</v>
+      </c>
+      <c r="C4573" s="7" t="s">
+        <v>12665</v>
+      </c>
+    </row>
+    <row r="4574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4574" s="5" t="s">
+        <v>12348</v>
+      </c>
+      <c r="B4574" s="7" t="s">
+        <v>12666</v>
+      </c>
+      <c r="C4574" s="7" t="s">
+        <v>12667</v>
+      </c>
+    </row>
+    <row r="4575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4575" s="5" t="s">
+        <v>12349</v>
+      </c>
+      <c r="B4575" s="7" t="s">
+        <v>12668</v>
+      </c>
+      <c r="C4575" s="7" t="s">
+        <v>12669</v>
+      </c>
+    </row>
+    <row r="4576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4576" s="5" t="s">
+        <v>12350</v>
+      </c>
+      <c r="B4576" s="7" t="s">
+        <v>12670</v>
+      </c>
+      <c r="C4576" s="7" t="s">
+        <v>12671</v>
+      </c>
+    </row>
+    <row r="4577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4577" s="5" t="s">
+        <v>12351</v>
+      </c>
+      <c r="B4577" s="7" t="s">
+        <v>12672</v>
+      </c>
+      <c r="C4577" s="7" t="s">
+        <v>12673</v>
+      </c>
+    </row>
+    <row r="4578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4578" s="5" t="s">
+        <v>12352</v>
+      </c>
+      <c r="B4578" s="7" t="s">
+        <v>12674</v>
+      </c>
+      <c r="C4578" s="7" t="s">
+        <v>12675</v>
+      </c>
+    </row>
+    <row r="4579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4579" s="5" t="s">
+        <v>12353</v>
+      </c>
+      <c r="B4579" s="7" t="s">
+        <v>12676</v>
+      </c>
+      <c r="C4579" s="7" t="s">
+        <v>12677</v>
+      </c>
+    </row>
+    <row r="4580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4580" s="5" t="s">
+        <v>12354</v>
+      </c>
+      <c r="B4580" s="7" t="s">
+        <v>12678</v>
+      </c>
+      <c r="C4580" s="7" t="s">
+        <v>12679</v>
+      </c>
+    </row>
+    <row r="4581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4581" s="5" t="s">
+        <v>12356</v>
+      </c>
+      <c r="B4581" s="7" t="s">
+        <v>12680</v>
+      </c>
+      <c r="C4581" s="7" t="s">
+        <v>12681</v>
+      </c>
+    </row>
+    <row r="4582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4582" s="5" t="s">
+        <v>12355</v>
+      </c>
+      <c r="B4582" s="7" t="s">
+        <v>12682</v>
+      </c>
+      <c r="C4582" s="7" t="s">
+        <v>12683</v>
+      </c>
+    </row>
+    <row r="4583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4583" s="5" t="s">
+        <v>12357</v>
+      </c>
+      <c r="B4583" s="7" t="s">
+        <v>12684</v>
+      </c>
+      <c r="C4583" s="7" t="s">
+        <v>12685</v>
+      </c>
+    </row>
+    <row r="4584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4584" s="5" t="s">
+        <v>12358</v>
+      </c>
+      <c r="B4584" s="7" t="s">
+        <v>12686</v>
+      </c>
+      <c r="C4584" s="7" t="s">
+        <v>12687</v>
+      </c>
+    </row>
+    <row r="4585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4585" s="5" t="s">
+        <v>12359</v>
+      </c>
+      <c r="B4585" s="7" t="s">
+        <v>12688</v>
+      </c>
+      <c r="C4585" s="7" t="s">
+        <v>12689</v>
+      </c>
+    </row>
+    <row r="4586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4586" s="5" t="s">
+        <v>12360</v>
+      </c>
+      <c r="B4586" s="7" t="s">
+        <v>12690</v>
+      </c>
+      <c r="C4586" s="7" t="s">
+        <v>12691</v>
+      </c>
+    </row>
+    <row r="4587" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4587" s="5" t="s">
+        <v>12361</v>
+      </c>
+      <c r="B4587" s="7" t="s">
+        <v>12361</v>
+      </c>
+      <c r="C4587" s="7" t="s">
+        <v>12692</v>
+      </c>
+    </row>
+    <row r="4588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4588" s="5" t="s">
+        <v>12362</v>
+      </c>
+      <c r="B4588" s="7" t="s">
+        <v>12362</v>
+      </c>
+      <c r="C4588" s="7" t="s">
+        <v>12693</v>
+      </c>
+    </row>
+    <row r="4589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4589" s="5" t="s">
+        <v>12363</v>
+      </c>
+      <c r="B4589" s="7" t="s">
+        <v>12694</v>
+      </c>
+      <c r="C4589" s="7" t="s">
+        <v>12695</v>
+      </c>
+    </row>
+    <row r="4590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4590" s="5" t="s">
+        <v>12364</v>
+      </c>
+      <c r="B4590" s="7" t="s">
+        <v>12696</v>
+      </c>
+      <c r="C4590" s="7" t="s">
+        <v>12697</v>
+      </c>
+    </row>
+    <row r="4591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4591" s="5" t="s">
+        <v>12365</v>
+      </c>
+      <c r="B4591" s="7" t="s">
+        <v>12696</v>
+      </c>
+      <c r="C4591" s="7" t="s">
+        <v>12698</v>
+      </c>
+    </row>
+    <row r="4592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4592" s="5" t="s">
+        <v>12366</v>
+      </c>
+      <c r="B4592" s="7" t="s">
+        <v>12696</v>
+      </c>
+      <c r="C4592" s="7" t="s">
+        <v>12699</v>
+      </c>
+    </row>
+    <row r="4593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4593" s="5" t="s">
+        <v>12367</v>
+      </c>
+      <c r="B4593" s="7" t="s">
+        <v>12367</v>
+      </c>
+      <c r="C4593" s="7" t="s">
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="4594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4594" s="5" t="s">
+        <v>12368</v>
+      </c>
+      <c r="B4594" s="7" t="s">
+        <v>12368</v>
+      </c>
+      <c r="C4594" s="7" t="s">
+        <v>12701</v>
+      </c>
+    </row>
+    <row r="4595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4595" s="5" t="s">
+        <v>12369</v>
+      </c>
+      <c r="B4595" s="7" t="s">
+        <v>12369</v>
+      </c>
+      <c r="C4595" s="7" t="s">
+        <v>12702</v>
+      </c>
+    </row>
+    <row r="4596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4596" s="5" t="s">
+        <v>12370</v>
+      </c>
+      <c r="B4596" s="7" t="s">
+        <v>12370</v>
+      </c>
+      <c r="C4596" s="7" t="s">
+        <v>12703</v>
+      </c>
+    </row>
+    <row r="4597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4597" s="5" t="s">
+        <v>12371</v>
+      </c>
+      <c r="B4597" s="7" t="s">
+        <v>12704</v>
+      </c>
+      <c r="C4597" s="7" t="s">
+        <v>12705</v>
+      </c>
+    </row>
+    <row r="4598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4598" s="5" t="s">
+        <v>12372</v>
+      </c>
+      <c r="B4598" s="7" t="s">
+        <v>12706</v>
+      </c>
+      <c r="C4598" s="7" t="s">
+        <v>10385</v>
+      </c>
+    </row>
+    <row r="4599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4599" s="5" t="s">
+        <v>12373</v>
+      </c>
+      <c r="B4599" s="7" t="s">
+        <v>12707</v>
+      </c>
+      <c r="C4599" s="7" t="s">
+        <v>12708</v>
+      </c>
+    </row>
+    <row r="4600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4600" s="5" t="s">
+        <v>12374</v>
+      </c>
+      <c r="B4600" s="7" t="s">
+        <v>12709</v>
+      </c>
+      <c r="C4600" s="7" t="s">
+        <v>12710</v>
+      </c>
+    </row>
+    <row r="4601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4601" s="5" t="s">
+        <v>12711</v>
+      </c>
+    </row>
+    <row r="4602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4602" s="5" t="s">
+        <v>12712</v>
+      </c>
+    </row>
+    <row r="4603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4603" s="5" t="s">
+        <v>12713</v>
+      </c>
+    </row>
+    <row r="4604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4604" s="5" t="s">
+        <v>12714</v>
+      </c>
+    </row>
+    <row r="4605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4605" s="5" t="s">
+        <v>12715</v>
+      </c>
+    </row>
+    <row r="4606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4606" s="5" t="s">
+        <v>12716</v>
+      </c>
+    </row>
+    <row r="4607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4607" s="5" t="s">
+        <v>12717</v>
+      </c>
+    </row>
+    <row r="4608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4608" s="5" t="s">
+        <v>12718</v>
+      </c>
+    </row>
+    <row r="4609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4609" s="5" t="s">
+        <v>12719</v>
+      </c>
+    </row>
+    <row r="4610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4610" s="5" t="s">
+        <v>12720</v>
+      </c>
+    </row>
+    <row r="4611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4611" s="5" t="s">
+        <v>12721</v>
+      </c>
+    </row>
+    <row r="4612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4612" s="5" t="s">
+        <v>12722</v>
+      </c>
+    </row>
+    <row r="4613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4613" s="5" t="s">
+        <v>12723</v>
+      </c>
+    </row>
+    <row r="4614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4614" s="5" t="s">
+        <v>12724</v>
+      </c>
+    </row>
+    <row r="4615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4615" s="5" t="s">
+        <v>12725</v>
+      </c>
+    </row>
+    <row r="4616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4616" s="5" t="s">
+        <v>12726</v>
+      </c>
+    </row>
+    <row r="4617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4617" s="5" t="s">
+        <v>12727</v>
+      </c>
+    </row>
+    <row r="4618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4618" s="5" t="s">
+        <v>12728</v>
+      </c>
+    </row>
+    <row r="4619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4619" s="5" t="s">
+        <v>12729</v>
+      </c>
+    </row>
+    <row r="4620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4620" s="5" t="s">
+        <v>12730</v>
+      </c>
+    </row>
+    <row r="4621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4621" s="5" t="s">
+        <v>12731</v>
+      </c>
+    </row>
+    <row r="4622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4622" s="5" t="s">
+        <v>12732</v>
+      </c>
+    </row>
+    <row r="4623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4623" s="5" t="s">
+        <v>12733</v>
+      </c>
+    </row>
+    <row r="4624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4624" s="5" t="s">
+        <v>12734</v>
+      </c>
+    </row>
+    <row r="4625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4625" s="5" t="s">
+        <v>12735</v>
+      </c>
+    </row>
+    <row r="4626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4626" s="5" t="s">
+        <v>12736</v>
+      </c>
+    </row>
+    <row r="4627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4627" s="5" t="s">
+        <v>12737</v>
+      </c>
+    </row>
+    <row r="4628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4628" s="5" t="s">
+        <v>12738</v>
+      </c>
+    </row>
+    <row r="4629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4629" s="5" t="s">
+        <v>12739</v>
+      </c>
+    </row>
+    <row r="4630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4630" s="5" t="s">
+        <v>12740</v>
+      </c>
+    </row>
+    <row r="4631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4631" s="5" t="s">
+        <v>12741</v>
+      </c>
+    </row>
+    <row r="4632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4632" s="5" t="s">
+        <v>12742</v>
+      </c>
+    </row>
+    <row r="4633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4633" s="5" t="s">
+        <v>12743</v>
+      </c>
+    </row>
+    <row r="4634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4634" s="5" t="s">
+        <v>12744</v>
+      </c>
+    </row>
+    <row r="4635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4635" s="5" t="s">
+        <v>12745</v>
+      </c>
+    </row>
+    <row r="4636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4636" s="5" t="s">
+        <v>12746</v>
+      </c>
+    </row>
+    <row r="4637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4637" s="5" t="s">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="4638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4638" s="5" t="s">
+        <v>12748</v>
+      </c>
+    </row>
+    <row r="4639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4639" s="5" t="s">
+        <v>12749</v>
+      </c>
+    </row>
+    <row r="4640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4640" s="5" t="s">
+        <v>12750</v>
+      </c>
+    </row>
+    <row r="4641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4641" s="5" t="s">
+        <v>12751</v>
+      </c>
+    </row>
+    <row r="4642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4642" s="5" t="s">
+        <v>12752</v>
+      </c>
+    </row>
+    <row r="4643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4643" s="5" t="s">
+        <v>12753</v>
+      </c>
+    </row>
+    <row r="4644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4644" s="5" t="s">
+        <v>12754</v>
+      </c>
+    </row>
+    <row r="4645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4645" s="5" t="s">
+        <v>12755</v>
+      </c>
+    </row>
+    <row r="4646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4646" s="5" t="s">
+        <v>12756</v>
+      </c>
+    </row>
+    <row r="4647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4647" s="5" t="s">
+        <v>12757</v>
+      </c>
+    </row>
+    <row r="4648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4648" s="5" t="s">
+        <v>12758</v>
+      </c>
+    </row>
+    <row r="4649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4649" s="5" t="s">
+        <v>12759</v>
+      </c>
+    </row>
+    <row r="4650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4650" s="5" t="s">
+        <v>12760</v>
       </c>
     </row>
   </sheetData>
